--- a/Requirments/Review.xlsx
+++ b/Requirments/Review.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ITI\QA\Online-Mobile-Store-WebSite\Requirments\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\ITI9M-Testing\Core\QA\WorkShop\Online-Mobile-Store-WebSite\Requirments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0819354C-5578-4EB7-B026-12DBF3C2B363}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BDF611E-DFA9-4AFE-BE73-D24AE76A27BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="64">
   <si>
     <t>ID</t>
   </si>
@@ -203,13 +203,22 @@
   </si>
   <si>
     <t>CRS Document Reviewe</t>
+  </si>
+  <si>
+    <t>CRS_Client_006</t>
+  </si>
+  <si>
+    <t>What mean by modify product count ?</t>
+  </si>
+  <si>
+    <t>CRS File</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -256,6 +265,18 @@
     <font>
       <b/>
       <sz val="20"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -314,7 +335,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -327,9 +348,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -347,6 +365,21 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -567,22 +600,22 @@
   </sheetPr>
   <dimension ref="A1:AC991"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+    <sheetView tabSelected="1" topLeftCell="B5" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24" customWidth="1"/>
-    <col min="2" max="2" width="27.28515625" customWidth="1"/>
-    <col min="3" max="3" width="20.7109375" customWidth="1"/>
+    <col min="2" max="2" width="27.33203125" customWidth="1"/>
+    <col min="3" max="3" width="20.6640625" customWidth="1"/>
     <col min="4" max="4" width="24" customWidth="1"/>
-    <col min="5" max="5" width="94.28515625" customWidth="1"/>
-    <col min="6" max="6" width="25.85546875" customWidth="1"/>
-    <col min="7" max="7" width="18.5703125" customWidth="1"/>
+    <col min="5" max="5" width="94.33203125" customWidth="1"/>
+    <col min="6" max="6" width="25.88671875" customWidth="1"/>
+    <col min="7" max="7" width="18.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="36" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:29" ht="36" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -627,16 +660,16 @@
       <c r="AB1" s="2"/>
       <c r="AC1" s="2"/>
     </row>
-    <row r="2" spans="1:29" ht="36" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="8" t="s">
+    <row r="2" spans="1:29" ht="36" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A2" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
@@ -660,3424 +693,3436 @@
       <c r="AB2" s="2"/>
       <c r="AC2" s="2"/>
     </row>
-    <row r="3" spans="1:29" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="9" t="s">
+    <row r="3" spans="1:29" ht="18" x14ac:dyDescent="0.35">
+      <c r="A3" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="10">
+      <c r="B3" s="9">
         <v>45753</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="12" t="s">
+      <c r="G3" s="11" t="s">
         <v>12</v>
       </c>
       <c r="H3" s="3"/>
     </row>
-    <row r="4" spans="1:29" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="9" t="s">
+    <row r="4" spans="1:29" ht="18" x14ac:dyDescent="0.35">
+      <c r="A4" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="10">
+      <c r="B4" s="9">
         <v>45753</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F4" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="12" t="s">
+      <c r="G4" s="11" t="s">
         <v>12</v>
       </c>
       <c r="H4" s="3"/>
     </row>
-    <row r="5" spans="1:29" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="9" t="s">
+    <row r="5" spans="1:29" ht="18" x14ac:dyDescent="0.35">
+      <c r="A5" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="10">
+      <c r="B5" s="9">
         <v>45753</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="F5" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="12" t="s">
+      <c r="G5" s="11" t="s">
         <v>12</v>
       </c>
       <c r="H5" s="3"/>
     </row>
-    <row r="6" spans="1:29" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A6" s="13" t="s">
+    <row r="6" spans="1:29" ht="18" x14ac:dyDescent="0.35">
+      <c r="A6" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="14">
+      <c r="B6" s="13">
         <v>45753</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="D6" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="13" t="s">
+      <c r="E6" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="13" t="s">
+      <c r="F6" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="G6" s="12" t="s">
+      <c r="G6" s="11" t="s">
         <v>21</v>
       </c>
       <c r="H6" s="3"/>
     </row>
-    <row r="7" spans="1:29" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A7" s="13" t="s">
+    <row r="7" spans="1:29" ht="18" x14ac:dyDescent="0.35">
+      <c r="A7" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="14">
+      <c r="B7" s="13">
         <v>45753</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="C7" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="D7" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="13" t="s">
+      <c r="E7" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="F7" s="13" t="s">
+      <c r="F7" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="G7" s="12" t="s">
+      <c r="G7" s="11" t="s">
         <v>21</v>
       </c>
       <c r="H7" s="3"/>
     </row>
-    <row r="8" spans="1:29" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A8" s="13" t="s">
+    <row r="8" spans="1:29" ht="18" x14ac:dyDescent="0.35">
+      <c r="A8" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="14">
+      <c r="B8" s="13">
         <v>45753</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="C8" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="13" t="s">
+      <c r="D8" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="E8" s="13" t="s">
+      <c r="E8" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="F8" s="13" t="s">
+      <c r="F8" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="G8" s="12" t="s">
+      <c r="G8" s="11" t="s">
         <v>21</v>
       </c>
       <c r="H8" s="3"/>
     </row>
-    <row r="9" spans="1:29" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A9" s="9" t="s">
+    <row r="9" spans="1:29" ht="18" x14ac:dyDescent="0.35">
+      <c r="A9" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="B9" s="10">
+      <c r="B9" s="9">
         <v>45753</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="9" t="s">
+      <c r="E9" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="F9" s="9" t="s">
+      <c r="F9" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="G9" s="12" t="s">
+      <c r="G9" s="11" t="s">
         <v>12</v>
       </c>
       <c r="H9" s="3"/>
     </row>
-    <row r="10" spans="1:29" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A10" s="9" t="s">
+    <row r="10" spans="1:29" ht="18" x14ac:dyDescent="0.35">
+      <c r="A10" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="B10" s="10">
+      <c r="B10" s="9">
         <v>45753</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="D10" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="E10" s="9" t="s">
+      <c r="E10" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="F10" s="9" t="s">
+      <c r="F10" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="G10" s="12" t="s">
+      <c r="G10" s="11" t="s">
         <v>12</v>
       </c>
       <c r="H10" s="3"/>
     </row>
-    <row r="11" spans="1:29" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A11" s="9" t="s">
+    <row r="11" spans="1:29" ht="18" x14ac:dyDescent="0.35">
+      <c r="A11" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="B11" s="10">
+      <c r="B11" s="9">
         <v>45753</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C11" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="D11" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="E11" s="9" t="s">
+      <c r="E11" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="F11" s="9" t="s">
+      <c r="F11" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="G11" s="12" t="s">
+      <c r="G11" s="11" t="s">
         <v>12</v>
       </c>
       <c r="H11" s="3"/>
     </row>
-    <row r="12" spans="1:29" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A12" s="9" t="s">
+    <row r="12" spans="1:29" ht="18" x14ac:dyDescent="0.35">
+      <c r="A12" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="B12" s="14">
+      <c r="B12" s="13">
         <v>45753</v>
       </c>
-      <c r="C12" s="15" t="s">
+      <c r="C12" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="13" t="s">
+      <c r="D12" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="E12" s="13" t="s">
+      <c r="E12" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="F12" s="9" t="s">
+      <c r="F12" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="G12" s="12" t="s">
+      <c r="G12" s="11" t="s">
         <v>21</v>
       </c>
       <c r="H12" s="3"/>
     </row>
-    <row r="13" spans="1:29" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A13" s="9" t="s">
+    <row r="13" spans="1:29" ht="18" x14ac:dyDescent="0.35">
+      <c r="A13" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="B13" s="14">
+      <c r="B13" s="13">
         <v>45753</v>
       </c>
-      <c r="C13" s="15" t="s">
+      <c r="C13" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="D13" s="13" t="s">
+      <c r="D13" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="E13" s="13" t="s">
+      <c r="E13" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="F13" s="9" t="s">
+      <c r="F13" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="G13" s="12" t="s">
+      <c r="G13" s="11" t="s">
         <v>21</v>
       </c>
       <c r="H13" s="3"/>
     </row>
-    <row r="14" spans="1:29" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A14" s="9" t="s">
+    <row r="14" spans="1:29" ht="18" x14ac:dyDescent="0.35">
+      <c r="A14" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="B14" s="14">
+      <c r="B14" s="13">
         <v>45753</v>
       </c>
-      <c r="C14" s="15" t="s">
+      <c r="C14" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="D14" s="13" t="s">
+      <c r="D14" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="E14" s="13" t="s">
+      <c r="E14" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="F14" s="9" t="s">
+      <c r="F14" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="G14" s="12" t="s">
+      <c r="G14" s="11" t="s">
         <v>21</v>
       </c>
       <c r="H14" s="3"/>
     </row>
-    <row r="15" spans="1:29" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A15" s="9" t="s">
+    <row r="15" spans="1:29" ht="18" x14ac:dyDescent="0.35">
+      <c r="A15" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="B15" s="10">
+      <c r="B15" s="9">
         <v>45753</v>
       </c>
-      <c r="C15" s="11" t="s">
+      <c r="C15" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="9" t="s">
+      <c r="D15" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="E15" s="9" t="s">
+      <c r="E15" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="F15" s="9"/>
-      <c r="G15" s="12" t="s">
+      <c r="F15" s="8"/>
+      <c r="G15" s="11" t="s">
         <v>12</v>
       </c>
       <c r="H15" s="3"/>
     </row>
-    <row r="16" spans="1:29" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A16" s="9" t="s">
+    <row r="16" spans="1:29" ht="18" x14ac:dyDescent="0.35">
+      <c r="A16" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="B16" s="10">
+      <c r="B16" s="9">
         <v>45753</v>
       </c>
-      <c r="C16" s="11" t="s">
+      <c r="C16" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D16" s="9" t="s">
+      <c r="D16" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="E16" s="9" t="s">
+      <c r="E16" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="F16" s="9" t="s">
+      <c r="F16" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="G16" s="12" t="s">
+      <c r="G16" s="11" t="s">
         <v>12</v>
       </c>
       <c r="H16" s="3"/>
     </row>
-    <row r="17" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A17" s="9" t="s">
+    <row r="17" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+      <c r="A17" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="B17" s="10">
+      <c r="B17" s="9">
         <v>45753</v>
       </c>
-      <c r="C17" s="11" t="s">
+      <c r="C17" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D17" s="9" t="s">
+      <c r="D17" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="E17" s="9" t="s">
+      <c r="E17" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="F17" s="9" t="s">
+      <c r="F17" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="G17" s="12" t="s">
+      <c r="G17" s="11" t="s">
         <v>12</v>
       </c>
       <c r="H17" s="3"/>
     </row>
-    <row r="18" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A18" s="9" t="s">
+    <row r="18" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+      <c r="A18" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="B18" s="10">
+      <c r="B18" s="9">
         <v>45753</v>
       </c>
-      <c r="C18" s="11" t="s">
+      <c r="C18" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D18" s="9" t="s">
+      <c r="D18" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="E18" s="9" t="s">
+      <c r="E18" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="F18" s="9" t="s">
+      <c r="F18" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="G18" s="12" t="s">
+      <c r="G18" s="11" t="s">
         <v>12</v>
       </c>
       <c r="H18" s="3"/>
     </row>
-    <row r="19" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A19" s="9" t="s">
+    <row r="19" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+      <c r="A19" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="B19" s="10">
+      <c r="B19" s="9">
         <v>45753</v>
       </c>
-      <c r="C19" s="11" t="s">
+      <c r="C19" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="D19" s="9" t="s">
+      <c r="D19" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="E19" s="9" t="s">
+      <c r="E19" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="F19" s="9" t="s">
+      <c r="F19" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="G19" s="12" t="s">
+      <c r="G19" s="11" t="s">
         <v>12</v>
       </c>
       <c r="H19" s="3"/>
     </row>
-    <row r="20" spans="1:8" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A20" s="8" t="s">
+    <row r="20" spans="1:8" ht="25.8" x14ac:dyDescent="0.5">
+      <c r="A20" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="B20" s="8"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-    </row>
-    <row r="21" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A21" s="16"/>
-      <c r="B21" s="16"/>
-      <c r="C21" s="16"/>
-      <c r="D21" s="16"/>
-      <c r="E21" s="16"/>
-      <c r="F21" s="16"/>
-      <c r="G21" s="17"/>
-    </row>
-    <row r="22" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A22" s="16"/>
-      <c r="B22" s="16"/>
-      <c r="C22" s="16"/>
-      <c r="D22" s="16"/>
-      <c r="E22" s="16"/>
-      <c r="F22" s="16"/>
-      <c r="G22" s="17"/>
-    </row>
-    <row r="23" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A23" s="16"/>
-      <c r="B23" s="16"/>
-      <c r="C23" s="16"/>
-      <c r="D23" s="16"/>
-      <c r="E23" s="16"/>
-      <c r="F23" s="16"/>
-      <c r="G23" s="17"/>
-    </row>
-    <row r="24" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A24" s="16"/>
-      <c r="B24" s="16"/>
-      <c r="C24" s="16"/>
-      <c r="D24" s="16"/>
-      <c r="E24" s="16"/>
-      <c r="F24" s="16"/>
-      <c r="G24" s="17"/>
-    </row>
-    <row r="25" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A25" s="16"/>
-      <c r="B25" s="16"/>
-      <c r="C25" s="16"/>
-      <c r="D25" s="16"/>
-      <c r="E25" s="16"/>
-      <c r="F25" s="16"/>
-      <c r="G25" s="17"/>
-    </row>
-    <row r="26" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A26" s="16"/>
-      <c r="B26" s="16"/>
-      <c r="C26" s="16"/>
-      <c r="D26" s="16"/>
-      <c r="E26" s="16"/>
-      <c r="F26" s="16"/>
-      <c r="G26" s="17"/>
-    </row>
-    <row r="27" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A27" s="16"/>
-      <c r="B27" s="16"/>
-      <c r="C27" s="16"/>
-      <c r="D27" s="16"/>
-      <c r="E27" s="16"/>
-      <c r="F27" s="16"/>
-      <c r="G27" s="17"/>
-    </row>
-    <row r="28" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A28" s="16"/>
-      <c r="B28" s="16"/>
-      <c r="C28" s="16"/>
-      <c r="D28" s="16"/>
-      <c r="E28" s="16"/>
-      <c r="F28" s="16"/>
-      <c r="G28" s="17"/>
-    </row>
-    <row r="29" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A29" s="16"/>
-      <c r="B29" s="16"/>
-      <c r="C29" s="16"/>
-      <c r="D29" s="16"/>
-      <c r="E29" s="16"/>
-      <c r="F29" s="16"/>
-      <c r="G29" s="17"/>
-    </row>
-    <row r="30" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A30" s="16"/>
-      <c r="B30" s="16"/>
-      <c r="C30" s="16"/>
-      <c r="D30" s="16"/>
-      <c r="E30" s="16"/>
-      <c r="F30" s="16"/>
-      <c r="G30" s="17"/>
-    </row>
-    <row r="31" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A31" s="16"/>
-      <c r="B31" s="16"/>
-      <c r="C31" s="16"/>
-      <c r="D31" s="16"/>
-      <c r="E31" s="16"/>
-      <c r="F31" s="16"/>
-      <c r="G31" s="17"/>
-    </row>
-    <row r="32" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A32" s="16"/>
-      <c r="B32" s="16"/>
-      <c r="C32" s="16"/>
-      <c r="D32" s="16"/>
-      <c r="E32" s="16"/>
-      <c r="F32" s="16"/>
-      <c r="G32" s="17"/>
-    </row>
-    <row r="33" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A33" s="16"/>
-      <c r="B33" s="16"/>
-      <c r="C33" s="16"/>
-      <c r="D33" s="16"/>
-      <c r="E33" s="16"/>
-      <c r="F33" s="16"/>
-      <c r="G33" s="17"/>
-    </row>
-    <row r="34" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A34" s="16"/>
-      <c r="B34" s="16"/>
-      <c r="C34" s="16"/>
-      <c r="D34" s="16"/>
-      <c r="E34" s="16"/>
-      <c r="F34" s="16"/>
-      <c r="G34" s="17"/>
-    </row>
-    <row r="35" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A35" s="16"/>
-      <c r="B35" s="16"/>
-      <c r="C35" s="16"/>
-      <c r="D35" s="16"/>
-      <c r="E35" s="16"/>
-      <c r="F35" s="16"/>
-      <c r="G35" s="17"/>
-    </row>
-    <row r="36" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B20" s="17"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="17"/>
+    </row>
+    <row r="21" spans="1:8" s="21" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+      <c r="A21" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="B21" s="22">
+        <v>45756</v>
+      </c>
+      <c r="C21" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="D21" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="E21" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="F21" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="G21" s="20"/>
+    </row>
+    <row r="22" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A22" s="15"/>
+      <c r="B22" s="15"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="16"/>
+    </row>
+    <row r="23" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A23" s="15"/>
+      <c r="B23" s="15"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="16"/>
+    </row>
+    <row r="24" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A24" s="15"/>
+      <c r="B24" s="15"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="16"/>
+    </row>
+    <row r="25" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A25" s="15"/>
+      <c r="B25" s="15"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="16"/>
+    </row>
+    <row r="26" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A26" s="15"/>
+      <c r="B26" s="15"/>
+      <c r="C26" s="15"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="15"/>
+      <c r="G26" s="16"/>
+    </row>
+    <row r="27" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A27" s="15"/>
+      <c r="B27" s="15"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="15"/>
+      <c r="G27" s="16"/>
+    </row>
+    <row r="28" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A28" s="15"/>
+      <c r="B28" s="15"/>
+      <c r="C28" s="15"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="15"/>
+      <c r="G28" s="16"/>
+    </row>
+    <row r="29" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A29" s="15"/>
+      <c r="B29" s="15"/>
+      <c r="C29" s="15"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="15"/>
+      <c r="F29" s="15"/>
+      <c r="G29" s="16"/>
+    </row>
+    <row r="30" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A30" s="15"/>
+      <c r="B30" s="15"/>
+      <c r="C30" s="15"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="15"/>
+      <c r="F30" s="15"/>
+      <c r="G30" s="16"/>
+    </row>
+    <row r="31" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A31" s="15"/>
+      <c r="B31" s="15"/>
+      <c r="C31" s="15"/>
+      <c r="D31" s="15"/>
+      <c r="E31" s="15"/>
+      <c r="F31" s="15"/>
+      <c r="G31" s="16"/>
+    </row>
+    <row r="32" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A32" s="15"/>
+      <c r="B32" s="15"/>
+      <c r="C32" s="15"/>
+      <c r="D32" s="15"/>
+      <c r="E32" s="15"/>
+      <c r="F32" s="15"/>
+      <c r="G32" s="16"/>
+    </row>
+    <row r="33" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A33" s="15"/>
+      <c r="B33" s="15"/>
+      <c r="C33" s="15"/>
+      <c r="D33" s="15"/>
+      <c r="E33" s="15"/>
+      <c r="F33" s="15"/>
+      <c r="G33" s="16"/>
+    </row>
+    <row r="34" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A34" s="15"/>
+      <c r="B34" s="15"/>
+      <c r="C34" s="15"/>
+      <c r="D34" s="15"/>
+      <c r="E34" s="15"/>
+      <c r="F34" s="15"/>
+      <c r="G34" s="16"/>
+    </row>
+    <row r="35" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A35" s="15"/>
+      <c r="B35" s="15"/>
+      <c r="C35" s="15"/>
+      <c r="D35" s="15"/>
+      <c r="E35" s="15"/>
+      <c r="F35" s="15"/>
+      <c r="G35" s="16"/>
+    </row>
+    <row r="36" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G36" s="4"/>
     </row>
-    <row r="37" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G37" s="4"/>
     </row>
-    <row r="38" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G38" s="4"/>
     </row>
-    <row r="39" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G39" s="4"/>
     </row>
-    <row r="40" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G40" s="4"/>
     </row>
-    <row r="41" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G41" s="4"/>
     </row>
-    <row r="42" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G42" s="4"/>
     </row>
-    <row r="43" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G43" s="4"/>
     </row>
-    <row r="44" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G44" s="4"/>
     </row>
-    <row r="45" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G45" s="4"/>
     </row>
-    <row r="46" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G46" s="4"/>
     </row>
-    <row r="47" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G47" s="4"/>
     </row>
-    <row r="48" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G48" s="4"/>
     </row>
-    <row r="49" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="49" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G49" s="4"/>
     </row>
-    <row r="50" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="50" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G50" s="4"/>
     </row>
-    <row r="51" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="51" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G51" s="4"/>
     </row>
-    <row r="52" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="52" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G52" s="4"/>
     </row>
-    <row r="53" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="53" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G53" s="4"/>
     </row>
-    <row r="54" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="54" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G54" s="4"/>
     </row>
-    <row r="55" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="55" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G55" s="4"/>
     </row>
-    <row r="56" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="56" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G56" s="4"/>
     </row>
-    <row r="57" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="57" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G57" s="4"/>
     </row>
-    <row r="58" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="58" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G58" s="4"/>
     </row>
-    <row r="59" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="59" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G59" s="4"/>
     </row>
-    <row r="60" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="60" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G60" s="4"/>
     </row>
-    <row r="61" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="61" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G61" s="4"/>
     </row>
-    <row r="62" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="62" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G62" s="4"/>
     </row>
-    <row r="63" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="63" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G63" s="4"/>
     </row>
-    <row r="64" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="64" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G64" s="4"/>
     </row>
-    <row r="65" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="65" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G65" s="4"/>
     </row>
-    <row r="66" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="66" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G66" s="4"/>
     </row>
-    <row r="67" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="67" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G67" s="4"/>
     </row>
-    <row r="68" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="68" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G68" s="4"/>
     </row>
-    <row r="69" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="69" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G69" s="4"/>
     </row>
-    <row r="70" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="70" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G70" s="4"/>
     </row>
-    <row r="71" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="71" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G71" s="4"/>
     </row>
-    <row r="72" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="72" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G72" s="4"/>
     </row>
-    <row r="73" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="73" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G73" s="4"/>
     </row>
-    <row r="74" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="74" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G74" s="4"/>
     </row>
-    <row r="75" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="75" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G75" s="4"/>
     </row>
-    <row r="76" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="76" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G76" s="4"/>
     </row>
-    <row r="77" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="77" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G77" s="4"/>
     </row>
-    <row r="78" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="78" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G78" s="4"/>
     </row>
-    <row r="79" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="79" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G79" s="4"/>
     </row>
-    <row r="80" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="80" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G80" s="4"/>
     </row>
-    <row r="81" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="81" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G81" s="4"/>
     </row>
-    <row r="82" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="82" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G82" s="4"/>
     </row>
-    <row r="83" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="83" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G83" s="4"/>
     </row>
-    <row r="84" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="84" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G84" s="4"/>
     </row>
-    <row r="85" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="85" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G85" s="4"/>
     </row>
-    <row r="86" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="86" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G86" s="4"/>
     </row>
-    <row r="87" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="87" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G87" s="4"/>
     </row>
-    <row r="88" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="88" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G88" s="4"/>
     </row>
-    <row r="89" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="89" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G89" s="4"/>
     </row>
-    <row r="90" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="90" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G90" s="4"/>
     </row>
-    <row r="91" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="91" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G91" s="4"/>
     </row>
-    <row r="92" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="92" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G92" s="4"/>
     </row>
-    <row r="93" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="93" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G93" s="4"/>
     </row>
-    <row r="94" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="94" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G94" s="4"/>
     </row>
-    <row r="95" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="95" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G95" s="4"/>
     </row>
-    <row r="96" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="96" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G96" s="4"/>
     </row>
-    <row r="97" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="97" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G97" s="4"/>
     </row>
-    <row r="98" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="98" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G98" s="4"/>
     </row>
-    <row r="99" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="99" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G99" s="4"/>
     </row>
-    <row r="100" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="100" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G100" s="4"/>
     </row>
-    <row r="101" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="101" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G101" s="4"/>
     </row>
-    <row r="102" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="102" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G102" s="4"/>
     </row>
-    <row r="103" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="103" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G103" s="4"/>
     </row>
-    <row r="104" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="104" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G104" s="4"/>
     </row>
-    <row r="105" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="105" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G105" s="4"/>
     </row>
-    <row r="106" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="106" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G106" s="4"/>
     </row>
-    <row r="107" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="107" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G107" s="4"/>
     </row>
-    <row r="108" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="108" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G108" s="4"/>
     </row>
-    <row r="109" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="109" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G109" s="4"/>
     </row>
-    <row r="110" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="110" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G110" s="4"/>
     </row>
-    <row r="111" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="111" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G111" s="4"/>
     </row>
-    <row r="112" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="112" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G112" s="4"/>
     </row>
-    <row r="113" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="113" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G113" s="4"/>
     </row>
-    <row r="114" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="114" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G114" s="4"/>
     </row>
-    <row r="115" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="115" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G115" s="4"/>
     </row>
-    <row r="116" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="116" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G116" s="4"/>
     </row>
-    <row r="117" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="117" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G117" s="4"/>
     </row>
-    <row r="118" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="118" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G118" s="4"/>
     </row>
-    <row r="119" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="119" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G119" s="4"/>
     </row>
-    <row r="120" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="120" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G120" s="4"/>
     </row>
-    <row r="121" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="121" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G121" s="4"/>
     </row>
-    <row r="122" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="122" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G122" s="4"/>
     </row>
-    <row r="123" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="123" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G123" s="4"/>
     </row>
-    <row r="124" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="124" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G124" s="4"/>
     </row>
-    <row r="125" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="125" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G125" s="4"/>
     </row>
-    <row r="126" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="126" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G126" s="4"/>
     </row>
-    <row r="127" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="127" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G127" s="4"/>
     </row>
-    <row r="128" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="128" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G128" s="4"/>
     </row>
-    <row r="129" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="129" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G129" s="4"/>
     </row>
-    <row r="130" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="130" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G130" s="4"/>
     </row>
-    <row r="131" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="131" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G131" s="4"/>
     </row>
-    <row r="132" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="132" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G132" s="4"/>
     </row>
-    <row r="133" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="133" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G133" s="4"/>
     </row>
-    <row r="134" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="134" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G134" s="4"/>
     </row>
-    <row r="135" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="135" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G135" s="4"/>
     </row>
-    <row r="136" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="136" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G136" s="4"/>
     </row>
-    <row r="137" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="137" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G137" s="4"/>
     </row>
-    <row r="138" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="138" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G138" s="4"/>
     </row>
-    <row r="139" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="139" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G139" s="4"/>
     </row>
-    <row r="140" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="140" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G140" s="4"/>
     </row>
-    <row r="141" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="141" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G141" s="4"/>
     </row>
-    <row r="142" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="142" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G142" s="4"/>
     </row>
-    <row r="143" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="143" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G143" s="4"/>
     </row>
-    <row r="144" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="144" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G144" s="4"/>
     </row>
-    <row r="145" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="145" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G145" s="4"/>
     </row>
-    <row r="146" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="146" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G146" s="4"/>
     </row>
-    <row r="147" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="147" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G147" s="4"/>
     </row>
-    <row r="148" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="148" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G148" s="4"/>
     </row>
-    <row r="149" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="149" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G149" s="4"/>
     </row>
-    <row r="150" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="150" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G150" s="4"/>
     </row>
-    <row r="151" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="151" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G151" s="4"/>
     </row>
-    <row r="152" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="152" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G152" s="4"/>
     </row>
-    <row r="153" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="153" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G153" s="4"/>
     </row>
-    <row r="154" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="154" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G154" s="4"/>
     </row>
-    <row r="155" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="155" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G155" s="4"/>
     </row>
-    <row r="156" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="156" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G156" s="4"/>
     </row>
-    <row r="157" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="157" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G157" s="4"/>
     </row>
-    <row r="158" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="158" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G158" s="4"/>
     </row>
-    <row r="159" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="159" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G159" s="4"/>
     </row>
-    <row r="160" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="160" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G160" s="4"/>
     </row>
-    <row r="161" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="161" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G161" s="4"/>
     </row>
-    <row r="162" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="162" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G162" s="4"/>
     </row>
-    <row r="163" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="163" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G163" s="4"/>
     </row>
-    <row r="164" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="164" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G164" s="4"/>
     </row>
-    <row r="165" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="165" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G165" s="4"/>
     </row>
-    <row r="166" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="166" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G166" s="4"/>
     </row>
-    <row r="167" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="167" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G167" s="4"/>
     </row>
-    <row r="168" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="168" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G168" s="4"/>
     </row>
-    <row r="169" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="169" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G169" s="4"/>
     </row>
-    <row r="170" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="170" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G170" s="4"/>
     </row>
-    <row r="171" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="171" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G171" s="4"/>
     </row>
-    <row r="172" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="172" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G172" s="4"/>
     </row>
-    <row r="173" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="173" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G173" s="4"/>
     </row>
-    <row r="174" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="174" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G174" s="4"/>
     </row>
-    <row r="175" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="175" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G175" s="4"/>
     </row>
-    <row r="176" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="176" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G176" s="4"/>
     </row>
-    <row r="177" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="177" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G177" s="4"/>
     </row>
-    <row r="178" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="178" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G178" s="4"/>
     </row>
-    <row r="179" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="179" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G179" s="4"/>
     </row>
-    <row r="180" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="180" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G180" s="4"/>
     </row>
-    <row r="181" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="181" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G181" s="4"/>
     </row>
-    <row r="182" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="182" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G182" s="4"/>
     </row>
-    <row r="183" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="183" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G183" s="4"/>
     </row>
-    <row r="184" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="184" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G184" s="4"/>
     </row>
-    <row r="185" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="185" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G185" s="4"/>
     </row>
-    <row r="186" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="186" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G186" s="4"/>
     </row>
-    <row r="187" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="187" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G187" s="4"/>
     </row>
-    <row r="188" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="188" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G188" s="4"/>
     </row>
-    <row r="189" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="189" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G189" s="4"/>
     </row>
-    <row r="190" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="190" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G190" s="4"/>
     </row>
-    <row r="191" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="191" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G191" s="4"/>
     </row>
-    <row r="192" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="192" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G192" s="4"/>
     </row>
-    <row r="193" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="193" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G193" s="4"/>
     </row>
-    <row r="194" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="194" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G194" s="4"/>
     </row>
-    <row r="195" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="195" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G195" s="4"/>
     </row>
-    <row r="196" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="196" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G196" s="4"/>
     </row>
-    <row r="197" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="197" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G197" s="4"/>
     </row>
-    <row r="198" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="198" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G198" s="4"/>
     </row>
-    <row r="199" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="199" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G199" s="4"/>
     </row>
-    <row r="200" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="200" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G200" s="4"/>
     </row>
-    <row r="201" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="201" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G201" s="4"/>
     </row>
-    <row r="202" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="202" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G202" s="4"/>
     </row>
-    <row r="203" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="203" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G203" s="4"/>
     </row>
-    <row r="204" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="204" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G204" s="4"/>
     </row>
-    <row r="205" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="205" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G205" s="4"/>
     </row>
-    <row r="206" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="206" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G206" s="4"/>
     </row>
-    <row r="207" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="207" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G207" s="4"/>
     </row>
-    <row r="208" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="208" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G208" s="4"/>
     </row>
-    <row r="209" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="209" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G209" s="4"/>
     </row>
-    <row r="210" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="210" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G210" s="4"/>
     </row>
-    <row r="211" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="211" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G211" s="4"/>
     </row>
-    <row r="212" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="212" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G212" s="4"/>
     </row>
-    <row r="213" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="213" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G213" s="4"/>
     </row>
-    <row r="214" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="214" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G214" s="4"/>
     </row>
-    <row r="215" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="215" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G215" s="4"/>
     </row>
-    <row r="216" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="216" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G216" s="4"/>
     </row>
-    <row r="217" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="217" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G217" s="4"/>
     </row>
-    <row r="218" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="218" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G218" s="4"/>
     </row>
-    <row r="219" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="219" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G219" s="4"/>
     </row>
-    <row r="220" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="220" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G220" s="4"/>
     </row>
-    <row r="221" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="221" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G221" s="4"/>
     </row>
-    <row r="222" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="222" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G222" s="4"/>
     </row>
-    <row r="223" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="223" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G223" s="4"/>
     </row>
-    <row r="224" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="224" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G224" s="4"/>
     </row>
-    <row r="225" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="225" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G225" s="4"/>
     </row>
-    <row r="226" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="226" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G226" s="4"/>
     </row>
-    <row r="227" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="227" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G227" s="4"/>
     </row>
-    <row r="228" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="228" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G228" s="4"/>
     </row>
-    <row r="229" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="229" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G229" s="4"/>
     </row>
-    <row r="230" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="230" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G230" s="4"/>
     </row>
-    <row r="231" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="231" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G231" s="4"/>
     </row>
-    <row r="232" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="232" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G232" s="4"/>
     </row>
-    <row r="233" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="233" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G233" s="4"/>
     </row>
-    <row r="234" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="234" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G234" s="4"/>
     </row>
-    <row r="235" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="235" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G235" s="4"/>
     </row>
-    <row r="236" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="236" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G236" s="4"/>
     </row>
-    <row r="237" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="237" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G237" s="4"/>
     </row>
-    <row r="238" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="238" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G238" s="4"/>
     </row>
-    <row r="239" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="239" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G239" s="4"/>
     </row>
-    <row r="240" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="240" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G240" s="4"/>
     </row>
-    <row r="241" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="241" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G241" s="4"/>
     </row>
-    <row r="242" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="242" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G242" s="4"/>
     </row>
-    <row r="243" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="243" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G243" s="4"/>
     </row>
-    <row r="244" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="244" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G244" s="4"/>
     </row>
-    <row r="245" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="245" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G245" s="4"/>
     </row>
-    <row r="246" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="246" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G246" s="4"/>
     </row>
-    <row r="247" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="247" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G247" s="4"/>
     </row>
-    <row r="248" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="248" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G248" s="4"/>
     </row>
-    <row r="249" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="249" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G249" s="4"/>
     </row>
-    <row r="250" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="250" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G250" s="4"/>
     </row>
-    <row r="251" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="251" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G251" s="4"/>
     </row>
-    <row r="252" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="252" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G252" s="4"/>
     </row>
-    <row r="253" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="253" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G253" s="4"/>
     </row>
-    <row r="254" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="254" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G254" s="4"/>
     </row>
-    <row r="255" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="255" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G255" s="4"/>
     </row>
-    <row r="256" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="256" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G256" s="4"/>
     </row>
-    <row r="257" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="257" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G257" s="4"/>
     </row>
-    <row r="258" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="258" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G258" s="4"/>
     </row>
-    <row r="259" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="259" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G259" s="4"/>
     </row>
-    <row r="260" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="260" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G260" s="4"/>
     </row>
-    <row r="261" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="261" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G261" s="4"/>
     </row>
-    <row r="262" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="262" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G262" s="4"/>
     </row>
-    <row r="263" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="263" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G263" s="4"/>
     </row>
-    <row r="264" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="264" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G264" s="4"/>
     </row>
-    <row r="265" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="265" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G265" s="4"/>
     </row>
-    <row r="266" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="266" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G266" s="4"/>
     </row>
-    <row r="267" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="267" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G267" s="4"/>
     </row>
-    <row r="268" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="268" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G268" s="4"/>
     </row>
-    <row r="269" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="269" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G269" s="4"/>
     </row>
-    <row r="270" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="270" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G270" s="4"/>
     </row>
-    <row r="271" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="271" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G271" s="4"/>
     </row>
-    <row r="272" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="272" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G272" s="4"/>
     </row>
-    <row r="273" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="273" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G273" s="4"/>
     </row>
-    <row r="274" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="274" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G274" s="4"/>
     </row>
-    <row r="275" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="275" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G275" s="4"/>
     </row>
-    <row r="276" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="276" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G276" s="4"/>
     </row>
-    <row r="277" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="277" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G277" s="4"/>
     </row>
-    <row r="278" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="278" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G278" s="4"/>
     </row>
-    <row r="279" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="279" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G279" s="4"/>
     </row>
-    <row r="280" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="280" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G280" s="4"/>
     </row>
-    <row r="281" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="281" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G281" s="4"/>
     </row>
-    <row r="282" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="282" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G282" s="4"/>
     </row>
-    <row r="283" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="283" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G283" s="4"/>
     </row>
-    <row r="284" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="284" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G284" s="4"/>
     </row>
-    <row r="285" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="285" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G285" s="4"/>
     </row>
-    <row r="286" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="286" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G286" s="4"/>
     </row>
-    <row r="287" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="287" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G287" s="4"/>
     </row>
-    <row r="288" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="288" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G288" s="4"/>
     </row>
-    <row r="289" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="289" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G289" s="4"/>
     </row>
-    <row r="290" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="290" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G290" s="4"/>
     </row>
-    <row r="291" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="291" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G291" s="4"/>
     </row>
-    <row r="292" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="292" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G292" s="4"/>
     </row>
-    <row r="293" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="293" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G293" s="4"/>
     </row>
-    <row r="294" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="294" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G294" s="4"/>
     </row>
-    <row r="295" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="295" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G295" s="4"/>
     </row>
-    <row r="296" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="296" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G296" s="4"/>
     </row>
-    <row r="297" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="297" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G297" s="4"/>
     </row>
-    <row r="298" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="298" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G298" s="4"/>
     </row>
-    <row r="299" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="299" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G299" s="4"/>
     </row>
-    <row r="300" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="300" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G300" s="4"/>
     </row>
-    <row r="301" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="301" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G301" s="4"/>
     </row>
-    <row r="302" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="302" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G302" s="4"/>
     </row>
-    <row r="303" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="303" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G303" s="4"/>
     </row>
-    <row r="304" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="304" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G304" s="4"/>
     </row>
-    <row r="305" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="305" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G305" s="4"/>
     </row>
-    <row r="306" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="306" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G306" s="4"/>
     </row>
-    <row r="307" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="307" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G307" s="4"/>
     </row>
-    <row r="308" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="308" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G308" s="4"/>
     </row>
-    <row r="309" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="309" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G309" s="4"/>
     </row>
-    <row r="310" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="310" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G310" s="4"/>
     </row>
-    <row r="311" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="311" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G311" s="4"/>
     </row>
-    <row r="312" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="312" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G312" s="4"/>
     </row>
-    <row r="313" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="313" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G313" s="4"/>
     </row>
-    <row r="314" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="314" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G314" s="4"/>
     </row>
-    <row r="315" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="315" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G315" s="4"/>
     </row>
-    <row r="316" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="316" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G316" s="4"/>
     </row>
-    <row r="317" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="317" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G317" s="4"/>
     </row>
-    <row r="318" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="318" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G318" s="4"/>
     </row>
-    <row r="319" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="319" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G319" s="4"/>
     </row>
-    <row r="320" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="320" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G320" s="4"/>
     </row>
-    <row r="321" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="321" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G321" s="4"/>
     </row>
-    <row r="322" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="322" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G322" s="4"/>
     </row>
-    <row r="323" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="323" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G323" s="4"/>
     </row>
-    <row r="324" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="324" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G324" s="4"/>
     </row>
-    <row r="325" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="325" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G325" s="4"/>
     </row>
-    <row r="326" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="326" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G326" s="4"/>
     </row>
-    <row r="327" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="327" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G327" s="4"/>
     </row>
-    <row r="328" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="328" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G328" s="4"/>
     </row>
-    <row r="329" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="329" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G329" s="4"/>
     </row>
-    <row r="330" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="330" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G330" s="4"/>
     </row>
-    <row r="331" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="331" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G331" s="4"/>
     </row>
-    <row r="332" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="332" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G332" s="4"/>
     </row>
-    <row r="333" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="333" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G333" s="4"/>
     </row>
-    <row r="334" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="334" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G334" s="4"/>
     </row>
-    <row r="335" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="335" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G335" s="4"/>
     </row>
-    <row r="336" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="336" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G336" s="4"/>
     </row>
-    <row r="337" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="337" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G337" s="4"/>
     </row>
-    <row r="338" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="338" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G338" s="4"/>
     </row>
-    <row r="339" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="339" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G339" s="4"/>
     </row>
-    <row r="340" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="340" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G340" s="4"/>
     </row>
-    <row r="341" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="341" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G341" s="4"/>
     </row>
-    <row r="342" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="342" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G342" s="4"/>
     </row>
-    <row r="343" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="343" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G343" s="4"/>
     </row>
-    <row r="344" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="344" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G344" s="4"/>
     </row>
-    <row r="345" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="345" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G345" s="4"/>
     </row>
-    <row r="346" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="346" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G346" s="4"/>
     </row>
-    <row r="347" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="347" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G347" s="4"/>
     </row>
-    <row r="348" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="348" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G348" s="4"/>
     </row>
-    <row r="349" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="349" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G349" s="4"/>
     </row>
-    <row r="350" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="350" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G350" s="4"/>
     </row>
-    <row r="351" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="351" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G351" s="4"/>
     </row>
-    <row r="352" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="352" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G352" s="4"/>
     </row>
-    <row r="353" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="353" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G353" s="4"/>
     </row>
-    <row r="354" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="354" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G354" s="4"/>
     </row>
-    <row r="355" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="355" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G355" s="4"/>
     </row>
-    <row r="356" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="356" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G356" s="4"/>
     </row>
-    <row r="357" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="357" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G357" s="4"/>
     </row>
-    <row r="358" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="358" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G358" s="4"/>
     </row>
-    <row r="359" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="359" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G359" s="4"/>
     </row>
-    <row r="360" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="360" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G360" s="4"/>
     </row>
-    <row r="361" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="361" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G361" s="4"/>
     </row>
-    <row r="362" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="362" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G362" s="4"/>
     </row>
-    <row r="363" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="363" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G363" s="4"/>
     </row>
-    <row r="364" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="364" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G364" s="4"/>
     </row>
-    <row r="365" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="365" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G365" s="4"/>
     </row>
-    <row r="366" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="366" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G366" s="4"/>
     </row>
-    <row r="367" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="367" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G367" s="4"/>
     </row>
-    <row r="368" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="368" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G368" s="4"/>
     </row>
-    <row r="369" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="369" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G369" s="4"/>
     </row>
-    <row r="370" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="370" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G370" s="4"/>
     </row>
-    <row r="371" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="371" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G371" s="4"/>
     </row>
-    <row r="372" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="372" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G372" s="4"/>
     </row>
-    <row r="373" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="373" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G373" s="4"/>
     </row>
-    <row r="374" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="374" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G374" s="4"/>
     </row>
-    <row r="375" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="375" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G375" s="4"/>
     </row>
-    <row r="376" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="376" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G376" s="4"/>
     </row>
-    <row r="377" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="377" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G377" s="4"/>
     </row>
-    <row r="378" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="378" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G378" s="4"/>
     </row>
-    <row r="379" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="379" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G379" s="4"/>
     </row>
-    <row r="380" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="380" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G380" s="4"/>
     </row>
-    <row r="381" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="381" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G381" s="4"/>
     </row>
-    <row r="382" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="382" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G382" s="4"/>
     </row>
-    <row r="383" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="383" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G383" s="4"/>
     </row>
-    <row r="384" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="384" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G384" s="4"/>
     </row>
-    <row r="385" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="385" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G385" s="4"/>
     </row>
-    <row r="386" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="386" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G386" s="4"/>
     </row>
-    <row r="387" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="387" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G387" s="4"/>
     </row>
-    <row r="388" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="388" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G388" s="4"/>
     </row>
-    <row r="389" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="389" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G389" s="4"/>
     </row>
-    <row r="390" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="390" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G390" s="4"/>
     </row>
-    <row r="391" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="391" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G391" s="4"/>
     </row>
-    <row r="392" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="392" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G392" s="4"/>
     </row>
-    <row r="393" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="393" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G393" s="4"/>
     </row>
-    <row r="394" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="394" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G394" s="4"/>
     </row>
-    <row r="395" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="395" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G395" s="4"/>
     </row>
-    <row r="396" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="396" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G396" s="4"/>
     </row>
-    <row r="397" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="397" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G397" s="4"/>
     </row>
-    <row r="398" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="398" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G398" s="4"/>
     </row>
-    <row r="399" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="399" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G399" s="4"/>
     </row>
-    <row r="400" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="400" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G400" s="4"/>
     </row>
-    <row r="401" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="401" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G401" s="4"/>
     </row>
-    <row r="402" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="402" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G402" s="4"/>
     </row>
-    <row r="403" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="403" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G403" s="4"/>
     </row>
-    <row r="404" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="404" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G404" s="4"/>
     </row>
-    <row r="405" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="405" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G405" s="4"/>
     </row>
-    <row r="406" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="406" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G406" s="4"/>
     </row>
-    <row r="407" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="407" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G407" s="4"/>
     </row>
-    <row r="408" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="408" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G408" s="4"/>
     </row>
-    <row r="409" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="409" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G409" s="4"/>
     </row>
-    <row r="410" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="410" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G410" s="4"/>
     </row>
-    <row r="411" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="411" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G411" s="4"/>
     </row>
-    <row r="412" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="412" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G412" s="4"/>
     </row>
-    <row r="413" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="413" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G413" s="4"/>
     </row>
-    <row r="414" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="414" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G414" s="4"/>
     </row>
-    <row r="415" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="415" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G415" s="4"/>
     </row>
-    <row r="416" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="416" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G416" s="4"/>
     </row>
-    <row r="417" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="417" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G417" s="4"/>
     </row>
-    <row r="418" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="418" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G418" s="4"/>
     </row>
-    <row r="419" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="419" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G419" s="4"/>
     </row>
-    <row r="420" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="420" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G420" s="4"/>
     </row>
-    <row r="421" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="421" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G421" s="4"/>
     </row>
-    <row r="422" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="422" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G422" s="4"/>
     </row>
-    <row r="423" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="423" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G423" s="4"/>
     </row>
-    <row r="424" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="424" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G424" s="4"/>
     </row>
-    <row r="425" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="425" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G425" s="4"/>
     </row>
-    <row r="426" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="426" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G426" s="4"/>
     </row>
-    <row r="427" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="427" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G427" s="4"/>
     </row>
-    <row r="428" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="428" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G428" s="4"/>
     </row>
-    <row r="429" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="429" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G429" s="4"/>
     </row>
-    <row r="430" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="430" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G430" s="4"/>
     </row>
-    <row r="431" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="431" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G431" s="4"/>
     </row>
-    <row r="432" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="432" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G432" s="4"/>
     </row>
-    <row r="433" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="433" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G433" s="4"/>
     </row>
-    <row r="434" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="434" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G434" s="4"/>
     </row>
-    <row r="435" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="435" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G435" s="4"/>
     </row>
-    <row r="436" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="436" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G436" s="4"/>
     </row>
-    <row r="437" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="437" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G437" s="4"/>
     </row>
-    <row r="438" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="438" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G438" s="4"/>
     </row>
-    <row r="439" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="439" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G439" s="4"/>
     </row>
-    <row r="440" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="440" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G440" s="4"/>
     </row>
-    <row r="441" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="441" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G441" s="4"/>
     </row>
-    <row r="442" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="442" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G442" s="4"/>
     </row>
-    <row r="443" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="443" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G443" s="4"/>
     </row>
-    <row r="444" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="444" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G444" s="4"/>
     </row>
-    <row r="445" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="445" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G445" s="4"/>
     </row>
-    <row r="446" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="446" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G446" s="4"/>
     </row>
-    <row r="447" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="447" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G447" s="4"/>
     </row>
-    <row r="448" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="448" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G448" s="4"/>
     </row>
-    <row r="449" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="449" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G449" s="4"/>
     </row>
-    <row r="450" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="450" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G450" s="4"/>
     </row>
-    <row r="451" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="451" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G451" s="4"/>
     </row>
-    <row r="452" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="452" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G452" s="4"/>
     </row>
-    <row r="453" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="453" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G453" s="4"/>
     </row>
-    <row r="454" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="454" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G454" s="4"/>
     </row>
-    <row r="455" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="455" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G455" s="4"/>
     </row>
-    <row r="456" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="456" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G456" s="4"/>
     </row>
-    <row r="457" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="457" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G457" s="4"/>
     </row>
-    <row r="458" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="458" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G458" s="4"/>
     </row>
-    <row r="459" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="459" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G459" s="4"/>
     </row>
-    <row r="460" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="460" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G460" s="4"/>
     </row>
-    <row r="461" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="461" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G461" s="4"/>
     </row>
-    <row r="462" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="462" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G462" s="4"/>
     </row>
-    <row r="463" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="463" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G463" s="4"/>
     </row>
-    <row r="464" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="464" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G464" s="4"/>
     </row>
-    <row r="465" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="465" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G465" s="4"/>
     </row>
-    <row r="466" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="466" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G466" s="4"/>
     </row>
-    <row r="467" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="467" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G467" s="4"/>
     </row>
-    <row r="468" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="468" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G468" s="4"/>
     </row>
-    <row r="469" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="469" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G469" s="4"/>
     </row>
-    <row r="470" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="470" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G470" s="4"/>
     </row>
-    <row r="471" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="471" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G471" s="4"/>
     </row>
-    <row r="472" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="472" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G472" s="4"/>
     </row>
-    <row r="473" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="473" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G473" s="4"/>
     </row>
-    <row r="474" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="474" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G474" s="4"/>
     </row>
-    <row r="475" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="475" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G475" s="4"/>
     </row>
-    <row r="476" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="476" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G476" s="4"/>
     </row>
-    <row r="477" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="477" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G477" s="4"/>
     </row>
-    <row r="478" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="478" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G478" s="4"/>
     </row>
-    <row r="479" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="479" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G479" s="4"/>
     </row>
-    <row r="480" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="480" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G480" s="4"/>
     </row>
-    <row r="481" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="481" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G481" s="4"/>
     </row>
-    <row r="482" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="482" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G482" s="4"/>
     </row>
-    <row r="483" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="483" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G483" s="4"/>
     </row>
-    <row r="484" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="484" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G484" s="4"/>
     </row>
-    <row r="485" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="485" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G485" s="4"/>
     </row>
-    <row r="486" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="486" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G486" s="4"/>
     </row>
-    <row r="487" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="487" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G487" s="4"/>
     </row>
-    <row r="488" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="488" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G488" s="4"/>
     </row>
-    <row r="489" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="489" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G489" s="4"/>
     </row>
-    <row r="490" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="490" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G490" s="4"/>
     </row>
-    <row r="491" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="491" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G491" s="4"/>
     </row>
-    <row r="492" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="492" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G492" s="4"/>
     </row>
-    <row r="493" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="493" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G493" s="4"/>
     </row>
-    <row r="494" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="494" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G494" s="4"/>
     </row>
-    <row r="495" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="495" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G495" s="4"/>
     </row>
-    <row r="496" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="496" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G496" s="4"/>
     </row>
-    <row r="497" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="497" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G497" s="4"/>
     </row>
-    <row r="498" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="498" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G498" s="4"/>
     </row>
-    <row r="499" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="499" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G499" s="4"/>
     </row>
-    <row r="500" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="500" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G500" s="4"/>
     </row>
-    <row r="501" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="501" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G501" s="4"/>
     </row>
-    <row r="502" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="502" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G502" s="4"/>
     </row>
-    <row r="503" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="503" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G503" s="4"/>
     </row>
-    <row r="504" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="504" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G504" s="4"/>
     </row>
-    <row r="505" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="505" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G505" s="4"/>
     </row>
-    <row r="506" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="506" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G506" s="4"/>
     </row>
-    <row r="507" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="507" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G507" s="4"/>
     </row>
-    <row r="508" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="508" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G508" s="4"/>
     </row>
-    <row r="509" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="509" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G509" s="4"/>
     </row>
-    <row r="510" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="510" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G510" s="4"/>
     </row>
-    <row r="511" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="511" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G511" s="4"/>
     </row>
-    <row r="512" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="512" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G512" s="4"/>
     </row>
-    <row r="513" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="513" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G513" s="4"/>
     </row>
-    <row r="514" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="514" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G514" s="4"/>
     </row>
-    <row r="515" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="515" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G515" s="4"/>
     </row>
-    <row r="516" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="516" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G516" s="4"/>
     </row>
-    <row r="517" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="517" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G517" s="4"/>
     </row>
-    <row r="518" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="518" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G518" s="4"/>
     </row>
-    <row r="519" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="519" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G519" s="4"/>
     </row>
-    <row r="520" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="520" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G520" s="4"/>
     </row>
-    <row r="521" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="521" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G521" s="4"/>
     </row>
-    <row r="522" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="522" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G522" s="4"/>
     </row>
-    <row r="523" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="523" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G523" s="4"/>
     </row>
-    <row r="524" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="524" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G524" s="4"/>
     </row>
-    <row r="525" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="525" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G525" s="4"/>
     </row>
-    <row r="526" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="526" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G526" s="4"/>
     </row>
-    <row r="527" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="527" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G527" s="4"/>
     </row>
-    <row r="528" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="528" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G528" s="4"/>
     </row>
-    <row r="529" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="529" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G529" s="4"/>
     </row>
-    <row r="530" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="530" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G530" s="4"/>
     </row>
-    <row r="531" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="531" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G531" s="4"/>
     </row>
-    <row r="532" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="532" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G532" s="4"/>
     </row>
-    <row r="533" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="533" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G533" s="4"/>
     </row>
-    <row r="534" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="534" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G534" s="4"/>
     </row>
-    <row r="535" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="535" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G535" s="4"/>
     </row>
-    <row r="536" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="536" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G536" s="4"/>
     </row>
-    <row r="537" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="537" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G537" s="4"/>
     </row>
-    <row r="538" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="538" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G538" s="4"/>
     </row>
-    <row r="539" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="539" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G539" s="4"/>
     </row>
-    <row r="540" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="540" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G540" s="4"/>
     </row>
-    <row r="541" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="541" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G541" s="4"/>
     </row>
-    <row r="542" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="542" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G542" s="4"/>
     </row>
-    <row r="543" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="543" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G543" s="4"/>
     </row>
-    <row r="544" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="544" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G544" s="4"/>
     </row>
-    <row r="545" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="545" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G545" s="4"/>
     </row>
-    <row r="546" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="546" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G546" s="4"/>
     </row>
-    <row r="547" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="547" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G547" s="4"/>
     </row>
-    <row r="548" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="548" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G548" s="4"/>
     </row>
-    <row r="549" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="549" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G549" s="4"/>
     </row>
-    <row r="550" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="550" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G550" s="4"/>
     </row>
-    <row r="551" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="551" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G551" s="4"/>
     </row>
-    <row r="552" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="552" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G552" s="4"/>
     </row>
-    <row r="553" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="553" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G553" s="4"/>
     </row>
-    <row r="554" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="554" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G554" s="4"/>
     </row>
-    <row r="555" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="555" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G555" s="4"/>
     </row>
-    <row r="556" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="556" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G556" s="4"/>
     </row>
-    <row r="557" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="557" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G557" s="4"/>
     </row>
-    <row r="558" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="558" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G558" s="4"/>
     </row>
-    <row r="559" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="559" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G559" s="4"/>
     </row>
-    <row r="560" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="560" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G560" s="4"/>
     </row>
-    <row r="561" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="561" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G561" s="4"/>
     </row>
-    <row r="562" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="562" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G562" s="4"/>
     </row>
-    <row r="563" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="563" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G563" s="4"/>
     </row>
-    <row r="564" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="564" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G564" s="4"/>
     </row>
-    <row r="565" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="565" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G565" s="4"/>
     </row>
-    <row r="566" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="566" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G566" s="4"/>
     </row>
-    <row r="567" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="567" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G567" s="4"/>
     </row>
-    <row r="568" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="568" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G568" s="4"/>
     </row>
-    <row r="569" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="569" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G569" s="4"/>
     </row>
-    <row r="570" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="570" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G570" s="4"/>
     </row>
-    <row r="571" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="571" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G571" s="4"/>
     </row>
-    <row r="572" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="572" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G572" s="4"/>
     </row>
-    <row r="573" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="573" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G573" s="4"/>
     </row>
-    <row r="574" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="574" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G574" s="4"/>
     </row>
-    <row r="575" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="575" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G575" s="4"/>
     </row>
-    <row r="576" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="576" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G576" s="4"/>
     </row>
-    <row r="577" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="577" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G577" s="4"/>
     </row>
-    <row r="578" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="578" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G578" s="4"/>
     </row>
-    <row r="579" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="579" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G579" s="4"/>
     </row>
-    <row r="580" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="580" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G580" s="4"/>
     </row>
-    <row r="581" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="581" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G581" s="4"/>
     </row>
-    <row r="582" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="582" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G582" s="4"/>
     </row>
-    <row r="583" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="583" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G583" s="4"/>
     </row>
-    <row r="584" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="584" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G584" s="4"/>
     </row>
-    <row r="585" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="585" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G585" s="4"/>
     </row>
-    <row r="586" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="586" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G586" s="4"/>
     </row>
-    <row r="587" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="587" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G587" s="4"/>
     </row>
-    <row r="588" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="588" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G588" s="4"/>
     </row>
-    <row r="589" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="589" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G589" s="4"/>
     </row>
-    <row r="590" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="590" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G590" s="4"/>
     </row>
-    <row r="591" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="591" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G591" s="4"/>
     </row>
-    <row r="592" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="592" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G592" s="4"/>
     </row>
-    <row r="593" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="593" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G593" s="4"/>
     </row>
-    <row r="594" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="594" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G594" s="4"/>
     </row>
-    <row r="595" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="595" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G595" s="4"/>
     </row>
-    <row r="596" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="596" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G596" s="4"/>
     </row>
-    <row r="597" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="597" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G597" s="4"/>
     </row>
-    <row r="598" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="598" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G598" s="4"/>
     </row>
-    <row r="599" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="599" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G599" s="4"/>
     </row>
-    <row r="600" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="600" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G600" s="4"/>
     </row>
-    <row r="601" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="601" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G601" s="4"/>
     </row>
-    <row r="602" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="602" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G602" s="4"/>
     </row>
-    <row r="603" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="603" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G603" s="4"/>
     </row>
-    <row r="604" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="604" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G604" s="4"/>
     </row>
-    <row r="605" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="605" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G605" s="4"/>
     </row>
-    <row r="606" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="606" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G606" s="4"/>
     </row>
-    <row r="607" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="607" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G607" s="4"/>
     </row>
-    <row r="608" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="608" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G608" s="4"/>
     </row>
-    <row r="609" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="609" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G609" s="4"/>
     </row>
-    <row r="610" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="610" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G610" s="4"/>
     </row>
-    <row r="611" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="611" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G611" s="4"/>
     </row>
-    <row r="612" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="612" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G612" s="4"/>
     </row>
-    <row r="613" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="613" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G613" s="4"/>
     </row>
-    <row r="614" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="614" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G614" s="4"/>
     </row>
-    <row r="615" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="615" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G615" s="4"/>
     </row>
-    <row r="616" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="616" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G616" s="4"/>
     </row>
-    <row r="617" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="617" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G617" s="4"/>
     </row>
-    <row r="618" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="618" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G618" s="4"/>
     </row>
-    <row r="619" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="619" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G619" s="4"/>
     </row>
-    <row r="620" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="620" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G620" s="4"/>
     </row>
-    <row r="621" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="621" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G621" s="4"/>
     </row>
-    <row r="622" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="622" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G622" s="4"/>
     </row>
-    <row r="623" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="623" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G623" s="4"/>
     </row>
-    <row r="624" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="624" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G624" s="4"/>
     </row>
-    <row r="625" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="625" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G625" s="4"/>
     </row>
-    <row r="626" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="626" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G626" s="4"/>
     </row>
-    <row r="627" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="627" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G627" s="4"/>
     </row>
-    <row r="628" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="628" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G628" s="4"/>
     </row>
-    <row r="629" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="629" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G629" s="4"/>
     </row>
-    <row r="630" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="630" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G630" s="4"/>
     </row>
-    <row r="631" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="631" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G631" s="4"/>
     </row>
-    <row r="632" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="632" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G632" s="4"/>
     </row>
-    <row r="633" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="633" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G633" s="4"/>
     </row>
-    <row r="634" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="634" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G634" s="4"/>
     </row>
-    <row r="635" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="635" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G635" s="4"/>
     </row>
-    <row r="636" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="636" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G636" s="4"/>
     </row>
-    <row r="637" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="637" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G637" s="4"/>
     </row>
-    <row r="638" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="638" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G638" s="4"/>
     </row>
-    <row r="639" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="639" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G639" s="4"/>
     </row>
-    <row r="640" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="640" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G640" s="4"/>
     </row>
-    <row r="641" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="641" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G641" s="4"/>
     </row>
-    <row r="642" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="642" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G642" s="4"/>
     </row>
-    <row r="643" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="643" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G643" s="4"/>
     </row>
-    <row r="644" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="644" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G644" s="4"/>
     </row>
-    <row r="645" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="645" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G645" s="4"/>
     </row>
-    <row r="646" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="646" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G646" s="4"/>
     </row>
-    <row r="647" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="647" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G647" s="4"/>
     </row>
-    <row r="648" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="648" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G648" s="4"/>
     </row>
-    <row r="649" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="649" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G649" s="4"/>
     </row>
-    <row r="650" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="650" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G650" s="4"/>
     </row>
-    <row r="651" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="651" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G651" s="4"/>
     </row>
-    <row r="652" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="652" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G652" s="4"/>
     </row>
-    <row r="653" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="653" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G653" s="4"/>
     </row>
-    <row r="654" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="654" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G654" s="4"/>
     </row>
-    <row r="655" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="655" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G655" s="4"/>
     </row>
-    <row r="656" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="656" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G656" s="4"/>
     </row>
-    <row r="657" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="657" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G657" s="4"/>
     </row>
-    <row r="658" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="658" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G658" s="4"/>
     </row>
-    <row r="659" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="659" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G659" s="4"/>
     </row>
-    <row r="660" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="660" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G660" s="4"/>
     </row>
-    <row r="661" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="661" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G661" s="4"/>
     </row>
-    <row r="662" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="662" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G662" s="4"/>
     </row>
-    <row r="663" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="663" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G663" s="4"/>
     </row>
-    <row r="664" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="664" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G664" s="4"/>
     </row>
-    <row r="665" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="665" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G665" s="4"/>
     </row>
-    <row r="666" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="666" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G666" s="4"/>
     </row>
-    <row r="667" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="667" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G667" s="4"/>
     </row>
-    <row r="668" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="668" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G668" s="4"/>
     </row>
-    <row r="669" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="669" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G669" s="4"/>
     </row>
-    <row r="670" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="670" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G670" s="4"/>
     </row>
-    <row r="671" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="671" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G671" s="4"/>
     </row>
-    <row r="672" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="672" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G672" s="4"/>
     </row>
-    <row r="673" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="673" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G673" s="4"/>
     </row>
-    <row r="674" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="674" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G674" s="4"/>
     </row>
-    <row r="675" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="675" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G675" s="4"/>
     </row>
-    <row r="676" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="676" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G676" s="4"/>
     </row>
-    <row r="677" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="677" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G677" s="4"/>
     </row>
-    <row r="678" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="678" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G678" s="4"/>
     </row>
-    <row r="679" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="679" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G679" s="4"/>
     </row>
-    <row r="680" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="680" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G680" s="4"/>
     </row>
-    <row r="681" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="681" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G681" s="4"/>
     </row>
-    <row r="682" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="682" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G682" s="4"/>
     </row>
-    <row r="683" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="683" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G683" s="4"/>
     </row>
-    <row r="684" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="684" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G684" s="4"/>
     </row>
-    <row r="685" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="685" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G685" s="4"/>
     </row>
-    <row r="686" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="686" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G686" s="4"/>
     </row>
-    <row r="687" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="687" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G687" s="4"/>
     </row>
-    <row r="688" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="688" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G688" s="4"/>
     </row>
-    <row r="689" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="689" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G689" s="4"/>
     </row>
-    <row r="690" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="690" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G690" s="4"/>
     </row>
-    <row r="691" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="691" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G691" s="4"/>
     </row>
-    <row r="692" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="692" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G692" s="4"/>
     </row>
-    <row r="693" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="693" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G693" s="4"/>
     </row>
-    <row r="694" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="694" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G694" s="4"/>
     </row>
-    <row r="695" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="695" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G695" s="4"/>
     </row>
-    <row r="696" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="696" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G696" s="4"/>
     </row>
-    <row r="697" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="697" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G697" s="4"/>
     </row>
-    <row r="698" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="698" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G698" s="4"/>
     </row>
-    <row r="699" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="699" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G699" s="4"/>
     </row>
-    <row r="700" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="700" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G700" s="4"/>
     </row>
-    <row r="701" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="701" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G701" s="4"/>
     </row>
-    <row r="702" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="702" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G702" s="4"/>
     </row>
-    <row r="703" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="703" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G703" s="4"/>
     </row>
-    <row r="704" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="704" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G704" s="4"/>
     </row>
-    <row r="705" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="705" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G705" s="4"/>
     </row>
-    <row r="706" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="706" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G706" s="4"/>
     </row>
-    <row r="707" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="707" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G707" s="4"/>
     </row>
-    <row r="708" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="708" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G708" s="4"/>
     </row>
-    <row r="709" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="709" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G709" s="4"/>
     </row>
-    <row r="710" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="710" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G710" s="4"/>
     </row>
-    <row r="711" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="711" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G711" s="4"/>
     </row>
-    <row r="712" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="712" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G712" s="4"/>
     </row>
-    <row r="713" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="713" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G713" s="4"/>
     </row>
-    <row r="714" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="714" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G714" s="4"/>
     </row>
-    <row r="715" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="715" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G715" s="4"/>
     </row>
-    <row r="716" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="716" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G716" s="4"/>
     </row>
-    <row r="717" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="717" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G717" s="4"/>
     </row>
-    <row r="718" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="718" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G718" s="4"/>
     </row>
-    <row r="719" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="719" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G719" s="4"/>
     </row>
-    <row r="720" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="720" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G720" s="4"/>
     </row>
-    <row r="721" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="721" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G721" s="4"/>
     </row>
-    <row r="722" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="722" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G722" s="4"/>
     </row>
-    <row r="723" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="723" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G723" s="4"/>
     </row>
-    <row r="724" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="724" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G724" s="4"/>
     </row>
-    <row r="725" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="725" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G725" s="4"/>
     </row>
-    <row r="726" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="726" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G726" s="4"/>
     </row>
-    <row r="727" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="727" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G727" s="4"/>
     </row>
-    <row r="728" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="728" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G728" s="4"/>
     </row>
-    <row r="729" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="729" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G729" s="4"/>
     </row>
-    <row r="730" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="730" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G730" s="4"/>
     </row>
-    <row r="731" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="731" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G731" s="4"/>
     </row>
-    <row r="732" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="732" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G732" s="4"/>
     </row>
-    <row r="733" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="733" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G733" s="4"/>
     </row>
-    <row r="734" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="734" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G734" s="4"/>
     </row>
-    <row r="735" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="735" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G735" s="4"/>
     </row>
-    <row r="736" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="736" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G736" s="4"/>
     </row>
-    <row r="737" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="737" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G737" s="4"/>
     </row>
-    <row r="738" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="738" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G738" s="4"/>
     </row>
-    <row r="739" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="739" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G739" s="4"/>
     </row>
-    <row r="740" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="740" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G740" s="4"/>
     </row>
-    <row r="741" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="741" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G741" s="4"/>
     </row>
-    <row r="742" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="742" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G742" s="4"/>
     </row>
-    <row r="743" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="743" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G743" s="4"/>
     </row>
-    <row r="744" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="744" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G744" s="4"/>
     </row>
-    <row r="745" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="745" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G745" s="4"/>
     </row>
-    <row r="746" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="746" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G746" s="4"/>
     </row>
-    <row r="747" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="747" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G747" s="4"/>
     </row>
-    <row r="748" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="748" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G748" s="4"/>
     </row>
-    <row r="749" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="749" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G749" s="4"/>
     </row>
-    <row r="750" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="750" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G750" s="4"/>
     </row>
-    <row r="751" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="751" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G751" s="4"/>
     </row>
-    <row r="752" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="752" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G752" s="4"/>
     </row>
-    <row r="753" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="753" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G753" s="4"/>
     </row>
-    <row r="754" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="754" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G754" s="4"/>
     </row>
-    <row r="755" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="755" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G755" s="4"/>
     </row>
-    <row r="756" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="756" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G756" s="4"/>
     </row>
-    <row r="757" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="757" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G757" s="4"/>
     </row>
-    <row r="758" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="758" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G758" s="4"/>
     </row>
-    <row r="759" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="759" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G759" s="4"/>
     </row>
-    <row r="760" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="760" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G760" s="4"/>
     </row>
-    <row r="761" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="761" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G761" s="4"/>
     </row>
-    <row r="762" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="762" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G762" s="4"/>
     </row>
-    <row r="763" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="763" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G763" s="4"/>
     </row>
-    <row r="764" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="764" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G764" s="4"/>
     </row>
-    <row r="765" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="765" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G765" s="4"/>
     </row>
-    <row r="766" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="766" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G766" s="4"/>
     </row>
-    <row r="767" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="767" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G767" s="4"/>
     </row>
-    <row r="768" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="768" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G768" s="4"/>
     </row>
-    <row r="769" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="769" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G769" s="4"/>
     </row>
-    <row r="770" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="770" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G770" s="4"/>
     </row>
-    <row r="771" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="771" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G771" s="4"/>
     </row>
-    <row r="772" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="772" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G772" s="4"/>
     </row>
-    <row r="773" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="773" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G773" s="4"/>
     </row>
-    <row r="774" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="774" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G774" s="4"/>
     </row>
-    <row r="775" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="775" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G775" s="4"/>
     </row>
-    <row r="776" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="776" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G776" s="4"/>
     </row>
-    <row r="777" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="777" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G777" s="4"/>
     </row>
-    <row r="778" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="778" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G778" s="4"/>
     </row>
-    <row r="779" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="779" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G779" s="4"/>
     </row>
-    <row r="780" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="780" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G780" s="4"/>
     </row>
-    <row r="781" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="781" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G781" s="4"/>
     </row>
-    <row r="782" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="782" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G782" s="4"/>
     </row>
-    <row r="783" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="783" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G783" s="4"/>
     </row>
-    <row r="784" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="784" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G784" s="4"/>
     </row>
-    <row r="785" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="785" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G785" s="4"/>
     </row>
-    <row r="786" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="786" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G786" s="4"/>
     </row>
-    <row r="787" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="787" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G787" s="4"/>
     </row>
-    <row r="788" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="788" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G788" s="4"/>
     </row>
-    <row r="789" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="789" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G789" s="4"/>
     </row>
-    <row r="790" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="790" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G790" s="4"/>
     </row>
-    <row r="791" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="791" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G791" s="4"/>
     </row>
-    <row r="792" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="792" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G792" s="4"/>
     </row>
-    <row r="793" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="793" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G793" s="4"/>
     </row>
-    <row r="794" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="794" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G794" s="4"/>
     </row>
-    <row r="795" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="795" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G795" s="4"/>
     </row>
-    <row r="796" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="796" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G796" s="4"/>
     </row>
-    <row r="797" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="797" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G797" s="4"/>
     </row>
-    <row r="798" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="798" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G798" s="4"/>
     </row>
-    <row r="799" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="799" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G799" s="4"/>
     </row>
-    <row r="800" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="800" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G800" s="4"/>
     </row>
-    <row r="801" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="801" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G801" s="4"/>
     </row>
-    <row r="802" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="802" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G802" s="4"/>
     </row>
-    <row r="803" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="803" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G803" s="4"/>
     </row>
-    <row r="804" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="804" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G804" s="4"/>
     </row>
-    <row r="805" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="805" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G805" s="4"/>
     </row>
-    <row r="806" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="806" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G806" s="4"/>
     </row>
-    <row r="807" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="807" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G807" s="4"/>
     </row>
-    <row r="808" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="808" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G808" s="4"/>
     </row>
-    <row r="809" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="809" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G809" s="4"/>
     </row>
-    <row r="810" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="810" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G810" s="4"/>
     </row>
-    <row r="811" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="811" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G811" s="4"/>
     </row>
-    <row r="812" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="812" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G812" s="4"/>
     </row>
-    <row r="813" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="813" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G813" s="4"/>
     </row>
-    <row r="814" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="814" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G814" s="4"/>
     </row>
-    <row r="815" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="815" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G815" s="4"/>
     </row>
-    <row r="816" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="816" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G816" s="4"/>
     </row>
-    <row r="817" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="817" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G817" s="4"/>
     </row>
-    <row r="818" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="818" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G818" s="4"/>
     </row>
-    <row r="819" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="819" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G819" s="4"/>
     </row>
-    <row r="820" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="820" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G820" s="4"/>
     </row>
-    <row r="821" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="821" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G821" s="4"/>
     </row>
-    <row r="822" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="822" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G822" s="4"/>
     </row>
-    <row r="823" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="823" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G823" s="4"/>
     </row>
-    <row r="824" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="824" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G824" s="4"/>
     </row>
-    <row r="825" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="825" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G825" s="4"/>
     </row>
-    <row r="826" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="826" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G826" s="4"/>
     </row>
-    <row r="827" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="827" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G827" s="4"/>
     </row>
-    <row r="828" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="828" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G828" s="4"/>
     </row>
-    <row r="829" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="829" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G829" s="4"/>
     </row>
-    <row r="830" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="830" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G830" s="4"/>
     </row>
-    <row r="831" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="831" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G831" s="4"/>
     </row>
-    <row r="832" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="832" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G832" s="4"/>
     </row>
-    <row r="833" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="833" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G833" s="4"/>
     </row>
-    <row r="834" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="834" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G834" s="4"/>
     </row>
-    <row r="835" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="835" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G835" s="4"/>
     </row>
-    <row r="836" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="836" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G836" s="4"/>
     </row>
-    <row r="837" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="837" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G837" s="4"/>
     </row>
-    <row r="838" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="838" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G838" s="4"/>
     </row>
-    <row r="839" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="839" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G839" s="4"/>
     </row>
-    <row r="840" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="840" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G840" s="4"/>
     </row>
-    <row r="841" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="841" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G841" s="4"/>
     </row>
-    <row r="842" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="842" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G842" s="4"/>
     </row>
-    <row r="843" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="843" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G843" s="4"/>
     </row>
-    <row r="844" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="844" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G844" s="4"/>
     </row>
-    <row r="845" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="845" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G845" s="4"/>
     </row>
-    <row r="846" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="846" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G846" s="4"/>
     </row>
-    <row r="847" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="847" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G847" s="4"/>
     </row>
-    <row r="848" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="848" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G848" s="4"/>
     </row>
-    <row r="849" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="849" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G849" s="4"/>
     </row>
-    <row r="850" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="850" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G850" s="4"/>
     </row>
-    <row r="851" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="851" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G851" s="4"/>
     </row>
-    <row r="852" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="852" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G852" s="4"/>
     </row>
-    <row r="853" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="853" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G853" s="4"/>
     </row>
-    <row r="854" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="854" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G854" s="4"/>
     </row>
-    <row r="855" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="855" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G855" s="4"/>
     </row>
-    <row r="856" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="856" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G856" s="4"/>
     </row>
-    <row r="857" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="857" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G857" s="4"/>
     </row>
-    <row r="858" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="858" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G858" s="4"/>
     </row>
-    <row r="859" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="859" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G859" s="4"/>
     </row>
-    <row r="860" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="860" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G860" s="4"/>
     </row>
-    <row r="861" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="861" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G861" s="4"/>
     </row>
-    <row r="862" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="862" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G862" s="4"/>
     </row>
-    <row r="863" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="863" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G863" s="4"/>
     </row>
-    <row r="864" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="864" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G864" s="4"/>
     </row>
-    <row r="865" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="865" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G865" s="4"/>
     </row>
-    <row r="866" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="866" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G866" s="4"/>
     </row>
-    <row r="867" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="867" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G867" s="4"/>
     </row>
-    <row r="868" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="868" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G868" s="4"/>
     </row>
-    <row r="869" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="869" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G869" s="4"/>
     </row>
-    <row r="870" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="870" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G870" s="4"/>
     </row>
-    <row r="871" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="871" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G871" s="4"/>
     </row>
-    <row r="872" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="872" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G872" s="4"/>
     </row>
-    <row r="873" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="873" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G873" s="4"/>
     </row>
-    <row r="874" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="874" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G874" s="4"/>
     </row>
-    <row r="875" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="875" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G875" s="4"/>
     </row>
-    <row r="876" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="876" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G876" s="4"/>
     </row>
-    <row r="877" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="877" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G877" s="4"/>
     </row>
-    <row r="878" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="878" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G878" s="4"/>
     </row>
-    <row r="879" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="879" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G879" s="4"/>
     </row>
-    <row r="880" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="880" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G880" s="4"/>
     </row>
-    <row r="881" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="881" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G881" s="4"/>
     </row>
-    <row r="882" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="882" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G882" s="4"/>
     </row>
-    <row r="883" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="883" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G883" s="4"/>
     </row>
-    <row r="884" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="884" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G884" s="4"/>
     </row>
-    <row r="885" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="885" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G885" s="4"/>
     </row>
-    <row r="886" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="886" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G886" s="4"/>
     </row>
-    <row r="887" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="887" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G887" s="4"/>
     </row>
-    <row r="888" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="888" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G888" s="4"/>
     </row>
-    <row r="889" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="889" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G889" s="4"/>
     </row>
-    <row r="890" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="890" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G890" s="4"/>
     </row>
-    <row r="891" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="891" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G891" s="4"/>
     </row>
-    <row r="892" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="892" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G892" s="4"/>
     </row>
-    <row r="893" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="893" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G893" s="4"/>
     </row>
-    <row r="894" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="894" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G894" s="4"/>
     </row>
-    <row r="895" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="895" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G895" s="4"/>
     </row>
-    <row r="896" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="896" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G896" s="4"/>
     </row>
-    <row r="897" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="897" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G897" s="4"/>
     </row>
-    <row r="898" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="898" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G898" s="4"/>
     </row>
-    <row r="899" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="899" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G899" s="4"/>
     </row>
-    <row r="900" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="900" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G900" s="4"/>
     </row>
-    <row r="901" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="901" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G901" s="4"/>
     </row>
-    <row r="902" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="902" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G902" s="4"/>
     </row>
-    <row r="903" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="903" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G903" s="4"/>
     </row>
-    <row r="904" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="904" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G904" s="4"/>
     </row>
-    <row r="905" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="905" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G905" s="4"/>
     </row>
-    <row r="906" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="906" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G906" s="4"/>
     </row>
-    <row r="907" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="907" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G907" s="4"/>
     </row>
-    <row r="908" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="908" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G908" s="4"/>
     </row>
-    <row r="909" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="909" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G909" s="4"/>
     </row>
-    <row r="910" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="910" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G910" s="4"/>
     </row>
-    <row r="911" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="911" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G911" s="4"/>
     </row>
-    <row r="912" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="912" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G912" s="4"/>
     </row>
-    <row r="913" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="913" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G913" s="4"/>
     </row>
-    <row r="914" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="914" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G914" s="4"/>
     </row>
-    <row r="915" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="915" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G915" s="4"/>
     </row>
-    <row r="916" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="916" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G916" s="4"/>
     </row>
-    <row r="917" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="917" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G917" s="4"/>
     </row>
-    <row r="918" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="918" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G918" s="4"/>
     </row>
-    <row r="919" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="919" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G919" s="4"/>
     </row>
-    <row r="920" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="920" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G920" s="4"/>
     </row>
-    <row r="921" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="921" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G921" s="4"/>
     </row>
-    <row r="922" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="922" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G922" s="4"/>
     </row>
-    <row r="923" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="923" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G923" s="4"/>
     </row>
-    <row r="924" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="924" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G924" s="4"/>
     </row>
-    <row r="925" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="925" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G925" s="4"/>
     </row>
-    <row r="926" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="926" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G926" s="4"/>
     </row>
-    <row r="927" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="927" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G927" s="4"/>
     </row>
-    <row r="928" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="928" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G928" s="4"/>
     </row>
-    <row r="929" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="929" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G929" s="4"/>
     </row>
-    <row r="930" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="930" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G930" s="4"/>
     </row>
-    <row r="931" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="931" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G931" s="4"/>
     </row>
-    <row r="932" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="932" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G932" s="4"/>
     </row>
-    <row r="933" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="933" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G933" s="4"/>
     </row>
-    <row r="934" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="934" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G934" s="4"/>
     </row>
-    <row r="935" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="935" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G935" s="4"/>
     </row>
-    <row r="936" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="936" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G936" s="4"/>
     </row>
-    <row r="937" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="937" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G937" s="4"/>
     </row>
-    <row r="938" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="938" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G938" s="4"/>
     </row>
-    <row r="939" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="939" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G939" s="4"/>
     </row>
-    <row r="940" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="940" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G940" s="4"/>
     </row>
-    <row r="941" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="941" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G941" s="4"/>
     </row>
-    <row r="942" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="942" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G942" s="4"/>
     </row>
-    <row r="943" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="943" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G943" s="4"/>
     </row>
-    <row r="944" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="944" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G944" s="4"/>
     </row>
-    <row r="945" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="945" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G945" s="4"/>
     </row>
-    <row r="946" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="946" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G946" s="4"/>
     </row>
-    <row r="947" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="947" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G947" s="4"/>
     </row>
-    <row r="948" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="948" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G948" s="4"/>
     </row>
-    <row r="949" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="949" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G949" s="4"/>
     </row>
-    <row r="950" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="950" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G950" s="4"/>
     </row>
-    <row r="951" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="951" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G951" s="4"/>
     </row>
-    <row r="952" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="952" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G952" s="4"/>
     </row>
-    <row r="953" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="953" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G953" s="4"/>
     </row>
-    <row r="954" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="954" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G954" s="4"/>
     </row>
-    <row r="955" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="955" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G955" s="4"/>
     </row>
-    <row r="956" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="956" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G956" s="4"/>
     </row>
-    <row r="957" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="957" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G957" s="4"/>
     </row>
-    <row r="958" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="958" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G958" s="4"/>
     </row>
-    <row r="959" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="959" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G959" s="4"/>
     </row>
-    <row r="960" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="960" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G960" s="4"/>
     </row>
-    <row r="961" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="961" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G961" s="4"/>
     </row>
-    <row r="962" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="962" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G962" s="4"/>
     </row>
-    <row r="963" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="963" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G963" s="4"/>
     </row>
-    <row r="964" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="964" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G964" s="4"/>
     </row>
-    <row r="965" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="965" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G965" s="4"/>
     </row>
-    <row r="966" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="966" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G966" s="4"/>
     </row>
-    <row r="967" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="967" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G967" s="4"/>
     </row>
-    <row r="968" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="968" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G968" s="4"/>
     </row>
-    <row r="969" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="969" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G969" s="4"/>
     </row>
-    <row r="970" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="970" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G970" s="4"/>
     </row>
-    <row r="971" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="971" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G971" s="4"/>
     </row>
-    <row r="972" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="972" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G972" s="4"/>
     </row>
-    <row r="973" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="973" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G973" s="4"/>
     </row>
-    <row r="974" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="974" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G974" s="4"/>
     </row>
-    <row r="975" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="975" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G975" s="4"/>
     </row>
-    <row r="976" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="976" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G976" s="4"/>
     </row>
-    <row r="977" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="977" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G977" s="4"/>
     </row>
-    <row r="978" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="978" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G978" s="4"/>
     </row>
-    <row r="979" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="979" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G979" s="4"/>
     </row>
-    <row r="980" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="980" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G980" s="4"/>
     </row>
-    <row r="981" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="981" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G981" s="4"/>
     </row>
-    <row r="982" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="982" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G982" s="4"/>
     </row>
-    <row r="983" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="983" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G983" s="4"/>
     </row>
-    <row r="984" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="984" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G984" s="4"/>
     </row>
-    <row r="985" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="985" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G985" s="4"/>
     </row>
-    <row r="986" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="986" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G986" s="4"/>
     </row>
-    <row r="987" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="987" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G987" s="4"/>
     </row>
-    <row r="988" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="988" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G988" s="4"/>
     </row>
-    <row r="989" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="989" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G989" s="4"/>
     </row>
-    <row r="990" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="990" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G990" s="4"/>
     </row>
-    <row r="991" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="991" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G991" s="4"/>
     </row>
   </sheetData>

--- a/Requirments/Review.xlsx
+++ b/Requirments/Review.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ITI\QA\Online-Mobile-Store-WebSite\Requirments\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\ITI9M-Testing\Core\QA\WorkShop\Online-Mobile-Store-WebSite\Requirments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38397C7D-5CD8-443C-96EB-8EE990AB78D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39F9D918-4C03-4588-831B-5FD858AA512D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="79">
   <si>
     <t>ID</t>
   </si>
@@ -247,7 +247,16 @@
     <t>CRS_supplier_004</t>
   </si>
   <si>
-    <t>In naming convention why we add color??</t>
+    <t>Specify what is the product platform</t>
+  </si>
+  <si>
+    <t>In naming convention why we add color?</t>
+  </si>
+  <si>
+    <t>Remove color from name convention</t>
+  </si>
+  <si>
+    <t>add product photo to be mandatory</t>
   </si>
 </sst>
 </file>
@@ -483,6 +492,11 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -492,13 +506,8 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -719,22 +728,23 @@
   </sheetPr>
   <dimension ref="A1:AC992"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B17" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView tabSelected="1" topLeftCell="D11" workbookViewId="0">
+      <selection activeCell="H26" sqref="H26:I26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24" customWidth="1"/>
-    <col min="2" max="2" width="27.28515625" customWidth="1"/>
-    <col min="3" max="3" width="20.7109375" customWidth="1"/>
+    <col min="2" max="2" width="27.33203125" customWidth="1"/>
+    <col min="3" max="3" width="20.6640625" customWidth="1"/>
     <col min="4" max="4" width="24" customWidth="1"/>
-    <col min="5" max="5" width="94.28515625" customWidth="1"/>
-    <col min="6" max="6" width="25.85546875" customWidth="1"/>
-    <col min="7" max="7" width="18.5703125" customWidth="1"/>
+    <col min="5" max="5" width="94.33203125" customWidth="1"/>
+    <col min="6" max="6" width="25.88671875" customWidth="1"/>
+    <col min="7" max="7" width="18.5546875" customWidth="1"/>
+    <col min="8" max="8" width="39.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="36" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:29" ht="36" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -756,7 +766,7 @@
       <c r="G1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="29" t="s">
+      <c r="H1" s="26" t="s">
         <v>71</v>
       </c>
       <c r="I1" s="25"/>
@@ -781,18 +791,18 @@
       <c r="AB1" s="2"/>
       <c r="AC1" s="2"/>
     </row>
-    <row r="2" spans="1:29" ht="36" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="26" t="s">
+    <row r="2" spans="1:29" ht="36" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A2" s="31" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="28"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="33"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
       <c r="L2" s="2"/>
@@ -814,7 +824,7 @@
       <c r="AB2" s="2"/>
       <c r="AC2" s="2"/>
     </row>
-    <row r="3" spans="1:29" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:29" ht="18" x14ac:dyDescent="0.35">
       <c r="A3" s="7" t="s">
         <v>7</v>
       </c>
@@ -836,10 +846,10 @@
       <c r="G3" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="30"/>
-      <c r="I3" s="31"/>
-    </row>
-    <row r="4" spans="1:29" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H3" s="34"/>
+      <c r="I3" s="35"/>
+    </row>
+    <row r="4" spans="1:29" ht="18" x14ac:dyDescent="0.35">
       <c r="A4" s="7" t="s">
         <v>13</v>
       </c>
@@ -861,10 +871,10 @@
       <c r="G4" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="H4" s="30"/>
-      <c r="I4" s="31"/>
-    </row>
-    <row r="5" spans="1:29" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H4" s="34"/>
+      <c r="I4" s="35"/>
+    </row>
+    <row r="5" spans="1:29" ht="18" x14ac:dyDescent="0.35">
       <c r="A5" s="7" t="s">
         <v>15</v>
       </c>
@@ -886,10 +896,10 @@
       <c r="G5" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="H5" s="30"/>
-      <c r="I5" s="31"/>
-    </row>
-    <row r="6" spans="1:29" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H5" s="34"/>
+      <c r="I5" s="35"/>
+    </row>
+    <row r="6" spans="1:29" ht="18" x14ac:dyDescent="0.35">
       <c r="A6" s="11" t="s">
         <v>19</v>
       </c>
@@ -911,10 +921,10 @@
       <c r="G6" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="H6" s="30"/>
-      <c r="I6" s="31"/>
-    </row>
-    <row r="7" spans="1:29" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H6" s="34"/>
+      <c r="I6" s="35"/>
+    </row>
+    <row r="7" spans="1:29" ht="18" x14ac:dyDescent="0.35">
       <c r="A7" s="11" t="s">
         <v>22</v>
       </c>
@@ -936,10 +946,10 @@
       <c r="G7" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="H7" s="30"/>
-      <c r="I7" s="31"/>
-    </row>
-    <row r="8" spans="1:29" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H7" s="34"/>
+      <c r="I7" s="35"/>
+    </row>
+    <row r="8" spans="1:29" ht="18" x14ac:dyDescent="0.35">
       <c r="A8" s="11" t="s">
         <v>25</v>
       </c>
@@ -961,10 +971,10 @@
       <c r="G8" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="H8" s="30"/>
-      <c r="I8" s="31"/>
-    </row>
-    <row r="9" spans="1:29" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H8" s="34"/>
+      <c r="I8" s="35"/>
+    </row>
+    <row r="9" spans="1:29" ht="18" x14ac:dyDescent="0.35">
       <c r="A9" s="7" t="s">
         <v>28</v>
       </c>
@@ -986,10 +996,10 @@
       <c r="G9" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="H9" s="30"/>
-      <c r="I9" s="31"/>
-    </row>
-    <row r="10" spans="1:29" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H9" s="34"/>
+      <c r="I9" s="35"/>
+    </row>
+    <row r="10" spans="1:29" ht="18" x14ac:dyDescent="0.35">
       <c r="A10" s="7" t="s">
         <v>31</v>
       </c>
@@ -1011,10 +1021,10 @@
       <c r="G10" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="H10" s="30"/>
-      <c r="I10" s="31"/>
-    </row>
-    <row r="11" spans="1:29" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H10" s="34"/>
+      <c r="I10" s="35"/>
+    </row>
+    <row r="11" spans="1:29" ht="18" x14ac:dyDescent="0.35">
       <c r="A11" s="7" t="s">
         <v>34</v>
       </c>
@@ -1036,10 +1046,10 @@
       <c r="G11" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="H11" s="30"/>
-      <c r="I11" s="31"/>
-    </row>
-    <row r="12" spans="1:29" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H11" s="34"/>
+      <c r="I11" s="35"/>
+    </row>
+    <row r="12" spans="1:29" ht="18" x14ac:dyDescent="0.35">
       <c r="A12" s="7" t="s">
         <v>36</v>
       </c>
@@ -1061,10 +1071,10 @@
       <c r="G12" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="H12" s="30"/>
-      <c r="I12" s="31"/>
-    </row>
-    <row r="13" spans="1:29" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H12" s="34"/>
+      <c r="I12" s="35"/>
+    </row>
+    <row r="13" spans="1:29" ht="18" x14ac:dyDescent="0.35">
       <c r="A13" s="7" t="s">
         <v>39</v>
       </c>
@@ -1086,10 +1096,10 @@
       <c r="G13" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="H13" s="30"/>
-      <c r="I13" s="31"/>
-    </row>
-    <row r="14" spans="1:29" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H13" s="34"/>
+      <c r="I13" s="35"/>
+    </row>
+    <row r="14" spans="1:29" ht="18" x14ac:dyDescent="0.35">
       <c r="A14" s="7" t="s">
         <v>42</v>
       </c>
@@ -1111,10 +1121,10 @@
       <c r="G14" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="H14" s="30"/>
-      <c r="I14" s="31"/>
-    </row>
-    <row r="15" spans="1:29" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H14" s="34"/>
+      <c r="I14" s="35"/>
+    </row>
+    <row r="15" spans="1:29" ht="18" x14ac:dyDescent="0.35">
       <c r="A15" s="7" t="s">
         <v>44</v>
       </c>
@@ -1134,10 +1144,10 @@
       <c r="G15" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="H15" s="30"/>
-      <c r="I15" s="31"/>
-    </row>
-    <row r="16" spans="1:29" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H15" s="34"/>
+      <c r="I15" s="35"/>
+    </row>
+    <row r="16" spans="1:29" ht="18" x14ac:dyDescent="0.35">
       <c r="A16" s="7" t="s">
         <v>46</v>
       </c>
@@ -1159,10 +1169,10 @@
       <c r="G16" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="H16" s="30"/>
-      <c r="I16" s="31"/>
-    </row>
-    <row r="17" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H16" s="34"/>
+      <c r="I16" s="35"/>
+    </row>
+    <row r="17" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A17" s="7" t="s">
         <v>50</v>
       </c>
@@ -1184,10 +1194,10 @@
       <c r="G17" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="H17" s="30"/>
-      <c r="I17" s="31"/>
-    </row>
-    <row r="18" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H17" s="34"/>
+      <c r="I17" s="35"/>
+    </row>
+    <row r="18" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A18" s="7" t="s">
         <v>52</v>
       </c>
@@ -1209,10 +1219,10 @@
       <c r="G18" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="H18" s="30"/>
-      <c r="I18" s="31"/>
-    </row>
-    <row r="19" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H18" s="34"/>
+      <c r="I18" s="35"/>
+    </row>
+    <row r="19" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A19" s="16" t="s">
         <v>55</v>
       </c>
@@ -1234,23 +1244,23 @@
       <c r="G19" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="H19" s="30"/>
-      <c r="I19" s="31"/>
-    </row>
-    <row r="20" spans="1:9" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A20" s="26" t="s">
+      <c r="H19" s="34"/>
+      <c r="I19" s="35"/>
+    </row>
+    <row r="20" spans="1:9" ht="25.8" x14ac:dyDescent="0.5">
+      <c r="A20" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="B20" s="27"/>
-      <c r="C20" s="27"/>
-      <c r="D20" s="27"/>
-      <c r="E20" s="27"/>
-      <c r="F20" s="27"/>
-      <c r="G20" s="27"/>
-      <c r="H20" s="27"/>
-      <c r="I20" s="28"/>
-    </row>
-    <row r="21" spans="1:9" s="17" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B20" s="32"/>
+      <c r="C20" s="32"/>
+      <c r="D20" s="32"/>
+      <c r="E20" s="32"/>
+      <c r="F20" s="32"/>
+      <c r="G20" s="32"/>
+      <c r="H20" s="32"/>
+      <c r="I20" s="33"/>
+    </row>
+    <row r="21" spans="1:9" s="17" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A21" s="14" t="s">
         <v>55</v>
       </c>
@@ -1272,10 +1282,10 @@
       <c r="G21" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="H21" s="32"/>
-      <c r="I21" s="33"/>
-    </row>
-    <row r="22" spans="1:9" s="20" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H21" s="29"/>
+      <c r="I21" s="30"/>
+    </row>
+    <row r="22" spans="1:9" s="20" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A22" s="21" t="s">
         <v>7</v>
       </c>
@@ -1297,10 +1307,10 @@
       <c r="G22" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="H22" s="32"/>
-      <c r="I22" s="33"/>
-    </row>
-    <row r="23" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H22" s="29"/>
+      <c r="I22" s="30"/>
+    </row>
+    <row r="23" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A23" s="14" t="s">
         <v>46</v>
       </c>
@@ -1320,12 +1330,14 @@
         <v>67</v>
       </c>
       <c r="G23" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="H23" s="32"/>
-      <c r="I23" s="33"/>
-    </row>
-    <row r="24" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+      <c r="H23" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="I23" s="30"/>
+    </row>
+    <row r="24" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A24" s="14" t="s">
         <v>50</v>
       </c>
@@ -1339,18 +1351,20 @@
         <v>72</v>
       </c>
       <c r="E24" s="14" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F24" s="14" t="s">
         <v>74</v>
       </c>
       <c r="G24" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="H24" s="34"/>
-      <c r="I24" s="35"/>
-    </row>
-    <row r="25" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+      <c r="H24" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="I24" s="28"/>
+    </row>
+    <row r="25" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A25" s="14" t="s">
         <v>73</v>
       </c>
@@ -1370,12 +1384,14 @@
         <v>69</v>
       </c>
       <c r="G25" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="H25" s="32"/>
-      <c r="I25" s="33"/>
-    </row>
-    <row r="26" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+      <c r="H25" s="29" t="s">
+        <v>78</v>
+      </c>
+      <c r="I25" s="30"/>
+    </row>
+    <row r="26" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A26" s="14"/>
       <c r="B26" s="14"/>
       <c r="C26" s="14"/>
@@ -1383,10 +1399,10 @@
       <c r="E26" s="14"/>
       <c r="F26" s="14"/>
       <c r="G26" s="16"/>
-      <c r="H26" s="32"/>
-      <c r="I26" s="33"/>
-    </row>
-    <row r="27" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H26" s="29"/>
+      <c r="I26" s="30"/>
+    </row>
+    <row r="27" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A27" s="14"/>
       <c r="B27" s="14"/>
       <c r="C27" s="14"/>
@@ -1394,10 +1410,10 @@
       <c r="E27" s="14"/>
       <c r="F27" s="14"/>
       <c r="G27" s="16"/>
-      <c r="H27" s="32"/>
-      <c r="I27" s="33"/>
-    </row>
-    <row r="28" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H27" s="29"/>
+      <c r="I27" s="30"/>
+    </row>
+    <row r="28" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A28" s="14"/>
       <c r="B28" s="14"/>
       <c r="C28" s="14"/>
@@ -1405,10 +1421,10 @@
       <c r="E28" s="14"/>
       <c r="F28" s="14"/>
       <c r="G28" s="16"/>
-      <c r="H28" s="32"/>
-      <c r="I28" s="33"/>
-    </row>
-    <row r="29" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H28" s="29"/>
+      <c r="I28" s="30"/>
+    </row>
+    <row r="29" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A29" s="14"/>
       <c r="B29" s="14"/>
       <c r="C29" s="14"/>
@@ -1416,10 +1432,10 @@
       <c r="E29" s="14"/>
       <c r="F29" s="14"/>
       <c r="G29" s="16"/>
-      <c r="H29" s="32"/>
-      <c r="I29" s="33"/>
-    </row>
-    <row r="30" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H29" s="29"/>
+      <c r="I29" s="30"/>
+    </row>
+    <row r="30" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A30" s="14"/>
       <c r="B30" s="14"/>
       <c r="C30" s="14"/>
@@ -1427,10 +1443,10 @@
       <c r="E30" s="14"/>
       <c r="F30" s="14"/>
       <c r="G30" s="16"/>
-      <c r="H30" s="32"/>
-      <c r="I30" s="33"/>
-    </row>
-    <row r="31" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H30" s="29"/>
+      <c r="I30" s="30"/>
+    </row>
+    <row r="31" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A31" s="14"/>
       <c r="B31" s="14"/>
       <c r="C31" s="14"/>
@@ -1438,10 +1454,10 @@
       <c r="E31" s="14"/>
       <c r="F31" s="14"/>
       <c r="G31" s="16"/>
-      <c r="H31" s="32"/>
-      <c r="I31" s="33"/>
-    </row>
-    <row r="32" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H31" s="29"/>
+      <c r="I31" s="30"/>
+    </row>
+    <row r="32" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A32" s="14"/>
       <c r="B32" s="14"/>
       <c r="C32" s="14"/>
@@ -1449,10 +1465,10 @@
       <c r="E32" s="14"/>
       <c r="F32" s="14"/>
       <c r="G32" s="16"/>
-      <c r="H32" s="32"/>
-      <c r="I32" s="33"/>
-    </row>
-    <row r="33" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H32" s="29"/>
+      <c r="I32" s="30"/>
+    </row>
+    <row r="33" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A33" s="14"/>
       <c r="B33" s="14"/>
       <c r="C33" s="14"/>
@@ -1460,10 +1476,10 @@
       <c r="E33" s="14"/>
       <c r="F33" s="14"/>
       <c r="G33" s="16"/>
-      <c r="H33" s="32"/>
-      <c r="I33" s="33"/>
-    </row>
-    <row r="34" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H33" s="29"/>
+      <c r="I33" s="30"/>
+    </row>
+    <row r="34" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A34" s="14"/>
       <c r="B34" s="14"/>
       <c r="C34" s="14"/>
@@ -1471,10 +1487,10 @@
       <c r="E34" s="14"/>
       <c r="F34" s="14"/>
       <c r="G34" s="16"/>
-      <c r="H34" s="32"/>
-      <c r="I34" s="33"/>
-    </row>
-    <row r="35" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H34" s="29"/>
+      <c r="I34" s="30"/>
+    </row>
+    <row r="35" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A35" s="14"/>
       <c r="B35" s="14"/>
       <c r="C35" s="14"/>
@@ -1482,10 +1498,10 @@
       <c r="E35" s="14"/>
       <c r="F35" s="14"/>
       <c r="G35" s="16"/>
-      <c r="H35" s="32"/>
-      <c r="I35" s="33"/>
-    </row>
-    <row r="36" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H35" s="29"/>
+      <c r="I35" s="30"/>
+    </row>
+    <row r="36" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A36" s="14"/>
       <c r="B36" s="14"/>
       <c r="C36" s="14"/>
@@ -1493,10 +1509,10 @@
       <c r="E36" s="14"/>
       <c r="F36" s="14"/>
       <c r="G36" s="16"/>
-      <c r="H36" s="32"/>
-      <c r="I36" s="33"/>
-    </row>
-    <row r="37" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H36" s="29"/>
+      <c r="I36" s="30"/>
+    </row>
+    <row r="37" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A37" s="14"/>
       <c r="B37" s="14"/>
       <c r="C37" s="14"/>
@@ -1504,10 +1520,10 @@
       <c r="E37" s="14"/>
       <c r="F37" s="14"/>
       <c r="G37" s="16"/>
-      <c r="H37" s="32"/>
-      <c r="I37" s="33"/>
-    </row>
-    <row r="38" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H37" s="29"/>
+      <c r="I37" s="30"/>
+    </row>
+    <row r="38" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A38" s="14"/>
       <c r="B38" s="14"/>
       <c r="C38" s="14"/>
@@ -1515,10 +1531,10 @@
       <c r="E38" s="14"/>
       <c r="F38" s="14"/>
       <c r="G38" s="16"/>
-      <c r="H38" s="32"/>
-      <c r="I38" s="33"/>
-    </row>
-    <row r="39" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H38" s="29"/>
+      <c r="I38" s="30"/>
+    </row>
+    <row r="39" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A39" s="14"/>
       <c r="B39" s="14"/>
       <c r="C39" s="14"/>
@@ -1526,10 +1542,10 @@
       <c r="E39" s="14"/>
       <c r="F39" s="14"/>
       <c r="G39" s="16"/>
-      <c r="H39" s="32"/>
-      <c r="I39" s="33"/>
-    </row>
-    <row r="40" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H39" s="29"/>
+      <c r="I39" s="30"/>
+    </row>
+    <row r="40" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A40" s="14"/>
       <c r="B40" s="14"/>
       <c r="C40" s="14"/>
@@ -1537,10 +1553,10 @@
       <c r="E40" s="14"/>
       <c r="F40" s="14"/>
       <c r="G40" s="16"/>
-      <c r="H40" s="32"/>
-      <c r="I40" s="33"/>
-    </row>
-    <row r="41" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H40" s="29"/>
+      <c r="I40" s="30"/>
+    </row>
+    <row r="41" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A41" s="14"/>
       <c r="B41" s="14"/>
       <c r="C41" s="14"/>
@@ -1548,10 +1564,10 @@
       <c r="E41" s="14"/>
       <c r="F41" s="14"/>
       <c r="G41" s="16"/>
-      <c r="H41" s="32"/>
-      <c r="I41" s="33"/>
-    </row>
-    <row r="42" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H41" s="29"/>
+      <c r="I41" s="30"/>
+    </row>
+    <row r="42" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A42" s="14"/>
       <c r="B42" s="14"/>
       <c r="C42" s="14"/>
@@ -1559,10 +1575,10 @@
       <c r="E42" s="14"/>
       <c r="F42" s="14"/>
       <c r="G42" s="16"/>
-      <c r="H42" s="32"/>
-      <c r="I42" s="33"/>
-    </row>
-    <row r="43" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H42" s="29"/>
+      <c r="I42" s="30"/>
+    </row>
+    <row r="43" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A43" s="14"/>
       <c r="B43" s="14"/>
       <c r="C43" s="14"/>
@@ -1570,10 +1586,10 @@
       <c r="E43" s="14"/>
       <c r="F43" s="14"/>
       <c r="G43" s="16"/>
-      <c r="H43" s="32"/>
-      <c r="I43" s="33"/>
-    </row>
-    <row r="44" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H43" s="29"/>
+      <c r="I43" s="30"/>
+    </row>
+    <row r="44" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A44" s="14"/>
       <c r="B44" s="14"/>
       <c r="C44" s="14"/>
@@ -1581,10 +1597,10 @@
       <c r="E44" s="14"/>
       <c r="F44" s="14"/>
       <c r="G44" s="16"/>
-      <c r="H44" s="32"/>
-      <c r="I44" s="33"/>
-    </row>
-    <row r="45" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H44" s="29"/>
+      <c r="I44" s="30"/>
+    </row>
+    <row r="45" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A45" s="14"/>
       <c r="B45" s="14"/>
       <c r="C45" s="14"/>
@@ -1592,10 +1608,10 @@
       <c r="E45" s="14"/>
       <c r="F45" s="14"/>
       <c r="G45" s="16"/>
-      <c r="H45" s="32"/>
-      <c r="I45" s="33"/>
-    </row>
-    <row r="46" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H45" s="29"/>
+      <c r="I45" s="30"/>
+    </row>
+    <row r="46" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A46" s="14"/>
       <c r="B46" s="14"/>
       <c r="C46" s="14"/>
@@ -1603,10 +1619,10 @@
       <c r="E46" s="14"/>
       <c r="F46" s="14"/>
       <c r="G46" s="16"/>
-      <c r="H46" s="32"/>
-      <c r="I46" s="33"/>
-    </row>
-    <row r="47" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H46" s="29"/>
+      <c r="I46" s="30"/>
+    </row>
+    <row r="47" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A47" s="14"/>
       <c r="B47" s="14"/>
       <c r="C47" s="14"/>
@@ -1614,10 +1630,10 @@
       <c r="E47" s="14"/>
       <c r="F47" s="14"/>
       <c r="G47" s="16"/>
-      <c r="H47" s="32"/>
-      <c r="I47" s="33"/>
-    </row>
-    <row r="48" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H47" s="29"/>
+      <c r="I47" s="30"/>
+    </row>
+    <row r="48" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A48" s="14"/>
       <c r="B48" s="14"/>
       <c r="C48" s="14"/>
@@ -1625,10 +1641,10 @@
       <c r="E48" s="14"/>
       <c r="F48" s="14"/>
       <c r="G48" s="16"/>
-      <c r="H48" s="32"/>
-      <c r="I48" s="33"/>
-    </row>
-    <row r="49" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H48" s="29"/>
+      <c r="I48" s="30"/>
+    </row>
+    <row r="49" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A49" s="14"/>
       <c r="B49" s="14"/>
       <c r="C49" s="14"/>
@@ -1636,10 +1652,10 @@
       <c r="E49" s="14"/>
       <c r="F49" s="14"/>
       <c r="G49" s="16"/>
-      <c r="H49" s="32"/>
-      <c r="I49" s="33"/>
-    </row>
-    <row r="50" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H49" s="29"/>
+      <c r="I49" s="30"/>
+    </row>
+    <row r="50" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A50" s="14"/>
       <c r="B50" s="14"/>
       <c r="C50" s="14"/>
@@ -1647,10 +1663,10 @@
       <c r="E50" s="14"/>
       <c r="F50" s="14"/>
       <c r="G50" s="16"/>
-      <c r="H50" s="32"/>
-      <c r="I50" s="33"/>
-    </row>
-    <row r="51" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H50" s="29"/>
+      <c r="I50" s="30"/>
+    </row>
+    <row r="51" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A51" s="14"/>
       <c r="B51" s="14"/>
       <c r="C51" s="14"/>
@@ -1658,10 +1674,10 @@
       <c r="E51" s="14"/>
       <c r="F51" s="14"/>
       <c r="G51" s="16"/>
-      <c r="H51" s="32"/>
-      <c r="I51" s="33"/>
-    </row>
-    <row r="52" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H51" s="29"/>
+      <c r="I51" s="30"/>
+    </row>
+    <row r="52" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A52" s="14"/>
       <c r="B52" s="14"/>
       <c r="C52" s="14"/>
@@ -1669,10 +1685,10 @@
       <c r="E52" s="14"/>
       <c r="F52" s="14"/>
       <c r="G52" s="16"/>
-      <c r="H52" s="32"/>
-      <c r="I52" s="33"/>
-    </row>
-    <row r="53" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H52" s="29"/>
+      <c r="I52" s="30"/>
+    </row>
+    <row r="53" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A53" s="14"/>
       <c r="B53" s="14"/>
       <c r="C53" s="14"/>
@@ -1680,10 +1696,10 @@
       <c r="E53" s="14"/>
       <c r="F53" s="14"/>
       <c r="G53" s="16"/>
-      <c r="H53" s="32"/>
-      <c r="I53" s="33"/>
-    </row>
-    <row r="54" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H53" s="29"/>
+      <c r="I53" s="30"/>
+    </row>
+    <row r="54" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A54" s="14"/>
       <c r="B54" s="14"/>
       <c r="C54" s="14"/>
@@ -1691,10 +1707,10 @@
       <c r="E54" s="14"/>
       <c r="F54" s="14"/>
       <c r="G54" s="16"/>
-      <c r="H54" s="32"/>
-      <c r="I54" s="33"/>
-    </row>
-    <row r="55" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H54" s="29"/>
+      <c r="I54" s="30"/>
+    </row>
+    <row r="55" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A55" s="14"/>
       <c r="B55" s="14"/>
       <c r="C55" s="14"/>
@@ -1702,10 +1718,10 @@
       <c r="E55" s="14"/>
       <c r="F55" s="14"/>
       <c r="G55" s="16"/>
-      <c r="H55" s="32"/>
-      <c r="I55" s="33"/>
-    </row>
-    <row r="56" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H55" s="29"/>
+      <c r="I55" s="30"/>
+    </row>
+    <row r="56" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A56" s="14"/>
       <c r="B56" s="14"/>
       <c r="C56" s="14"/>
@@ -1713,10 +1729,10 @@
       <c r="E56" s="14"/>
       <c r="F56" s="14"/>
       <c r="G56" s="16"/>
-      <c r="H56" s="32"/>
-      <c r="I56" s="33"/>
-    </row>
-    <row r="57" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H56" s="29"/>
+      <c r="I56" s="30"/>
+    </row>
+    <row r="57" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A57" s="14"/>
       <c r="B57" s="14"/>
       <c r="C57" s="14"/>
@@ -1724,10 +1740,10 @@
       <c r="E57" s="14"/>
       <c r="F57" s="14"/>
       <c r="G57" s="16"/>
-      <c r="H57" s="32"/>
-      <c r="I57" s="33"/>
-    </row>
-    <row r="58" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H57" s="29"/>
+      <c r="I57" s="30"/>
+    </row>
+    <row r="58" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A58" s="14"/>
       <c r="B58" s="14"/>
       <c r="C58" s="14"/>
@@ -1735,10 +1751,10 @@
       <c r="E58" s="14"/>
       <c r="F58" s="14"/>
       <c r="G58" s="16"/>
-      <c r="H58" s="32"/>
-      <c r="I58" s="33"/>
-    </row>
-    <row r="59" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H58" s="29"/>
+      <c r="I58" s="30"/>
+    </row>
+    <row r="59" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A59" s="14"/>
       <c r="B59" s="14"/>
       <c r="C59" s="14"/>
@@ -1746,10 +1762,10 @@
       <c r="E59" s="14"/>
       <c r="F59" s="14"/>
       <c r="G59" s="16"/>
-      <c r="H59" s="32"/>
-      <c r="I59" s="33"/>
-    </row>
-    <row r="60" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H59" s="29"/>
+      <c r="I59" s="30"/>
+    </row>
+    <row r="60" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A60" s="14"/>
       <c r="B60" s="14"/>
       <c r="C60" s="14"/>
@@ -1757,10 +1773,10 @@
       <c r="E60" s="14"/>
       <c r="F60" s="14"/>
       <c r="G60" s="16"/>
-      <c r="H60" s="32"/>
-      <c r="I60" s="33"/>
-    </row>
-    <row r="61" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H60" s="29"/>
+      <c r="I60" s="30"/>
+    </row>
+    <row r="61" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A61" s="14"/>
       <c r="B61" s="14"/>
       <c r="C61" s="14"/>
@@ -1768,10 +1784,10 @@
       <c r="E61" s="14"/>
       <c r="F61" s="14"/>
       <c r="G61" s="16"/>
-      <c r="H61" s="32"/>
-      <c r="I61" s="33"/>
-    </row>
-    <row r="62" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H61" s="29"/>
+      <c r="I61" s="30"/>
+    </row>
+    <row r="62" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A62" s="14"/>
       <c r="B62" s="14"/>
       <c r="C62" s="14"/>
@@ -1779,10 +1795,10 @@
       <c r="E62" s="14"/>
       <c r="F62" s="14"/>
       <c r="G62" s="16"/>
-      <c r="H62" s="32"/>
-      <c r="I62" s="33"/>
-    </row>
-    <row r="63" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H62" s="29"/>
+      <c r="I62" s="30"/>
+    </row>
+    <row r="63" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A63" s="14"/>
       <c r="B63" s="14"/>
       <c r="C63" s="14"/>
@@ -1790,10 +1806,10 @@
       <c r="E63" s="14"/>
       <c r="F63" s="14"/>
       <c r="G63" s="16"/>
-      <c r="H63" s="32"/>
-      <c r="I63" s="33"/>
-    </row>
-    <row r="64" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H63" s="29"/>
+      <c r="I63" s="30"/>
+    </row>
+    <row r="64" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A64" s="14"/>
       <c r="B64" s="14"/>
       <c r="C64" s="14"/>
@@ -1801,10 +1817,10 @@
       <c r="E64" s="14"/>
       <c r="F64" s="14"/>
       <c r="G64" s="16"/>
-      <c r="H64" s="32"/>
-      <c r="I64" s="33"/>
-    </row>
-    <row r="65" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H64" s="29"/>
+      <c r="I64" s="30"/>
+    </row>
+    <row r="65" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A65" s="14"/>
       <c r="B65" s="14"/>
       <c r="C65" s="14"/>
@@ -1812,10 +1828,10 @@
       <c r="E65" s="14"/>
       <c r="F65" s="14"/>
       <c r="G65" s="16"/>
-      <c r="H65" s="32"/>
-      <c r="I65" s="33"/>
-    </row>
-    <row r="66" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H65" s="29"/>
+      <c r="I65" s="30"/>
+    </row>
+    <row r="66" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A66" s="14"/>
       <c r="B66" s="14"/>
       <c r="C66" s="14"/>
@@ -1823,10 +1839,10 @@
       <c r="E66" s="14"/>
       <c r="F66" s="14"/>
       <c r="G66" s="16"/>
-      <c r="H66" s="32"/>
-      <c r="I66" s="33"/>
-    </row>
-    <row r="67" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H66" s="29"/>
+      <c r="I66" s="30"/>
+    </row>
+    <row r="67" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A67" s="14"/>
       <c r="B67" s="14"/>
       <c r="C67" s="14"/>
@@ -1834,10 +1850,10 @@
       <c r="E67" s="14"/>
       <c r="F67" s="14"/>
       <c r="G67" s="16"/>
-      <c r="H67" s="32"/>
-      <c r="I67" s="33"/>
-    </row>
-    <row r="68" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H67" s="29"/>
+      <c r="I67" s="30"/>
+    </row>
+    <row r="68" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A68" s="14"/>
       <c r="B68" s="14"/>
       <c r="C68" s="14"/>
@@ -1845,10 +1861,10 @@
       <c r="E68" s="14"/>
       <c r="F68" s="14"/>
       <c r="G68" s="16"/>
-      <c r="H68" s="32"/>
-      <c r="I68" s="33"/>
-    </row>
-    <row r="69" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H68" s="29"/>
+      <c r="I68" s="30"/>
+    </row>
+    <row r="69" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A69" s="14"/>
       <c r="B69" s="14"/>
       <c r="C69" s="14"/>
@@ -1856,10 +1872,10 @@
       <c r="E69" s="14"/>
       <c r="F69" s="14"/>
       <c r="G69" s="16"/>
-      <c r="H69" s="32"/>
-      <c r="I69" s="33"/>
-    </row>
-    <row r="70" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H69" s="29"/>
+      <c r="I69" s="30"/>
+    </row>
+    <row r="70" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A70" s="14"/>
       <c r="B70" s="14"/>
       <c r="C70" s="14"/>
@@ -1867,10 +1883,10 @@
       <c r="E70" s="14"/>
       <c r="F70" s="14"/>
       <c r="G70" s="16"/>
-      <c r="H70" s="32"/>
-      <c r="I70" s="33"/>
-    </row>
-    <row r="71" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H70" s="29"/>
+      <c r="I70" s="30"/>
+    </row>
+    <row r="71" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A71" s="14"/>
       <c r="B71" s="14"/>
       <c r="C71" s="14"/>
@@ -1878,10 +1894,10 @@
       <c r="E71" s="14"/>
       <c r="F71" s="14"/>
       <c r="G71" s="16"/>
-      <c r="H71" s="32"/>
-      <c r="I71" s="33"/>
-    </row>
-    <row r="72" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H71" s="29"/>
+      <c r="I71" s="30"/>
+    </row>
+    <row r="72" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A72" s="14"/>
       <c r="B72" s="14"/>
       <c r="C72" s="14"/>
@@ -1889,10 +1905,10 @@
       <c r="E72" s="14"/>
       <c r="F72" s="14"/>
       <c r="G72" s="16"/>
-      <c r="H72" s="32"/>
-      <c r="I72" s="33"/>
-    </row>
-    <row r="73" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H72" s="29"/>
+      <c r="I72" s="30"/>
+    </row>
+    <row r="73" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A73" s="14"/>
       <c r="B73" s="14"/>
       <c r="C73" s="14"/>
@@ -1900,10 +1916,10 @@
       <c r="E73" s="14"/>
       <c r="F73" s="14"/>
       <c r="G73" s="16"/>
-      <c r="H73" s="32"/>
-      <c r="I73" s="33"/>
-    </row>
-    <row r="74" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H73" s="29"/>
+      <c r="I73" s="30"/>
+    </row>
+    <row r="74" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A74" s="14"/>
       <c r="B74" s="14"/>
       <c r="C74" s="14"/>
@@ -1911,10 +1927,10 @@
       <c r="E74" s="14"/>
       <c r="F74" s="14"/>
       <c r="G74" s="16"/>
-      <c r="H74" s="32"/>
-      <c r="I74" s="33"/>
-    </row>
-    <row r="75" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H74" s="29"/>
+      <c r="I74" s="30"/>
+    </row>
+    <row r="75" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A75" s="14"/>
       <c r="B75" s="14"/>
       <c r="C75" s="14"/>
@@ -1922,10 +1938,10 @@
       <c r="E75" s="14"/>
       <c r="F75" s="14"/>
       <c r="G75" s="16"/>
-      <c r="H75" s="32"/>
-      <c r="I75" s="33"/>
-    </row>
-    <row r="76" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H75" s="29"/>
+      <c r="I75" s="30"/>
+    </row>
+    <row r="76" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A76" s="14"/>
       <c r="B76" s="14"/>
       <c r="C76" s="14"/>
@@ -1933,10 +1949,10 @@
       <c r="E76" s="14"/>
       <c r="F76" s="14"/>
       <c r="G76" s="16"/>
-      <c r="H76" s="32"/>
-      <c r="I76" s="33"/>
-    </row>
-    <row r="77" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H76" s="29"/>
+      <c r="I76" s="30"/>
+    </row>
+    <row r="77" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A77" s="14"/>
       <c r="B77" s="14"/>
       <c r="C77" s="14"/>
@@ -1944,10 +1960,10 @@
       <c r="E77" s="14"/>
       <c r="F77" s="14"/>
       <c r="G77" s="16"/>
-      <c r="H77" s="32"/>
-      <c r="I77" s="33"/>
-    </row>
-    <row r="78" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H77" s="29"/>
+      <c r="I77" s="30"/>
+    </row>
+    <row r="78" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A78" s="14"/>
       <c r="B78" s="14"/>
       <c r="C78" s="14"/>
@@ -1955,10 +1971,10 @@
       <c r="E78" s="14"/>
       <c r="F78" s="14"/>
       <c r="G78" s="16"/>
-      <c r="H78" s="32"/>
-      <c r="I78" s="33"/>
-    </row>
-    <row r="79" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H78" s="29"/>
+      <c r="I78" s="30"/>
+    </row>
+    <row r="79" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A79" s="14"/>
       <c r="B79" s="14"/>
       <c r="C79" s="14"/>
@@ -1966,10 +1982,10 @@
       <c r="E79" s="14"/>
       <c r="F79" s="14"/>
       <c r="G79" s="16"/>
-      <c r="H79" s="32"/>
-      <c r="I79" s="33"/>
-    </row>
-    <row r="80" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H79" s="29"/>
+      <c r="I79" s="30"/>
+    </row>
+    <row r="80" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A80" s="14"/>
       <c r="B80" s="14"/>
       <c r="C80" s="14"/>
@@ -1977,10 +1993,10 @@
       <c r="E80" s="14"/>
       <c r="F80" s="14"/>
       <c r="G80" s="16"/>
-      <c r="H80" s="32"/>
-      <c r="I80" s="33"/>
-    </row>
-    <row r="81" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H80" s="29"/>
+      <c r="I80" s="30"/>
+    </row>
+    <row r="81" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A81" s="14"/>
       <c r="B81" s="14"/>
       <c r="C81" s="14"/>
@@ -1988,10 +2004,10 @@
       <c r="E81" s="14"/>
       <c r="F81" s="14"/>
       <c r="G81" s="16"/>
-      <c r="H81" s="32"/>
-      <c r="I81" s="33"/>
-    </row>
-    <row r="82" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H81" s="29"/>
+      <c r="I81" s="30"/>
+    </row>
+    <row r="82" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A82" s="14"/>
       <c r="B82" s="14"/>
       <c r="C82" s="14"/>
@@ -1999,10 +2015,10 @@
       <c r="E82" s="14"/>
       <c r="F82" s="14"/>
       <c r="G82" s="16"/>
-      <c r="H82" s="32"/>
-      <c r="I82" s="33"/>
-    </row>
-    <row r="83" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H82" s="29"/>
+      <c r="I82" s="30"/>
+    </row>
+    <row r="83" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A83" s="14"/>
       <c r="B83" s="14"/>
       <c r="C83" s="14"/>
@@ -2010,10 +2026,10 @@
       <c r="E83" s="14"/>
       <c r="F83" s="14"/>
       <c r="G83" s="16"/>
-      <c r="H83" s="32"/>
-      <c r="I83" s="33"/>
-    </row>
-    <row r="84" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H83" s="29"/>
+      <c r="I83" s="30"/>
+    </row>
+    <row r="84" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A84" s="14"/>
       <c r="B84" s="14"/>
       <c r="C84" s="14"/>
@@ -2021,10 +2037,10 @@
       <c r="E84" s="14"/>
       <c r="F84" s="14"/>
       <c r="G84" s="16"/>
-      <c r="H84" s="32"/>
-      <c r="I84" s="33"/>
-    </row>
-    <row r="85" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H84" s="29"/>
+      <c r="I84" s="30"/>
+    </row>
+    <row r="85" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A85" s="14"/>
       <c r="B85" s="14"/>
       <c r="C85" s="14"/>
@@ -2032,10 +2048,10 @@
       <c r="E85" s="14"/>
       <c r="F85" s="14"/>
       <c r="G85" s="16"/>
-      <c r="H85" s="32"/>
-      <c r="I85" s="33"/>
-    </row>
-    <row r="86" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H85" s="29"/>
+      <c r="I85" s="30"/>
+    </row>
+    <row r="86" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A86" s="14"/>
       <c r="B86" s="14"/>
       <c r="C86" s="14"/>
@@ -2043,10 +2059,10 @@
       <c r="E86" s="14"/>
       <c r="F86" s="14"/>
       <c r="G86" s="16"/>
-      <c r="H86" s="32"/>
-      <c r="I86" s="33"/>
-    </row>
-    <row r="87" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H86" s="29"/>
+      <c r="I86" s="30"/>
+    </row>
+    <row r="87" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A87" s="14"/>
       <c r="B87" s="14"/>
       <c r="C87" s="14"/>
@@ -2054,10 +2070,10 @@
       <c r="E87" s="14"/>
       <c r="F87" s="14"/>
       <c r="G87" s="16"/>
-      <c r="H87" s="32"/>
-      <c r="I87" s="33"/>
-    </row>
-    <row r="88" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H87" s="29"/>
+      <c r="I87" s="30"/>
+    </row>
+    <row r="88" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A88" s="14"/>
       <c r="B88" s="14"/>
       <c r="C88" s="14"/>
@@ -2065,10 +2081,10 @@
       <c r="E88" s="14"/>
       <c r="F88" s="14"/>
       <c r="G88" s="16"/>
-      <c r="H88" s="32"/>
-      <c r="I88" s="33"/>
-    </row>
-    <row r="89" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H88" s="29"/>
+      <c r="I88" s="30"/>
+    </row>
+    <row r="89" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A89" s="14"/>
       <c r="B89" s="14"/>
       <c r="C89" s="14"/>
@@ -2076,10 +2092,10 @@
       <c r="E89" s="14"/>
       <c r="F89" s="14"/>
       <c r="G89" s="16"/>
-      <c r="H89" s="32"/>
-      <c r="I89" s="33"/>
-    </row>
-    <row r="90" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H89" s="29"/>
+      <c r="I89" s="30"/>
+    </row>
+    <row r="90" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A90" s="14"/>
       <c r="B90" s="14"/>
       <c r="C90" s="14"/>
@@ -2087,10 +2103,10 @@
       <c r="E90" s="14"/>
       <c r="F90" s="14"/>
       <c r="G90" s="16"/>
-      <c r="H90" s="32"/>
-      <c r="I90" s="33"/>
-    </row>
-    <row r="91" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H90" s="29"/>
+      <c r="I90" s="30"/>
+    </row>
+    <row r="91" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A91" s="14"/>
       <c r="B91" s="14"/>
       <c r="C91" s="14"/>
@@ -2098,10 +2114,10 @@
       <c r="E91" s="14"/>
       <c r="F91" s="14"/>
       <c r="G91" s="16"/>
-      <c r="H91" s="32"/>
-      <c r="I91" s="33"/>
-    </row>
-    <row r="92" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H91" s="29"/>
+      <c r="I91" s="30"/>
+    </row>
+    <row r="92" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A92" s="14"/>
       <c r="B92" s="14"/>
       <c r="C92" s="14"/>
@@ -2109,10 +2125,10 @@
       <c r="E92" s="14"/>
       <c r="F92" s="14"/>
       <c r="G92" s="16"/>
-      <c r="H92" s="32"/>
-      <c r="I92" s="33"/>
-    </row>
-    <row r="93" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H92" s="29"/>
+      <c r="I92" s="30"/>
+    </row>
+    <row r="93" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A93" s="14"/>
       <c r="B93" s="14"/>
       <c r="C93" s="14"/>
@@ -2120,10 +2136,10 @@
       <c r="E93" s="14"/>
       <c r="F93" s="14"/>
       <c r="G93" s="16"/>
-      <c r="H93" s="32"/>
-      <c r="I93" s="33"/>
-    </row>
-    <row r="94" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H93" s="29"/>
+      <c r="I93" s="30"/>
+    </row>
+    <row r="94" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A94" s="14"/>
       <c r="B94" s="14"/>
       <c r="C94" s="14"/>
@@ -2131,10 +2147,10 @@
       <c r="E94" s="14"/>
       <c r="F94" s="14"/>
       <c r="G94" s="16"/>
-      <c r="H94" s="32"/>
-      <c r="I94" s="33"/>
-    </row>
-    <row r="95" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H94" s="29"/>
+      <c r="I94" s="30"/>
+    </row>
+    <row r="95" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A95" s="14"/>
       <c r="B95" s="14"/>
       <c r="C95" s="14"/>
@@ -2142,10 +2158,10 @@
       <c r="E95" s="14"/>
       <c r="F95" s="14"/>
       <c r="G95" s="16"/>
-      <c r="H95" s="32"/>
-      <c r="I95" s="33"/>
-    </row>
-    <row r="96" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H95" s="29"/>
+      <c r="I95" s="30"/>
+    </row>
+    <row r="96" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A96" s="14"/>
       <c r="B96" s="14"/>
       <c r="C96" s="14"/>
@@ -2153,10 +2169,10 @@
       <c r="E96" s="14"/>
       <c r="F96" s="14"/>
       <c r="G96" s="16"/>
-      <c r="H96" s="32"/>
-      <c r="I96" s="33"/>
-    </row>
-    <row r="97" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H96" s="29"/>
+      <c r="I96" s="30"/>
+    </row>
+    <row r="97" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A97" s="14"/>
       <c r="B97" s="14"/>
       <c r="C97" s="14"/>
@@ -2164,10 +2180,10 @@
       <c r="E97" s="14"/>
       <c r="F97" s="14"/>
       <c r="G97" s="16"/>
-      <c r="H97" s="32"/>
-      <c r="I97" s="33"/>
-    </row>
-    <row r="98" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H97" s="29"/>
+      <c r="I97" s="30"/>
+    </row>
+    <row r="98" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A98" s="14"/>
       <c r="B98" s="14"/>
       <c r="C98" s="14"/>
@@ -2175,10 +2191,10 @@
       <c r="E98" s="14"/>
       <c r="F98" s="14"/>
       <c r="G98" s="16"/>
-      <c r="H98" s="32"/>
-      <c r="I98" s="33"/>
-    </row>
-    <row r="99" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H98" s="29"/>
+      <c r="I98" s="30"/>
+    </row>
+    <row r="99" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A99" s="14"/>
       <c r="B99" s="14"/>
       <c r="C99" s="14"/>
@@ -2186,10 +2202,10 @@
       <c r="E99" s="14"/>
       <c r="F99" s="14"/>
       <c r="G99" s="16"/>
-      <c r="H99" s="32"/>
-      <c r="I99" s="33"/>
-    </row>
-    <row r="100" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H99" s="29"/>
+      <c r="I99" s="30"/>
+    </row>
+    <row r="100" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A100" s="14"/>
       <c r="B100" s="14"/>
       <c r="C100" s="14"/>
@@ -2197,10 +2213,10 @@
       <c r="E100" s="14"/>
       <c r="F100" s="14"/>
       <c r="G100" s="16"/>
-      <c r="H100" s="32"/>
-      <c r="I100" s="33"/>
-    </row>
-    <row r="101" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H100" s="29"/>
+      <c r="I100" s="30"/>
+    </row>
+    <row r="101" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A101" s="14"/>
       <c r="B101" s="14"/>
       <c r="C101" s="14"/>
@@ -2208,10 +2224,10 @@
       <c r="E101" s="14"/>
       <c r="F101" s="14"/>
       <c r="G101" s="16"/>
-      <c r="H101" s="32"/>
-      <c r="I101" s="33"/>
-    </row>
-    <row r="102" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H101" s="29"/>
+      <c r="I101" s="30"/>
+    </row>
+    <row r="102" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A102" s="14"/>
       <c r="B102" s="14"/>
       <c r="C102" s="14"/>
@@ -2219,10 +2235,10 @@
       <c r="E102" s="14"/>
       <c r="F102" s="14"/>
       <c r="G102" s="16"/>
-      <c r="H102" s="32"/>
-      <c r="I102" s="33"/>
-    </row>
-    <row r="103" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H102" s="29"/>
+      <c r="I102" s="30"/>
+    </row>
+    <row r="103" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A103" s="14"/>
       <c r="B103" s="14"/>
       <c r="C103" s="14"/>
@@ -2230,10 +2246,10 @@
       <c r="E103" s="14"/>
       <c r="F103" s="14"/>
       <c r="G103" s="16"/>
-      <c r="H103" s="32"/>
-      <c r="I103" s="33"/>
-    </row>
-    <row r="104" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H103" s="29"/>
+      <c r="I103" s="30"/>
+    </row>
+    <row r="104" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A104" s="14"/>
       <c r="B104" s="14"/>
       <c r="C104" s="14"/>
@@ -2241,10 +2257,10 @@
       <c r="E104" s="14"/>
       <c r="F104" s="14"/>
       <c r="G104" s="16"/>
-      <c r="H104" s="32"/>
-      <c r="I104" s="33"/>
-    </row>
-    <row r="105" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H104" s="29"/>
+      <c r="I104" s="30"/>
+    </row>
+    <row r="105" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A105" s="14"/>
       <c r="B105" s="14"/>
       <c r="C105" s="14"/>
@@ -2252,10 +2268,10 @@
       <c r="E105" s="14"/>
       <c r="F105" s="14"/>
       <c r="G105" s="16"/>
-      <c r="H105" s="32"/>
-      <c r="I105" s="33"/>
-    </row>
-    <row r="106" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H105" s="29"/>
+      <c r="I105" s="30"/>
+    </row>
+    <row r="106" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A106" s="14"/>
       <c r="B106" s="14"/>
       <c r="C106" s="14"/>
@@ -2263,10 +2279,10 @@
       <c r="E106" s="14"/>
       <c r="F106" s="14"/>
       <c r="G106" s="16"/>
-      <c r="H106" s="32"/>
-      <c r="I106" s="33"/>
-    </row>
-    <row r="107" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H106" s="29"/>
+      <c r="I106" s="30"/>
+    </row>
+    <row r="107" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A107" s="14"/>
       <c r="B107" s="14"/>
       <c r="C107" s="14"/>
@@ -2274,10 +2290,10 @@
       <c r="E107" s="14"/>
       <c r="F107" s="14"/>
       <c r="G107" s="16"/>
-      <c r="H107" s="32"/>
-      <c r="I107" s="33"/>
-    </row>
-    <row r="108" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H107" s="29"/>
+      <c r="I107" s="30"/>
+    </row>
+    <row r="108" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A108" s="14"/>
       <c r="B108" s="14"/>
       <c r="C108" s="14"/>
@@ -2285,10 +2301,10 @@
       <c r="E108" s="14"/>
       <c r="F108" s="14"/>
       <c r="G108" s="16"/>
-      <c r="H108" s="32"/>
-      <c r="I108" s="33"/>
-    </row>
-    <row r="109" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H108" s="29"/>
+      <c r="I108" s="30"/>
+    </row>
+    <row r="109" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A109" s="14"/>
       <c r="B109" s="14"/>
       <c r="C109" s="14"/>
@@ -2296,10 +2312,10 @@
       <c r="E109" s="14"/>
       <c r="F109" s="14"/>
       <c r="G109" s="16"/>
-      <c r="H109" s="32"/>
-      <c r="I109" s="33"/>
-    </row>
-    <row r="110" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H109" s="29"/>
+      <c r="I109" s="30"/>
+    </row>
+    <row r="110" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A110" s="14"/>
       <c r="B110" s="14"/>
       <c r="C110" s="14"/>
@@ -2307,10 +2323,10 @@
       <c r="E110" s="14"/>
       <c r="F110" s="14"/>
       <c r="G110" s="16"/>
-      <c r="H110" s="32"/>
-      <c r="I110" s="33"/>
-    </row>
-    <row r="111" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H110" s="29"/>
+      <c r="I110" s="30"/>
+    </row>
+    <row r="111" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A111" s="14"/>
       <c r="B111" s="14"/>
       <c r="C111" s="14"/>
@@ -2318,10 +2334,10 @@
       <c r="E111" s="14"/>
       <c r="F111" s="14"/>
       <c r="G111" s="16"/>
-      <c r="H111" s="32"/>
-      <c r="I111" s="33"/>
-    </row>
-    <row r="112" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H111" s="29"/>
+      <c r="I111" s="30"/>
+    </row>
+    <row r="112" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A112" s="14"/>
       <c r="B112" s="14"/>
       <c r="C112" s="14"/>
@@ -2329,10 +2345,10 @@
       <c r="E112" s="14"/>
       <c r="F112" s="14"/>
       <c r="G112" s="16"/>
-      <c r="H112" s="32"/>
-      <c r="I112" s="33"/>
-    </row>
-    <row r="113" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H112" s="29"/>
+      <c r="I112" s="30"/>
+    </row>
+    <row r="113" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A113" s="14"/>
       <c r="B113" s="14"/>
       <c r="C113" s="14"/>
@@ -2340,10 +2356,10 @@
       <c r="E113" s="14"/>
       <c r="F113" s="14"/>
       <c r="G113" s="16"/>
-      <c r="H113" s="32"/>
-      <c r="I113" s="33"/>
-    </row>
-    <row r="114" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H113" s="29"/>
+      <c r="I113" s="30"/>
+    </row>
+    <row r="114" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A114" s="14"/>
       <c r="B114" s="14"/>
       <c r="C114" s="14"/>
@@ -2351,10 +2367,10 @@
       <c r="E114" s="14"/>
       <c r="F114" s="14"/>
       <c r="G114" s="16"/>
-      <c r="H114" s="32"/>
-      <c r="I114" s="33"/>
-    </row>
-    <row r="115" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H114" s="29"/>
+      <c r="I114" s="30"/>
+    </row>
+    <row r="115" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A115" s="14"/>
       <c r="B115" s="14"/>
       <c r="C115" s="14"/>
@@ -2362,10 +2378,10 @@
       <c r="E115" s="14"/>
       <c r="F115" s="14"/>
       <c r="G115" s="16"/>
-      <c r="H115" s="32"/>
-      <c r="I115" s="33"/>
-    </row>
-    <row r="116" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H115" s="29"/>
+      <c r="I115" s="30"/>
+    </row>
+    <row r="116" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A116" s="14"/>
       <c r="B116" s="14"/>
       <c r="C116" s="14"/>
@@ -2373,10 +2389,10 @@
       <c r="E116" s="14"/>
       <c r="F116" s="14"/>
       <c r="G116" s="16"/>
-      <c r="H116" s="32"/>
-      <c r="I116" s="33"/>
-    </row>
-    <row r="117" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H116" s="29"/>
+      <c r="I116" s="30"/>
+    </row>
+    <row r="117" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A117" s="14"/>
       <c r="B117" s="14"/>
       <c r="C117" s="14"/>
@@ -2384,10 +2400,10 @@
       <c r="E117" s="14"/>
       <c r="F117" s="14"/>
       <c r="G117" s="16"/>
-      <c r="H117" s="32"/>
-      <c r="I117" s="33"/>
-    </row>
-    <row r="118" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H117" s="29"/>
+      <c r="I117" s="30"/>
+    </row>
+    <row r="118" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A118" s="14"/>
       <c r="B118" s="14"/>
       <c r="C118" s="14"/>
@@ -2395,10 +2411,10 @@
       <c r="E118" s="14"/>
       <c r="F118" s="14"/>
       <c r="G118" s="16"/>
-      <c r="H118" s="32"/>
-      <c r="I118" s="33"/>
-    </row>
-    <row r="119" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H118" s="29"/>
+      <c r="I118" s="30"/>
+    </row>
+    <row r="119" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A119" s="14"/>
       <c r="B119" s="14"/>
       <c r="C119" s="14"/>
@@ -2406,10 +2422,10 @@
       <c r="E119" s="14"/>
       <c r="F119" s="14"/>
       <c r="G119" s="16"/>
-      <c r="H119" s="32"/>
-      <c r="I119" s="33"/>
-    </row>
-    <row r="120" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H119" s="29"/>
+      <c r="I119" s="30"/>
+    </row>
+    <row r="120" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A120" s="14"/>
       <c r="B120" s="14"/>
       <c r="C120" s="14"/>
@@ -2417,10 +2433,10 @@
       <c r="E120" s="14"/>
       <c r="F120" s="14"/>
       <c r="G120" s="16"/>
-      <c r="H120" s="32"/>
-      <c r="I120" s="33"/>
-    </row>
-    <row r="121" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H120" s="29"/>
+      <c r="I120" s="30"/>
+    </row>
+    <row r="121" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A121" s="14"/>
       <c r="B121" s="14"/>
       <c r="C121" s="14"/>
@@ -2428,10 +2444,10 @@
       <c r="E121" s="14"/>
       <c r="F121" s="14"/>
       <c r="G121" s="16"/>
-      <c r="H121" s="32"/>
-      <c r="I121" s="33"/>
-    </row>
-    <row r="122" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H121" s="29"/>
+      <c r="I121" s="30"/>
+    </row>
+    <row r="122" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A122" s="14"/>
       <c r="B122" s="14"/>
       <c r="C122" s="14"/>
@@ -2439,10 +2455,10 @@
       <c r="E122" s="14"/>
       <c r="F122" s="14"/>
       <c r="G122" s="16"/>
-      <c r="H122" s="32"/>
-      <c r="I122" s="33"/>
-    </row>
-    <row r="123" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H122" s="29"/>
+      <c r="I122" s="30"/>
+    </row>
+    <row r="123" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A123" s="14"/>
       <c r="B123" s="14"/>
       <c r="C123" s="14"/>
@@ -2450,10 +2466,10 @@
       <c r="E123" s="14"/>
       <c r="F123" s="14"/>
       <c r="G123" s="16"/>
-      <c r="H123" s="32"/>
-      <c r="I123" s="33"/>
-    </row>
-    <row r="124" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H123" s="29"/>
+      <c r="I123" s="30"/>
+    </row>
+    <row r="124" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A124" s="14"/>
       <c r="B124" s="14"/>
       <c r="C124" s="14"/>
@@ -2461,10 +2477,10 @@
       <c r="E124" s="14"/>
       <c r="F124" s="14"/>
       <c r="G124" s="16"/>
-      <c r="H124" s="32"/>
-      <c r="I124" s="33"/>
-    </row>
-    <row r="125" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H124" s="29"/>
+      <c r="I124" s="30"/>
+    </row>
+    <row r="125" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A125" s="14"/>
       <c r="B125" s="14"/>
       <c r="C125" s="14"/>
@@ -2472,10 +2488,10 @@
       <c r="E125" s="14"/>
       <c r="F125" s="14"/>
       <c r="G125" s="16"/>
-      <c r="H125" s="32"/>
-      <c r="I125" s="33"/>
-    </row>
-    <row r="126" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H125" s="29"/>
+      <c r="I125" s="30"/>
+    </row>
+    <row r="126" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A126" s="14"/>
       <c r="B126" s="14"/>
       <c r="C126" s="14"/>
@@ -2483,10 +2499,10 @@
       <c r="E126" s="14"/>
       <c r="F126" s="14"/>
       <c r="G126" s="16"/>
-      <c r="H126" s="32"/>
-      <c r="I126" s="33"/>
-    </row>
-    <row r="127" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H126" s="29"/>
+      <c r="I126" s="30"/>
+    </row>
+    <row r="127" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A127" s="14"/>
       <c r="B127" s="14"/>
       <c r="C127" s="14"/>
@@ -2494,10 +2510,10 @@
       <c r="E127" s="14"/>
       <c r="F127" s="14"/>
       <c r="G127" s="16"/>
-      <c r="H127" s="32"/>
-      <c r="I127" s="33"/>
-    </row>
-    <row r="128" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H127" s="29"/>
+      <c r="I127" s="30"/>
+    </row>
+    <row r="128" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A128" s="14"/>
       <c r="B128" s="14"/>
       <c r="C128" s="14"/>
@@ -2505,10 +2521,10 @@
       <c r="E128" s="14"/>
       <c r="F128" s="14"/>
       <c r="G128" s="16"/>
-      <c r="H128" s="32"/>
-      <c r="I128" s="33"/>
-    </row>
-    <row r="129" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H128" s="29"/>
+      <c r="I128" s="30"/>
+    </row>
+    <row r="129" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A129" s="14"/>
       <c r="B129" s="14"/>
       <c r="C129" s="14"/>
@@ -2516,10 +2532,10 @@
       <c r="E129" s="14"/>
       <c r="F129" s="14"/>
       <c r="G129" s="16"/>
-      <c r="H129" s="32"/>
-      <c r="I129" s="33"/>
-    </row>
-    <row r="130" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H129" s="29"/>
+      <c r="I129" s="30"/>
+    </row>
+    <row r="130" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A130" s="14"/>
       <c r="B130" s="14"/>
       <c r="C130" s="14"/>
@@ -2527,10 +2543,10 @@
       <c r="E130" s="14"/>
       <c r="F130" s="14"/>
       <c r="G130" s="16"/>
-      <c r="H130" s="32"/>
-      <c r="I130" s="33"/>
-    </row>
-    <row r="131" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H130" s="29"/>
+      <c r="I130" s="30"/>
+    </row>
+    <row r="131" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A131" s="14"/>
       <c r="B131" s="14"/>
       <c r="C131" s="14"/>
@@ -2538,10 +2554,10 @@
       <c r="E131" s="14"/>
       <c r="F131" s="14"/>
       <c r="G131" s="16"/>
-      <c r="H131" s="32"/>
-      <c r="I131" s="33"/>
-    </row>
-    <row r="132" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H131" s="29"/>
+      <c r="I131" s="30"/>
+    </row>
+    <row r="132" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A132" s="14"/>
       <c r="B132" s="14"/>
       <c r="C132" s="14"/>
@@ -2549,10 +2565,10 @@
       <c r="E132" s="14"/>
       <c r="F132" s="14"/>
       <c r="G132" s="16"/>
-      <c r="H132" s="32"/>
-      <c r="I132" s="33"/>
-    </row>
-    <row r="133" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H132" s="29"/>
+      <c r="I132" s="30"/>
+    </row>
+    <row r="133" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A133" s="14"/>
       <c r="B133" s="14"/>
       <c r="C133" s="14"/>
@@ -2560,10 +2576,10 @@
       <c r="E133" s="14"/>
       <c r="F133" s="14"/>
       <c r="G133" s="16"/>
-      <c r="H133" s="32"/>
-      <c r="I133" s="33"/>
-    </row>
-    <row r="134" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H133" s="29"/>
+      <c r="I133" s="30"/>
+    </row>
+    <row r="134" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A134" s="14"/>
       <c r="B134" s="14"/>
       <c r="C134" s="14"/>
@@ -2571,10 +2587,10 @@
       <c r="E134" s="14"/>
       <c r="F134" s="14"/>
       <c r="G134" s="16"/>
-      <c r="H134" s="32"/>
-      <c r="I134" s="33"/>
-    </row>
-    <row r="135" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H134" s="29"/>
+      <c r="I134" s="30"/>
+    </row>
+    <row r="135" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A135" s="14"/>
       <c r="B135" s="14"/>
       <c r="C135" s="14"/>
@@ -2582,10 +2598,10 @@
       <c r="E135" s="14"/>
       <c r="F135" s="14"/>
       <c r="G135" s="16"/>
-      <c r="H135" s="32"/>
-      <c r="I135" s="33"/>
-    </row>
-    <row r="136" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H135" s="29"/>
+      <c r="I135" s="30"/>
+    </row>
+    <row r="136" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A136" s="14"/>
       <c r="B136" s="14"/>
       <c r="C136" s="14"/>
@@ -2593,10 +2609,10 @@
       <c r="E136" s="14"/>
       <c r="F136" s="14"/>
       <c r="G136" s="16"/>
-      <c r="H136" s="32"/>
-      <c r="I136" s="33"/>
-    </row>
-    <row r="137" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H136" s="29"/>
+      <c r="I136" s="30"/>
+    </row>
+    <row r="137" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A137" s="14"/>
       <c r="B137" s="14"/>
       <c r="C137" s="14"/>
@@ -2604,10 +2620,10 @@
       <c r="E137" s="14"/>
       <c r="F137" s="14"/>
       <c r="G137" s="16"/>
-      <c r="H137" s="32"/>
-      <c r="I137" s="33"/>
-    </row>
-    <row r="138" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H137" s="29"/>
+      <c r="I137" s="30"/>
+    </row>
+    <row r="138" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A138" s="14"/>
       <c r="B138" s="14"/>
       <c r="C138" s="14"/>
@@ -2615,10 +2631,10 @@
       <c r="E138" s="14"/>
       <c r="F138" s="14"/>
       <c r="G138" s="16"/>
-      <c r="H138" s="32"/>
-      <c r="I138" s="33"/>
-    </row>
-    <row r="139" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H138" s="29"/>
+      <c r="I138" s="30"/>
+    </row>
+    <row r="139" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A139" s="14"/>
       <c r="B139" s="14"/>
       <c r="C139" s="14"/>
@@ -2626,10 +2642,10 @@
       <c r="E139" s="14"/>
       <c r="F139" s="14"/>
       <c r="G139" s="16"/>
-      <c r="H139" s="32"/>
-      <c r="I139" s="33"/>
-    </row>
-    <row r="140" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H139" s="29"/>
+      <c r="I139" s="30"/>
+    </row>
+    <row r="140" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A140" s="14"/>
       <c r="B140" s="14"/>
       <c r="C140" s="14"/>
@@ -2637,10 +2653,10 @@
       <c r="E140" s="14"/>
       <c r="F140" s="14"/>
       <c r="G140" s="16"/>
-      <c r="H140" s="32"/>
-      <c r="I140" s="33"/>
-    </row>
-    <row r="141" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H140" s="29"/>
+      <c r="I140" s="30"/>
+    </row>
+    <row r="141" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A141" s="14"/>
       <c r="B141" s="14"/>
       <c r="C141" s="14"/>
@@ -2648,10 +2664,10 @@
       <c r="E141" s="14"/>
       <c r="F141" s="14"/>
       <c r="G141" s="16"/>
-      <c r="H141" s="32"/>
-      <c r="I141" s="33"/>
-    </row>
-    <row r="142" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H141" s="29"/>
+      <c r="I141" s="30"/>
+    </row>
+    <row r="142" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A142" s="14"/>
       <c r="B142" s="14"/>
       <c r="C142" s="14"/>
@@ -2659,10 +2675,10 @@
       <c r="E142" s="14"/>
       <c r="F142" s="14"/>
       <c r="G142" s="16"/>
-      <c r="H142" s="32"/>
-      <c r="I142" s="33"/>
-    </row>
-    <row r="143" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H142" s="29"/>
+      <c r="I142" s="30"/>
+    </row>
+    <row r="143" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A143" s="14"/>
       <c r="B143" s="14"/>
       <c r="C143" s="14"/>
@@ -2670,10 +2686,10 @@
       <c r="E143" s="14"/>
       <c r="F143" s="14"/>
       <c r="G143" s="16"/>
-      <c r="H143" s="32"/>
-      <c r="I143" s="33"/>
-    </row>
-    <row r="144" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H143" s="29"/>
+      <c r="I143" s="30"/>
+    </row>
+    <row r="144" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A144" s="14"/>
       <c r="B144" s="14"/>
       <c r="C144" s="14"/>
@@ -2681,10 +2697,10 @@
       <c r="E144" s="14"/>
       <c r="F144" s="14"/>
       <c r="G144" s="16"/>
-      <c r="H144" s="32"/>
-      <c r="I144" s="33"/>
-    </row>
-    <row r="145" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H144" s="29"/>
+      <c r="I144" s="30"/>
+    </row>
+    <row r="145" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A145" s="14"/>
       <c r="B145" s="14"/>
       <c r="C145" s="14"/>
@@ -2692,10 +2708,10 @@
       <c r="E145" s="14"/>
       <c r="F145" s="14"/>
       <c r="G145" s="16"/>
-      <c r="H145" s="32"/>
-      <c r="I145" s="33"/>
-    </row>
-    <row r="146" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H145" s="29"/>
+      <c r="I145" s="30"/>
+    </row>
+    <row r="146" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A146" s="14"/>
       <c r="B146" s="14"/>
       <c r="C146" s="14"/>
@@ -2703,10 +2719,10 @@
       <c r="E146" s="14"/>
       <c r="F146" s="14"/>
       <c r="G146" s="16"/>
-      <c r="H146" s="32"/>
-      <c r="I146" s="33"/>
-    </row>
-    <row r="147" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H146" s="29"/>
+      <c r="I146" s="30"/>
+    </row>
+    <row r="147" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A147" s="14"/>
       <c r="B147" s="14"/>
       <c r="C147" s="14"/>
@@ -2714,10 +2730,10 @@
       <c r="E147" s="14"/>
       <c r="F147" s="14"/>
       <c r="G147" s="16"/>
-      <c r="H147" s="32"/>
-      <c r="I147" s="33"/>
-    </row>
-    <row r="148" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H147" s="29"/>
+      <c r="I147" s="30"/>
+    </row>
+    <row r="148" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A148" s="14"/>
       <c r="B148" s="14"/>
       <c r="C148" s="14"/>
@@ -2725,10 +2741,10 @@
       <c r="E148" s="14"/>
       <c r="F148" s="14"/>
       <c r="G148" s="16"/>
-      <c r="H148" s="32"/>
-      <c r="I148" s="33"/>
-    </row>
-    <row r="149" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H148" s="29"/>
+      <c r="I148" s="30"/>
+    </row>
+    <row r="149" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A149" s="14"/>
       <c r="B149" s="14"/>
       <c r="C149" s="14"/>
@@ -2736,10 +2752,10 @@
       <c r="E149" s="14"/>
       <c r="F149" s="14"/>
       <c r="G149" s="16"/>
-      <c r="H149" s="32"/>
-      <c r="I149" s="33"/>
-    </row>
-    <row r="150" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H149" s="29"/>
+      <c r="I149" s="30"/>
+    </row>
+    <row r="150" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A150" s="14"/>
       <c r="B150" s="14"/>
       <c r="C150" s="14"/>
@@ -2747,10 +2763,10 @@
       <c r="E150" s="14"/>
       <c r="F150" s="14"/>
       <c r="G150" s="16"/>
-      <c r="H150" s="32"/>
-      <c r="I150" s="33"/>
-    </row>
-    <row r="151" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H150" s="29"/>
+      <c r="I150" s="30"/>
+    </row>
+    <row r="151" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A151" s="14"/>
       <c r="B151" s="14"/>
       <c r="C151" s="14"/>
@@ -2761,7 +2777,7 @@
       <c r="H151" s="14"/>
       <c r="I151" s="14"/>
     </row>
-    <row r="152" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A152" s="14"/>
       <c r="B152" s="14"/>
       <c r="C152" s="14"/>
@@ -2772,7 +2788,7 @@
       <c r="H152" s="14"/>
       <c r="I152" s="14"/>
     </row>
-    <row r="153" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A153" s="14"/>
       <c r="B153" s="14"/>
       <c r="C153" s="14"/>
@@ -2783,7 +2799,7 @@
       <c r="H153" s="14"/>
       <c r="I153" s="14"/>
     </row>
-    <row r="154" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A154" s="14"/>
       <c r="B154" s="14"/>
       <c r="C154" s="14"/>
@@ -2794,7 +2810,7 @@
       <c r="H154" s="14"/>
       <c r="I154" s="14"/>
     </row>
-    <row r="155" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A155" s="14"/>
       <c r="B155" s="14"/>
       <c r="C155" s="14"/>
@@ -2805,7 +2821,7 @@
       <c r="H155" s="14"/>
       <c r="I155" s="14"/>
     </row>
-    <row r="156" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A156" s="14"/>
       <c r="B156" s="14"/>
       <c r="C156" s="14"/>
@@ -2816,7 +2832,7 @@
       <c r="H156" s="14"/>
       <c r="I156" s="14"/>
     </row>
-    <row r="157" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A157" s="14"/>
       <c r="B157" s="14"/>
       <c r="C157" s="14"/>
@@ -2827,7 +2843,7 @@
       <c r="H157" s="14"/>
       <c r="I157" s="14"/>
     </row>
-    <row r="158" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A158" s="14"/>
       <c r="B158" s="14"/>
       <c r="C158" s="14"/>
@@ -2838,7 +2854,7 @@
       <c r="H158" s="14"/>
       <c r="I158" s="14"/>
     </row>
-    <row r="159" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A159" s="14"/>
       <c r="B159" s="14"/>
       <c r="C159" s="14"/>
@@ -2849,7 +2865,7 @@
       <c r="H159" s="14"/>
       <c r="I159" s="14"/>
     </row>
-    <row r="160" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A160" s="14"/>
       <c r="B160" s="14"/>
       <c r="C160" s="14"/>
@@ -2860,7 +2876,7 @@
       <c r="H160" s="14"/>
       <c r="I160" s="14"/>
     </row>
-    <row r="161" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A161" s="14"/>
       <c r="B161" s="14"/>
       <c r="C161" s="14"/>
@@ -2871,7 +2887,7 @@
       <c r="H161" s="14"/>
       <c r="I161" s="14"/>
     </row>
-    <row r="162" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A162" s="14"/>
       <c r="B162" s="14"/>
       <c r="C162" s="14"/>
@@ -2882,7 +2898,7 @@
       <c r="H162" s="14"/>
       <c r="I162" s="14"/>
     </row>
-    <row r="163" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A163" s="14"/>
       <c r="B163" s="14"/>
       <c r="C163" s="14"/>
@@ -2893,7 +2909,7 @@
       <c r="H163" s="14"/>
       <c r="I163" s="14"/>
     </row>
-    <row r="164" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A164" s="14"/>
       <c r="B164" s="14"/>
       <c r="C164" s="14"/>
@@ -2904,7 +2920,7 @@
       <c r="H164" s="14"/>
       <c r="I164" s="14"/>
     </row>
-    <row r="165" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A165" s="14"/>
       <c r="B165" s="14"/>
       <c r="C165" s="14"/>
@@ -2915,7 +2931,7 @@
       <c r="H165" s="14"/>
       <c r="I165" s="14"/>
     </row>
-    <row r="166" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A166" s="14"/>
       <c r="B166" s="14"/>
       <c r="C166" s="14"/>
@@ -2926,7 +2942,7 @@
       <c r="H166" s="14"/>
       <c r="I166" s="14"/>
     </row>
-    <row r="167" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A167" s="14"/>
       <c r="B167" s="14"/>
       <c r="C167" s="14"/>
@@ -2937,7 +2953,7 @@
       <c r="H167" s="14"/>
       <c r="I167" s="14"/>
     </row>
-    <row r="168" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A168" s="14"/>
       <c r="B168" s="14"/>
       <c r="C168" s="14"/>
@@ -2948,7 +2964,7 @@
       <c r="H168" s="14"/>
       <c r="I168" s="14"/>
     </row>
-    <row r="169" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A169" s="14"/>
       <c r="B169" s="14"/>
       <c r="C169" s="14"/>
@@ -2959,7 +2975,7 @@
       <c r="H169" s="14"/>
       <c r="I169" s="14"/>
     </row>
-    <row r="170" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A170" s="14"/>
       <c r="B170" s="14"/>
       <c r="C170" s="14"/>
@@ -2970,7 +2986,7 @@
       <c r="H170" s="14"/>
       <c r="I170" s="14"/>
     </row>
-    <row r="171" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A171" s="14"/>
       <c r="B171" s="14"/>
       <c r="C171" s="14"/>
@@ -2981,7 +2997,7 @@
       <c r="H171" s="14"/>
       <c r="I171" s="14"/>
     </row>
-    <row r="172" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A172" s="14"/>
       <c r="B172" s="14"/>
       <c r="C172" s="14"/>
@@ -2992,7 +3008,7 @@
       <c r="H172" s="14"/>
       <c r="I172" s="14"/>
     </row>
-    <row r="173" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A173" s="14"/>
       <c r="B173" s="14"/>
       <c r="C173" s="14"/>
@@ -3003,7 +3019,7 @@
       <c r="H173" s="14"/>
       <c r="I173" s="14"/>
     </row>
-    <row r="174" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A174" s="14"/>
       <c r="B174" s="14"/>
       <c r="C174" s="14"/>
@@ -3014,7 +3030,7 @@
       <c r="H174" s="14"/>
       <c r="I174" s="14"/>
     </row>
-    <row r="175" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A175" s="14"/>
       <c r="B175" s="14"/>
       <c r="C175" s="14"/>
@@ -3025,7 +3041,7 @@
       <c r="H175" s="14"/>
       <c r="I175" s="14"/>
     </row>
-    <row r="176" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A176" s="14"/>
       <c r="B176" s="14"/>
       <c r="C176" s="14"/>
@@ -3036,7 +3052,7 @@
       <c r="H176" s="14"/>
       <c r="I176" s="14"/>
     </row>
-    <row r="177" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A177" s="14"/>
       <c r="B177" s="14"/>
       <c r="C177" s="14"/>
@@ -3047,7 +3063,7 @@
       <c r="H177" s="14"/>
       <c r="I177" s="14"/>
     </row>
-    <row r="178" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A178" s="14"/>
       <c r="B178" s="14"/>
       <c r="C178" s="14"/>
@@ -3058,7 +3074,7 @@
       <c r="H178" s="14"/>
       <c r="I178" s="14"/>
     </row>
-    <row r="179" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A179" s="14"/>
       <c r="B179" s="14"/>
       <c r="C179" s="14"/>
@@ -3069,7 +3085,7 @@
       <c r="H179" s="14"/>
       <c r="I179" s="14"/>
     </row>
-    <row r="180" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A180" s="14"/>
       <c r="B180" s="14"/>
       <c r="C180" s="14"/>
@@ -3080,7 +3096,7 @@
       <c r="H180" s="14"/>
       <c r="I180" s="14"/>
     </row>
-    <row r="181" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A181" s="14"/>
       <c r="B181" s="14"/>
       <c r="C181" s="14"/>
@@ -3091,7 +3107,7 @@
       <c r="H181" s="14"/>
       <c r="I181" s="14"/>
     </row>
-    <row r="182" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A182" s="14"/>
       <c r="B182" s="14"/>
       <c r="C182" s="14"/>
@@ -3102,7 +3118,7 @@
       <c r="H182" s="14"/>
       <c r="I182" s="14"/>
     </row>
-    <row r="183" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A183" s="14"/>
       <c r="B183" s="14"/>
       <c r="C183" s="14"/>
@@ -3113,7 +3129,7 @@
       <c r="H183" s="14"/>
       <c r="I183" s="14"/>
     </row>
-    <row r="184" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A184" s="14"/>
       <c r="B184" s="14"/>
       <c r="C184" s="14"/>
@@ -3124,7 +3140,7 @@
       <c r="H184" s="14"/>
       <c r="I184" s="14"/>
     </row>
-    <row r="185" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A185" s="14"/>
       <c r="B185" s="14"/>
       <c r="C185" s="14"/>
@@ -3135,7 +3151,7 @@
       <c r="H185" s="14"/>
       <c r="I185" s="14"/>
     </row>
-    <row r="186" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A186" s="14"/>
       <c r="B186" s="14"/>
       <c r="C186" s="14"/>
@@ -3146,7 +3162,7 @@
       <c r="H186" s="14"/>
       <c r="I186" s="14"/>
     </row>
-    <row r="187" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A187" s="14"/>
       <c r="B187" s="14"/>
       <c r="C187" s="14"/>
@@ -3157,7 +3173,7 @@
       <c r="H187" s="14"/>
       <c r="I187" s="14"/>
     </row>
-    <row r="188" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A188" s="14"/>
       <c r="B188" s="14"/>
       <c r="C188" s="14"/>
@@ -3168,7 +3184,7 @@
       <c r="H188" s="14"/>
       <c r="I188" s="14"/>
     </row>
-    <row r="189" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A189" s="14"/>
       <c r="B189" s="14"/>
       <c r="C189" s="14"/>
@@ -3179,7 +3195,7 @@
       <c r="H189" s="14"/>
       <c r="I189" s="14"/>
     </row>
-    <row r="190" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A190" s="14"/>
       <c r="B190" s="14"/>
       <c r="C190" s="14"/>
@@ -3190,7 +3206,7 @@
       <c r="H190" s="14"/>
       <c r="I190" s="14"/>
     </row>
-    <row r="191" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A191" s="14"/>
       <c r="B191" s="14"/>
       <c r="C191" s="14"/>
@@ -3201,7 +3217,7 @@
       <c r="H191" s="14"/>
       <c r="I191" s="14"/>
     </row>
-    <row r="192" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A192" s="14"/>
       <c r="B192" s="14"/>
       <c r="C192" s="14"/>
@@ -3212,7 +3228,7 @@
       <c r="H192" s="14"/>
       <c r="I192" s="14"/>
     </row>
-    <row r="193" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A193" s="14"/>
       <c r="B193" s="14"/>
       <c r="C193" s="14"/>
@@ -3223,7 +3239,7 @@
       <c r="H193" s="14"/>
       <c r="I193" s="14"/>
     </row>
-    <row r="194" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A194" s="14"/>
       <c r="B194" s="14"/>
       <c r="C194" s="14"/>
@@ -3234,7 +3250,7 @@
       <c r="H194" s="14"/>
       <c r="I194" s="14"/>
     </row>
-    <row r="195" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A195" s="14"/>
       <c r="B195" s="14"/>
       <c r="C195" s="14"/>
@@ -3245,7 +3261,7 @@
       <c r="H195" s="14"/>
       <c r="I195" s="14"/>
     </row>
-    <row r="196" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A196" s="14"/>
       <c r="B196" s="14"/>
       <c r="C196" s="14"/>
@@ -3256,7 +3272,7 @@
       <c r="H196" s="14"/>
       <c r="I196" s="14"/>
     </row>
-    <row r="197" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A197" s="14"/>
       <c r="B197" s="14"/>
       <c r="C197" s="14"/>
@@ -3267,7 +3283,7 @@
       <c r="H197" s="14"/>
       <c r="I197" s="14"/>
     </row>
-    <row r="198" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A198" s="14"/>
       <c r="B198" s="14"/>
       <c r="C198" s="14"/>
@@ -3278,7 +3294,7 @@
       <c r="H198" s="14"/>
       <c r="I198" s="14"/>
     </row>
-    <row r="199" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A199" s="14"/>
       <c r="B199" s="14"/>
       <c r="C199" s="14"/>
@@ -3289,7 +3305,7 @@
       <c r="H199" s="14"/>
       <c r="I199" s="14"/>
     </row>
-    <row r="200" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A200" s="14"/>
       <c r="B200" s="14"/>
       <c r="C200" s="14"/>
@@ -3300,7 +3316,7 @@
       <c r="H200" s="14"/>
       <c r="I200" s="14"/>
     </row>
-    <row r="201" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A201" s="14"/>
       <c r="B201" s="14"/>
       <c r="C201" s="14"/>
@@ -3311,7 +3327,7 @@
       <c r="H201" s="14"/>
       <c r="I201" s="14"/>
     </row>
-    <row r="202" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A202" s="14"/>
       <c r="B202" s="14"/>
       <c r="C202" s="14"/>
@@ -3322,7 +3338,7 @@
       <c r="H202" s="14"/>
       <c r="I202" s="14"/>
     </row>
-    <row r="203" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A203" s="14"/>
       <c r="B203" s="14"/>
       <c r="C203" s="14"/>
@@ -3333,7 +3349,7 @@
       <c r="H203" s="14"/>
       <c r="I203" s="14"/>
     </row>
-    <row r="204" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A204" s="14"/>
       <c r="B204" s="14"/>
       <c r="C204" s="14"/>
@@ -3344,7 +3360,7 @@
       <c r="H204" s="14"/>
       <c r="I204" s="14"/>
     </row>
-    <row r="205" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A205" s="14"/>
       <c r="B205" s="14"/>
       <c r="C205" s="14"/>
@@ -3355,7 +3371,7 @@
       <c r="H205" s="14"/>
       <c r="I205" s="14"/>
     </row>
-    <row r="206" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A206" s="14"/>
       <c r="B206" s="14"/>
       <c r="C206" s="14"/>
@@ -3366,7 +3382,7 @@
       <c r="H206" s="14"/>
       <c r="I206" s="14"/>
     </row>
-    <row r="207" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A207" s="14"/>
       <c r="B207" s="14"/>
       <c r="C207" s="14"/>
@@ -3377,7 +3393,7 @@
       <c r="H207" s="14"/>
       <c r="I207" s="14"/>
     </row>
-    <row r="208" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A208" s="14"/>
       <c r="B208" s="14"/>
       <c r="C208" s="14"/>
@@ -3388,7 +3404,7 @@
       <c r="H208" s="14"/>
       <c r="I208" s="14"/>
     </row>
-    <row r="209" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A209" s="14"/>
       <c r="B209" s="14"/>
       <c r="C209" s="14"/>
@@ -3399,7 +3415,7 @@
       <c r="H209" s="14"/>
       <c r="I209" s="14"/>
     </row>
-    <row r="210" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A210" s="14"/>
       <c r="B210" s="14"/>
       <c r="C210" s="14"/>
@@ -3410,7 +3426,7 @@
       <c r="H210" s="14"/>
       <c r="I210" s="14"/>
     </row>
-    <row r="211" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A211" s="14"/>
       <c r="B211" s="14"/>
       <c r="C211" s="14"/>
@@ -3421,7 +3437,7 @@
       <c r="H211" s="14"/>
       <c r="I211" s="14"/>
     </row>
-    <row r="212" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A212" s="14"/>
       <c r="B212" s="14"/>
       <c r="C212" s="14"/>
@@ -3432,7 +3448,7 @@
       <c r="H212" s="14"/>
       <c r="I212" s="14"/>
     </row>
-    <row r="213" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A213" s="14"/>
       <c r="B213" s="14"/>
       <c r="C213" s="14"/>
@@ -3443,7 +3459,7 @@
       <c r="H213" s="14"/>
       <c r="I213" s="14"/>
     </row>
-    <row r="214" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A214" s="14"/>
       <c r="B214" s="14"/>
       <c r="C214" s="14"/>
@@ -3454,7 +3470,7 @@
       <c r="H214" s="14"/>
       <c r="I214" s="14"/>
     </row>
-    <row r="215" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A215" s="14"/>
       <c r="B215" s="14"/>
       <c r="C215" s="14"/>
@@ -3465,7 +3481,7 @@
       <c r="H215" s="14"/>
       <c r="I215" s="14"/>
     </row>
-    <row r="216" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A216" s="14"/>
       <c r="B216" s="14"/>
       <c r="C216" s="14"/>
@@ -3476,7 +3492,7 @@
       <c r="H216" s="14"/>
       <c r="I216" s="14"/>
     </row>
-    <row r="217" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A217" s="14"/>
       <c r="B217" s="14"/>
       <c r="C217" s="14"/>
@@ -3487,7 +3503,7 @@
       <c r="H217" s="14"/>
       <c r="I217" s="14"/>
     </row>
-    <row r="218" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A218" s="14"/>
       <c r="B218" s="14"/>
       <c r="C218" s="14"/>
@@ -3498,7 +3514,7 @@
       <c r="H218" s="14"/>
       <c r="I218" s="14"/>
     </row>
-    <row r="219" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A219" s="14"/>
       <c r="B219" s="14"/>
       <c r="C219" s="14"/>
@@ -3509,7 +3525,7 @@
       <c r="H219" s="14"/>
       <c r="I219" s="14"/>
     </row>
-    <row r="220" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A220" s="14"/>
       <c r="B220" s="14"/>
       <c r="C220" s="14"/>
@@ -3520,7 +3536,7 @@
       <c r="H220" s="14"/>
       <c r="I220" s="14"/>
     </row>
-    <row r="221" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A221" s="14"/>
       <c r="B221" s="14"/>
       <c r="C221" s="14"/>
@@ -3531,7 +3547,7 @@
       <c r="H221" s="14"/>
       <c r="I221" s="14"/>
     </row>
-    <row r="222" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A222" s="14"/>
       <c r="B222" s="14"/>
       <c r="C222" s="14"/>
@@ -3542,7 +3558,7 @@
       <c r="H222" s="14"/>
       <c r="I222" s="14"/>
     </row>
-    <row r="223" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A223" s="14"/>
       <c r="B223" s="14"/>
       <c r="C223" s="14"/>
@@ -3553,7 +3569,7 @@
       <c r="H223" s="14"/>
       <c r="I223" s="14"/>
     </row>
-    <row r="224" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A224" s="14"/>
       <c r="B224" s="14"/>
       <c r="C224" s="14"/>
@@ -3564,7 +3580,7 @@
       <c r="H224" s="14"/>
       <c r="I224" s="14"/>
     </row>
-    <row r="225" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A225" s="14"/>
       <c r="B225" s="14"/>
       <c r="C225" s="14"/>
@@ -3575,7 +3591,7 @@
       <c r="H225" s="14"/>
       <c r="I225" s="14"/>
     </row>
-    <row r="226" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A226" s="14"/>
       <c r="B226" s="14"/>
       <c r="C226" s="14"/>
@@ -3586,7 +3602,7 @@
       <c r="H226" s="14"/>
       <c r="I226" s="14"/>
     </row>
-    <row r="227" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A227" s="14"/>
       <c r="B227" s="14"/>
       <c r="C227" s="14"/>
@@ -3597,7 +3613,7 @@
       <c r="H227" s="14"/>
       <c r="I227" s="14"/>
     </row>
-    <row r="228" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A228" s="14"/>
       <c r="B228" s="14"/>
       <c r="C228" s="14"/>
@@ -3608,7 +3624,7 @@
       <c r="H228" s="14"/>
       <c r="I228" s="14"/>
     </row>
-    <row r="229" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A229" s="14"/>
       <c r="B229" s="14"/>
       <c r="C229" s="14"/>
@@ -3619,7 +3635,7 @@
       <c r="H229" s="14"/>
       <c r="I229" s="14"/>
     </row>
-    <row r="230" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A230" s="14"/>
       <c r="B230" s="14"/>
       <c r="C230" s="14"/>
@@ -3630,7 +3646,7 @@
       <c r="H230" s="14"/>
       <c r="I230" s="14"/>
     </row>
-    <row r="231" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A231" s="14"/>
       <c r="B231" s="14"/>
       <c r="C231" s="14"/>
@@ -3641,7 +3657,7 @@
       <c r="H231" s="14"/>
       <c r="I231" s="14"/>
     </row>
-    <row r="232" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A232" s="14"/>
       <c r="B232" s="14"/>
       <c r="C232" s="14"/>
@@ -3652,7 +3668,7 @@
       <c r="H232" s="14"/>
       <c r="I232" s="14"/>
     </row>
-    <row r="233" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A233" s="14"/>
       <c r="B233" s="14"/>
       <c r="C233" s="14"/>
@@ -3663,7 +3679,7 @@
       <c r="H233" s="14"/>
       <c r="I233" s="14"/>
     </row>
-    <row r="234" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A234" s="14"/>
       <c r="B234" s="14"/>
       <c r="C234" s="14"/>
@@ -3674,7 +3690,7 @@
       <c r="H234" s="14"/>
       <c r="I234" s="14"/>
     </row>
-    <row r="235" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A235" s="14"/>
       <c r="B235" s="14"/>
       <c r="C235" s="14"/>
@@ -3685,7 +3701,7 @@
       <c r="H235" s="14"/>
       <c r="I235" s="14"/>
     </row>
-    <row r="236" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A236" s="14"/>
       <c r="B236" s="14"/>
       <c r="C236" s="14"/>
@@ -3696,7 +3712,7 @@
       <c r="H236" s="14"/>
       <c r="I236" s="14"/>
     </row>
-    <row r="237" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A237" s="14"/>
       <c r="B237" s="14"/>
       <c r="C237" s="14"/>
@@ -3707,7 +3723,7 @@
       <c r="H237" s="14"/>
       <c r="I237" s="14"/>
     </row>
-    <row r="238" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A238" s="14"/>
       <c r="B238" s="14"/>
       <c r="C238" s="14"/>
@@ -3718,7 +3734,7 @@
       <c r="H238" s="14"/>
       <c r="I238" s="14"/>
     </row>
-    <row r="239" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A239" s="14"/>
       <c r="B239" s="14"/>
       <c r="C239" s="14"/>
@@ -3729,7 +3745,7 @@
       <c r="H239" s="14"/>
       <c r="I239" s="14"/>
     </row>
-    <row r="240" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A240" s="14"/>
       <c r="B240" s="14"/>
       <c r="C240" s="14"/>
@@ -3740,7 +3756,7 @@
       <c r="H240" s="14"/>
       <c r="I240" s="14"/>
     </row>
-    <row r="241" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A241" s="14"/>
       <c r="B241" s="14"/>
       <c r="C241" s="14"/>
@@ -3751,7 +3767,7 @@
       <c r="H241" s="14"/>
       <c r="I241" s="14"/>
     </row>
-    <row r="242" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A242" s="14"/>
       <c r="B242" s="14"/>
       <c r="C242" s="14"/>
@@ -3762,7 +3778,7 @@
       <c r="H242" s="14"/>
       <c r="I242" s="14"/>
     </row>
-    <row r="243" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A243" s="14"/>
       <c r="B243" s="14"/>
       <c r="C243" s="14"/>
@@ -3773,7 +3789,7 @@
       <c r="H243" s="14"/>
       <c r="I243" s="14"/>
     </row>
-    <row r="244" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A244" s="14"/>
       <c r="B244" s="14"/>
       <c r="C244" s="14"/>
@@ -3784,7 +3800,7 @@
       <c r="H244" s="14"/>
       <c r="I244" s="14"/>
     </row>
-    <row r="245" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A245" s="14"/>
       <c r="B245" s="14"/>
       <c r="C245" s="14"/>
@@ -3795,7 +3811,7 @@
       <c r="H245" s="14"/>
       <c r="I245" s="14"/>
     </row>
-    <row r="246" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A246" s="14"/>
       <c r="B246" s="14"/>
       <c r="C246" s="14"/>
@@ -3806,7 +3822,7 @@
       <c r="H246" s="14"/>
       <c r="I246" s="14"/>
     </row>
-    <row r="247" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A247" s="14"/>
       <c r="B247" s="14"/>
       <c r="C247" s="14"/>
@@ -3817,7 +3833,7 @@
       <c r="H247" s="14"/>
       <c r="I247" s="14"/>
     </row>
-    <row r="248" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A248" s="14"/>
       <c r="B248" s="14"/>
       <c r="C248" s="14"/>
@@ -3828,7 +3844,7 @@
       <c r="H248" s="14"/>
       <c r="I248" s="14"/>
     </row>
-    <row r="249" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A249" s="14"/>
       <c r="B249" s="14"/>
       <c r="C249" s="14"/>
@@ -3839,7 +3855,7 @@
       <c r="H249" s="14"/>
       <c r="I249" s="14"/>
     </row>
-    <row r="250" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A250" s="14"/>
       <c r="B250" s="14"/>
       <c r="C250" s="14"/>
@@ -3850,7 +3866,7 @@
       <c r="H250" s="14"/>
       <c r="I250" s="14"/>
     </row>
-    <row r="251" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A251" s="14"/>
       <c r="B251" s="14"/>
       <c r="C251" s="14"/>
@@ -3861,7 +3877,7 @@
       <c r="H251" s="14"/>
       <c r="I251" s="14"/>
     </row>
-    <row r="252" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A252" s="14"/>
       <c r="B252" s="14"/>
       <c r="C252" s="14"/>
@@ -3872,7 +3888,7 @@
       <c r="H252" s="14"/>
       <c r="I252" s="14"/>
     </row>
-    <row r="253" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A253" s="14"/>
       <c r="B253" s="14"/>
       <c r="C253" s="14"/>
@@ -3883,7 +3899,7 @@
       <c r="H253" s="14"/>
       <c r="I253" s="14"/>
     </row>
-    <row r="254" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A254" s="14"/>
       <c r="B254" s="14"/>
       <c r="C254" s="14"/>
@@ -3894,7 +3910,7 @@
       <c r="H254" s="14"/>
       <c r="I254" s="14"/>
     </row>
-    <row r="255" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A255" s="14"/>
       <c r="B255" s="14"/>
       <c r="C255" s="14"/>
@@ -3905,7 +3921,7 @@
       <c r="H255" s="14"/>
       <c r="I255" s="14"/>
     </row>
-    <row r="256" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A256" s="14"/>
       <c r="B256" s="14"/>
       <c r="C256" s="14"/>
@@ -3916,7 +3932,7 @@
       <c r="H256" s="14"/>
       <c r="I256" s="14"/>
     </row>
-    <row r="257" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A257" s="14"/>
       <c r="B257" s="14"/>
       <c r="C257" s="14"/>
@@ -3927,7 +3943,7 @@
       <c r="H257" s="14"/>
       <c r="I257" s="14"/>
     </row>
-    <row r="258" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A258" s="14"/>
       <c r="B258" s="14"/>
       <c r="C258" s="14"/>
@@ -3938,7 +3954,7 @@
       <c r="H258" s="14"/>
       <c r="I258" s="14"/>
     </row>
-    <row r="259" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A259" s="14"/>
       <c r="B259" s="14"/>
       <c r="C259" s="14"/>
@@ -3949,7 +3965,7 @@
       <c r="H259" s="14"/>
       <c r="I259" s="14"/>
     </row>
-    <row r="260" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A260" s="14"/>
       <c r="B260" s="14"/>
       <c r="C260" s="14"/>
@@ -3960,7 +3976,7 @@
       <c r="H260" s="14"/>
       <c r="I260" s="14"/>
     </row>
-    <row r="261" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A261" s="14"/>
       <c r="B261" s="14"/>
       <c r="C261" s="14"/>
@@ -3971,7 +3987,7 @@
       <c r="H261" s="14"/>
       <c r="I261" s="14"/>
     </row>
-    <row r="262" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A262" s="14"/>
       <c r="B262" s="14"/>
       <c r="C262" s="14"/>
@@ -3982,7 +3998,7 @@
       <c r="H262" s="14"/>
       <c r="I262" s="14"/>
     </row>
-    <row r="263" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A263" s="14"/>
       <c r="B263" s="14"/>
       <c r="C263" s="14"/>
@@ -3993,7 +4009,7 @@
       <c r="H263" s="14"/>
       <c r="I263" s="14"/>
     </row>
-    <row r="264" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A264" s="14"/>
       <c r="B264" s="14"/>
       <c r="C264" s="14"/>
@@ -4004,7 +4020,7 @@
       <c r="H264" s="14"/>
       <c r="I264" s="14"/>
     </row>
-    <row r="265" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A265" s="14"/>
       <c r="B265" s="14"/>
       <c r="C265" s="14"/>
@@ -4015,7 +4031,7 @@
       <c r="H265" s="14"/>
       <c r="I265" s="14"/>
     </row>
-    <row r="266" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A266" s="14"/>
       <c r="B266" s="14"/>
       <c r="C266" s="14"/>
@@ -4026,7 +4042,7 @@
       <c r="H266" s="14"/>
       <c r="I266" s="14"/>
     </row>
-    <row r="267" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A267" s="14"/>
       <c r="B267" s="14"/>
       <c r="C267" s="14"/>
@@ -4037,7 +4053,7 @@
       <c r="H267" s="14"/>
       <c r="I267" s="14"/>
     </row>
-    <row r="268" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A268" s="14"/>
       <c r="B268" s="14"/>
       <c r="C268" s="14"/>
@@ -4048,7 +4064,7 @@
       <c r="H268" s="14"/>
       <c r="I268" s="14"/>
     </row>
-    <row r="269" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A269" s="14"/>
       <c r="B269" s="14"/>
       <c r="C269" s="14"/>
@@ -4059,7 +4075,7 @@
       <c r="H269" s="14"/>
       <c r="I269" s="14"/>
     </row>
-    <row r="270" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A270" s="14"/>
       <c r="B270" s="14"/>
       <c r="C270" s="14"/>
@@ -4070,7 +4086,7 @@
       <c r="H270" s="14"/>
       <c r="I270" s="14"/>
     </row>
-    <row r="271" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A271" s="14"/>
       <c r="B271" s="14"/>
       <c r="C271" s="14"/>
@@ -4081,7 +4097,7 @@
       <c r="H271" s="14"/>
       <c r="I271" s="14"/>
     </row>
-    <row r="272" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A272" s="14"/>
       <c r="B272" s="14"/>
       <c r="C272" s="14"/>
@@ -4092,7 +4108,7 @@
       <c r="H272" s="14"/>
       <c r="I272" s="14"/>
     </row>
-    <row r="273" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A273" s="14"/>
       <c r="B273" s="14"/>
       <c r="C273" s="14"/>
@@ -4103,7 +4119,7 @@
       <c r="H273" s="14"/>
       <c r="I273" s="14"/>
     </row>
-    <row r="274" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A274" s="14"/>
       <c r="B274" s="14"/>
       <c r="C274" s="14"/>
@@ -4114,7 +4130,7 @@
       <c r="H274" s="14"/>
       <c r="I274" s="14"/>
     </row>
-    <row r="275" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A275" s="14"/>
       <c r="B275" s="14"/>
       <c r="C275" s="14"/>
@@ -4125,7 +4141,7 @@
       <c r="H275" s="14"/>
       <c r="I275" s="14"/>
     </row>
-    <row r="276" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A276" s="14"/>
       <c r="B276" s="14"/>
       <c r="C276" s="14"/>
@@ -4136,7 +4152,7 @@
       <c r="H276" s="14"/>
       <c r="I276" s="14"/>
     </row>
-    <row r="277" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A277" s="14"/>
       <c r="B277" s="14"/>
       <c r="C277" s="14"/>
@@ -4147,7 +4163,7 @@
       <c r="H277" s="14"/>
       <c r="I277" s="14"/>
     </row>
-    <row r="278" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A278" s="14"/>
       <c r="B278" s="14"/>
       <c r="C278" s="14"/>
@@ -4158,7 +4174,7 @@
       <c r="H278" s="14"/>
       <c r="I278" s="14"/>
     </row>
-    <row r="279" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A279" s="14"/>
       <c r="B279" s="14"/>
       <c r="C279" s="14"/>
@@ -4169,7 +4185,7 @@
       <c r="H279" s="14"/>
       <c r="I279" s="14"/>
     </row>
-    <row r="280" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A280" s="14"/>
       <c r="B280" s="14"/>
       <c r="C280" s="14"/>
@@ -4180,7 +4196,7 @@
       <c r="H280" s="14"/>
       <c r="I280" s="14"/>
     </row>
-    <row r="281" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A281" s="14"/>
       <c r="B281" s="14"/>
       <c r="C281" s="14"/>
@@ -4191,7 +4207,7 @@
       <c r="H281" s="14"/>
       <c r="I281" s="14"/>
     </row>
-    <row r="282" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A282" s="14"/>
       <c r="B282" s="14"/>
       <c r="C282" s="14"/>
@@ -4202,7 +4218,7 @@
       <c r="H282" s="14"/>
       <c r="I282" s="14"/>
     </row>
-    <row r="283" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A283" s="14"/>
       <c r="B283" s="14"/>
       <c r="C283" s="14"/>
@@ -4213,7 +4229,7 @@
       <c r="H283" s="14"/>
       <c r="I283" s="14"/>
     </row>
-    <row r="284" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A284" s="14"/>
       <c r="B284" s="14"/>
       <c r="C284" s="14"/>
@@ -4224,7 +4240,7 @@
       <c r="H284" s="14"/>
       <c r="I284" s="14"/>
     </row>
-    <row r="285" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A285" s="14"/>
       <c r="B285" s="14"/>
       <c r="C285" s="14"/>
@@ -4235,7 +4251,7 @@
       <c r="H285" s="14"/>
       <c r="I285" s="14"/>
     </row>
-    <row r="286" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A286" s="14"/>
       <c r="B286" s="14"/>
       <c r="C286" s="14"/>
@@ -4246,7 +4262,7 @@
       <c r="H286" s="14"/>
       <c r="I286" s="14"/>
     </row>
-    <row r="287" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A287" s="14"/>
       <c r="B287" s="14"/>
       <c r="C287" s="14"/>
@@ -4257,7 +4273,7 @@
       <c r="H287" s="14"/>
       <c r="I287" s="14"/>
     </row>
-    <row r="288" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A288" s="14"/>
       <c r="B288" s="14"/>
       <c r="C288" s="14"/>
@@ -4268,7 +4284,7 @@
       <c r="H288" s="14"/>
       <c r="I288" s="14"/>
     </row>
-    <row r="289" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A289" s="14"/>
       <c r="B289" s="14"/>
       <c r="C289" s="14"/>
@@ -4279,7 +4295,7 @@
       <c r="H289" s="14"/>
       <c r="I289" s="14"/>
     </row>
-    <row r="290" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A290" s="14"/>
       <c r="B290" s="14"/>
       <c r="C290" s="14"/>
@@ -4290,7 +4306,7 @@
       <c r="H290" s="14"/>
       <c r="I290" s="14"/>
     </row>
-    <row r="291" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A291" s="14"/>
       <c r="B291" s="14"/>
       <c r="C291" s="14"/>
@@ -4301,7 +4317,7 @@
       <c r="H291" s="14"/>
       <c r="I291" s="14"/>
     </row>
-    <row r="292" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A292" s="14"/>
       <c r="B292" s="14"/>
       <c r="C292" s="14"/>
@@ -4312,7 +4328,7 @@
       <c r="H292" s="14"/>
       <c r="I292" s="14"/>
     </row>
-    <row r="293" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A293" s="14"/>
       <c r="B293" s="14"/>
       <c r="C293" s="14"/>
@@ -4323,7 +4339,7 @@
       <c r="H293" s="14"/>
       <c r="I293" s="14"/>
     </row>
-    <row r="294" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A294" s="14"/>
       <c r="B294" s="14"/>
       <c r="C294" s="14"/>
@@ -4334,7 +4350,7 @@
       <c r="H294" s="14"/>
       <c r="I294" s="14"/>
     </row>
-    <row r="295" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A295" s="14"/>
       <c r="B295" s="14"/>
       <c r="C295" s="14"/>
@@ -4345,7 +4361,7 @@
       <c r="H295" s="14"/>
       <c r="I295" s="14"/>
     </row>
-    <row r="296" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A296" s="14"/>
       <c r="B296" s="14"/>
       <c r="C296" s="14"/>
@@ -4356,7 +4372,7 @@
       <c r="H296" s="14"/>
       <c r="I296" s="14"/>
     </row>
-    <row r="297" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A297" s="14"/>
       <c r="B297" s="14"/>
       <c r="C297" s="14"/>
@@ -4367,7 +4383,7 @@
       <c r="H297" s="14"/>
       <c r="I297" s="14"/>
     </row>
-    <row r="298" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A298" s="14"/>
       <c r="B298" s="14"/>
       <c r="C298" s="14"/>
@@ -4378,7 +4394,7 @@
       <c r="H298" s="14"/>
       <c r="I298" s="14"/>
     </row>
-    <row r="299" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A299" s="14"/>
       <c r="B299" s="14"/>
       <c r="C299" s="14"/>
@@ -4389,7 +4405,7 @@
       <c r="H299" s="14"/>
       <c r="I299" s="14"/>
     </row>
-    <row r="300" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A300" s="14"/>
       <c r="B300" s="14"/>
       <c r="C300" s="14"/>
@@ -4400,7 +4416,7 @@
       <c r="H300" s="14"/>
       <c r="I300" s="14"/>
     </row>
-    <row r="301" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A301" s="14"/>
       <c r="B301" s="14"/>
       <c r="C301" s="14"/>
@@ -4411,7 +4427,7 @@
       <c r="H301" s="14"/>
       <c r="I301" s="14"/>
     </row>
-    <row r="302" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A302" s="14"/>
       <c r="B302" s="14"/>
       <c r="C302" s="14"/>
@@ -4422,7 +4438,7 @@
       <c r="H302" s="14"/>
       <c r="I302" s="14"/>
     </row>
-    <row r="303" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A303" s="14"/>
       <c r="B303" s="14"/>
       <c r="C303" s="14"/>
@@ -4433,7 +4449,7 @@
       <c r="H303" s="14"/>
       <c r="I303" s="14"/>
     </row>
-    <row r="304" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A304" s="14"/>
       <c r="B304" s="14"/>
       <c r="C304" s="14"/>
@@ -4444,7 +4460,7 @@
       <c r="H304" s="14"/>
       <c r="I304" s="14"/>
     </row>
-    <row r="305" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A305" s="14"/>
       <c r="B305" s="14"/>
       <c r="C305" s="14"/>
@@ -4455,7 +4471,7 @@
       <c r="H305" s="14"/>
       <c r="I305" s="14"/>
     </row>
-    <row r="306" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A306" s="14"/>
       <c r="B306" s="14"/>
       <c r="C306" s="14"/>
@@ -4466,7 +4482,7 @@
       <c r="H306" s="14"/>
       <c r="I306" s="14"/>
     </row>
-    <row r="307" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A307" s="14"/>
       <c r="B307" s="14"/>
       <c r="C307" s="14"/>
@@ -4477,7 +4493,7 @@
       <c r="H307" s="14"/>
       <c r="I307" s="14"/>
     </row>
-    <row r="308" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A308" s="14"/>
       <c r="B308" s="14"/>
       <c r="C308" s="14"/>
@@ -4488,7 +4504,7 @@
       <c r="H308" s="14"/>
       <c r="I308" s="14"/>
     </row>
-    <row r="309" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A309" s="14"/>
       <c r="B309" s="14"/>
       <c r="C309" s="14"/>
@@ -4499,7 +4515,7 @@
       <c r="H309" s="14"/>
       <c r="I309" s="14"/>
     </row>
-    <row r="310" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A310" s="14"/>
       <c r="B310" s="14"/>
       <c r="C310" s="14"/>
@@ -4510,7 +4526,7 @@
       <c r="H310" s="14"/>
       <c r="I310" s="14"/>
     </row>
-    <row r="311" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A311" s="14"/>
       <c r="B311" s="14"/>
       <c r="C311" s="14"/>
@@ -4521,7 +4537,7 @@
       <c r="H311" s="14"/>
       <c r="I311" s="14"/>
     </row>
-    <row r="312" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A312" s="14"/>
       <c r="B312" s="14"/>
       <c r="C312" s="14"/>
@@ -4532,7 +4548,7 @@
       <c r="H312" s="14"/>
       <c r="I312" s="14"/>
     </row>
-    <row r="313" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A313" s="14"/>
       <c r="B313" s="14"/>
       <c r="C313" s="14"/>
@@ -4543,7 +4559,7 @@
       <c r="H313" s="14"/>
       <c r="I313" s="14"/>
     </row>
-    <row r="314" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A314" s="14"/>
       <c r="B314" s="14"/>
       <c r="C314" s="14"/>
@@ -4554,7 +4570,7 @@
       <c r="H314" s="14"/>
       <c r="I314" s="14"/>
     </row>
-    <row r="315" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A315" s="14"/>
       <c r="B315" s="14"/>
       <c r="C315" s="14"/>
@@ -4565,7 +4581,7 @@
       <c r="H315" s="14"/>
       <c r="I315" s="14"/>
     </row>
-    <row r="316" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A316" s="14"/>
       <c r="B316" s="14"/>
       <c r="C316" s="14"/>
@@ -4576,7 +4592,7 @@
       <c r="H316" s="14"/>
       <c r="I316" s="14"/>
     </row>
-    <row r="317" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A317" s="14"/>
       <c r="B317" s="14"/>
       <c r="C317" s="14"/>
@@ -4587,2163 +4603,2033 @@
       <c r="H317" s="14"/>
       <c r="I317" s="14"/>
     </row>
-    <row r="318" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G318" s="3"/>
     </row>
-    <row r="319" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G319" s="3"/>
     </row>
-    <row r="320" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G320" s="3"/>
     </row>
-    <row r="321" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="321" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G321" s="3"/>
     </row>
-    <row r="322" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="322" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G322" s="3"/>
     </row>
-    <row r="323" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="323" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G323" s="3"/>
     </row>
-    <row r="324" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="324" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G324" s="3"/>
     </row>
-    <row r="325" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="325" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G325" s="3"/>
     </row>
-    <row r="326" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="326" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G326" s="3"/>
     </row>
-    <row r="327" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="327" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G327" s="3"/>
     </row>
-    <row r="328" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="328" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G328" s="3"/>
     </row>
-    <row r="329" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="329" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G329" s="3"/>
     </row>
-    <row r="330" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="330" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G330" s="3"/>
     </row>
-    <row r="331" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="331" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G331" s="3"/>
     </row>
-    <row r="332" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="332" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G332" s="3"/>
     </row>
-    <row r="333" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="333" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G333" s="3"/>
     </row>
-    <row r="334" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="334" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G334" s="3"/>
     </row>
-    <row r="335" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="335" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G335" s="3"/>
     </row>
-    <row r="336" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="336" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G336" s="3"/>
     </row>
-    <row r="337" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="337" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G337" s="3"/>
     </row>
-    <row r="338" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="338" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G338" s="3"/>
     </row>
-    <row r="339" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="339" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G339" s="3"/>
     </row>
-    <row r="340" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="340" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G340" s="3"/>
     </row>
-    <row r="341" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="341" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G341" s="3"/>
     </row>
-    <row r="342" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="342" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G342" s="3"/>
     </row>
-    <row r="343" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="343" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G343" s="3"/>
     </row>
-    <row r="344" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="344" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G344" s="3"/>
     </row>
-    <row r="345" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="345" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G345" s="3"/>
     </row>
-    <row r="346" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="346" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G346" s="3"/>
     </row>
-    <row r="347" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="347" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G347" s="3"/>
     </row>
-    <row r="348" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="348" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G348" s="3"/>
     </row>
-    <row r="349" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="349" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G349" s="3"/>
     </row>
-    <row r="350" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="350" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G350" s="3"/>
     </row>
-    <row r="351" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="351" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G351" s="3"/>
     </row>
-    <row r="352" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="352" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G352" s="3"/>
     </row>
-    <row r="353" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="353" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G353" s="3"/>
     </row>
-    <row r="354" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="354" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G354" s="3"/>
     </row>
-    <row r="355" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="355" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G355" s="3"/>
     </row>
-    <row r="356" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="356" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G356" s="3"/>
     </row>
-    <row r="357" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="357" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G357" s="3"/>
     </row>
-    <row r="358" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="358" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G358" s="3"/>
     </row>
-    <row r="359" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="359" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G359" s="3"/>
     </row>
-    <row r="360" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="360" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G360" s="3"/>
     </row>
-    <row r="361" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="361" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G361" s="3"/>
     </row>
-    <row r="362" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="362" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G362" s="3"/>
     </row>
-    <row r="363" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="363" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G363" s="3"/>
     </row>
-    <row r="364" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="364" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G364" s="3"/>
     </row>
-    <row r="365" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="365" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G365" s="3"/>
     </row>
-    <row r="366" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="366" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G366" s="3"/>
     </row>
-    <row r="367" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="367" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G367" s="3"/>
     </row>
-    <row r="368" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="368" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G368" s="3"/>
     </row>
-    <row r="369" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="369" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G369" s="3"/>
     </row>
-    <row r="370" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="370" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G370" s="3"/>
     </row>
-    <row r="371" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="371" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G371" s="3"/>
     </row>
-    <row r="372" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="372" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G372" s="3"/>
     </row>
-    <row r="373" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="373" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G373" s="3"/>
     </row>
-    <row r="374" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="374" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G374" s="3"/>
     </row>
-    <row r="375" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="375" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G375" s="3"/>
     </row>
-    <row r="376" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="376" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G376" s="3"/>
     </row>
-    <row r="377" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="377" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G377" s="3"/>
     </row>
-    <row r="378" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="378" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G378" s="3"/>
     </row>
-    <row r="379" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="379" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G379" s="3"/>
     </row>
-    <row r="380" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="380" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G380" s="3"/>
     </row>
-    <row r="381" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="381" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G381" s="3"/>
     </row>
-    <row r="382" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="382" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G382" s="3"/>
     </row>
-    <row r="383" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="383" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G383" s="3"/>
     </row>
-    <row r="384" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="384" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G384" s="3"/>
     </row>
-    <row r="385" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="385" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G385" s="3"/>
     </row>
-    <row r="386" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="386" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G386" s="3"/>
     </row>
-    <row r="387" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="387" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G387" s="3"/>
     </row>
-    <row r="388" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="388" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G388" s="3"/>
     </row>
-    <row r="389" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="389" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G389" s="3"/>
     </row>
-    <row r="390" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="390" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G390" s="3"/>
     </row>
-    <row r="391" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="391" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G391" s="3"/>
     </row>
-    <row r="392" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="392" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G392" s="3"/>
     </row>
-    <row r="393" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="393" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G393" s="3"/>
     </row>
-    <row r="394" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="394" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G394" s="3"/>
     </row>
-    <row r="395" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="395" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G395" s="3"/>
     </row>
-    <row r="396" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="396" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G396" s="3"/>
     </row>
-    <row r="397" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="397" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G397" s="3"/>
     </row>
-    <row r="398" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="398" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G398" s="3"/>
     </row>
-    <row r="399" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="399" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G399" s="3"/>
     </row>
-    <row r="400" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="400" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G400" s="3"/>
     </row>
-    <row r="401" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="401" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G401" s="3"/>
     </row>
-    <row r="402" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="402" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G402" s="3"/>
     </row>
-    <row r="403" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="403" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G403" s="3"/>
     </row>
-    <row r="404" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="404" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G404" s="3"/>
     </row>
-    <row r="405" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="405" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G405" s="3"/>
     </row>
-    <row r="406" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="406" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G406" s="3"/>
     </row>
-    <row r="407" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="407" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G407" s="3"/>
     </row>
-    <row r="408" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="408" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G408" s="3"/>
     </row>
-    <row r="409" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="409" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G409" s="3"/>
     </row>
-    <row r="410" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="410" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G410" s="3"/>
     </row>
-    <row r="411" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="411" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G411" s="3"/>
     </row>
-    <row r="412" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="412" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G412" s="3"/>
     </row>
-    <row r="413" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="413" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G413" s="3"/>
     </row>
-    <row r="414" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="414" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G414" s="3"/>
     </row>
-    <row r="415" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="415" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G415" s="3"/>
     </row>
-    <row r="416" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="416" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G416" s="3"/>
     </row>
-    <row r="417" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="417" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G417" s="3"/>
     </row>
-    <row r="418" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="418" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G418" s="3"/>
     </row>
-    <row r="419" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="419" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G419" s="3"/>
     </row>
-    <row r="420" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="420" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G420" s="3"/>
     </row>
-    <row r="421" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="421" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G421" s="3"/>
     </row>
-    <row r="422" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="422" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G422" s="3"/>
     </row>
-    <row r="423" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="423" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G423" s="3"/>
     </row>
-    <row r="424" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="424" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G424" s="3"/>
     </row>
-    <row r="425" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="425" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G425" s="3"/>
     </row>
-    <row r="426" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="426" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G426" s="3"/>
     </row>
-    <row r="427" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="427" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G427" s="3"/>
     </row>
-    <row r="428" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="428" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G428" s="3"/>
     </row>
-    <row r="429" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="429" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G429" s="3"/>
     </row>
-    <row r="430" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="430" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G430" s="3"/>
     </row>
-    <row r="431" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="431" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G431" s="3"/>
     </row>
-    <row r="432" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="432" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G432" s="3"/>
     </row>
-    <row r="433" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="433" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G433" s="3"/>
     </row>
-    <row r="434" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="434" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G434" s="3"/>
     </row>
-    <row r="435" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="435" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G435" s="3"/>
     </row>
-    <row r="436" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="436" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G436" s="3"/>
     </row>
-    <row r="437" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="437" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G437" s="3"/>
     </row>
-    <row r="438" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="438" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G438" s="3"/>
     </row>
-    <row r="439" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="439" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G439" s="3"/>
     </row>
-    <row r="440" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="440" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G440" s="3"/>
     </row>
-    <row r="441" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="441" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G441" s="3"/>
     </row>
-    <row r="442" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="442" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G442" s="3"/>
     </row>
-    <row r="443" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="443" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G443" s="3"/>
     </row>
-    <row r="444" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="444" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G444" s="3"/>
     </row>
-    <row r="445" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="445" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G445" s="3"/>
     </row>
-    <row r="446" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="446" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G446" s="3"/>
     </row>
-    <row r="447" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="447" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G447" s="3"/>
     </row>
-    <row r="448" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="448" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G448" s="3"/>
     </row>
-    <row r="449" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="449" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G449" s="3"/>
     </row>
-    <row r="450" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="450" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G450" s="3"/>
     </row>
-    <row r="451" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="451" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G451" s="3"/>
     </row>
-    <row r="452" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="452" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G452" s="3"/>
     </row>
-    <row r="453" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="453" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G453" s="3"/>
     </row>
-    <row r="454" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="454" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G454" s="3"/>
     </row>
-    <row r="455" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="455" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G455" s="3"/>
     </row>
-    <row r="456" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="456" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G456" s="3"/>
     </row>
-    <row r="457" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="457" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G457" s="3"/>
     </row>
-    <row r="458" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="458" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G458" s="3"/>
     </row>
-    <row r="459" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="459" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G459" s="3"/>
     </row>
-    <row r="460" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="460" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G460" s="3"/>
     </row>
-    <row r="461" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="461" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G461" s="3"/>
     </row>
-    <row r="462" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="462" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G462" s="3"/>
     </row>
-    <row r="463" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="463" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G463" s="3"/>
     </row>
-    <row r="464" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="464" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G464" s="3"/>
     </row>
-    <row r="465" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="465" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G465" s="3"/>
     </row>
-    <row r="466" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="466" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G466" s="3"/>
     </row>
-    <row r="467" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="467" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G467" s="3"/>
     </row>
-    <row r="468" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="468" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G468" s="3"/>
     </row>
-    <row r="469" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="469" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G469" s="3"/>
     </row>
-    <row r="470" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="470" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G470" s="3"/>
     </row>
-    <row r="471" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="471" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G471" s="3"/>
     </row>
-    <row r="472" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="472" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G472" s="3"/>
     </row>
-    <row r="473" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="473" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G473" s="3"/>
     </row>
-    <row r="474" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="474" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G474" s="3"/>
     </row>
-    <row r="475" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="475" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G475" s="3"/>
     </row>
-    <row r="476" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="476" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G476" s="3"/>
     </row>
-    <row r="477" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="477" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G477" s="3"/>
     </row>
-    <row r="478" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="478" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G478" s="3"/>
     </row>
-    <row r="479" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="479" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G479" s="3"/>
     </row>
-    <row r="480" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="480" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G480" s="3"/>
     </row>
-    <row r="481" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="481" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G481" s="3"/>
     </row>
-    <row r="482" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="482" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G482" s="3"/>
     </row>
-    <row r="483" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="483" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G483" s="3"/>
     </row>
-    <row r="484" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="484" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G484" s="3"/>
     </row>
-    <row r="485" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="485" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G485" s="3"/>
     </row>
-    <row r="486" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="486" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G486" s="3"/>
     </row>
-    <row r="487" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="487" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G487" s="3"/>
     </row>
-    <row r="488" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="488" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G488" s="3"/>
     </row>
-    <row r="489" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="489" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G489" s="3"/>
     </row>
-    <row r="490" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="490" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G490" s="3"/>
     </row>
-    <row r="491" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="491" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G491" s="3"/>
     </row>
-    <row r="492" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="492" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G492" s="3"/>
     </row>
-    <row r="493" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="493" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G493" s="3"/>
     </row>
-    <row r="494" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="494" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G494" s="3"/>
     </row>
-    <row r="495" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="495" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G495" s="3"/>
     </row>
-    <row r="496" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="496" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G496" s="3"/>
     </row>
-    <row r="497" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="497" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G497" s="3"/>
     </row>
-    <row r="498" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="498" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G498" s="3"/>
     </row>
-    <row r="499" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="499" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G499" s="3"/>
     </row>
-    <row r="500" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="500" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G500" s="3"/>
     </row>
-    <row r="501" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="501" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G501" s="3"/>
     </row>
-    <row r="502" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="502" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G502" s="3"/>
     </row>
-    <row r="503" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="503" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G503" s="3"/>
     </row>
-    <row r="504" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="504" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G504" s="3"/>
     </row>
-    <row r="505" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="505" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G505" s="3"/>
     </row>
-    <row r="506" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="506" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G506" s="3"/>
     </row>
-    <row r="507" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="507" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G507" s="3"/>
     </row>
-    <row r="508" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="508" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G508" s="3"/>
     </row>
-    <row r="509" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="509" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G509" s="3"/>
     </row>
-    <row r="510" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="510" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G510" s="3"/>
     </row>
-    <row r="511" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="511" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G511" s="3"/>
     </row>
-    <row r="512" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="512" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G512" s="3"/>
     </row>
-    <row r="513" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="513" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G513" s="3"/>
     </row>
-    <row r="514" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="514" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G514" s="3"/>
     </row>
-    <row r="515" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="515" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G515" s="3"/>
     </row>
-    <row r="516" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="516" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G516" s="3"/>
     </row>
-    <row r="517" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="517" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G517" s="3"/>
     </row>
-    <row r="518" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="518" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G518" s="3"/>
     </row>
-    <row r="519" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="519" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G519" s="3"/>
     </row>
-    <row r="520" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="520" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G520" s="3"/>
     </row>
-    <row r="521" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="521" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G521" s="3"/>
     </row>
-    <row r="522" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="522" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G522" s="3"/>
     </row>
-    <row r="523" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="523" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G523" s="3"/>
     </row>
-    <row r="524" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="524" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G524" s="3"/>
     </row>
-    <row r="525" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="525" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G525" s="3"/>
     </row>
-    <row r="526" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="526" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G526" s="3"/>
     </row>
-    <row r="527" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="527" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G527" s="3"/>
     </row>
-    <row r="528" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="528" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G528" s="3"/>
     </row>
-    <row r="529" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="529" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G529" s="3"/>
     </row>
-    <row r="530" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="530" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G530" s="3"/>
     </row>
-    <row r="531" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="531" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G531" s="3"/>
     </row>
-    <row r="532" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="532" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G532" s="3"/>
     </row>
-    <row r="533" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="533" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G533" s="3"/>
     </row>
-    <row r="534" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="534" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G534" s="3"/>
     </row>
-    <row r="535" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="535" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G535" s="3"/>
     </row>
-    <row r="536" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="536" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G536" s="3"/>
     </row>
-    <row r="537" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="537" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G537" s="3"/>
     </row>
-    <row r="538" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="538" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G538" s="3"/>
     </row>
-    <row r="539" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="539" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G539" s="3"/>
     </row>
-    <row r="540" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="540" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G540" s="3"/>
     </row>
-    <row r="541" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="541" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G541" s="3"/>
     </row>
-    <row r="542" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="542" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G542" s="3"/>
     </row>
-    <row r="543" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="543" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G543" s="3"/>
     </row>
-    <row r="544" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="544" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G544" s="3"/>
     </row>
-    <row r="545" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="545" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G545" s="3"/>
     </row>
-    <row r="546" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="546" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G546" s="3"/>
     </row>
-    <row r="547" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="547" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G547" s="3"/>
     </row>
-    <row r="548" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="548" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G548" s="3"/>
     </row>
-    <row r="549" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="549" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G549" s="3"/>
     </row>
-    <row r="550" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="550" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G550" s="3"/>
     </row>
-    <row r="551" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="551" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G551" s="3"/>
     </row>
-    <row r="552" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="552" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G552" s="3"/>
     </row>
-    <row r="553" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="553" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G553" s="3"/>
     </row>
-    <row r="554" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="554" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G554" s="3"/>
     </row>
-    <row r="555" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="555" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G555" s="3"/>
     </row>
-    <row r="556" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="556" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G556" s="3"/>
     </row>
-    <row r="557" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="557" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G557" s="3"/>
     </row>
-    <row r="558" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="558" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G558" s="3"/>
     </row>
-    <row r="559" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="559" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G559" s="3"/>
     </row>
-    <row r="560" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="560" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G560" s="3"/>
     </row>
-    <row r="561" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="561" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G561" s="3"/>
     </row>
-    <row r="562" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="562" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G562" s="3"/>
     </row>
-    <row r="563" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="563" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G563" s="3"/>
     </row>
-    <row r="564" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="564" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G564" s="3"/>
     </row>
-    <row r="565" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="565" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G565" s="3"/>
     </row>
-    <row r="566" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="566" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G566" s="3"/>
     </row>
-    <row r="567" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="567" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G567" s="3"/>
     </row>
-    <row r="568" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="568" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G568" s="3"/>
     </row>
-    <row r="569" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="569" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G569" s="3"/>
     </row>
-    <row r="570" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="570" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G570" s="3"/>
     </row>
-    <row r="571" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="571" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G571" s="3"/>
     </row>
-    <row r="572" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="572" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G572" s="3"/>
     </row>
-    <row r="573" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="573" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G573" s="3"/>
     </row>
-    <row r="574" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="574" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G574" s="3"/>
     </row>
-    <row r="575" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="575" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G575" s="3"/>
     </row>
-    <row r="576" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="576" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G576" s="3"/>
     </row>
-    <row r="577" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="577" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G577" s="3"/>
     </row>
-    <row r="578" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="578" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G578" s="3"/>
     </row>
-    <row r="579" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="579" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G579" s="3"/>
     </row>
-    <row r="580" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="580" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G580" s="3"/>
     </row>
-    <row r="581" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="581" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G581" s="3"/>
     </row>
-    <row r="582" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="582" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G582" s="3"/>
     </row>
-    <row r="583" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="583" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G583" s="3"/>
     </row>
-    <row r="584" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="584" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G584" s="3"/>
     </row>
-    <row r="585" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="585" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G585" s="3"/>
     </row>
-    <row r="586" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="586" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G586" s="3"/>
     </row>
-    <row r="587" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="587" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G587" s="3"/>
     </row>
-    <row r="588" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="588" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G588" s="3"/>
     </row>
-    <row r="589" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="589" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G589" s="3"/>
     </row>
-    <row r="590" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="590" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G590" s="3"/>
     </row>
-    <row r="591" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="591" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G591" s="3"/>
     </row>
-    <row r="592" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="592" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G592" s="3"/>
     </row>
-    <row r="593" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="593" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G593" s="3"/>
     </row>
-    <row r="594" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="594" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G594" s="3"/>
     </row>
-    <row r="595" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="595" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G595" s="3"/>
     </row>
-    <row r="596" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="596" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G596" s="3"/>
     </row>
-    <row r="597" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="597" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G597" s="3"/>
     </row>
-    <row r="598" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="598" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G598" s="3"/>
     </row>
-    <row r="599" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="599" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G599" s="3"/>
     </row>
-    <row r="600" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="600" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G600" s="3"/>
     </row>
-    <row r="601" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="601" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G601" s="3"/>
     </row>
-    <row r="602" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="602" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G602" s="3"/>
     </row>
-    <row r="603" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="603" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G603" s="3"/>
     </row>
-    <row r="604" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="604" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G604" s="3"/>
     </row>
-    <row r="605" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="605" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G605" s="3"/>
     </row>
-    <row r="606" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="606" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G606" s="3"/>
     </row>
-    <row r="607" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="607" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G607" s="3"/>
     </row>
-    <row r="608" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="608" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G608" s="3"/>
     </row>
-    <row r="609" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="609" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G609" s="3"/>
     </row>
-    <row r="610" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="610" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G610" s="3"/>
     </row>
-    <row r="611" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="611" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G611" s="3"/>
     </row>
-    <row r="612" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="612" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G612" s="3"/>
     </row>
-    <row r="613" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="613" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G613" s="3"/>
     </row>
-    <row r="614" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="614" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G614" s="3"/>
     </row>
-    <row r="615" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="615" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G615" s="3"/>
     </row>
-    <row r="616" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="616" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G616" s="3"/>
     </row>
-    <row r="617" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="617" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G617" s="3"/>
     </row>
-    <row r="618" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="618" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G618" s="3"/>
     </row>
-    <row r="619" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="619" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G619" s="3"/>
     </row>
-    <row r="620" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="620" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G620" s="3"/>
     </row>
-    <row r="621" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="621" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G621" s="3"/>
     </row>
-    <row r="622" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="622" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G622" s="3"/>
     </row>
-    <row r="623" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="623" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G623" s="3"/>
     </row>
-    <row r="624" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="624" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G624" s="3"/>
     </row>
-    <row r="625" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="625" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G625" s="3"/>
     </row>
-    <row r="626" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="626" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G626" s="3"/>
     </row>
-    <row r="627" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="627" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G627" s="3"/>
     </row>
-    <row r="628" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="628" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G628" s="3"/>
     </row>
-    <row r="629" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="629" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G629" s="3"/>
     </row>
-    <row r="630" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="630" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G630" s="3"/>
     </row>
-    <row r="631" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="631" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G631" s="3"/>
     </row>
-    <row r="632" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="632" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G632" s="3"/>
     </row>
-    <row r="633" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="633" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G633" s="3"/>
     </row>
-    <row r="634" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="634" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G634" s="3"/>
     </row>
-    <row r="635" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="635" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G635" s="3"/>
     </row>
-    <row r="636" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="636" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G636" s="3"/>
     </row>
-    <row r="637" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="637" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G637" s="3"/>
     </row>
-    <row r="638" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="638" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G638" s="3"/>
     </row>
-    <row r="639" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="639" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G639" s="3"/>
     </row>
-    <row r="640" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="640" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G640" s="3"/>
     </row>
-    <row r="641" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="641" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G641" s="3"/>
     </row>
-    <row r="642" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="642" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G642" s="3"/>
     </row>
-    <row r="643" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="643" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G643" s="3"/>
     </row>
-    <row r="644" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="644" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G644" s="3"/>
     </row>
-    <row r="645" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="645" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G645" s="3"/>
     </row>
-    <row r="646" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="646" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G646" s="3"/>
     </row>
-    <row r="647" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="647" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G647" s="3"/>
     </row>
-    <row r="648" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="648" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G648" s="3"/>
     </row>
-    <row r="649" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="649" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G649" s="3"/>
     </row>
-    <row r="650" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="650" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G650" s="3"/>
     </row>
-    <row r="651" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="651" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G651" s="3"/>
     </row>
-    <row r="652" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="652" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G652" s="3"/>
     </row>
-    <row r="653" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="653" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G653" s="3"/>
     </row>
-    <row r="654" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="654" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G654" s="3"/>
     </row>
-    <row r="655" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="655" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G655" s="3"/>
     </row>
-    <row r="656" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="656" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G656" s="3"/>
     </row>
-    <row r="657" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="657" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G657" s="3"/>
     </row>
-    <row r="658" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="658" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G658" s="3"/>
     </row>
-    <row r="659" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="659" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G659" s="3"/>
     </row>
-    <row r="660" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="660" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G660" s="3"/>
     </row>
-    <row r="661" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="661" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G661" s="3"/>
     </row>
-    <row r="662" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="662" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G662" s="3"/>
     </row>
-    <row r="663" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="663" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G663" s="3"/>
     </row>
-    <row r="664" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="664" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G664" s="3"/>
     </row>
-    <row r="665" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="665" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G665" s="3"/>
     </row>
-    <row r="666" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="666" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G666" s="3"/>
     </row>
-    <row r="667" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="667" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G667" s="3"/>
     </row>
-    <row r="668" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="668" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G668" s="3"/>
     </row>
-    <row r="669" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="669" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G669" s="3"/>
     </row>
-    <row r="670" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="670" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G670" s="3"/>
     </row>
-    <row r="671" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="671" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G671" s="3"/>
     </row>
-    <row r="672" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="672" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G672" s="3"/>
     </row>
-    <row r="673" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="673" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G673" s="3"/>
     </row>
-    <row r="674" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="674" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G674" s="3"/>
     </row>
-    <row r="675" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="675" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G675" s="3"/>
     </row>
-    <row r="676" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="676" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G676" s="3"/>
     </row>
-    <row r="677" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="677" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G677" s="3"/>
     </row>
-    <row r="678" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="678" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G678" s="3"/>
     </row>
-    <row r="679" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="679" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G679" s="3"/>
     </row>
-    <row r="680" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="680" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G680" s="3"/>
     </row>
-    <row r="681" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="681" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G681" s="3"/>
     </row>
-    <row r="682" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="682" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G682" s="3"/>
     </row>
-    <row r="683" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="683" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G683" s="3"/>
     </row>
-    <row r="684" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="684" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G684" s="3"/>
     </row>
-    <row r="685" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="685" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G685" s="3"/>
     </row>
-    <row r="686" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="686" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G686" s="3"/>
     </row>
-    <row r="687" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="687" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G687" s="3"/>
     </row>
-    <row r="688" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="688" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G688" s="3"/>
     </row>
-    <row r="689" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="689" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G689" s="3"/>
     </row>
-    <row r="690" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="690" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G690" s="3"/>
     </row>
-    <row r="691" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="691" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G691" s="3"/>
     </row>
-    <row r="692" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="692" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G692" s="3"/>
     </row>
-    <row r="693" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="693" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G693" s="3"/>
     </row>
-    <row r="694" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="694" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G694" s="3"/>
     </row>
-    <row r="695" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="695" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G695" s="3"/>
     </row>
-    <row r="696" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="696" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G696" s="3"/>
     </row>
-    <row r="697" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="697" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G697" s="3"/>
     </row>
-    <row r="698" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="698" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G698" s="3"/>
     </row>
-    <row r="699" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="699" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G699" s="3"/>
     </row>
-    <row r="700" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="700" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G700" s="3"/>
     </row>
-    <row r="701" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="701" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G701" s="3"/>
     </row>
-    <row r="702" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="702" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G702" s="3"/>
     </row>
-    <row r="703" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="703" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G703" s="3"/>
     </row>
-    <row r="704" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="704" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G704" s="3"/>
     </row>
-    <row r="705" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="705" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G705" s="3"/>
     </row>
-    <row r="706" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="706" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G706" s="3"/>
     </row>
-    <row r="707" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="707" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G707" s="3"/>
     </row>
-    <row r="708" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="708" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G708" s="3"/>
     </row>
-    <row r="709" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="709" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G709" s="3"/>
     </row>
-    <row r="710" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="710" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G710" s="3"/>
     </row>
-    <row r="711" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="711" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G711" s="3"/>
     </row>
-    <row r="712" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="712" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G712" s="3"/>
     </row>
-    <row r="713" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="713" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G713" s="3"/>
     </row>
-    <row r="714" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="714" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G714" s="3"/>
     </row>
-    <row r="715" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="715" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G715" s="3"/>
     </row>
-    <row r="716" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="716" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G716" s="3"/>
     </row>
-    <row r="717" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="717" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G717" s="3"/>
     </row>
-    <row r="718" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="718" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G718" s="3"/>
     </row>
-    <row r="719" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="719" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G719" s="3"/>
     </row>
-    <row r="720" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="720" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G720" s="3"/>
     </row>
-    <row r="721" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="721" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G721" s="3"/>
     </row>
-    <row r="722" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="722" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G722" s="3"/>
     </row>
-    <row r="723" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="723" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G723" s="3"/>
     </row>
-    <row r="724" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="724" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G724" s="3"/>
     </row>
-    <row r="725" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="725" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G725" s="3"/>
     </row>
-    <row r="726" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="726" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G726" s="3"/>
     </row>
-    <row r="727" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="727" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G727" s="3"/>
     </row>
-    <row r="728" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="728" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G728" s="3"/>
     </row>
-    <row r="729" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="729" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G729" s="3"/>
     </row>
-    <row r="730" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="730" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G730" s="3"/>
     </row>
-    <row r="731" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="731" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G731" s="3"/>
     </row>
-    <row r="732" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="732" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G732" s="3"/>
     </row>
-    <row r="733" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="733" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G733" s="3"/>
     </row>
-    <row r="734" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="734" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G734" s="3"/>
     </row>
-    <row r="735" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="735" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G735" s="3"/>
     </row>
-    <row r="736" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="736" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G736" s="3"/>
     </row>
-    <row r="737" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="737" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G737" s="3"/>
     </row>
-    <row r="738" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="738" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G738" s="3"/>
     </row>
-    <row r="739" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="739" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G739" s="3"/>
     </row>
-    <row r="740" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="740" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G740" s="3"/>
     </row>
-    <row r="741" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="741" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G741" s="3"/>
     </row>
-    <row r="742" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="742" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G742" s="3"/>
     </row>
-    <row r="743" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="743" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G743" s="3"/>
     </row>
-    <row r="744" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="744" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G744" s="3"/>
     </row>
-    <row r="745" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="745" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G745" s="3"/>
     </row>
-    <row r="746" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="746" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G746" s="3"/>
     </row>
-    <row r="747" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="747" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G747" s="3"/>
     </row>
-    <row r="748" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="748" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G748" s="3"/>
     </row>
-    <row r="749" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="749" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G749" s="3"/>
     </row>
-    <row r="750" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="750" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G750" s="3"/>
     </row>
-    <row r="751" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="751" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G751" s="3"/>
     </row>
-    <row r="752" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="752" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G752" s="3"/>
     </row>
-    <row r="753" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="753" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G753" s="3"/>
     </row>
-    <row r="754" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="754" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G754" s="3"/>
     </row>
-    <row r="755" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="755" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G755" s="3"/>
     </row>
-    <row r="756" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="756" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G756" s="3"/>
     </row>
-    <row r="757" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="757" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G757" s="3"/>
     </row>
-    <row r="758" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="758" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G758" s="3"/>
     </row>
-    <row r="759" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="759" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G759" s="3"/>
     </row>
-    <row r="760" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="760" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G760" s="3"/>
     </row>
-    <row r="761" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="761" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G761" s="3"/>
     </row>
-    <row r="762" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="762" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G762" s="3"/>
     </row>
-    <row r="763" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="763" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G763" s="3"/>
     </row>
-    <row r="764" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="764" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G764" s="3"/>
     </row>
-    <row r="765" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="765" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G765" s="3"/>
     </row>
-    <row r="766" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="766" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G766" s="3"/>
     </row>
-    <row r="767" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="767" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G767" s="3"/>
     </row>
-    <row r="768" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="768" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G768" s="3"/>
     </row>
-    <row r="769" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="769" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G769" s="3"/>
     </row>
-    <row r="770" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="770" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G770" s="3"/>
     </row>
-    <row r="771" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="771" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G771" s="3"/>
     </row>
-    <row r="772" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="772" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G772" s="3"/>
     </row>
-    <row r="773" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="773" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G773" s="3"/>
     </row>
-    <row r="774" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="774" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G774" s="3"/>
     </row>
-    <row r="775" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="775" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G775" s="3"/>
     </row>
-    <row r="776" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="776" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G776" s="3"/>
     </row>
-    <row r="777" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="777" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G777" s="3"/>
     </row>
-    <row r="778" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="778" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G778" s="3"/>
     </row>
-    <row r="779" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="779" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G779" s="3"/>
     </row>
-    <row r="780" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="780" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G780" s="3"/>
     </row>
-    <row r="781" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="781" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G781" s="3"/>
     </row>
-    <row r="782" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="782" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G782" s="3"/>
     </row>
-    <row r="783" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="783" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G783" s="3"/>
     </row>
-    <row r="784" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="784" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G784" s="3"/>
     </row>
-    <row r="785" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="785" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G785" s="3"/>
     </row>
-    <row r="786" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="786" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G786" s="3"/>
     </row>
-    <row r="787" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="787" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G787" s="3"/>
     </row>
-    <row r="788" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="788" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G788" s="3"/>
     </row>
-    <row r="789" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="789" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G789" s="3"/>
     </row>
-    <row r="790" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="790" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G790" s="3"/>
     </row>
-    <row r="791" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="791" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G791" s="3"/>
     </row>
-    <row r="792" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="792" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G792" s="3"/>
     </row>
-    <row r="793" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="793" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G793" s="3"/>
     </row>
-    <row r="794" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="794" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G794" s="3"/>
     </row>
-    <row r="795" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="795" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G795" s="3"/>
     </row>
-    <row r="796" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="796" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G796" s="3"/>
     </row>
-    <row r="797" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="797" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G797" s="3"/>
     </row>
-    <row r="798" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="798" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G798" s="3"/>
     </row>
-    <row r="799" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="799" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G799" s="3"/>
     </row>
-    <row r="800" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="800" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G800" s="3"/>
     </row>
-    <row r="801" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="801" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G801" s="3"/>
     </row>
-    <row r="802" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="802" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G802" s="3"/>
     </row>
-    <row r="803" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="803" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G803" s="3"/>
     </row>
-    <row r="804" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="804" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G804" s="3"/>
     </row>
-    <row r="805" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="805" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G805" s="3"/>
     </row>
-    <row r="806" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="806" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G806" s="3"/>
     </row>
-    <row r="807" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="807" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G807" s="3"/>
     </row>
-    <row r="808" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="808" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G808" s="3"/>
     </row>
-    <row r="809" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="809" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G809" s="3"/>
     </row>
-    <row r="810" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="810" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G810" s="3"/>
     </row>
-    <row r="811" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="811" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G811" s="3"/>
     </row>
-    <row r="812" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="812" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G812" s="3"/>
     </row>
-    <row r="813" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="813" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G813" s="3"/>
     </row>
-    <row r="814" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="814" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G814" s="3"/>
     </row>
-    <row r="815" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="815" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G815" s="3"/>
     </row>
-    <row r="816" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="816" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G816" s="3"/>
     </row>
-    <row r="817" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="817" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G817" s="3"/>
     </row>
-    <row r="818" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="818" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G818" s="3"/>
     </row>
-    <row r="819" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="819" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G819" s="3"/>
     </row>
-    <row r="820" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="820" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G820" s="3"/>
     </row>
-    <row r="821" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="821" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G821" s="3"/>
     </row>
-    <row r="822" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="822" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G822" s="3"/>
     </row>
-    <row r="823" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="823" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G823" s="3"/>
     </row>
-    <row r="824" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="824" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G824" s="3"/>
     </row>
-    <row r="825" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="825" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G825" s="3"/>
     </row>
-    <row r="826" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="826" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G826" s="3"/>
     </row>
-    <row r="827" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="827" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G827" s="3"/>
     </row>
-    <row r="828" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="828" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G828" s="3"/>
     </row>
-    <row r="829" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="829" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G829" s="3"/>
     </row>
-    <row r="830" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="830" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G830" s="3"/>
     </row>
-    <row r="831" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="831" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G831" s="3"/>
     </row>
-    <row r="832" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="832" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G832" s="3"/>
     </row>
-    <row r="833" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="833" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G833" s="3"/>
     </row>
-    <row r="834" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="834" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G834" s="3"/>
     </row>
-    <row r="835" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="835" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G835" s="3"/>
     </row>
-    <row r="836" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="836" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G836" s="3"/>
     </row>
-    <row r="837" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="837" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G837" s="3"/>
     </row>
-    <row r="838" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="838" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G838" s="3"/>
     </row>
-    <row r="839" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="839" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G839" s="3"/>
     </row>
-    <row r="840" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="840" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G840" s="3"/>
     </row>
-    <row r="841" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="841" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G841" s="3"/>
     </row>
-    <row r="842" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="842" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G842" s="3"/>
     </row>
-    <row r="843" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="843" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G843" s="3"/>
     </row>
-    <row r="844" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="844" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G844" s="3"/>
     </row>
-    <row r="845" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="845" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G845" s="3"/>
     </row>
-    <row r="846" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="846" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G846" s="3"/>
     </row>
-    <row r="847" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="847" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G847" s="3"/>
     </row>
-    <row r="848" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="848" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G848" s="3"/>
     </row>
-    <row r="849" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="849" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G849" s="3"/>
     </row>
-    <row r="850" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="850" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G850" s="3"/>
     </row>
-    <row r="851" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="851" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G851" s="3"/>
     </row>
-    <row r="852" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="852" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G852" s="3"/>
     </row>
-    <row r="853" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="853" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G853" s="3"/>
     </row>
-    <row r="854" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="854" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G854" s="3"/>
     </row>
-    <row r="855" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="855" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G855" s="3"/>
     </row>
-    <row r="856" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="856" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G856" s="3"/>
     </row>
-    <row r="857" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="857" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G857" s="3"/>
     </row>
-    <row r="858" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="858" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G858" s="3"/>
     </row>
-    <row r="859" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="859" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G859" s="3"/>
     </row>
-    <row r="860" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="860" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G860" s="3"/>
     </row>
-    <row r="861" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="861" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G861" s="3"/>
     </row>
-    <row r="862" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="862" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G862" s="3"/>
     </row>
-    <row r="863" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="863" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G863" s="3"/>
     </row>
-    <row r="864" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="864" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G864" s="3"/>
     </row>
-    <row r="865" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="865" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G865" s="3"/>
     </row>
-    <row r="866" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="866" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G866" s="3"/>
     </row>
-    <row r="867" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="867" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G867" s="3"/>
     </row>
-    <row r="868" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="868" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G868" s="3"/>
     </row>
-    <row r="869" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="869" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G869" s="3"/>
     </row>
-    <row r="870" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="870" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G870" s="3"/>
     </row>
-    <row r="871" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="871" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G871" s="3"/>
     </row>
-    <row r="872" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="872" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G872" s="3"/>
     </row>
-    <row r="873" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="873" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G873" s="3"/>
     </row>
-    <row r="874" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="874" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G874" s="3"/>
     </row>
-    <row r="875" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="875" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G875" s="3"/>
     </row>
-    <row r="876" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="876" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G876" s="3"/>
     </row>
-    <row r="877" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="877" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G877" s="3"/>
     </row>
-    <row r="878" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="878" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G878" s="3"/>
     </row>
-    <row r="879" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="879" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G879" s="3"/>
     </row>
-    <row r="880" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="880" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G880" s="3"/>
     </row>
-    <row r="881" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="881" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G881" s="3"/>
     </row>
-    <row r="882" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="882" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G882" s="3"/>
     </row>
-    <row r="883" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="883" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G883" s="3"/>
     </row>
-    <row r="884" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="884" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G884" s="3"/>
     </row>
-    <row r="885" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="885" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G885" s="3"/>
     </row>
-    <row r="886" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="886" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G886" s="3"/>
     </row>
-    <row r="887" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="887" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G887" s="3"/>
     </row>
-    <row r="888" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="888" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G888" s="3"/>
     </row>
-    <row r="889" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="889" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G889" s="3"/>
     </row>
-    <row r="890" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="890" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G890" s="3"/>
     </row>
-    <row r="891" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="891" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G891" s="3"/>
     </row>
-    <row r="892" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="892" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G892" s="3"/>
     </row>
-    <row r="893" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="893" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G893" s="3"/>
     </row>
-    <row r="894" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="894" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G894" s="3"/>
     </row>
-    <row r="895" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="895" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G895" s="3"/>
     </row>
-    <row r="896" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="896" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G896" s="3"/>
     </row>
-    <row r="897" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="897" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G897" s="3"/>
     </row>
-    <row r="898" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="898" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G898" s="3"/>
     </row>
-    <row r="899" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="899" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G899" s="3"/>
     </row>
-    <row r="900" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="900" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G900" s="3"/>
     </row>
-    <row r="901" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="901" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G901" s="3"/>
     </row>
-    <row r="902" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="902" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G902" s="3"/>
     </row>
-    <row r="903" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="903" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G903" s="3"/>
     </row>
-    <row r="904" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="904" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G904" s="3"/>
     </row>
-    <row r="905" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="905" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G905" s="3"/>
     </row>
-    <row r="906" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="906" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G906" s="3"/>
     </row>
-    <row r="907" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="907" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G907" s="3"/>
     </row>
-    <row r="908" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="908" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G908" s="3"/>
     </row>
-    <row r="909" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="909" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G909" s="3"/>
     </row>
-    <row r="910" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="910" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G910" s="3"/>
     </row>
-    <row r="911" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="911" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G911" s="3"/>
     </row>
-    <row r="912" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="912" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G912" s="3"/>
     </row>
-    <row r="913" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="913" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G913" s="3"/>
     </row>
-    <row r="914" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="914" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G914" s="3"/>
     </row>
-    <row r="915" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="915" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G915" s="3"/>
     </row>
-    <row r="916" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="916" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G916" s="3"/>
     </row>
-    <row r="917" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="917" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G917" s="3"/>
     </row>
-    <row r="918" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="918" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G918" s="3"/>
     </row>
-    <row r="919" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="919" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G919" s="3"/>
     </row>
-    <row r="920" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="920" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G920" s="3"/>
     </row>
-    <row r="921" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="921" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G921" s="3"/>
     </row>
-    <row r="922" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="922" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G922" s="3"/>
     </row>
-    <row r="923" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="923" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G923" s="3"/>
     </row>
-    <row r="924" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="924" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G924" s="3"/>
     </row>
-    <row r="925" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="925" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G925" s="3"/>
     </row>
-    <row r="926" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="926" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G926" s="3"/>
     </row>
-    <row r="927" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="927" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G927" s="3"/>
     </row>
-    <row r="928" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="928" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G928" s="3"/>
     </row>
-    <row r="929" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="929" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G929" s="3"/>
     </row>
-    <row r="930" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="930" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G930" s="3"/>
     </row>
-    <row r="931" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="931" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G931" s="3"/>
     </row>
-    <row r="932" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="932" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G932" s="3"/>
     </row>
-    <row r="933" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="933" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G933" s="3"/>
     </row>
-    <row r="934" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="934" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G934" s="3"/>
     </row>
-    <row r="935" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="935" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G935" s="3"/>
     </row>
-    <row r="936" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="936" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G936" s="3"/>
     </row>
-    <row r="937" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="937" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G937" s="3"/>
     </row>
-    <row r="938" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="938" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G938" s="3"/>
     </row>
-    <row r="939" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="939" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G939" s="3"/>
     </row>
-    <row r="940" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="940" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G940" s="3"/>
     </row>
-    <row r="941" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="941" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G941" s="3"/>
     </row>
-    <row r="942" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="942" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G942" s="3"/>
     </row>
-    <row r="943" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="943" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G943" s="3"/>
     </row>
-    <row r="944" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="944" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G944" s="3"/>
     </row>
-    <row r="945" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="945" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G945" s="3"/>
     </row>
-    <row r="946" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="946" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G946" s="3"/>
     </row>
-    <row r="947" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="947" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G947" s="3"/>
     </row>
-    <row r="948" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="948" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G948" s="3"/>
     </row>
-    <row r="949" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="949" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G949" s="3"/>
     </row>
-    <row r="950" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="950" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G950" s="3"/>
     </row>
-    <row r="951" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="951" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G951" s="3"/>
     </row>
-    <row r="952" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="952" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G952" s="3"/>
     </row>
-    <row r="953" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="953" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G953" s="3"/>
     </row>
-    <row r="954" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="954" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G954" s="3"/>
     </row>
-    <row r="955" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="955" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G955" s="3"/>
     </row>
-    <row r="956" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="956" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G956" s="3"/>
     </row>
-    <row r="957" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="957" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G957" s="3"/>
     </row>
-    <row r="958" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="958" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G958" s="3"/>
     </row>
-    <row r="959" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="959" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G959" s="3"/>
     </row>
-    <row r="960" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="960" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G960" s="3"/>
     </row>
-    <row r="961" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="961" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G961" s="3"/>
     </row>
-    <row r="962" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="962" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G962" s="3"/>
     </row>
-    <row r="963" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="963" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G963" s="3"/>
     </row>
-    <row r="964" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="964" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G964" s="3"/>
     </row>
-    <row r="965" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="965" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G965" s="3"/>
     </row>
-    <row r="966" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="966" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G966" s="3"/>
     </row>
-    <row r="967" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="967" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G967" s="3"/>
     </row>
-    <row r="968" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="968" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G968" s="3"/>
     </row>
-    <row r="969" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="969" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G969" s="3"/>
     </row>
-    <row r="970" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="970" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G970" s="3"/>
     </row>
-    <row r="971" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="971" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G971" s="3"/>
     </row>
-    <row r="972" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="972" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G972" s="3"/>
     </row>
-    <row r="973" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="973" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G973" s="3"/>
     </row>
-    <row r="974" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="974" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G974" s="3"/>
     </row>
-    <row r="975" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="975" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G975" s="3"/>
     </row>
-    <row r="976" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="976" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G976" s="3"/>
     </row>
-    <row r="977" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="977" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G977" s="3"/>
     </row>
-    <row r="978" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="978" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G978" s="3"/>
     </row>
-    <row r="979" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="979" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G979" s="3"/>
     </row>
-    <row r="980" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="980" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G980" s="3"/>
     </row>
-    <row r="981" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="981" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G981" s="3"/>
     </row>
-    <row r="982" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="982" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G982" s="3"/>
     </row>
-    <row r="983" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="983" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G983" s="3"/>
     </row>
-    <row r="984" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="984" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G984" s="3"/>
     </row>
-    <row r="985" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="985" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G985" s="3"/>
     </row>
-    <row r="986" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="986" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G986" s="3"/>
     </row>
-    <row r="987" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="987" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G987" s="3"/>
     </row>
-    <row r="988" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="988" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G988" s="3"/>
     </row>
-    <row r="989" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="989" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G989" s="3"/>
     </row>
-    <row r="990" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="990" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G990" s="3"/>
     </row>
-    <row r="991" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="991" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G991" s="3"/>
     </row>
-    <row r="992" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="992" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G992" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="148">
-    <mergeCell ref="H146:I146"/>
-    <mergeCell ref="H147:I147"/>
-    <mergeCell ref="H148:I148"/>
-    <mergeCell ref="H149:I149"/>
-    <mergeCell ref="H150:I150"/>
-    <mergeCell ref="H141:I141"/>
-    <mergeCell ref="H142:I142"/>
-    <mergeCell ref="H143:I143"/>
-    <mergeCell ref="H144:I144"/>
-    <mergeCell ref="H145:I145"/>
-    <mergeCell ref="H136:I136"/>
-    <mergeCell ref="H137:I137"/>
-    <mergeCell ref="H138:I138"/>
-    <mergeCell ref="H139:I139"/>
-    <mergeCell ref="H140:I140"/>
-    <mergeCell ref="H131:I131"/>
-    <mergeCell ref="H132:I132"/>
-    <mergeCell ref="H133:I133"/>
-    <mergeCell ref="H134:I134"/>
-    <mergeCell ref="H135:I135"/>
-    <mergeCell ref="H126:I126"/>
-    <mergeCell ref="H127:I127"/>
-    <mergeCell ref="H128:I128"/>
-    <mergeCell ref="H129:I129"/>
-    <mergeCell ref="H130:I130"/>
-    <mergeCell ref="H121:I121"/>
-    <mergeCell ref="H122:I122"/>
-    <mergeCell ref="H123:I123"/>
-    <mergeCell ref="H124:I124"/>
-    <mergeCell ref="H125:I125"/>
-    <mergeCell ref="H116:I116"/>
-    <mergeCell ref="H117:I117"/>
-    <mergeCell ref="H118:I118"/>
-    <mergeCell ref="H119:I119"/>
-    <mergeCell ref="H120:I120"/>
-    <mergeCell ref="H111:I111"/>
-    <mergeCell ref="H112:I112"/>
-    <mergeCell ref="H113:I113"/>
-    <mergeCell ref="H114:I114"/>
-    <mergeCell ref="H115:I115"/>
-    <mergeCell ref="H106:I106"/>
-    <mergeCell ref="H107:I107"/>
-    <mergeCell ref="H108:I108"/>
-    <mergeCell ref="H109:I109"/>
-    <mergeCell ref="H110:I110"/>
-    <mergeCell ref="H101:I101"/>
-    <mergeCell ref="H102:I102"/>
-    <mergeCell ref="H103:I103"/>
-    <mergeCell ref="H104:I104"/>
-    <mergeCell ref="H105:I105"/>
-    <mergeCell ref="H96:I96"/>
-    <mergeCell ref="H97:I97"/>
-    <mergeCell ref="H98:I98"/>
-    <mergeCell ref="H99:I99"/>
-    <mergeCell ref="H100:I100"/>
-    <mergeCell ref="H91:I91"/>
-    <mergeCell ref="H92:I92"/>
-    <mergeCell ref="H93:I93"/>
-    <mergeCell ref="H94:I94"/>
-    <mergeCell ref="H95:I95"/>
-    <mergeCell ref="H86:I86"/>
-    <mergeCell ref="H87:I87"/>
-    <mergeCell ref="H88:I88"/>
-    <mergeCell ref="H89:I89"/>
-    <mergeCell ref="H90:I90"/>
-    <mergeCell ref="H81:I81"/>
-    <mergeCell ref="H82:I82"/>
-    <mergeCell ref="H83:I83"/>
-    <mergeCell ref="H84:I84"/>
-    <mergeCell ref="H85:I85"/>
-    <mergeCell ref="H76:I76"/>
-    <mergeCell ref="H77:I77"/>
-    <mergeCell ref="H78:I78"/>
-    <mergeCell ref="H79:I79"/>
-    <mergeCell ref="H80:I80"/>
-    <mergeCell ref="H71:I71"/>
-    <mergeCell ref="H72:I72"/>
-    <mergeCell ref="H73:I73"/>
-    <mergeCell ref="H74:I74"/>
-    <mergeCell ref="H75:I75"/>
-    <mergeCell ref="H66:I66"/>
-    <mergeCell ref="H67:I67"/>
-    <mergeCell ref="H68:I68"/>
-    <mergeCell ref="H69:I69"/>
-    <mergeCell ref="H70:I70"/>
-    <mergeCell ref="H61:I61"/>
-    <mergeCell ref="H62:I62"/>
-    <mergeCell ref="H63:I63"/>
-    <mergeCell ref="H64:I64"/>
-    <mergeCell ref="H65:I65"/>
-    <mergeCell ref="H56:I56"/>
-    <mergeCell ref="H57:I57"/>
-    <mergeCell ref="H58:I58"/>
-    <mergeCell ref="H59:I59"/>
-    <mergeCell ref="H60:I60"/>
-    <mergeCell ref="H51:I51"/>
-    <mergeCell ref="H52:I52"/>
-    <mergeCell ref="H53:I53"/>
-    <mergeCell ref="H54:I54"/>
-    <mergeCell ref="H55:I55"/>
-    <mergeCell ref="H46:I46"/>
-    <mergeCell ref="H47:I47"/>
-    <mergeCell ref="H48:I48"/>
-    <mergeCell ref="H49:I49"/>
-    <mergeCell ref="H50:I50"/>
-    <mergeCell ref="H41:I41"/>
-    <mergeCell ref="H42:I42"/>
-    <mergeCell ref="H43:I43"/>
-    <mergeCell ref="H44:I44"/>
-    <mergeCell ref="H45:I45"/>
-    <mergeCell ref="H36:I36"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="H38:I38"/>
-    <mergeCell ref="H39:I39"/>
-    <mergeCell ref="H40:I40"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="A20:I20"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="H25:I25"/>
     <mergeCell ref="H15:I15"/>
     <mergeCell ref="H16:I16"/>
     <mergeCell ref="H17:I17"/>
@@ -6762,6 +6648,136 @@
     <mergeCell ref="H12:I12"/>
     <mergeCell ref="H13:I13"/>
     <mergeCell ref="H14:I14"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="A20:I20"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="H36:I36"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="H46:I46"/>
+    <mergeCell ref="H47:I47"/>
+    <mergeCell ref="H48:I48"/>
+    <mergeCell ref="H49:I49"/>
+    <mergeCell ref="H50:I50"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="H42:I42"/>
+    <mergeCell ref="H43:I43"/>
+    <mergeCell ref="H44:I44"/>
+    <mergeCell ref="H45:I45"/>
+    <mergeCell ref="H56:I56"/>
+    <mergeCell ref="H57:I57"/>
+    <mergeCell ref="H58:I58"/>
+    <mergeCell ref="H59:I59"/>
+    <mergeCell ref="H60:I60"/>
+    <mergeCell ref="H51:I51"/>
+    <mergeCell ref="H52:I52"/>
+    <mergeCell ref="H53:I53"/>
+    <mergeCell ref="H54:I54"/>
+    <mergeCell ref="H55:I55"/>
+    <mergeCell ref="H66:I66"/>
+    <mergeCell ref="H67:I67"/>
+    <mergeCell ref="H68:I68"/>
+    <mergeCell ref="H69:I69"/>
+    <mergeCell ref="H70:I70"/>
+    <mergeCell ref="H61:I61"/>
+    <mergeCell ref="H62:I62"/>
+    <mergeCell ref="H63:I63"/>
+    <mergeCell ref="H64:I64"/>
+    <mergeCell ref="H65:I65"/>
+    <mergeCell ref="H76:I76"/>
+    <mergeCell ref="H77:I77"/>
+    <mergeCell ref="H78:I78"/>
+    <mergeCell ref="H79:I79"/>
+    <mergeCell ref="H80:I80"/>
+    <mergeCell ref="H71:I71"/>
+    <mergeCell ref="H72:I72"/>
+    <mergeCell ref="H73:I73"/>
+    <mergeCell ref="H74:I74"/>
+    <mergeCell ref="H75:I75"/>
+    <mergeCell ref="H86:I86"/>
+    <mergeCell ref="H87:I87"/>
+    <mergeCell ref="H88:I88"/>
+    <mergeCell ref="H89:I89"/>
+    <mergeCell ref="H90:I90"/>
+    <mergeCell ref="H81:I81"/>
+    <mergeCell ref="H82:I82"/>
+    <mergeCell ref="H83:I83"/>
+    <mergeCell ref="H84:I84"/>
+    <mergeCell ref="H85:I85"/>
+    <mergeCell ref="H96:I96"/>
+    <mergeCell ref="H97:I97"/>
+    <mergeCell ref="H98:I98"/>
+    <mergeCell ref="H99:I99"/>
+    <mergeCell ref="H100:I100"/>
+    <mergeCell ref="H91:I91"/>
+    <mergeCell ref="H92:I92"/>
+    <mergeCell ref="H93:I93"/>
+    <mergeCell ref="H94:I94"/>
+    <mergeCell ref="H95:I95"/>
+    <mergeCell ref="H106:I106"/>
+    <mergeCell ref="H107:I107"/>
+    <mergeCell ref="H108:I108"/>
+    <mergeCell ref="H109:I109"/>
+    <mergeCell ref="H110:I110"/>
+    <mergeCell ref="H101:I101"/>
+    <mergeCell ref="H102:I102"/>
+    <mergeCell ref="H103:I103"/>
+    <mergeCell ref="H104:I104"/>
+    <mergeCell ref="H105:I105"/>
+    <mergeCell ref="H116:I116"/>
+    <mergeCell ref="H117:I117"/>
+    <mergeCell ref="H118:I118"/>
+    <mergeCell ref="H119:I119"/>
+    <mergeCell ref="H120:I120"/>
+    <mergeCell ref="H111:I111"/>
+    <mergeCell ref="H112:I112"/>
+    <mergeCell ref="H113:I113"/>
+    <mergeCell ref="H114:I114"/>
+    <mergeCell ref="H115:I115"/>
+    <mergeCell ref="H126:I126"/>
+    <mergeCell ref="H127:I127"/>
+    <mergeCell ref="H128:I128"/>
+    <mergeCell ref="H129:I129"/>
+    <mergeCell ref="H130:I130"/>
+    <mergeCell ref="H121:I121"/>
+    <mergeCell ref="H122:I122"/>
+    <mergeCell ref="H123:I123"/>
+    <mergeCell ref="H124:I124"/>
+    <mergeCell ref="H125:I125"/>
+    <mergeCell ref="H136:I136"/>
+    <mergeCell ref="H137:I137"/>
+    <mergeCell ref="H138:I138"/>
+    <mergeCell ref="H139:I139"/>
+    <mergeCell ref="H140:I140"/>
+    <mergeCell ref="H131:I131"/>
+    <mergeCell ref="H132:I132"/>
+    <mergeCell ref="H133:I133"/>
+    <mergeCell ref="H134:I134"/>
+    <mergeCell ref="H135:I135"/>
+    <mergeCell ref="H146:I146"/>
+    <mergeCell ref="H147:I147"/>
+    <mergeCell ref="H148:I148"/>
+    <mergeCell ref="H149:I149"/>
+    <mergeCell ref="H150:I150"/>
+    <mergeCell ref="H141:I141"/>
+    <mergeCell ref="H142:I142"/>
+    <mergeCell ref="H143:I143"/>
+    <mergeCell ref="H144:I144"/>
+    <mergeCell ref="H145:I145"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G1 G3:G19 G21:G992" xr:uid="{00000000-0002-0000-0000-000000000000}">

--- a/Requirments/Review.xlsx
+++ b/Requirments/Review.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ITI\QA\Online-Mobile-Store-WebSite\Requirments\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ITI material\QA\Online-Mobile-Store-WebSite\Requirments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38397C7D-5CD8-443C-96EB-8EE990AB78D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E20B04F2-B75D-4A7F-BBD7-5E0B2E2EC47C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="79">
   <si>
     <t>ID</t>
   </si>
@@ -248,6 +248,15 @@
   </si>
   <si>
     <t>In naming convention why we add color??</t>
+  </si>
+  <si>
+    <t>No registration gaps</t>
+  </si>
+  <si>
+    <t>Review_Reg_001</t>
+  </si>
+  <si>
+    <t>CRS_Reg</t>
   </si>
 </sst>
 </file>
@@ -483,6 +492,11 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -492,13 +506,8 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -719,22 +728,22 @@
   </sheetPr>
   <dimension ref="A1:AC992"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B17" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24" customWidth="1"/>
-    <col min="2" max="2" width="27.28515625" customWidth="1"/>
-    <col min="3" max="3" width="20.7109375" customWidth="1"/>
+    <col min="2" max="2" width="27.33203125" customWidth="1"/>
+    <col min="3" max="3" width="20.6640625" customWidth="1"/>
     <col min="4" max="4" width="24" customWidth="1"/>
-    <col min="5" max="5" width="94.28515625" customWidth="1"/>
-    <col min="6" max="6" width="25.85546875" customWidth="1"/>
-    <col min="7" max="7" width="18.5703125" customWidth="1"/>
+    <col min="5" max="5" width="94.33203125" customWidth="1"/>
+    <col min="6" max="6" width="25.88671875" customWidth="1"/>
+    <col min="7" max="7" width="18.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="36" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:29" ht="36" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -756,7 +765,7 @@
       <c r="G1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="29" t="s">
+      <c r="H1" s="26" t="s">
         <v>71</v>
       </c>
       <c r="I1" s="25"/>
@@ -781,18 +790,18 @@
       <c r="AB1" s="2"/>
       <c r="AC1" s="2"/>
     </row>
-    <row r="2" spans="1:29" ht="36" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="26" t="s">
+    <row r="2" spans="1:29" ht="36" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A2" s="31" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="28"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="33"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
       <c r="L2" s="2"/>
@@ -814,7 +823,7 @@
       <c r="AB2" s="2"/>
       <c r="AC2" s="2"/>
     </row>
-    <row r="3" spans="1:29" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:29" ht="18" x14ac:dyDescent="0.35">
       <c r="A3" s="7" t="s">
         <v>7</v>
       </c>
@@ -836,10 +845,10 @@
       <c r="G3" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="30"/>
-      <c r="I3" s="31"/>
-    </row>
-    <row r="4" spans="1:29" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H3" s="34"/>
+      <c r="I3" s="35"/>
+    </row>
+    <row r="4" spans="1:29" ht="18" x14ac:dyDescent="0.35">
       <c r="A4" s="7" t="s">
         <v>13</v>
       </c>
@@ -861,10 +870,10 @@
       <c r="G4" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="H4" s="30"/>
-      <c r="I4" s="31"/>
-    </row>
-    <row r="5" spans="1:29" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H4" s="34"/>
+      <c r="I4" s="35"/>
+    </row>
+    <row r="5" spans="1:29" ht="18" x14ac:dyDescent="0.35">
       <c r="A5" s="7" t="s">
         <v>15</v>
       </c>
@@ -886,10 +895,10 @@
       <c r="G5" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="H5" s="30"/>
-      <c r="I5" s="31"/>
-    </row>
-    <row r="6" spans="1:29" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H5" s="34"/>
+      <c r="I5" s="35"/>
+    </row>
+    <row r="6" spans="1:29" ht="18" x14ac:dyDescent="0.35">
       <c r="A6" s="11" t="s">
         <v>19</v>
       </c>
@@ -911,10 +920,10 @@
       <c r="G6" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="H6" s="30"/>
-      <c r="I6" s="31"/>
-    </row>
-    <row r="7" spans="1:29" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H6" s="34"/>
+      <c r="I6" s="35"/>
+    </row>
+    <row r="7" spans="1:29" ht="18" x14ac:dyDescent="0.35">
       <c r="A7" s="11" t="s">
         <v>22</v>
       </c>
@@ -936,10 +945,10 @@
       <c r="G7" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="H7" s="30"/>
-      <c r="I7" s="31"/>
-    </row>
-    <row r="8" spans="1:29" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H7" s="34"/>
+      <c r="I7" s="35"/>
+    </row>
+    <row r="8" spans="1:29" ht="18" x14ac:dyDescent="0.35">
       <c r="A8" s="11" t="s">
         <v>25</v>
       </c>
@@ -961,10 +970,10 @@
       <c r="G8" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="H8" s="30"/>
-      <c r="I8" s="31"/>
-    </row>
-    <row r="9" spans="1:29" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H8" s="34"/>
+      <c r="I8" s="35"/>
+    </row>
+    <row r="9" spans="1:29" ht="18" x14ac:dyDescent="0.35">
       <c r="A9" s="7" t="s">
         <v>28</v>
       </c>
@@ -986,10 +995,10 @@
       <c r="G9" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="H9" s="30"/>
-      <c r="I9" s="31"/>
-    </row>
-    <row r="10" spans="1:29" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H9" s="34"/>
+      <c r="I9" s="35"/>
+    </row>
+    <row r="10" spans="1:29" ht="18" x14ac:dyDescent="0.35">
       <c r="A10" s="7" t="s">
         <v>31</v>
       </c>
@@ -1011,10 +1020,10 @@
       <c r="G10" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="H10" s="30"/>
-      <c r="I10" s="31"/>
-    </row>
-    <row r="11" spans="1:29" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H10" s="34"/>
+      <c r="I10" s="35"/>
+    </row>
+    <row r="11" spans="1:29" ht="18" x14ac:dyDescent="0.35">
       <c r="A11" s="7" t="s">
         <v>34</v>
       </c>
@@ -1036,10 +1045,10 @@
       <c r="G11" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="H11" s="30"/>
-      <c r="I11" s="31"/>
-    </row>
-    <row r="12" spans="1:29" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H11" s="34"/>
+      <c r="I11" s="35"/>
+    </row>
+    <row r="12" spans="1:29" ht="18" x14ac:dyDescent="0.35">
       <c r="A12" s="7" t="s">
         <v>36</v>
       </c>
@@ -1061,10 +1070,10 @@
       <c r="G12" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="H12" s="30"/>
-      <c r="I12" s="31"/>
-    </row>
-    <row r="13" spans="1:29" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H12" s="34"/>
+      <c r="I12" s="35"/>
+    </row>
+    <row r="13" spans="1:29" ht="18" x14ac:dyDescent="0.35">
       <c r="A13" s="7" t="s">
         <v>39</v>
       </c>
@@ -1086,10 +1095,10 @@
       <c r="G13" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="H13" s="30"/>
-      <c r="I13" s="31"/>
-    </row>
-    <row r="14" spans="1:29" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H13" s="34"/>
+      <c r="I13" s="35"/>
+    </row>
+    <row r="14" spans="1:29" ht="18" x14ac:dyDescent="0.35">
       <c r="A14" s="7" t="s">
         <v>42</v>
       </c>
@@ -1111,10 +1120,10 @@
       <c r="G14" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="H14" s="30"/>
-      <c r="I14" s="31"/>
-    </row>
-    <row r="15" spans="1:29" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H14" s="34"/>
+      <c r="I14" s="35"/>
+    </row>
+    <row r="15" spans="1:29" ht="18" x14ac:dyDescent="0.35">
       <c r="A15" s="7" t="s">
         <v>44</v>
       </c>
@@ -1134,10 +1143,10 @@
       <c r="G15" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="H15" s="30"/>
-      <c r="I15" s="31"/>
-    </row>
-    <row r="16" spans="1:29" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H15" s="34"/>
+      <c r="I15" s="35"/>
+    </row>
+    <row r="16" spans="1:29" ht="18" x14ac:dyDescent="0.35">
       <c r="A16" s="7" t="s">
         <v>46</v>
       </c>
@@ -1159,10 +1168,10 @@
       <c r="G16" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="H16" s="30"/>
-      <c r="I16" s="31"/>
-    </row>
-    <row r="17" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H16" s="34"/>
+      <c r="I16" s="35"/>
+    </row>
+    <row r="17" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A17" s="7" t="s">
         <v>50</v>
       </c>
@@ -1184,10 +1193,10 @@
       <c r="G17" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="H17" s="30"/>
-      <c r="I17" s="31"/>
-    </row>
-    <row r="18" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H17" s="34"/>
+      <c r="I17" s="35"/>
+    </row>
+    <row r="18" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A18" s="7" t="s">
         <v>52</v>
       </c>
@@ -1209,10 +1218,10 @@
       <c r="G18" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="H18" s="30"/>
-      <c r="I18" s="31"/>
-    </row>
-    <row r="19" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H18" s="34"/>
+      <c r="I18" s="35"/>
+    </row>
+    <row r="19" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A19" s="16" t="s">
         <v>55</v>
       </c>
@@ -1234,23 +1243,23 @@
       <c r="G19" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="H19" s="30"/>
-      <c r="I19" s="31"/>
-    </row>
-    <row r="20" spans="1:9" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A20" s="26" t="s">
+      <c r="H19" s="34"/>
+      <c r="I19" s="35"/>
+    </row>
+    <row r="20" spans="1:9" ht="25.8" x14ac:dyDescent="0.5">
+      <c r="A20" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="B20" s="27"/>
-      <c r="C20" s="27"/>
-      <c r="D20" s="27"/>
-      <c r="E20" s="27"/>
-      <c r="F20" s="27"/>
-      <c r="G20" s="27"/>
-      <c r="H20" s="27"/>
-      <c r="I20" s="28"/>
-    </row>
-    <row r="21" spans="1:9" s="17" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B20" s="32"/>
+      <c r="C20" s="32"/>
+      <c r="D20" s="32"/>
+      <c r="E20" s="32"/>
+      <c r="F20" s="32"/>
+      <c r="G20" s="32"/>
+      <c r="H20" s="32"/>
+      <c r="I20" s="33"/>
+    </row>
+    <row r="21" spans="1:9" s="17" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A21" s="14" t="s">
         <v>55</v>
       </c>
@@ -1272,10 +1281,10 @@
       <c r="G21" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="H21" s="32"/>
-      <c r="I21" s="33"/>
-    </row>
-    <row r="22" spans="1:9" s="20" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H21" s="29"/>
+      <c r="I21" s="30"/>
+    </row>
+    <row r="22" spans="1:9" s="20" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A22" s="21" t="s">
         <v>7</v>
       </c>
@@ -1297,10 +1306,10 @@
       <c r="G22" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="H22" s="32"/>
-      <c r="I22" s="33"/>
-    </row>
-    <row r="23" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H22" s="29"/>
+      <c r="I22" s="30"/>
+    </row>
+    <row r="23" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A23" s="14" t="s">
         <v>46</v>
       </c>
@@ -1322,10 +1331,10 @@
       <c r="G23" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="H23" s="32"/>
-      <c r="I23" s="33"/>
-    </row>
-    <row r="24" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H23" s="29"/>
+      <c r="I23" s="30"/>
+    </row>
+    <row r="24" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A24" s="14" t="s">
         <v>50</v>
       </c>
@@ -1347,10 +1356,10 @@
       <c r="G24" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="H24" s="34"/>
-      <c r="I24" s="35"/>
-    </row>
-    <row r="25" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H24" s="27"/>
+      <c r="I24" s="28"/>
+    </row>
+    <row r="25" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A25" s="14" t="s">
         <v>73</v>
       </c>
@@ -1372,21 +1381,35 @@
       <c r="G25" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="H25" s="32"/>
-      <c r="I25" s="33"/>
-    </row>
-    <row r="26" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A26" s="14"/>
-      <c r="B26" s="14"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="14"/>
-      <c r="G26" s="16"/>
-      <c r="H26" s="32"/>
-      <c r="I26" s="33"/>
-    </row>
-    <row r="27" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H25" s="29"/>
+      <c r="I25" s="30"/>
+    </row>
+    <row r="26" spans="1:9" s="20" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+      <c r="A26" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="B26" s="22">
+        <v>45756</v>
+      </c>
+      <c r="C26" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="D26" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="E26" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="F26" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="G26" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="H26" s="29"/>
+      <c r="I26" s="30"/>
+    </row>
+    <row r="27" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A27" s="14"/>
       <c r="B27" s="14"/>
       <c r="C27" s="14"/>
@@ -1394,10 +1417,10 @@
       <c r="E27" s="14"/>
       <c r="F27" s="14"/>
       <c r="G27" s="16"/>
-      <c r="H27" s="32"/>
-      <c r="I27" s="33"/>
-    </row>
-    <row r="28" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H27" s="29"/>
+      <c r="I27" s="30"/>
+    </row>
+    <row r="28" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A28" s="14"/>
       <c r="B28" s="14"/>
       <c r="C28" s="14"/>
@@ -1405,10 +1428,10 @@
       <c r="E28" s="14"/>
       <c r="F28" s="14"/>
       <c r="G28" s="16"/>
-      <c r="H28" s="32"/>
-      <c r="I28" s="33"/>
-    </row>
-    <row r="29" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H28" s="29"/>
+      <c r="I28" s="30"/>
+    </row>
+    <row r="29" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A29" s="14"/>
       <c r="B29" s="14"/>
       <c r="C29" s="14"/>
@@ -1416,10 +1439,10 @@
       <c r="E29" s="14"/>
       <c r="F29" s="14"/>
       <c r="G29" s="16"/>
-      <c r="H29" s="32"/>
-      <c r="I29" s="33"/>
-    </row>
-    <row r="30" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H29" s="29"/>
+      <c r="I29" s="30"/>
+    </row>
+    <row r="30" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A30" s="14"/>
       <c r="B30" s="14"/>
       <c r="C30" s="14"/>
@@ -1427,10 +1450,10 @@
       <c r="E30" s="14"/>
       <c r="F30" s="14"/>
       <c r="G30" s="16"/>
-      <c r="H30" s="32"/>
-      <c r="I30" s="33"/>
-    </row>
-    <row r="31" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H30" s="29"/>
+      <c r="I30" s="30"/>
+    </row>
+    <row r="31" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A31" s="14"/>
       <c r="B31" s="14"/>
       <c r="C31" s="14"/>
@@ -1438,10 +1461,10 @@
       <c r="E31" s="14"/>
       <c r="F31" s="14"/>
       <c r="G31" s="16"/>
-      <c r="H31" s="32"/>
-      <c r="I31" s="33"/>
-    </row>
-    <row r="32" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H31" s="29"/>
+      <c r="I31" s="30"/>
+    </row>
+    <row r="32" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A32" s="14"/>
       <c r="B32" s="14"/>
       <c r="C32" s="14"/>
@@ -1449,10 +1472,10 @@
       <c r="E32" s="14"/>
       <c r="F32" s="14"/>
       <c r="G32" s="16"/>
-      <c r="H32" s="32"/>
-      <c r="I32" s="33"/>
-    </row>
-    <row r="33" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H32" s="29"/>
+      <c r="I32" s="30"/>
+    </row>
+    <row r="33" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A33" s="14"/>
       <c r="B33" s="14"/>
       <c r="C33" s="14"/>
@@ -1460,10 +1483,10 @@
       <c r="E33" s="14"/>
       <c r="F33" s="14"/>
       <c r="G33" s="16"/>
-      <c r="H33" s="32"/>
-      <c r="I33" s="33"/>
-    </row>
-    <row r="34" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H33" s="29"/>
+      <c r="I33" s="30"/>
+    </row>
+    <row r="34" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A34" s="14"/>
       <c r="B34" s="14"/>
       <c r="C34" s="14"/>
@@ -1471,10 +1494,10 @@
       <c r="E34" s="14"/>
       <c r="F34" s="14"/>
       <c r="G34" s="16"/>
-      <c r="H34" s="32"/>
-      <c r="I34" s="33"/>
-    </row>
-    <row r="35" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H34" s="29"/>
+      <c r="I34" s="30"/>
+    </row>
+    <row r="35" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A35" s="14"/>
       <c r="B35" s="14"/>
       <c r="C35" s="14"/>
@@ -1482,10 +1505,10 @@
       <c r="E35" s="14"/>
       <c r="F35" s="14"/>
       <c r="G35" s="16"/>
-      <c r="H35" s="32"/>
-      <c r="I35" s="33"/>
-    </row>
-    <row r="36" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H35" s="29"/>
+      <c r="I35" s="30"/>
+    </row>
+    <row r="36" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A36" s="14"/>
       <c r="B36" s="14"/>
       <c r="C36" s="14"/>
@@ -1493,10 +1516,10 @@
       <c r="E36" s="14"/>
       <c r="F36" s="14"/>
       <c r="G36" s="16"/>
-      <c r="H36" s="32"/>
-      <c r="I36" s="33"/>
-    </row>
-    <row r="37" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H36" s="29"/>
+      <c r="I36" s="30"/>
+    </row>
+    <row r="37" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A37" s="14"/>
       <c r="B37" s="14"/>
       <c r="C37" s="14"/>
@@ -1504,10 +1527,10 @@
       <c r="E37" s="14"/>
       <c r="F37" s="14"/>
       <c r="G37" s="16"/>
-      <c r="H37" s="32"/>
-      <c r="I37" s="33"/>
-    </row>
-    <row r="38" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H37" s="29"/>
+      <c r="I37" s="30"/>
+    </row>
+    <row r="38" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A38" s="14"/>
       <c r="B38" s="14"/>
       <c r="C38" s="14"/>
@@ -1515,10 +1538,10 @@
       <c r="E38" s="14"/>
       <c r="F38" s="14"/>
       <c r="G38" s="16"/>
-      <c r="H38" s="32"/>
-      <c r="I38" s="33"/>
-    </row>
-    <row r="39" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H38" s="29"/>
+      <c r="I38" s="30"/>
+    </row>
+    <row r="39" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A39" s="14"/>
       <c r="B39" s="14"/>
       <c r="C39" s="14"/>
@@ -1526,10 +1549,10 @@
       <c r="E39" s="14"/>
       <c r="F39" s="14"/>
       <c r="G39" s="16"/>
-      <c r="H39" s="32"/>
-      <c r="I39" s="33"/>
-    </row>
-    <row r="40" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H39" s="29"/>
+      <c r="I39" s="30"/>
+    </row>
+    <row r="40" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A40" s="14"/>
       <c r="B40" s="14"/>
       <c r="C40" s="14"/>
@@ -1537,10 +1560,10 @@
       <c r="E40" s="14"/>
       <c r="F40" s="14"/>
       <c r="G40" s="16"/>
-      <c r="H40" s="32"/>
-      <c r="I40" s="33"/>
-    </row>
-    <row r="41" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H40" s="29"/>
+      <c r="I40" s="30"/>
+    </row>
+    <row r="41" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A41" s="14"/>
       <c r="B41" s="14"/>
       <c r="C41" s="14"/>
@@ -1548,10 +1571,10 @@
       <c r="E41" s="14"/>
       <c r="F41" s="14"/>
       <c r="G41" s="16"/>
-      <c r="H41" s="32"/>
-      <c r="I41" s="33"/>
-    </row>
-    <row r="42" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H41" s="29"/>
+      <c r="I41" s="30"/>
+    </row>
+    <row r="42" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A42" s="14"/>
       <c r="B42" s="14"/>
       <c r="C42" s="14"/>
@@ -1559,10 +1582,10 @@
       <c r="E42" s="14"/>
       <c r="F42" s="14"/>
       <c r="G42" s="16"/>
-      <c r="H42" s="32"/>
-      <c r="I42" s="33"/>
-    </row>
-    <row r="43" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H42" s="29"/>
+      <c r="I42" s="30"/>
+    </row>
+    <row r="43" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A43" s="14"/>
       <c r="B43" s="14"/>
       <c r="C43" s="14"/>
@@ -1570,10 +1593,10 @@
       <c r="E43" s="14"/>
       <c r="F43" s="14"/>
       <c r="G43" s="16"/>
-      <c r="H43" s="32"/>
-      <c r="I43" s="33"/>
-    </row>
-    <row r="44" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H43" s="29"/>
+      <c r="I43" s="30"/>
+    </row>
+    <row r="44" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A44" s="14"/>
       <c r="B44" s="14"/>
       <c r="C44" s="14"/>
@@ -1581,10 +1604,10 @@
       <c r="E44" s="14"/>
       <c r="F44" s="14"/>
       <c r="G44" s="16"/>
-      <c r="H44" s="32"/>
-      <c r="I44" s="33"/>
-    </row>
-    <row r="45" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H44" s="29"/>
+      <c r="I44" s="30"/>
+    </row>
+    <row r="45" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A45" s="14"/>
       <c r="B45" s="14"/>
       <c r="C45" s="14"/>
@@ -1592,10 +1615,10 @@
       <c r="E45" s="14"/>
       <c r="F45" s="14"/>
       <c r="G45" s="16"/>
-      <c r="H45" s="32"/>
-      <c r="I45" s="33"/>
-    </row>
-    <row r="46" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H45" s="29"/>
+      <c r="I45" s="30"/>
+    </row>
+    <row r="46" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A46" s="14"/>
       <c r="B46" s="14"/>
       <c r="C46" s="14"/>
@@ -1603,10 +1626,10 @@
       <c r="E46" s="14"/>
       <c r="F46" s="14"/>
       <c r="G46" s="16"/>
-      <c r="H46" s="32"/>
-      <c r="I46" s="33"/>
-    </row>
-    <row r="47" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H46" s="29"/>
+      <c r="I46" s="30"/>
+    </row>
+    <row r="47" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A47" s="14"/>
       <c r="B47" s="14"/>
       <c r="C47" s="14"/>
@@ -1614,10 +1637,10 @@
       <c r="E47" s="14"/>
       <c r="F47" s="14"/>
       <c r="G47" s="16"/>
-      <c r="H47" s="32"/>
-      <c r="I47" s="33"/>
-    </row>
-    <row r="48" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H47" s="29"/>
+      <c r="I47" s="30"/>
+    </row>
+    <row r="48" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A48" s="14"/>
       <c r="B48" s="14"/>
       <c r="C48" s="14"/>
@@ -1625,10 +1648,10 @@
       <c r="E48" s="14"/>
       <c r="F48" s="14"/>
       <c r="G48" s="16"/>
-      <c r="H48" s="32"/>
-      <c r="I48" s="33"/>
-    </row>
-    <row r="49" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H48" s="29"/>
+      <c r="I48" s="30"/>
+    </row>
+    <row r="49" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A49" s="14"/>
       <c r="B49" s="14"/>
       <c r="C49" s="14"/>
@@ -1636,10 +1659,10 @@
       <c r="E49" s="14"/>
       <c r="F49" s="14"/>
       <c r="G49" s="16"/>
-      <c r="H49" s="32"/>
-      <c r="I49" s="33"/>
-    </row>
-    <row r="50" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H49" s="29"/>
+      <c r="I49" s="30"/>
+    </row>
+    <row r="50" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A50" s="14"/>
       <c r="B50" s="14"/>
       <c r="C50" s="14"/>
@@ -1647,10 +1670,10 @@
       <c r="E50" s="14"/>
       <c r="F50" s="14"/>
       <c r="G50" s="16"/>
-      <c r="H50" s="32"/>
-      <c r="I50" s="33"/>
-    </row>
-    <row r="51" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H50" s="29"/>
+      <c r="I50" s="30"/>
+    </row>
+    <row r="51" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A51" s="14"/>
       <c r="B51" s="14"/>
       <c r="C51" s="14"/>
@@ -1658,10 +1681,10 @@
       <c r="E51" s="14"/>
       <c r="F51" s="14"/>
       <c r="G51" s="16"/>
-      <c r="H51" s="32"/>
-      <c r="I51" s="33"/>
-    </row>
-    <row r="52" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H51" s="29"/>
+      <c r="I51" s="30"/>
+    </row>
+    <row r="52" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A52" s="14"/>
       <c r="B52" s="14"/>
       <c r="C52" s="14"/>
@@ -1669,10 +1692,10 @@
       <c r="E52" s="14"/>
       <c r="F52" s="14"/>
       <c r="G52" s="16"/>
-      <c r="H52" s="32"/>
-      <c r="I52" s="33"/>
-    </row>
-    <row r="53" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H52" s="29"/>
+      <c r="I52" s="30"/>
+    </row>
+    <row r="53" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A53" s="14"/>
       <c r="B53" s="14"/>
       <c r="C53" s="14"/>
@@ -1680,10 +1703,10 @@
       <c r="E53" s="14"/>
       <c r="F53" s="14"/>
       <c r="G53" s="16"/>
-      <c r="H53" s="32"/>
-      <c r="I53" s="33"/>
-    </row>
-    <row r="54" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H53" s="29"/>
+      <c r="I53" s="30"/>
+    </row>
+    <row r="54" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A54" s="14"/>
       <c r="B54" s="14"/>
       <c r="C54" s="14"/>
@@ -1691,10 +1714,10 @@
       <c r="E54" s="14"/>
       <c r="F54" s="14"/>
       <c r="G54" s="16"/>
-      <c r="H54" s="32"/>
-      <c r="I54" s="33"/>
-    </row>
-    <row r="55" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H54" s="29"/>
+      <c r="I54" s="30"/>
+    </row>
+    <row r="55" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A55" s="14"/>
       <c r="B55" s="14"/>
       <c r="C55" s="14"/>
@@ -1702,10 +1725,10 @@
       <c r="E55" s="14"/>
       <c r="F55" s="14"/>
       <c r="G55" s="16"/>
-      <c r="H55" s="32"/>
-      <c r="I55" s="33"/>
-    </row>
-    <row r="56" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H55" s="29"/>
+      <c r="I55" s="30"/>
+    </row>
+    <row r="56" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A56" s="14"/>
       <c r="B56" s="14"/>
       <c r="C56" s="14"/>
@@ -1713,10 +1736,10 @@
       <c r="E56" s="14"/>
       <c r="F56" s="14"/>
       <c r="G56" s="16"/>
-      <c r="H56" s="32"/>
-      <c r="I56" s="33"/>
-    </row>
-    <row r="57" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H56" s="29"/>
+      <c r="I56" s="30"/>
+    </row>
+    <row r="57" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A57" s="14"/>
       <c r="B57" s="14"/>
       <c r="C57" s="14"/>
@@ -1724,10 +1747,10 @@
       <c r="E57" s="14"/>
       <c r="F57" s="14"/>
       <c r="G57" s="16"/>
-      <c r="H57" s="32"/>
-      <c r="I57" s="33"/>
-    </row>
-    <row r="58" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H57" s="29"/>
+      <c r="I57" s="30"/>
+    </row>
+    <row r="58" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A58" s="14"/>
       <c r="B58" s="14"/>
       <c r="C58" s="14"/>
@@ -1735,10 +1758,10 @@
       <c r="E58" s="14"/>
       <c r="F58" s="14"/>
       <c r="G58" s="16"/>
-      <c r="H58" s="32"/>
-      <c r="I58" s="33"/>
-    </row>
-    <row r="59" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H58" s="29"/>
+      <c r="I58" s="30"/>
+    </row>
+    <row r="59" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A59" s="14"/>
       <c r="B59" s="14"/>
       <c r="C59" s="14"/>
@@ -1746,10 +1769,10 @@
       <c r="E59" s="14"/>
       <c r="F59" s="14"/>
       <c r="G59" s="16"/>
-      <c r="H59" s="32"/>
-      <c r="I59" s="33"/>
-    </row>
-    <row r="60" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H59" s="29"/>
+      <c r="I59" s="30"/>
+    </row>
+    <row r="60" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A60" s="14"/>
       <c r="B60" s="14"/>
       <c r="C60" s="14"/>
@@ -1757,10 +1780,10 @@
       <c r="E60" s="14"/>
       <c r="F60" s="14"/>
       <c r="G60" s="16"/>
-      <c r="H60" s="32"/>
-      <c r="I60" s="33"/>
-    </row>
-    <row r="61" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H60" s="29"/>
+      <c r="I60" s="30"/>
+    </row>
+    <row r="61" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A61" s="14"/>
       <c r="B61" s="14"/>
       <c r="C61" s="14"/>
@@ -1768,10 +1791,10 @@
       <c r="E61" s="14"/>
       <c r="F61" s="14"/>
       <c r="G61" s="16"/>
-      <c r="H61" s="32"/>
-      <c r="I61" s="33"/>
-    </row>
-    <row r="62" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H61" s="29"/>
+      <c r="I61" s="30"/>
+    </row>
+    <row r="62" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A62" s="14"/>
       <c r="B62" s="14"/>
       <c r="C62" s="14"/>
@@ -1779,10 +1802,10 @@
       <c r="E62" s="14"/>
       <c r="F62" s="14"/>
       <c r="G62" s="16"/>
-      <c r="H62" s="32"/>
-      <c r="I62" s="33"/>
-    </row>
-    <row r="63" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H62" s="29"/>
+      <c r="I62" s="30"/>
+    </row>
+    <row r="63" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A63" s="14"/>
       <c r="B63" s="14"/>
       <c r="C63" s="14"/>
@@ -1790,10 +1813,10 @@
       <c r="E63" s="14"/>
       <c r="F63" s="14"/>
       <c r="G63" s="16"/>
-      <c r="H63" s="32"/>
-      <c r="I63" s="33"/>
-    </row>
-    <row r="64" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H63" s="29"/>
+      <c r="I63" s="30"/>
+    </row>
+    <row r="64" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A64" s="14"/>
       <c r="B64" s="14"/>
       <c r="C64" s="14"/>
@@ -1801,10 +1824,10 @@
       <c r="E64" s="14"/>
       <c r="F64" s="14"/>
       <c r="G64" s="16"/>
-      <c r="H64" s="32"/>
-      <c r="I64" s="33"/>
-    </row>
-    <row r="65" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H64" s="29"/>
+      <c r="I64" s="30"/>
+    </row>
+    <row r="65" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A65" s="14"/>
       <c r="B65" s="14"/>
       <c r="C65" s="14"/>
@@ -1812,10 +1835,10 @@
       <c r="E65" s="14"/>
       <c r="F65" s="14"/>
       <c r="G65" s="16"/>
-      <c r="H65" s="32"/>
-      <c r="I65" s="33"/>
-    </row>
-    <row r="66" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H65" s="29"/>
+      <c r="I65" s="30"/>
+    </row>
+    <row r="66" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A66" s="14"/>
       <c r="B66" s="14"/>
       <c r="C66" s="14"/>
@@ -1823,10 +1846,10 @@
       <c r="E66" s="14"/>
       <c r="F66" s="14"/>
       <c r="G66" s="16"/>
-      <c r="H66" s="32"/>
-      <c r="I66" s="33"/>
-    </row>
-    <row r="67" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H66" s="29"/>
+      <c r="I66" s="30"/>
+    </row>
+    <row r="67" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A67" s="14"/>
       <c r="B67" s="14"/>
       <c r="C67" s="14"/>
@@ -1834,10 +1857,10 @@
       <c r="E67" s="14"/>
       <c r="F67" s="14"/>
       <c r="G67" s="16"/>
-      <c r="H67" s="32"/>
-      <c r="I67" s="33"/>
-    </row>
-    <row r="68" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H67" s="29"/>
+      <c r="I67" s="30"/>
+    </row>
+    <row r="68" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A68" s="14"/>
       <c r="B68" s="14"/>
       <c r="C68" s="14"/>
@@ -1845,10 +1868,10 @@
       <c r="E68" s="14"/>
       <c r="F68" s="14"/>
       <c r="G68" s="16"/>
-      <c r="H68" s="32"/>
-      <c r="I68" s="33"/>
-    </row>
-    <row r="69" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H68" s="29"/>
+      <c r="I68" s="30"/>
+    </row>
+    <row r="69" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A69" s="14"/>
       <c r="B69" s="14"/>
       <c r="C69" s="14"/>
@@ -1856,10 +1879,10 @@
       <c r="E69" s="14"/>
       <c r="F69" s="14"/>
       <c r="G69" s="16"/>
-      <c r="H69" s="32"/>
-      <c r="I69" s="33"/>
-    </row>
-    <row r="70" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H69" s="29"/>
+      <c r="I69" s="30"/>
+    </row>
+    <row r="70" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A70" s="14"/>
       <c r="B70" s="14"/>
       <c r="C70" s="14"/>
@@ -1867,10 +1890,10 @@
       <c r="E70" s="14"/>
       <c r="F70" s="14"/>
       <c r="G70" s="16"/>
-      <c r="H70" s="32"/>
-      <c r="I70" s="33"/>
-    </row>
-    <row r="71" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H70" s="29"/>
+      <c r="I70" s="30"/>
+    </row>
+    <row r="71" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A71" s="14"/>
       <c r="B71" s="14"/>
       <c r="C71" s="14"/>
@@ -1878,10 +1901,10 @@
       <c r="E71" s="14"/>
       <c r="F71" s="14"/>
       <c r="G71" s="16"/>
-      <c r="H71" s="32"/>
-      <c r="I71" s="33"/>
-    </row>
-    <row r="72" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H71" s="29"/>
+      <c r="I71" s="30"/>
+    </row>
+    <row r="72" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A72" s="14"/>
       <c r="B72" s="14"/>
       <c r="C72" s="14"/>
@@ -1889,10 +1912,10 @@
       <c r="E72" s="14"/>
       <c r="F72" s="14"/>
       <c r="G72" s="16"/>
-      <c r="H72" s="32"/>
-      <c r="I72" s="33"/>
-    </row>
-    <row r="73" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H72" s="29"/>
+      <c r="I72" s="30"/>
+    </row>
+    <row r="73" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A73" s="14"/>
       <c r="B73" s="14"/>
       <c r="C73" s="14"/>
@@ -1900,10 +1923,10 @@
       <c r="E73" s="14"/>
       <c r="F73" s="14"/>
       <c r="G73" s="16"/>
-      <c r="H73" s="32"/>
-      <c r="I73" s="33"/>
-    </row>
-    <row r="74" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H73" s="29"/>
+      <c r="I73" s="30"/>
+    </row>
+    <row r="74" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A74" s="14"/>
       <c r="B74" s="14"/>
       <c r="C74" s="14"/>
@@ -1911,10 +1934,10 @@
       <c r="E74" s="14"/>
       <c r="F74" s="14"/>
       <c r="G74" s="16"/>
-      <c r="H74" s="32"/>
-      <c r="I74" s="33"/>
-    </row>
-    <row r="75" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H74" s="29"/>
+      <c r="I74" s="30"/>
+    </row>
+    <row r="75" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A75" s="14"/>
       <c r="B75" s="14"/>
       <c r="C75" s="14"/>
@@ -1922,10 +1945,10 @@
       <c r="E75" s="14"/>
       <c r="F75" s="14"/>
       <c r="G75" s="16"/>
-      <c r="H75" s="32"/>
-      <c r="I75" s="33"/>
-    </row>
-    <row r="76" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H75" s="29"/>
+      <c r="I75" s="30"/>
+    </row>
+    <row r="76" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A76" s="14"/>
       <c r="B76" s="14"/>
       <c r="C76" s="14"/>
@@ -1933,10 +1956,10 @@
       <c r="E76" s="14"/>
       <c r="F76" s="14"/>
       <c r="G76" s="16"/>
-      <c r="H76" s="32"/>
-      <c r="I76" s="33"/>
-    </row>
-    <row r="77" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H76" s="29"/>
+      <c r="I76" s="30"/>
+    </row>
+    <row r="77" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A77" s="14"/>
       <c r="B77" s="14"/>
       <c r="C77" s="14"/>
@@ -1944,10 +1967,10 @@
       <c r="E77" s="14"/>
       <c r="F77" s="14"/>
       <c r="G77" s="16"/>
-      <c r="H77" s="32"/>
-      <c r="I77" s="33"/>
-    </row>
-    <row r="78" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H77" s="29"/>
+      <c r="I77" s="30"/>
+    </row>
+    <row r="78" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A78" s="14"/>
       <c r="B78" s="14"/>
       <c r="C78" s="14"/>
@@ -1955,10 +1978,10 @@
       <c r="E78" s="14"/>
       <c r="F78" s="14"/>
       <c r="G78" s="16"/>
-      <c r="H78" s="32"/>
-      <c r="I78" s="33"/>
-    </row>
-    <row r="79" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H78" s="29"/>
+      <c r="I78" s="30"/>
+    </row>
+    <row r="79" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A79" s="14"/>
       <c r="B79" s="14"/>
       <c r="C79" s="14"/>
@@ -1966,10 +1989,10 @@
       <c r="E79" s="14"/>
       <c r="F79" s="14"/>
       <c r="G79" s="16"/>
-      <c r="H79" s="32"/>
-      <c r="I79" s="33"/>
-    </row>
-    <row r="80" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H79" s="29"/>
+      <c r="I79" s="30"/>
+    </row>
+    <row r="80" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A80" s="14"/>
       <c r="B80" s="14"/>
       <c r="C80" s="14"/>
@@ -1977,10 +2000,10 @@
       <c r="E80" s="14"/>
       <c r="F80" s="14"/>
       <c r="G80" s="16"/>
-      <c r="H80" s="32"/>
-      <c r="I80" s="33"/>
-    </row>
-    <row r="81" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H80" s="29"/>
+      <c r="I80" s="30"/>
+    </row>
+    <row r="81" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A81" s="14"/>
       <c r="B81" s="14"/>
       <c r="C81" s="14"/>
@@ -1988,10 +2011,10 @@
       <c r="E81" s="14"/>
       <c r="F81" s="14"/>
       <c r="G81" s="16"/>
-      <c r="H81" s="32"/>
-      <c r="I81" s="33"/>
-    </row>
-    <row r="82" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H81" s="29"/>
+      <c r="I81" s="30"/>
+    </row>
+    <row r="82" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A82" s="14"/>
       <c r="B82" s="14"/>
       <c r="C82" s="14"/>
@@ -1999,10 +2022,10 @@
       <c r="E82" s="14"/>
       <c r="F82" s="14"/>
       <c r="G82" s="16"/>
-      <c r="H82" s="32"/>
-      <c r="I82" s="33"/>
-    </row>
-    <row r="83" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H82" s="29"/>
+      <c r="I82" s="30"/>
+    </row>
+    <row r="83" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A83" s="14"/>
       <c r="B83" s="14"/>
       <c r="C83" s="14"/>
@@ -2010,10 +2033,10 @@
       <c r="E83" s="14"/>
       <c r="F83" s="14"/>
       <c r="G83" s="16"/>
-      <c r="H83" s="32"/>
-      <c r="I83" s="33"/>
-    </row>
-    <row r="84" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H83" s="29"/>
+      <c r="I83" s="30"/>
+    </row>
+    <row r="84" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A84" s="14"/>
       <c r="B84" s="14"/>
       <c r="C84" s="14"/>
@@ -2021,10 +2044,10 @@
       <c r="E84" s="14"/>
       <c r="F84" s="14"/>
       <c r="G84" s="16"/>
-      <c r="H84" s="32"/>
-      <c r="I84" s="33"/>
-    </row>
-    <row r="85" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H84" s="29"/>
+      <c r="I84" s="30"/>
+    </row>
+    <row r="85" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A85" s="14"/>
       <c r="B85" s="14"/>
       <c r="C85" s="14"/>
@@ -2032,10 +2055,10 @@
       <c r="E85" s="14"/>
       <c r="F85" s="14"/>
       <c r="G85" s="16"/>
-      <c r="H85" s="32"/>
-      <c r="I85" s="33"/>
-    </row>
-    <row r="86" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H85" s="29"/>
+      <c r="I85" s="30"/>
+    </row>
+    <row r="86" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A86" s="14"/>
       <c r="B86" s="14"/>
       <c r="C86" s="14"/>
@@ -2043,10 +2066,10 @@
       <c r="E86" s="14"/>
       <c r="F86" s="14"/>
       <c r="G86" s="16"/>
-      <c r="H86" s="32"/>
-      <c r="I86" s="33"/>
-    </row>
-    <row r="87" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H86" s="29"/>
+      <c r="I86" s="30"/>
+    </row>
+    <row r="87" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A87" s="14"/>
       <c r="B87" s="14"/>
       <c r="C87" s="14"/>
@@ -2054,10 +2077,10 @@
       <c r="E87" s="14"/>
       <c r="F87" s="14"/>
       <c r="G87" s="16"/>
-      <c r="H87" s="32"/>
-      <c r="I87" s="33"/>
-    </row>
-    <row r="88" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H87" s="29"/>
+      <c r="I87" s="30"/>
+    </row>
+    <row r="88" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A88" s="14"/>
       <c r="B88" s="14"/>
       <c r="C88" s="14"/>
@@ -2065,10 +2088,10 @@
       <c r="E88" s="14"/>
       <c r="F88" s="14"/>
       <c r="G88" s="16"/>
-      <c r="H88" s="32"/>
-      <c r="I88" s="33"/>
-    </row>
-    <row r="89" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H88" s="29"/>
+      <c r="I88" s="30"/>
+    </row>
+    <row r="89" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A89" s="14"/>
       <c r="B89" s="14"/>
       <c r="C89" s="14"/>
@@ -2076,10 +2099,10 @@
       <c r="E89" s="14"/>
       <c r="F89" s="14"/>
       <c r="G89" s="16"/>
-      <c r="H89" s="32"/>
-      <c r="I89" s="33"/>
-    </row>
-    <row r="90" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H89" s="29"/>
+      <c r="I89" s="30"/>
+    </row>
+    <row r="90" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A90" s="14"/>
       <c r="B90" s="14"/>
       <c r="C90" s="14"/>
@@ -2087,10 +2110,10 @@
       <c r="E90" s="14"/>
       <c r="F90" s="14"/>
       <c r="G90" s="16"/>
-      <c r="H90" s="32"/>
-      <c r="I90" s="33"/>
-    </row>
-    <row r="91" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H90" s="29"/>
+      <c r="I90" s="30"/>
+    </row>
+    <row r="91" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A91" s="14"/>
       <c r="B91" s="14"/>
       <c r="C91" s="14"/>
@@ -2098,10 +2121,10 @@
       <c r="E91" s="14"/>
       <c r="F91" s="14"/>
       <c r="G91" s="16"/>
-      <c r="H91" s="32"/>
-      <c r="I91" s="33"/>
-    </row>
-    <row r="92" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H91" s="29"/>
+      <c r="I91" s="30"/>
+    </row>
+    <row r="92" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A92" s="14"/>
       <c r="B92" s="14"/>
       <c r="C92" s="14"/>
@@ -2109,10 +2132,10 @@
       <c r="E92" s="14"/>
       <c r="F92" s="14"/>
       <c r="G92" s="16"/>
-      <c r="H92" s="32"/>
-      <c r="I92" s="33"/>
-    </row>
-    <row r="93" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H92" s="29"/>
+      <c r="I92" s="30"/>
+    </row>
+    <row r="93" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A93" s="14"/>
       <c r="B93" s="14"/>
       <c r="C93" s="14"/>
@@ -2120,10 +2143,10 @@
       <c r="E93" s="14"/>
       <c r="F93" s="14"/>
       <c r="G93" s="16"/>
-      <c r="H93" s="32"/>
-      <c r="I93" s="33"/>
-    </row>
-    <row r="94" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H93" s="29"/>
+      <c r="I93" s="30"/>
+    </row>
+    <row r="94" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A94" s="14"/>
       <c r="B94" s="14"/>
       <c r="C94" s="14"/>
@@ -2131,10 +2154,10 @@
       <c r="E94" s="14"/>
       <c r="F94" s="14"/>
       <c r="G94" s="16"/>
-      <c r="H94" s="32"/>
-      <c r="I94" s="33"/>
-    </row>
-    <row r="95" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H94" s="29"/>
+      <c r="I94" s="30"/>
+    </row>
+    <row r="95" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A95" s="14"/>
       <c r="B95" s="14"/>
       <c r="C95" s="14"/>
@@ -2142,10 +2165,10 @@
       <c r="E95" s="14"/>
       <c r="F95" s="14"/>
       <c r="G95" s="16"/>
-      <c r="H95" s="32"/>
-      <c r="I95" s="33"/>
-    </row>
-    <row r="96" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H95" s="29"/>
+      <c r="I95" s="30"/>
+    </row>
+    <row r="96" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A96" s="14"/>
       <c r="B96" s="14"/>
       <c r="C96" s="14"/>
@@ -2153,10 +2176,10 @@
       <c r="E96" s="14"/>
       <c r="F96" s="14"/>
       <c r="G96" s="16"/>
-      <c r="H96" s="32"/>
-      <c r="I96" s="33"/>
-    </row>
-    <row r="97" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H96" s="29"/>
+      <c r="I96" s="30"/>
+    </row>
+    <row r="97" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A97" s="14"/>
       <c r="B97" s="14"/>
       <c r="C97" s="14"/>
@@ -2164,10 +2187,10 @@
       <c r="E97" s="14"/>
       <c r="F97" s="14"/>
       <c r="G97" s="16"/>
-      <c r="H97" s="32"/>
-      <c r="I97" s="33"/>
-    </row>
-    <row r="98" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H97" s="29"/>
+      <c r="I97" s="30"/>
+    </row>
+    <row r="98" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A98" s="14"/>
       <c r="B98" s="14"/>
       <c r="C98" s="14"/>
@@ -2175,10 +2198,10 @@
       <c r="E98" s="14"/>
       <c r="F98" s="14"/>
       <c r="G98" s="16"/>
-      <c r="H98" s="32"/>
-      <c r="I98" s="33"/>
-    </row>
-    <row r="99" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H98" s="29"/>
+      <c r="I98" s="30"/>
+    </row>
+    <row r="99" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A99" s="14"/>
       <c r="B99" s="14"/>
       <c r="C99" s="14"/>
@@ -2186,10 +2209,10 @@
       <c r="E99" s="14"/>
       <c r="F99" s="14"/>
       <c r="G99" s="16"/>
-      <c r="H99" s="32"/>
-      <c r="I99" s="33"/>
-    </row>
-    <row r="100" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H99" s="29"/>
+      <c r="I99" s="30"/>
+    </row>
+    <row r="100" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A100" s="14"/>
       <c r="B100" s="14"/>
       <c r="C100" s="14"/>
@@ -2197,10 +2220,10 @@
       <c r="E100" s="14"/>
       <c r="F100" s="14"/>
       <c r="G100" s="16"/>
-      <c r="H100" s="32"/>
-      <c r="I100" s="33"/>
-    </row>
-    <row r="101" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H100" s="29"/>
+      <c r="I100" s="30"/>
+    </row>
+    <row r="101" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A101" s="14"/>
       <c r="B101" s="14"/>
       <c r="C101" s="14"/>
@@ -2208,10 +2231,10 @@
       <c r="E101" s="14"/>
       <c r="F101" s="14"/>
       <c r="G101" s="16"/>
-      <c r="H101" s="32"/>
-      <c r="I101" s="33"/>
-    </row>
-    <row r="102" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H101" s="29"/>
+      <c r="I101" s="30"/>
+    </row>
+    <row r="102" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A102" s="14"/>
       <c r="B102" s="14"/>
       <c r="C102" s="14"/>
@@ -2219,10 +2242,10 @@
       <c r="E102" s="14"/>
       <c r="F102" s="14"/>
       <c r="G102" s="16"/>
-      <c r="H102" s="32"/>
-      <c r="I102" s="33"/>
-    </row>
-    <row r="103" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H102" s="29"/>
+      <c r="I102" s="30"/>
+    </row>
+    <row r="103" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A103" s="14"/>
       <c r="B103" s="14"/>
       <c r="C103" s="14"/>
@@ -2230,10 +2253,10 @@
       <c r="E103" s="14"/>
       <c r="F103" s="14"/>
       <c r="G103" s="16"/>
-      <c r="H103" s="32"/>
-      <c r="I103" s="33"/>
-    </row>
-    <row r="104" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H103" s="29"/>
+      <c r="I103" s="30"/>
+    </row>
+    <row r="104" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A104" s="14"/>
       <c r="B104" s="14"/>
       <c r="C104" s="14"/>
@@ -2241,10 +2264,10 @@
       <c r="E104" s="14"/>
       <c r="F104" s="14"/>
       <c r="G104" s="16"/>
-      <c r="H104" s="32"/>
-      <c r="I104" s="33"/>
-    </row>
-    <row r="105" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H104" s="29"/>
+      <c r="I104" s="30"/>
+    </row>
+    <row r="105" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A105" s="14"/>
       <c r="B105" s="14"/>
       <c r="C105" s="14"/>
@@ -2252,10 +2275,10 @@
       <c r="E105" s="14"/>
       <c r="F105" s="14"/>
       <c r="G105" s="16"/>
-      <c r="H105" s="32"/>
-      <c r="I105" s="33"/>
-    </row>
-    <row r="106" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H105" s="29"/>
+      <c r="I105" s="30"/>
+    </row>
+    <row r="106" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A106" s="14"/>
       <c r="B106" s="14"/>
       <c r="C106" s="14"/>
@@ -2263,10 +2286,10 @@
       <c r="E106" s="14"/>
       <c r="F106" s="14"/>
       <c r="G106" s="16"/>
-      <c r="H106" s="32"/>
-      <c r="I106" s="33"/>
-    </row>
-    <row r="107" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H106" s="29"/>
+      <c r="I106" s="30"/>
+    </row>
+    <row r="107" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A107" s="14"/>
       <c r="B107" s="14"/>
       <c r="C107" s="14"/>
@@ -2274,10 +2297,10 @@
       <c r="E107" s="14"/>
       <c r="F107" s="14"/>
       <c r="G107" s="16"/>
-      <c r="H107" s="32"/>
-      <c r="I107" s="33"/>
-    </row>
-    <row r="108" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H107" s="29"/>
+      <c r="I107" s="30"/>
+    </row>
+    <row r="108" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A108" s="14"/>
       <c r="B108" s="14"/>
       <c r="C108" s="14"/>
@@ -2285,10 +2308,10 @@
       <c r="E108" s="14"/>
       <c r="F108" s="14"/>
       <c r="G108" s="16"/>
-      <c r="H108" s="32"/>
-      <c r="I108" s="33"/>
-    </row>
-    <row r="109" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H108" s="29"/>
+      <c r="I108" s="30"/>
+    </row>
+    <row r="109" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A109" s="14"/>
       <c r="B109" s="14"/>
       <c r="C109" s="14"/>
@@ -2296,10 +2319,10 @@
       <c r="E109" s="14"/>
       <c r="F109" s="14"/>
       <c r="G109" s="16"/>
-      <c r="H109" s="32"/>
-      <c r="I109" s="33"/>
-    </row>
-    <row r="110" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H109" s="29"/>
+      <c r="I109" s="30"/>
+    </row>
+    <row r="110" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A110" s="14"/>
       <c r="B110" s="14"/>
       <c r="C110" s="14"/>
@@ -2307,10 +2330,10 @@
       <c r="E110" s="14"/>
       <c r="F110" s="14"/>
       <c r="G110" s="16"/>
-      <c r="H110" s="32"/>
-      <c r="I110" s="33"/>
-    </row>
-    <row r="111" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H110" s="29"/>
+      <c r="I110" s="30"/>
+    </row>
+    <row r="111" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A111" s="14"/>
       <c r="B111" s="14"/>
       <c r="C111" s="14"/>
@@ -2318,10 +2341,10 @@
       <c r="E111" s="14"/>
       <c r="F111" s="14"/>
       <c r="G111" s="16"/>
-      <c r="H111" s="32"/>
-      <c r="I111" s="33"/>
-    </row>
-    <row r="112" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H111" s="29"/>
+      <c r="I111" s="30"/>
+    </row>
+    <row r="112" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A112" s="14"/>
       <c r="B112" s="14"/>
       <c r="C112" s="14"/>
@@ -2329,10 +2352,10 @@
       <c r="E112" s="14"/>
       <c r="F112" s="14"/>
       <c r="G112" s="16"/>
-      <c r="H112" s="32"/>
-      <c r="I112" s="33"/>
-    </row>
-    <row r="113" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H112" s="29"/>
+      <c r="I112" s="30"/>
+    </row>
+    <row r="113" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A113" s="14"/>
       <c r="B113" s="14"/>
       <c r="C113" s="14"/>
@@ -2340,10 +2363,10 @@
       <c r="E113" s="14"/>
       <c r="F113" s="14"/>
       <c r="G113" s="16"/>
-      <c r="H113" s="32"/>
-      <c r="I113" s="33"/>
-    </row>
-    <row r="114" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H113" s="29"/>
+      <c r="I113" s="30"/>
+    </row>
+    <row r="114" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A114" s="14"/>
       <c r="B114" s="14"/>
       <c r="C114" s="14"/>
@@ -2351,10 +2374,10 @@
       <c r="E114" s="14"/>
       <c r="F114" s="14"/>
       <c r="G114" s="16"/>
-      <c r="H114" s="32"/>
-      <c r="I114" s="33"/>
-    </row>
-    <row r="115" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H114" s="29"/>
+      <c r="I114" s="30"/>
+    </row>
+    <row r="115" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A115" s="14"/>
       <c r="B115" s="14"/>
       <c r="C115" s="14"/>
@@ -2362,10 +2385,10 @@
       <c r="E115" s="14"/>
       <c r="F115" s="14"/>
       <c r="G115" s="16"/>
-      <c r="H115" s="32"/>
-      <c r="I115" s="33"/>
-    </row>
-    <row r="116" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H115" s="29"/>
+      <c r="I115" s="30"/>
+    </row>
+    <row r="116" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A116" s="14"/>
       <c r="B116" s="14"/>
       <c r="C116" s="14"/>
@@ -2373,10 +2396,10 @@
       <c r="E116" s="14"/>
       <c r="F116" s="14"/>
       <c r="G116" s="16"/>
-      <c r="H116" s="32"/>
-      <c r="I116" s="33"/>
-    </row>
-    <row r="117" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H116" s="29"/>
+      <c r="I116" s="30"/>
+    </row>
+    <row r="117" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A117" s="14"/>
       <c r="B117" s="14"/>
       <c r="C117" s="14"/>
@@ -2384,10 +2407,10 @@
       <c r="E117" s="14"/>
       <c r="F117" s="14"/>
       <c r="G117" s="16"/>
-      <c r="H117" s="32"/>
-      <c r="I117" s="33"/>
-    </row>
-    <row r="118" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H117" s="29"/>
+      <c r="I117" s="30"/>
+    </row>
+    <row r="118" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A118" s="14"/>
       <c r="B118" s="14"/>
       <c r="C118" s="14"/>
@@ -2395,10 +2418,10 @@
       <c r="E118" s="14"/>
       <c r="F118" s="14"/>
       <c r="G118" s="16"/>
-      <c r="H118" s="32"/>
-      <c r="I118" s="33"/>
-    </row>
-    <row r="119" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H118" s="29"/>
+      <c r="I118" s="30"/>
+    </row>
+    <row r="119" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A119" s="14"/>
       <c r="B119" s="14"/>
       <c r="C119" s="14"/>
@@ -2406,10 +2429,10 @@
       <c r="E119" s="14"/>
       <c r="F119" s="14"/>
       <c r="G119" s="16"/>
-      <c r="H119" s="32"/>
-      <c r="I119" s="33"/>
-    </row>
-    <row r="120" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H119" s="29"/>
+      <c r="I119" s="30"/>
+    </row>
+    <row r="120" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A120" s="14"/>
       <c r="B120" s="14"/>
       <c r="C120" s="14"/>
@@ -2417,10 +2440,10 @@
       <c r="E120" s="14"/>
       <c r="F120" s="14"/>
       <c r="G120" s="16"/>
-      <c r="H120" s="32"/>
-      <c r="I120" s="33"/>
-    </row>
-    <row r="121" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H120" s="29"/>
+      <c r="I120" s="30"/>
+    </row>
+    <row r="121" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A121" s="14"/>
       <c r="B121" s="14"/>
       <c r="C121" s="14"/>
@@ -2428,10 +2451,10 @@
       <c r="E121" s="14"/>
       <c r="F121" s="14"/>
       <c r="G121" s="16"/>
-      <c r="H121" s="32"/>
-      <c r="I121" s="33"/>
-    </row>
-    <row r="122" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H121" s="29"/>
+      <c r="I121" s="30"/>
+    </row>
+    <row r="122" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A122" s="14"/>
       <c r="B122" s="14"/>
       <c r="C122" s="14"/>
@@ -2439,10 +2462,10 @@
       <c r="E122" s="14"/>
       <c r="F122" s="14"/>
       <c r="G122" s="16"/>
-      <c r="H122" s="32"/>
-      <c r="I122" s="33"/>
-    </row>
-    <row r="123" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H122" s="29"/>
+      <c r="I122" s="30"/>
+    </row>
+    <row r="123" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A123" s="14"/>
       <c r="B123" s="14"/>
       <c r="C123" s="14"/>
@@ -2450,10 +2473,10 @@
       <c r="E123" s="14"/>
       <c r="F123" s="14"/>
       <c r="G123" s="16"/>
-      <c r="H123" s="32"/>
-      <c r="I123" s="33"/>
-    </row>
-    <row r="124" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H123" s="29"/>
+      <c r="I123" s="30"/>
+    </row>
+    <row r="124" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A124" s="14"/>
       <c r="B124" s="14"/>
       <c r="C124" s="14"/>
@@ -2461,10 +2484,10 @@
       <c r="E124" s="14"/>
       <c r="F124" s="14"/>
       <c r="G124" s="16"/>
-      <c r="H124" s="32"/>
-      <c r="I124" s="33"/>
-    </row>
-    <row r="125" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H124" s="29"/>
+      <c r="I124" s="30"/>
+    </row>
+    <row r="125" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A125" s="14"/>
       <c r="B125" s="14"/>
       <c r="C125" s="14"/>
@@ -2472,10 +2495,10 @@
       <c r="E125" s="14"/>
       <c r="F125" s="14"/>
       <c r="G125" s="16"/>
-      <c r="H125" s="32"/>
-      <c r="I125" s="33"/>
-    </row>
-    <row r="126" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H125" s="29"/>
+      <c r="I125" s="30"/>
+    </row>
+    <row r="126" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A126" s="14"/>
       <c r="B126" s="14"/>
       <c r="C126" s="14"/>
@@ -2483,10 +2506,10 @@
       <c r="E126" s="14"/>
       <c r="F126" s="14"/>
       <c r="G126" s="16"/>
-      <c r="H126" s="32"/>
-      <c r="I126" s="33"/>
-    </row>
-    <row r="127" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H126" s="29"/>
+      <c r="I126" s="30"/>
+    </row>
+    <row r="127" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A127" s="14"/>
       <c r="B127" s="14"/>
       <c r="C127" s="14"/>
@@ -2494,10 +2517,10 @@
       <c r="E127" s="14"/>
       <c r="F127" s="14"/>
       <c r="G127" s="16"/>
-      <c r="H127" s="32"/>
-      <c r="I127" s="33"/>
-    </row>
-    <row r="128" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H127" s="29"/>
+      <c r="I127" s="30"/>
+    </row>
+    <row r="128" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A128" s="14"/>
       <c r="B128" s="14"/>
       <c r="C128" s="14"/>
@@ -2505,10 +2528,10 @@
       <c r="E128" s="14"/>
       <c r="F128" s="14"/>
       <c r="G128" s="16"/>
-      <c r="H128" s="32"/>
-      <c r="I128" s="33"/>
-    </row>
-    <row r="129" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H128" s="29"/>
+      <c r="I128" s="30"/>
+    </row>
+    <row r="129" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A129" s="14"/>
       <c r="B129" s="14"/>
       <c r="C129" s="14"/>
@@ -2516,10 +2539,10 @@
       <c r="E129" s="14"/>
       <c r="F129" s="14"/>
       <c r="G129" s="16"/>
-      <c r="H129" s="32"/>
-      <c r="I129" s="33"/>
-    </row>
-    <row r="130" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H129" s="29"/>
+      <c r="I129" s="30"/>
+    </row>
+    <row r="130" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A130" s="14"/>
       <c r="B130" s="14"/>
       <c r="C130" s="14"/>
@@ -2527,10 +2550,10 @@
       <c r="E130" s="14"/>
       <c r="F130" s="14"/>
       <c r="G130" s="16"/>
-      <c r="H130" s="32"/>
-      <c r="I130" s="33"/>
-    </row>
-    <row r="131" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H130" s="29"/>
+      <c r="I130" s="30"/>
+    </row>
+    <row r="131" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A131" s="14"/>
       <c r="B131" s="14"/>
       <c r="C131" s="14"/>
@@ -2538,10 +2561,10 @@
       <c r="E131" s="14"/>
       <c r="F131" s="14"/>
       <c r="G131" s="16"/>
-      <c r="H131" s="32"/>
-      <c r="I131" s="33"/>
-    </row>
-    <row r="132" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H131" s="29"/>
+      <c r="I131" s="30"/>
+    </row>
+    <row r="132" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A132" s="14"/>
       <c r="B132" s="14"/>
       <c r="C132" s="14"/>
@@ -2549,10 +2572,10 @@
       <c r="E132" s="14"/>
       <c r="F132" s="14"/>
       <c r="G132" s="16"/>
-      <c r="H132" s="32"/>
-      <c r="I132" s="33"/>
-    </row>
-    <row r="133" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H132" s="29"/>
+      <c r="I132" s="30"/>
+    </row>
+    <row r="133" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A133" s="14"/>
       <c r="B133" s="14"/>
       <c r="C133" s="14"/>
@@ -2560,10 +2583,10 @@
       <c r="E133" s="14"/>
       <c r="F133" s="14"/>
       <c r="G133" s="16"/>
-      <c r="H133" s="32"/>
-      <c r="I133" s="33"/>
-    </row>
-    <row r="134" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H133" s="29"/>
+      <c r="I133" s="30"/>
+    </row>
+    <row r="134" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A134" s="14"/>
       <c r="B134" s="14"/>
       <c r="C134" s="14"/>
@@ -2571,10 +2594,10 @@
       <c r="E134" s="14"/>
       <c r="F134" s="14"/>
       <c r="G134" s="16"/>
-      <c r="H134" s="32"/>
-      <c r="I134" s="33"/>
-    </row>
-    <row r="135" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H134" s="29"/>
+      <c r="I134" s="30"/>
+    </row>
+    <row r="135" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A135" s="14"/>
       <c r="B135" s="14"/>
       <c r="C135" s="14"/>
@@ -2582,10 +2605,10 @@
       <c r="E135" s="14"/>
       <c r="F135" s="14"/>
       <c r="G135" s="16"/>
-      <c r="H135" s="32"/>
-      <c r="I135" s="33"/>
-    </row>
-    <row r="136" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H135" s="29"/>
+      <c r="I135" s="30"/>
+    </row>
+    <row r="136" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A136" s="14"/>
       <c r="B136" s="14"/>
       <c r="C136" s="14"/>
@@ -2593,10 +2616,10 @@
       <c r="E136" s="14"/>
       <c r="F136" s="14"/>
       <c r="G136" s="16"/>
-      <c r="H136" s="32"/>
-      <c r="I136" s="33"/>
-    </row>
-    <row r="137" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H136" s="29"/>
+      <c r="I136" s="30"/>
+    </row>
+    <row r="137" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A137" s="14"/>
       <c r="B137" s="14"/>
       <c r="C137" s="14"/>
@@ -2604,10 +2627,10 @@
       <c r="E137" s="14"/>
       <c r="F137" s="14"/>
       <c r="G137" s="16"/>
-      <c r="H137" s="32"/>
-      <c r="I137" s="33"/>
-    </row>
-    <row r="138" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H137" s="29"/>
+      <c r="I137" s="30"/>
+    </row>
+    <row r="138" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A138" s="14"/>
       <c r="B138" s="14"/>
       <c r="C138" s="14"/>
@@ -2615,10 +2638,10 @@
       <c r="E138" s="14"/>
       <c r="F138" s="14"/>
       <c r="G138" s="16"/>
-      <c r="H138" s="32"/>
-      <c r="I138" s="33"/>
-    </row>
-    <row r="139" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H138" s="29"/>
+      <c r="I138" s="30"/>
+    </row>
+    <row r="139" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A139" s="14"/>
       <c r="B139" s="14"/>
       <c r="C139" s="14"/>
@@ -2626,10 +2649,10 @@
       <c r="E139" s="14"/>
       <c r="F139" s="14"/>
       <c r="G139" s="16"/>
-      <c r="H139" s="32"/>
-      <c r="I139" s="33"/>
-    </row>
-    <row r="140" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H139" s="29"/>
+      <c r="I139" s="30"/>
+    </row>
+    <row r="140" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A140" s="14"/>
       <c r="B140" s="14"/>
       <c r="C140" s="14"/>
@@ -2637,10 +2660,10 @@
       <c r="E140" s="14"/>
       <c r="F140" s="14"/>
       <c r="G140" s="16"/>
-      <c r="H140" s="32"/>
-      <c r="I140" s="33"/>
-    </row>
-    <row r="141" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H140" s="29"/>
+      <c r="I140" s="30"/>
+    </row>
+    <row r="141" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A141" s="14"/>
       <c r="B141" s="14"/>
       <c r="C141" s="14"/>
@@ -2648,10 +2671,10 @@
       <c r="E141" s="14"/>
       <c r="F141" s="14"/>
       <c r="G141" s="16"/>
-      <c r="H141" s="32"/>
-      <c r="I141" s="33"/>
-    </row>
-    <row r="142" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H141" s="29"/>
+      <c r="I141" s="30"/>
+    </row>
+    <row r="142" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A142" s="14"/>
       <c r="B142" s="14"/>
       <c r="C142" s="14"/>
@@ -2659,10 +2682,10 @@
       <c r="E142" s="14"/>
       <c r="F142" s="14"/>
       <c r="G142" s="16"/>
-      <c r="H142" s="32"/>
-      <c r="I142" s="33"/>
-    </row>
-    <row r="143" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H142" s="29"/>
+      <c r="I142" s="30"/>
+    </row>
+    <row r="143" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A143" s="14"/>
       <c r="B143" s="14"/>
       <c r="C143" s="14"/>
@@ -2670,10 +2693,10 @@
       <c r="E143" s="14"/>
       <c r="F143" s="14"/>
       <c r="G143" s="16"/>
-      <c r="H143" s="32"/>
-      <c r="I143" s="33"/>
-    </row>
-    <row r="144" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H143" s="29"/>
+      <c r="I143" s="30"/>
+    </row>
+    <row r="144" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A144" s="14"/>
       <c r="B144" s="14"/>
       <c r="C144" s="14"/>
@@ -2681,10 +2704,10 @@
       <c r="E144" s="14"/>
       <c r="F144" s="14"/>
       <c r="G144" s="16"/>
-      <c r="H144" s="32"/>
-      <c r="I144" s="33"/>
-    </row>
-    <row r="145" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H144" s="29"/>
+      <c r="I144" s="30"/>
+    </row>
+    <row r="145" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A145" s="14"/>
       <c r="B145" s="14"/>
       <c r="C145" s="14"/>
@@ -2692,10 +2715,10 @@
       <c r="E145" s="14"/>
       <c r="F145" s="14"/>
       <c r="G145" s="16"/>
-      <c r="H145" s="32"/>
-      <c r="I145" s="33"/>
-    </row>
-    <row r="146" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H145" s="29"/>
+      <c r="I145" s="30"/>
+    </row>
+    <row r="146" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A146" s="14"/>
       <c r="B146" s="14"/>
       <c r="C146" s="14"/>
@@ -2703,10 +2726,10 @@
       <c r="E146" s="14"/>
       <c r="F146" s="14"/>
       <c r="G146" s="16"/>
-      <c r="H146" s="32"/>
-      <c r="I146" s="33"/>
-    </row>
-    <row r="147" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H146" s="29"/>
+      <c r="I146" s="30"/>
+    </row>
+    <row r="147" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A147" s="14"/>
       <c r="B147" s="14"/>
       <c r="C147" s="14"/>
@@ -2714,10 +2737,10 @@
       <c r="E147" s="14"/>
       <c r="F147" s="14"/>
       <c r="G147" s="16"/>
-      <c r="H147" s="32"/>
-      <c r="I147" s="33"/>
-    </row>
-    <row r="148" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H147" s="29"/>
+      <c r="I147" s="30"/>
+    </row>
+    <row r="148" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A148" s="14"/>
       <c r="B148" s="14"/>
       <c r="C148" s="14"/>
@@ -2725,10 +2748,10 @@
       <c r="E148" s="14"/>
       <c r="F148" s="14"/>
       <c r="G148" s="16"/>
-      <c r="H148" s="32"/>
-      <c r="I148" s="33"/>
-    </row>
-    <row r="149" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H148" s="29"/>
+      <c r="I148" s="30"/>
+    </row>
+    <row r="149" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A149" s="14"/>
       <c r="B149" s="14"/>
       <c r="C149" s="14"/>
@@ -2736,10 +2759,10 @@
       <c r="E149" s="14"/>
       <c r="F149" s="14"/>
       <c r="G149" s="16"/>
-      <c r="H149" s="32"/>
-      <c r="I149" s="33"/>
-    </row>
-    <row r="150" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H149" s="29"/>
+      <c r="I149" s="30"/>
+    </row>
+    <row r="150" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A150" s="14"/>
       <c r="B150" s="14"/>
       <c r="C150" s="14"/>
@@ -2747,10 +2770,10 @@
       <c r="E150" s="14"/>
       <c r="F150" s="14"/>
       <c r="G150" s="16"/>
-      <c r="H150" s="32"/>
-      <c r="I150" s="33"/>
-    </row>
-    <row r="151" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H150" s="29"/>
+      <c r="I150" s="30"/>
+    </row>
+    <row r="151" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A151" s="14"/>
       <c r="B151" s="14"/>
       <c r="C151" s="14"/>
@@ -2761,7 +2784,7 @@
       <c r="H151" s="14"/>
       <c r="I151" s="14"/>
     </row>
-    <row r="152" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A152" s="14"/>
       <c r="B152" s="14"/>
       <c r="C152" s="14"/>
@@ -2772,7 +2795,7 @@
       <c r="H152" s="14"/>
       <c r="I152" s="14"/>
     </row>
-    <row r="153" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A153" s="14"/>
       <c r="B153" s="14"/>
       <c r="C153" s="14"/>
@@ -2783,7 +2806,7 @@
       <c r="H153" s="14"/>
       <c r="I153" s="14"/>
     </row>
-    <row r="154" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A154" s="14"/>
       <c r="B154" s="14"/>
       <c r="C154" s="14"/>
@@ -2794,7 +2817,7 @@
       <c r="H154" s="14"/>
       <c r="I154" s="14"/>
     </row>
-    <row r="155" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A155" s="14"/>
       <c r="B155" s="14"/>
       <c r="C155" s="14"/>
@@ -2805,7 +2828,7 @@
       <c r="H155" s="14"/>
       <c r="I155" s="14"/>
     </row>
-    <row r="156" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A156" s="14"/>
       <c r="B156" s="14"/>
       <c r="C156" s="14"/>
@@ -2816,7 +2839,7 @@
       <c r="H156" s="14"/>
       <c r="I156" s="14"/>
     </row>
-    <row r="157" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A157" s="14"/>
       <c r="B157" s="14"/>
       <c r="C157" s="14"/>
@@ -2827,7 +2850,7 @@
       <c r="H157" s="14"/>
       <c r="I157" s="14"/>
     </row>
-    <row r="158" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A158" s="14"/>
       <c r="B158" s="14"/>
       <c r="C158" s="14"/>
@@ -2838,7 +2861,7 @@
       <c r="H158" s="14"/>
       <c r="I158" s="14"/>
     </row>
-    <row r="159" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A159" s="14"/>
       <c r="B159" s="14"/>
       <c r="C159" s="14"/>
@@ -2849,7 +2872,7 @@
       <c r="H159" s="14"/>
       <c r="I159" s="14"/>
     </row>
-    <row r="160" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A160" s="14"/>
       <c r="B160" s="14"/>
       <c r="C160" s="14"/>
@@ -2860,7 +2883,7 @@
       <c r="H160" s="14"/>
       <c r="I160" s="14"/>
     </row>
-    <row r="161" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A161" s="14"/>
       <c r="B161" s="14"/>
       <c r="C161" s="14"/>
@@ -2871,7 +2894,7 @@
       <c r="H161" s="14"/>
       <c r="I161" s="14"/>
     </row>
-    <row r="162" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A162" s="14"/>
       <c r="B162" s="14"/>
       <c r="C162" s="14"/>
@@ -2882,7 +2905,7 @@
       <c r="H162" s="14"/>
       <c r="I162" s="14"/>
     </row>
-    <row r="163" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A163" s="14"/>
       <c r="B163" s="14"/>
       <c r="C163" s="14"/>
@@ -2893,7 +2916,7 @@
       <c r="H163" s="14"/>
       <c r="I163" s="14"/>
     </row>
-    <row r="164" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A164" s="14"/>
       <c r="B164" s="14"/>
       <c r="C164" s="14"/>
@@ -2904,7 +2927,7 @@
       <c r="H164" s="14"/>
       <c r="I164" s="14"/>
     </row>
-    <row r="165" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A165" s="14"/>
       <c r="B165" s="14"/>
       <c r="C165" s="14"/>
@@ -2915,7 +2938,7 @@
       <c r="H165" s="14"/>
       <c r="I165" s="14"/>
     </row>
-    <row r="166" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A166" s="14"/>
       <c r="B166" s="14"/>
       <c r="C166" s="14"/>
@@ -2926,7 +2949,7 @@
       <c r="H166" s="14"/>
       <c r="I166" s="14"/>
     </row>
-    <row r="167" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A167" s="14"/>
       <c r="B167" s="14"/>
       <c r="C167" s="14"/>
@@ -2937,7 +2960,7 @@
       <c r="H167" s="14"/>
       <c r="I167" s="14"/>
     </row>
-    <row r="168" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A168" s="14"/>
       <c r="B168" s="14"/>
       <c r="C168" s="14"/>
@@ -2948,7 +2971,7 @@
       <c r="H168" s="14"/>
       <c r="I168" s="14"/>
     </row>
-    <row r="169" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A169" s="14"/>
       <c r="B169" s="14"/>
       <c r="C169" s="14"/>
@@ -2959,7 +2982,7 @@
       <c r="H169" s="14"/>
       <c r="I169" s="14"/>
     </row>
-    <row r="170" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A170" s="14"/>
       <c r="B170" s="14"/>
       <c r="C170" s="14"/>
@@ -2970,7 +2993,7 @@
       <c r="H170" s="14"/>
       <c r="I170" s="14"/>
     </row>
-    <row r="171" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A171" s="14"/>
       <c r="B171" s="14"/>
       <c r="C171" s="14"/>
@@ -2981,7 +3004,7 @@
       <c r="H171" s="14"/>
       <c r="I171" s="14"/>
     </row>
-    <row r="172" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A172" s="14"/>
       <c r="B172" s="14"/>
       <c r="C172" s="14"/>
@@ -2992,7 +3015,7 @@
       <c r="H172" s="14"/>
       <c r="I172" s="14"/>
     </row>
-    <row r="173" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A173" s="14"/>
       <c r="B173" s="14"/>
       <c r="C173" s="14"/>
@@ -3003,7 +3026,7 @@
       <c r="H173" s="14"/>
       <c r="I173" s="14"/>
     </row>
-    <row r="174" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A174" s="14"/>
       <c r="B174" s="14"/>
       <c r="C174" s="14"/>
@@ -3014,7 +3037,7 @@
       <c r="H174" s="14"/>
       <c r="I174" s="14"/>
     </row>
-    <row r="175" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A175" s="14"/>
       <c r="B175" s="14"/>
       <c r="C175" s="14"/>
@@ -3025,7 +3048,7 @@
       <c r="H175" s="14"/>
       <c r="I175" s="14"/>
     </row>
-    <row r="176" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A176" s="14"/>
       <c r="B176" s="14"/>
       <c r="C176" s="14"/>
@@ -3036,7 +3059,7 @@
       <c r="H176" s="14"/>
       <c r="I176" s="14"/>
     </row>
-    <row r="177" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A177" s="14"/>
       <c r="B177" s="14"/>
       <c r="C177" s="14"/>
@@ -3047,7 +3070,7 @@
       <c r="H177" s="14"/>
       <c r="I177" s="14"/>
     </row>
-    <row r="178" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A178" s="14"/>
       <c r="B178" s="14"/>
       <c r="C178" s="14"/>
@@ -3058,7 +3081,7 @@
       <c r="H178" s="14"/>
       <c r="I178" s="14"/>
     </row>
-    <row r="179" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A179" s="14"/>
       <c r="B179" s="14"/>
       <c r="C179" s="14"/>
@@ -3069,7 +3092,7 @@
       <c r="H179" s="14"/>
       <c r="I179" s="14"/>
     </row>
-    <row r="180" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A180" s="14"/>
       <c r="B180" s="14"/>
       <c r="C180" s="14"/>
@@ -3080,7 +3103,7 @@
       <c r="H180" s="14"/>
       <c r="I180" s="14"/>
     </row>
-    <row r="181" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A181" s="14"/>
       <c r="B181" s="14"/>
       <c r="C181" s="14"/>
@@ -3091,7 +3114,7 @@
       <c r="H181" s="14"/>
       <c r="I181" s="14"/>
     </row>
-    <row r="182" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A182" s="14"/>
       <c r="B182" s="14"/>
       <c r="C182" s="14"/>
@@ -3102,7 +3125,7 @@
       <c r="H182" s="14"/>
       <c r="I182" s="14"/>
     </row>
-    <row r="183" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A183" s="14"/>
       <c r="B183" s="14"/>
       <c r="C183" s="14"/>
@@ -3113,7 +3136,7 @@
       <c r="H183" s="14"/>
       <c r="I183" s="14"/>
     </row>
-    <row r="184" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A184" s="14"/>
       <c r="B184" s="14"/>
       <c r="C184" s="14"/>
@@ -3124,7 +3147,7 @@
       <c r="H184" s="14"/>
       <c r="I184" s="14"/>
     </row>
-    <row r="185" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A185" s="14"/>
       <c r="B185" s="14"/>
       <c r="C185" s="14"/>
@@ -3135,7 +3158,7 @@
       <c r="H185" s="14"/>
       <c r="I185" s="14"/>
     </row>
-    <row r="186" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A186" s="14"/>
       <c r="B186" s="14"/>
       <c r="C186" s="14"/>
@@ -3146,7 +3169,7 @@
       <c r="H186" s="14"/>
       <c r="I186" s="14"/>
     </row>
-    <row r="187" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A187" s="14"/>
       <c r="B187" s="14"/>
       <c r="C187" s="14"/>
@@ -3157,7 +3180,7 @@
       <c r="H187" s="14"/>
       <c r="I187" s="14"/>
     </row>
-    <row r="188" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A188" s="14"/>
       <c r="B188" s="14"/>
       <c r="C188" s="14"/>
@@ -3168,7 +3191,7 @@
       <c r="H188" s="14"/>
       <c r="I188" s="14"/>
     </row>
-    <row r="189" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A189" s="14"/>
       <c r="B189" s="14"/>
       <c r="C189" s="14"/>
@@ -3179,7 +3202,7 @@
       <c r="H189" s="14"/>
       <c r="I189" s="14"/>
     </row>
-    <row r="190" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A190" s="14"/>
       <c r="B190" s="14"/>
       <c r="C190" s="14"/>
@@ -3190,7 +3213,7 @@
       <c r="H190" s="14"/>
       <c r="I190" s="14"/>
     </row>
-    <row r="191" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A191" s="14"/>
       <c r="B191" s="14"/>
       <c r="C191" s="14"/>
@@ -3201,7 +3224,7 @@
       <c r="H191" s="14"/>
       <c r="I191" s="14"/>
     </row>
-    <row r="192" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A192" s="14"/>
       <c r="B192" s="14"/>
       <c r="C192" s="14"/>
@@ -3212,7 +3235,7 @@
       <c r="H192" s="14"/>
       <c r="I192" s="14"/>
     </row>
-    <row r="193" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A193" s="14"/>
       <c r="B193" s="14"/>
       <c r="C193" s="14"/>
@@ -3223,7 +3246,7 @@
       <c r="H193" s="14"/>
       <c r="I193" s="14"/>
     </row>
-    <row r="194" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A194" s="14"/>
       <c r="B194" s="14"/>
       <c r="C194" s="14"/>
@@ -3234,7 +3257,7 @@
       <c r="H194" s="14"/>
       <c r="I194" s="14"/>
     </row>
-    <row r="195" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A195" s="14"/>
       <c r="B195" s="14"/>
       <c r="C195" s="14"/>
@@ -3245,7 +3268,7 @@
       <c r="H195" s="14"/>
       <c r="I195" s="14"/>
     </row>
-    <row r="196" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A196" s="14"/>
       <c r="B196" s="14"/>
       <c r="C196" s="14"/>
@@ -3256,7 +3279,7 @@
       <c r="H196" s="14"/>
       <c r="I196" s="14"/>
     </row>
-    <row r="197" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A197" s="14"/>
       <c r="B197" s="14"/>
       <c r="C197" s="14"/>
@@ -3267,7 +3290,7 @@
       <c r="H197" s="14"/>
       <c r="I197" s="14"/>
     </row>
-    <row r="198" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A198" s="14"/>
       <c r="B198" s="14"/>
       <c r="C198" s="14"/>
@@ -3278,7 +3301,7 @@
       <c r="H198" s="14"/>
       <c r="I198" s="14"/>
     </row>
-    <row r="199" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A199" s="14"/>
       <c r="B199" s="14"/>
       <c r="C199" s="14"/>
@@ -3289,7 +3312,7 @@
       <c r="H199" s="14"/>
       <c r="I199" s="14"/>
     </row>
-    <row r="200" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A200" s="14"/>
       <c r="B200" s="14"/>
       <c r="C200" s="14"/>
@@ -3300,7 +3323,7 @@
       <c r="H200" s="14"/>
       <c r="I200" s="14"/>
     </row>
-    <row r="201" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A201" s="14"/>
       <c r="B201" s="14"/>
       <c r="C201" s="14"/>
@@ -3311,7 +3334,7 @@
       <c r="H201" s="14"/>
       <c r="I201" s="14"/>
     </row>
-    <row r="202" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A202" s="14"/>
       <c r="B202" s="14"/>
       <c r="C202" s="14"/>
@@ -3322,7 +3345,7 @@
       <c r="H202" s="14"/>
       <c r="I202" s="14"/>
     </row>
-    <row r="203" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A203" s="14"/>
       <c r="B203" s="14"/>
       <c r="C203" s="14"/>
@@ -3333,7 +3356,7 @@
       <c r="H203" s="14"/>
       <c r="I203" s="14"/>
     </row>
-    <row r="204" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A204" s="14"/>
       <c r="B204" s="14"/>
       <c r="C204" s="14"/>
@@ -3344,7 +3367,7 @@
       <c r="H204" s="14"/>
       <c r="I204" s="14"/>
     </row>
-    <row r="205" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A205" s="14"/>
       <c r="B205" s="14"/>
       <c r="C205" s="14"/>
@@ -3355,7 +3378,7 @@
       <c r="H205" s="14"/>
       <c r="I205" s="14"/>
     </row>
-    <row r="206" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A206" s="14"/>
       <c r="B206" s="14"/>
       <c r="C206" s="14"/>
@@ -3366,7 +3389,7 @@
       <c r="H206" s="14"/>
       <c r="I206" s="14"/>
     </row>
-    <row r="207" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A207" s="14"/>
       <c r="B207" s="14"/>
       <c r="C207" s="14"/>
@@ -3377,7 +3400,7 @@
       <c r="H207" s="14"/>
       <c r="I207" s="14"/>
     </row>
-    <row r="208" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A208" s="14"/>
       <c r="B208" s="14"/>
       <c r="C208" s="14"/>
@@ -3388,7 +3411,7 @@
       <c r="H208" s="14"/>
       <c r="I208" s="14"/>
     </row>
-    <row r="209" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A209" s="14"/>
       <c r="B209" s="14"/>
       <c r="C209" s="14"/>
@@ -3399,7 +3422,7 @@
       <c r="H209" s="14"/>
       <c r="I209" s="14"/>
     </row>
-    <row r="210" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A210" s="14"/>
       <c r="B210" s="14"/>
       <c r="C210" s="14"/>
@@ -3410,7 +3433,7 @@
       <c r="H210" s="14"/>
       <c r="I210" s="14"/>
     </row>
-    <row r="211" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A211" s="14"/>
       <c r="B211" s="14"/>
       <c r="C211" s="14"/>
@@ -3421,7 +3444,7 @@
       <c r="H211" s="14"/>
       <c r="I211" s="14"/>
     </row>
-    <row r="212" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A212" s="14"/>
       <c r="B212" s="14"/>
       <c r="C212" s="14"/>
@@ -3432,7 +3455,7 @@
       <c r="H212" s="14"/>
       <c r="I212" s="14"/>
     </row>
-    <row r="213" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A213" s="14"/>
       <c r="B213" s="14"/>
       <c r="C213" s="14"/>
@@ -3443,7 +3466,7 @@
       <c r="H213" s="14"/>
       <c r="I213" s="14"/>
     </row>
-    <row r="214" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A214" s="14"/>
       <c r="B214" s="14"/>
       <c r="C214" s="14"/>
@@ -3454,7 +3477,7 @@
       <c r="H214" s="14"/>
       <c r="I214" s="14"/>
     </row>
-    <row r="215" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A215" s="14"/>
       <c r="B215" s="14"/>
       <c r="C215" s="14"/>
@@ -3465,7 +3488,7 @@
       <c r="H215" s="14"/>
       <c r="I215" s="14"/>
     </row>
-    <row r="216" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A216" s="14"/>
       <c r="B216" s="14"/>
       <c r="C216" s="14"/>
@@ -3476,7 +3499,7 @@
       <c r="H216" s="14"/>
       <c r="I216" s="14"/>
     </row>
-    <row r="217" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A217" s="14"/>
       <c r="B217" s="14"/>
       <c r="C217" s="14"/>
@@ -3487,7 +3510,7 @@
       <c r="H217" s="14"/>
       <c r="I217" s="14"/>
     </row>
-    <row r="218" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A218" s="14"/>
       <c r="B218" s="14"/>
       <c r="C218" s="14"/>
@@ -3498,7 +3521,7 @@
       <c r="H218" s="14"/>
       <c r="I218" s="14"/>
     </row>
-    <row r="219" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A219" s="14"/>
       <c r="B219" s="14"/>
       <c r="C219" s="14"/>
@@ -3509,7 +3532,7 @@
       <c r="H219" s="14"/>
       <c r="I219" s="14"/>
     </row>
-    <row r="220" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A220" s="14"/>
       <c r="B220" s="14"/>
       <c r="C220" s="14"/>
@@ -3520,7 +3543,7 @@
       <c r="H220" s="14"/>
       <c r="I220" s="14"/>
     </row>
-    <row r="221" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A221" s="14"/>
       <c r="B221" s="14"/>
       <c r="C221" s="14"/>
@@ -3531,7 +3554,7 @@
       <c r="H221" s="14"/>
       <c r="I221" s="14"/>
     </row>
-    <row r="222" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A222" s="14"/>
       <c r="B222" s="14"/>
       <c r="C222" s="14"/>
@@ -3542,7 +3565,7 @@
       <c r="H222" s="14"/>
       <c r="I222" s="14"/>
     </row>
-    <row r="223" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A223" s="14"/>
       <c r="B223" s="14"/>
       <c r="C223" s="14"/>
@@ -3553,7 +3576,7 @@
       <c r="H223" s="14"/>
       <c r="I223" s="14"/>
     </row>
-    <row r="224" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A224" s="14"/>
       <c r="B224" s="14"/>
       <c r="C224" s="14"/>
@@ -3564,7 +3587,7 @@
       <c r="H224" s="14"/>
       <c r="I224" s="14"/>
     </row>
-    <row r="225" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A225" s="14"/>
       <c r="B225" s="14"/>
       <c r="C225" s="14"/>
@@ -3575,7 +3598,7 @@
       <c r="H225" s="14"/>
       <c r="I225" s="14"/>
     </row>
-    <row r="226" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A226" s="14"/>
       <c r="B226" s="14"/>
       <c r="C226" s="14"/>
@@ -3586,7 +3609,7 @@
       <c r="H226" s="14"/>
       <c r="I226" s="14"/>
     </row>
-    <row r="227" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A227" s="14"/>
       <c r="B227" s="14"/>
       <c r="C227" s="14"/>
@@ -3597,7 +3620,7 @@
       <c r="H227" s="14"/>
       <c r="I227" s="14"/>
     </row>
-    <row r="228" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A228" s="14"/>
       <c r="B228" s="14"/>
       <c r="C228" s="14"/>
@@ -3608,7 +3631,7 @@
       <c r="H228" s="14"/>
       <c r="I228" s="14"/>
     </row>
-    <row r="229" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A229" s="14"/>
       <c r="B229" s="14"/>
       <c r="C229" s="14"/>
@@ -3619,7 +3642,7 @@
       <c r="H229" s="14"/>
       <c r="I229" s="14"/>
     </row>
-    <row r="230" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A230" s="14"/>
       <c r="B230" s="14"/>
       <c r="C230" s="14"/>
@@ -3630,7 +3653,7 @@
       <c r="H230" s="14"/>
       <c r="I230" s="14"/>
     </row>
-    <row r="231" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A231" s="14"/>
       <c r="B231" s="14"/>
       <c r="C231" s="14"/>
@@ -3641,7 +3664,7 @@
       <c r="H231" s="14"/>
       <c r="I231" s="14"/>
     </row>
-    <row r="232" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A232" s="14"/>
       <c r="B232" s="14"/>
       <c r="C232" s="14"/>
@@ -3652,7 +3675,7 @@
       <c r="H232" s="14"/>
       <c r="I232" s="14"/>
     </row>
-    <row r="233" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A233" s="14"/>
       <c r="B233" s="14"/>
       <c r="C233" s="14"/>
@@ -3663,7 +3686,7 @@
       <c r="H233" s="14"/>
       <c r="I233" s="14"/>
     </row>
-    <row r="234" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A234" s="14"/>
       <c r="B234" s="14"/>
       <c r="C234" s="14"/>
@@ -3674,7 +3697,7 @@
       <c r="H234" s="14"/>
       <c r="I234" s="14"/>
     </row>
-    <row r="235" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A235" s="14"/>
       <c r="B235" s="14"/>
       <c r="C235" s="14"/>
@@ -3685,7 +3708,7 @@
       <c r="H235" s="14"/>
       <c r="I235" s="14"/>
     </row>
-    <row r="236" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A236" s="14"/>
       <c r="B236" s="14"/>
       <c r="C236" s="14"/>
@@ -3696,7 +3719,7 @@
       <c r="H236" s="14"/>
       <c r="I236" s="14"/>
     </row>
-    <row r="237" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A237" s="14"/>
       <c r="B237" s="14"/>
       <c r="C237" s="14"/>
@@ -3707,7 +3730,7 @@
       <c r="H237" s="14"/>
       <c r="I237" s="14"/>
     </row>
-    <row r="238" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A238" s="14"/>
       <c r="B238" s="14"/>
       <c r="C238" s="14"/>
@@ -3718,7 +3741,7 @@
       <c r="H238" s="14"/>
       <c r="I238" s="14"/>
     </row>
-    <row r="239" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A239" s="14"/>
       <c r="B239" s="14"/>
       <c r="C239" s="14"/>
@@ -3729,7 +3752,7 @@
       <c r="H239" s="14"/>
       <c r="I239" s="14"/>
     </row>
-    <row r="240" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A240" s="14"/>
       <c r="B240" s="14"/>
       <c r="C240" s="14"/>
@@ -3740,7 +3763,7 @@
       <c r="H240" s="14"/>
       <c r="I240" s="14"/>
     </row>
-    <row r="241" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A241" s="14"/>
       <c r="B241" s="14"/>
       <c r="C241" s="14"/>
@@ -3751,7 +3774,7 @@
       <c r="H241" s="14"/>
       <c r="I241" s="14"/>
     </row>
-    <row r="242" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A242" s="14"/>
       <c r="B242" s="14"/>
       <c r="C242" s="14"/>
@@ -3762,7 +3785,7 @@
       <c r="H242" s="14"/>
       <c r="I242" s="14"/>
     </row>
-    <row r="243" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A243" s="14"/>
       <c r="B243" s="14"/>
       <c r="C243" s="14"/>
@@ -3773,7 +3796,7 @@
       <c r="H243" s="14"/>
       <c r="I243" s="14"/>
     </row>
-    <row r="244" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A244" s="14"/>
       <c r="B244" s="14"/>
       <c r="C244" s="14"/>
@@ -3784,7 +3807,7 @@
       <c r="H244" s="14"/>
       <c r="I244" s="14"/>
     </row>
-    <row r="245" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A245" s="14"/>
       <c r="B245" s="14"/>
       <c r="C245" s="14"/>
@@ -3795,7 +3818,7 @@
       <c r="H245" s="14"/>
       <c r="I245" s="14"/>
     </row>
-    <row r="246" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A246" s="14"/>
       <c r="B246" s="14"/>
       <c r="C246" s="14"/>
@@ -3806,7 +3829,7 @@
       <c r="H246" s="14"/>
       <c r="I246" s="14"/>
     </row>
-    <row r="247" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A247" s="14"/>
       <c r="B247" s="14"/>
       <c r="C247" s="14"/>
@@ -3817,7 +3840,7 @@
       <c r="H247" s="14"/>
       <c r="I247" s="14"/>
     </row>
-    <row r="248" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A248" s="14"/>
       <c r="B248" s="14"/>
       <c r="C248" s="14"/>
@@ -3828,7 +3851,7 @@
       <c r="H248" s="14"/>
       <c r="I248" s="14"/>
     </row>
-    <row r="249" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A249" s="14"/>
       <c r="B249" s="14"/>
       <c r="C249" s="14"/>
@@ -3839,7 +3862,7 @@
       <c r="H249" s="14"/>
       <c r="I249" s="14"/>
     </row>
-    <row r="250" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A250" s="14"/>
       <c r="B250" s="14"/>
       <c r="C250" s="14"/>
@@ -3850,7 +3873,7 @@
       <c r="H250" s="14"/>
       <c r="I250" s="14"/>
     </row>
-    <row r="251" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A251" s="14"/>
       <c r="B251" s="14"/>
       <c r="C251" s="14"/>
@@ -3861,7 +3884,7 @@
       <c r="H251" s="14"/>
       <c r="I251" s="14"/>
     </row>
-    <row r="252" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A252" s="14"/>
       <c r="B252" s="14"/>
       <c r="C252" s="14"/>
@@ -3872,7 +3895,7 @@
       <c r="H252" s="14"/>
       <c r="I252" s="14"/>
     </row>
-    <row r="253" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A253" s="14"/>
       <c r="B253" s="14"/>
       <c r="C253" s="14"/>
@@ -3883,7 +3906,7 @@
       <c r="H253" s="14"/>
       <c r="I253" s="14"/>
     </row>
-    <row r="254" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A254" s="14"/>
       <c r="B254" s="14"/>
       <c r="C254" s="14"/>
@@ -3894,7 +3917,7 @@
       <c r="H254" s="14"/>
       <c r="I254" s="14"/>
     </row>
-    <row r="255" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A255" s="14"/>
       <c r="B255" s="14"/>
       <c r="C255" s="14"/>
@@ -3905,7 +3928,7 @@
       <c r="H255" s="14"/>
       <c r="I255" s="14"/>
     </row>
-    <row r="256" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A256" s="14"/>
       <c r="B256" s="14"/>
       <c r="C256" s="14"/>
@@ -3916,7 +3939,7 @@
       <c r="H256" s="14"/>
       <c r="I256" s="14"/>
     </row>
-    <row r="257" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A257" s="14"/>
       <c r="B257" s="14"/>
       <c r="C257" s="14"/>
@@ -3927,7 +3950,7 @@
       <c r="H257" s="14"/>
       <c r="I257" s="14"/>
     </row>
-    <row r="258" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A258" s="14"/>
       <c r="B258" s="14"/>
       <c r="C258" s="14"/>
@@ -3938,7 +3961,7 @@
       <c r="H258" s="14"/>
       <c r="I258" s="14"/>
     </row>
-    <row r="259" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A259" s="14"/>
       <c r="B259" s="14"/>
       <c r="C259" s="14"/>
@@ -3949,7 +3972,7 @@
       <c r="H259" s="14"/>
       <c r="I259" s="14"/>
     </row>
-    <row r="260" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A260" s="14"/>
       <c r="B260" s="14"/>
       <c r="C260" s="14"/>
@@ -3960,7 +3983,7 @@
       <c r="H260" s="14"/>
       <c r="I260" s="14"/>
     </row>
-    <row r="261" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A261" s="14"/>
       <c r="B261" s="14"/>
       <c r="C261" s="14"/>
@@ -3971,7 +3994,7 @@
       <c r="H261" s="14"/>
       <c r="I261" s="14"/>
     </row>
-    <row r="262" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A262" s="14"/>
       <c r="B262" s="14"/>
       <c r="C262" s="14"/>
@@ -3982,7 +4005,7 @@
       <c r="H262" s="14"/>
       <c r="I262" s="14"/>
     </row>
-    <row r="263" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A263" s="14"/>
       <c r="B263" s="14"/>
       <c r="C263" s="14"/>
@@ -3993,7 +4016,7 @@
       <c r="H263" s="14"/>
       <c r="I263" s="14"/>
     </row>
-    <row r="264" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A264" s="14"/>
       <c r="B264" s="14"/>
       <c r="C264" s="14"/>
@@ -4004,7 +4027,7 @@
       <c r="H264" s="14"/>
       <c r="I264" s="14"/>
     </row>
-    <row r="265" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A265" s="14"/>
       <c r="B265" s="14"/>
       <c r="C265" s="14"/>
@@ -4015,7 +4038,7 @@
       <c r="H265" s="14"/>
       <c r="I265" s="14"/>
     </row>
-    <row r="266" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A266" s="14"/>
       <c r="B266" s="14"/>
       <c r="C266" s="14"/>
@@ -4026,7 +4049,7 @@
       <c r="H266" s="14"/>
       <c r="I266" s="14"/>
     </row>
-    <row r="267" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A267" s="14"/>
       <c r="B267" s="14"/>
       <c r="C267" s="14"/>
@@ -4037,7 +4060,7 @@
       <c r="H267" s="14"/>
       <c r="I267" s="14"/>
     </row>
-    <row r="268" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A268" s="14"/>
       <c r="B268" s="14"/>
       <c r="C268" s="14"/>
@@ -4048,7 +4071,7 @@
       <c r="H268" s="14"/>
       <c r="I268" s="14"/>
     </row>
-    <row r="269" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A269" s="14"/>
       <c r="B269" s="14"/>
       <c r="C269" s="14"/>
@@ -4059,7 +4082,7 @@
       <c r="H269" s="14"/>
       <c r="I269" s="14"/>
     </row>
-    <row r="270" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A270" s="14"/>
       <c r="B270" s="14"/>
       <c r="C270" s="14"/>
@@ -4070,7 +4093,7 @@
       <c r="H270" s="14"/>
       <c r="I270" s="14"/>
     </row>
-    <row r="271" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A271" s="14"/>
       <c r="B271" s="14"/>
       <c r="C271" s="14"/>
@@ -4081,7 +4104,7 @@
       <c r="H271" s="14"/>
       <c r="I271" s="14"/>
     </row>
-    <row r="272" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A272" s="14"/>
       <c r="B272" s="14"/>
       <c r="C272" s="14"/>
@@ -4092,7 +4115,7 @@
       <c r="H272" s="14"/>
       <c r="I272" s="14"/>
     </row>
-    <row r="273" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A273" s="14"/>
       <c r="B273" s="14"/>
       <c r="C273" s="14"/>
@@ -4103,7 +4126,7 @@
       <c r="H273" s="14"/>
       <c r="I273" s="14"/>
     </row>
-    <row r="274" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A274" s="14"/>
       <c r="B274" s="14"/>
       <c r="C274" s="14"/>
@@ -4114,7 +4137,7 @@
       <c r="H274" s="14"/>
       <c r="I274" s="14"/>
     </row>
-    <row r="275" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A275" s="14"/>
       <c r="B275" s="14"/>
       <c r="C275" s="14"/>
@@ -4125,7 +4148,7 @@
       <c r="H275" s="14"/>
       <c r="I275" s="14"/>
     </row>
-    <row r="276" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A276" s="14"/>
       <c r="B276" s="14"/>
       <c r="C276" s="14"/>
@@ -4136,7 +4159,7 @@
       <c r="H276" s="14"/>
       <c r="I276" s="14"/>
     </row>
-    <row r="277" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A277" s="14"/>
       <c r="B277" s="14"/>
       <c r="C277" s="14"/>
@@ -4147,7 +4170,7 @@
       <c r="H277" s="14"/>
       <c r="I277" s="14"/>
     </row>
-    <row r="278" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A278" s="14"/>
       <c r="B278" s="14"/>
       <c r="C278" s="14"/>
@@ -4158,7 +4181,7 @@
       <c r="H278" s="14"/>
       <c r="I278" s="14"/>
     </row>
-    <row r="279" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A279" s="14"/>
       <c r="B279" s="14"/>
       <c r="C279" s="14"/>
@@ -4169,7 +4192,7 @@
       <c r="H279" s="14"/>
       <c r="I279" s="14"/>
     </row>
-    <row r="280" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A280" s="14"/>
       <c r="B280" s="14"/>
       <c r="C280" s="14"/>
@@ -4180,7 +4203,7 @@
       <c r="H280" s="14"/>
       <c r="I280" s="14"/>
     </row>
-    <row r="281" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A281" s="14"/>
       <c r="B281" s="14"/>
       <c r="C281" s="14"/>
@@ -4191,7 +4214,7 @@
       <c r="H281" s="14"/>
       <c r="I281" s="14"/>
     </row>
-    <row r="282" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A282" s="14"/>
       <c r="B282" s="14"/>
       <c r="C282" s="14"/>
@@ -4202,7 +4225,7 @@
       <c r="H282" s="14"/>
       <c r="I282" s="14"/>
     </row>
-    <row r="283" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A283" s="14"/>
       <c r="B283" s="14"/>
       <c r="C283" s="14"/>
@@ -4213,7 +4236,7 @@
       <c r="H283" s="14"/>
       <c r="I283" s="14"/>
     </row>
-    <row r="284" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A284" s="14"/>
       <c r="B284" s="14"/>
       <c r="C284" s="14"/>
@@ -4224,7 +4247,7 @@
       <c r="H284" s="14"/>
       <c r="I284" s="14"/>
     </row>
-    <row r="285" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A285" s="14"/>
       <c r="B285" s="14"/>
       <c r="C285" s="14"/>
@@ -4235,7 +4258,7 @@
       <c r="H285" s="14"/>
       <c r="I285" s="14"/>
     </row>
-    <row r="286" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A286" s="14"/>
       <c r="B286" s="14"/>
       <c r="C286" s="14"/>
@@ -4246,7 +4269,7 @@
       <c r="H286" s="14"/>
       <c r="I286" s="14"/>
     </row>
-    <row r="287" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A287" s="14"/>
       <c r="B287" s="14"/>
       <c r="C287" s="14"/>
@@ -4257,7 +4280,7 @@
       <c r="H287" s="14"/>
       <c r="I287" s="14"/>
     </row>
-    <row r="288" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A288" s="14"/>
       <c r="B288" s="14"/>
       <c r="C288" s="14"/>
@@ -4268,7 +4291,7 @@
       <c r="H288" s="14"/>
       <c r="I288" s="14"/>
     </row>
-    <row r="289" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A289" s="14"/>
       <c r="B289" s="14"/>
       <c r="C289" s="14"/>
@@ -4279,7 +4302,7 @@
       <c r="H289" s="14"/>
       <c r="I289" s="14"/>
     </row>
-    <row r="290" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A290" s="14"/>
       <c r="B290" s="14"/>
       <c r="C290" s="14"/>
@@ -4290,7 +4313,7 @@
       <c r="H290" s="14"/>
       <c r="I290" s="14"/>
     </row>
-    <row r="291" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A291" s="14"/>
       <c r="B291" s="14"/>
       <c r="C291" s="14"/>
@@ -4301,7 +4324,7 @@
       <c r="H291" s="14"/>
       <c r="I291" s="14"/>
     </row>
-    <row r="292" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A292" s="14"/>
       <c r="B292" s="14"/>
       <c r="C292" s="14"/>
@@ -4312,7 +4335,7 @@
       <c r="H292" s="14"/>
       <c r="I292" s="14"/>
     </row>
-    <row r="293" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A293" s="14"/>
       <c r="B293" s="14"/>
       <c r="C293" s="14"/>
@@ -4323,7 +4346,7 @@
       <c r="H293" s="14"/>
       <c r="I293" s="14"/>
     </row>
-    <row r="294" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A294" s="14"/>
       <c r="B294" s="14"/>
       <c r="C294" s="14"/>
@@ -4334,7 +4357,7 @@
       <c r="H294" s="14"/>
       <c r="I294" s="14"/>
     </row>
-    <row r="295" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A295" s="14"/>
       <c r="B295" s="14"/>
       <c r="C295" s="14"/>
@@ -4345,7 +4368,7 @@
       <c r="H295" s="14"/>
       <c r="I295" s="14"/>
     </row>
-    <row r="296" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A296" s="14"/>
       <c r="B296" s="14"/>
       <c r="C296" s="14"/>
@@ -4356,7 +4379,7 @@
       <c r="H296" s="14"/>
       <c r="I296" s="14"/>
     </row>
-    <row r="297" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A297" s="14"/>
       <c r="B297" s="14"/>
       <c r="C297" s="14"/>
@@ -4367,7 +4390,7 @@
       <c r="H297" s="14"/>
       <c r="I297" s="14"/>
     </row>
-    <row r="298" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A298" s="14"/>
       <c r="B298" s="14"/>
       <c r="C298" s="14"/>
@@ -4378,7 +4401,7 @@
       <c r="H298" s="14"/>
       <c r="I298" s="14"/>
     </row>
-    <row r="299" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A299" s="14"/>
       <c r="B299" s="14"/>
       <c r="C299" s="14"/>
@@ -4389,7 +4412,7 @@
       <c r="H299" s="14"/>
       <c r="I299" s="14"/>
     </row>
-    <row r="300" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A300" s="14"/>
       <c r="B300" s="14"/>
       <c r="C300" s="14"/>
@@ -4400,7 +4423,7 @@
       <c r="H300" s="14"/>
       <c r="I300" s="14"/>
     </row>
-    <row r="301" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A301" s="14"/>
       <c r="B301" s="14"/>
       <c r="C301" s="14"/>
@@ -4411,7 +4434,7 @@
       <c r="H301" s="14"/>
       <c r="I301" s="14"/>
     </row>
-    <row r="302" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A302" s="14"/>
       <c r="B302" s="14"/>
       <c r="C302" s="14"/>
@@ -4422,7 +4445,7 @@
       <c r="H302" s="14"/>
       <c r="I302" s="14"/>
     </row>
-    <row r="303" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A303" s="14"/>
       <c r="B303" s="14"/>
       <c r="C303" s="14"/>
@@ -4433,7 +4456,7 @@
       <c r="H303" s="14"/>
       <c r="I303" s="14"/>
     </row>
-    <row r="304" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A304" s="14"/>
       <c r="B304" s="14"/>
       <c r="C304" s="14"/>
@@ -4444,7 +4467,7 @@
       <c r="H304" s="14"/>
       <c r="I304" s="14"/>
     </row>
-    <row r="305" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A305" s="14"/>
       <c r="B305" s="14"/>
       <c r="C305" s="14"/>
@@ -4455,7 +4478,7 @@
       <c r="H305" s="14"/>
       <c r="I305" s="14"/>
     </row>
-    <row r="306" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A306" s="14"/>
       <c r="B306" s="14"/>
       <c r="C306" s="14"/>
@@ -4466,7 +4489,7 @@
       <c r="H306" s="14"/>
       <c r="I306" s="14"/>
     </row>
-    <row r="307" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A307" s="14"/>
       <c r="B307" s="14"/>
       <c r="C307" s="14"/>
@@ -4477,7 +4500,7 @@
       <c r="H307" s="14"/>
       <c r="I307" s="14"/>
     </row>
-    <row r="308" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A308" s="14"/>
       <c r="B308" s="14"/>
       <c r="C308" s="14"/>
@@ -4488,7 +4511,7 @@
       <c r="H308" s="14"/>
       <c r="I308" s="14"/>
     </row>
-    <row r="309" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A309" s="14"/>
       <c r="B309" s="14"/>
       <c r="C309" s="14"/>
@@ -4499,7 +4522,7 @@
       <c r="H309" s="14"/>
       <c r="I309" s="14"/>
     </row>
-    <row r="310" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A310" s="14"/>
       <c r="B310" s="14"/>
       <c r="C310" s="14"/>
@@ -4510,7 +4533,7 @@
       <c r="H310" s="14"/>
       <c r="I310" s="14"/>
     </row>
-    <row r="311" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A311" s="14"/>
       <c r="B311" s="14"/>
       <c r="C311" s="14"/>
@@ -4521,7 +4544,7 @@
       <c r="H311" s="14"/>
       <c r="I311" s="14"/>
     </row>
-    <row r="312" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A312" s="14"/>
       <c r="B312" s="14"/>
       <c r="C312" s="14"/>
@@ -4532,7 +4555,7 @@
       <c r="H312" s="14"/>
       <c r="I312" s="14"/>
     </row>
-    <row r="313" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A313" s="14"/>
       <c r="B313" s="14"/>
       <c r="C313" s="14"/>
@@ -4543,7 +4566,7 @@
       <c r="H313" s="14"/>
       <c r="I313" s="14"/>
     </row>
-    <row r="314" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A314" s="14"/>
       <c r="B314" s="14"/>
       <c r="C314" s="14"/>
@@ -4554,7 +4577,7 @@
       <c r="H314" s="14"/>
       <c r="I314" s="14"/>
     </row>
-    <row r="315" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A315" s="14"/>
       <c r="B315" s="14"/>
       <c r="C315" s="14"/>
@@ -4565,7 +4588,7 @@
       <c r="H315" s="14"/>
       <c r="I315" s="14"/>
     </row>
-    <row r="316" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A316" s="14"/>
       <c r="B316" s="14"/>
       <c r="C316" s="14"/>
@@ -4576,7 +4599,7 @@
       <c r="H316" s="14"/>
       <c r="I316" s="14"/>
     </row>
-    <row r="317" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A317" s="14"/>
       <c r="B317" s="14"/>
       <c r="C317" s="14"/>
@@ -4587,2163 +4610,2033 @@
       <c r="H317" s="14"/>
       <c r="I317" s="14"/>
     </row>
-    <row r="318" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G318" s="3"/>
     </row>
-    <row r="319" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G319" s="3"/>
     </row>
-    <row r="320" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G320" s="3"/>
     </row>
-    <row r="321" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="321" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G321" s="3"/>
     </row>
-    <row r="322" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="322" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G322" s="3"/>
     </row>
-    <row r="323" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="323" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G323" s="3"/>
     </row>
-    <row r="324" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="324" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G324" s="3"/>
     </row>
-    <row r="325" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="325" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G325" s="3"/>
     </row>
-    <row r="326" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="326" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G326" s="3"/>
     </row>
-    <row r="327" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="327" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G327" s="3"/>
     </row>
-    <row r="328" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="328" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G328" s="3"/>
     </row>
-    <row r="329" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="329" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G329" s="3"/>
     </row>
-    <row r="330" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="330" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G330" s="3"/>
     </row>
-    <row r="331" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="331" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G331" s="3"/>
     </row>
-    <row r="332" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="332" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G332" s="3"/>
     </row>
-    <row r="333" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="333" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G333" s="3"/>
     </row>
-    <row r="334" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="334" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G334" s="3"/>
     </row>
-    <row r="335" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="335" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G335" s="3"/>
     </row>
-    <row r="336" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="336" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G336" s="3"/>
     </row>
-    <row r="337" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="337" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G337" s="3"/>
     </row>
-    <row r="338" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="338" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G338" s="3"/>
     </row>
-    <row r="339" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="339" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G339" s="3"/>
     </row>
-    <row r="340" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="340" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G340" s="3"/>
     </row>
-    <row r="341" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="341" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G341" s="3"/>
     </row>
-    <row r="342" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="342" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G342" s="3"/>
     </row>
-    <row r="343" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="343" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G343" s="3"/>
     </row>
-    <row r="344" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="344" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G344" s="3"/>
     </row>
-    <row r="345" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="345" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G345" s="3"/>
     </row>
-    <row r="346" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="346" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G346" s="3"/>
     </row>
-    <row r="347" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="347" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G347" s="3"/>
     </row>
-    <row r="348" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="348" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G348" s="3"/>
     </row>
-    <row r="349" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="349" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G349" s="3"/>
     </row>
-    <row r="350" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="350" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G350" s="3"/>
     </row>
-    <row r="351" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="351" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G351" s="3"/>
     </row>
-    <row r="352" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="352" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G352" s="3"/>
     </row>
-    <row r="353" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="353" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G353" s="3"/>
     </row>
-    <row r="354" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="354" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G354" s="3"/>
     </row>
-    <row r="355" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="355" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G355" s="3"/>
     </row>
-    <row r="356" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="356" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G356" s="3"/>
     </row>
-    <row r="357" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="357" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G357" s="3"/>
     </row>
-    <row r="358" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="358" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G358" s="3"/>
     </row>
-    <row r="359" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="359" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G359" s="3"/>
     </row>
-    <row r="360" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="360" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G360" s="3"/>
     </row>
-    <row r="361" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="361" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G361" s="3"/>
     </row>
-    <row r="362" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="362" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G362" s="3"/>
     </row>
-    <row r="363" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="363" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G363" s="3"/>
     </row>
-    <row r="364" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="364" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G364" s="3"/>
     </row>
-    <row r="365" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="365" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G365" s="3"/>
     </row>
-    <row r="366" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="366" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G366" s="3"/>
     </row>
-    <row r="367" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="367" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G367" s="3"/>
     </row>
-    <row r="368" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="368" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G368" s="3"/>
     </row>
-    <row r="369" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="369" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G369" s="3"/>
     </row>
-    <row r="370" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="370" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G370" s="3"/>
     </row>
-    <row r="371" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="371" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G371" s="3"/>
     </row>
-    <row r="372" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="372" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G372" s="3"/>
     </row>
-    <row r="373" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="373" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G373" s="3"/>
     </row>
-    <row r="374" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="374" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G374" s="3"/>
     </row>
-    <row r="375" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="375" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G375" s="3"/>
     </row>
-    <row r="376" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="376" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G376" s="3"/>
     </row>
-    <row r="377" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="377" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G377" s="3"/>
     </row>
-    <row r="378" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="378" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G378" s="3"/>
     </row>
-    <row r="379" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="379" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G379" s="3"/>
     </row>
-    <row r="380" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="380" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G380" s="3"/>
     </row>
-    <row r="381" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="381" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G381" s="3"/>
     </row>
-    <row r="382" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="382" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G382" s="3"/>
     </row>
-    <row r="383" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="383" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G383" s="3"/>
     </row>
-    <row r="384" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="384" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G384" s="3"/>
     </row>
-    <row r="385" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="385" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G385" s="3"/>
     </row>
-    <row r="386" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="386" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G386" s="3"/>
     </row>
-    <row r="387" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="387" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G387" s="3"/>
     </row>
-    <row r="388" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="388" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G388" s="3"/>
     </row>
-    <row r="389" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="389" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G389" s="3"/>
     </row>
-    <row r="390" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="390" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G390" s="3"/>
     </row>
-    <row r="391" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="391" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G391" s="3"/>
     </row>
-    <row r="392" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="392" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G392" s="3"/>
     </row>
-    <row r="393" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="393" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G393" s="3"/>
     </row>
-    <row r="394" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="394" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G394" s="3"/>
     </row>
-    <row r="395" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="395" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G395" s="3"/>
     </row>
-    <row r="396" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="396" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G396" s="3"/>
     </row>
-    <row r="397" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="397" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G397" s="3"/>
     </row>
-    <row r="398" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="398" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G398" s="3"/>
     </row>
-    <row r="399" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="399" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G399" s="3"/>
     </row>
-    <row r="400" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="400" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G400" s="3"/>
     </row>
-    <row r="401" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="401" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G401" s="3"/>
     </row>
-    <row r="402" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="402" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G402" s="3"/>
     </row>
-    <row r="403" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="403" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G403" s="3"/>
     </row>
-    <row r="404" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="404" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G404" s="3"/>
     </row>
-    <row r="405" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="405" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G405" s="3"/>
     </row>
-    <row r="406" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="406" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G406" s="3"/>
     </row>
-    <row r="407" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="407" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G407" s="3"/>
     </row>
-    <row r="408" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="408" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G408" s="3"/>
     </row>
-    <row r="409" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="409" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G409" s="3"/>
     </row>
-    <row r="410" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="410" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G410" s="3"/>
     </row>
-    <row r="411" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="411" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G411" s="3"/>
     </row>
-    <row r="412" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="412" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G412" s="3"/>
     </row>
-    <row r="413" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="413" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G413" s="3"/>
     </row>
-    <row r="414" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="414" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G414" s="3"/>
     </row>
-    <row r="415" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="415" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G415" s="3"/>
     </row>
-    <row r="416" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="416" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G416" s="3"/>
     </row>
-    <row r="417" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="417" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G417" s="3"/>
     </row>
-    <row r="418" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="418" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G418" s="3"/>
     </row>
-    <row r="419" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="419" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G419" s="3"/>
     </row>
-    <row r="420" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="420" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G420" s="3"/>
     </row>
-    <row r="421" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="421" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G421" s="3"/>
     </row>
-    <row r="422" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="422" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G422" s="3"/>
     </row>
-    <row r="423" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="423" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G423" s="3"/>
     </row>
-    <row r="424" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="424" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G424" s="3"/>
     </row>
-    <row r="425" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="425" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G425" s="3"/>
     </row>
-    <row r="426" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="426" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G426" s="3"/>
     </row>
-    <row r="427" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="427" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G427" s="3"/>
     </row>
-    <row r="428" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="428" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G428" s="3"/>
     </row>
-    <row r="429" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="429" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G429" s="3"/>
     </row>
-    <row r="430" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="430" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G430" s="3"/>
     </row>
-    <row r="431" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="431" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G431" s="3"/>
     </row>
-    <row r="432" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="432" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G432" s="3"/>
     </row>
-    <row r="433" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="433" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G433" s="3"/>
     </row>
-    <row r="434" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="434" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G434" s="3"/>
     </row>
-    <row r="435" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="435" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G435" s="3"/>
     </row>
-    <row r="436" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="436" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G436" s="3"/>
     </row>
-    <row r="437" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="437" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G437" s="3"/>
     </row>
-    <row r="438" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="438" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G438" s="3"/>
     </row>
-    <row r="439" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="439" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G439" s="3"/>
     </row>
-    <row r="440" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="440" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G440" s="3"/>
     </row>
-    <row r="441" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="441" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G441" s="3"/>
     </row>
-    <row r="442" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="442" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G442" s="3"/>
     </row>
-    <row r="443" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="443" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G443" s="3"/>
     </row>
-    <row r="444" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="444" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G444" s="3"/>
     </row>
-    <row r="445" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="445" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G445" s="3"/>
     </row>
-    <row r="446" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="446" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G446" s="3"/>
     </row>
-    <row r="447" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="447" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G447" s="3"/>
     </row>
-    <row r="448" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="448" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G448" s="3"/>
     </row>
-    <row r="449" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="449" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G449" s="3"/>
     </row>
-    <row r="450" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="450" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G450" s="3"/>
     </row>
-    <row r="451" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="451" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G451" s="3"/>
     </row>
-    <row r="452" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="452" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G452" s="3"/>
     </row>
-    <row r="453" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="453" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G453" s="3"/>
     </row>
-    <row r="454" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="454" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G454" s="3"/>
     </row>
-    <row r="455" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="455" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G455" s="3"/>
     </row>
-    <row r="456" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="456" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G456" s="3"/>
     </row>
-    <row r="457" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="457" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G457" s="3"/>
     </row>
-    <row r="458" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="458" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G458" s="3"/>
     </row>
-    <row r="459" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="459" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G459" s="3"/>
     </row>
-    <row r="460" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="460" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G460" s="3"/>
     </row>
-    <row r="461" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="461" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G461" s="3"/>
     </row>
-    <row r="462" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="462" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G462" s="3"/>
     </row>
-    <row r="463" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="463" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G463" s="3"/>
     </row>
-    <row r="464" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="464" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G464" s="3"/>
     </row>
-    <row r="465" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="465" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G465" s="3"/>
     </row>
-    <row r="466" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="466" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G466" s="3"/>
     </row>
-    <row r="467" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="467" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G467" s="3"/>
     </row>
-    <row r="468" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="468" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G468" s="3"/>
     </row>
-    <row r="469" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="469" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G469" s="3"/>
     </row>
-    <row r="470" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="470" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G470" s="3"/>
     </row>
-    <row r="471" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="471" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G471" s="3"/>
     </row>
-    <row r="472" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="472" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G472" s="3"/>
     </row>
-    <row r="473" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="473" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G473" s="3"/>
     </row>
-    <row r="474" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="474" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G474" s="3"/>
     </row>
-    <row r="475" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="475" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G475" s="3"/>
     </row>
-    <row r="476" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="476" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G476" s="3"/>
     </row>
-    <row r="477" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="477" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G477" s="3"/>
     </row>
-    <row r="478" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="478" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G478" s="3"/>
     </row>
-    <row r="479" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="479" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G479" s="3"/>
     </row>
-    <row r="480" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="480" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G480" s="3"/>
     </row>
-    <row r="481" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="481" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G481" s="3"/>
     </row>
-    <row r="482" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="482" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G482" s="3"/>
     </row>
-    <row r="483" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="483" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G483" s="3"/>
     </row>
-    <row r="484" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="484" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G484" s="3"/>
     </row>
-    <row r="485" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="485" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G485" s="3"/>
     </row>
-    <row r="486" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="486" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G486" s="3"/>
     </row>
-    <row r="487" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="487" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G487" s="3"/>
     </row>
-    <row r="488" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="488" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G488" s="3"/>
     </row>
-    <row r="489" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="489" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G489" s="3"/>
     </row>
-    <row r="490" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="490" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G490" s="3"/>
     </row>
-    <row r="491" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="491" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G491" s="3"/>
     </row>
-    <row r="492" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="492" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G492" s="3"/>
     </row>
-    <row r="493" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="493" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G493" s="3"/>
     </row>
-    <row r="494" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="494" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G494" s="3"/>
     </row>
-    <row r="495" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="495" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G495" s="3"/>
     </row>
-    <row r="496" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="496" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G496" s="3"/>
     </row>
-    <row r="497" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="497" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G497" s="3"/>
     </row>
-    <row r="498" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="498" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G498" s="3"/>
     </row>
-    <row r="499" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="499" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G499" s="3"/>
     </row>
-    <row r="500" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="500" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G500" s="3"/>
     </row>
-    <row r="501" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="501" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G501" s="3"/>
     </row>
-    <row r="502" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="502" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G502" s="3"/>
     </row>
-    <row r="503" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="503" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G503" s="3"/>
     </row>
-    <row r="504" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="504" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G504" s="3"/>
     </row>
-    <row r="505" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="505" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G505" s="3"/>
     </row>
-    <row r="506" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="506" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G506" s="3"/>
     </row>
-    <row r="507" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="507" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G507" s="3"/>
     </row>
-    <row r="508" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="508" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G508" s="3"/>
     </row>
-    <row r="509" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="509" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G509" s="3"/>
     </row>
-    <row r="510" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="510" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G510" s="3"/>
     </row>
-    <row r="511" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="511" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G511" s="3"/>
     </row>
-    <row r="512" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="512" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G512" s="3"/>
     </row>
-    <row r="513" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="513" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G513" s="3"/>
     </row>
-    <row r="514" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="514" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G514" s="3"/>
     </row>
-    <row r="515" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="515" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G515" s="3"/>
     </row>
-    <row r="516" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="516" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G516" s="3"/>
     </row>
-    <row r="517" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="517" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G517" s="3"/>
     </row>
-    <row r="518" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="518" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G518" s="3"/>
     </row>
-    <row r="519" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="519" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G519" s="3"/>
     </row>
-    <row r="520" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="520" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G520" s="3"/>
     </row>
-    <row r="521" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="521" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G521" s="3"/>
     </row>
-    <row r="522" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="522" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G522" s="3"/>
     </row>
-    <row r="523" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="523" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G523" s="3"/>
     </row>
-    <row r="524" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="524" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G524" s="3"/>
     </row>
-    <row r="525" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="525" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G525" s="3"/>
     </row>
-    <row r="526" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="526" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G526" s="3"/>
     </row>
-    <row r="527" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="527" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G527" s="3"/>
     </row>
-    <row r="528" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="528" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G528" s="3"/>
     </row>
-    <row r="529" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="529" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G529" s="3"/>
     </row>
-    <row r="530" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="530" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G530" s="3"/>
     </row>
-    <row r="531" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="531" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G531" s="3"/>
     </row>
-    <row r="532" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="532" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G532" s="3"/>
     </row>
-    <row r="533" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="533" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G533" s="3"/>
     </row>
-    <row r="534" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="534" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G534" s="3"/>
     </row>
-    <row r="535" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="535" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G535" s="3"/>
     </row>
-    <row r="536" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="536" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G536" s="3"/>
     </row>
-    <row r="537" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="537" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G537" s="3"/>
     </row>
-    <row r="538" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="538" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G538" s="3"/>
     </row>
-    <row r="539" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="539" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G539" s="3"/>
     </row>
-    <row r="540" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="540" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G540" s="3"/>
     </row>
-    <row r="541" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="541" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G541" s="3"/>
     </row>
-    <row r="542" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="542" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G542" s="3"/>
     </row>
-    <row r="543" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="543" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G543" s="3"/>
     </row>
-    <row r="544" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="544" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G544" s="3"/>
     </row>
-    <row r="545" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="545" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G545" s="3"/>
     </row>
-    <row r="546" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="546" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G546" s="3"/>
     </row>
-    <row r="547" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="547" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G547" s="3"/>
     </row>
-    <row r="548" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="548" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G548" s="3"/>
     </row>
-    <row r="549" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="549" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G549" s="3"/>
     </row>
-    <row r="550" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="550" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G550" s="3"/>
     </row>
-    <row r="551" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="551" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G551" s="3"/>
     </row>
-    <row r="552" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="552" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G552" s="3"/>
     </row>
-    <row r="553" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="553" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G553" s="3"/>
     </row>
-    <row r="554" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="554" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G554" s="3"/>
     </row>
-    <row r="555" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="555" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G555" s="3"/>
     </row>
-    <row r="556" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="556" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G556" s="3"/>
     </row>
-    <row r="557" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="557" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G557" s="3"/>
     </row>
-    <row r="558" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="558" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G558" s="3"/>
     </row>
-    <row r="559" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="559" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G559" s="3"/>
     </row>
-    <row r="560" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="560" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G560" s="3"/>
     </row>
-    <row r="561" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="561" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G561" s="3"/>
     </row>
-    <row r="562" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="562" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G562" s="3"/>
     </row>
-    <row r="563" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="563" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G563" s="3"/>
     </row>
-    <row r="564" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="564" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G564" s="3"/>
     </row>
-    <row r="565" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="565" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G565" s="3"/>
     </row>
-    <row r="566" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="566" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G566" s="3"/>
     </row>
-    <row r="567" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="567" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G567" s="3"/>
     </row>
-    <row r="568" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="568" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G568" s="3"/>
     </row>
-    <row r="569" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="569" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G569" s="3"/>
     </row>
-    <row r="570" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="570" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G570" s="3"/>
     </row>
-    <row r="571" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="571" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G571" s="3"/>
     </row>
-    <row r="572" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="572" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G572" s="3"/>
     </row>
-    <row r="573" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="573" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G573" s="3"/>
     </row>
-    <row r="574" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="574" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G574" s="3"/>
     </row>
-    <row r="575" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="575" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G575" s="3"/>
     </row>
-    <row r="576" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="576" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G576" s="3"/>
     </row>
-    <row r="577" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="577" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G577" s="3"/>
     </row>
-    <row r="578" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="578" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G578" s="3"/>
     </row>
-    <row r="579" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="579" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G579" s="3"/>
     </row>
-    <row r="580" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="580" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G580" s="3"/>
     </row>
-    <row r="581" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="581" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G581" s="3"/>
     </row>
-    <row r="582" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="582" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G582" s="3"/>
     </row>
-    <row r="583" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="583" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G583" s="3"/>
     </row>
-    <row r="584" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="584" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G584" s="3"/>
     </row>
-    <row r="585" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="585" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G585" s="3"/>
     </row>
-    <row r="586" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="586" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G586" s="3"/>
     </row>
-    <row r="587" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="587" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G587" s="3"/>
     </row>
-    <row r="588" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="588" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G588" s="3"/>
     </row>
-    <row r="589" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="589" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G589" s="3"/>
     </row>
-    <row r="590" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="590" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G590" s="3"/>
     </row>
-    <row r="591" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="591" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G591" s="3"/>
     </row>
-    <row r="592" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="592" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G592" s="3"/>
     </row>
-    <row r="593" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="593" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G593" s="3"/>
     </row>
-    <row r="594" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="594" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G594" s="3"/>
     </row>
-    <row r="595" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="595" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G595" s="3"/>
     </row>
-    <row r="596" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="596" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G596" s="3"/>
     </row>
-    <row r="597" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="597" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G597" s="3"/>
     </row>
-    <row r="598" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="598" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G598" s="3"/>
     </row>
-    <row r="599" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="599" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G599" s="3"/>
     </row>
-    <row r="600" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="600" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G600" s="3"/>
     </row>
-    <row r="601" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="601" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G601" s="3"/>
     </row>
-    <row r="602" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="602" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G602" s="3"/>
     </row>
-    <row r="603" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="603" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G603" s="3"/>
     </row>
-    <row r="604" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="604" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G604" s="3"/>
     </row>
-    <row r="605" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="605" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G605" s="3"/>
     </row>
-    <row r="606" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="606" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G606" s="3"/>
     </row>
-    <row r="607" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="607" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G607" s="3"/>
     </row>
-    <row r="608" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="608" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G608" s="3"/>
     </row>
-    <row r="609" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="609" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G609" s="3"/>
     </row>
-    <row r="610" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="610" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G610" s="3"/>
     </row>
-    <row r="611" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="611" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G611" s="3"/>
     </row>
-    <row r="612" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="612" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G612" s="3"/>
     </row>
-    <row r="613" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="613" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G613" s="3"/>
     </row>
-    <row r="614" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="614" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G614" s="3"/>
     </row>
-    <row r="615" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="615" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G615" s="3"/>
     </row>
-    <row r="616" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="616" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G616" s="3"/>
     </row>
-    <row r="617" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="617" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G617" s="3"/>
     </row>
-    <row r="618" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="618" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G618" s="3"/>
     </row>
-    <row r="619" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="619" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G619" s="3"/>
     </row>
-    <row r="620" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="620" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G620" s="3"/>
     </row>
-    <row r="621" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="621" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G621" s="3"/>
     </row>
-    <row r="622" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="622" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G622" s="3"/>
     </row>
-    <row r="623" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="623" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G623" s="3"/>
     </row>
-    <row r="624" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="624" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G624" s="3"/>
     </row>
-    <row r="625" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="625" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G625" s="3"/>
     </row>
-    <row r="626" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="626" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G626" s="3"/>
     </row>
-    <row r="627" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="627" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G627" s="3"/>
     </row>
-    <row r="628" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="628" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G628" s="3"/>
     </row>
-    <row r="629" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="629" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G629" s="3"/>
     </row>
-    <row r="630" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="630" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G630" s="3"/>
     </row>
-    <row r="631" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="631" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G631" s="3"/>
     </row>
-    <row r="632" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="632" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G632" s="3"/>
     </row>
-    <row r="633" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="633" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G633" s="3"/>
     </row>
-    <row r="634" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="634" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G634" s="3"/>
     </row>
-    <row r="635" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="635" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G635" s="3"/>
     </row>
-    <row r="636" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="636" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G636" s="3"/>
     </row>
-    <row r="637" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="637" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G637" s="3"/>
     </row>
-    <row r="638" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="638" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G638" s="3"/>
     </row>
-    <row r="639" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="639" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G639" s="3"/>
     </row>
-    <row r="640" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="640" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G640" s="3"/>
     </row>
-    <row r="641" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="641" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G641" s="3"/>
     </row>
-    <row r="642" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="642" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G642" s="3"/>
     </row>
-    <row r="643" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="643" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G643" s="3"/>
     </row>
-    <row r="644" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="644" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G644" s="3"/>
     </row>
-    <row r="645" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="645" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G645" s="3"/>
     </row>
-    <row r="646" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="646" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G646" s="3"/>
     </row>
-    <row r="647" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="647" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G647" s="3"/>
     </row>
-    <row r="648" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="648" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G648" s="3"/>
     </row>
-    <row r="649" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="649" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G649" s="3"/>
     </row>
-    <row r="650" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="650" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G650" s="3"/>
     </row>
-    <row r="651" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="651" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G651" s="3"/>
     </row>
-    <row r="652" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="652" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G652" s="3"/>
     </row>
-    <row r="653" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="653" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G653" s="3"/>
     </row>
-    <row r="654" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="654" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G654" s="3"/>
     </row>
-    <row r="655" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="655" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G655" s="3"/>
     </row>
-    <row r="656" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="656" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G656" s="3"/>
     </row>
-    <row r="657" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="657" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G657" s="3"/>
     </row>
-    <row r="658" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="658" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G658" s="3"/>
     </row>
-    <row r="659" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="659" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G659" s="3"/>
     </row>
-    <row r="660" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="660" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G660" s="3"/>
     </row>
-    <row r="661" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="661" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G661" s="3"/>
     </row>
-    <row r="662" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="662" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G662" s="3"/>
     </row>
-    <row r="663" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="663" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G663" s="3"/>
     </row>
-    <row r="664" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="664" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G664" s="3"/>
     </row>
-    <row r="665" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="665" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G665" s="3"/>
     </row>
-    <row r="666" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="666" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G666" s="3"/>
     </row>
-    <row r="667" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="667" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G667" s="3"/>
     </row>
-    <row r="668" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="668" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G668" s="3"/>
     </row>
-    <row r="669" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="669" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G669" s="3"/>
     </row>
-    <row r="670" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="670" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G670" s="3"/>
     </row>
-    <row r="671" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="671" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G671" s="3"/>
     </row>
-    <row r="672" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="672" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G672" s="3"/>
     </row>
-    <row r="673" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="673" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G673" s="3"/>
     </row>
-    <row r="674" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="674" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G674" s="3"/>
     </row>
-    <row r="675" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="675" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G675" s="3"/>
     </row>
-    <row r="676" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="676" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G676" s="3"/>
     </row>
-    <row r="677" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="677" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G677" s="3"/>
     </row>
-    <row r="678" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="678" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G678" s="3"/>
     </row>
-    <row r="679" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="679" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G679" s="3"/>
     </row>
-    <row r="680" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="680" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G680" s="3"/>
     </row>
-    <row r="681" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="681" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G681" s="3"/>
     </row>
-    <row r="682" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="682" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G682" s="3"/>
     </row>
-    <row r="683" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="683" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G683" s="3"/>
     </row>
-    <row r="684" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="684" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G684" s="3"/>
     </row>
-    <row r="685" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="685" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G685" s="3"/>
     </row>
-    <row r="686" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="686" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G686" s="3"/>
     </row>
-    <row r="687" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="687" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G687" s="3"/>
     </row>
-    <row r="688" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="688" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G688" s="3"/>
     </row>
-    <row r="689" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="689" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G689" s="3"/>
     </row>
-    <row r="690" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="690" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G690" s="3"/>
     </row>
-    <row r="691" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="691" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G691" s="3"/>
     </row>
-    <row r="692" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="692" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G692" s="3"/>
     </row>
-    <row r="693" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="693" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G693" s="3"/>
     </row>
-    <row r="694" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="694" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G694" s="3"/>
     </row>
-    <row r="695" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="695" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G695" s="3"/>
     </row>
-    <row r="696" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="696" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G696" s="3"/>
     </row>
-    <row r="697" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="697" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G697" s="3"/>
     </row>
-    <row r="698" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="698" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G698" s="3"/>
     </row>
-    <row r="699" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="699" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G699" s="3"/>
     </row>
-    <row r="700" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="700" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G700" s="3"/>
     </row>
-    <row r="701" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="701" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G701" s="3"/>
     </row>
-    <row r="702" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="702" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G702" s="3"/>
     </row>
-    <row r="703" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="703" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G703" s="3"/>
     </row>
-    <row r="704" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="704" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G704" s="3"/>
     </row>
-    <row r="705" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="705" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G705" s="3"/>
     </row>
-    <row r="706" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="706" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G706" s="3"/>
     </row>
-    <row r="707" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="707" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G707" s="3"/>
     </row>
-    <row r="708" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="708" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G708" s="3"/>
     </row>
-    <row r="709" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="709" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G709" s="3"/>
     </row>
-    <row r="710" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="710" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G710" s="3"/>
     </row>
-    <row r="711" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="711" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G711" s="3"/>
     </row>
-    <row r="712" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="712" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G712" s="3"/>
     </row>
-    <row r="713" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="713" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G713" s="3"/>
     </row>
-    <row r="714" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="714" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G714" s="3"/>
     </row>
-    <row r="715" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="715" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G715" s="3"/>
     </row>
-    <row r="716" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="716" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G716" s="3"/>
     </row>
-    <row r="717" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="717" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G717" s="3"/>
     </row>
-    <row r="718" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="718" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G718" s="3"/>
     </row>
-    <row r="719" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="719" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G719" s="3"/>
     </row>
-    <row r="720" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="720" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G720" s="3"/>
     </row>
-    <row r="721" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="721" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G721" s="3"/>
     </row>
-    <row r="722" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="722" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G722" s="3"/>
     </row>
-    <row r="723" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="723" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G723" s="3"/>
     </row>
-    <row r="724" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="724" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G724" s="3"/>
     </row>
-    <row r="725" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="725" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G725" s="3"/>
     </row>
-    <row r="726" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="726" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G726" s="3"/>
     </row>
-    <row r="727" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="727" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G727" s="3"/>
     </row>
-    <row r="728" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="728" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G728" s="3"/>
     </row>
-    <row r="729" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="729" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G729" s="3"/>
     </row>
-    <row r="730" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="730" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G730" s="3"/>
     </row>
-    <row r="731" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="731" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G731" s="3"/>
     </row>
-    <row r="732" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="732" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G732" s="3"/>
     </row>
-    <row r="733" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="733" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G733" s="3"/>
     </row>
-    <row r="734" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="734" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G734" s="3"/>
     </row>
-    <row r="735" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="735" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G735" s="3"/>
     </row>
-    <row r="736" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="736" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G736" s="3"/>
     </row>
-    <row r="737" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="737" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G737" s="3"/>
     </row>
-    <row r="738" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="738" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G738" s="3"/>
     </row>
-    <row r="739" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="739" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G739" s="3"/>
     </row>
-    <row r="740" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="740" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G740" s="3"/>
     </row>
-    <row r="741" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="741" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G741" s="3"/>
     </row>
-    <row r="742" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="742" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G742" s="3"/>
     </row>
-    <row r="743" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="743" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G743" s="3"/>
     </row>
-    <row r="744" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="744" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G744" s="3"/>
     </row>
-    <row r="745" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="745" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G745" s="3"/>
     </row>
-    <row r="746" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="746" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G746" s="3"/>
     </row>
-    <row r="747" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="747" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G747" s="3"/>
     </row>
-    <row r="748" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="748" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G748" s="3"/>
     </row>
-    <row r="749" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="749" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G749" s="3"/>
     </row>
-    <row r="750" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="750" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G750" s="3"/>
     </row>
-    <row r="751" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="751" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G751" s="3"/>
     </row>
-    <row r="752" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="752" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G752" s="3"/>
     </row>
-    <row r="753" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="753" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G753" s="3"/>
     </row>
-    <row r="754" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="754" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G754" s="3"/>
     </row>
-    <row r="755" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="755" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G755" s="3"/>
     </row>
-    <row r="756" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="756" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G756" s="3"/>
     </row>
-    <row r="757" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="757" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G757" s="3"/>
     </row>
-    <row r="758" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="758" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G758" s="3"/>
     </row>
-    <row r="759" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="759" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G759" s="3"/>
     </row>
-    <row r="760" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="760" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G760" s="3"/>
     </row>
-    <row r="761" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="761" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G761" s="3"/>
     </row>
-    <row r="762" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="762" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G762" s="3"/>
     </row>
-    <row r="763" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="763" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G763" s="3"/>
     </row>
-    <row r="764" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="764" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G764" s="3"/>
     </row>
-    <row r="765" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="765" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G765" s="3"/>
     </row>
-    <row r="766" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="766" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G766" s="3"/>
     </row>
-    <row r="767" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="767" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G767" s="3"/>
     </row>
-    <row r="768" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="768" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G768" s="3"/>
     </row>
-    <row r="769" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="769" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G769" s="3"/>
     </row>
-    <row r="770" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="770" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G770" s="3"/>
     </row>
-    <row r="771" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="771" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G771" s="3"/>
     </row>
-    <row r="772" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="772" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G772" s="3"/>
     </row>
-    <row r="773" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="773" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G773" s="3"/>
     </row>
-    <row r="774" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="774" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G774" s="3"/>
     </row>
-    <row r="775" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="775" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G775" s="3"/>
     </row>
-    <row r="776" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="776" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G776" s="3"/>
     </row>
-    <row r="777" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="777" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G777" s="3"/>
     </row>
-    <row r="778" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="778" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G778" s="3"/>
     </row>
-    <row r="779" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="779" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G779" s="3"/>
     </row>
-    <row r="780" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="780" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G780" s="3"/>
     </row>
-    <row r="781" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="781" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G781" s="3"/>
     </row>
-    <row r="782" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="782" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G782" s="3"/>
     </row>
-    <row r="783" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="783" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G783" s="3"/>
     </row>
-    <row r="784" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="784" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G784" s="3"/>
     </row>
-    <row r="785" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="785" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G785" s="3"/>
     </row>
-    <row r="786" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="786" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G786" s="3"/>
     </row>
-    <row r="787" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="787" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G787" s="3"/>
     </row>
-    <row r="788" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="788" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G788" s="3"/>
     </row>
-    <row r="789" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="789" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G789" s="3"/>
     </row>
-    <row r="790" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="790" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G790" s="3"/>
     </row>
-    <row r="791" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="791" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G791" s="3"/>
     </row>
-    <row r="792" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="792" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G792" s="3"/>
     </row>
-    <row r="793" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="793" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G793" s="3"/>
     </row>
-    <row r="794" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="794" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G794" s="3"/>
     </row>
-    <row r="795" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="795" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G795" s="3"/>
     </row>
-    <row r="796" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="796" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G796" s="3"/>
     </row>
-    <row r="797" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="797" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G797" s="3"/>
     </row>
-    <row r="798" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="798" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G798" s="3"/>
     </row>
-    <row r="799" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="799" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G799" s="3"/>
     </row>
-    <row r="800" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="800" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G800" s="3"/>
     </row>
-    <row r="801" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="801" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G801" s="3"/>
     </row>
-    <row r="802" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="802" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G802" s="3"/>
     </row>
-    <row r="803" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="803" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G803" s="3"/>
     </row>
-    <row r="804" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="804" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G804" s="3"/>
     </row>
-    <row r="805" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="805" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G805" s="3"/>
     </row>
-    <row r="806" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="806" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G806" s="3"/>
     </row>
-    <row r="807" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="807" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G807" s="3"/>
     </row>
-    <row r="808" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="808" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G808" s="3"/>
     </row>
-    <row r="809" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="809" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G809" s="3"/>
     </row>
-    <row r="810" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="810" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G810" s="3"/>
     </row>
-    <row r="811" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="811" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G811" s="3"/>
     </row>
-    <row r="812" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="812" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G812" s="3"/>
     </row>
-    <row r="813" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="813" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G813" s="3"/>
     </row>
-    <row r="814" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="814" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G814" s="3"/>
     </row>
-    <row r="815" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="815" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G815" s="3"/>
     </row>
-    <row r="816" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="816" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G816" s="3"/>
     </row>
-    <row r="817" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="817" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G817" s="3"/>
     </row>
-    <row r="818" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="818" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G818" s="3"/>
     </row>
-    <row r="819" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="819" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G819" s="3"/>
     </row>
-    <row r="820" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="820" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G820" s="3"/>
     </row>
-    <row r="821" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="821" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G821" s="3"/>
     </row>
-    <row r="822" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="822" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G822" s="3"/>
     </row>
-    <row r="823" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="823" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G823" s="3"/>
     </row>
-    <row r="824" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="824" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G824" s="3"/>
     </row>
-    <row r="825" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="825" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G825" s="3"/>
     </row>
-    <row r="826" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="826" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G826" s="3"/>
     </row>
-    <row r="827" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="827" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G827" s="3"/>
     </row>
-    <row r="828" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="828" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G828" s="3"/>
     </row>
-    <row r="829" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="829" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G829" s="3"/>
     </row>
-    <row r="830" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="830" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G830" s="3"/>
     </row>
-    <row r="831" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="831" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G831" s="3"/>
     </row>
-    <row r="832" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="832" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G832" s="3"/>
     </row>
-    <row r="833" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="833" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G833" s="3"/>
     </row>
-    <row r="834" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="834" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G834" s="3"/>
     </row>
-    <row r="835" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="835" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G835" s="3"/>
     </row>
-    <row r="836" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="836" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G836" s="3"/>
     </row>
-    <row r="837" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="837" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G837" s="3"/>
     </row>
-    <row r="838" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="838" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G838" s="3"/>
     </row>
-    <row r="839" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="839" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G839" s="3"/>
     </row>
-    <row r="840" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="840" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G840" s="3"/>
     </row>
-    <row r="841" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="841" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G841" s="3"/>
     </row>
-    <row r="842" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="842" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G842" s="3"/>
     </row>
-    <row r="843" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="843" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G843" s="3"/>
     </row>
-    <row r="844" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="844" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G844" s="3"/>
     </row>
-    <row r="845" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="845" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G845" s="3"/>
     </row>
-    <row r="846" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="846" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G846" s="3"/>
     </row>
-    <row r="847" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="847" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G847" s="3"/>
     </row>
-    <row r="848" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="848" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G848" s="3"/>
     </row>
-    <row r="849" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="849" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G849" s="3"/>
     </row>
-    <row r="850" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="850" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G850" s="3"/>
     </row>
-    <row r="851" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="851" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G851" s="3"/>
     </row>
-    <row r="852" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="852" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G852" s="3"/>
     </row>
-    <row r="853" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="853" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G853" s="3"/>
     </row>
-    <row r="854" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="854" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G854" s="3"/>
     </row>
-    <row r="855" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="855" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G855" s="3"/>
     </row>
-    <row r="856" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="856" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G856" s="3"/>
     </row>
-    <row r="857" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="857" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G857" s="3"/>
     </row>
-    <row r="858" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="858" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G858" s="3"/>
     </row>
-    <row r="859" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="859" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G859" s="3"/>
     </row>
-    <row r="860" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="860" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G860" s="3"/>
     </row>
-    <row r="861" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="861" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G861" s="3"/>
     </row>
-    <row r="862" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="862" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G862" s="3"/>
     </row>
-    <row r="863" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="863" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G863" s="3"/>
     </row>
-    <row r="864" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="864" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G864" s="3"/>
     </row>
-    <row r="865" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="865" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G865" s="3"/>
     </row>
-    <row r="866" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="866" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G866" s="3"/>
     </row>
-    <row r="867" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="867" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G867" s="3"/>
     </row>
-    <row r="868" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="868" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G868" s="3"/>
     </row>
-    <row r="869" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="869" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G869" s="3"/>
     </row>
-    <row r="870" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="870" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G870" s="3"/>
     </row>
-    <row r="871" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="871" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G871" s="3"/>
     </row>
-    <row r="872" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="872" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G872" s="3"/>
     </row>
-    <row r="873" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="873" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G873" s="3"/>
     </row>
-    <row r="874" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="874" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G874" s="3"/>
     </row>
-    <row r="875" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="875" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G875" s="3"/>
     </row>
-    <row r="876" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="876" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G876" s="3"/>
     </row>
-    <row r="877" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="877" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G877" s="3"/>
     </row>
-    <row r="878" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="878" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G878" s="3"/>
     </row>
-    <row r="879" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="879" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G879" s="3"/>
     </row>
-    <row r="880" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="880" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G880" s="3"/>
     </row>
-    <row r="881" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="881" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G881" s="3"/>
     </row>
-    <row r="882" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="882" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G882" s="3"/>
     </row>
-    <row r="883" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="883" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G883" s="3"/>
     </row>
-    <row r="884" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="884" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G884" s="3"/>
     </row>
-    <row r="885" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="885" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G885" s="3"/>
     </row>
-    <row r="886" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="886" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G886" s="3"/>
     </row>
-    <row r="887" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="887" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G887" s="3"/>
     </row>
-    <row r="888" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="888" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G888" s="3"/>
     </row>
-    <row r="889" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="889" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G889" s="3"/>
     </row>
-    <row r="890" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="890" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G890" s="3"/>
     </row>
-    <row r="891" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="891" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G891" s="3"/>
     </row>
-    <row r="892" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="892" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G892" s="3"/>
     </row>
-    <row r="893" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="893" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G893" s="3"/>
     </row>
-    <row r="894" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="894" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G894" s="3"/>
     </row>
-    <row r="895" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="895" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G895" s="3"/>
     </row>
-    <row r="896" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="896" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G896" s="3"/>
     </row>
-    <row r="897" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="897" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G897" s="3"/>
     </row>
-    <row r="898" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="898" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G898" s="3"/>
     </row>
-    <row r="899" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="899" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G899" s="3"/>
     </row>
-    <row r="900" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="900" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G900" s="3"/>
     </row>
-    <row r="901" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="901" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G901" s="3"/>
     </row>
-    <row r="902" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="902" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G902" s="3"/>
     </row>
-    <row r="903" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="903" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G903" s="3"/>
     </row>
-    <row r="904" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="904" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G904" s="3"/>
     </row>
-    <row r="905" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="905" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G905" s="3"/>
     </row>
-    <row r="906" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="906" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G906" s="3"/>
     </row>
-    <row r="907" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="907" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G907" s="3"/>
     </row>
-    <row r="908" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="908" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G908" s="3"/>
     </row>
-    <row r="909" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="909" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G909" s="3"/>
     </row>
-    <row r="910" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="910" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G910" s="3"/>
     </row>
-    <row r="911" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="911" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G911" s="3"/>
     </row>
-    <row r="912" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="912" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G912" s="3"/>
     </row>
-    <row r="913" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="913" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G913" s="3"/>
     </row>
-    <row r="914" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="914" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G914" s="3"/>
     </row>
-    <row r="915" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="915" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G915" s="3"/>
     </row>
-    <row r="916" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="916" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G916" s="3"/>
     </row>
-    <row r="917" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="917" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G917" s="3"/>
     </row>
-    <row r="918" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="918" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G918" s="3"/>
     </row>
-    <row r="919" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="919" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G919" s="3"/>
     </row>
-    <row r="920" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="920" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G920" s="3"/>
     </row>
-    <row r="921" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="921" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G921" s="3"/>
     </row>
-    <row r="922" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="922" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G922" s="3"/>
     </row>
-    <row r="923" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="923" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G923" s="3"/>
     </row>
-    <row r="924" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="924" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G924" s="3"/>
     </row>
-    <row r="925" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="925" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G925" s="3"/>
     </row>
-    <row r="926" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="926" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G926" s="3"/>
     </row>
-    <row r="927" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="927" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G927" s="3"/>
     </row>
-    <row r="928" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="928" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G928" s="3"/>
     </row>
-    <row r="929" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="929" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G929" s="3"/>
     </row>
-    <row r="930" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="930" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G930" s="3"/>
     </row>
-    <row r="931" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="931" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G931" s="3"/>
     </row>
-    <row r="932" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="932" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G932" s="3"/>
     </row>
-    <row r="933" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="933" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G933" s="3"/>
     </row>
-    <row r="934" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="934" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G934" s="3"/>
     </row>
-    <row r="935" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="935" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G935" s="3"/>
     </row>
-    <row r="936" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="936" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G936" s="3"/>
     </row>
-    <row r="937" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="937" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G937" s="3"/>
     </row>
-    <row r="938" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="938" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G938" s="3"/>
     </row>
-    <row r="939" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="939" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G939" s="3"/>
     </row>
-    <row r="940" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="940" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G940" s="3"/>
     </row>
-    <row r="941" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="941" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G941" s="3"/>
     </row>
-    <row r="942" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="942" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G942" s="3"/>
     </row>
-    <row r="943" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="943" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G943" s="3"/>
     </row>
-    <row r="944" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="944" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G944" s="3"/>
     </row>
-    <row r="945" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="945" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G945" s="3"/>
     </row>
-    <row r="946" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="946" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G946" s="3"/>
     </row>
-    <row r="947" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="947" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G947" s="3"/>
     </row>
-    <row r="948" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="948" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G948" s="3"/>
     </row>
-    <row r="949" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="949" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G949" s="3"/>
     </row>
-    <row r="950" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="950" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G950" s="3"/>
     </row>
-    <row r="951" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="951" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G951" s="3"/>
     </row>
-    <row r="952" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="952" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G952" s="3"/>
     </row>
-    <row r="953" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="953" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G953" s="3"/>
     </row>
-    <row r="954" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="954" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G954" s="3"/>
     </row>
-    <row r="955" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="955" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G955" s="3"/>
     </row>
-    <row r="956" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="956" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G956" s="3"/>
     </row>
-    <row r="957" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="957" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G957" s="3"/>
     </row>
-    <row r="958" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="958" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G958" s="3"/>
     </row>
-    <row r="959" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="959" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G959" s="3"/>
     </row>
-    <row r="960" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="960" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G960" s="3"/>
     </row>
-    <row r="961" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="961" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G961" s="3"/>
     </row>
-    <row r="962" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="962" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G962" s="3"/>
     </row>
-    <row r="963" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="963" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G963" s="3"/>
     </row>
-    <row r="964" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="964" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G964" s="3"/>
     </row>
-    <row r="965" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="965" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G965" s="3"/>
     </row>
-    <row r="966" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="966" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G966" s="3"/>
     </row>
-    <row r="967" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="967" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G967" s="3"/>
     </row>
-    <row r="968" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="968" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G968" s="3"/>
     </row>
-    <row r="969" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="969" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G969" s="3"/>
     </row>
-    <row r="970" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="970" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G970" s="3"/>
     </row>
-    <row r="971" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="971" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G971" s="3"/>
     </row>
-    <row r="972" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="972" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G972" s="3"/>
     </row>
-    <row r="973" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="973" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G973" s="3"/>
     </row>
-    <row r="974" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="974" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G974" s="3"/>
     </row>
-    <row r="975" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="975" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G975" s="3"/>
     </row>
-    <row r="976" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="976" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G976" s="3"/>
     </row>
-    <row r="977" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="977" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G977" s="3"/>
     </row>
-    <row r="978" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="978" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G978" s="3"/>
     </row>
-    <row r="979" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="979" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G979" s="3"/>
     </row>
-    <row r="980" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="980" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G980" s="3"/>
     </row>
-    <row r="981" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="981" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G981" s="3"/>
     </row>
-    <row r="982" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="982" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G982" s="3"/>
     </row>
-    <row r="983" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="983" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G983" s="3"/>
     </row>
-    <row r="984" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="984" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G984" s="3"/>
     </row>
-    <row r="985" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="985" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G985" s="3"/>
     </row>
-    <row r="986" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="986" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G986" s="3"/>
     </row>
-    <row r="987" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="987" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G987" s="3"/>
     </row>
-    <row r="988" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="988" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G988" s="3"/>
     </row>
-    <row r="989" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="989" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G989" s="3"/>
     </row>
-    <row r="990" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="990" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G990" s="3"/>
     </row>
-    <row r="991" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="991" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G991" s="3"/>
     </row>
-    <row r="992" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="992" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G992" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="148">
-    <mergeCell ref="H146:I146"/>
-    <mergeCell ref="H147:I147"/>
-    <mergeCell ref="H148:I148"/>
-    <mergeCell ref="H149:I149"/>
-    <mergeCell ref="H150:I150"/>
-    <mergeCell ref="H141:I141"/>
-    <mergeCell ref="H142:I142"/>
-    <mergeCell ref="H143:I143"/>
-    <mergeCell ref="H144:I144"/>
-    <mergeCell ref="H145:I145"/>
-    <mergeCell ref="H136:I136"/>
-    <mergeCell ref="H137:I137"/>
-    <mergeCell ref="H138:I138"/>
-    <mergeCell ref="H139:I139"/>
-    <mergeCell ref="H140:I140"/>
-    <mergeCell ref="H131:I131"/>
-    <mergeCell ref="H132:I132"/>
-    <mergeCell ref="H133:I133"/>
-    <mergeCell ref="H134:I134"/>
-    <mergeCell ref="H135:I135"/>
-    <mergeCell ref="H126:I126"/>
-    <mergeCell ref="H127:I127"/>
-    <mergeCell ref="H128:I128"/>
-    <mergeCell ref="H129:I129"/>
-    <mergeCell ref="H130:I130"/>
-    <mergeCell ref="H121:I121"/>
-    <mergeCell ref="H122:I122"/>
-    <mergeCell ref="H123:I123"/>
-    <mergeCell ref="H124:I124"/>
-    <mergeCell ref="H125:I125"/>
-    <mergeCell ref="H116:I116"/>
-    <mergeCell ref="H117:I117"/>
-    <mergeCell ref="H118:I118"/>
-    <mergeCell ref="H119:I119"/>
-    <mergeCell ref="H120:I120"/>
-    <mergeCell ref="H111:I111"/>
-    <mergeCell ref="H112:I112"/>
-    <mergeCell ref="H113:I113"/>
-    <mergeCell ref="H114:I114"/>
-    <mergeCell ref="H115:I115"/>
-    <mergeCell ref="H106:I106"/>
-    <mergeCell ref="H107:I107"/>
-    <mergeCell ref="H108:I108"/>
-    <mergeCell ref="H109:I109"/>
-    <mergeCell ref="H110:I110"/>
-    <mergeCell ref="H101:I101"/>
-    <mergeCell ref="H102:I102"/>
-    <mergeCell ref="H103:I103"/>
-    <mergeCell ref="H104:I104"/>
-    <mergeCell ref="H105:I105"/>
-    <mergeCell ref="H96:I96"/>
-    <mergeCell ref="H97:I97"/>
-    <mergeCell ref="H98:I98"/>
-    <mergeCell ref="H99:I99"/>
-    <mergeCell ref="H100:I100"/>
-    <mergeCell ref="H91:I91"/>
-    <mergeCell ref="H92:I92"/>
-    <mergeCell ref="H93:I93"/>
-    <mergeCell ref="H94:I94"/>
-    <mergeCell ref="H95:I95"/>
-    <mergeCell ref="H86:I86"/>
-    <mergeCell ref="H87:I87"/>
-    <mergeCell ref="H88:I88"/>
-    <mergeCell ref="H89:I89"/>
-    <mergeCell ref="H90:I90"/>
-    <mergeCell ref="H81:I81"/>
-    <mergeCell ref="H82:I82"/>
-    <mergeCell ref="H83:I83"/>
-    <mergeCell ref="H84:I84"/>
-    <mergeCell ref="H85:I85"/>
-    <mergeCell ref="H76:I76"/>
-    <mergeCell ref="H77:I77"/>
-    <mergeCell ref="H78:I78"/>
-    <mergeCell ref="H79:I79"/>
-    <mergeCell ref="H80:I80"/>
-    <mergeCell ref="H71:I71"/>
-    <mergeCell ref="H72:I72"/>
-    <mergeCell ref="H73:I73"/>
-    <mergeCell ref="H74:I74"/>
-    <mergeCell ref="H75:I75"/>
-    <mergeCell ref="H66:I66"/>
-    <mergeCell ref="H67:I67"/>
-    <mergeCell ref="H68:I68"/>
-    <mergeCell ref="H69:I69"/>
-    <mergeCell ref="H70:I70"/>
-    <mergeCell ref="H61:I61"/>
-    <mergeCell ref="H62:I62"/>
-    <mergeCell ref="H63:I63"/>
-    <mergeCell ref="H64:I64"/>
-    <mergeCell ref="H65:I65"/>
-    <mergeCell ref="H56:I56"/>
-    <mergeCell ref="H57:I57"/>
-    <mergeCell ref="H58:I58"/>
-    <mergeCell ref="H59:I59"/>
-    <mergeCell ref="H60:I60"/>
-    <mergeCell ref="H51:I51"/>
-    <mergeCell ref="H52:I52"/>
-    <mergeCell ref="H53:I53"/>
-    <mergeCell ref="H54:I54"/>
-    <mergeCell ref="H55:I55"/>
-    <mergeCell ref="H46:I46"/>
-    <mergeCell ref="H47:I47"/>
-    <mergeCell ref="H48:I48"/>
-    <mergeCell ref="H49:I49"/>
-    <mergeCell ref="H50:I50"/>
-    <mergeCell ref="H41:I41"/>
-    <mergeCell ref="H42:I42"/>
-    <mergeCell ref="H43:I43"/>
-    <mergeCell ref="H44:I44"/>
-    <mergeCell ref="H45:I45"/>
-    <mergeCell ref="H36:I36"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="H38:I38"/>
-    <mergeCell ref="H39:I39"/>
-    <mergeCell ref="H40:I40"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="A20:I20"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="H25:I25"/>
     <mergeCell ref="H15:I15"/>
     <mergeCell ref="H16:I16"/>
     <mergeCell ref="H17:I17"/>
@@ -6762,6 +6655,136 @@
     <mergeCell ref="H12:I12"/>
     <mergeCell ref="H13:I13"/>
     <mergeCell ref="H14:I14"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="A20:I20"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="H36:I36"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="H46:I46"/>
+    <mergeCell ref="H47:I47"/>
+    <mergeCell ref="H48:I48"/>
+    <mergeCell ref="H49:I49"/>
+    <mergeCell ref="H50:I50"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="H42:I42"/>
+    <mergeCell ref="H43:I43"/>
+    <mergeCell ref="H44:I44"/>
+    <mergeCell ref="H45:I45"/>
+    <mergeCell ref="H56:I56"/>
+    <mergeCell ref="H57:I57"/>
+    <mergeCell ref="H58:I58"/>
+    <mergeCell ref="H59:I59"/>
+    <mergeCell ref="H60:I60"/>
+    <mergeCell ref="H51:I51"/>
+    <mergeCell ref="H52:I52"/>
+    <mergeCell ref="H53:I53"/>
+    <mergeCell ref="H54:I54"/>
+    <mergeCell ref="H55:I55"/>
+    <mergeCell ref="H66:I66"/>
+    <mergeCell ref="H67:I67"/>
+    <mergeCell ref="H68:I68"/>
+    <mergeCell ref="H69:I69"/>
+    <mergeCell ref="H70:I70"/>
+    <mergeCell ref="H61:I61"/>
+    <mergeCell ref="H62:I62"/>
+    <mergeCell ref="H63:I63"/>
+    <mergeCell ref="H64:I64"/>
+    <mergeCell ref="H65:I65"/>
+    <mergeCell ref="H76:I76"/>
+    <mergeCell ref="H77:I77"/>
+    <mergeCell ref="H78:I78"/>
+    <mergeCell ref="H79:I79"/>
+    <mergeCell ref="H80:I80"/>
+    <mergeCell ref="H71:I71"/>
+    <mergeCell ref="H72:I72"/>
+    <mergeCell ref="H73:I73"/>
+    <mergeCell ref="H74:I74"/>
+    <mergeCell ref="H75:I75"/>
+    <mergeCell ref="H86:I86"/>
+    <mergeCell ref="H87:I87"/>
+    <mergeCell ref="H88:I88"/>
+    <mergeCell ref="H89:I89"/>
+    <mergeCell ref="H90:I90"/>
+    <mergeCell ref="H81:I81"/>
+    <mergeCell ref="H82:I82"/>
+    <mergeCell ref="H83:I83"/>
+    <mergeCell ref="H84:I84"/>
+    <mergeCell ref="H85:I85"/>
+    <mergeCell ref="H96:I96"/>
+    <mergeCell ref="H97:I97"/>
+    <mergeCell ref="H98:I98"/>
+    <mergeCell ref="H99:I99"/>
+    <mergeCell ref="H100:I100"/>
+    <mergeCell ref="H91:I91"/>
+    <mergeCell ref="H92:I92"/>
+    <mergeCell ref="H93:I93"/>
+    <mergeCell ref="H94:I94"/>
+    <mergeCell ref="H95:I95"/>
+    <mergeCell ref="H106:I106"/>
+    <mergeCell ref="H107:I107"/>
+    <mergeCell ref="H108:I108"/>
+    <mergeCell ref="H109:I109"/>
+    <mergeCell ref="H110:I110"/>
+    <mergeCell ref="H101:I101"/>
+    <mergeCell ref="H102:I102"/>
+    <mergeCell ref="H103:I103"/>
+    <mergeCell ref="H104:I104"/>
+    <mergeCell ref="H105:I105"/>
+    <mergeCell ref="H116:I116"/>
+    <mergeCell ref="H117:I117"/>
+    <mergeCell ref="H118:I118"/>
+    <mergeCell ref="H119:I119"/>
+    <mergeCell ref="H120:I120"/>
+    <mergeCell ref="H111:I111"/>
+    <mergeCell ref="H112:I112"/>
+    <mergeCell ref="H113:I113"/>
+    <mergeCell ref="H114:I114"/>
+    <mergeCell ref="H115:I115"/>
+    <mergeCell ref="H126:I126"/>
+    <mergeCell ref="H127:I127"/>
+    <mergeCell ref="H128:I128"/>
+    <mergeCell ref="H129:I129"/>
+    <mergeCell ref="H130:I130"/>
+    <mergeCell ref="H121:I121"/>
+    <mergeCell ref="H122:I122"/>
+    <mergeCell ref="H123:I123"/>
+    <mergeCell ref="H124:I124"/>
+    <mergeCell ref="H125:I125"/>
+    <mergeCell ref="H136:I136"/>
+    <mergeCell ref="H137:I137"/>
+    <mergeCell ref="H138:I138"/>
+    <mergeCell ref="H139:I139"/>
+    <mergeCell ref="H140:I140"/>
+    <mergeCell ref="H131:I131"/>
+    <mergeCell ref="H132:I132"/>
+    <mergeCell ref="H133:I133"/>
+    <mergeCell ref="H134:I134"/>
+    <mergeCell ref="H135:I135"/>
+    <mergeCell ref="H146:I146"/>
+    <mergeCell ref="H147:I147"/>
+    <mergeCell ref="H148:I148"/>
+    <mergeCell ref="H149:I149"/>
+    <mergeCell ref="H150:I150"/>
+    <mergeCell ref="H141:I141"/>
+    <mergeCell ref="H142:I142"/>
+    <mergeCell ref="H143:I143"/>
+    <mergeCell ref="H144:I144"/>
+    <mergeCell ref="H145:I145"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G1 G3:G19 G21:G992" xr:uid="{00000000-0002-0000-0000-000000000000}">

--- a/Requirments/Review.xlsx
+++ b/Requirments/Review.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ITI\QA\Online-Mobile-Store-WebSite\Requirments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38397C7D-5CD8-443C-96EB-8EE990AB78D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4001BDF2-0B72-4CEA-898E-7DEA0CA73C18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="77">
   <si>
     <t>ID</t>
   </si>
@@ -248,6 +248,10 @@
   </si>
   <si>
     <t>In naming convention why we add color??</t>
+  </si>
+  <si>
+    <t xml:space="preserve">user can increment 
+or decrement product count </t>
   </si>
 </sst>
 </file>
@@ -434,7 +438,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -483,6 +487,11 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -492,13 +501,11 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -719,8 +726,8 @@
   </sheetPr>
   <dimension ref="A1:AC992"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B17" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView tabSelected="1" topLeftCell="E15" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22:I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -732,6 +739,7 @@
     <col min="5" max="5" width="94.28515625" customWidth="1"/>
     <col min="6" max="6" width="25.85546875" customWidth="1"/>
     <col min="7" max="7" width="18.5703125" customWidth="1"/>
+    <col min="9" max="9" width="25.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="36" customHeight="1" x14ac:dyDescent="0.4">
@@ -756,7 +764,7 @@
       <c r="G1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="29" t="s">
+      <c r="H1" s="26" t="s">
         <v>71</v>
       </c>
       <c r="I1" s="25"/>
@@ -782,17 +790,17 @@
       <c r="AC1" s="2"/>
     </row>
     <row r="2" spans="1:29" ht="36" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="31" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="28"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="33"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
       <c r="L2" s="2"/>
@@ -836,8 +844,8 @@
       <c r="G3" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="30"/>
-      <c r="I3" s="31"/>
+      <c r="H3" s="34"/>
+      <c r="I3" s="35"/>
     </row>
     <row r="4" spans="1:29" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
@@ -861,8 +869,8 @@
       <c r="G4" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="H4" s="30"/>
-      <c r="I4" s="31"/>
+      <c r="H4" s="34"/>
+      <c r="I4" s="35"/>
     </row>
     <row r="5" spans="1:29" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
@@ -886,8 +894,8 @@
       <c r="G5" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="H5" s="30"/>
-      <c r="I5" s="31"/>
+      <c r="H5" s="34"/>
+      <c r="I5" s="35"/>
     </row>
     <row r="6" spans="1:29" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
@@ -911,8 +919,8 @@
       <c r="G6" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="H6" s="30"/>
-      <c r="I6" s="31"/>
+      <c r="H6" s="34"/>
+      <c r="I6" s="35"/>
     </row>
     <row r="7" spans="1:29" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
@@ -936,8 +944,8 @@
       <c r="G7" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="H7" s="30"/>
-      <c r="I7" s="31"/>
+      <c r="H7" s="34"/>
+      <c r="I7" s="35"/>
     </row>
     <row r="8" spans="1:29" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
@@ -961,8 +969,8 @@
       <c r="G8" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="H8" s="30"/>
-      <c r="I8" s="31"/>
+      <c r="H8" s="34"/>
+      <c r="I8" s="35"/>
     </row>
     <row r="9" spans="1:29" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
@@ -986,8 +994,8 @@
       <c r="G9" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="H9" s="30"/>
-      <c r="I9" s="31"/>
+      <c r="H9" s="34"/>
+      <c r="I9" s="35"/>
     </row>
     <row r="10" spans="1:29" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
@@ -1011,8 +1019,8 @@
       <c r="G10" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="H10" s="30"/>
-      <c r="I10" s="31"/>
+      <c r="H10" s="34"/>
+      <c r="I10" s="35"/>
     </row>
     <row r="11" spans="1:29" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
@@ -1036,8 +1044,8 @@
       <c r="G11" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="H11" s="30"/>
-      <c r="I11" s="31"/>
+      <c r="H11" s="34"/>
+      <c r="I11" s="35"/>
     </row>
     <row r="12" spans="1:29" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
@@ -1061,8 +1069,8 @@
       <c r="G12" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="H12" s="30"/>
-      <c r="I12" s="31"/>
+      <c r="H12" s="34"/>
+      <c r="I12" s="35"/>
     </row>
     <row r="13" spans="1:29" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
@@ -1086,8 +1094,8 @@
       <c r="G13" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="H13" s="30"/>
-      <c r="I13" s="31"/>
+      <c r="H13" s="34"/>
+      <c r="I13" s="35"/>
     </row>
     <row r="14" spans="1:29" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
@@ -1111,8 +1119,8 @@
       <c r="G14" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="H14" s="30"/>
-      <c r="I14" s="31"/>
+      <c r="H14" s="34"/>
+      <c r="I14" s="35"/>
     </row>
     <row r="15" spans="1:29" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
@@ -1134,8 +1142,8 @@
       <c r="G15" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="H15" s="30"/>
-      <c r="I15" s="31"/>
+      <c r="H15" s="34"/>
+      <c r="I15" s="35"/>
     </row>
     <row r="16" spans="1:29" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
@@ -1159,8 +1167,8 @@
       <c r="G16" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="H16" s="30"/>
-      <c r="I16" s="31"/>
+      <c r="H16" s="34"/>
+      <c r="I16" s="35"/>
     </row>
     <row r="17" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
@@ -1184,8 +1192,8 @@
       <c r="G17" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="H17" s="30"/>
-      <c r="I17" s="31"/>
+      <c r="H17" s="34"/>
+      <c r="I17" s="35"/>
     </row>
     <row r="18" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
@@ -1209,8 +1217,8 @@
       <c r="G18" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="H18" s="30"/>
-      <c r="I18" s="31"/>
+      <c r="H18" s="34"/>
+      <c r="I18" s="35"/>
     </row>
     <row r="19" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A19" s="16" t="s">
@@ -1234,23 +1242,23 @@
       <c r="G19" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="H19" s="30"/>
-      <c r="I19" s="31"/>
+      <c r="H19" s="34"/>
+      <c r="I19" s="35"/>
     </row>
     <row r="20" spans="1:9" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A20" s="26" t="s">
+      <c r="A20" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="B20" s="27"/>
-      <c r="C20" s="27"/>
-      <c r="D20" s="27"/>
-      <c r="E20" s="27"/>
-      <c r="F20" s="27"/>
-      <c r="G20" s="27"/>
-      <c r="H20" s="27"/>
-      <c r="I20" s="28"/>
-    </row>
-    <row r="21" spans="1:9" s="17" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B20" s="32"/>
+      <c r="C20" s="32"/>
+      <c r="D20" s="32"/>
+      <c r="E20" s="32"/>
+      <c r="F20" s="32"/>
+      <c r="G20" s="32"/>
+      <c r="H20" s="32"/>
+      <c r="I20" s="33"/>
+    </row>
+    <row r="21" spans="1:9" s="17" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="14" t="s">
         <v>55</v>
       </c>
@@ -1270,10 +1278,12 @@
         <v>61</v>
       </c>
       <c r="G21" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="H21" s="32"/>
-      <c r="I21" s="33"/>
+        <v>12</v>
+      </c>
+      <c r="H21" s="36" t="s">
+        <v>76</v>
+      </c>
+      <c r="I21" s="30"/>
     </row>
     <row r="22" spans="1:9" s="20" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A22" s="21" t="s">
@@ -1297,8 +1307,8 @@
       <c r="G22" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="H22" s="32"/>
-      <c r="I22" s="33"/>
+      <c r="H22" s="29"/>
+      <c r="I22" s="30"/>
     </row>
     <row r="23" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A23" s="14" t="s">
@@ -1322,8 +1332,8 @@
       <c r="G23" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="H23" s="32"/>
-      <c r="I23" s="33"/>
+      <c r="H23" s="29"/>
+      <c r="I23" s="30"/>
     </row>
     <row r="24" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A24" s="14" t="s">
@@ -1347,8 +1357,8 @@
       <c r="G24" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="H24" s="34"/>
-      <c r="I24" s="35"/>
+      <c r="H24" s="27"/>
+      <c r="I24" s="28"/>
     </row>
     <row r="25" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A25" s="14" t="s">
@@ -1372,8 +1382,8 @@
       <c r="G25" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="H25" s="32"/>
-      <c r="I25" s="33"/>
+      <c r="H25" s="29"/>
+      <c r="I25" s="30"/>
     </row>
     <row r="26" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A26" s="14"/>
@@ -1383,8 +1393,8 @@
       <c r="E26" s="14"/>
       <c r="F26" s="14"/>
       <c r="G26" s="16"/>
-      <c r="H26" s="32"/>
-      <c r="I26" s="33"/>
+      <c r="H26" s="29"/>
+      <c r="I26" s="30"/>
     </row>
     <row r="27" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A27" s="14"/>
@@ -1394,8 +1404,8 @@
       <c r="E27" s="14"/>
       <c r="F27" s="14"/>
       <c r="G27" s="16"/>
-      <c r="H27" s="32"/>
-      <c r="I27" s="33"/>
+      <c r="H27" s="29"/>
+      <c r="I27" s="30"/>
     </row>
     <row r="28" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A28" s="14"/>
@@ -1405,8 +1415,8 @@
       <c r="E28" s="14"/>
       <c r="F28" s="14"/>
       <c r="G28" s="16"/>
-      <c r="H28" s="32"/>
-      <c r="I28" s="33"/>
+      <c r="H28" s="29"/>
+      <c r="I28" s="30"/>
     </row>
     <row r="29" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A29" s="14"/>
@@ -1416,8 +1426,8 @@
       <c r="E29" s="14"/>
       <c r="F29" s="14"/>
       <c r="G29" s="16"/>
-      <c r="H29" s="32"/>
-      <c r="I29" s="33"/>
+      <c r="H29" s="29"/>
+      <c r="I29" s="30"/>
     </row>
     <row r="30" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A30" s="14"/>
@@ -1427,8 +1437,8 @@
       <c r="E30" s="14"/>
       <c r="F30" s="14"/>
       <c r="G30" s="16"/>
-      <c r="H30" s="32"/>
-      <c r="I30" s="33"/>
+      <c r="H30" s="29"/>
+      <c r="I30" s="30"/>
     </row>
     <row r="31" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A31" s="14"/>
@@ -1438,8 +1448,8 @@
       <c r="E31" s="14"/>
       <c r="F31" s="14"/>
       <c r="G31" s="16"/>
-      <c r="H31" s="32"/>
-      <c r="I31" s="33"/>
+      <c r="H31" s="29"/>
+      <c r="I31" s="30"/>
     </row>
     <row r="32" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A32" s="14"/>
@@ -1449,8 +1459,8 @@
       <c r="E32" s="14"/>
       <c r="F32" s="14"/>
       <c r="G32" s="16"/>
-      <c r="H32" s="32"/>
-      <c r="I32" s="33"/>
+      <c r="H32" s="29"/>
+      <c r="I32" s="30"/>
     </row>
     <row r="33" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A33" s="14"/>
@@ -1460,8 +1470,8 @@
       <c r="E33" s="14"/>
       <c r="F33" s="14"/>
       <c r="G33" s="16"/>
-      <c r="H33" s="32"/>
-      <c r="I33" s="33"/>
+      <c r="H33" s="29"/>
+      <c r="I33" s="30"/>
     </row>
     <row r="34" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A34" s="14"/>
@@ -1471,8 +1481,8 @@
       <c r="E34" s="14"/>
       <c r="F34" s="14"/>
       <c r="G34" s="16"/>
-      <c r="H34" s="32"/>
-      <c r="I34" s="33"/>
+      <c r="H34" s="29"/>
+      <c r="I34" s="30"/>
     </row>
     <row r="35" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A35" s="14"/>
@@ -1482,8 +1492,8 @@
       <c r="E35" s="14"/>
       <c r="F35" s="14"/>
       <c r="G35" s="16"/>
-      <c r="H35" s="32"/>
-      <c r="I35" s="33"/>
+      <c r="H35" s="29"/>
+      <c r="I35" s="30"/>
     </row>
     <row r="36" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A36" s="14"/>
@@ -1493,8 +1503,8 @@
       <c r="E36" s="14"/>
       <c r="F36" s="14"/>
       <c r="G36" s="16"/>
-      <c r="H36" s="32"/>
-      <c r="I36" s="33"/>
+      <c r="H36" s="29"/>
+      <c r="I36" s="30"/>
     </row>
     <row r="37" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A37" s="14"/>
@@ -1504,8 +1514,8 @@
       <c r="E37" s="14"/>
       <c r="F37" s="14"/>
       <c r="G37" s="16"/>
-      <c r="H37" s="32"/>
-      <c r="I37" s="33"/>
+      <c r="H37" s="29"/>
+      <c r="I37" s="30"/>
     </row>
     <row r="38" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A38" s="14"/>
@@ -1515,8 +1525,8 @@
       <c r="E38" s="14"/>
       <c r="F38" s="14"/>
       <c r="G38" s="16"/>
-      <c r="H38" s="32"/>
-      <c r="I38" s="33"/>
+      <c r="H38" s="29"/>
+      <c r="I38" s="30"/>
     </row>
     <row r="39" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A39" s="14"/>
@@ -1526,8 +1536,8 @@
       <c r="E39" s="14"/>
       <c r="F39" s="14"/>
       <c r="G39" s="16"/>
-      <c r="H39" s="32"/>
-      <c r="I39" s="33"/>
+      <c r="H39" s="29"/>
+      <c r="I39" s="30"/>
     </row>
     <row r="40" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A40" s="14"/>
@@ -1537,8 +1547,8 @@
       <c r="E40" s="14"/>
       <c r="F40" s="14"/>
       <c r="G40" s="16"/>
-      <c r="H40" s="32"/>
-      <c r="I40" s="33"/>
+      <c r="H40" s="29"/>
+      <c r="I40" s="30"/>
     </row>
     <row r="41" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A41" s="14"/>
@@ -1548,8 +1558,8 @@
       <c r="E41" s="14"/>
       <c r="F41" s="14"/>
       <c r="G41" s="16"/>
-      <c r="H41" s="32"/>
-      <c r="I41" s="33"/>
+      <c r="H41" s="29"/>
+      <c r="I41" s="30"/>
     </row>
     <row r="42" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A42" s="14"/>
@@ -1559,8 +1569,8 @@
       <c r="E42" s="14"/>
       <c r="F42" s="14"/>
       <c r="G42" s="16"/>
-      <c r="H42" s="32"/>
-      <c r="I42" s="33"/>
+      <c r="H42" s="29"/>
+      <c r="I42" s="30"/>
     </row>
     <row r="43" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A43" s="14"/>
@@ -1570,8 +1580,8 @@
       <c r="E43" s="14"/>
       <c r="F43" s="14"/>
       <c r="G43" s="16"/>
-      <c r="H43" s="32"/>
-      <c r="I43" s="33"/>
+      <c r="H43" s="29"/>
+      <c r="I43" s="30"/>
     </row>
     <row r="44" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A44" s="14"/>
@@ -1581,8 +1591,8 @@
       <c r="E44" s="14"/>
       <c r="F44" s="14"/>
       <c r="G44" s="16"/>
-      <c r="H44" s="32"/>
-      <c r="I44" s="33"/>
+      <c r="H44" s="29"/>
+      <c r="I44" s="30"/>
     </row>
     <row r="45" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A45" s="14"/>
@@ -1592,8 +1602,8 @@
       <c r="E45" s="14"/>
       <c r="F45" s="14"/>
       <c r="G45" s="16"/>
-      <c r="H45" s="32"/>
-      <c r="I45" s="33"/>
+      <c r="H45" s="29"/>
+      <c r="I45" s="30"/>
     </row>
     <row r="46" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A46" s="14"/>
@@ -1603,8 +1613,8 @@
       <c r="E46" s="14"/>
       <c r="F46" s="14"/>
       <c r="G46" s="16"/>
-      <c r="H46" s="32"/>
-      <c r="I46" s="33"/>
+      <c r="H46" s="29"/>
+      <c r="I46" s="30"/>
     </row>
     <row r="47" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A47" s="14"/>
@@ -1614,8 +1624,8 @@
       <c r="E47" s="14"/>
       <c r="F47" s="14"/>
       <c r="G47" s="16"/>
-      <c r="H47" s="32"/>
-      <c r="I47" s="33"/>
+      <c r="H47" s="29"/>
+      <c r="I47" s="30"/>
     </row>
     <row r="48" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A48" s="14"/>
@@ -1625,8 +1635,8 @@
       <c r="E48" s="14"/>
       <c r="F48" s="14"/>
       <c r="G48" s="16"/>
-      <c r="H48" s="32"/>
-      <c r="I48" s="33"/>
+      <c r="H48" s="29"/>
+      <c r="I48" s="30"/>
     </row>
     <row r="49" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A49" s="14"/>
@@ -1636,8 +1646,8 @@
       <c r="E49" s="14"/>
       <c r="F49" s="14"/>
       <c r="G49" s="16"/>
-      <c r="H49" s="32"/>
-      <c r="I49" s="33"/>
+      <c r="H49" s="29"/>
+      <c r="I49" s="30"/>
     </row>
     <row r="50" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A50" s="14"/>
@@ -1647,8 +1657,8 @@
       <c r="E50" s="14"/>
       <c r="F50" s="14"/>
       <c r="G50" s="16"/>
-      <c r="H50" s="32"/>
-      <c r="I50" s="33"/>
+      <c r="H50" s="29"/>
+      <c r="I50" s="30"/>
     </row>
     <row r="51" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A51" s="14"/>
@@ -1658,8 +1668,8 @@
       <c r="E51" s="14"/>
       <c r="F51" s="14"/>
       <c r="G51" s="16"/>
-      <c r="H51" s="32"/>
-      <c r="I51" s="33"/>
+      <c r="H51" s="29"/>
+      <c r="I51" s="30"/>
     </row>
     <row r="52" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A52" s="14"/>
@@ -1669,8 +1679,8 @@
       <c r="E52" s="14"/>
       <c r="F52" s="14"/>
       <c r="G52" s="16"/>
-      <c r="H52" s="32"/>
-      <c r="I52" s="33"/>
+      <c r="H52" s="29"/>
+      <c r="I52" s="30"/>
     </row>
     <row r="53" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A53" s="14"/>
@@ -1680,8 +1690,8 @@
       <c r="E53" s="14"/>
       <c r="F53" s="14"/>
       <c r="G53" s="16"/>
-      <c r="H53" s="32"/>
-      <c r="I53" s="33"/>
+      <c r="H53" s="29"/>
+      <c r="I53" s="30"/>
     </row>
     <row r="54" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A54" s="14"/>
@@ -1691,8 +1701,8 @@
       <c r="E54" s="14"/>
       <c r="F54" s="14"/>
       <c r="G54" s="16"/>
-      <c r="H54" s="32"/>
-      <c r="I54" s="33"/>
+      <c r="H54" s="29"/>
+      <c r="I54" s="30"/>
     </row>
     <row r="55" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A55" s="14"/>
@@ -1702,8 +1712,8 @@
       <c r="E55" s="14"/>
       <c r="F55" s="14"/>
       <c r="G55" s="16"/>
-      <c r="H55" s="32"/>
-      <c r="I55" s="33"/>
+      <c r="H55" s="29"/>
+      <c r="I55" s="30"/>
     </row>
     <row r="56" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A56" s="14"/>
@@ -1713,8 +1723,8 @@
       <c r="E56" s="14"/>
       <c r="F56" s="14"/>
       <c r="G56" s="16"/>
-      <c r="H56" s="32"/>
-      <c r="I56" s="33"/>
+      <c r="H56" s="29"/>
+      <c r="I56" s="30"/>
     </row>
     <row r="57" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A57" s="14"/>
@@ -1724,8 +1734,8 @@
       <c r="E57" s="14"/>
       <c r="F57" s="14"/>
       <c r="G57" s="16"/>
-      <c r="H57" s="32"/>
-      <c r="I57" s="33"/>
+      <c r="H57" s="29"/>
+      <c r="I57" s="30"/>
     </row>
     <row r="58" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A58" s="14"/>
@@ -1735,8 +1745,8 @@
       <c r="E58" s="14"/>
       <c r="F58" s="14"/>
       <c r="G58" s="16"/>
-      <c r="H58" s="32"/>
-      <c r="I58" s="33"/>
+      <c r="H58" s="29"/>
+      <c r="I58" s="30"/>
     </row>
     <row r="59" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A59" s="14"/>
@@ -1746,8 +1756,8 @@
       <c r="E59" s="14"/>
       <c r="F59" s="14"/>
       <c r="G59" s="16"/>
-      <c r="H59" s="32"/>
-      <c r="I59" s="33"/>
+      <c r="H59" s="29"/>
+      <c r="I59" s="30"/>
     </row>
     <row r="60" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A60" s="14"/>
@@ -1757,8 +1767,8 @@
       <c r="E60" s="14"/>
       <c r="F60" s="14"/>
       <c r="G60" s="16"/>
-      <c r="H60" s="32"/>
-      <c r="I60" s="33"/>
+      <c r="H60" s="29"/>
+      <c r="I60" s="30"/>
     </row>
     <row r="61" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A61" s="14"/>
@@ -1768,8 +1778,8 @@
       <c r="E61" s="14"/>
       <c r="F61" s="14"/>
       <c r="G61" s="16"/>
-      <c r="H61" s="32"/>
-      <c r="I61" s="33"/>
+      <c r="H61" s="29"/>
+      <c r="I61" s="30"/>
     </row>
     <row r="62" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A62" s="14"/>
@@ -1779,8 +1789,8 @@
       <c r="E62" s="14"/>
       <c r="F62" s="14"/>
       <c r="G62" s="16"/>
-      <c r="H62" s="32"/>
-      <c r="I62" s="33"/>
+      <c r="H62" s="29"/>
+      <c r="I62" s="30"/>
     </row>
     <row r="63" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A63" s="14"/>
@@ -1790,8 +1800,8 @@
       <c r="E63" s="14"/>
       <c r="F63" s="14"/>
       <c r="G63" s="16"/>
-      <c r="H63" s="32"/>
-      <c r="I63" s="33"/>
+      <c r="H63" s="29"/>
+      <c r="I63" s="30"/>
     </row>
     <row r="64" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A64" s="14"/>
@@ -1801,8 +1811,8 @@
       <c r="E64" s="14"/>
       <c r="F64" s="14"/>
       <c r="G64" s="16"/>
-      <c r="H64" s="32"/>
-      <c r="I64" s="33"/>
+      <c r="H64" s="29"/>
+      <c r="I64" s="30"/>
     </row>
     <row r="65" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A65" s="14"/>
@@ -1812,8 +1822,8 @@
       <c r="E65" s="14"/>
       <c r="F65" s="14"/>
       <c r="G65" s="16"/>
-      <c r="H65" s="32"/>
-      <c r="I65" s="33"/>
+      <c r="H65" s="29"/>
+      <c r="I65" s="30"/>
     </row>
     <row r="66" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A66" s="14"/>
@@ -1823,8 +1833,8 @@
       <c r="E66" s="14"/>
       <c r="F66" s="14"/>
       <c r="G66" s="16"/>
-      <c r="H66" s="32"/>
-      <c r="I66" s="33"/>
+      <c r="H66" s="29"/>
+      <c r="I66" s="30"/>
     </row>
     <row r="67" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A67" s="14"/>
@@ -1834,8 +1844,8 @@
       <c r="E67" s="14"/>
       <c r="F67" s="14"/>
       <c r="G67" s="16"/>
-      <c r="H67" s="32"/>
-      <c r="I67" s="33"/>
+      <c r="H67" s="29"/>
+      <c r="I67" s="30"/>
     </row>
     <row r="68" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A68" s="14"/>
@@ -1845,8 +1855,8 @@
       <c r="E68" s="14"/>
       <c r="F68" s="14"/>
       <c r="G68" s="16"/>
-      <c r="H68" s="32"/>
-      <c r="I68" s="33"/>
+      <c r="H68" s="29"/>
+      <c r="I68" s="30"/>
     </row>
     <row r="69" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A69" s="14"/>
@@ -1856,8 +1866,8 @@
       <c r="E69" s="14"/>
       <c r="F69" s="14"/>
       <c r="G69" s="16"/>
-      <c r="H69" s="32"/>
-      <c r="I69" s="33"/>
+      <c r="H69" s="29"/>
+      <c r="I69" s="30"/>
     </row>
     <row r="70" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A70" s="14"/>
@@ -1867,8 +1877,8 @@
       <c r="E70" s="14"/>
       <c r="F70" s="14"/>
       <c r="G70" s="16"/>
-      <c r="H70" s="32"/>
-      <c r="I70" s="33"/>
+      <c r="H70" s="29"/>
+      <c r="I70" s="30"/>
     </row>
     <row r="71" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A71" s="14"/>
@@ -1878,8 +1888,8 @@
       <c r="E71" s="14"/>
       <c r="F71" s="14"/>
       <c r="G71" s="16"/>
-      <c r="H71" s="32"/>
-      <c r="I71" s="33"/>
+      <c r="H71" s="29"/>
+      <c r="I71" s="30"/>
     </row>
     <row r="72" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A72" s="14"/>
@@ -1889,8 +1899,8 @@
       <c r="E72" s="14"/>
       <c r="F72" s="14"/>
       <c r="G72" s="16"/>
-      <c r="H72" s="32"/>
-      <c r="I72" s="33"/>
+      <c r="H72" s="29"/>
+      <c r="I72" s="30"/>
     </row>
     <row r="73" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A73" s="14"/>
@@ -1900,8 +1910,8 @@
       <c r="E73" s="14"/>
       <c r="F73" s="14"/>
       <c r="G73" s="16"/>
-      <c r="H73" s="32"/>
-      <c r="I73" s="33"/>
+      <c r="H73" s="29"/>
+      <c r="I73" s="30"/>
     </row>
     <row r="74" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A74" s="14"/>
@@ -1911,8 +1921,8 @@
       <c r="E74" s="14"/>
       <c r="F74" s="14"/>
       <c r="G74" s="16"/>
-      <c r="H74" s="32"/>
-      <c r="I74" s="33"/>
+      <c r="H74" s="29"/>
+      <c r="I74" s="30"/>
     </row>
     <row r="75" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A75" s="14"/>
@@ -1922,8 +1932,8 @@
       <c r="E75" s="14"/>
       <c r="F75" s="14"/>
       <c r="G75" s="16"/>
-      <c r="H75" s="32"/>
-      <c r="I75" s="33"/>
+      <c r="H75" s="29"/>
+      <c r="I75" s="30"/>
     </row>
     <row r="76" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A76" s="14"/>
@@ -1933,8 +1943,8 @@
       <c r="E76" s="14"/>
       <c r="F76" s="14"/>
       <c r="G76" s="16"/>
-      <c r="H76" s="32"/>
-      <c r="I76" s="33"/>
+      <c r="H76" s="29"/>
+      <c r="I76" s="30"/>
     </row>
     <row r="77" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A77" s="14"/>
@@ -1944,8 +1954,8 @@
       <c r="E77" s="14"/>
       <c r="F77" s="14"/>
       <c r="G77" s="16"/>
-      <c r="H77" s="32"/>
-      <c r="I77" s="33"/>
+      <c r="H77" s="29"/>
+      <c r="I77" s="30"/>
     </row>
     <row r="78" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A78" s="14"/>
@@ -1955,8 +1965,8 @@
       <c r="E78" s="14"/>
       <c r="F78" s="14"/>
       <c r="G78" s="16"/>
-      <c r="H78" s="32"/>
-      <c r="I78" s="33"/>
+      <c r="H78" s="29"/>
+      <c r="I78" s="30"/>
     </row>
     <row r="79" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A79" s="14"/>
@@ -1966,8 +1976,8 @@
       <c r="E79" s="14"/>
       <c r="F79" s="14"/>
       <c r="G79" s="16"/>
-      <c r="H79" s="32"/>
-      <c r="I79" s="33"/>
+      <c r="H79" s="29"/>
+      <c r="I79" s="30"/>
     </row>
     <row r="80" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A80" s="14"/>
@@ -1977,8 +1987,8 @@
       <c r="E80" s="14"/>
       <c r="F80" s="14"/>
       <c r="G80" s="16"/>
-      <c r="H80" s="32"/>
-      <c r="I80" s="33"/>
+      <c r="H80" s="29"/>
+      <c r="I80" s="30"/>
     </row>
     <row r="81" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A81" s="14"/>
@@ -1988,8 +1998,8 @@
       <c r="E81" s="14"/>
       <c r="F81" s="14"/>
       <c r="G81" s="16"/>
-      <c r="H81" s="32"/>
-      <c r="I81" s="33"/>
+      <c r="H81" s="29"/>
+      <c r="I81" s="30"/>
     </row>
     <row r="82" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A82" s="14"/>
@@ -1999,8 +2009,8 @@
       <c r="E82" s="14"/>
       <c r="F82" s="14"/>
       <c r="G82" s="16"/>
-      <c r="H82" s="32"/>
-      <c r="I82" s="33"/>
+      <c r="H82" s="29"/>
+      <c r="I82" s="30"/>
     </row>
     <row r="83" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A83" s="14"/>
@@ -2010,8 +2020,8 @@
       <c r="E83" s="14"/>
       <c r="F83" s="14"/>
       <c r="G83" s="16"/>
-      <c r="H83" s="32"/>
-      <c r="I83" s="33"/>
+      <c r="H83" s="29"/>
+      <c r="I83" s="30"/>
     </row>
     <row r="84" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A84" s="14"/>
@@ -2021,8 +2031,8 @@
       <c r="E84" s="14"/>
       <c r="F84" s="14"/>
       <c r="G84" s="16"/>
-      <c r="H84" s="32"/>
-      <c r="I84" s="33"/>
+      <c r="H84" s="29"/>
+      <c r="I84" s="30"/>
     </row>
     <row r="85" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A85" s="14"/>
@@ -2032,8 +2042,8 @@
       <c r="E85" s="14"/>
       <c r="F85" s="14"/>
       <c r="G85" s="16"/>
-      <c r="H85" s="32"/>
-      <c r="I85" s="33"/>
+      <c r="H85" s="29"/>
+      <c r="I85" s="30"/>
     </row>
     <row r="86" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A86" s="14"/>
@@ -2043,8 +2053,8 @@
       <c r="E86" s="14"/>
       <c r="F86" s="14"/>
       <c r="G86" s="16"/>
-      <c r="H86" s="32"/>
-      <c r="I86" s="33"/>
+      <c r="H86" s="29"/>
+      <c r="I86" s="30"/>
     </row>
     <row r="87" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A87" s="14"/>
@@ -2054,8 +2064,8 @@
       <c r="E87" s="14"/>
       <c r="F87" s="14"/>
       <c r="G87" s="16"/>
-      <c r="H87" s="32"/>
-      <c r="I87" s="33"/>
+      <c r="H87" s="29"/>
+      <c r="I87" s="30"/>
     </row>
     <row r="88" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A88" s="14"/>
@@ -2065,8 +2075,8 @@
       <c r="E88" s="14"/>
       <c r="F88" s="14"/>
       <c r="G88" s="16"/>
-      <c r="H88" s="32"/>
-      <c r="I88" s="33"/>
+      <c r="H88" s="29"/>
+      <c r="I88" s="30"/>
     </row>
     <row r="89" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A89" s="14"/>
@@ -2076,8 +2086,8 @@
       <c r="E89" s="14"/>
       <c r="F89" s="14"/>
       <c r="G89" s="16"/>
-      <c r="H89" s="32"/>
-      <c r="I89" s="33"/>
+      <c r="H89" s="29"/>
+      <c r="I89" s="30"/>
     </row>
     <row r="90" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A90" s="14"/>
@@ -2087,8 +2097,8 @@
       <c r="E90" s="14"/>
       <c r="F90" s="14"/>
       <c r="G90" s="16"/>
-      <c r="H90" s="32"/>
-      <c r="I90" s="33"/>
+      <c r="H90" s="29"/>
+      <c r="I90" s="30"/>
     </row>
     <row r="91" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A91" s="14"/>
@@ -2098,8 +2108,8 @@
       <c r="E91" s="14"/>
       <c r="F91" s="14"/>
       <c r="G91" s="16"/>
-      <c r="H91" s="32"/>
-      <c r="I91" s="33"/>
+      <c r="H91" s="29"/>
+      <c r="I91" s="30"/>
     </row>
     <row r="92" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A92" s="14"/>
@@ -2109,8 +2119,8 @@
       <c r="E92" s="14"/>
       <c r="F92" s="14"/>
       <c r="G92" s="16"/>
-      <c r="H92" s="32"/>
-      <c r="I92" s="33"/>
+      <c r="H92" s="29"/>
+      <c r="I92" s="30"/>
     </row>
     <row r="93" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A93" s="14"/>
@@ -2120,8 +2130,8 @@
       <c r="E93" s="14"/>
       <c r="F93" s="14"/>
       <c r="G93" s="16"/>
-      <c r="H93" s="32"/>
-      <c r="I93" s="33"/>
+      <c r="H93" s="29"/>
+      <c r="I93" s="30"/>
     </row>
     <row r="94" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A94" s="14"/>
@@ -2131,8 +2141,8 @@
       <c r="E94" s="14"/>
       <c r="F94" s="14"/>
       <c r="G94" s="16"/>
-      <c r="H94" s="32"/>
-      <c r="I94" s="33"/>
+      <c r="H94" s="29"/>
+      <c r="I94" s="30"/>
     </row>
     <row r="95" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A95" s="14"/>
@@ -2142,8 +2152,8 @@
       <c r="E95" s="14"/>
       <c r="F95" s="14"/>
       <c r="G95" s="16"/>
-      <c r="H95" s="32"/>
-      <c r="I95" s="33"/>
+      <c r="H95" s="29"/>
+      <c r="I95" s="30"/>
     </row>
     <row r="96" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A96" s="14"/>
@@ -2153,8 +2163,8 @@
       <c r="E96" s="14"/>
       <c r="F96" s="14"/>
       <c r="G96" s="16"/>
-      <c r="H96" s="32"/>
-      <c r="I96" s="33"/>
+      <c r="H96" s="29"/>
+      <c r="I96" s="30"/>
     </row>
     <row r="97" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A97" s="14"/>
@@ -2164,8 +2174,8 @@
       <c r="E97" s="14"/>
       <c r="F97" s="14"/>
       <c r="G97" s="16"/>
-      <c r="H97" s="32"/>
-      <c r="I97" s="33"/>
+      <c r="H97" s="29"/>
+      <c r="I97" s="30"/>
     </row>
     <row r="98" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A98" s="14"/>
@@ -2175,8 +2185,8 @@
       <c r="E98" s="14"/>
       <c r="F98" s="14"/>
       <c r="G98" s="16"/>
-      <c r="H98" s="32"/>
-      <c r="I98" s="33"/>
+      <c r="H98" s="29"/>
+      <c r="I98" s="30"/>
     </row>
     <row r="99" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A99" s="14"/>
@@ -2186,8 +2196,8 @@
       <c r="E99" s="14"/>
       <c r="F99" s="14"/>
       <c r="G99" s="16"/>
-      <c r="H99" s="32"/>
-      <c r="I99" s="33"/>
+      <c r="H99" s="29"/>
+      <c r="I99" s="30"/>
     </row>
     <row r="100" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A100" s="14"/>
@@ -2197,8 +2207,8 @@
       <c r="E100" s="14"/>
       <c r="F100" s="14"/>
       <c r="G100" s="16"/>
-      <c r="H100" s="32"/>
-      <c r="I100" s="33"/>
+      <c r="H100" s="29"/>
+      <c r="I100" s="30"/>
     </row>
     <row r="101" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A101" s="14"/>
@@ -2208,8 +2218,8 @@
       <c r="E101" s="14"/>
       <c r="F101" s="14"/>
       <c r="G101" s="16"/>
-      <c r="H101" s="32"/>
-      <c r="I101" s="33"/>
+      <c r="H101" s="29"/>
+      <c r="I101" s="30"/>
     </row>
     <row r="102" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A102" s="14"/>
@@ -2219,8 +2229,8 @@
       <c r="E102" s="14"/>
       <c r="F102" s="14"/>
       <c r="G102" s="16"/>
-      <c r="H102" s="32"/>
-      <c r="I102" s="33"/>
+      <c r="H102" s="29"/>
+      <c r="I102" s="30"/>
     </row>
     <row r="103" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A103" s="14"/>
@@ -2230,8 +2240,8 @@
       <c r="E103" s="14"/>
       <c r="F103" s="14"/>
       <c r="G103" s="16"/>
-      <c r="H103" s="32"/>
-      <c r="I103" s="33"/>
+      <c r="H103" s="29"/>
+      <c r="I103" s="30"/>
     </row>
     <row r="104" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A104" s="14"/>
@@ -2241,8 +2251,8 @@
       <c r="E104" s="14"/>
       <c r="F104" s="14"/>
       <c r="G104" s="16"/>
-      <c r="H104" s="32"/>
-      <c r="I104" s="33"/>
+      <c r="H104" s="29"/>
+      <c r="I104" s="30"/>
     </row>
     <row r="105" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A105" s="14"/>
@@ -2252,8 +2262,8 @@
       <c r="E105" s="14"/>
       <c r="F105" s="14"/>
       <c r="G105" s="16"/>
-      <c r="H105" s="32"/>
-      <c r="I105" s="33"/>
+      <c r="H105" s="29"/>
+      <c r="I105" s="30"/>
     </row>
     <row r="106" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A106" s="14"/>
@@ -2263,8 +2273,8 @@
       <c r="E106" s="14"/>
       <c r="F106" s="14"/>
       <c r="G106" s="16"/>
-      <c r="H106" s="32"/>
-      <c r="I106" s="33"/>
+      <c r="H106" s="29"/>
+      <c r="I106" s="30"/>
     </row>
     <row r="107" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A107" s="14"/>
@@ -2274,8 +2284,8 @@
       <c r="E107" s="14"/>
       <c r="F107" s="14"/>
       <c r="G107" s="16"/>
-      <c r="H107" s="32"/>
-      <c r="I107" s="33"/>
+      <c r="H107" s="29"/>
+      <c r="I107" s="30"/>
     </row>
     <row r="108" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A108" s="14"/>
@@ -2285,8 +2295,8 @@
       <c r="E108" s="14"/>
       <c r="F108" s="14"/>
       <c r="G108" s="16"/>
-      <c r="H108" s="32"/>
-      <c r="I108" s="33"/>
+      <c r="H108" s="29"/>
+      <c r="I108" s="30"/>
     </row>
     <row r="109" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A109" s="14"/>
@@ -2296,8 +2306,8 @@
       <c r="E109" s="14"/>
       <c r="F109" s="14"/>
       <c r="G109" s="16"/>
-      <c r="H109" s="32"/>
-      <c r="I109" s="33"/>
+      <c r="H109" s="29"/>
+      <c r="I109" s="30"/>
     </row>
     <row r="110" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A110" s="14"/>
@@ -2307,8 +2317,8 @@
       <c r="E110" s="14"/>
       <c r="F110" s="14"/>
       <c r="G110" s="16"/>
-      <c r="H110" s="32"/>
-      <c r="I110" s="33"/>
+      <c r="H110" s="29"/>
+      <c r="I110" s="30"/>
     </row>
     <row r="111" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A111" s="14"/>
@@ -2318,8 +2328,8 @@
       <c r="E111" s="14"/>
       <c r="F111" s="14"/>
       <c r="G111" s="16"/>
-      <c r="H111" s="32"/>
-      <c r="I111" s="33"/>
+      <c r="H111" s="29"/>
+      <c r="I111" s="30"/>
     </row>
     <row r="112" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A112" s="14"/>
@@ -2329,8 +2339,8 @@
       <c r="E112" s="14"/>
       <c r="F112" s="14"/>
       <c r="G112" s="16"/>
-      <c r="H112" s="32"/>
-      <c r="I112" s="33"/>
+      <c r="H112" s="29"/>
+      <c r="I112" s="30"/>
     </row>
     <row r="113" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A113" s="14"/>
@@ -2340,8 +2350,8 @@
       <c r="E113" s="14"/>
       <c r="F113" s="14"/>
       <c r="G113" s="16"/>
-      <c r="H113" s="32"/>
-      <c r="I113" s="33"/>
+      <c r="H113" s="29"/>
+      <c r="I113" s="30"/>
     </row>
     <row r="114" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A114" s="14"/>
@@ -2351,8 +2361,8 @@
       <c r="E114" s="14"/>
       <c r="F114" s="14"/>
       <c r="G114" s="16"/>
-      <c r="H114" s="32"/>
-      <c r="I114" s="33"/>
+      <c r="H114" s="29"/>
+      <c r="I114" s="30"/>
     </row>
     <row r="115" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A115" s="14"/>
@@ -2362,8 +2372,8 @@
       <c r="E115" s="14"/>
       <c r="F115" s="14"/>
       <c r="G115" s="16"/>
-      <c r="H115" s="32"/>
-      <c r="I115" s="33"/>
+      <c r="H115" s="29"/>
+      <c r="I115" s="30"/>
     </row>
     <row r="116" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A116" s="14"/>
@@ -2373,8 +2383,8 @@
       <c r="E116" s="14"/>
       <c r="F116" s="14"/>
       <c r="G116" s="16"/>
-      <c r="H116" s="32"/>
-      <c r="I116" s="33"/>
+      <c r="H116" s="29"/>
+      <c r="I116" s="30"/>
     </row>
     <row r="117" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A117" s="14"/>
@@ -2384,8 +2394,8 @@
       <c r="E117" s="14"/>
       <c r="F117" s="14"/>
       <c r="G117" s="16"/>
-      <c r="H117" s="32"/>
-      <c r="I117" s="33"/>
+      <c r="H117" s="29"/>
+      <c r="I117" s="30"/>
     </row>
     <row r="118" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A118" s="14"/>
@@ -2395,8 +2405,8 @@
       <c r="E118" s="14"/>
       <c r="F118" s="14"/>
       <c r="G118" s="16"/>
-      <c r="H118" s="32"/>
-      <c r="I118" s="33"/>
+      <c r="H118" s="29"/>
+      <c r="I118" s="30"/>
     </row>
     <row r="119" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A119" s="14"/>
@@ -2406,8 +2416,8 @@
       <c r="E119" s="14"/>
       <c r="F119" s="14"/>
       <c r="G119" s="16"/>
-      <c r="H119" s="32"/>
-      <c r="I119" s="33"/>
+      <c r="H119" s="29"/>
+      <c r="I119" s="30"/>
     </row>
     <row r="120" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A120" s="14"/>
@@ -2417,8 +2427,8 @@
       <c r="E120" s="14"/>
       <c r="F120" s="14"/>
       <c r="G120" s="16"/>
-      <c r="H120" s="32"/>
-      <c r="I120" s="33"/>
+      <c r="H120" s="29"/>
+      <c r="I120" s="30"/>
     </row>
     <row r="121" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A121" s="14"/>
@@ -2428,8 +2438,8 @@
       <c r="E121" s="14"/>
       <c r="F121" s="14"/>
       <c r="G121" s="16"/>
-      <c r="H121" s="32"/>
-      <c r="I121" s="33"/>
+      <c r="H121" s="29"/>
+      <c r="I121" s="30"/>
     </row>
     <row r="122" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A122" s="14"/>
@@ -2439,8 +2449,8 @@
       <c r="E122" s="14"/>
       <c r="F122" s="14"/>
       <c r="G122" s="16"/>
-      <c r="H122" s="32"/>
-      <c r="I122" s="33"/>
+      <c r="H122" s="29"/>
+      <c r="I122" s="30"/>
     </row>
     <row r="123" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A123" s="14"/>
@@ -2450,8 +2460,8 @@
       <c r="E123" s="14"/>
       <c r="F123" s="14"/>
       <c r="G123" s="16"/>
-      <c r="H123" s="32"/>
-      <c r="I123" s="33"/>
+      <c r="H123" s="29"/>
+      <c r="I123" s="30"/>
     </row>
     <row r="124" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A124" s="14"/>
@@ -2461,8 +2471,8 @@
       <c r="E124" s="14"/>
       <c r="F124" s="14"/>
       <c r="G124" s="16"/>
-      <c r="H124" s="32"/>
-      <c r="I124" s="33"/>
+      <c r="H124" s="29"/>
+      <c r="I124" s="30"/>
     </row>
     <row r="125" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A125" s="14"/>
@@ -2472,8 +2482,8 @@
       <c r="E125" s="14"/>
       <c r="F125" s="14"/>
       <c r="G125" s="16"/>
-      <c r="H125" s="32"/>
-      <c r="I125" s="33"/>
+      <c r="H125" s="29"/>
+      <c r="I125" s="30"/>
     </row>
     <row r="126" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A126" s="14"/>
@@ -2483,8 +2493,8 @@
       <c r="E126" s="14"/>
       <c r="F126" s="14"/>
       <c r="G126" s="16"/>
-      <c r="H126" s="32"/>
-      <c r="I126" s="33"/>
+      <c r="H126" s="29"/>
+      <c r="I126" s="30"/>
     </row>
     <row r="127" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A127" s="14"/>
@@ -2494,8 +2504,8 @@
       <c r="E127" s="14"/>
       <c r="F127" s="14"/>
       <c r="G127" s="16"/>
-      <c r="H127" s="32"/>
-      <c r="I127" s="33"/>
+      <c r="H127" s="29"/>
+      <c r="I127" s="30"/>
     </row>
     <row r="128" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A128" s="14"/>
@@ -2505,8 +2515,8 @@
       <c r="E128" s="14"/>
       <c r="F128" s="14"/>
       <c r="G128" s="16"/>
-      <c r="H128" s="32"/>
-      <c r="I128" s="33"/>
+      <c r="H128" s="29"/>
+      <c r="I128" s="30"/>
     </row>
     <row r="129" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A129" s="14"/>
@@ -2516,8 +2526,8 @@
       <c r="E129" s="14"/>
       <c r="F129" s="14"/>
       <c r="G129" s="16"/>
-      <c r="H129" s="32"/>
-      <c r="I129" s="33"/>
+      <c r="H129" s="29"/>
+      <c r="I129" s="30"/>
     </row>
     <row r="130" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A130" s="14"/>
@@ -2527,8 +2537,8 @@
       <c r="E130" s="14"/>
       <c r="F130" s="14"/>
       <c r="G130" s="16"/>
-      <c r="H130" s="32"/>
-      <c r="I130" s="33"/>
+      <c r="H130" s="29"/>
+      <c r="I130" s="30"/>
     </row>
     <row r="131" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A131" s="14"/>
@@ -2538,8 +2548,8 @@
       <c r="E131" s="14"/>
       <c r="F131" s="14"/>
       <c r="G131" s="16"/>
-      <c r="H131" s="32"/>
-      <c r="I131" s="33"/>
+      <c r="H131" s="29"/>
+      <c r="I131" s="30"/>
     </row>
     <row r="132" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A132" s="14"/>
@@ -2549,8 +2559,8 @@
       <c r="E132" s="14"/>
       <c r="F132" s="14"/>
       <c r="G132" s="16"/>
-      <c r="H132" s="32"/>
-      <c r="I132" s="33"/>
+      <c r="H132" s="29"/>
+      <c r="I132" s="30"/>
     </row>
     <row r="133" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A133" s="14"/>
@@ -2560,8 +2570,8 @@
       <c r="E133" s="14"/>
       <c r="F133" s="14"/>
       <c r="G133" s="16"/>
-      <c r="H133" s="32"/>
-      <c r="I133" s="33"/>
+      <c r="H133" s="29"/>
+      <c r="I133" s="30"/>
     </row>
     <row r="134" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A134" s="14"/>
@@ -2571,8 +2581,8 @@
       <c r="E134" s="14"/>
       <c r="F134" s="14"/>
       <c r="G134" s="16"/>
-      <c r="H134" s="32"/>
-      <c r="I134" s="33"/>
+      <c r="H134" s="29"/>
+      <c r="I134" s="30"/>
     </row>
     <row r="135" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A135" s="14"/>
@@ -2582,8 +2592,8 @@
       <c r="E135" s="14"/>
       <c r="F135" s="14"/>
       <c r="G135" s="16"/>
-      <c r="H135" s="32"/>
-      <c r="I135" s="33"/>
+      <c r="H135" s="29"/>
+      <c r="I135" s="30"/>
     </row>
     <row r="136" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A136" s="14"/>
@@ -2593,8 +2603,8 @@
       <c r="E136" s="14"/>
       <c r="F136" s="14"/>
       <c r="G136" s="16"/>
-      <c r="H136" s="32"/>
-      <c r="I136" s="33"/>
+      <c r="H136" s="29"/>
+      <c r="I136" s="30"/>
     </row>
     <row r="137" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A137" s="14"/>
@@ -2604,8 +2614,8 @@
       <c r="E137" s="14"/>
       <c r="F137" s="14"/>
       <c r="G137" s="16"/>
-      <c r="H137" s="32"/>
-      <c r="I137" s="33"/>
+      <c r="H137" s="29"/>
+      <c r="I137" s="30"/>
     </row>
     <row r="138" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A138" s="14"/>
@@ -2615,8 +2625,8 @@
       <c r="E138" s="14"/>
       <c r="F138" s="14"/>
       <c r="G138" s="16"/>
-      <c r="H138" s="32"/>
-      <c r="I138" s="33"/>
+      <c r="H138" s="29"/>
+      <c r="I138" s="30"/>
     </row>
     <row r="139" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A139" s="14"/>
@@ -2626,8 +2636,8 @@
       <c r="E139" s="14"/>
       <c r="F139" s="14"/>
       <c r="G139" s="16"/>
-      <c r="H139" s="32"/>
-      <c r="I139" s="33"/>
+      <c r="H139" s="29"/>
+      <c r="I139" s="30"/>
     </row>
     <row r="140" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A140" s="14"/>
@@ -2637,8 +2647,8 @@
       <c r="E140" s="14"/>
       <c r="F140" s="14"/>
       <c r="G140" s="16"/>
-      <c r="H140" s="32"/>
-      <c r="I140" s="33"/>
+      <c r="H140" s="29"/>
+      <c r="I140" s="30"/>
     </row>
     <row r="141" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A141" s="14"/>
@@ -2648,8 +2658,8 @@
       <c r="E141" s="14"/>
       <c r="F141" s="14"/>
       <c r="G141" s="16"/>
-      <c r="H141" s="32"/>
-      <c r="I141" s="33"/>
+      <c r="H141" s="29"/>
+      <c r="I141" s="30"/>
     </row>
     <row r="142" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A142" s="14"/>
@@ -2659,8 +2669,8 @@
       <c r="E142" s="14"/>
       <c r="F142" s="14"/>
       <c r="G142" s="16"/>
-      <c r="H142" s="32"/>
-      <c r="I142" s="33"/>
+      <c r="H142" s="29"/>
+      <c r="I142" s="30"/>
     </row>
     <row r="143" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A143" s="14"/>
@@ -2670,8 +2680,8 @@
       <c r="E143" s="14"/>
       <c r="F143" s="14"/>
       <c r="G143" s="16"/>
-      <c r="H143" s="32"/>
-      <c r="I143" s="33"/>
+      <c r="H143" s="29"/>
+      <c r="I143" s="30"/>
     </row>
     <row r="144" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A144" s="14"/>
@@ -2681,8 +2691,8 @@
       <c r="E144" s="14"/>
       <c r="F144" s="14"/>
       <c r="G144" s="16"/>
-      <c r="H144" s="32"/>
-      <c r="I144" s="33"/>
+      <c r="H144" s="29"/>
+      <c r="I144" s="30"/>
     </row>
     <row r="145" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A145" s="14"/>
@@ -2692,8 +2702,8 @@
       <c r="E145" s="14"/>
       <c r="F145" s="14"/>
       <c r="G145" s="16"/>
-      <c r="H145" s="32"/>
-      <c r="I145" s="33"/>
+      <c r="H145" s="29"/>
+      <c r="I145" s="30"/>
     </row>
     <row r="146" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A146" s="14"/>
@@ -2703,8 +2713,8 @@
       <c r="E146" s="14"/>
       <c r="F146" s="14"/>
       <c r="G146" s="16"/>
-      <c r="H146" s="32"/>
-      <c r="I146" s="33"/>
+      <c r="H146" s="29"/>
+      <c r="I146" s="30"/>
     </row>
     <row r="147" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A147" s="14"/>
@@ -2714,8 +2724,8 @@
       <c r="E147" s="14"/>
       <c r="F147" s="14"/>
       <c r="G147" s="16"/>
-      <c r="H147" s="32"/>
-      <c r="I147" s="33"/>
+      <c r="H147" s="29"/>
+      <c r="I147" s="30"/>
     </row>
     <row r="148" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A148" s="14"/>
@@ -2725,8 +2735,8 @@
       <c r="E148" s="14"/>
       <c r="F148" s="14"/>
       <c r="G148" s="16"/>
-      <c r="H148" s="32"/>
-      <c r="I148" s="33"/>
+      <c r="H148" s="29"/>
+      <c r="I148" s="30"/>
     </row>
     <row r="149" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A149" s="14"/>
@@ -2736,8 +2746,8 @@
       <c r="E149" s="14"/>
       <c r="F149" s="14"/>
       <c r="G149" s="16"/>
-      <c r="H149" s="32"/>
-      <c r="I149" s="33"/>
+      <c r="H149" s="29"/>
+      <c r="I149" s="30"/>
     </row>
     <row r="150" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A150" s="14"/>
@@ -2747,8 +2757,8 @@
       <c r="E150" s="14"/>
       <c r="F150" s="14"/>
       <c r="G150" s="16"/>
-      <c r="H150" s="32"/>
-      <c r="I150" s="33"/>
+      <c r="H150" s="29"/>
+      <c r="I150" s="30"/>
     </row>
     <row r="151" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A151" s="14"/>
@@ -6614,136 +6624,6 @@
     </row>
   </sheetData>
   <mergeCells count="148">
-    <mergeCell ref="H146:I146"/>
-    <mergeCell ref="H147:I147"/>
-    <mergeCell ref="H148:I148"/>
-    <mergeCell ref="H149:I149"/>
-    <mergeCell ref="H150:I150"/>
-    <mergeCell ref="H141:I141"/>
-    <mergeCell ref="H142:I142"/>
-    <mergeCell ref="H143:I143"/>
-    <mergeCell ref="H144:I144"/>
-    <mergeCell ref="H145:I145"/>
-    <mergeCell ref="H136:I136"/>
-    <mergeCell ref="H137:I137"/>
-    <mergeCell ref="H138:I138"/>
-    <mergeCell ref="H139:I139"/>
-    <mergeCell ref="H140:I140"/>
-    <mergeCell ref="H131:I131"/>
-    <mergeCell ref="H132:I132"/>
-    <mergeCell ref="H133:I133"/>
-    <mergeCell ref="H134:I134"/>
-    <mergeCell ref="H135:I135"/>
-    <mergeCell ref="H126:I126"/>
-    <mergeCell ref="H127:I127"/>
-    <mergeCell ref="H128:I128"/>
-    <mergeCell ref="H129:I129"/>
-    <mergeCell ref="H130:I130"/>
-    <mergeCell ref="H121:I121"/>
-    <mergeCell ref="H122:I122"/>
-    <mergeCell ref="H123:I123"/>
-    <mergeCell ref="H124:I124"/>
-    <mergeCell ref="H125:I125"/>
-    <mergeCell ref="H116:I116"/>
-    <mergeCell ref="H117:I117"/>
-    <mergeCell ref="H118:I118"/>
-    <mergeCell ref="H119:I119"/>
-    <mergeCell ref="H120:I120"/>
-    <mergeCell ref="H111:I111"/>
-    <mergeCell ref="H112:I112"/>
-    <mergeCell ref="H113:I113"/>
-    <mergeCell ref="H114:I114"/>
-    <mergeCell ref="H115:I115"/>
-    <mergeCell ref="H106:I106"/>
-    <mergeCell ref="H107:I107"/>
-    <mergeCell ref="H108:I108"/>
-    <mergeCell ref="H109:I109"/>
-    <mergeCell ref="H110:I110"/>
-    <mergeCell ref="H101:I101"/>
-    <mergeCell ref="H102:I102"/>
-    <mergeCell ref="H103:I103"/>
-    <mergeCell ref="H104:I104"/>
-    <mergeCell ref="H105:I105"/>
-    <mergeCell ref="H96:I96"/>
-    <mergeCell ref="H97:I97"/>
-    <mergeCell ref="H98:I98"/>
-    <mergeCell ref="H99:I99"/>
-    <mergeCell ref="H100:I100"/>
-    <mergeCell ref="H91:I91"/>
-    <mergeCell ref="H92:I92"/>
-    <mergeCell ref="H93:I93"/>
-    <mergeCell ref="H94:I94"/>
-    <mergeCell ref="H95:I95"/>
-    <mergeCell ref="H86:I86"/>
-    <mergeCell ref="H87:I87"/>
-    <mergeCell ref="H88:I88"/>
-    <mergeCell ref="H89:I89"/>
-    <mergeCell ref="H90:I90"/>
-    <mergeCell ref="H81:I81"/>
-    <mergeCell ref="H82:I82"/>
-    <mergeCell ref="H83:I83"/>
-    <mergeCell ref="H84:I84"/>
-    <mergeCell ref="H85:I85"/>
-    <mergeCell ref="H76:I76"/>
-    <mergeCell ref="H77:I77"/>
-    <mergeCell ref="H78:I78"/>
-    <mergeCell ref="H79:I79"/>
-    <mergeCell ref="H80:I80"/>
-    <mergeCell ref="H71:I71"/>
-    <mergeCell ref="H72:I72"/>
-    <mergeCell ref="H73:I73"/>
-    <mergeCell ref="H74:I74"/>
-    <mergeCell ref="H75:I75"/>
-    <mergeCell ref="H66:I66"/>
-    <mergeCell ref="H67:I67"/>
-    <mergeCell ref="H68:I68"/>
-    <mergeCell ref="H69:I69"/>
-    <mergeCell ref="H70:I70"/>
-    <mergeCell ref="H61:I61"/>
-    <mergeCell ref="H62:I62"/>
-    <mergeCell ref="H63:I63"/>
-    <mergeCell ref="H64:I64"/>
-    <mergeCell ref="H65:I65"/>
-    <mergeCell ref="H56:I56"/>
-    <mergeCell ref="H57:I57"/>
-    <mergeCell ref="H58:I58"/>
-    <mergeCell ref="H59:I59"/>
-    <mergeCell ref="H60:I60"/>
-    <mergeCell ref="H51:I51"/>
-    <mergeCell ref="H52:I52"/>
-    <mergeCell ref="H53:I53"/>
-    <mergeCell ref="H54:I54"/>
-    <mergeCell ref="H55:I55"/>
-    <mergeCell ref="H46:I46"/>
-    <mergeCell ref="H47:I47"/>
-    <mergeCell ref="H48:I48"/>
-    <mergeCell ref="H49:I49"/>
-    <mergeCell ref="H50:I50"/>
-    <mergeCell ref="H41:I41"/>
-    <mergeCell ref="H42:I42"/>
-    <mergeCell ref="H43:I43"/>
-    <mergeCell ref="H44:I44"/>
-    <mergeCell ref="H45:I45"/>
-    <mergeCell ref="H36:I36"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="H38:I38"/>
-    <mergeCell ref="H39:I39"/>
-    <mergeCell ref="H40:I40"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="A20:I20"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="H25:I25"/>
     <mergeCell ref="H15:I15"/>
     <mergeCell ref="H16:I16"/>
     <mergeCell ref="H17:I17"/>
@@ -6762,6 +6642,136 @@
     <mergeCell ref="H12:I12"/>
     <mergeCell ref="H13:I13"/>
     <mergeCell ref="H14:I14"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="A20:I20"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="H36:I36"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="H46:I46"/>
+    <mergeCell ref="H47:I47"/>
+    <mergeCell ref="H48:I48"/>
+    <mergeCell ref="H49:I49"/>
+    <mergeCell ref="H50:I50"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="H42:I42"/>
+    <mergeCell ref="H43:I43"/>
+    <mergeCell ref="H44:I44"/>
+    <mergeCell ref="H45:I45"/>
+    <mergeCell ref="H56:I56"/>
+    <mergeCell ref="H57:I57"/>
+    <mergeCell ref="H58:I58"/>
+    <mergeCell ref="H59:I59"/>
+    <mergeCell ref="H60:I60"/>
+    <mergeCell ref="H51:I51"/>
+    <mergeCell ref="H52:I52"/>
+    <mergeCell ref="H53:I53"/>
+    <mergeCell ref="H54:I54"/>
+    <mergeCell ref="H55:I55"/>
+    <mergeCell ref="H66:I66"/>
+    <mergeCell ref="H67:I67"/>
+    <mergeCell ref="H68:I68"/>
+    <mergeCell ref="H69:I69"/>
+    <mergeCell ref="H70:I70"/>
+    <mergeCell ref="H61:I61"/>
+    <mergeCell ref="H62:I62"/>
+    <mergeCell ref="H63:I63"/>
+    <mergeCell ref="H64:I64"/>
+    <mergeCell ref="H65:I65"/>
+    <mergeCell ref="H76:I76"/>
+    <mergeCell ref="H77:I77"/>
+    <mergeCell ref="H78:I78"/>
+    <mergeCell ref="H79:I79"/>
+    <mergeCell ref="H80:I80"/>
+    <mergeCell ref="H71:I71"/>
+    <mergeCell ref="H72:I72"/>
+    <mergeCell ref="H73:I73"/>
+    <mergeCell ref="H74:I74"/>
+    <mergeCell ref="H75:I75"/>
+    <mergeCell ref="H86:I86"/>
+    <mergeCell ref="H87:I87"/>
+    <mergeCell ref="H88:I88"/>
+    <mergeCell ref="H89:I89"/>
+    <mergeCell ref="H90:I90"/>
+    <mergeCell ref="H81:I81"/>
+    <mergeCell ref="H82:I82"/>
+    <mergeCell ref="H83:I83"/>
+    <mergeCell ref="H84:I84"/>
+    <mergeCell ref="H85:I85"/>
+    <mergeCell ref="H96:I96"/>
+    <mergeCell ref="H97:I97"/>
+    <mergeCell ref="H98:I98"/>
+    <mergeCell ref="H99:I99"/>
+    <mergeCell ref="H100:I100"/>
+    <mergeCell ref="H91:I91"/>
+    <mergeCell ref="H92:I92"/>
+    <mergeCell ref="H93:I93"/>
+    <mergeCell ref="H94:I94"/>
+    <mergeCell ref="H95:I95"/>
+    <mergeCell ref="H106:I106"/>
+    <mergeCell ref="H107:I107"/>
+    <mergeCell ref="H108:I108"/>
+    <mergeCell ref="H109:I109"/>
+    <mergeCell ref="H110:I110"/>
+    <mergeCell ref="H101:I101"/>
+    <mergeCell ref="H102:I102"/>
+    <mergeCell ref="H103:I103"/>
+    <mergeCell ref="H104:I104"/>
+    <mergeCell ref="H105:I105"/>
+    <mergeCell ref="H116:I116"/>
+    <mergeCell ref="H117:I117"/>
+    <mergeCell ref="H118:I118"/>
+    <mergeCell ref="H119:I119"/>
+    <mergeCell ref="H120:I120"/>
+    <mergeCell ref="H111:I111"/>
+    <mergeCell ref="H112:I112"/>
+    <mergeCell ref="H113:I113"/>
+    <mergeCell ref="H114:I114"/>
+    <mergeCell ref="H115:I115"/>
+    <mergeCell ref="H126:I126"/>
+    <mergeCell ref="H127:I127"/>
+    <mergeCell ref="H128:I128"/>
+    <mergeCell ref="H129:I129"/>
+    <mergeCell ref="H130:I130"/>
+    <mergeCell ref="H121:I121"/>
+    <mergeCell ref="H122:I122"/>
+    <mergeCell ref="H123:I123"/>
+    <mergeCell ref="H124:I124"/>
+    <mergeCell ref="H125:I125"/>
+    <mergeCell ref="H136:I136"/>
+    <mergeCell ref="H137:I137"/>
+    <mergeCell ref="H138:I138"/>
+    <mergeCell ref="H139:I139"/>
+    <mergeCell ref="H140:I140"/>
+    <mergeCell ref="H131:I131"/>
+    <mergeCell ref="H132:I132"/>
+    <mergeCell ref="H133:I133"/>
+    <mergeCell ref="H134:I134"/>
+    <mergeCell ref="H135:I135"/>
+    <mergeCell ref="H146:I146"/>
+    <mergeCell ref="H147:I147"/>
+    <mergeCell ref="H148:I148"/>
+    <mergeCell ref="H149:I149"/>
+    <mergeCell ref="H150:I150"/>
+    <mergeCell ref="H141:I141"/>
+    <mergeCell ref="H142:I142"/>
+    <mergeCell ref="H143:I143"/>
+    <mergeCell ref="H144:I144"/>
+    <mergeCell ref="H145:I145"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G1 G3:G19 G21:G992" xr:uid="{00000000-0002-0000-0000-000000000000}">

--- a/Requirments/Review.xlsx
+++ b/Requirments/Review.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ITI\QA\Online-Mobile-Store-WebSite\Requirments\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\ITI9M-Testing\Core\QA\WorkShop\Online-Mobile-Store-WebSite\Requirments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4001BDF2-0B72-4CEA-898E-7DEA0CA73C18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4E11E12-3C59-42BF-A529-A42C56557C0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="80">
   <si>
     <t>ID</t>
   </si>
@@ -245,13 +245,22 @@
   </si>
   <si>
     <t>CRS_supplier_004</t>
-  </si>
-  <si>
-    <t>In naming convention why we add color??</t>
   </si>
   <si>
     <t xml:space="preserve">user can increment 
 or decrement product count </t>
+  </si>
+  <si>
+    <t>Add product platform</t>
+  </si>
+  <si>
+    <t>remove color from naming convention</t>
+  </si>
+  <si>
+    <t>In naming convention why we add color?</t>
+  </si>
+  <si>
+    <t>add product photo to be mandatory</t>
   </si>
 </sst>
 </file>
@@ -490,8 +499,8 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -501,8 +510,8 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -726,23 +735,24 @@
   </sheetPr>
   <dimension ref="A1:AC992"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E15" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22:I22"/>
+    <sheetView tabSelected="1" topLeftCell="C15" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24" customWidth="1"/>
-    <col min="2" max="2" width="27.28515625" customWidth="1"/>
-    <col min="3" max="3" width="20.7109375" customWidth="1"/>
+    <col min="2" max="2" width="27.33203125" customWidth="1"/>
+    <col min="3" max="3" width="20.6640625" customWidth="1"/>
     <col min="4" max="4" width="24" customWidth="1"/>
-    <col min="5" max="5" width="94.28515625" customWidth="1"/>
-    <col min="6" max="6" width="25.85546875" customWidth="1"/>
-    <col min="7" max="7" width="18.5703125" customWidth="1"/>
-    <col min="9" max="9" width="25.7109375" customWidth="1"/>
+    <col min="5" max="5" width="94.33203125" customWidth="1"/>
+    <col min="6" max="6" width="25.88671875" customWidth="1"/>
+    <col min="7" max="7" width="18.5546875" customWidth="1"/>
+    <col min="8" max="8" width="34.109375" customWidth="1"/>
+    <col min="9" max="9" width="25.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="36" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:29" ht="36" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -789,7 +799,7 @@
       <c r="AB1" s="2"/>
       <c r="AC1" s="2"/>
     </row>
-    <row r="2" spans="1:29" ht="36" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:29" ht="36" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A2" s="31" t="s">
         <v>59</v>
       </c>
@@ -822,7 +832,7 @@
       <c r="AB2" s="2"/>
       <c r="AC2" s="2"/>
     </row>
-    <row r="3" spans="1:29" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:29" ht="18" x14ac:dyDescent="0.35">
       <c r="A3" s="7" t="s">
         <v>7</v>
       </c>
@@ -844,10 +854,10 @@
       <c r="G3" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="34"/>
-      <c r="I3" s="35"/>
-    </row>
-    <row r="4" spans="1:29" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H3" s="29"/>
+      <c r="I3" s="30"/>
+    </row>
+    <row r="4" spans="1:29" ht="18" x14ac:dyDescent="0.35">
       <c r="A4" s="7" t="s">
         <v>13</v>
       </c>
@@ -869,10 +879,10 @@
       <c r="G4" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="H4" s="34"/>
-      <c r="I4" s="35"/>
-    </row>
-    <row r="5" spans="1:29" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H4" s="29"/>
+      <c r="I4" s="30"/>
+    </row>
+    <row r="5" spans="1:29" ht="18" x14ac:dyDescent="0.35">
       <c r="A5" s="7" t="s">
         <v>15</v>
       </c>
@@ -894,10 +904,10 @@
       <c r="G5" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="H5" s="34"/>
-      <c r="I5" s="35"/>
-    </row>
-    <row r="6" spans="1:29" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H5" s="29"/>
+      <c r="I5" s="30"/>
+    </row>
+    <row r="6" spans="1:29" ht="18" x14ac:dyDescent="0.35">
       <c r="A6" s="11" t="s">
         <v>19</v>
       </c>
@@ -919,10 +929,10 @@
       <c r="G6" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="H6" s="34"/>
-      <c r="I6" s="35"/>
-    </row>
-    <row r="7" spans="1:29" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H6" s="29"/>
+      <c r="I6" s="30"/>
+    </row>
+    <row r="7" spans="1:29" ht="18" x14ac:dyDescent="0.35">
       <c r="A7" s="11" t="s">
         <v>22</v>
       </c>
@@ -944,10 +954,10 @@
       <c r="G7" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="H7" s="34"/>
-      <c r="I7" s="35"/>
-    </row>
-    <row r="8" spans="1:29" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H7" s="29"/>
+      <c r="I7" s="30"/>
+    </row>
+    <row r="8" spans="1:29" ht="18" x14ac:dyDescent="0.35">
       <c r="A8" s="11" t="s">
         <v>25</v>
       </c>
@@ -969,10 +979,10 @@
       <c r="G8" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="H8" s="34"/>
-      <c r="I8" s="35"/>
-    </row>
-    <row r="9" spans="1:29" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H8" s="29"/>
+      <c r="I8" s="30"/>
+    </row>
+    <row r="9" spans="1:29" ht="18" x14ac:dyDescent="0.35">
       <c r="A9" s="7" t="s">
         <v>28</v>
       </c>
@@ -994,10 +1004,10 @@
       <c r="G9" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="H9" s="34"/>
-      <c r="I9" s="35"/>
-    </row>
-    <row r="10" spans="1:29" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H9" s="29"/>
+      <c r="I9" s="30"/>
+    </row>
+    <row r="10" spans="1:29" ht="18" x14ac:dyDescent="0.35">
       <c r="A10" s="7" t="s">
         <v>31</v>
       </c>
@@ -1019,10 +1029,10 @@
       <c r="G10" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="H10" s="34"/>
-      <c r="I10" s="35"/>
-    </row>
-    <row r="11" spans="1:29" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H10" s="29"/>
+      <c r="I10" s="30"/>
+    </row>
+    <row r="11" spans="1:29" ht="18" x14ac:dyDescent="0.35">
       <c r="A11" s="7" t="s">
         <v>34</v>
       </c>
@@ -1044,10 +1054,10 @@
       <c r="G11" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="H11" s="34"/>
-      <c r="I11" s="35"/>
-    </row>
-    <row r="12" spans="1:29" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H11" s="29"/>
+      <c r="I11" s="30"/>
+    </row>
+    <row r="12" spans="1:29" ht="18" x14ac:dyDescent="0.35">
       <c r="A12" s="7" t="s">
         <v>36</v>
       </c>
@@ -1069,10 +1079,10 @@
       <c r="G12" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="H12" s="34"/>
-      <c r="I12" s="35"/>
-    </row>
-    <row r="13" spans="1:29" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H12" s="29"/>
+      <c r="I12" s="30"/>
+    </row>
+    <row r="13" spans="1:29" ht="18" x14ac:dyDescent="0.35">
       <c r="A13" s="7" t="s">
         <v>39</v>
       </c>
@@ -1094,10 +1104,10 @@
       <c r="G13" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="H13" s="34"/>
-      <c r="I13" s="35"/>
-    </row>
-    <row r="14" spans="1:29" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H13" s="29"/>
+      <c r="I13" s="30"/>
+    </row>
+    <row r="14" spans="1:29" ht="18" x14ac:dyDescent="0.35">
       <c r="A14" s="7" t="s">
         <v>42</v>
       </c>
@@ -1119,10 +1129,10 @@
       <c r="G14" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="H14" s="34"/>
-      <c r="I14" s="35"/>
-    </row>
-    <row r="15" spans="1:29" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H14" s="29"/>
+      <c r="I14" s="30"/>
+    </row>
+    <row r="15" spans="1:29" ht="18" x14ac:dyDescent="0.35">
       <c r="A15" s="7" t="s">
         <v>44</v>
       </c>
@@ -1142,10 +1152,10 @@
       <c r="G15" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="H15" s="34"/>
-      <c r="I15" s="35"/>
-    </row>
-    <row r="16" spans="1:29" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H15" s="29"/>
+      <c r="I15" s="30"/>
+    </row>
+    <row r="16" spans="1:29" ht="18" x14ac:dyDescent="0.35">
       <c r="A16" s="7" t="s">
         <v>46</v>
       </c>
@@ -1167,10 +1177,10 @@
       <c r="G16" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="H16" s="34"/>
-      <c r="I16" s="35"/>
-    </row>
-    <row r="17" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H16" s="29"/>
+      <c r="I16" s="30"/>
+    </row>
+    <row r="17" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A17" s="7" t="s">
         <v>50</v>
       </c>
@@ -1192,10 +1202,10 @@
       <c r="G17" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="H17" s="34"/>
-      <c r="I17" s="35"/>
-    </row>
-    <row r="18" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H17" s="29"/>
+      <c r="I17" s="30"/>
+    </row>
+    <row r="18" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A18" s="7" t="s">
         <v>52</v>
       </c>
@@ -1217,10 +1227,10 @@
       <c r="G18" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="H18" s="34"/>
-      <c r="I18" s="35"/>
-    </row>
-    <row r="19" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H18" s="29"/>
+      <c r="I18" s="30"/>
+    </row>
+    <row r="19" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A19" s="16" t="s">
         <v>55</v>
       </c>
@@ -1242,10 +1252,10 @@
       <c r="G19" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="H19" s="34"/>
-      <c r="I19" s="35"/>
-    </row>
-    <row r="20" spans="1:9" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="H19" s="29"/>
+      <c r="I19" s="30"/>
+    </row>
+    <row r="20" spans="1:9" ht="25.8" x14ac:dyDescent="0.5">
       <c r="A20" s="31" t="s">
         <v>60</v>
       </c>
@@ -1258,7 +1268,7 @@
       <c r="H20" s="32"/>
       <c r="I20" s="33"/>
     </row>
-    <row r="21" spans="1:9" s="17" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" s="17" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="14" t="s">
         <v>55</v>
       </c>
@@ -1281,11 +1291,11 @@
         <v>12</v>
       </c>
       <c r="H21" s="36" t="s">
-        <v>76</v>
-      </c>
-      <c r="I21" s="30"/>
-    </row>
-    <row r="22" spans="1:9" s="20" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+      <c r="I21" s="35"/>
+    </row>
+    <row r="22" spans="1:9" s="20" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A22" s="21" t="s">
         <v>7</v>
       </c>
@@ -1307,10 +1317,10 @@
       <c r="G22" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="H22" s="29"/>
-      <c r="I22" s="30"/>
-    </row>
-    <row r="23" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H22" s="34"/>
+      <c r="I22" s="35"/>
+    </row>
+    <row r="23" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A23" s="14" t="s">
         <v>46</v>
       </c>
@@ -1330,12 +1340,14 @@
         <v>67</v>
       </c>
       <c r="G23" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="H23" s="29"/>
-      <c r="I23" s="30"/>
-    </row>
-    <row r="24" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+      <c r="H23" s="34" t="s">
+        <v>76</v>
+      </c>
+      <c r="I23" s="35"/>
+    </row>
+    <row r="24" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A24" s="14" t="s">
         <v>50</v>
       </c>
@@ -1349,18 +1361,20 @@
         <v>72</v>
       </c>
       <c r="E24" s="14" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="F24" s="14" t="s">
         <v>74</v>
       </c>
       <c r="G24" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="H24" s="27"/>
+        <v>12</v>
+      </c>
+      <c r="H24" s="27" t="s">
+        <v>77</v>
+      </c>
       <c r="I24" s="28"/>
     </row>
-    <row r="25" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A25" s="14" t="s">
         <v>73</v>
       </c>
@@ -1380,12 +1394,14 @@
         <v>69</v>
       </c>
       <c r="G25" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="H25" s="29"/>
-      <c r="I25" s="30"/>
-    </row>
-    <row r="26" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+      <c r="H25" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="I25" s="35"/>
+    </row>
+    <row r="26" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A26" s="14"/>
       <c r="B26" s="14"/>
       <c r="C26" s="14"/>
@@ -1393,10 +1409,10 @@
       <c r="E26" s="14"/>
       <c r="F26" s="14"/>
       <c r="G26" s="16"/>
-      <c r="H26" s="29"/>
-      <c r="I26" s="30"/>
-    </row>
-    <row r="27" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H26" s="34"/>
+      <c r="I26" s="35"/>
+    </row>
+    <row r="27" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A27" s="14"/>
       <c r="B27" s="14"/>
       <c r="C27" s="14"/>
@@ -1404,10 +1420,10 @@
       <c r="E27" s="14"/>
       <c r="F27" s="14"/>
       <c r="G27" s="16"/>
-      <c r="H27" s="29"/>
-      <c r="I27" s="30"/>
-    </row>
-    <row r="28" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H27" s="34"/>
+      <c r="I27" s="35"/>
+    </row>
+    <row r="28" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A28" s="14"/>
       <c r="B28" s="14"/>
       <c r="C28" s="14"/>
@@ -1415,10 +1431,10 @@
       <c r="E28" s="14"/>
       <c r="F28" s="14"/>
       <c r="G28" s="16"/>
-      <c r="H28" s="29"/>
-      <c r="I28" s="30"/>
-    </row>
-    <row r="29" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H28" s="34"/>
+      <c r="I28" s="35"/>
+    </row>
+    <row r="29" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A29" s="14"/>
       <c r="B29" s="14"/>
       <c r="C29" s="14"/>
@@ -1426,10 +1442,10 @@
       <c r="E29" s="14"/>
       <c r="F29" s="14"/>
       <c r="G29" s="16"/>
-      <c r="H29" s="29"/>
-      <c r="I29" s="30"/>
-    </row>
-    <row r="30" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H29" s="34"/>
+      <c r="I29" s="35"/>
+    </row>
+    <row r="30" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A30" s="14"/>
       <c r="B30" s="14"/>
       <c r="C30" s="14"/>
@@ -1437,10 +1453,10 @@
       <c r="E30" s="14"/>
       <c r="F30" s="14"/>
       <c r="G30" s="16"/>
-      <c r="H30" s="29"/>
-      <c r="I30" s="30"/>
-    </row>
-    <row r="31" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H30" s="34"/>
+      <c r="I30" s="35"/>
+    </row>
+    <row r="31" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A31" s="14"/>
       <c r="B31" s="14"/>
       <c r="C31" s="14"/>
@@ -1448,10 +1464,10 @@
       <c r="E31" s="14"/>
       <c r="F31" s="14"/>
       <c r="G31" s="16"/>
-      <c r="H31" s="29"/>
-      <c r="I31" s="30"/>
-    </row>
-    <row r="32" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H31" s="34"/>
+      <c r="I31" s="35"/>
+    </row>
+    <row r="32" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A32" s="14"/>
       <c r="B32" s="14"/>
       <c r="C32" s="14"/>
@@ -1459,10 +1475,10 @@
       <c r="E32" s="14"/>
       <c r="F32" s="14"/>
       <c r="G32" s="16"/>
-      <c r="H32" s="29"/>
-      <c r="I32" s="30"/>
-    </row>
-    <row r="33" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H32" s="34"/>
+      <c r="I32" s="35"/>
+    </row>
+    <row r="33" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A33" s="14"/>
       <c r="B33" s="14"/>
       <c r="C33" s="14"/>
@@ -1470,10 +1486,10 @@
       <c r="E33" s="14"/>
       <c r="F33" s="14"/>
       <c r="G33" s="16"/>
-      <c r="H33" s="29"/>
-      <c r="I33" s="30"/>
-    </row>
-    <row r="34" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H33" s="34"/>
+      <c r="I33" s="35"/>
+    </row>
+    <row r="34" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A34" s="14"/>
       <c r="B34" s="14"/>
       <c r="C34" s="14"/>
@@ -1481,10 +1497,10 @@
       <c r="E34" s="14"/>
       <c r="F34" s="14"/>
       <c r="G34" s="16"/>
-      <c r="H34" s="29"/>
-      <c r="I34" s="30"/>
-    </row>
-    <row r="35" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H34" s="34"/>
+      <c r="I34" s="35"/>
+    </row>
+    <row r="35" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A35" s="14"/>
       <c r="B35" s="14"/>
       <c r="C35" s="14"/>
@@ -1492,10 +1508,10 @@
       <c r="E35" s="14"/>
       <c r="F35" s="14"/>
       <c r="G35" s="16"/>
-      <c r="H35" s="29"/>
-      <c r="I35" s="30"/>
-    </row>
-    <row r="36" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H35" s="34"/>
+      <c r="I35" s="35"/>
+    </row>
+    <row r="36" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A36" s="14"/>
       <c r="B36" s="14"/>
       <c r="C36" s="14"/>
@@ -1503,10 +1519,10 @@
       <c r="E36" s="14"/>
       <c r="F36" s="14"/>
       <c r="G36" s="16"/>
-      <c r="H36" s="29"/>
-      <c r="I36" s="30"/>
-    </row>
-    <row r="37" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H36" s="34"/>
+      <c r="I36" s="35"/>
+    </row>
+    <row r="37" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A37" s="14"/>
       <c r="B37" s="14"/>
       <c r="C37" s="14"/>
@@ -1514,10 +1530,10 @@
       <c r="E37" s="14"/>
       <c r="F37" s="14"/>
       <c r="G37" s="16"/>
-      <c r="H37" s="29"/>
-      <c r="I37" s="30"/>
-    </row>
-    <row r="38" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H37" s="34"/>
+      <c r="I37" s="35"/>
+    </row>
+    <row r="38" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A38" s="14"/>
       <c r="B38" s="14"/>
       <c r="C38" s="14"/>
@@ -1525,10 +1541,10 @@
       <c r="E38" s="14"/>
       <c r="F38" s="14"/>
       <c r="G38" s="16"/>
-      <c r="H38" s="29"/>
-      <c r="I38" s="30"/>
-    </row>
-    <row r="39" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H38" s="34"/>
+      <c r="I38" s="35"/>
+    </row>
+    <row r="39" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A39" s="14"/>
       <c r="B39" s="14"/>
       <c r="C39" s="14"/>
@@ -1536,10 +1552,10 @@
       <c r="E39" s="14"/>
       <c r="F39" s="14"/>
       <c r="G39" s="16"/>
-      <c r="H39" s="29"/>
-      <c r="I39" s="30"/>
-    </row>
-    <row r="40" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H39" s="34"/>
+      <c r="I39" s="35"/>
+    </row>
+    <row r="40" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A40" s="14"/>
       <c r="B40" s="14"/>
       <c r="C40" s="14"/>
@@ -1547,10 +1563,10 @@
       <c r="E40" s="14"/>
       <c r="F40" s="14"/>
       <c r="G40" s="16"/>
-      <c r="H40" s="29"/>
-      <c r="I40" s="30"/>
-    </row>
-    <row r="41" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H40" s="34"/>
+      <c r="I40" s="35"/>
+    </row>
+    <row r="41" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A41" s="14"/>
       <c r="B41" s="14"/>
       <c r="C41" s="14"/>
@@ -1558,10 +1574,10 @@
       <c r="E41" s="14"/>
       <c r="F41" s="14"/>
       <c r="G41" s="16"/>
-      <c r="H41" s="29"/>
-      <c r="I41" s="30"/>
-    </row>
-    <row r="42" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H41" s="34"/>
+      <c r="I41" s="35"/>
+    </row>
+    <row r="42" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A42" s="14"/>
       <c r="B42" s="14"/>
       <c r="C42" s="14"/>
@@ -1569,10 +1585,10 @@
       <c r="E42" s="14"/>
       <c r="F42" s="14"/>
       <c r="G42" s="16"/>
-      <c r="H42" s="29"/>
-      <c r="I42" s="30"/>
-    </row>
-    <row r="43" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H42" s="34"/>
+      <c r="I42" s="35"/>
+    </row>
+    <row r="43" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A43" s="14"/>
       <c r="B43" s="14"/>
       <c r="C43" s="14"/>
@@ -1580,10 +1596,10 @@
       <c r="E43" s="14"/>
       <c r="F43" s="14"/>
       <c r="G43" s="16"/>
-      <c r="H43" s="29"/>
-      <c r="I43" s="30"/>
-    </row>
-    <row r="44" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H43" s="34"/>
+      <c r="I43" s="35"/>
+    </row>
+    <row r="44" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A44" s="14"/>
       <c r="B44" s="14"/>
       <c r="C44" s="14"/>
@@ -1591,10 +1607,10 @@
       <c r="E44" s="14"/>
       <c r="F44" s="14"/>
       <c r="G44" s="16"/>
-      <c r="H44" s="29"/>
-      <c r="I44" s="30"/>
-    </row>
-    <row r="45" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H44" s="34"/>
+      <c r="I44" s="35"/>
+    </row>
+    <row r="45" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A45" s="14"/>
       <c r="B45" s="14"/>
       <c r="C45" s="14"/>
@@ -1602,10 +1618,10 @@
       <c r="E45" s="14"/>
       <c r="F45" s="14"/>
       <c r="G45" s="16"/>
-      <c r="H45" s="29"/>
-      <c r="I45" s="30"/>
-    </row>
-    <row r="46" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H45" s="34"/>
+      <c r="I45" s="35"/>
+    </row>
+    <row r="46" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A46" s="14"/>
       <c r="B46" s="14"/>
       <c r="C46" s="14"/>
@@ -1613,10 +1629,10 @@
       <c r="E46" s="14"/>
       <c r="F46" s="14"/>
       <c r="G46" s="16"/>
-      <c r="H46" s="29"/>
-      <c r="I46" s="30"/>
-    </row>
-    <row r="47" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H46" s="34"/>
+      <c r="I46" s="35"/>
+    </row>
+    <row r="47" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A47" s="14"/>
       <c r="B47" s="14"/>
       <c r="C47" s="14"/>
@@ -1624,10 +1640,10 @@
       <c r="E47" s="14"/>
       <c r="F47" s="14"/>
       <c r="G47" s="16"/>
-      <c r="H47" s="29"/>
-      <c r="I47" s="30"/>
-    </row>
-    <row r="48" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H47" s="34"/>
+      <c r="I47" s="35"/>
+    </row>
+    <row r="48" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A48" s="14"/>
       <c r="B48" s="14"/>
       <c r="C48" s="14"/>
@@ -1635,10 +1651,10 @@
       <c r="E48" s="14"/>
       <c r="F48" s="14"/>
       <c r="G48" s="16"/>
-      <c r="H48" s="29"/>
-      <c r="I48" s="30"/>
-    </row>
-    <row r="49" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H48" s="34"/>
+      <c r="I48" s="35"/>
+    </row>
+    <row r="49" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A49" s="14"/>
       <c r="B49" s="14"/>
       <c r="C49" s="14"/>
@@ -1646,10 +1662,10 @@
       <c r="E49" s="14"/>
       <c r="F49" s="14"/>
       <c r="G49" s="16"/>
-      <c r="H49" s="29"/>
-      <c r="I49" s="30"/>
-    </row>
-    <row r="50" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H49" s="34"/>
+      <c r="I49" s="35"/>
+    </row>
+    <row r="50" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A50" s="14"/>
       <c r="B50" s="14"/>
       <c r="C50" s="14"/>
@@ -1657,10 +1673,10 @@
       <c r="E50" s="14"/>
       <c r="F50" s="14"/>
       <c r="G50" s="16"/>
-      <c r="H50" s="29"/>
-      <c r="I50" s="30"/>
-    </row>
-    <row r="51" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H50" s="34"/>
+      <c r="I50" s="35"/>
+    </row>
+    <row r="51" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A51" s="14"/>
       <c r="B51" s="14"/>
       <c r="C51" s="14"/>
@@ -1668,10 +1684,10 @@
       <c r="E51" s="14"/>
       <c r="F51" s="14"/>
       <c r="G51" s="16"/>
-      <c r="H51" s="29"/>
-      <c r="I51" s="30"/>
-    </row>
-    <row r="52" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H51" s="34"/>
+      <c r="I51" s="35"/>
+    </row>
+    <row r="52" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A52" s="14"/>
       <c r="B52" s="14"/>
       <c r="C52" s="14"/>
@@ -1679,10 +1695,10 @@
       <c r="E52" s="14"/>
       <c r="F52" s="14"/>
       <c r="G52" s="16"/>
-      <c r="H52" s="29"/>
-      <c r="I52" s="30"/>
-    </row>
-    <row r="53" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H52" s="34"/>
+      <c r="I52" s="35"/>
+    </row>
+    <row r="53" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A53" s="14"/>
       <c r="B53" s="14"/>
       <c r="C53" s="14"/>
@@ -1690,10 +1706,10 @@
       <c r="E53" s="14"/>
       <c r="F53" s="14"/>
       <c r="G53" s="16"/>
-      <c r="H53" s="29"/>
-      <c r="I53" s="30"/>
-    </row>
-    <row r="54" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H53" s="34"/>
+      <c r="I53" s="35"/>
+    </row>
+    <row r="54" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A54" s="14"/>
       <c r="B54" s="14"/>
       <c r="C54" s="14"/>
@@ -1701,10 +1717,10 @@
       <c r="E54" s="14"/>
       <c r="F54" s="14"/>
       <c r="G54" s="16"/>
-      <c r="H54" s="29"/>
-      <c r="I54" s="30"/>
-    </row>
-    <row r="55" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H54" s="34"/>
+      <c r="I54" s="35"/>
+    </row>
+    <row r="55" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A55" s="14"/>
       <c r="B55" s="14"/>
       <c r="C55" s="14"/>
@@ -1712,10 +1728,10 @@
       <c r="E55" s="14"/>
       <c r="F55" s="14"/>
       <c r="G55" s="16"/>
-      <c r="H55" s="29"/>
-      <c r="I55" s="30"/>
-    </row>
-    <row r="56" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H55" s="34"/>
+      <c r="I55" s="35"/>
+    </row>
+    <row r="56" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A56" s="14"/>
       <c r="B56" s="14"/>
       <c r="C56" s="14"/>
@@ -1723,10 +1739,10 @@
       <c r="E56" s="14"/>
       <c r="F56" s="14"/>
       <c r="G56" s="16"/>
-      <c r="H56" s="29"/>
-      <c r="I56" s="30"/>
-    </row>
-    <row r="57" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H56" s="34"/>
+      <c r="I56" s="35"/>
+    </row>
+    <row r="57" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A57" s="14"/>
       <c r="B57" s="14"/>
       <c r="C57" s="14"/>
@@ -1734,10 +1750,10 @@
       <c r="E57" s="14"/>
       <c r="F57" s="14"/>
       <c r="G57" s="16"/>
-      <c r="H57" s="29"/>
-      <c r="I57" s="30"/>
-    </row>
-    <row r="58" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H57" s="34"/>
+      <c r="I57" s="35"/>
+    </row>
+    <row r="58" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A58" s="14"/>
       <c r="B58" s="14"/>
       <c r="C58" s="14"/>
@@ -1745,10 +1761,10 @@
       <c r="E58" s="14"/>
       <c r="F58" s="14"/>
       <c r="G58" s="16"/>
-      <c r="H58" s="29"/>
-      <c r="I58" s="30"/>
-    </row>
-    <row r="59" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H58" s="34"/>
+      <c r="I58" s="35"/>
+    </row>
+    <row r="59" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A59" s="14"/>
       <c r="B59" s="14"/>
       <c r="C59" s="14"/>
@@ -1756,10 +1772,10 @@
       <c r="E59" s="14"/>
       <c r="F59" s="14"/>
       <c r="G59" s="16"/>
-      <c r="H59" s="29"/>
-      <c r="I59" s="30"/>
-    </row>
-    <row r="60" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H59" s="34"/>
+      <c r="I59" s="35"/>
+    </row>
+    <row r="60" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A60" s="14"/>
       <c r="B60" s="14"/>
       <c r="C60" s="14"/>
@@ -1767,10 +1783,10 @@
       <c r="E60" s="14"/>
       <c r="F60" s="14"/>
       <c r="G60" s="16"/>
-      <c r="H60" s="29"/>
-      <c r="I60" s="30"/>
-    </row>
-    <row r="61" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H60" s="34"/>
+      <c r="I60" s="35"/>
+    </row>
+    <row r="61" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A61" s="14"/>
       <c r="B61" s="14"/>
       <c r="C61" s="14"/>
@@ -1778,10 +1794,10 @@
       <c r="E61" s="14"/>
       <c r="F61" s="14"/>
       <c r="G61" s="16"/>
-      <c r="H61" s="29"/>
-      <c r="I61" s="30"/>
-    </row>
-    <row r="62" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H61" s="34"/>
+      <c r="I61" s="35"/>
+    </row>
+    <row r="62" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A62" s="14"/>
       <c r="B62" s="14"/>
       <c r="C62" s="14"/>
@@ -1789,10 +1805,10 @@
       <c r="E62" s="14"/>
       <c r="F62" s="14"/>
       <c r="G62" s="16"/>
-      <c r="H62" s="29"/>
-      <c r="I62" s="30"/>
-    </row>
-    <row r="63" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H62" s="34"/>
+      <c r="I62" s="35"/>
+    </row>
+    <row r="63" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A63" s="14"/>
       <c r="B63" s="14"/>
       <c r="C63" s="14"/>
@@ -1800,10 +1816,10 @@
       <c r="E63" s="14"/>
       <c r="F63" s="14"/>
       <c r="G63" s="16"/>
-      <c r="H63" s="29"/>
-      <c r="I63" s="30"/>
-    </row>
-    <row r="64" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H63" s="34"/>
+      <c r="I63" s="35"/>
+    </row>
+    <row r="64" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A64" s="14"/>
       <c r="B64" s="14"/>
       <c r="C64" s="14"/>
@@ -1811,10 +1827,10 @@
       <c r="E64" s="14"/>
       <c r="F64" s="14"/>
       <c r="G64" s="16"/>
-      <c r="H64" s="29"/>
-      <c r="I64" s="30"/>
-    </row>
-    <row r="65" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H64" s="34"/>
+      <c r="I64" s="35"/>
+    </row>
+    <row r="65" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A65" s="14"/>
       <c r="B65" s="14"/>
       <c r="C65" s="14"/>
@@ -1822,10 +1838,10 @@
       <c r="E65" s="14"/>
       <c r="F65" s="14"/>
       <c r="G65" s="16"/>
-      <c r="H65" s="29"/>
-      <c r="I65" s="30"/>
-    </row>
-    <row r="66" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H65" s="34"/>
+      <c r="I65" s="35"/>
+    </row>
+    <row r="66" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A66" s="14"/>
       <c r="B66" s="14"/>
       <c r="C66" s="14"/>
@@ -1833,10 +1849,10 @@
       <c r="E66" s="14"/>
       <c r="F66" s="14"/>
       <c r="G66" s="16"/>
-      <c r="H66" s="29"/>
-      <c r="I66" s="30"/>
-    </row>
-    <row r="67" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H66" s="34"/>
+      <c r="I66" s="35"/>
+    </row>
+    <row r="67" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A67" s="14"/>
       <c r="B67" s="14"/>
       <c r="C67" s="14"/>
@@ -1844,10 +1860,10 @@
       <c r="E67" s="14"/>
       <c r="F67" s="14"/>
       <c r="G67" s="16"/>
-      <c r="H67" s="29"/>
-      <c r="I67" s="30"/>
-    </row>
-    <row r="68" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H67" s="34"/>
+      <c r="I67" s="35"/>
+    </row>
+    <row r="68" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A68" s="14"/>
       <c r="B68" s="14"/>
       <c r="C68" s="14"/>
@@ -1855,10 +1871,10 @@
       <c r="E68" s="14"/>
       <c r="F68" s="14"/>
       <c r="G68" s="16"/>
-      <c r="H68" s="29"/>
-      <c r="I68" s="30"/>
-    </row>
-    <row r="69" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H68" s="34"/>
+      <c r="I68" s="35"/>
+    </row>
+    <row r="69" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A69" s="14"/>
       <c r="B69" s="14"/>
       <c r="C69" s="14"/>
@@ -1866,10 +1882,10 @@
       <c r="E69" s="14"/>
       <c r="F69" s="14"/>
       <c r="G69" s="16"/>
-      <c r="H69" s="29"/>
-      <c r="I69" s="30"/>
-    </row>
-    <row r="70" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H69" s="34"/>
+      <c r="I69" s="35"/>
+    </row>
+    <row r="70" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A70" s="14"/>
       <c r="B70" s="14"/>
       <c r="C70" s="14"/>
@@ -1877,10 +1893,10 @@
       <c r="E70" s="14"/>
       <c r="F70" s="14"/>
       <c r="G70" s="16"/>
-      <c r="H70" s="29"/>
-      <c r="I70" s="30"/>
-    </row>
-    <row r="71" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H70" s="34"/>
+      <c r="I70" s="35"/>
+    </row>
+    <row r="71" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A71" s="14"/>
       <c r="B71" s="14"/>
       <c r="C71" s="14"/>
@@ -1888,10 +1904,10 @@
       <c r="E71" s="14"/>
       <c r="F71" s="14"/>
       <c r="G71" s="16"/>
-      <c r="H71" s="29"/>
-      <c r="I71" s="30"/>
-    </row>
-    <row r="72" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H71" s="34"/>
+      <c r="I71" s="35"/>
+    </row>
+    <row r="72" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A72" s="14"/>
       <c r="B72" s="14"/>
       <c r="C72" s="14"/>
@@ -1899,10 +1915,10 @@
       <c r="E72" s="14"/>
       <c r="F72" s="14"/>
       <c r="G72" s="16"/>
-      <c r="H72" s="29"/>
-      <c r="I72" s="30"/>
-    </row>
-    <row r="73" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H72" s="34"/>
+      <c r="I72" s="35"/>
+    </row>
+    <row r="73" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A73" s="14"/>
       <c r="B73" s="14"/>
       <c r="C73" s="14"/>
@@ -1910,10 +1926,10 @@
       <c r="E73" s="14"/>
       <c r="F73" s="14"/>
       <c r="G73" s="16"/>
-      <c r="H73" s="29"/>
-      <c r="I73" s="30"/>
-    </row>
-    <row r="74" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H73" s="34"/>
+      <c r="I73" s="35"/>
+    </row>
+    <row r="74" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A74" s="14"/>
       <c r="B74" s="14"/>
       <c r="C74" s="14"/>
@@ -1921,10 +1937,10 @@
       <c r="E74" s="14"/>
       <c r="F74" s="14"/>
       <c r="G74" s="16"/>
-      <c r="H74" s="29"/>
-      <c r="I74" s="30"/>
-    </row>
-    <row r="75" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H74" s="34"/>
+      <c r="I74" s="35"/>
+    </row>
+    <row r="75" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A75" s="14"/>
       <c r="B75" s="14"/>
       <c r="C75" s="14"/>
@@ -1932,10 +1948,10 @@
       <c r="E75" s="14"/>
       <c r="F75" s="14"/>
       <c r="G75" s="16"/>
-      <c r="H75" s="29"/>
-      <c r="I75" s="30"/>
-    </row>
-    <row r="76" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H75" s="34"/>
+      <c r="I75" s="35"/>
+    </row>
+    <row r="76" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A76" s="14"/>
       <c r="B76" s="14"/>
       <c r="C76" s="14"/>
@@ -1943,10 +1959,10 @@
       <c r="E76" s="14"/>
       <c r="F76" s="14"/>
       <c r="G76" s="16"/>
-      <c r="H76" s="29"/>
-      <c r="I76" s="30"/>
-    </row>
-    <row r="77" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H76" s="34"/>
+      <c r="I76" s="35"/>
+    </row>
+    <row r="77" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A77" s="14"/>
       <c r="B77" s="14"/>
       <c r="C77" s="14"/>
@@ -1954,10 +1970,10 @@
       <c r="E77" s="14"/>
       <c r="F77" s="14"/>
       <c r="G77" s="16"/>
-      <c r="H77" s="29"/>
-      <c r="I77" s="30"/>
-    </row>
-    <row r="78" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H77" s="34"/>
+      <c r="I77" s="35"/>
+    </row>
+    <row r="78" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A78" s="14"/>
       <c r="B78" s="14"/>
       <c r="C78" s="14"/>
@@ -1965,10 +1981,10 @@
       <c r="E78" s="14"/>
       <c r="F78" s="14"/>
       <c r="G78" s="16"/>
-      <c r="H78" s="29"/>
-      <c r="I78" s="30"/>
-    </row>
-    <row r="79" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H78" s="34"/>
+      <c r="I78" s="35"/>
+    </row>
+    <row r="79" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A79" s="14"/>
       <c r="B79" s="14"/>
       <c r="C79" s="14"/>
@@ -1976,10 +1992,10 @@
       <c r="E79" s="14"/>
       <c r="F79" s="14"/>
       <c r="G79" s="16"/>
-      <c r="H79" s="29"/>
-      <c r="I79" s="30"/>
-    </row>
-    <row r="80" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H79" s="34"/>
+      <c r="I79" s="35"/>
+    </row>
+    <row r="80" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A80" s="14"/>
       <c r="B80" s="14"/>
       <c r="C80" s="14"/>
@@ -1987,10 +2003,10 @@
       <c r="E80" s="14"/>
       <c r="F80" s="14"/>
       <c r="G80" s="16"/>
-      <c r="H80" s="29"/>
-      <c r="I80" s="30"/>
-    </row>
-    <row r="81" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H80" s="34"/>
+      <c r="I80" s="35"/>
+    </row>
+    <row r="81" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A81" s="14"/>
       <c r="B81" s="14"/>
       <c r="C81" s="14"/>
@@ -1998,10 +2014,10 @@
       <c r="E81" s="14"/>
       <c r="F81" s="14"/>
       <c r="G81" s="16"/>
-      <c r="H81" s="29"/>
-      <c r="I81" s="30"/>
-    </row>
-    <row r="82" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H81" s="34"/>
+      <c r="I81" s="35"/>
+    </row>
+    <row r="82" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A82" s="14"/>
       <c r="B82" s="14"/>
       <c r="C82" s="14"/>
@@ -2009,10 +2025,10 @@
       <c r="E82" s="14"/>
       <c r="F82" s="14"/>
       <c r="G82" s="16"/>
-      <c r="H82" s="29"/>
-      <c r="I82" s="30"/>
-    </row>
-    <row r="83" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H82" s="34"/>
+      <c r="I82" s="35"/>
+    </row>
+    <row r="83" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A83" s="14"/>
       <c r="B83" s="14"/>
       <c r="C83" s="14"/>
@@ -2020,10 +2036,10 @@
       <c r="E83" s="14"/>
       <c r="F83" s="14"/>
       <c r="G83" s="16"/>
-      <c r="H83" s="29"/>
-      <c r="I83" s="30"/>
-    </row>
-    <row r="84" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H83" s="34"/>
+      <c r="I83" s="35"/>
+    </row>
+    <row r="84" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A84" s="14"/>
       <c r="B84" s="14"/>
       <c r="C84" s="14"/>
@@ -2031,10 +2047,10 @@
       <c r="E84" s="14"/>
       <c r="F84" s="14"/>
       <c r="G84" s="16"/>
-      <c r="H84" s="29"/>
-      <c r="I84" s="30"/>
-    </row>
-    <row r="85" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H84" s="34"/>
+      <c r="I84" s="35"/>
+    </row>
+    <row r="85" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A85" s="14"/>
       <c r="B85" s="14"/>
       <c r="C85" s="14"/>
@@ -2042,10 +2058,10 @@
       <c r="E85" s="14"/>
       <c r="F85" s="14"/>
       <c r="G85" s="16"/>
-      <c r="H85" s="29"/>
-      <c r="I85" s="30"/>
-    </row>
-    <row r="86" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H85" s="34"/>
+      <c r="I85" s="35"/>
+    </row>
+    <row r="86" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A86" s="14"/>
       <c r="B86" s="14"/>
       <c r="C86" s="14"/>
@@ -2053,10 +2069,10 @@
       <c r="E86" s="14"/>
       <c r="F86" s="14"/>
       <c r="G86" s="16"/>
-      <c r="H86" s="29"/>
-      <c r="I86" s="30"/>
-    </row>
-    <row r="87" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H86" s="34"/>
+      <c r="I86" s="35"/>
+    </row>
+    <row r="87" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A87" s="14"/>
       <c r="B87" s="14"/>
       <c r="C87" s="14"/>
@@ -2064,10 +2080,10 @@
       <c r="E87" s="14"/>
       <c r="F87" s="14"/>
       <c r="G87" s="16"/>
-      <c r="H87" s="29"/>
-      <c r="I87" s="30"/>
-    </row>
-    <row r="88" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H87" s="34"/>
+      <c r="I87" s="35"/>
+    </row>
+    <row r="88" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A88" s="14"/>
       <c r="B88" s="14"/>
       <c r="C88" s="14"/>
@@ -2075,10 +2091,10 @@
       <c r="E88" s="14"/>
       <c r="F88" s="14"/>
       <c r="G88" s="16"/>
-      <c r="H88" s="29"/>
-      <c r="I88" s="30"/>
-    </row>
-    <row r="89" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H88" s="34"/>
+      <c r="I88" s="35"/>
+    </row>
+    <row r="89" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A89" s="14"/>
       <c r="B89" s="14"/>
       <c r="C89" s="14"/>
@@ -2086,10 +2102,10 @@
       <c r="E89" s="14"/>
       <c r="F89" s="14"/>
       <c r="G89" s="16"/>
-      <c r="H89" s="29"/>
-      <c r="I89" s="30"/>
-    </row>
-    <row r="90" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H89" s="34"/>
+      <c r="I89" s="35"/>
+    </row>
+    <row r="90" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A90" s="14"/>
       <c r="B90" s="14"/>
       <c r="C90" s="14"/>
@@ -2097,10 +2113,10 @@
       <c r="E90" s="14"/>
       <c r="F90" s="14"/>
       <c r="G90" s="16"/>
-      <c r="H90" s="29"/>
-      <c r="I90" s="30"/>
-    </row>
-    <row r="91" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H90" s="34"/>
+      <c r="I90" s="35"/>
+    </row>
+    <row r="91" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A91" s="14"/>
       <c r="B91" s="14"/>
       <c r="C91" s="14"/>
@@ -2108,10 +2124,10 @@
       <c r="E91" s="14"/>
       <c r="F91" s="14"/>
       <c r="G91" s="16"/>
-      <c r="H91" s="29"/>
-      <c r="I91" s="30"/>
-    </row>
-    <row r="92" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H91" s="34"/>
+      <c r="I91" s="35"/>
+    </row>
+    <row r="92" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A92" s="14"/>
       <c r="B92" s="14"/>
       <c r="C92" s="14"/>
@@ -2119,10 +2135,10 @@
       <c r="E92" s="14"/>
       <c r="F92" s="14"/>
       <c r="G92" s="16"/>
-      <c r="H92" s="29"/>
-      <c r="I92" s="30"/>
-    </row>
-    <row r="93" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H92" s="34"/>
+      <c r="I92" s="35"/>
+    </row>
+    <row r="93" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A93" s="14"/>
       <c r="B93" s="14"/>
       <c r="C93" s="14"/>
@@ -2130,10 +2146,10 @@
       <c r="E93" s="14"/>
       <c r="F93" s="14"/>
       <c r="G93" s="16"/>
-      <c r="H93" s="29"/>
-      <c r="I93" s="30"/>
-    </row>
-    <row r="94" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H93" s="34"/>
+      <c r="I93" s="35"/>
+    </row>
+    <row r="94" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A94" s="14"/>
       <c r="B94" s="14"/>
       <c r="C94" s="14"/>
@@ -2141,10 +2157,10 @@
       <c r="E94" s="14"/>
       <c r="F94" s="14"/>
       <c r="G94" s="16"/>
-      <c r="H94" s="29"/>
-      <c r="I94" s="30"/>
-    </row>
-    <row r="95" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H94" s="34"/>
+      <c r="I94" s="35"/>
+    </row>
+    <row r="95" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A95" s="14"/>
       <c r="B95" s="14"/>
       <c r="C95" s="14"/>
@@ -2152,10 +2168,10 @@
       <c r="E95" s="14"/>
       <c r="F95" s="14"/>
       <c r="G95" s="16"/>
-      <c r="H95" s="29"/>
-      <c r="I95" s="30"/>
-    </row>
-    <row r="96" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H95" s="34"/>
+      <c r="I95" s="35"/>
+    </row>
+    <row r="96" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A96" s="14"/>
       <c r="B96" s="14"/>
       <c r="C96" s="14"/>
@@ -2163,10 +2179,10 @@
       <c r="E96" s="14"/>
       <c r="F96" s="14"/>
       <c r="G96" s="16"/>
-      <c r="H96" s="29"/>
-      <c r="I96" s="30"/>
-    </row>
-    <row r="97" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H96" s="34"/>
+      <c r="I96" s="35"/>
+    </row>
+    <row r="97" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A97" s="14"/>
       <c r="B97" s="14"/>
       <c r="C97" s="14"/>
@@ -2174,10 +2190,10 @@
       <c r="E97" s="14"/>
       <c r="F97" s="14"/>
       <c r="G97" s="16"/>
-      <c r="H97" s="29"/>
-      <c r="I97" s="30"/>
-    </row>
-    <row r="98" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H97" s="34"/>
+      <c r="I97" s="35"/>
+    </row>
+    <row r="98" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A98" s="14"/>
       <c r="B98" s="14"/>
       <c r="C98" s="14"/>
@@ -2185,10 +2201,10 @@
       <c r="E98" s="14"/>
       <c r="F98" s="14"/>
       <c r="G98" s="16"/>
-      <c r="H98" s="29"/>
-      <c r="I98" s="30"/>
-    </row>
-    <row r="99" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H98" s="34"/>
+      <c r="I98" s="35"/>
+    </row>
+    <row r="99" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A99" s="14"/>
       <c r="B99" s="14"/>
       <c r="C99" s="14"/>
@@ -2196,10 +2212,10 @@
       <c r="E99" s="14"/>
       <c r="F99" s="14"/>
       <c r="G99" s="16"/>
-      <c r="H99" s="29"/>
-      <c r="I99" s="30"/>
-    </row>
-    <row r="100" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H99" s="34"/>
+      <c r="I99" s="35"/>
+    </row>
+    <row r="100" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A100" s="14"/>
       <c r="B100" s="14"/>
       <c r="C100" s="14"/>
@@ -2207,10 +2223,10 @@
       <c r="E100" s="14"/>
       <c r="F100" s="14"/>
       <c r="G100" s="16"/>
-      <c r="H100" s="29"/>
-      <c r="I100" s="30"/>
-    </row>
-    <row r="101" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H100" s="34"/>
+      <c r="I100" s="35"/>
+    </row>
+    <row r="101" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A101" s="14"/>
       <c r="B101" s="14"/>
       <c r="C101" s="14"/>
@@ -2218,10 +2234,10 @@
       <c r="E101" s="14"/>
       <c r="F101" s="14"/>
       <c r="G101" s="16"/>
-      <c r="H101" s="29"/>
-      <c r="I101" s="30"/>
-    </row>
-    <row r="102" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H101" s="34"/>
+      <c r="I101" s="35"/>
+    </row>
+    <row r="102" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A102" s="14"/>
       <c r="B102" s="14"/>
       <c r="C102" s="14"/>
@@ -2229,10 +2245,10 @@
       <c r="E102" s="14"/>
       <c r="F102" s="14"/>
       <c r="G102" s="16"/>
-      <c r="H102" s="29"/>
-      <c r="I102" s="30"/>
-    </row>
-    <row r="103" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H102" s="34"/>
+      <c r="I102" s="35"/>
+    </row>
+    <row r="103" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A103" s="14"/>
       <c r="B103" s="14"/>
       <c r="C103" s="14"/>
@@ -2240,10 +2256,10 @@
       <c r="E103" s="14"/>
       <c r="F103" s="14"/>
       <c r="G103" s="16"/>
-      <c r="H103" s="29"/>
-      <c r="I103" s="30"/>
-    </row>
-    <row r="104" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H103" s="34"/>
+      <c r="I103" s="35"/>
+    </row>
+    <row r="104" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A104" s="14"/>
       <c r="B104" s="14"/>
       <c r="C104" s="14"/>
@@ -2251,10 +2267,10 @@
       <c r="E104" s="14"/>
       <c r="F104" s="14"/>
       <c r="G104" s="16"/>
-      <c r="H104" s="29"/>
-      <c r="I104" s="30"/>
-    </row>
-    <row r="105" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H104" s="34"/>
+      <c r="I104" s="35"/>
+    </row>
+    <row r="105" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A105" s="14"/>
       <c r="B105" s="14"/>
       <c r="C105" s="14"/>
@@ -2262,10 +2278,10 @@
       <c r="E105" s="14"/>
       <c r="F105" s="14"/>
       <c r="G105" s="16"/>
-      <c r="H105" s="29"/>
-      <c r="I105" s="30"/>
-    </row>
-    <row r="106" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H105" s="34"/>
+      <c r="I105" s="35"/>
+    </row>
+    <row r="106" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A106" s="14"/>
       <c r="B106" s="14"/>
       <c r="C106" s="14"/>
@@ -2273,10 +2289,10 @@
       <c r="E106" s="14"/>
       <c r="F106" s="14"/>
       <c r="G106" s="16"/>
-      <c r="H106" s="29"/>
-      <c r="I106" s="30"/>
-    </row>
-    <row r="107" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H106" s="34"/>
+      <c r="I106" s="35"/>
+    </row>
+    <row r="107" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A107" s="14"/>
       <c r="B107" s="14"/>
       <c r="C107" s="14"/>
@@ -2284,10 +2300,10 @@
       <c r="E107" s="14"/>
       <c r="F107" s="14"/>
       <c r="G107" s="16"/>
-      <c r="H107" s="29"/>
-      <c r="I107" s="30"/>
-    </row>
-    <row r="108" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H107" s="34"/>
+      <c r="I107" s="35"/>
+    </row>
+    <row r="108" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A108" s="14"/>
       <c r="B108" s="14"/>
       <c r="C108" s="14"/>
@@ -2295,10 +2311,10 @@
       <c r="E108" s="14"/>
       <c r="F108" s="14"/>
       <c r="G108" s="16"/>
-      <c r="H108" s="29"/>
-      <c r="I108" s="30"/>
-    </row>
-    <row r="109" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H108" s="34"/>
+      <c r="I108" s="35"/>
+    </row>
+    <row r="109" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A109" s="14"/>
       <c r="B109" s="14"/>
       <c r="C109" s="14"/>
@@ -2306,10 +2322,10 @@
       <c r="E109" s="14"/>
       <c r="F109" s="14"/>
       <c r="G109" s="16"/>
-      <c r="H109" s="29"/>
-      <c r="I109" s="30"/>
-    </row>
-    <row r="110" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H109" s="34"/>
+      <c r="I109" s="35"/>
+    </row>
+    <row r="110" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A110" s="14"/>
       <c r="B110" s="14"/>
       <c r="C110" s="14"/>
@@ -2317,10 +2333,10 @@
       <c r="E110" s="14"/>
       <c r="F110" s="14"/>
       <c r="G110" s="16"/>
-      <c r="H110" s="29"/>
-      <c r="I110" s="30"/>
-    </row>
-    <row r="111" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H110" s="34"/>
+      <c r="I110" s="35"/>
+    </row>
+    <row r="111" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A111" s="14"/>
       <c r="B111" s="14"/>
       <c r="C111" s="14"/>
@@ -2328,10 +2344,10 @@
       <c r="E111" s="14"/>
       <c r="F111" s="14"/>
       <c r="G111" s="16"/>
-      <c r="H111" s="29"/>
-      <c r="I111" s="30"/>
-    </row>
-    <row r="112" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H111" s="34"/>
+      <c r="I111" s="35"/>
+    </row>
+    <row r="112" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A112" s="14"/>
       <c r="B112" s="14"/>
       <c r="C112" s="14"/>
@@ -2339,10 +2355,10 @@
       <c r="E112" s="14"/>
       <c r="F112" s="14"/>
       <c r="G112" s="16"/>
-      <c r="H112" s="29"/>
-      <c r="I112" s="30"/>
-    </row>
-    <row r="113" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H112" s="34"/>
+      <c r="I112" s="35"/>
+    </row>
+    <row r="113" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A113" s="14"/>
       <c r="B113" s="14"/>
       <c r="C113" s="14"/>
@@ -2350,10 +2366,10 @@
       <c r="E113" s="14"/>
       <c r="F113" s="14"/>
       <c r="G113" s="16"/>
-      <c r="H113" s="29"/>
-      <c r="I113" s="30"/>
-    </row>
-    <row r="114" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H113" s="34"/>
+      <c r="I113" s="35"/>
+    </row>
+    <row r="114" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A114" s="14"/>
       <c r="B114" s="14"/>
       <c r="C114" s="14"/>
@@ -2361,10 +2377,10 @@
       <c r="E114" s="14"/>
       <c r="F114" s="14"/>
       <c r="G114" s="16"/>
-      <c r="H114" s="29"/>
-      <c r="I114" s="30"/>
-    </row>
-    <row r="115" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H114" s="34"/>
+      <c r="I114" s="35"/>
+    </row>
+    <row r="115" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A115" s="14"/>
       <c r="B115" s="14"/>
       <c r="C115" s="14"/>
@@ -2372,10 +2388,10 @@
       <c r="E115" s="14"/>
       <c r="F115" s="14"/>
       <c r="G115" s="16"/>
-      <c r="H115" s="29"/>
-      <c r="I115" s="30"/>
-    </row>
-    <row r="116" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H115" s="34"/>
+      <c r="I115" s="35"/>
+    </row>
+    <row r="116" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A116" s="14"/>
       <c r="B116" s="14"/>
       <c r="C116" s="14"/>
@@ -2383,10 +2399,10 @@
       <c r="E116" s="14"/>
       <c r="F116" s="14"/>
       <c r="G116" s="16"/>
-      <c r="H116" s="29"/>
-      <c r="I116" s="30"/>
-    </row>
-    <row r="117" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H116" s="34"/>
+      <c r="I116" s="35"/>
+    </row>
+    <row r="117" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A117" s="14"/>
       <c r="B117" s="14"/>
       <c r="C117" s="14"/>
@@ -2394,10 +2410,10 @@
       <c r="E117" s="14"/>
       <c r="F117" s="14"/>
       <c r="G117" s="16"/>
-      <c r="H117" s="29"/>
-      <c r="I117" s="30"/>
-    </row>
-    <row r="118" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H117" s="34"/>
+      <c r="I117" s="35"/>
+    </row>
+    <row r="118" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A118" s="14"/>
       <c r="B118" s="14"/>
       <c r="C118" s="14"/>
@@ -2405,10 +2421,10 @@
       <c r="E118" s="14"/>
       <c r="F118" s="14"/>
       <c r="G118" s="16"/>
-      <c r="H118" s="29"/>
-      <c r="I118" s="30"/>
-    </row>
-    <row r="119" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H118" s="34"/>
+      <c r="I118" s="35"/>
+    </row>
+    <row r="119" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A119" s="14"/>
       <c r="B119" s="14"/>
       <c r="C119" s="14"/>
@@ -2416,10 +2432,10 @@
       <c r="E119" s="14"/>
       <c r="F119" s="14"/>
       <c r="G119" s="16"/>
-      <c r="H119" s="29"/>
-      <c r="I119" s="30"/>
-    </row>
-    <row r="120" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H119" s="34"/>
+      <c r="I119" s="35"/>
+    </row>
+    <row r="120" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A120" s="14"/>
       <c r="B120" s="14"/>
       <c r="C120" s="14"/>
@@ -2427,10 +2443,10 @@
       <c r="E120" s="14"/>
       <c r="F120" s="14"/>
       <c r="G120" s="16"/>
-      <c r="H120" s="29"/>
-      <c r="I120" s="30"/>
-    </row>
-    <row r="121" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H120" s="34"/>
+      <c r="I120" s="35"/>
+    </row>
+    <row r="121" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A121" s="14"/>
       <c r="B121" s="14"/>
       <c r="C121" s="14"/>
@@ -2438,10 +2454,10 @@
       <c r="E121" s="14"/>
       <c r="F121" s="14"/>
       <c r="G121" s="16"/>
-      <c r="H121" s="29"/>
-      <c r="I121" s="30"/>
-    </row>
-    <row r="122" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H121" s="34"/>
+      <c r="I121" s="35"/>
+    </row>
+    <row r="122" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A122" s="14"/>
       <c r="B122" s="14"/>
       <c r="C122" s="14"/>
@@ -2449,10 +2465,10 @@
       <c r="E122" s="14"/>
       <c r="F122" s="14"/>
       <c r="G122" s="16"/>
-      <c r="H122" s="29"/>
-      <c r="I122" s="30"/>
-    </row>
-    <row r="123" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H122" s="34"/>
+      <c r="I122" s="35"/>
+    </row>
+    <row r="123" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A123" s="14"/>
       <c r="B123" s="14"/>
       <c r="C123" s="14"/>
@@ -2460,10 +2476,10 @@
       <c r="E123" s="14"/>
       <c r="F123" s="14"/>
       <c r="G123" s="16"/>
-      <c r="H123" s="29"/>
-      <c r="I123" s="30"/>
-    </row>
-    <row r="124" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H123" s="34"/>
+      <c r="I123" s="35"/>
+    </row>
+    <row r="124" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A124" s="14"/>
       <c r="B124" s="14"/>
       <c r="C124" s="14"/>
@@ -2471,10 +2487,10 @@
       <c r="E124" s="14"/>
       <c r="F124" s="14"/>
       <c r="G124" s="16"/>
-      <c r="H124" s="29"/>
-      <c r="I124" s="30"/>
-    </row>
-    <row r="125" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H124" s="34"/>
+      <c r="I124" s="35"/>
+    </row>
+    <row r="125" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A125" s="14"/>
       <c r="B125" s="14"/>
       <c r="C125" s="14"/>
@@ -2482,10 +2498,10 @@
       <c r="E125" s="14"/>
       <c r="F125" s="14"/>
       <c r="G125" s="16"/>
-      <c r="H125" s="29"/>
-      <c r="I125" s="30"/>
-    </row>
-    <row r="126" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H125" s="34"/>
+      <c r="I125" s="35"/>
+    </row>
+    <row r="126" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A126" s="14"/>
       <c r="B126" s="14"/>
       <c r="C126" s="14"/>
@@ -2493,10 +2509,10 @@
       <c r="E126" s="14"/>
       <c r="F126" s="14"/>
       <c r="G126" s="16"/>
-      <c r="H126" s="29"/>
-      <c r="I126" s="30"/>
-    </row>
-    <row r="127" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H126" s="34"/>
+      <c r="I126" s="35"/>
+    </row>
+    <row r="127" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A127" s="14"/>
       <c r="B127" s="14"/>
       <c r="C127" s="14"/>
@@ -2504,10 +2520,10 @@
       <c r="E127" s="14"/>
       <c r="F127" s="14"/>
       <c r="G127" s="16"/>
-      <c r="H127" s="29"/>
-      <c r="I127" s="30"/>
-    </row>
-    <row r="128" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H127" s="34"/>
+      <c r="I127" s="35"/>
+    </row>
+    <row r="128" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A128" s="14"/>
       <c r="B128" s="14"/>
       <c r="C128" s="14"/>
@@ -2515,10 +2531,10 @@
       <c r="E128" s="14"/>
       <c r="F128" s="14"/>
       <c r="G128" s="16"/>
-      <c r="H128" s="29"/>
-      <c r="I128" s="30"/>
-    </row>
-    <row r="129" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H128" s="34"/>
+      <c r="I128" s="35"/>
+    </row>
+    <row r="129" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A129" s="14"/>
       <c r="B129" s="14"/>
       <c r="C129" s="14"/>
@@ -2526,10 +2542,10 @@
       <c r="E129" s="14"/>
       <c r="F129" s="14"/>
       <c r="G129" s="16"/>
-      <c r="H129" s="29"/>
-      <c r="I129" s="30"/>
-    </row>
-    <row r="130" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H129" s="34"/>
+      <c r="I129" s="35"/>
+    </row>
+    <row r="130" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A130" s="14"/>
       <c r="B130" s="14"/>
       <c r="C130" s="14"/>
@@ -2537,10 +2553,10 @@
       <c r="E130" s="14"/>
       <c r="F130" s="14"/>
       <c r="G130" s="16"/>
-      <c r="H130" s="29"/>
-      <c r="I130" s="30"/>
-    </row>
-    <row r="131" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H130" s="34"/>
+      <c r="I130" s="35"/>
+    </row>
+    <row r="131" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A131" s="14"/>
       <c r="B131" s="14"/>
       <c r="C131" s="14"/>
@@ -2548,10 +2564,10 @@
       <c r="E131" s="14"/>
       <c r="F131" s="14"/>
       <c r="G131" s="16"/>
-      <c r="H131" s="29"/>
-      <c r="I131" s="30"/>
-    </row>
-    <row r="132" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H131" s="34"/>
+      <c r="I131" s="35"/>
+    </row>
+    <row r="132" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A132" s="14"/>
       <c r="B132" s="14"/>
       <c r="C132" s="14"/>
@@ -2559,10 +2575,10 @@
       <c r="E132" s="14"/>
       <c r="F132" s="14"/>
       <c r="G132" s="16"/>
-      <c r="H132" s="29"/>
-      <c r="I132" s="30"/>
-    </row>
-    <row r="133" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H132" s="34"/>
+      <c r="I132" s="35"/>
+    </row>
+    <row r="133" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A133" s="14"/>
       <c r="B133" s="14"/>
       <c r="C133" s="14"/>
@@ -2570,10 +2586,10 @@
       <c r="E133" s="14"/>
       <c r="F133" s="14"/>
       <c r="G133" s="16"/>
-      <c r="H133" s="29"/>
-      <c r="I133" s="30"/>
-    </row>
-    <row r="134" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H133" s="34"/>
+      <c r="I133" s="35"/>
+    </row>
+    <row r="134" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A134" s="14"/>
       <c r="B134" s="14"/>
       <c r="C134" s="14"/>
@@ -2581,10 +2597,10 @@
       <c r="E134" s="14"/>
       <c r="F134" s="14"/>
       <c r="G134" s="16"/>
-      <c r="H134" s="29"/>
-      <c r="I134" s="30"/>
-    </row>
-    <row r="135" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H134" s="34"/>
+      <c r="I134" s="35"/>
+    </row>
+    <row r="135" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A135" s="14"/>
       <c r="B135" s="14"/>
       <c r="C135" s="14"/>
@@ -2592,10 +2608,10 @@
       <c r="E135" s="14"/>
       <c r="F135" s="14"/>
       <c r="G135" s="16"/>
-      <c r="H135" s="29"/>
-      <c r="I135" s="30"/>
-    </row>
-    <row r="136" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H135" s="34"/>
+      <c r="I135" s="35"/>
+    </row>
+    <row r="136" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A136" s="14"/>
       <c r="B136" s="14"/>
       <c r="C136" s="14"/>
@@ -2603,10 +2619,10 @@
       <c r="E136" s="14"/>
       <c r="F136" s="14"/>
       <c r="G136" s="16"/>
-      <c r="H136" s="29"/>
-      <c r="I136" s="30"/>
-    </row>
-    <row r="137" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H136" s="34"/>
+      <c r="I136" s="35"/>
+    </row>
+    <row r="137" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A137" s="14"/>
       <c r="B137" s="14"/>
       <c r="C137" s="14"/>
@@ -2614,10 +2630,10 @@
       <c r="E137" s="14"/>
       <c r="F137" s="14"/>
       <c r="G137" s="16"/>
-      <c r="H137" s="29"/>
-      <c r="I137" s="30"/>
-    </row>
-    <row r="138" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H137" s="34"/>
+      <c r="I137" s="35"/>
+    </row>
+    <row r="138" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A138" s="14"/>
       <c r="B138" s="14"/>
       <c r="C138" s="14"/>
@@ -2625,10 +2641,10 @@
       <c r="E138" s="14"/>
       <c r="F138" s="14"/>
       <c r="G138" s="16"/>
-      <c r="H138" s="29"/>
-      <c r="I138" s="30"/>
-    </row>
-    <row r="139" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H138" s="34"/>
+      <c r="I138" s="35"/>
+    </row>
+    <row r="139" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A139" s="14"/>
       <c r="B139" s="14"/>
       <c r="C139" s="14"/>
@@ -2636,10 +2652,10 @@
       <c r="E139" s="14"/>
       <c r="F139" s="14"/>
       <c r="G139" s="16"/>
-      <c r="H139" s="29"/>
-      <c r="I139" s="30"/>
-    </row>
-    <row r="140" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H139" s="34"/>
+      <c r="I139" s="35"/>
+    </row>
+    <row r="140" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A140" s="14"/>
       <c r="B140" s="14"/>
       <c r="C140" s="14"/>
@@ -2647,10 +2663,10 @@
       <c r="E140" s="14"/>
       <c r="F140" s="14"/>
       <c r="G140" s="16"/>
-      <c r="H140" s="29"/>
-      <c r="I140" s="30"/>
-    </row>
-    <row r="141" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H140" s="34"/>
+      <c r="I140" s="35"/>
+    </row>
+    <row r="141" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A141" s="14"/>
       <c r="B141" s="14"/>
       <c r="C141" s="14"/>
@@ -2658,10 +2674,10 @@
       <c r="E141" s="14"/>
       <c r="F141" s="14"/>
       <c r="G141" s="16"/>
-      <c r="H141" s="29"/>
-      <c r="I141" s="30"/>
-    </row>
-    <row r="142" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H141" s="34"/>
+      <c r="I141" s="35"/>
+    </row>
+    <row r="142" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A142" s="14"/>
       <c r="B142" s="14"/>
       <c r="C142" s="14"/>
@@ -2669,10 +2685,10 @@
       <c r="E142" s="14"/>
       <c r="F142" s="14"/>
       <c r="G142" s="16"/>
-      <c r="H142" s="29"/>
-      <c r="I142" s="30"/>
-    </row>
-    <row r="143" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H142" s="34"/>
+      <c r="I142" s="35"/>
+    </row>
+    <row r="143" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A143" s="14"/>
       <c r="B143" s="14"/>
       <c r="C143" s="14"/>
@@ -2680,10 +2696,10 @@
       <c r="E143" s="14"/>
       <c r="F143" s="14"/>
       <c r="G143" s="16"/>
-      <c r="H143" s="29"/>
-      <c r="I143" s="30"/>
-    </row>
-    <row r="144" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H143" s="34"/>
+      <c r="I143" s="35"/>
+    </row>
+    <row r="144" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A144" s="14"/>
       <c r="B144" s="14"/>
       <c r="C144" s="14"/>
@@ -2691,10 +2707,10 @@
       <c r="E144" s="14"/>
       <c r="F144" s="14"/>
       <c r="G144" s="16"/>
-      <c r="H144" s="29"/>
-      <c r="I144" s="30"/>
-    </row>
-    <row r="145" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H144" s="34"/>
+      <c r="I144" s="35"/>
+    </row>
+    <row r="145" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A145" s="14"/>
       <c r="B145" s="14"/>
       <c r="C145" s="14"/>
@@ -2702,10 +2718,10 @@
       <c r="E145" s="14"/>
       <c r="F145" s="14"/>
       <c r="G145" s="16"/>
-      <c r="H145" s="29"/>
-      <c r="I145" s="30"/>
-    </row>
-    <row r="146" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H145" s="34"/>
+      <c r="I145" s="35"/>
+    </row>
+    <row r="146" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A146" s="14"/>
       <c r="B146" s="14"/>
       <c r="C146" s="14"/>
@@ -2713,10 +2729,10 @@
       <c r="E146" s="14"/>
       <c r="F146" s="14"/>
       <c r="G146" s="16"/>
-      <c r="H146" s="29"/>
-      <c r="I146" s="30"/>
-    </row>
-    <row r="147" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H146" s="34"/>
+      <c r="I146" s="35"/>
+    </row>
+    <row r="147" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A147" s="14"/>
       <c r="B147" s="14"/>
       <c r="C147" s="14"/>
@@ -2724,10 +2740,10 @@
       <c r="E147" s="14"/>
       <c r="F147" s="14"/>
       <c r="G147" s="16"/>
-      <c r="H147" s="29"/>
-      <c r="I147" s="30"/>
-    </row>
-    <row r="148" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H147" s="34"/>
+      <c r="I147" s="35"/>
+    </row>
+    <row r="148" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A148" s="14"/>
       <c r="B148" s="14"/>
       <c r="C148" s="14"/>
@@ -2735,10 +2751,10 @@
       <c r="E148" s="14"/>
       <c r="F148" s="14"/>
       <c r="G148" s="16"/>
-      <c r="H148" s="29"/>
-      <c r="I148" s="30"/>
-    </row>
-    <row r="149" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H148" s="34"/>
+      <c r="I148" s="35"/>
+    </row>
+    <row r="149" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A149" s="14"/>
       <c r="B149" s="14"/>
       <c r="C149" s="14"/>
@@ -2746,10 +2762,10 @@
       <c r="E149" s="14"/>
       <c r="F149" s="14"/>
       <c r="G149" s="16"/>
-      <c r="H149" s="29"/>
-      <c r="I149" s="30"/>
-    </row>
-    <row r="150" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H149" s="34"/>
+      <c r="I149" s="35"/>
+    </row>
+    <row r="150" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A150" s="14"/>
       <c r="B150" s="14"/>
       <c r="C150" s="14"/>
@@ -2757,10 +2773,10 @@
       <c r="E150" s="14"/>
       <c r="F150" s="14"/>
       <c r="G150" s="16"/>
-      <c r="H150" s="29"/>
-      <c r="I150" s="30"/>
-    </row>
-    <row r="151" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H150" s="34"/>
+      <c r="I150" s="35"/>
+    </row>
+    <row r="151" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A151" s="14"/>
       <c r="B151" s="14"/>
       <c r="C151" s="14"/>
@@ -2771,7 +2787,7 @@
       <c r="H151" s="14"/>
       <c r="I151" s="14"/>
     </row>
-    <row r="152" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A152" s="14"/>
       <c r="B152" s="14"/>
       <c r="C152" s="14"/>
@@ -2782,7 +2798,7 @@
       <c r="H152" s="14"/>
       <c r="I152" s="14"/>
     </row>
-    <row r="153" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A153" s="14"/>
       <c r="B153" s="14"/>
       <c r="C153" s="14"/>
@@ -2793,7 +2809,7 @@
       <c r="H153" s="14"/>
       <c r="I153" s="14"/>
     </row>
-    <row r="154" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A154" s="14"/>
       <c r="B154" s="14"/>
       <c r="C154" s="14"/>
@@ -2804,7 +2820,7 @@
       <c r="H154" s="14"/>
       <c r="I154" s="14"/>
     </row>
-    <row r="155" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A155" s="14"/>
       <c r="B155" s="14"/>
       <c r="C155" s="14"/>
@@ -2815,7 +2831,7 @@
       <c r="H155" s="14"/>
       <c r="I155" s="14"/>
     </row>
-    <row r="156" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A156" s="14"/>
       <c r="B156" s="14"/>
       <c r="C156" s="14"/>
@@ -2826,7 +2842,7 @@
       <c r="H156" s="14"/>
       <c r="I156" s="14"/>
     </row>
-    <row r="157" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A157" s="14"/>
       <c r="B157" s="14"/>
       <c r="C157" s="14"/>
@@ -2837,7 +2853,7 @@
       <c r="H157" s="14"/>
       <c r="I157" s="14"/>
     </row>
-    <row r="158" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A158" s="14"/>
       <c r="B158" s="14"/>
       <c r="C158" s="14"/>
@@ -2848,7 +2864,7 @@
       <c r="H158" s="14"/>
       <c r="I158" s="14"/>
     </row>
-    <row r="159" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A159" s="14"/>
       <c r="B159" s="14"/>
       <c r="C159" s="14"/>
@@ -2859,7 +2875,7 @@
       <c r="H159" s="14"/>
       <c r="I159" s="14"/>
     </row>
-    <row r="160" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A160" s="14"/>
       <c r="B160" s="14"/>
       <c r="C160" s="14"/>
@@ -2870,7 +2886,7 @@
       <c r="H160" s="14"/>
       <c r="I160" s="14"/>
     </row>
-    <row r="161" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A161" s="14"/>
       <c r="B161" s="14"/>
       <c r="C161" s="14"/>
@@ -2881,7 +2897,7 @@
       <c r="H161" s="14"/>
       <c r="I161" s="14"/>
     </row>
-    <row r="162" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A162" s="14"/>
       <c r="B162" s="14"/>
       <c r="C162" s="14"/>
@@ -2892,7 +2908,7 @@
       <c r="H162" s="14"/>
       <c r="I162" s="14"/>
     </row>
-    <row r="163" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A163" s="14"/>
       <c r="B163" s="14"/>
       <c r="C163" s="14"/>
@@ -2903,7 +2919,7 @@
       <c r="H163" s="14"/>
       <c r="I163" s="14"/>
     </row>
-    <row r="164" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A164" s="14"/>
       <c r="B164" s="14"/>
       <c r="C164" s="14"/>
@@ -2914,7 +2930,7 @@
       <c r="H164" s="14"/>
       <c r="I164" s="14"/>
     </row>
-    <row r="165" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A165" s="14"/>
       <c r="B165" s="14"/>
       <c r="C165" s="14"/>
@@ -2925,7 +2941,7 @@
       <c r="H165" s="14"/>
       <c r="I165" s="14"/>
     </row>
-    <row r="166" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A166" s="14"/>
       <c r="B166" s="14"/>
       <c r="C166" s="14"/>
@@ -2936,7 +2952,7 @@
       <c r="H166" s="14"/>
       <c r="I166" s="14"/>
     </row>
-    <row r="167" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A167" s="14"/>
       <c r="B167" s="14"/>
       <c r="C167" s="14"/>
@@ -2947,7 +2963,7 @@
       <c r="H167" s="14"/>
       <c r="I167" s="14"/>
     </row>
-    <row r="168" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A168" s="14"/>
       <c r="B168" s="14"/>
       <c r="C168" s="14"/>
@@ -2958,7 +2974,7 @@
       <c r="H168" s="14"/>
       <c r="I168" s="14"/>
     </row>
-    <row r="169" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A169" s="14"/>
       <c r="B169" s="14"/>
       <c r="C169" s="14"/>
@@ -2969,7 +2985,7 @@
       <c r="H169" s="14"/>
       <c r="I169" s="14"/>
     </row>
-    <row r="170" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A170" s="14"/>
       <c r="B170" s="14"/>
       <c r="C170" s="14"/>
@@ -2980,7 +2996,7 @@
       <c r="H170" s="14"/>
       <c r="I170" s="14"/>
     </row>
-    <row r="171" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A171" s="14"/>
       <c r="B171" s="14"/>
       <c r="C171" s="14"/>
@@ -2991,7 +3007,7 @@
       <c r="H171" s="14"/>
       <c r="I171" s="14"/>
     </row>
-    <row r="172" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A172" s="14"/>
       <c r="B172" s="14"/>
       <c r="C172" s="14"/>
@@ -3002,7 +3018,7 @@
       <c r="H172" s="14"/>
       <c r="I172" s="14"/>
     </row>
-    <row r="173" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A173" s="14"/>
       <c r="B173" s="14"/>
       <c r="C173" s="14"/>
@@ -3013,7 +3029,7 @@
       <c r="H173" s="14"/>
       <c r="I173" s="14"/>
     </row>
-    <row r="174" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A174" s="14"/>
       <c r="B174" s="14"/>
       <c r="C174" s="14"/>
@@ -3024,7 +3040,7 @@
       <c r="H174" s="14"/>
       <c r="I174" s="14"/>
     </row>
-    <row r="175" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A175" s="14"/>
       <c r="B175" s="14"/>
       <c r="C175" s="14"/>
@@ -3035,7 +3051,7 @@
       <c r="H175" s="14"/>
       <c r="I175" s="14"/>
     </row>
-    <row r="176" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A176" s="14"/>
       <c r="B176" s="14"/>
       <c r="C176" s="14"/>
@@ -3046,7 +3062,7 @@
       <c r="H176" s="14"/>
       <c r="I176" s="14"/>
     </row>
-    <row r="177" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A177" s="14"/>
       <c r="B177" s="14"/>
       <c r="C177" s="14"/>
@@ -3057,7 +3073,7 @@
       <c r="H177" s="14"/>
       <c r="I177" s="14"/>
     </row>
-    <row r="178" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A178" s="14"/>
       <c r="B178" s="14"/>
       <c r="C178" s="14"/>
@@ -3068,7 +3084,7 @@
       <c r="H178" s="14"/>
       <c r="I178" s="14"/>
     </row>
-    <row r="179" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A179" s="14"/>
       <c r="B179" s="14"/>
       <c r="C179" s="14"/>
@@ -3079,7 +3095,7 @@
       <c r="H179" s="14"/>
       <c r="I179" s="14"/>
     </row>
-    <row r="180" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A180" s="14"/>
       <c r="B180" s="14"/>
       <c r="C180" s="14"/>
@@ -3090,7 +3106,7 @@
       <c r="H180" s="14"/>
       <c r="I180" s="14"/>
     </row>
-    <row r="181" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A181" s="14"/>
       <c r="B181" s="14"/>
       <c r="C181" s="14"/>
@@ -3101,7 +3117,7 @@
       <c r="H181" s="14"/>
       <c r="I181" s="14"/>
     </row>
-    <row r="182" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A182" s="14"/>
       <c r="B182" s="14"/>
       <c r="C182" s="14"/>
@@ -3112,7 +3128,7 @@
       <c r="H182" s="14"/>
       <c r="I182" s="14"/>
     </row>
-    <row r="183" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A183" s="14"/>
       <c r="B183" s="14"/>
       <c r="C183" s="14"/>
@@ -3123,7 +3139,7 @@
       <c r="H183" s="14"/>
       <c r="I183" s="14"/>
     </row>
-    <row r="184" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A184" s="14"/>
       <c r="B184" s="14"/>
       <c r="C184" s="14"/>
@@ -3134,7 +3150,7 @@
       <c r="H184" s="14"/>
       <c r="I184" s="14"/>
     </row>
-    <row r="185" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A185" s="14"/>
       <c r="B185" s="14"/>
       <c r="C185" s="14"/>
@@ -3145,7 +3161,7 @@
       <c r="H185" s="14"/>
       <c r="I185" s="14"/>
     </row>
-    <row r="186" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A186" s="14"/>
       <c r="B186" s="14"/>
       <c r="C186" s="14"/>
@@ -3156,7 +3172,7 @@
       <c r="H186" s="14"/>
       <c r="I186" s="14"/>
     </row>
-    <row r="187" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A187" s="14"/>
       <c r="B187" s="14"/>
       <c r="C187" s="14"/>
@@ -3167,7 +3183,7 @@
       <c r="H187" s="14"/>
       <c r="I187" s="14"/>
     </row>
-    <row r="188" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A188" s="14"/>
       <c r="B188" s="14"/>
       <c r="C188" s="14"/>
@@ -3178,7 +3194,7 @@
       <c r="H188" s="14"/>
       <c r="I188" s="14"/>
     </row>
-    <row r="189" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A189" s="14"/>
       <c r="B189" s="14"/>
       <c r="C189" s="14"/>
@@ -3189,7 +3205,7 @@
       <c r="H189" s="14"/>
       <c r="I189" s="14"/>
     </row>
-    <row r="190" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A190" s="14"/>
       <c r="B190" s="14"/>
       <c r="C190" s="14"/>
@@ -3200,7 +3216,7 @@
       <c r="H190" s="14"/>
       <c r="I190" s="14"/>
     </row>
-    <row r="191" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A191" s="14"/>
       <c r="B191" s="14"/>
       <c r="C191" s="14"/>
@@ -3211,7 +3227,7 @@
       <c r="H191" s="14"/>
       <c r="I191" s="14"/>
     </row>
-    <row r="192" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A192" s="14"/>
       <c r="B192" s="14"/>
       <c r="C192" s="14"/>
@@ -3222,7 +3238,7 @@
       <c r="H192" s="14"/>
       <c r="I192" s="14"/>
     </row>
-    <row r="193" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A193" s="14"/>
       <c r="B193" s="14"/>
       <c r="C193" s="14"/>
@@ -3233,7 +3249,7 @@
       <c r="H193" s="14"/>
       <c r="I193" s="14"/>
     </row>
-    <row r="194" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A194" s="14"/>
       <c r="B194" s="14"/>
       <c r="C194" s="14"/>
@@ -3244,7 +3260,7 @@
       <c r="H194" s="14"/>
       <c r="I194" s="14"/>
     </row>
-    <row r="195" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A195" s="14"/>
       <c r="B195" s="14"/>
       <c r="C195" s="14"/>
@@ -3255,7 +3271,7 @@
       <c r="H195" s="14"/>
       <c r="I195" s="14"/>
     </row>
-    <row r="196" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A196" s="14"/>
       <c r="B196" s="14"/>
       <c r="C196" s="14"/>
@@ -3266,7 +3282,7 @@
       <c r="H196" s="14"/>
       <c r="I196" s="14"/>
     </row>
-    <row r="197" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A197" s="14"/>
       <c r="B197" s="14"/>
       <c r="C197" s="14"/>
@@ -3277,7 +3293,7 @@
       <c r="H197" s="14"/>
       <c r="I197" s="14"/>
     </row>
-    <row r="198" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A198" s="14"/>
       <c r="B198" s="14"/>
       <c r="C198" s="14"/>
@@ -3288,7 +3304,7 @@
       <c r="H198" s="14"/>
       <c r="I198" s="14"/>
     </row>
-    <row r="199" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A199" s="14"/>
       <c r="B199" s="14"/>
       <c r="C199" s="14"/>
@@ -3299,7 +3315,7 @@
       <c r="H199" s="14"/>
       <c r="I199" s="14"/>
     </row>
-    <row r="200" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A200" s="14"/>
       <c r="B200" s="14"/>
       <c r="C200" s="14"/>
@@ -3310,7 +3326,7 @@
       <c r="H200" s="14"/>
       <c r="I200" s="14"/>
     </row>
-    <row r="201" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A201" s="14"/>
       <c r="B201" s="14"/>
       <c r="C201" s="14"/>
@@ -3321,7 +3337,7 @@
       <c r="H201" s="14"/>
       <c r="I201" s="14"/>
     </row>
-    <row r="202" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A202" s="14"/>
       <c r="B202" s="14"/>
       <c r="C202" s="14"/>
@@ -3332,7 +3348,7 @@
       <c r="H202" s="14"/>
       <c r="I202" s="14"/>
     </row>
-    <row r="203" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A203" s="14"/>
       <c r="B203" s="14"/>
       <c r="C203" s="14"/>
@@ -3343,7 +3359,7 @@
       <c r="H203" s="14"/>
       <c r="I203" s="14"/>
     </row>
-    <row r="204" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A204" s="14"/>
       <c r="B204" s="14"/>
       <c r="C204" s="14"/>
@@ -3354,7 +3370,7 @@
       <c r="H204" s="14"/>
       <c r="I204" s="14"/>
     </row>
-    <row r="205" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A205" s="14"/>
       <c r="B205" s="14"/>
       <c r="C205" s="14"/>
@@ -3365,7 +3381,7 @@
       <c r="H205" s="14"/>
       <c r="I205" s="14"/>
     </row>
-    <row r="206" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A206" s="14"/>
       <c r="B206" s="14"/>
       <c r="C206" s="14"/>
@@ -3376,7 +3392,7 @@
       <c r="H206" s="14"/>
       <c r="I206" s="14"/>
     </row>
-    <row r="207" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A207" s="14"/>
       <c r="B207" s="14"/>
       <c r="C207" s="14"/>
@@ -3387,7 +3403,7 @@
       <c r="H207" s="14"/>
       <c r="I207" s="14"/>
     </row>
-    <row r="208" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A208" s="14"/>
       <c r="B208" s="14"/>
       <c r="C208" s="14"/>
@@ -3398,7 +3414,7 @@
       <c r="H208" s="14"/>
       <c r="I208" s="14"/>
     </row>
-    <row r="209" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A209" s="14"/>
       <c r="B209" s="14"/>
       <c r="C209" s="14"/>
@@ -3409,7 +3425,7 @@
       <c r="H209" s="14"/>
       <c r="I209" s="14"/>
     </row>
-    <row r="210" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A210" s="14"/>
       <c r="B210" s="14"/>
       <c r="C210" s="14"/>
@@ -3420,7 +3436,7 @@
       <c r="H210" s="14"/>
       <c r="I210" s="14"/>
     </row>
-    <row r="211" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A211" s="14"/>
       <c r="B211" s="14"/>
       <c r="C211" s="14"/>
@@ -3431,7 +3447,7 @@
       <c r="H211" s="14"/>
       <c r="I211" s="14"/>
     </row>
-    <row r="212" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A212" s="14"/>
       <c r="B212" s="14"/>
       <c r="C212" s="14"/>
@@ -3442,7 +3458,7 @@
       <c r="H212" s="14"/>
       <c r="I212" s="14"/>
     </row>
-    <row r="213" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A213" s="14"/>
       <c r="B213" s="14"/>
       <c r="C213" s="14"/>
@@ -3453,7 +3469,7 @@
       <c r="H213" s="14"/>
       <c r="I213" s="14"/>
     </row>
-    <row r="214" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A214" s="14"/>
       <c r="B214" s="14"/>
       <c r="C214" s="14"/>
@@ -3464,7 +3480,7 @@
       <c r="H214" s="14"/>
       <c r="I214" s="14"/>
     </row>
-    <row r="215" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A215" s="14"/>
       <c r="B215" s="14"/>
       <c r="C215" s="14"/>
@@ -3475,7 +3491,7 @@
       <c r="H215" s="14"/>
       <c r="I215" s="14"/>
     </row>
-    <row r="216" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A216" s="14"/>
       <c r="B216" s="14"/>
       <c r="C216" s="14"/>
@@ -3486,7 +3502,7 @@
       <c r="H216" s="14"/>
       <c r="I216" s="14"/>
     </row>
-    <row r="217" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A217" s="14"/>
       <c r="B217" s="14"/>
       <c r="C217" s="14"/>
@@ -3497,7 +3513,7 @@
       <c r="H217" s="14"/>
       <c r="I217" s="14"/>
     </row>
-    <row r="218" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A218" s="14"/>
       <c r="B218" s="14"/>
       <c r="C218" s="14"/>
@@ -3508,7 +3524,7 @@
       <c r="H218" s="14"/>
       <c r="I218" s="14"/>
     </row>
-    <row r="219" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A219" s="14"/>
       <c r="B219" s="14"/>
       <c r="C219" s="14"/>
@@ -3519,7 +3535,7 @@
       <c r="H219" s="14"/>
       <c r="I219" s="14"/>
     </row>
-    <row r="220" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A220" s="14"/>
       <c r="B220" s="14"/>
       <c r="C220" s="14"/>
@@ -3530,7 +3546,7 @@
       <c r="H220" s="14"/>
       <c r="I220" s="14"/>
     </row>
-    <row r="221" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A221" s="14"/>
       <c r="B221" s="14"/>
       <c r="C221" s="14"/>
@@ -3541,7 +3557,7 @@
       <c r="H221" s="14"/>
       <c r="I221" s="14"/>
     </row>
-    <row r="222" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A222" s="14"/>
       <c r="B222" s="14"/>
       <c r="C222" s="14"/>
@@ -3552,7 +3568,7 @@
       <c r="H222" s="14"/>
       <c r="I222" s="14"/>
     </row>
-    <row r="223" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A223" s="14"/>
       <c r="B223" s="14"/>
       <c r="C223" s="14"/>
@@ -3563,7 +3579,7 @@
       <c r="H223" s="14"/>
       <c r="I223" s="14"/>
     </row>
-    <row r="224" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A224" s="14"/>
       <c r="B224" s="14"/>
       <c r="C224" s="14"/>
@@ -3574,7 +3590,7 @@
       <c r="H224" s="14"/>
       <c r="I224" s="14"/>
     </row>
-    <row r="225" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A225" s="14"/>
       <c r="B225" s="14"/>
       <c r="C225" s="14"/>
@@ -3585,7 +3601,7 @@
       <c r="H225" s="14"/>
       <c r="I225" s="14"/>
     </row>
-    <row r="226" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A226" s="14"/>
       <c r="B226" s="14"/>
       <c r="C226" s="14"/>
@@ -3596,7 +3612,7 @@
       <c r="H226" s="14"/>
       <c r="I226" s="14"/>
     </row>
-    <row r="227" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A227" s="14"/>
       <c r="B227" s="14"/>
       <c r="C227" s="14"/>
@@ -3607,7 +3623,7 @@
       <c r="H227" s="14"/>
       <c r="I227" s="14"/>
     </row>
-    <row r="228" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A228" s="14"/>
       <c r="B228" s="14"/>
       <c r="C228" s="14"/>
@@ -3618,7 +3634,7 @@
       <c r="H228" s="14"/>
       <c r="I228" s="14"/>
     </row>
-    <row r="229" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A229" s="14"/>
       <c r="B229" s="14"/>
       <c r="C229" s="14"/>
@@ -3629,7 +3645,7 @@
       <c r="H229" s="14"/>
       <c r="I229" s="14"/>
     </row>
-    <row r="230" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A230" s="14"/>
       <c r="B230" s="14"/>
       <c r="C230" s="14"/>
@@ -3640,7 +3656,7 @@
       <c r="H230" s="14"/>
       <c r="I230" s="14"/>
     </row>
-    <row r="231" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A231" s="14"/>
       <c r="B231" s="14"/>
       <c r="C231" s="14"/>
@@ -3651,7 +3667,7 @@
       <c r="H231" s="14"/>
       <c r="I231" s="14"/>
     </row>
-    <row r="232" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A232" s="14"/>
       <c r="B232" s="14"/>
       <c r="C232" s="14"/>
@@ -3662,7 +3678,7 @@
       <c r="H232" s="14"/>
       <c r="I232" s="14"/>
     </row>
-    <row r="233" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A233" s="14"/>
       <c r="B233" s="14"/>
       <c r="C233" s="14"/>
@@ -3673,7 +3689,7 @@
       <c r="H233" s="14"/>
       <c r="I233" s="14"/>
     </row>
-    <row r="234" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A234" s="14"/>
       <c r="B234" s="14"/>
       <c r="C234" s="14"/>
@@ -3684,7 +3700,7 @@
       <c r="H234" s="14"/>
       <c r="I234" s="14"/>
     </row>
-    <row r="235" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A235" s="14"/>
       <c r="B235" s="14"/>
       <c r="C235" s="14"/>
@@ -3695,7 +3711,7 @@
       <c r="H235" s="14"/>
       <c r="I235" s="14"/>
     </row>
-    <row r="236" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A236" s="14"/>
       <c r="B236" s="14"/>
       <c r="C236" s="14"/>
@@ -3706,7 +3722,7 @@
       <c r="H236" s="14"/>
       <c r="I236" s="14"/>
     </row>
-    <row r="237" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A237" s="14"/>
       <c r="B237" s="14"/>
       <c r="C237" s="14"/>
@@ -3717,7 +3733,7 @@
       <c r="H237" s="14"/>
       <c r="I237" s="14"/>
     </row>
-    <row r="238" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A238" s="14"/>
       <c r="B238" s="14"/>
       <c r="C238" s="14"/>
@@ -3728,7 +3744,7 @@
       <c r="H238" s="14"/>
       <c r="I238" s="14"/>
     </row>
-    <row r="239" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A239" s="14"/>
       <c r="B239" s="14"/>
       <c r="C239" s="14"/>
@@ -3739,7 +3755,7 @@
       <c r="H239" s="14"/>
       <c r="I239" s="14"/>
     </row>
-    <row r="240" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A240" s="14"/>
       <c r="B240" s="14"/>
       <c r="C240" s="14"/>
@@ -3750,7 +3766,7 @@
       <c r="H240" s="14"/>
       <c r="I240" s="14"/>
     </row>
-    <row r="241" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A241" s="14"/>
       <c r="B241" s="14"/>
       <c r="C241" s="14"/>
@@ -3761,7 +3777,7 @@
       <c r="H241" s="14"/>
       <c r="I241" s="14"/>
     </row>
-    <row r="242" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A242" s="14"/>
       <c r="B242" s="14"/>
       <c r="C242" s="14"/>
@@ -3772,7 +3788,7 @@
       <c r="H242" s="14"/>
       <c r="I242" s="14"/>
     </row>
-    <row r="243" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A243" s="14"/>
       <c r="B243" s="14"/>
       <c r="C243" s="14"/>
@@ -3783,7 +3799,7 @@
       <c r="H243" s="14"/>
       <c r="I243" s="14"/>
     </row>
-    <row r="244" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A244" s="14"/>
       <c r="B244" s="14"/>
       <c r="C244" s="14"/>
@@ -3794,7 +3810,7 @@
       <c r="H244" s="14"/>
       <c r="I244" s="14"/>
     </row>
-    <row r="245" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A245" s="14"/>
       <c r="B245" s="14"/>
       <c r="C245" s="14"/>
@@ -3805,7 +3821,7 @@
       <c r="H245" s="14"/>
       <c r="I245" s="14"/>
     </row>
-    <row r="246" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A246" s="14"/>
       <c r="B246" s="14"/>
       <c r="C246" s="14"/>
@@ -3816,7 +3832,7 @@
       <c r="H246" s="14"/>
       <c r="I246" s="14"/>
     </row>
-    <row r="247" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A247" s="14"/>
       <c r="B247" s="14"/>
       <c r="C247" s="14"/>
@@ -3827,7 +3843,7 @@
       <c r="H247" s="14"/>
       <c r="I247" s="14"/>
     </row>
-    <row r="248" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A248" s="14"/>
       <c r="B248" s="14"/>
       <c r="C248" s="14"/>
@@ -3838,7 +3854,7 @@
       <c r="H248" s="14"/>
       <c r="I248" s="14"/>
     </row>
-    <row r="249" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A249" s="14"/>
       <c r="B249" s="14"/>
       <c r="C249" s="14"/>
@@ -3849,7 +3865,7 @@
       <c r="H249" s="14"/>
       <c r="I249" s="14"/>
     </row>
-    <row r="250" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A250" s="14"/>
       <c r="B250" s="14"/>
       <c r="C250" s="14"/>
@@ -3860,7 +3876,7 @@
       <c r="H250" s="14"/>
       <c r="I250" s="14"/>
     </row>
-    <row r="251" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A251" s="14"/>
       <c r="B251" s="14"/>
       <c r="C251" s="14"/>
@@ -3871,7 +3887,7 @@
       <c r="H251" s="14"/>
       <c r="I251" s="14"/>
     </row>
-    <row r="252" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A252" s="14"/>
       <c r="B252" s="14"/>
       <c r="C252" s="14"/>
@@ -3882,7 +3898,7 @@
       <c r="H252" s="14"/>
       <c r="I252" s="14"/>
     </row>
-    <row r="253" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A253" s="14"/>
       <c r="B253" s="14"/>
       <c r="C253" s="14"/>
@@ -3893,7 +3909,7 @@
       <c r="H253" s="14"/>
       <c r="I253" s="14"/>
     </row>
-    <row r="254" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A254" s="14"/>
       <c r="B254" s="14"/>
       <c r="C254" s="14"/>
@@ -3904,7 +3920,7 @@
       <c r="H254" s="14"/>
       <c r="I254" s="14"/>
     </row>
-    <row r="255" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A255" s="14"/>
       <c r="B255" s="14"/>
       <c r="C255" s="14"/>
@@ -3915,7 +3931,7 @@
       <c r="H255" s="14"/>
       <c r="I255" s="14"/>
     </row>
-    <row r="256" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A256" s="14"/>
       <c r="B256" s="14"/>
       <c r="C256" s="14"/>
@@ -3926,7 +3942,7 @@
       <c r="H256" s="14"/>
       <c r="I256" s="14"/>
     </row>
-    <row r="257" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A257" s="14"/>
       <c r="B257" s="14"/>
       <c r="C257" s="14"/>
@@ -3937,7 +3953,7 @@
       <c r="H257" s="14"/>
       <c r="I257" s="14"/>
     </row>
-    <row r="258" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A258" s="14"/>
       <c r="B258" s="14"/>
       <c r="C258" s="14"/>
@@ -3948,7 +3964,7 @@
       <c r="H258" s="14"/>
       <c r="I258" s="14"/>
     </row>
-    <row r="259" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A259" s="14"/>
       <c r="B259" s="14"/>
       <c r="C259" s="14"/>
@@ -3959,7 +3975,7 @@
       <c r="H259" s="14"/>
       <c r="I259" s="14"/>
     </row>
-    <row r="260" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A260" s="14"/>
       <c r="B260" s="14"/>
       <c r="C260" s="14"/>
@@ -3970,7 +3986,7 @@
       <c r="H260" s="14"/>
       <c r="I260" s="14"/>
     </row>
-    <row r="261" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A261" s="14"/>
       <c r="B261" s="14"/>
       <c r="C261" s="14"/>
@@ -3981,7 +3997,7 @@
       <c r="H261" s="14"/>
       <c r="I261" s="14"/>
     </row>
-    <row r="262" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A262" s="14"/>
       <c r="B262" s="14"/>
       <c r="C262" s="14"/>
@@ -3992,7 +4008,7 @@
       <c r="H262" s="14"/>
       <c r="I262" s="14"/>
     </row>
-    <row r="263" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A263" s="14"/>
       <c r="B263" s="14"/>
       <c r="C263" s="14"/>
@@ -4003,7 +4019,7 @@
       <c r="H263" s="14"/>
       <c r="I263" s="14"/>
     </row>
-    <row r="264" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A264" s="14"/>
       <c r="B264" s="14"/>
       <c r="C264" s="14"/>
@@ -4014,7 +4030,7 @@
       <c r="H264" s="14"/>
       <c r="I264" s="14"/>
     </row>
-    <row r="265" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A265" s="14"/>
       <c r="B265" s="14"/>
       <c r="C265" s="14"/>
@@ -4025,7 +4041,7 @@
       <c r="H265" s="14"/>
       <c r="I265" s="14"/>
     </row>
-    <row r="266" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A266" s="14"/>
       <c r="B266" s="14"/>
       <c r="C266" s="14"/>
@@ -4036,7 +4052,7 @@
       <c r="H266" s="14"/>
       <c r="I266" s="14"/>
     </row>
-    <row r="267" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A267" s="14"/>
       <c r="B267" s="14"/>
       <c r="C267" s="14"/>
@@ -4047,7 +4063,7 @@
       <c r="H267" s="14"/>
       <c r="I267" s="14"/>
     </row>
-    <row r="268" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A268" s="14"/>
       <c r="B268" s="14"/>
       <c r="C268" s="14"/>
@@ -4058,7 +4074,7 @@
       <c r="H268" s="14"/>
       <c r="I268" s="14"/>
     </row>
-    <row r="269" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A269" s="14"/>
       <c r="B269" s="14"/>
       <c r="C269" s="14"/>
@@ -4069,7 +4085,7 @@
       <c r="H269" s="14"/>
       <c r="I269" s="14"/>
     </row>
-    <row r="270" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A270" s="14"/>
       <c r="B270" s="14"/>
       <c r="C270" s="14"/>
@@ -4080,7 +4096,7 @@
       <c r="H270" s="14"/>
       <c r="I270" s="14"/>
     </row>
-    <row r="271" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A271" s="14"/>
       <c r="B271" s="14"/>
       <c r="C271" s="14"/>
@@ -4091,7 +4107,7 @@
       <c r="H271" s="14"/>
       <c r="I271" s="14"/>
     </row>
-    <row r="272" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A272" s="14"/>
       <c r="B272" s="14"/>
       <c r="C272" s="14"/>
@@ -4102,7 +4118,7 @@
       <c r="H272" s="14"/>
       <c r="I272" s="14"/>
     </row>
-    <row r="273" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A273" s="14"/>
       <c r="B273" s="14"/>
       <c r="C273" s="14"/>
@@ -4113,7 +4129,7 @@
       <c r="H273" s="14"/>
       <c r="I273" s="14"/>
     </row>
-    <row r="274" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A274" s="14"/>
       <c r="B274" s="14"/>
       <c r="C274" s="14"/>
@@ -4124,7 +4140,7 @@
       <c r="H274" s="14"/>
       <c r="I274" s="14"/>
     </row>
-    <row r="275" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A275" s="14"/>
       <c r="B275" s="14"/>
       <c r="C275" s="14"/>
@@ -4135,7 +4151,7 @@
       <c r="H275" s="14"/>
       <c r="I275" s="14"/>
     </row>
-    <row r="276" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A276" s="14"/>
       <c r="B276" s="14"/>
       <c r="C276" s="14"/>
@@ -4146,7 +4162,7 @@
       <c r="H276" s="14"/>
       <c r="I276" s="14"/>
     </row>
-    <row r="277" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A277" s="14"/>
       <c r="B277" s="14"/>
       <c r="C277" s="14"/>
@@ -4157,7 +4173,7 @@
       <c r="H277" s="14"/>
       <c r="I277" s="14"/>
     </row>
-    <row r="278" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A278" s="14"/>
       <c r="B278" s="14"/>
       <c r="C278" s="14"/>
@@ -4168,7 +4184,7 @@
       <c r="H278" s="14"/>
       <c r="I278" s="14"/>
     </row>
-    <row r="279" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A279" s="14"/>
       <c r="B279" s="14"/>
       <c r="C279" s="14"/>
@@ -4179,7 +4195,7 @@
       <c r="H279" s="14"/>
       <c r="I279" s="14"/>
     </row>
-    <row r="280" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A280" s="14"/>
       <c r="B280" s="14"/>
       <c r="C280" s="14"/>
@@ -4190,7 +4206,7 @@
       <c r="H280" s="14"/>
       <c r="I280" s="14"/>
     </row>
-    <row r="281" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A281" s="14"/>
       <c r="B281" s="14"/>
       <c r="C281" s="14"/>
@@ -4201,7 +4217,7 @@
       <c r="H281" s="14"/>
       <c r="I281" s="14"/>
     </row>
-    <row r="282" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A282" s="14"/>
       <c r="B282" s="14"/>
       <c r="C282" s="14"/>
@@ -4212,7 +4228,7 @@
       <c r="H282" s="14"/>
       <c r="I282" s="14"/>
     </row>
-    <row r="283" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A283" s="14"/>
       <c r="B283" s="14"/>
       <c r="C283" s="14"/>
@@ -4223,7 +4239,7 @@
       <c r="H283" s="14"/>
       <c r="I283" s="14"/>
     </row>
-    <row r="284" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A284" s="14"/>
       <c r="B284" s="14"/>
       <c r="C284" s="14"/>
@@ -4234,7 +4250,7 @@
       <c r="H284" s="14"/>
       <c r="I284" s="14"/>
     </row>
-    <row r="285" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A285" s="14"/>
       <c r="B285" s="14"/>
       <c r="C285" s="14"/>
@@ -4245,7 +4261,7 @@
       <c r="H285" s="14"/>
       <c r="I285" s="14"/>
     </row>
-    <row r="286" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A286" s="14"/>
       <c r="B286" s="14"/>
       <c r="C286" s="14"/>
@@ -4256,7 +4272,7 @@
       <c r="H286" s="14"/>
       <c r="I286" s="14"/>
     </row>
-    <row r="287" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A287" s="14"/>
       <c r="B287" s="14"/>
       <c r="C287" s="14"/>
@@ -4267,7 +4283,7 @@
       <c r="H287" s="14"/>
       <c r="I287" s="14"/>
     </row>
-    <row r="288" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A288" s="14"/>
       <c r="B288" s="14"/>
       <c r="C288" s="14"/>
@@ -4278,7 +4294,7 @@
       <c r="H288" s="14"/>
       <c r="I288" s="14"/>
     </row>
-    <row r="289" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A289" s="14"/>
       <c r="B289" s="14"/>
       <c r="C289" s="14"/>
@@ -4289,7 +4305,7 @@
       <c r="H289" s="14"/>
       <c r="I289" s="14"/>
     </row>
-    <row r="290" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A290" s="14"/>
       <c r="B290" s="14"/>
       <c r="C290" s="14"/>
@@ -4300,7 +4316,7 @@
       <c r="H290" s="14"/>
       <c r="I290" s="14"/>
     </row>
-    <row r="291" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A291" s="14"/>
       <c r="B291" s="14"/>
       <c r="C291" s="14"/>
@@ -4311,7 +4327,7 @@
       <c r="H291" s="14"/>
       <c r="I291" s="14"/>
     </row>
-    <row r="292" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A292" s="14"/>
       <c r="B292" s="14"/>
       <c r="C292" s="14"/>
@@ -4322,7 +4338,7 @@
       <c r="H292" s="14"/>
       <c r="I292" s="14"/>
     </row>
-    <row r="293" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A293" s="14"/>
       <c r="B293" s="14"/>
       <c r="C293" s="14"/>
@@ -4333,7 +4349,7 @@
       <c r="H293" s="14"/>
       <c r="I293" s="14"/>
     </row>
-    <row r="294" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A294" s="14"/>
       <c r="B294" s="14"/>
       <c r="C294" s="14"/>
@@ -4344,7 +4360,7 @@
       <c r="H294" s="14"/>
       <c r="I294" s="14"/>
     </row>
-    <row r="295" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A295" s="14"/>
       <c r="B295" s="14"/>
       <c r="C295" s="14"/>
@@ -4355,7 +4371,7 @@
       <c r="H295" s="14"/>
       <c r="I295" s="14"/>
     </row>
-    <row r="296" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A296" s="14"/>
       <c r="B296" s="14"/>
       <c r="C296" s="14"/>
@@ -4366,7 +4382,7 @@
       <c r="H296" s="14"/>
       <c r="I296" s="14"/>
     </row>
-    <row r="297" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A297" s="14"/>
       <c r="B297" s="14"/>
       <c r="C297" s="14"/>
@@ -4377,7 +4393,7 @@
       <c r="H297" s="14"/>
       <c r="I297" s="14"/>
     </row>
-    <row r="298" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A298" s="14"/>
       <c r="B298" s="14"/>
       <c r="C298" s="14"/>
@@ -4388,7 +4404,7 @@
       <c r="H298" s="14"/>
       <c r="I298" s="14"/>
     </row>
-    <row r="299" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A299" s="14"/>
       <c r="B299" s="14"/>
       <c r="C299" s="14"/>
@@ -4399,7 +4415,7 @@
       <c r="H299" s="14"/>
       <c r="I299" s="14"/>
     </row>
-    <row r="300" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A300" s="14"/>
       <c r="B300" s="14"/>
       <c r="C300" s="14"/>
@@ -4410,7 +4426,7 @@
       <c r="H300" s="14"/>
       <c r="I300" s="14"/>
     </row>
-    <row r="301" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A301" s="14"/>
       <c r="B301" s="14"/>
       <c r="C301" s="14"/>
@@ -4421,7 +4437,7 @@
       <c r="H301" s="14"/>
       <c r="I301" s="14"/>
     </row>
-    <row r="302" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A302" s="14"/>
       <c r="B302" s="14"/>
       <c r="C302" s="14"/>
@@ -4432,7 +4448,7 @@
       <c r="H302" s="14"/>
       <c r="I302" s="14"/>
     </row>
-    <row r="303" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A303" s="14"/>
       <c r="B303" s="14"/>
       <c r="C303" s="14"/>
@@ -4443,7 +4459,7 @@
       <c r="H303" s="14"/>
       <c r="I303" s="14"/>
     </row>
-    <row r="304" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A304" s="14"/>
       <c r="B304" s="14"/>
       <c r="C304" s="14"/>
@@ -4454,7 +4470,7 @@
       <c r="H304" s="14"/>
       <c r="I304" s="14"/>
     </row>
-    <row r="305" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A305" s="14"/>
       <c r="B305" s="14"/>
       <c r="C305" s="14"/>
@@ -4465,7 +4481,7 @@
       <c r="H305" s="14"/>
       <c r="I305" s="14"/>
     </row>
-    <row r="306" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A306" s="14"/>
       <c r="B306" s="14"/>
       <c r="C306" s="14"/>
@@ -4476,7 +4492,7 @@
       <c r="H306" s="14"/>
       <c r="I306" s="14"/>
     </row>
-    <row r="307" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A307" s="14"/>
       <c r="B307" s="14"/>
       <c r="C307" s="14"/>
@@ -4487,7 +4503,7 @@
       <c r="H307" s="14"/>
       <c r="I307" s="14"/>
     </row>
-    <row r="308" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A308" s="14"/>
       <c r="B308" s="14"/>
       <c r="C308" s="14"/>
@@ -4498,7 +4514,7 @@
       <c r="H308" s="14"/>
       <c r="I308" s="14"/>
     </row>
-    <row r="309" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A309" s="14"/>
       <c r="B309" s="14"/>
       <c r="C309" s="14"/>
@@ -4509,7 +4525,7 @@
       <c r="H309" s="14"/>
       <c r="I309" s="14"/>
     </row>
-    <row r="310" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A310" s="14"/>
       <c r="B310" s="14"/>
       <c r="C310" s="14"/>
@@ -4520,7 +4536,7 @@
       <c r="H310" s="14"/>
       <c r="I310" s="14"/>
     </row>
-    <row r="311" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A311" s="14"/>
       <c r="B311" s="14"/>
       <c r="C311" s="14"/>
@@ -4531,7 +4547,7 @@
       <c r="H311" s="14"/>
       <c r="I311" s="14"/>
     </row>
-    <row r="312" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A312" s="14"/>
       <c r="B312" s="14"/>
       <c r="C312" s="14"/>
@@ -4542,7 +4558,7 @@
       <c r="H312" s="14"/>
       <c r="I312" s="14"/>
     </row>
-    <row r="313" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A313" s="14"/>
       <c r="B313" s="14"/>
       <c r="C313" s="14"/>
@@ -4553,7 +4569,7 @@
       <c r="H313" s="14"/>
       <c r="I313" s="14"/>
     </row>
-    <row r="314" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A314" s="14"/>
       <c r="B314" s="14"/>
       <c r="C314" s="14"/>
@@ -4564,7 +4580,7 @@
       <c r="H314" s="14"/>
       <c r="I314" s="14"/>
     </row>
-    <row r="315" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A315" s="14"/>
       <c r="B315" s="14"/>
       <c r="C315" s="14"/>
@@ -4575,7 +4591,7 @@
       <c r="H315" s="14"/>
       <c r="I315" s="14"/>
     </row>
-    <row r="316" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A316" s="14"/>
       <c r="B316" s="14"/>
       <c r="C316" s="14"/>
@@ -4586,7 +4602,7 @@
       <c r="H316" s="14"/>
       <c r="I316" s="14"/>
     </row>
-    <row r="317" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A317" s="14"/>
       <c r="B317" s="14"/>
       <c r="C317" s="14"/>
@@ -4597,2033 +4613,2163 @@
       <c r="H317" s="14"/>
       <c r="I317" s="14"/>
     </row>
-    <row r="318" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G318" s="3"/>
     </row>
-    <row r="319" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G319" s="3"/>
     </row>
-    <row r="320" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G320" s="3"/>
     </row>
-    <row r="321" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="321" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G321" s="3"/>
     </row>
-    <row r="322" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="322" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G322" s="3"/>
     </row>
-    <row r="323" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="323" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G323" s="3"/>
     </row>
-    <row r="324" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="324" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G324" s="3"/>
     </row>
-    <row r="325" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="325" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G325" s="3"/>
     </row>
-    <row r="326" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="326" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G326" s="3"/>
     </row>
-    <row r="327" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="327" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G327" s="3"/>
     </row>
-    <row r="328" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="328" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G328" s="3"/>
     </row>
-    <row r="329" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="329" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G329" s="3"/>
     </row>
-    <row r="330" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="330" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G330" s="3"/>
     </row>
-    <row r="331" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="331" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G331" s="3"/>
     </row>
-    <row r="332" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="332" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G332" s="3"/>
     </row>
-    <row r="333" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="333" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G333" s="3"/>
     </row>
-    <row r="334" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="334" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G334" s="3"/>
     </row>
-    <row r="335" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="335" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G335" s="3"/>
     </row>
-    <row r="336" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="336" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G336" s="3"/>
     </row>
-    <row r="337" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="337" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G337" s="3"/>
     </row>
-    <row r="338" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="338" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G338" s="3"/>
     </row>
-    <row r="339" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="339" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G339" s="3"/>
     </row>
-    <row r="340" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="340" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G340" s="3"/>
     </row>
-    <row r="341" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="341" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G341" s="3"/>
     </row>
-    <row r="342" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="342" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G342" s="3"/>
     </row>
-    <row r="343" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="343" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G343" s="3"/>
     </row>
-    <row r="344" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="344" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G344" s="3"/>
     </row>
-    <row r="345" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="345" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G345" s="3"/>
     </row>
-    <row r="346" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="346" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G346" s="3"/>
     </row>
-    <row r="347" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="347" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G347" s="3"/>
     </row>
-    <row r="348" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="348" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G348" s="3"/>
     </row>
-    <row r="349" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="349" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G349" s="3"/>
     </row>
-    <row r="350" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="350" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G350" s="3"/>
     </row>
-    <row r="351" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="351" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G351" s="3"/>
     </row>
-    <row r="352" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="352" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G352" s="3"/>
     </row>
-    <row r="353" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="353" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G353" s="3"/>
     </row>
-    <row r="354" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="354" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G354" s="3"/>
     </row>
-    <row r="355" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="355" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G355" s="3"/>
     </row>
-    <row r="356" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="356" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G356" s="3"/>
     </row>
-    <row r="357" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="357" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G357" s="3"/>
     </row>
-    <row r="358" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="358" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G358" s="3"/>
     </row>
-    <row r="359" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="359" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G359" s="3"/>
     </row>
-    <row r="360" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="360" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G360" s="3"/>
     </row>
-    <row r="361" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="361" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G361" s="3"/>
     </row>
-    <row r="362" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="362" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G362" s="3"/>
     </row>
-    <row r="363" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="363" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G363" s="3"/>
     </row>
-    <row r="364" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="364" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G364" s="3"/>
     </row>
-    <row r="365" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="365" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G365" s="3"/>
     </row>
-    <row r="366" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="366" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G366" s="3"/>
     </row>
-    <row r="367" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="367" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G367" s="3"/>
     </row>
-    <row r="368" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="368" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G368" s="3"/>
     </row>
-    <row r="369" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="369" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G369" s="3"/>
     </row>
-    <row r="370" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="370" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G370" s="3"/>
     </row>
-    <row r="371" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="371" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G371" s="3"/>
     </row>
-    <row r="372" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="372" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G372" s="3"/>
     </row>
-    <row r="373" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="373" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G373" s="3"/>
     </row>
-    <row r="374" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="374" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G374" s="3"/>
     </row>
-    <row r="375" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="375" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G375" s="3"/>
     </row>
-    <row r="376" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="376" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G376" s="3"/>
     </row>
-    <row r="377" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="377" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G377" s="3"/>
     </row>
-    <row r="378" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="378" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G378" s="3"/>
     </row>
-    <row r="379" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="379" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G379" s="3"/>
     </row>
-    <row r="380" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="380" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G380" s="3"/>
     </row>
-    <row r="381" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="381" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G381" s="3"/>
     </row>
-    <row r="382" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="382" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G382" s="3"/>
     </row>
-    <row r="383" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="383" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G383" s="3"/>
     </row>
-    <row r="384" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="384" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G384" s="3"/>
     </row>
-    <row r="385" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="385" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G385" s="3"/>
     </row>
-    <row r="386" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="386" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G386" s="3"/>
     </row>
-    <row r="387" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="387" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G387" s="3"/>
     </row>
-    <row r="388" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="388" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G388" s="3"/>
     </row>
-    <row r="389" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="389" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G389" s="3"/>
     </row>
-    <row r="390" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="390" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G390" s="3"/>
     </row>
-    <row r="391" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="391" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G391" s="3"/>
     </row>
-    <row r="392" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="392" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G392" s="3"/>
     </row>
-    <row r="393" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="393" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G393" s="3"/>
     </row>
-    <row r="394" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="394" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G394" s="3"/>
     </row>
-    <row r="395" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="395" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G395" s="3"/>
     </row>
-    <row r="396" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="396" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G396" s="3"/>
     </row>
-    <row r="397" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="397" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G397" s="3"/>
     </row>
-    <row r="398" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="398" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G398" s="3"/>
     </row>
-    <row r="399" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="399" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G399" s="3"/>
     </row>
-    <row r="400" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="400" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G400" s="3"/>
     </row>
-    <row r="401" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="401" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G401" s="3"/>
     </row>
-    <row r="402" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="402" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G402" s="3"/>
     </row>
-    <row r="403" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="403" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G403" s="3"/>
     </row>
-    <row r="404" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="404" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G404" s="3"/>
     </row>
-    <row r="405" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="405" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G405" s="3"/>
     </row>
-    <row r="406" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="406" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G406" s="3"/>
     </row>
-    <row r="407" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="407" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G407" s="3"/>
     </row>
-    <row r="408" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="408" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G408" s="3"/>
     </row>
-    <row r="409" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="409" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G409" s="3"/>
     </row>
-    <row r="410" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="410" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G410" s="3"/>
     </row>
-    <row r="411" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="411" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G411" s="3"/>
     </row>
-    <row r="412" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="412" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G412" s="3"/>
     </row>
-    <row r="413" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="413" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G413" s="3"/>
     </row>
-    <row r="414" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="414" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G414" s="3"/>
     </row>
-    <row r="415" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="415" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G415" s="3"/>
     </row>
-    <row r="416" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="416" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G416" s="3"/>
     </row>
-    <row r="417" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="417" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G417" s="3"/>
     </row>
-    <row r="418" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="418" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G418" s="3"/>
     </row>
-    <row r="419" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="419" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G419" s="3"/>
     </row>
-    <row r="420" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="420" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G420" s="3"/>
     </row>
-    <row r="421" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="421" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G421" s="3"/>
     </row>
-    <row r="422" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="422" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G422" s="3"/>
     </row>
-    <row r="423" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="423" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G423" s="3"/>
     </row>
-    <row r="424" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="424" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G424" s="3"/>
     </row>
-    <row r="425" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="425" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G425" s="3"/>
     </row>
-    <row r="426" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="426" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G426" s="3"/>
     </row>
-    <row r="427" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="427" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G427" s="3"/>
     </row>
-    <row r="428" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="428" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G428" s="3"/>
     </row>
-    <row r="429" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="429" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G429" s="3"/>
     </row>
-    <row r="430" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="430" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G430" s="3"/>
     </row>
-    <row r="431" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="431" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G431" s="3"/>
     </row>
-    <row r="432" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="432" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G432" s="3"/>
     </row>
-    <row r="433" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="433" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G433" s="3"/>
     </row>
-    <row r="434" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="434" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G434" s="3"/>
     </row>
-    <row r="435" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="435" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G435" s="3"/>
     </row>
-    <row r="436" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="436" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G436" s="3"/>
     </row>
-    <row r="437" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="437" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G437" s="3"/>
     </row>
-    <row r="438" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="438" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G438" s="3"/>
     </row>
-    <row r="439" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="439" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G439" s="3"/>
     </row>
-    <row r="440" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="440" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G440" s="3"/>
     </row>
-    <row r="441" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="441" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G441" s="3"/>
     </row>
-    <row r="442" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="442" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G442" s="3"/>
     </row>
-    <row r="443" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="443" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G443" s="3"/>
     </row>
-    <row r="444" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="444" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G444" s="3"/>
     </row>
-    <row r="445" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="445" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G445" s="3"/>
     </row>
-    <row r="446" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="446" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G446" s="3"/>
     </row>
-    <row r="447" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="447" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G447" s="3"/>
     </row>
-    <row r="448" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="448" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G448" s="3"/>
     </row>
-    <row r="449" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="449" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G449" s="3"/>
     </row>
-    <row r="450" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="450" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G450" s="3"/>
     </row>
-    <row r="451" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="451" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G451" s="3"/>
     </row>
-    <row r="452" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="452" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G452" s="3"/>
     </row>
-    <row r="453" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="453" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G453" s="3"/>
     </row>
-    <row r="454" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="454" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G454" s="3"/>
     </row>
-    <row r="455" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="455" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G455" s="3"/>
     </row>
-    <row r="456" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="456" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G456" s="3"/>
     </row>
-    <row r="457" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="457" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G457" s="3"/>
     </row>
-    <row r="458" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="458" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G458" s="3"/>
     </row>
-    <row r="459" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="459" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G459" s="3"/>
     </row>
-    <row r="460" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="460" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G460" s="3"/>
     </row>
-    <row r="461" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="461" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G461" s="3"/>
     </row>
-    <row r="462" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="462" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G462" s="3"/>
     </row>
-    <row r="463" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="463" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G463" s="3"/>
     </row>
-    <row r="464" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="464" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G464" s="3"/>
     </row>
-    <row r="465" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="465" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G465" s="3"/>
     </row>
-    <row r="466" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="466" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G466" s="3"/>
     </row>
-    <row r="467" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="467" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G467" s="3"/>
     </row>
-    <row r="468" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="468" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G468" s="3"/>
     </row>
-    <row r="469" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="469" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G469" s="3"/>
     </row>
-    <row r="470" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="470" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G470" s="3"/>
     </row>
-    <row r="471" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="471" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G471" s="3"/>
     </row>
-    <row r="472" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="472" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G472" s="3"/>
     </row>
-    <row r="473" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="473" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G473" s="3"/>
     </row>
-    <row r="474" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="474" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G474" s="3"/>
     </row>
-    <row r="475" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="475" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G475" s="3"/>
     </row>
-    <row r="476" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="476" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G476" s="3"/>
     </row>
-    <row r="477" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="477" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G477" s="3"/>
     </row>
-    <row r="478" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="478" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G478" s="3"/>
     </row>
-    <row r="479" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="479" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G479" s="3"/>
     </row>
-    <row r="480" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="480" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G480" s="3"/>
     </row>
-    <row r="481" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="481" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G481" s="3"/>
     </row>
-    <row r="482" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="482" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G482" s="3"/>
     </row>
-    <row r="483" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="483" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G483" s="3"/>
     </row>
-    <row r="484" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="484" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G484" s="3"/>
     </row>
-    <row r="485" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="485" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G485" s="3"/>
     </row>
-    <row r="486" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="486" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G486" s="3"/>
     </row>
-    <row r="487" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="487" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G487" s="3"/>
     </row>
-    <row r="488" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="488" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G488" s="3"/>
     </row>
-    <row r="489" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="489" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G489" s="3"/>
     </row>
-    <row r="490" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="490" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G490" s="3"/>
     </row>
-    <row r="491" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="491" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G491" s="3"/>
     </row>
-    <row r="492" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="492" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G492" s="3"/>
     </row>
-    <row r="493" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="493" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G493" s="3"/>
     </row>
-    <row r="494" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="494" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G494" s="3"/>
     </row>
-    <row r="495" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="495" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G495" s="3"/>
     </row>
-    <row r="496" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="496" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G496" s="3"/>
     </row>
-    <row r="497" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="497" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G497" s="3"/>
     </row>
-    <row r="498" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="498" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G498" s="3"/>
     </row>
-    <row r="499" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="499" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G499" s="3"/>
     </row>
-    <row r="500" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="500" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G500" s="3"/>
     </row>
-    <row r="501" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="501" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G501" s="3"/>
     </row>
-    <row r="502" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="502" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G502" s="3"/>
     </row>
-    <row r="503" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="503" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G503" s="3"/>
     </row>
-    <row r="504" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="504" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G504" s="3"/>
     </row>
-    <row r="505" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="505" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G505" s="3"/>
     </row>
-    <row r="506" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="506" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G506" s="3"/>
     </row>
-    <row r="507" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="507" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G507" s="3"/>
     </row>
-    <row r="508" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="508" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G508" s="3"/>
     </row>
-    <row r="509" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="509" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G509" s="3"/>
     </row>
-    <row r="510" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="510" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G510" s="3"/>
     </row>
-    <row r="511" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="511" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G511" s="3"/>
     </row>
-    <row r="512" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="512" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G512" s="3"/>
     </row>
-    <row r="513" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="513" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G513" s="3"/>
     </row>
-    <row r="514" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="514" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G514" s="3"/>
     </row>
-    <row r="515" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="515" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G515" s="3"/>
     </row>
-    <row r="516" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="516" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G516" s="3"/>
     </row>
-    <row r="517" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="517" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G517" s="3"/>
     </row>
-    <row r="518" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="518" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G518" s="3"/>
     </row>
-    <row r="519" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="519" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G519" s="3"/>
     </row>
-    <row r="520" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="520" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G520" s="3"/>
     </row>
-    <row r="521" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="521" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G521" s="3"/>
     </row>
-    <row r="522" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="522" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G522" s="3"/>
     </row>
-    <row r="523" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="523" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G523" s="3"/>
     </row>
-    <row r="524" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="524" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G524" s="3"/>
     </row>
-    <row r="525" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="525" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G525" s="3"/>
     </row>
-    <row r="526" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="526" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G526" s="3"/>
     </row>
-    <row r="527" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="527" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G527" s="3"/>
     </row>
-    <row r="528" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="528" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G528" s="3"/>
     </row>
-    <row r="529" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="529" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G529" s="3"/>
     </row>
-    <row r="530" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="530" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G530" s="3"/>
     </row>
-    <row r="531" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="531" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G531" s="3"/>
     </row>
-    <row r="532" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="532" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G532" s="3"/>
     </row>
-    <row r="533" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="533" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G533" s="3"/>
     </row>
-    <row r="534" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="534" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G534" s="3"/>
     </row>
-    <row r="535" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="535" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G535" s="3"/>
     </row>
-    <row r="536" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="536" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G536" s="3"/>
     </row>
-    <row r="537" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="537" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G537" s="3"/>
     </row>
-    <row r="538" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="538" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G538" s="3"/>
     </row>
-    <row r="539" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="539" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G539" s="3"/>
     </row>
-    <row r="540" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="540" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G540" s="3"/>
     </row>
-    <row r="541" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="541" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G541" s="3"/>
     </row>
-    <row r="542" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="542" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G542" s="3"/>
     </row>
-    <row r="543" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="543" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G543" s="3"/>
     </row>
-    <row r="544" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="544" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G544" s="3"/>
     </row>
-    <row r="545" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="545" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G545" s="3"/>
     </row>
-    <row r="546" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="546" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G546" s="3"/>
     </row>
-    <row r="547" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="547" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G547" s="3"/>
     </row>
-    <row r="548" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="548" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G548" s="3"/>
     </row>
-    <row r="549" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="549" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G549" s="3"/>
     </row>
-    <row r="550" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="550" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G550" s="3"/>
     </row>
-    <row r="551" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="551" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G551" s="3"/>
     </row>
-    <row r="552" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="552" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G552" s="3"/>
     </row>
-    <row r="553" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="553" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G553" s="3"/>
     </row>
-    <row r="554" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="554" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G554" s="3"/>
     </row>
-    <row r="555" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="555" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G555" s="3"/>
     </row>
-    <row r="556" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="556" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G556" s="3"/>
     </row>
-    <row r="557" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="557" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G557" s="3"/>
     </row>
-    <row r="558" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="558" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G558" s="3"/>
     </row>
-    <row r="559" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="559" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G559" s="3"/>
     </row>
-    <row r="560" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="560" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G560" s="3"/>
     </row>
-    <row r="561" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="561" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G561" s="3"/>
     </row>
-    <row r="562" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="562" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G562" s="3"/>
     </row>
-    <row r="563" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="563" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G563" s="3"/>
     </row>
-    <row r="564" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="564" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G564" s="3"/>
     </row>
-    <row r="565" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="565" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G565" s="3"/>
     </row>
-    <row r="566" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="566" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G566" s="3"/>
     </row>
-    <row r="567" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="567" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G567" s="3"/>
     </row>
-    <row r="568" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="568" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G568" s="3"/>
     </row>
-    <row r="569" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="569" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G569" s="3"/>
     </row>
-    <row r="570" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="570" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G570" s="3"/>
     </row>
-    <row r="571" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="571" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G571" s="3"/>
     </row>
-    <row r="572" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="572" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G572" s="3"/>
     </row>
-    <row r="573" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="573" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G573" s="3"/>
     </row>
-    <row r="574" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="574" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G574" s="3"/>
     </row>
-    <row r="575" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="575" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G575" s="3"/>
     </row>
-    <row r="576" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="576" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G576" s="3"/>
     </row>
-    <row r="577" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="577" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G577" s="3"/>
     </row>
-    <row r="578" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="578" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G578" s="3"/>
     </row>
-    <row r="579" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="579" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G579" s="3"/>
     </row>
-    <row r="580" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="580" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G580" s="3"/>
     </row>
-    <row r="581" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="581" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G581" s="3"/>
     </row>
-    <row r="582" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="582" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G582" s="3"/>
     </row>
-    <row r="583" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="583" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G583" s="3"/>
     </row>
-    <row r="584" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="584" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G584" s="3"/>
     </row>
-    <row r="585" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="585" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G585" s="3"/>
     </row>
-    <row r="586" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="586" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G586" s="3"/>
     </row>
-    <row r="587" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="587" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G587" s="3"/>
     </row>
-    <row r="588" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="588" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G588" s="3"/>
     </row>
-    <row r="589" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="589" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G589" s="3"/>
     </row>
-    <row r="590" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="590" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G590" s="3"/>
     </row>
-    <row r="591" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="591" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G591" s="3"/>
     </row>
-    <row r="592" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="592" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G592" s="3"/>
     </row>
-    <row r="593" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="593" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G593" s="3"/>
     </row>
-    <row r="594" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="594" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G594" s="3"/>
     </row>
-    <row r="595" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="595" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G595" s="3"/>
     </row>
-    <row r="596" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="596" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G596" s="3"/>
     </row>
-    <row r="597" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="597" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G597" s="3"/>
     </row>
-    <row r="598" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="598" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G598" s="3"/>
     </row>
-    <row r="599" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="599" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G599" s="3"/>
     </row>
-    <row r="600" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="600" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G600" s="3"/>
     </row>
-    <row r="601" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="601" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G601" s="3"/>
     </row>
-    <row r="602" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="602" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G602" s="3"/>
     </row>
-    <row r="603" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="603" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G603" s="3"/>
     </row>
-    <row r="604" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="604" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G604" s="3"/>
     </row>
-    <row r="605" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="605" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G605" s="3"/>
     </row>
-    <row r="606" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="606" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G606" s="3"/>
     </row>
-    <row r="607" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="607" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G607" s="3"/>
     </row>
-    <row r="608" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="608" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G608" s="3"/>
     </row>
-    <row r="609" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="609" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G609" s="3"/>
     </row>
-    <row r="610" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="610" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G610" s="3"/>
     </row>
-    <row r="611" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="611" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G611" s="3"/>
     </row>
-    <row r="612" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="612" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G612" s="3"/>
     </row>
-    <row r="613" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="613" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G613" s="3"/>
     </row>
-    <row r="614" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="614" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G614" s="3"/>
     </row>
-    <row r="615" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="615" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G615" s="3"/>
     </row>
-    <row r="616" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="616" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G616" s="3"/>
     </row>
-    <row r="617" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="617" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G617" s="3"/>
     </row>
-    <row r="618" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="618" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G618" s="3"/>
     </row>
-    <row r="619" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="619" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G619" s="3"/>
     </row>
-    <row r="620" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="620" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G620" s="3"/>
     </row>
-    <row r="621" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="621" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G621" s="3"/>
     </row>
-    <row r="622" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="622" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G622" s="3"/>
     </row>
-    <row r="623" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="623" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G623" s="3"/>
     </row>
-    <row r="624" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="624" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G624" s="3"/>
     </row>
-    <row r="625" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="625" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G625" s="3"/>
     </row>
-    <row r="626" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="626" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G626" s="3"/>
     </row>
-    <row r="627" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="627" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G627" s="3"/>
     </row>
-    <row r="628" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="628" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G628" s="3"/>
     </row>
-    <row r="629" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="629" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G629" s="3"/>
     </row>
-    <row r="630" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="630" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G630" s="3"/>
     </row>
-    <row r="631" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="631" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G631" s="3"/>
     </row>
-    <row r="632" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="632" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G632" s="3"/>
     </row>
-    <row r="633" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="633" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G633" s="3"/>
     </row>
-    <row r="634" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="634" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G634" s="3"/>
     </row>
-    <row r="635" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="635" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G635" s="3"/>
     </row>
-    <row r="636" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="636" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G636" s="3"/>
     </row>
-    <row r="637" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="637" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G637" s="3"/>
     </row>
-    <row r="638" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="638" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G638" s="3"/>
     </row>
-    <row r="639" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="639" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G639" s="3"/>
     </row>
-    <row r="640" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="640" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G640" s="3"/>
     </row>
-    <row r="641" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="641" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G641" s="3"/>
     </row>
-    <row r="642" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="642" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G642" s="3"/>
     </row>
-    <row r="643" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="643" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G643" s="3"/>
     </row>
-    <row r="644" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="644" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G644" s="3"/>
     </row>
-    <row r="645" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="645" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G645" s="3"/>
     </row>
-    <row r="646" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="646" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G646" s="3"/>
     </row>
-    <row r="647" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="647" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G647" s="3"/>
     </row>
-    <row r="648" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="648" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G648" s="3"/>
     </row>
-    <row r="649" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="649" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G649" s="3"/>
     </row>
-    <row r="650" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="650" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G650" s="3"/>
     </row>
-    <row r="651" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="651" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G651" s="3"/>
     </row>
-    <row r="652" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="652" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G652" s="3"/>
     </row>
-    <row r="653" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="653" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G653" s="3"/>
     </row>
-    <row r="654" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="654" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G654" s="3"/>
     </row>
-    <row r="655" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="655" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G655" s="3"/>
     </row>
-    <row r="656" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="656" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G656" s="3"/>
     </row>
-    <row r="657" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="657" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G657" s="3"/>
     </row>
-    <row r="658" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="658" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G658" s="3"/>
     </row>
-    <row r="659" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="659" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G659" s="3"/>
     </row>
-    <row r="660" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="660" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G660" s="3"/>
     </row>
-    <row r="661" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="661" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G661" s="3"/>
     </row>
-    <row r="662" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="662" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G662" s="3"/>
     </row>
-    <row r="663" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="663" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G663" s="3"/>
     </row>
-    <row r="664" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="664" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G664" s="3"/>
     </row>
-    <row r="665" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="665" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G665" s="3"/>
     </row>
-    <row r="666" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="666" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G666" s="3"/>
     </row>
-    <row r="667" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="667" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G667" s="3"/>
     </row>
-    <row r="668" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="668" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G668" s="3"/>
     </row>
-    <row r="669" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="669" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G669" s="3"/>
     </row>
-    <row r="670" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="670" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G670" s="3"/>
     </row>
-    <row r="671" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="671" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G671" s="3"/>
     </row>
-    <row r="672" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="672" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G672" s="3"/>
     </row>
-    <row r="673" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="673" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G673" s="3"/>
     </row>
-    <row r="674" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="674" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G674" s="3"/>
     </row>
-    <row r="675" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="675" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G675" s="3"/>
     </row>
-    <row r="676" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="676" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G676" s="3"/>
     </row>
-    <row r="677" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="677" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G677" s="3"/>
     </row>
-    <row r="678" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="678" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G678" s="3"/>
     </row>
-    <row r="679" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="679" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G679" s="3"/>
     </row>
-    <row r="680" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="680" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G680" s="3"/>
     </row>
-    <row r="681" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="681" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G681" s="3"/>
     </row>
-    <row r="682" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="682" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G682" s="3"/>
     </row>
-    <row r="683" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="683" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G683" s="3"/>
     </row>
-    <row r="684" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="684" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G684" s="3"/>
     </row>
-    <row r="685" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="685" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G685" s="3"/>
     </row>
-    <row r="686" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="686" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G686" s="3"/>
     </row>
-    <row r="687" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="687" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G687" s="3"/>
     </row>
-    <row r="688" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="688" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G688" s="3"/>
     </row>
-    <row r="689" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="689" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G689" s="3"/>
     </row>
-    <row r="690" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="690" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G690" s="3"/>
     </row>
-    <row r="691" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="691" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G691" s="3"/>
     </row>
-    <row r="692" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="692" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G692" s="3"/>
     </row>
-    <row r="693" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="693" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G693" s="3"/>
     </row>
-    <row r="694" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="694" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G694" s="3"/>
     </row>
-    <row r="695" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="695" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G695" s="3"/>
     </row>
-    <row r="696" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="696" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G696" s="3"/>
     </row>
-    <row r="697" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="697" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G697" s="3"/>
     </row>
-    <row r="698" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="698" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G698" s="3"/>
     </row>
-    <row r="699" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="699" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G699" s="3"/>
     </row>
-    <row r="700" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="700" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G700" s="3"/>
     </row>
-    <row r="701" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="701" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G701" s="3"/>
     </row>
-    <row r="702" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="702" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G702" s="3"/>
     </row>
-    <row r="703" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="703" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G703" s="3"/>
     </row>
-    <row r="704" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="704" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G704" s="3"/>
     </row>
-    <row r="705" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="705" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G705" s="3"/>
     </row>
-    <row r="706" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="706" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G706" s="3"/>
     </row>
-    <row r="707" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="707" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G707" s="3"/>
     </row>
-    <row r="708" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="708" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G708" s="3"/>
     </row>
-    <row r="709" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="709" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G709" s="3"/>
     </row>
-    <row r="710" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="710" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G710" s="3"/>
     </row>
-    <row r="711" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="711" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G711" s="3"/>
     </row>
-    <row r="712" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="712" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G712" s="3"/>
     </row>
-    <row r="713" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="713" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G713" s="3"/>
     </row>
-    <row r="714" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="714" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G714" s="3"/>
     </row>
-    <row r="715" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="715" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G715" s="3"/>
     </row>
-    <row r="716" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="716" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G716" s="3"/>
     </row>
-    <row r="717" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="717" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G717" s="3"/>
     </row>
-    <row r="718" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="718" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G718" s="3"/>
     </row>
-    <row r="719" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="719" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G719" s="3"/>
     </row>
-    <row r="720" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="720" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G720" s="3"/>
     </row>
-    <row r="721" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="721" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G721" s="3"/>
     </row>
-    <row r="722" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="722" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G722" s="3"/>
     </row>
-    <row r="723" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="723" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G723" s="3"/>
     </row>
-    <row r="724" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="724" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G724" s="3"/>
     </row>
-    <row r="725" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="725" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G725" s="3"/>
     </row>
-    <row r="726" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="726" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G726" s="3"/>
     </row>
-    <row r="727" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="727" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G727" s="3"/>
     </row>
-    <row r="728" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="728" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G728" s="3"/>
     </row>
-    <row r="729" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="729" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G729" s="3"/>
     </row>
-    <row r="730" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="730" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G730" s="3"/>
     </row>
-    <row r="731" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="731" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G731" s="3"/>
     </row>
-    <row r="732" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="732" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G732" s="3"/>
     </row>
-    <row r="733" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="733" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G733" s="3"/>
     </row>
-    <row r="734" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="734" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G734" s="3"/>
     </row>
-    <row r="735" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="735" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G735" s="3"/>
     </row>
-    <row r="736" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="736" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G736" s="3"/>
     </row>
-    <row r="737" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="737" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G737" s="3"/>
     </row>
-    <row r="738" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="738" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G738" s="3"/>
     </row>
-    <row r="739" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="739" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G739" s="3"/>
     </row>
-    <row r="740" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="740" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G740" s="3"/>
     </row>
-    <row r="741" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="741" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G741" s="3"/>
     </row>
-    <row r="742" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="742" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G742" s="3"/>
     </row>
-    <row r="743" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="743" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G743" s="3"/>
     </row>
-    <row r="744" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="744" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G744" s="3"/>
     </row>
-    <row r="745" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="745" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G745" s="3"/>
     </row>
-    <row r="746" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="746" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G746" s="3"/>
     </row>
-    <row r="747" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="747" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G747" s="3"/>
     </row>
-    <row r="748" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="748" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G748" s="3"/>
     </row>
-    <row r="749" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="749" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G749" s="3"/>
     </row>
-    <row r="750" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="750" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G750" s="3"/>
     </row>
-    <row r="751" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="751" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G751" s="3"/>
     </row>
-    <row r="752" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="752" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G752" s="3"/>
     </row>
-    <row r="753" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="753" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G753" s="3"/>
     </row>
-    <row r="754" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="754" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G754" s="3"/>
     </row>
-    <row r="755" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="755" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G755" s="3"/>
     </row>
-    <row r="756" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="756" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G756" s="3"/>
     </row>
-    <row r="757" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="757" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G757" s="3"/>
     </row>
-    <row r="758" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="758" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G758" s="3"/>
     </row>
-    <row r="759" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="759" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G759" s="3"/>
     </row>
-    <row r="760" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="760" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G760" s="3"/>
     </row>
-    <row r="761" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="761" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G761" s="3"/>
     </row>
-    <row r="762" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="762" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G762" s="3"/>
     </row>
-    <row r="763" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="763" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G763" s="3"/>
     </row>
-    <row r="764" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="764" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G764" s="3"/>
     </row>
-    <row r="765" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="765" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G765" s="3"/>
     </row>
-    <row r="766" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="766" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G766" s="3"/>
     </row>
-    <row r="767" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="767" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G767" s="3"/>
     </row>
-    <row r="768" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="768" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G768" s="3"/>
     </row>
-    <row r="769" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="769" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G769" s="3"/>
     </row>
-    <row r="770" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="770" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G770" s="3"/>
     </row>
-    <row r="771" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="771" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G771" s="3"/>
     </row>
-    <row r="772" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="772" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G772" s="3"/>
     </row>
-    <row r="773" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="773" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G773" s="3"/>
     </row>
-    <row r="774" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="774" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G774" s="3"/>
     </row>
-    <row r="775" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="775" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G775" s="3"/>
     </row>
-    <row r="776" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="776" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G776" s="3"/>
     </row>
-    <row r="777" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="777" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G777" s="3"/>
     </row>
-    <row r="778" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="778" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G778" s="3"/>
     </row>
-    <row r="779" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="779" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G779" s="3"/>
     </row>
-    <row r="780" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="780" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G780" s="3"/>
     </row>
-    <row r="781" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="781" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G781" s="3"/>
     </row>
-    <row r="782" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="782" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G782" s="3"/>
     </row>
-    <row r="783" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="783" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G783" s="3"/>
     </row>
-    <row r="784" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="784" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G784" s="3"/>
     </row>
-    <row r="785" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="785" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G785" s="3"/>
     </row>
-    <row r="786" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="786" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G786" s="3"/>
     </row>
-    <row r="787" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="787" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G787" s="3"/>
     </row>
-    <row r="788" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="788" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G788" s="3"/>
     </row>
-    <row r="789" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="789" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G789" s="3"/>
     </row>
-    <row r="790" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="790" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G790" s="3"/>
     </row>
-    <row r="791" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="791" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G791" s="3"/>
     </row>
-    <row r="792" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="792" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G792" s="3"/>
     </row>
-    <row r="793" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="793" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G793" s="3"/>
     </row>
-    <row r="794" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="794" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G794" s="3"/>
     </row>
-    <row r="795" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="795" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G795" s="3"/>
     </row>
-    <row r="796" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="796" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G796" s="3"/>
     </row>
-    <row r="797" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="797" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G797" s="3"/>
     </row>
-    <row r="798" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="798" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G798" s="3"/>
     </row>
-    <row r="799" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="799" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G799" s="3"/>
     </row>
-    <row r="800" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="800" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G800" s="3"/>
     </row>
-    <row r="801" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="801" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G801" s="3"/>
     </row>
-    <row r="802" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="802" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G802" s="3"/>
     </row>
-    <row r="803" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="803" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G803" s="3"/>
     </row>
-    <row r="804" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="804" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G804" s="3"/>
     </row>
-    <row r="805" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="805" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G805" s="3"/>
     </row>
-    <row r="806" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="806" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G806" s="3"/>
     </row>
-    <row r="807" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="807" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G807" s="3"/>
     </row>
-    <row r="808" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="808" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G808" s="3"/>
     </row>
-    <row r="809" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="809" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G809" s="3"/>
     </row>
-    <row r="810" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="810" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G810" s="3"/>
     </row>
-    <row r="811" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="811" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G811" s="3"/>
     </row>
-    <row r="812" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="812" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G812" s="3"/>
     </row>
-    <row r="813" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="813" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G813" s="3"/>
     </row>
-    <row r="814" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="814" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G814" s="3"/>
     </row>
-    <row r="815" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="815" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G815" s="3"/>
     </row>
-    <row r="816" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="816" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G816" s="3"/>
     </row>
-    <row r="817" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="817" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G817" s="3"/>
     </row>
-    <row r="818" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="818" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G818" s="3"/>
     </row>
-    <row r="819" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="819" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G819" s="3"/>
     </row>
-    <row r="820" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="820" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G820" s="3"/>
     </row>
-    <row r="821" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="821" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G821" s="3"/>
     </row>
-    <row r="822" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="822" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G822" s="3"/>
     </row>
-    <row r="823" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="823" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G823" s="3"/>
     </row>
-    <row r="824" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="824" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G824" s="3"/>
     </row>
-    <row r="825" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="825" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G825" s="3"/>
     </row>
-    <row r="826" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="826" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G826" s="3"/>
     </row>
-    <row r="827" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="827" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G827" s="3"/>
     </row>
-    <row r="828" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="828" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G828" s="3"/>
     </row>
-    <row r="829" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="829" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G829" s="3"/>
     </row>
-    <row r="830" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="830" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G830" s="3"/>
     </row>
-    <row r="831" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="831" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G831" s="3"/>
     </row>
-    <row r="832" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="832" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G832" s="3"/>
     </row>
-    <row r="833" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="833" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G833" s="3"/>
     </row>
-    <row r="834" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="834" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G834" s="3"/>
     </row>
-    <row r="835" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="835" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G835" s="3"/>
     </row>
-    <row r="836" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="836" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G836" s="3"/>
     </row>
-    <row r="837" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="837" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G837" s="3"/>
     </row>
-    <row r="838" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="838" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G838" s="3"/>
     </row>
-    <row r="839" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="839" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G839" s="3"/>
     </row>
-    <row r="840" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="840" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G840" s="3"/>
     </row>
-    <row r="841" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="841" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G841" s="3"/>
     </row>
-    <row r="842" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="842" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G842" s="3"/>
     </row>
-    <row r="843" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="843" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G843" s="3"/>
     </row>
-    <row r="844" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="844" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G844" s="3"/>
     </row>
-    <row r="845" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="845" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G845" s="3"/>
     </row>
-    <row r="846" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="846" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G846" s="3"/>
     </row>
-    <row r="847" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="847" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G847" s="3"/>
     </row>
-    <row r="848" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="848" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G848" s="3"/>
     </row>
-    <row r="849" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="849" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G849" s="3"/>
     </row>
-    <row r="850" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="850" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G850" s="3"/>
     </row>
-    <row r="851" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="851" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G851" s="3"/>
     </row>
-    <row r="852" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="852" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G852" s="3"/>
     </row>
-    <row r="853" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="853" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G853" s="3"/>
     </row>
-    <row r="854" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="854" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G854" s="3"/>
     </row>
-    <row r="855" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="855" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G855" s="3"/>
     </row>
-    <row r="856" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="856" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G856" s="3"/>
     </row>
-    <row r="857" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="857" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G857" s="3"/>
     </row>
-    <row r="858" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="858" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G858" s="3"/>
     </row>
-    <row r="859" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="859" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G859" s="3"/>
     </row>
-    <row r="860" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="860" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G860" s="3"/>
     </row>
-    <row r="861" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="861" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G861" s="3"/>
     </row>
-    <row r="862" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="862" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G862" s="3"/>
     </row>
-    <row r="863" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="863" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G863" s="3"/>
     </row>
-    <row r="864" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="864" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G864" s="3"/>
     </row>
-    <row r="865" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="865" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G865" s="3"/>
     </row>
-    <row r="866" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="866" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G866" s="3"/>
     </row>
-    <row r="867" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="867" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G867" s="3"/>
     </row>
-    <row r="868" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="868" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G868" s="3"/>
     </row>
-    <row r="869" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="869" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G869" s="3"/>
     </row>
-    <row r="870" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="870" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G870" s="3"/>
     </row>
-    <row r="871" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="871" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G871" s="3"/>
     </row>
-    <row r="872" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="872" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G872" s="3"/>
     </row>
-    <row r="873" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="873" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G873" s="3"/>
     </row>
-    <row r="874" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="874" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G874" s="3"/>
     </row>
-    <row r="875" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="875" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G875" s="3"/>
     </row>
-    <row r="876" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="876" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G876" s="3"/>
     </row>
-    <row r="877" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="877" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G877" s="3"/>
     </row>
-    <row r="878" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="878" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G878" s="3"/>
     </row>
-    <row r="879" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="879" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G879" s="3"/>
     </row>
-    <row r="880" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="880" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G880" s="3"/>
     </row>
-    <row r="881" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="881" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G881" s="3"/>
     </row>
-    <row r="882" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="882" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G882" s="3"/>
     </row>
-    <row r="883" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="883" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G883" s="3"/>
     </row>
-    <row r="884" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="884" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G884" s="3"/>
     </row>
-    <row r="885" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="885" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G885" s="3"/>
     </row>
-    <row r="886" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="886" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G886" s="3"/>
     </row>
-    <row r="887" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="887" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G887" s="3"/>
     </row>
-    <row r="888" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="888" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G888" s="3"/>
     </row>
-    <row r="889" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="889" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G889" s="3"/>
     </row>
-    <row r="890" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="890" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G890" s="3"/>
     </row>
-    <row r="891" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="891" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G891" s="3"/>
     </row>
-    <row r="892" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="892" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G892" s="3"/>
     </row>
-    <row r="893" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="893" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G893" s="3"/>
     </row>
-    <row r="894" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="894" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G894" s="3"/>
     </row>
-    <row r="895" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="895" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G895" s="3"/>
     </row>
-    <row r="896" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="896" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G896" s="3"/>
     </row>
-    <row r="897" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="897" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G897" s="3"/>
     </row>
-    <row r="898" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="898" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G898" s="3"/>
     </row>
-    <row r="899" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="899" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G899" s="3"/>
     </row>
-    <row r="900" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="900" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G900" s="3"/>
     </row>
-    <row r="901" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="901" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G901" s="3"/>
     </row>
-    <row r="902" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="902" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G902" s="3"/>
     </row>
-    <row r="903" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="903" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G903" s="3"/>
     </row>
-    <row r="904" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="904" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G904" s="3"/>
     </row>
-    <row r="905" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="905" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G905" s="3"/>
     </row>
-    <row r="906" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="906" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G906" s="3"/>
     </row>
-    <row r="907" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="907" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G907" s="3"/>
     </row>
-    <row r="908" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="908" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G908" s="3"/>
     </row>
-    <row r="909" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="909" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G909" s="3"/>
     </row>
-    <row r="910" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="910" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G910" s="3"/>
     </row>
-    <row r="911" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="911" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G911" s="3"/>
     </row>
-    <row r="912" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="912" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G912" s="3"/>
     </row>
-    <row r="913" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="913" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G913" s="3"/>
     </row>
-    <row r="914" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="914" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G914" s="3"/>
     </row>
-    <row r="915" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="915" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G915" s="3"/>
     </row>
-    <row r="916" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="916" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G916" s="3"/>
     </row>
-    <row r="917" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="917" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G917" s="3"/>
     </row>
-    <row r="918" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="918" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G918" s="3"/>
     </row>
-    <row r="919" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="919" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G919" s="3"/>
     </row>
-    <row r="920" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="920" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G920" s="3"/>
     </row>
-    <row r="921" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="921" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G921" s="3"/>
     </row>
-    <row r="922" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="922" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G922" s="3"/>
     </row>
-    <row r="923" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="923" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G923" s="3"/>
     </row>
-    <row r="924" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="924" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G924" s="3"/>
     </row>
-    <row r="925" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="925" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G925" s="3"/>
     </row>
-    <row r="926" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="926" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G926" s="3"/>
     </row>
-    <row r="927" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="927" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G927" s="3"/>
     </row>
-    <row r="928" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="928" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G928" s="3"/>
     </row>
-    <row r="929" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="929" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G929" s="3"/>
     </row>
-    <row r="930" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="930" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G930" s="3"/>
     </row>
-    <row r="931" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="931" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G931" s="3"/>
     </row>
-    <row r="932" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="932" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G932" s="3"/>
     </row>
-    <row r="933" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="933" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G933" s="3"/>
     </row>
-    <row r="934" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="934" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G934" s="3"/>
     </row>
-    <row r="935" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="935" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G935" s="3"/>
     </row>
-    <row r="936" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="936" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G936" s="3"/>
     </row>
-    <row r="937" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="937" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G937" s="3"/>
     </row>
-    <row r="938" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="938" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G938" s="3"/>
     </row>
-    <row r="939" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="939" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G939" s="3"/>
     </row>
-    <row r="940" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="940" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G940" s="3"/>
     </row>
-    <row r="941" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="941" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G941" s="3"/>
     </row>
-    <row r="942" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="942" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G942" s="3"/>
     </row>
-    <row r="943" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="943" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G943" s="3"/>
     </row>
-    <row r="944" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="944" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G944" s="3"/>
     </row>
-    <row r="945" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="945" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G945" s="3"/>
     </row>
-    <row r="946" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="946" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G946" s="3"/>
     </row>
-    <row r="947" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="947" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G947" s="3"/>
     </row>
-    <row r="948" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="948" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G948" s="3"/>
     </row>
-    <row r="949" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="949" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G949" s="3"/>
     </row>
-    <row r="950" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="950" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G950" s="3"/>
     </row>
-    <row r="951" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="951" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G951" s="3"/>
     </row>
-    <row r="952" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="952" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G952" s="3"/>
     </row>
-    <row r="953" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="953" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G953" s="3"/>
     </row>
-    <row r="954" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="954" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G954" s="3"/>
     </row>
-    <row r="955" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="955" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G955" s="3"/>
     </row>
-    <row r="956" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="956" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G956" s="3"/>
     </row>
-    <row r="957" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="957" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G957" s="3"/>
     </row>
-    <row r="958" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="958" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G958" s="3"/>
     </row>
-    <row r="959" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="959" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G959" s="3"/>
     </row>
-    <row r="960" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="960" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G960" s="3"/>
     </row>
-    <row r="961" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="961" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G961" s="3"/>
     </row>
-    <row r="962" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="962" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G962" s="3"/>
     </row>
-    <row r="963" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="963" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G963" s="3"/>
     </row>
-    <row r="964" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="964" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G964" s="3"/>
     </row>
-    <row r="965" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="965" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G965" s="3"/>
     </row>
-    <row r="966" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="966" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G966" s="3"/>
     </row>
-    <row r="967" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="967" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G967" s="3"/>
     </row>
-    <row r="968" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="968" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G968" s="3"/>
     </row>
-    <row r="969" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="969" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G969" s="3"/>
     </row>
-    <row r="970" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="970" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G970" s="3"/>
     </row>
-    <row r="971" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="971" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G971" s="3"/>
     </row>
-    <row r="972" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="972" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G972" s="3"/>
     </row>
-    <row r="973" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="973" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G973" s="3"/>
     </row>
-    <row r="974" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="974" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G974" s="3"/>
     </row>
-    <row r="975" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="975" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G975" s="3"/>
     </row>
-    <row r="976" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="976" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G976" s="3"/>
     </row>
-    <row r="977" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="977" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G977" s="3"/>
     </row>
-    <row r="978" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="978" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G978" s="3"/>
     </row>
-    <row r="979" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="979" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G979" s="3"/>
     </row>
-    <row r="980" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="980" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G980" s="3"/>
     </row>
-    <row r="981" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="981" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G981" s="3"/>
     </row>
-    <row r="982" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="982" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G982" s="3"/>
     </row>
-    <row r="983" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="983" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G983" s="3"/>
     </row>
-    <row r="984" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="984" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G984" s="3"/>
     </row>
-    <row r="985" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="985" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G985" s="3"/>
     </row>
-    <row r="986" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="986" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G986" s="3"/>
     </row>
-    <row r="987" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="987" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G987" s="3"/>
     </row>
-    <row r="988" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="988" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G988" s="3"/>
     </row>
-    <row r="989" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="989" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G989" s="3"/>
     </row>
-    <row r="990" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="990" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G990" s="3"/>
     </row>
-    <row r="991" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="991" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G991" s="3"/>
     </row>
-    <row r="992" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="992" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="G992" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="148">
+    <mergeCell ref="H146:I146"/>
+    <mergeCell ref="H147:I147"/>
+    <mergeCell ref="H148:I148"/>
+    <mergeCell ref="H149:I149"/>
+    <mergeCell ref="H150:I150"/>
+    <mergeCell ref="H141:I141"/>
+    <mergeCell ref="H142:I142"/>
+    <mergeCell ref="H143:I143"/>
+    <mergeCell ref="H144:I144"/>
+    <mergeCell ref="H145:I145"/>
+    <mergeCell ref="H136:I136"/>
+    <mergeCell ref="H137:I137"/>
+    <mergeCell ref="H138:I138"/>
+    <mergeCell ref="H139:I139"/>
+    <mergeCell ref="H140:I140"/>
+    <mergeCell ref="H131:I131"/>
+    <mergeCell ref="H132:I132"/>
+    <mergeCell ref="H133:I133"/>
+    <mergeCell ref="H134:I134"/>
+    <mergeCell ref="H135:I135"/>
+    <mergeCell ref="H126:I126"/>
+    <mergeCell ref="H127:I127"/>
+    <mergeCell ref="H128:I128"/>
+    <mergeCell ref="H129:I129"/>
+    <mergeCell ref="H130:I130"/>
+    <mergeCell ref="H121:I121"/>
+    <mergeCell ref="H122:I122"/>
+    <mergeCell ref="H123:I123"/>
+    <mergeCell ref="H124:I124"/>
+    <mergeCell ref="H125:I125"/>
+    <mergeCell ref="H116:I116"/>
+    <mergeCell ref="H117:I117"/>
+    <mergeCell ref="H118:I118"/>
+    <mergeCell ref="H119:I119"/>
+    <mergeCell ref="H120:I120"/>
+    <mergeCell ref="H111:I111"/>
+    <mergeCell ref="H112:I112"/>
+    <mergeCell ref="H113:I113"/>
+    <mergeCell ref="H114:I114"/>
+    <mergeCell ref="H115:I115"/>
+    <mergeCell ref="H106:I106"/>
+    <mergeCell ref="H107:I107"/>
+    <mergeCell ref="H108:I108"/>
+    <mergeCell ref="H109:I109"/>
+    <mergeCell ref="H110:I110"/>
+    <mergeCell ref="H101:I101"/>
+    <mergeCell ref="H102:I102"/>
+    <mergeCell ref="H103:I103"/>
+    <mergeCell ref="H104:I104"/>
+    <mergeCell ref="H105:I105"/>
+    <mergeCell ref="H96:I96"/>
+    <mergeCell ref="H97:I97"/>
+    <mergeCell ref="H98:I98"/>
+    <mergeCell ref="H99:I99"/>
+    <mergeCell ref="H100:I100"/>
+    <mergeCell ref="H91:I91"/>
+    <mergeCell ref="H92:I92"/>
+    <mergeCell ref="H93:I93"/>
+    <mergeCell ref="H94:I94"/>
+    <mergeCell ref="H95:I95"/>
+    <mergeCell ref="H86:I86"/>
+    <mergeCell ref="H87:I87"/>
+    <mergeCell ref="H88:I88"/>
+    <mergeCell ref="H89:I89"/>
+    <mergeCell ref="H90:I90"/>
+    <mergeCell ref="H81:I81"/>
+    <mergeCell ref="H82:I82"/>
+    <mergeCell ref="H83:I83"/>
+    <mergeCell ref="H84:I84"/>
+    <mergeCell ref="H85:I85"/>
+    <mergeCell ref="H76:I76"/>
+    <mergeCell ref="H77:I77"/>
+    <mergeCell ref="H78:I78"/>
+    <mergeCell ref="H79:I79"/>
+    <mergeCell ref="H80:I80"/>
+    <mergeCell ref="H71:I71"/>
+    <mergeCell ref="H72:I72"/>
+    <mergeCell ref="H73:I73"/>
+    <mergeCell ref="H74:I74"/>
+    <mergeCell ref="H75:I75"/>
+    <mergeCell ref="H66:I66"/>
+    <mergeCell ref="H67:I67"/>
+    <mergeCell ref="H68:I68"/>
+    <mergeCell ref="H69:I69"/>
+    <mergeCell ref="H70:I70"/>
+    <mergeCell ref="H61:I61"/>
+    <mergeCell ref="H62:I62"/>
+    <mergeCell ref="H63:I63"/>
+    <mergeCell ref="H64:I64"/>
+    <mergeCell ref="H65:I65"/>
+    <mergeCell ref="H56:I56"/>
+    <mergeCell ref="H57:I57"/>
+    <mergeCell ref="H58:I58"/>
+    <mergeCell ref="H59:I59"/>
+    <mergeCell ref="H60:I60"/>
+    <mergeCell ref="H51:I51"/>
+    <mergeCell ref="H52:I52"/>
+    <mergeCell ref="H53:I53"/>
+    <mergeCell ref="H54:I54"/>
+    <mergeCell ref="H55:I55"/>
+    <mergeCell ref="H46:I46"/>
+    <mergeCell ref="H47:I47"/>
+    <mergeCell ref="H48:I48"/>
+    <mergeCell ref="H49:I49"/>
+    <mergeCell ref="H50:I50"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="H42:I42"/>
+    <mergeCell ref="H43:I43"/>
+    <mergeCell ref="H44:I44"/>
+    <mergeCell ref="H45:I45"/>
+    <mergeCell ref="H36:I36"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="A20:I20"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="H25:I25"/>
     <mergeCell ref="H15:I15"/>
     <mergeCell ref="H16:I16"/>
     <mergeCell ref="H17:I17"/>
@@ -6642,136 +6788,6 @@
     <mergeCell ref="H12:I12"/>
     <mergeCell ref="H13:I13"/>
     <mergeCell ref="H14:I14"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="A20:I20"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="H36:I36"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="H38:I38"/>
-    <mergeCell ref="H39:I39"/>
-    <mergeCell ref="H40:I40"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="H46:I46"/>
-    <mergeCell ref="H47:I47"/>
-    <mergeCell ref="H48:I48"/>
-    <mergeCell ref="H49:I49"/>
-    <mergeCell ref="H50:I50"/>
-    <mergeCell ref="H41:I41"/>
-    <mergeCell ref="H42:I42"/>
-    <mergeCell ref="H43:I43"/>
-    <mergeCell ref="H44:I44"/>
-    <mergeCell ref="H45:I45"/>
-    <mergeCell ref="H56:I56"/>
-    <mergeCell ref="H57:I57"/>
-    <mergeCell ref="H58:I58"/>
-    <mergeCell ref="H59:I59"/>
-    <mergeCell ref="H60:I60"/>
-    <mergeCell ref="H51:I51"/>
-    <mergeCell ref="H52:I52"/>
-    <mergeCell ref="H53:I53"/>
-    <mergeCell ref="H54:I54"/>
-    <mergeCell ref="H55:I55"/>
-    <mergeCell ref="H66:I66"/>
-    <mergeCell ref="H67:I67"/>
-    <mergeCell ref="H68:I68"/>
-    <mergeCell ref="H69:I69"/>
-    <mergeCell ref="H70:I70"/>
-    <mergeCell ref="H61:I61"/>
-    <mergeCell ref="H62:I62"/>
-    <mergeCell ref="H63:I63"/>
-    <mergeCell ref="H64:I64"/>
-    <mergeCell ref="H65:I65"/>
-    <mergeCell ref="H76:I76"/>
-    <mergeCell ref="H77:I77"/>
-    <mergeCell ref="H78:I78"/>
-    <mergeCell ref="H79:I79"/>
-    <mergeCell ref="H80:I80"/>
-    <mergeCell ref="H71:I71"/>
-    <mergeCell ref="H72:I72"/>
-    <mergeCell ref="H73:I73"/>
-    <mergeCell ref="H74:I74"/>
-    <mergeCell ref="H75:I75"/>
-    <mergeCell ref="H86:I86"/>
-    <mergeCell ref="H87:I87"/>
-    <mergeCell ref="H88:I88"/>
-    <mergeCell ref="H89:I89"/>
-    <mergeCell ref="H90:I90"/>
-    <mergeCell ref="H81:I81"/>
-    <mergeCell ref="H82:I82"/>
-    <mergeCell ref="H83:I83"/>
-    <mergeCell ref="H84:I84"/>
-    <mergeCell ref="H85:I85"/>
-    <mergeCell ref="H96:I96"/>
-    <mergeCell ref="H97:I97"/>
-    <mergeCell ref="H98:I98"/>
-    <mergeCell ref="H99:I99"/>
-    <mergeCell ref="H100:I100"/>
-    <mergeCell ref="H91:I91"/>
-    <mergeCell ref="H92:I92"/>
-    <mergeCell ref="H93:I93"/>
-    <mergeCell ref="H94:I94"/>
-    <mergeCell ref="H95:I95"/>
-    <mergeCell ref="H106:I106"/>
-    <mergeCell ref="H107:I107"/>
-    <mergeCell ref="H108:I108"/>
-    <mergeCell ref="H109:I109"/>
-    <mergeCell ref="H110:I110"/>
-    <mergeCell ref="H101:I101"/>
-    <mergeCell ref="H102:I102"/>
-    <mergeCell ref="H103:I103"/>
-    <mergeCell ref="H104:I104"/>
-    <mergeCell ref="H105:I105"/>
-    <mergeCell ref="H116:I116"/>
-    <mergeCell ref="H117:I117"/>
-    <mergeCell ref="H118:I118"/>
-    <mergeCell ref="H119:I119"/>
-    <mergeCell ref="H120:I120"/>
-    <mergeCell ref="H111:I111"/>
-    <mergeCell ref="H112:I112"/>
-    <mergeCell ref="H113:I113"/>
-    <mergeCell ref="H114:I114"/>
-    <mergeCell ref="H115:I115"/>
-    <mergeCell ref="H126:I126"/>
-    <mergeCell ref="H127:I127"/>
-    <mergeCell ref="H128:I128"/>
-    <mergeCell ref="H129:I129"/>
-    <mergeCell ref="H130:I130"/>
-    <mergeCell ref="H121:I121"/>
-    <mergeCell ref="H122:I122"/>
-    <mergeCell ref="H123:I123"/>
-    <mergeCell ref="H124:I124"/>
-    <mergeCell ref="H125:I125"/>
-    <mergeCell ref="H136:I136"/>
-    <mergeCell ref="H137:I137"/>
-    <mergeCell ref="H138:I138"/>
-    <mergeCell ref="H139:I139"/>
-    <mergeCell ref="H140:I140"/>
-    <mergeCell ref="H131:I131"/>
-    <mergeCell ref="H132:I132"/>
-    <mergeCell ref="H133:I133"/>
-    <mergeCell ref="H134:I134"/>
-    <mergeCell ref="H135:I135"/>
-    <mergeCell ref="H146:I146"/>
-    <mergeCell ref="H147:I147"/>
-    <mergeCell ref="H148:I148"/>
-    <mergeCell ref="H149:I149"/>
-    <mergeCell ref="H150:I150"/>
-    <mergeCell ref="H141:I141"/>
-    <mergeCell ref="H142:I142"/>
-    <mergeCell ref="H143:I143"/>
-    <mergeCell ref="H144:I144"/>
-    <mergeCell ref="H145:I145"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G1 G3:G19 G21:G992" xr:uid="{00000000-0002-0000-0000-000000000000}">

--- a/Requirments/Review.xlsx
+++ b/Requirments/Review.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ITI material\QA\Online-Mobile-Store-WebSite\Requirments\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ITI\QA\Online-Mobile-Store-WebSite\Requirments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C218A9C-8CCF-4AC8-91EE-84B2E5E2F64F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DBE17B1-AC5B-42D4-973B-0F05610FE69D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -350,7 +350,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -373,6 +373,12 @@
       <patternFill patternType="solid">
         <fgColor theme="1" tint="0.499984740745262"/>
         <bgColor rgb="FF3C78D8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF3C78D8"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -501,12 +507,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -516,17 +520,28 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF3C78D8"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -741,24 +756,24 @@
   </sheetPr>
   <dimension ref="A1:AC992"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E15" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26:I26"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="24" customWidth="1"/>
-    <col min="2" max="2" width="27.33203125" customWidth="1"/>
-    <col min="3" max="3" width="20.6640625" customWidth="1"/>
+    <col min="2" max="2" width="27.28515625" customWidth="1"/>
+    <col min="3" max="3" width="20.7109375" customWidth="1"/>
     <col min="4" max="4" width="24" customWidth="1"/>
-    <col min="5" max="5" width="94.33203125" customWidth="1"/>
-    <col min="6" max="6" width="25.88671875" customWidth="1"/>
-    <col min="7" max="7" width="18.5546875" customWidth="1"/>
-    <col min="8" max="8" width="34.109375" customWidth="1"/>
-    <col min="9" max="9" width="25.6640625" customWidth="1"/>
+    <col min="5" max="5" width="94.28515625" customWidth="1"/>
+    <col min="6" max="6" width="25.85546875" customWidth="1"/>
+    <col min="7" max="7" width="18.5703125" customWidth="1"/>
+    <col min="8" max="8" width="34.140625" customWidth="1"/>
+    <col min="9" max="9" width="25.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="36" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:29" ht="36" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -780,10 +795,10 @@
       <c r="G1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="26" t="s">
+      <c r="H1" s="35" t="s">
         <v>70</v>
       </c>
-      <c r="I1" s="25"/>
+      <c r="I1" s="36"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
       <c r="L1" s="2"/>
@@ -805,18 +820,18 @@
       <c r="AB1" s="2"/>
       <c r="AC1" s="2"/>
     </row>
-    <row r="2" spans="1:29" ht="36" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A2" s="31" t="s">
+    <row r="2" spans="1:29" ht="36" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="33"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="31"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
       <c r="L2" s="2"/>
@@ -838,7 +853,7 @@
       <c r="AB2" s="2"/>
       <c r="AC2" s="2"/>
     </row>
-    <row r="3" spans="1:29" ht="18" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:29" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>7</v>
       </c>
@@ -860,10 +875,10 @@
       <c r="G3" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="35"/>
-      <c r="I3" s="36"/>
-    </row>
-    <row r="4" spans="1:29" ht="18" x14ac:dyDescent="0.35">
+      <c r="H3" s="27"/>
+      <c r="I3" s="28"/>
+    </row>
+    <row r="4" spans="1:29" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>13</v>
       </c>
@@ -885,10 +900,10 @@
       <c r="G4" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="H4" s="35"/>
-      <c r="I4" s="36"/>
-    </row>
-    <row r="5" spans="1:29" ht="18" x14ac:dyDescent="0.35">
+      <c r="H4" s="27"/>
+      <c r="I4" s="28"/>
+    </row>
+    <row r="5" spans="1:29" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>15</v>
       </c>
@@ -910,10 +925,10 @@
       <c r="G5" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="H5" s="35"/>
-      <c r="I5" s="36"/>
-    </row>
-    <row r="6" spans="1:29" ht="18" x14ac:dyDescent="0.35">
+      <c r="H5" s="27"/>
+      <c r="I5" s="28"/>
+    </row>
+    <row r="6" spans="1:29" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
         <v>19</v>
       </c>
@@ -935,10 +950,10 @@
       <c r="G6" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="H6" s="35"/>
-      <c r="I6" s="36"/>
-    </row>
-    <row r="7" spans="1:29" ht="18" x14ac:dyDescent="0.35">
+      <c r="H6" s="27"/>
+      <c r="I6" s="28"/>
+    </row>
+    <row r="7" spans="1:29" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
         <v>22</v>
       </c>
@@ -960,10 +975,10 @@
       <c r="G7" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="H7" s="35"/>
-      <c r="I7" s="36"/>
-    </row>
-    <row r="8" spans="1:29" ht="18" x14ac:dyDescent="0.35">
+      <c r="H7" s="27"/>
+      <c r="I7" s="28"/>
+    </row>
+    <row r="8" spans="1:29" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
         <v>25</v>
       </c>
@@ -985,10 +1000,10 @@
       <c r="G8" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="H8" s="35"/>
-      <c r="I8" s="36"/>
-    </row>
-    <row r="9" spans="1:29" ht="18" x14ac:dyDescent="0.35">
+      <c r="H8" s="27"/>
+      <c r="I8" s="28"/>
+    </row>
+    <row r="9" spans="1:29" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>28</v>
       </c>
@@ -1010,10 +1025,10 @@
       <c r="G9" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="H9" s="35"/>
-      <c r="I9" s="36"/>
-    </row>
-    <row r="10" spans="1:29" ht="18" x14ac:dyDescent="0.35">
+      <c r="H9" s="27"/>
+      <c r="I9" s="28"/>
+    </row>
+    <row r="10" spans="1:29" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>31</v>
       </c>
@@ -1035,10 +1050,10 @@
       <c r="G10" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="H10" s="35"/>
-      <c r="I10" s="36"/>
-    </row>
-    <row r="11" spans="1:29" ht="18" x14ac:dyDescent="0.35">
+      <c r="H10" s="27"/>
+      <c r="I10" s="28"/>
+    </row>
+    <row r="11" spans="1:29" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
         <v>34</v>
       </c>
@@ -1060,10 +1075,10 @@
       <c r="G11" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="H11" s="35"/>
-      <c r="I11" s="36"/>
-    </row>
-    <row r="12" spans="1:29" ht="18" x14ac:dyDescent="0.35">
+      <c r="H11" s="27"/>
+      <c r="I11" s="28"/>
+    </row>
+    <row r="12" spans="1:29" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
         <v>36</v>
       </c>
@@ -1085,10 +1100,10 @@
       <c r="G12" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="H12" s="35"/>
-      <c r="I12" s="36"/>
-    </row>
-    <row r="13" spans="1:29" ht="18" x14ac:dyDescent="0.35">
+      <c r="H12" s="27"/>
+      <c r="I12" s="28"/>
+    </row>
+    <row r="13" spans="1:29" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>39</v>
       </c>
@@ -1110,10 +1125,10 @@
       <c r="G13" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="H13" s="35"/>
-      <c r="I13" s="36"/>
-    </row>
-    <row r="14" spans="1:29" ht="18" x14ac:dyDescent="0.35">
+      <c r="H13" s="27"/>
+      <c r="I13" s="28"/>
+    </row>
+    <row r="14" spans="1:29" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
         <v>42</v>
       </c>
@@ -1135,10 +1150,10 @@
       <c r="G14" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="H14" s="35"/>
-      <c r="I14" s="36"/>
-    </row>
-    <row r="15" spans="1:29" ht="18" x14ac:dyDescent="0.35">
+      <c r="H14" s="27"/>
+      <c r="I14" s="28"/>
+    </row>
+    <row r="15" spans="1:29" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
         <v>44</v>
       </c>
@@ -1158,10 +1173,10 @@
       <c r="G15" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="H15" s="35"/>
-      <c r="I15" s="36"/>
-    </row>
-    <row r="16" spans="1:29" ht="18" x14ac:dyDescent="0.35">
+      <c r="H15" s="27"/>
+      <c r="I15" s="28"/>
+    </row>
+    <row r="16" spans="1:29" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
         <v>46</v>
       </c>
@@ -1183,10 +1198,10 @@
       <c r="G16" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="H16" s="35"/>
-      <c r="I16" s="36"/>
-    </row>
-    <row r="17" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="H16" s="27"/>
+      <c r="I16" s="28"/>
+    </row>
+    <row r="17" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
         <v>50</v>
       </c>
@@ -1208,10 +1223,10 @@
       <c r="G17" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="H17" s="35"/>
-      <c r="I17" s="36"/>
-    </row>
-    <row r="18" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="H17" s="27"/>
+      <c r="I17" s="28"/>
+    </row>
+    <row r="18" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
         <v>52</v>
       </c>
@@ -1233,10 +1248,10 @@
       <c r="G18" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="H18" s="35"/>
-      <c r="I18" s="36"/>
-    </row>
-    <row r="19" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="H18" s="27"/>
+      <c r="I18" s="28"/>
+    </row>
+    <row r="19" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A19" s="16" t="s">
         <v>55</v>
       </c>
@@ -1258,23 +1273,23 @@
       <c r="G19" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="H19" s="35"/>
-      <c r="I19" s="36"/>
-    </row>
-    <row r="20" spans="1:9" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A20" s="31" t="s">
+      <c r="H19" s="27"/>
+      <c r="I19" s="28"/>
+    </row>
+    <row r="20" spans="1:9" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A20" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="B20" s="32"/>
-      <c r="C20" s="32"/>
-      <c r="D20" s="32"/>
-      <c r="E20" s="32"/>
-      <c r="F20" s="32"/>
-      <c r="G20" s="32"/>
-      <c r="H20" s="32"/>
-      <c r="I20" s="33"/>
-    </row>
-    <row r="21" spans="1:9" s="17" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B20" s="30"/>
+      <c r="C20" s="30"/>
+      <c r="D20" s="30"/>
+      <c r="E20" s="30"/>
+      <c r="F20" s="30"/>
+      <c r="G20" s="30"/>
+      <c r="H20" s="30"/>
+      <c r="I20" s="31"/>
+    </row>
+    <row r="21" spans="1:9" s="17" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="14" t="s">
         <v>55</v>
       </c>
@@ -1299,9 +1314,9 @@
       <c r="H21" s="34" t="s">
         <v>74</v>
       </c>
-      <c r="I21" s="30"/>
-    </row>
-    <row r="22" spans="1:9" s="20" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+      <c r="I21" s="33"/>
+    </row>
+    <row r="22" spans="1:9" s="20" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A22" s="21" t="s">
         <v>7</v>
       </c>
@@ -1323,10 +1338,10 @@
       <c r="G22" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="H22" s="29"/>
-      <c r="I22" s="30"/>
-    </row>
-    <row r="23" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="H22" s="32"/>
+      <c r="I22" s="33"/>
+    </row>
+    <row r="23" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A23" s="14" t="s">
         <v>46</v>
       </c>
@@ -1348,12 +1363,12 @@
       <c r="G23" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="H23" s="29" t="s">
+      <c r="H23" s="32" t="s">
         <v>75</v>
       </c>
-      <c r="I23" s="30"/>
-    </row>
-    <row r="24" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="I23" s="33"/>
+    </row>
+    <row r="24" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A24" s="14" t="s">
         <v>50</v>
       </c>
@@ -1375,12 +1390,12 @@
       <c r="G24" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="H24" s="27" t="s">
+      <c r="H24" s="25" t="s">
         <v>76</v>
       </c>
-      <c r="I24" s="28"/>
-    </row>
-    <row r="25" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="I24" s="26"/>
+    </row>
+    <row r="25" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A25" s="14" t="s">
         <v>72</v>
       </c>
@@ -1402,12 +1417,12 @@
       <c r="G25" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="H25" s="29" t="s">
+      <c r="H25" s="32" t="s">
         <v>78</v>
       </c>
-      <c r="I25" s="30"/>
-    </row>
-    <row r="26" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="I25" s="33"/>
+    </row>
+    <row r="26" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A26" s="14" t="s">
         <v>79</v>
       </c>
@@ -1429,10 +1444,10 @@
       <c r="G26" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="H26" s="29"/>
-      <c r="I26" s="30"/>
-    </row>
-    <row r="27" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="H26" s="32"/>
+      <c r="I26" s="33"/>
+    </row>
+    <row r="27" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A27" s="14"/>
       <c r="B27" s="14"/>
       <c r="C27" s="14"/>
@@ -1440,10 +1455,10 @@
       <c r="E27" s="14"/>
       <c r="F27" s="14"/>
       <c r="G27" s="16"/>
-      <c r="H27" s="29"/>
-      <c r="I27" s="30"/>
-    </row>
-    <row r="28" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="H27" s="32"/>
+      <c r="I27" s="33"/>
+    </row>
+    <row r="28" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A28" s="14"/>
       <c r="B28" s="14"/>
       <c r="C28" s="14"/>
@@ -1451,10 +1466,10 @@
       <c r="E28" s="14"/>
       <c r="F28" s="14"/>
       <c r="G28" s="16"/>
-      <c r="H28" s="29"/>
-      <c r="I28" s="30"/>
-    </row>
-    <row r="29" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="H28" s="32"/>
+      <c r="I28" s="33"/>
+    </row>
+    <row r="29" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A29" s="14"/>
       <c r="B29" s="14"/>
       <c r="C29" s="14"/>
@@ -1462,10 +1477,10 @@
       <c r="E29" s="14"/>
       <c r="F29" s="14"/>
       <c r="G29" s="16"/>
-      <c r="H29" s="29"/>
-      <c r="I29" s="30"/>
-    </row>
-    <row r="30" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="H29" s="32"/>
+      <c r="I29" s="33"/>
+    </row>
+    <row r="30" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A30" s="14"/>
       <c r="B30" s="14"/>
       <c r="C30" s="14"/>
@@ -1473,10 +1488,10 @@
       <c r="E30" s="14"/>
       <c r="F30" s="14"/>
       <c r="G30" s="16"/>
-      <c r="H30" s="29"/>
-      <c r="I30" s="30"/>
-    </row>
-    <row r="31" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="H30" s="32"/>
+      <c r="I30" s="33"/>
+    </row>
+    <row r="31" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A31" s="14"/>
       <c r="B31" s="14"/>
       <c r="C31" s="14"/>
@@ -1484,10 +1499,10 @@
       <c r="E31" s="14"/>
       <c r="F31" s="14"/>
       <c r="G31" s="16"/>
-      <c r="H31" s="29"/>
-      <c r="I31" s="30"/>
-    </row>
-    <row r="32" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="H31" s="32"/>
+      <c r="I31" s="33"/>
+    </row>
+    <row r="32" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A32" s="14"/>
       <c r="B32" s="14"/>
       <c r="C32" s="14"/>
@@ -1495,10 +1510,10 @@
       <c r="E32" s="14"/>
       <c r="F32" s="14"/>
       <c r="G32" s="16"/>
-      <c r="H32" s="29"/>
-      <c r="I32" s="30"/>
-    </row>
-    <row r="33" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="H32" s="32"/>
+      <c r="I32" s="33"/>
+    </row>
+    <row r="33" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A33" s="14"/>
       <c r="B33" s="14"/>
       <c r="C33" s="14"/>
@@ -1506,10 +1521,10 @@
       <c r="E33" s="14"/>
       <c r="F33" s="14"/>
       <c r="G33" s="16"/>
-      <c r="H33" s="29"/>
-      <c r="I33" s="30"/>
-    </row>
-    <row r="34" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="H33" s="32"/>
+      <c r="I33" s="33"/>
+    </row>
+    <row r="34" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A34" s="14"/>
       <c r="B34" s="14"/>
       <c r="C34" s="14"/>
@@ -1517,10 +1532,10 @@
       <c r="E34" s="14"/>
       <c r="F34" s="14"/>
       <c r="G34" s="16"/>
-      <c r="H34" s="29"/>
-      <c r="I34" s="30"/>
-    </row>
-    <row r="35" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="H34" s="32"/>
+      <c r="I34" s="33"/>
+    </row>
+    <row r="35" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A35" s="14"/>
       <c r="B35" s="14"/>
       <c r="C35" s="14"/>
@@ -1528,10 +1543,10 @@
       <c r="E35" s="14"/>
       <c r="F35" s="14"/>
       <c r="G35" s="16"/>
-      <c r="H35" s="29"/>
-      <c r="I35" s="30"/>
-    </row>
-    <row r="36" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="H35" s="32"/>
+      <c r="I35" s="33"/>
+    </row>
+    <row r="36" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A36" s="14"/>
       <c r="B36" s="14"/>
       <c r="C36" s="14"/>
@@ -1539,10 +1554,10 @@
       <c r="E36" s="14"/>
       <c r="F36" s="14"/>
       <c r="G36" s="16"/>
-      <c r="H36" s="29"/>
-      <c r="I36" s="30"/>
-    </row>
-    <row r="37" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="H36" s="32"/>
+      <c r="I36" s="33"/>
+    </row>
+    <row r="37" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A37" s="14"/>
       <c r="B37" s="14"/>
       <c r="C37" s="14"/>
@@ -1550,10 +1565,10 @@
       <c r="E37" s="14"/>
       <c r="F37" s="14"/>
       <c r="G37" s="16"/>
-      <c r="H37" s="29"/>
-      <c r="I37" s="30"/>
-    </row>
-    <row r="38" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="H37" s="32"/>
+      <c r="I37" s="33"/>
+    </row>
+    <row r="38" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A38" s="14"/>
       <c r="B38" s="14"/>
       <c r="C38" s="14"/>
@@ -1561,10 +1576,10 @@
       <c r="E38" s="14"/>
       <c r="F38" s="14"/>
       <c r="G38" s="16"/>
-      <c r="H38" s="29"/>
-      <c r="I38" s="30"/>
-    </row>
-    <row r="39" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="H38" s="32"/>
+      <c r="I38" s="33"/>
+    </row>
+    <row r="39" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A39" s="14"/>
       <c r="B39" s="14"/>
       <c r="C39" s="14"/>
@@ -1572,10 +1587,10 @@
       <c r="E39" s="14"/>
       <c r="F39" s="14"/>
       <c r="G39" s="16"/>
-      <c r="H39" s="29"/>
-      <c r="I39" s="30"/>
-    </row>
-    <row r="40" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="H39" s="32"/>
+      <c r="I39" s="33"/>
+    </row>
+    <row r="40" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A40" s="14"/>
       <c r="B40" s="14"/>
       <c r="C40" s="14"/>
@@ -1583,10 +1598,10 @@
       <c r="E40" s="14"/>
       <c r="F40" s="14"/>
       <c r="G40" s="16"/>
-      <c r="H40" s="29"/>
-      <c r="I40" s="30"/>
-    </row>
-    <row r="41" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="H40" s="32"/>
+      <c r="I40" s="33"/>
+    </row>
+    <row r="41" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A41" s="14"/>
       <c r="B41" s="14"/>
       <c r="C41" s="14"/>
@@ -1594,10 +1609,10 @@
       <c r="E41" s="14"/>
       <c r="F41" s="14"/>
       <c r="G41" s="16"/>
-      <c r="H41" s="29"/>
-      <c r="I41" s="30"/>
-    </row>
-    <row r="42" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="H41" s="32"/>
+      <c r="I41" s="33"/>
+    </row>
+    <row r="42" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A42" s="14"/>
       <c r="B42" s="14"/>
       <c r="C42" s="14"/>
@@ -1605,10 +1620,10 @@
       <c r="E42" s="14"/>
       <c r="F42" s="14"/>
       <c r="G42" s="16"/>
-      <c r="H42" s="29"/>
-      <c r="I42" s="30"/>
-    </row>
-    <row r="43" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="H42" s="32"/>
+      <c r="I42" s="33"/>
+    </row>
+    <row r="43" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A43" s="14"/>
       <c r="B43" s="14"/>
       <c r="C43" s="14"/>
@@ -1616,10 +1631,10 @@
       <c r="E43" s="14"/>
       <c r="F43" s="14"/>
       <c r="G43" s="16"/>
-      <c r="H43" s="29"/>
-      <c r="I43" s="30"/>
-    </row>
-    <row r="44" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="H43" s="32"/>
+      <c r="I43" s="33"/>
+    </row>
+    <row r="44" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A44" s="14"/>
       <c r="B44" s="14"/>
       <c r="C44" s="14"/>
@@ -1627,10 +1642,10 @@
       <c r="E44" s="14"/>
       <c r="F44" s="14"/>
       <c r="G44" s="16"/>
-      <c r="H44" s="29"/>
-      <c r="I44" s="30"/>
-    </row>
-    <row r="45" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="H44" s="32"/>
+      <c r="I44" s="33"/>
+    </row>
+    <row r="45" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A45" s="14"/>
       <c r="B45" s="14"/>
       <c r="C45" s="14"/>
@@ -1638,10 +1653,10 @@
       <c r="E45" s="14"/>
       <c r="F45" s="14"/>
       <c r="G45" s="16"/>
-      <c r="H45" s="29"/>
-      <c r="I45" s="30"/>
-    </row>
-    <row r="46" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="H45" s="32"/>
+      <c r="I45" s="33"/>
+    </row>
+    <row r="46" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A46" s="14"/>
       <c r="B46" s="14"/>
       <c r="C46" s="14"/>
@@ -1649,10 +1664,10 @@
       <c r="E46" s="14"/>
       <c r="F46" s="14"/>
       <c r="G46" s="16"/>
-      <c r="H46" s="29"/>
-      <c r="I46" s="30"/>
-    </row>
-    <row r="47" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="H46" s="32"/>
+      <c r="I46" s="33"/>
+    </row>
+    <row r="47" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A47" s="14"/>
       <c r="B47" s="14"/>
       <c r="C47" s="14"/>
@@ -1660,10 +1675,10 @@
       <c r="E47" s="14"/>
       <c r="F47" s="14"/>
       <c r="G47" s="16"/>
-      <c r="H47" s="29"/>
-      <c r="I47" s="30"/>
-    </row>
-    <row r="48" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="H47" s="32"/>
+      <c r="I47" s="33"/>
+    </row>
+    <row r="48" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A48" s="14"/>
       <c r="B48" s="14"/>
       <c r="C48" s="14"/>
@@ -1671,10 +1686,10 @@
       <c r="E48" s="14"/>
       <c r="F48" s="14"/>
       <c r="G48" s="16"/>
-      <c r="H48" s="29"/>
-      <c r="I48" s="30"/>
-    </row>
-    <row r="49" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="H48" s="32"/>
+      <c r="I48" s="33"/>
+    </row>
+    <row r="49" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A49" s="14"/>
       <c r="B49" s="14"/>
       <c r="C49" s="14"/>
@@ -1682,10 +1697,10 @@
       <c r="E49" s="14"/>
       <c r="F49" s="14"/>
       <c r="G49" s="16"/>
-      <c r="H49" s="29"/>
-      <c r="I49" s="30"/>
-    </row>
-    <row r="50" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="H49" s="32"/>
+      <c r="I49" s="33"/>
+    </row>
+    <row r="50" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A50" s="14"/>
       <c r="B50" s="14"/>
       <c r="C50" s="14"/>
@@ -1693,10 +1708,10 @@
       <c r="E50" s="14"/>
       <c r="F50" s="14"/>
       <c r="G50" s="16"/>
-      <c r="H50" s="29"/>
-      <c r="I50" s="30"/>
-    </row>
-    <row r="51" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="H50" s="32"/>
+      <c r="I50" s="33"/>
+    </row>
+    <row r="51" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A51" s="14"/>
       <c r="B51" s="14"/>
       <c r="C51" s="14"/>
@@ -1704,10 +1719,10 @@
       <c r="E51" s="14"/>
       <c r="F51" s="14"/>
       <c r="G51" s="16"/>
-      <c r="H51" s="29"/>
-      <c r="I51" s="30"/>
-    </row>
-    <row r="52" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="H51" s="32"/>
+      <c r="I51" s="33"/>
+    </row>
+    <row r="52" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A52" s="14"/>
       <c r="B52" s="14"/>
       <c r="C52" s="14"/>
@@ -1715,10 +1730,10 @@
       <c r="E52" s="14"/>
       <c r="F52" s="14"/>
       <c r="G52" s="16"/>
-      <c r="H52" s="29"/>
-      <c r="I52" s="30"/>
-    </row>
-    <row r="53" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="H52" s="32"/>
+      <c r="I52" s="33"/>
+    </row>
+    <row r="53" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A53" s="14"/>
       <c r="B53" s="14"/>
       <c r="C53" s="14"/>
@@ -1726,10 +1741,10 @@
       <c r="E53" s="14"/>
       <c r="F53" s="14"/>
       <c r="G53" s="16"/>
-      <c r="H53" s="29"/>
-      <c r="I53" s="30"/>
-    </row>
-    <row r="54" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="H53" s="32"/>
+      <c r="I53" s="33"/>
+    </row>
+    <row r="54" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A54" s="14"/>
       <c r="B54" s="14"/>
       <c r="C54" s="14"/>
@@ -1737,10 +1752,10 @@
       <c r="E54" s="14"/>
       <c r="F54" s="14"/>
       <c r="G54" s="16"/>
-      <c r="H54" s="29"/>
-      <c r="I54" s="30"/>
-    </row>
-    <row r="55" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="H54" s="32"/>
+      <c r="I54" s="33"/>
+    </row>
+    <row r="55" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A55" s="14"/>
       <c r="B55" s="14"/>
       <c r="C55" s="14"/>
@@ -1748,10 +1763,10 @@
       <c r="E55" s="14"/>
       <c r="F55" s="14"/>
       <c r="G55" s="16"/>
-      <c r="H55" s="29"/>
-      <c r="I55" s="30"/>
-    </row>
-    <row r="56" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="H55" s="32"/>
+      <c r="I55" s="33"/>
+    </row>
+    <row r="56" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A56" s="14"/>
       <c r="B56" s="14"/>
       <c r="C56" s="14"/>
@@ -1759,10 +1774,10 @@
       <c r="E56" s="14"/>
       <c r="F56" s="14"/>
       <c r="G56" s="16"/>
-      <c r="H56" s="29"/>
-      <c r="I56" s="30"/>
-    </row>
-    <row r="57" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="H56" s="32"/>
+      <c r="I56" s="33"/>
+    </row>
+    <row r="57" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A57" s="14"/>
       <c r="B57" s="14"/>
       <c r="C57" s="14"/>
@@ -1770,10 +1785,10 @@
       <c r="E57" s="14"/>
       <c r="F57" s="14"/>
       <c r="G57" s="16"/>
-      <c r="H57" s="29"/>
-      <c r="I57" s="30"/>
-    </row>
-    <row r="58" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="H57" s="32"/>
+      <c r="I57" s="33"/>
+    </row>
+    <row r="58" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A58" s="14"/>
       <c r="B58" s="14"/>
       <c r="C58" s="14"/>
@@ -1781,10 +1796,10 @@
       <c r="E58" s="14"/>
       <c r="F58" s="14"/>
       <c r="G58" s="16"/>
-      <c r="H58" s="29"/>
-      <c r="I58" s="30"/>
-    </row>
-    <row r="59" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="H58" s="32"/>
+      <c r="I58" s="33"/>
+    </row>
+    <row r="59" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A59" s="14"/>
       <c r="B59" s="14"/>
       <c r="C59" s="14"/>
@@ -1792,10 +1807,10 @@
       <c r="E59" s="14"/>
       <c r="F59" s="14"/>
       <c r="G59" s="16"/>
-      <c r="H59" s="29"/>
-      <c r="I59" s="30"/>
-    </row>
-    <row r="60" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="H59" s="32"/>
+      <c r="I59" s="33"/>
+    </row>
+    <row r="60" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A60" s="14"/>
       <c r="B60" s="14"/>
       <c r="C60" s="14"/>
@@ -1803,10 +1818,10 @@
       <c r="E60" s="14"/>
       <c r="F60" s="14"/>
       <c r="G60" s="16"/>
-      <c r="H60" s="29"/>
-      <c r="I60" s="30"/>
-    </row>
-    <row r="61" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="H60" s="32"/>
+      <c r="I60" s="33"/>
+    </row>
+    <row r="61" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A61" s="14"/>
       <c r="B61" s="14"/>
       <c r="C61" s="14"/>
@@ -1814,10 +1829,10 @@
       <c r="E61" s="14"/>
       <c r="F61" s="14"/>
       <c r="G61" s="16"/>
-      <c r="H61" s="29"/>
-      <c r="I61" s="30"/>
-    </row>
-    <row r="62" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="H61" s="32"/>
+      <c r="I61" s="33"/>
+    </row>
+    <row r="62" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A62" s="14"/>
       <c r="B62" s="14"/>
       <c r="C62" s="14"/>
@@ -1825,10 +1840,10 @@
       <c r="E62" s="14"/>
       <c r="F62" s="14"/>
       <c r="G62" s="16"/>
-      <c r="H62" s="29"/>
-      <c r="I62" s="30"/>
-    </row>
-    <row r="63" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="H62" s="32"/>
+      <c r="I62" s="33"/>
+    </row>
+    <row r="63" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A63" s="14"/>
       <c r="B63" s="14"/>
       <c r="C63" s="14"/>
@@ -1836,10 +1851,10 @@
       <c r="E63" s="14"/>
       <c r="F63" s="14"/>
       <c r="G63" s="16"/>
-      <c r="H63" s="29"/>
-      <c r="I63" s="30"/>
-    </row>
-    <row r="64" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="H63" s="32"/>
+      <c r="I63" s="33"/>
+    </row>
+    <row r="64" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A64" s="14"/>
       <c r="B64" s="14"/>
       <c r="C64" s="14"/>
@@ -1847,10 +1862,10 @@
       <c r="E64" s="14"/>
       <c r="F64" s="14"/>
       <c r="G64" s="16"/>
-      <c r="H64" s="29"/>
-      <c r="I64" s="30"/>
-    </row>
-    <row r="65" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="H64" s="32"/>
+      <c r="I64" s="33"/>
+    </row>
+    <row r="65" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A65" s="14"/>
       <c r="B65" s="14"/>
       <c r="C65" s="14"/>
@@ -1858,10 +1873,10 @@
       <c r="E65" s="14"/>
       <c r="F65" s="14"/>
       <c r="G65" s="16"/>
-      <c r="H65" s="29"/>
-      <c r="I65" s="30"/>
-    </row>
-    <row r="66" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="H65" s="32"/>
+      <c r="I65" s="33"/>
+    </row>
+    <row r="66" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A66" s="14"/>
       <c r="B66" s="14"/>
       <c r="C66" s="14"/>
@@ -1869,10 +1884,10 @@
       <c r="E66" s="14"/>
       <c r="F66" s="14"/>
       <c r="G66" s="16"/>
-      <c r="H66" s="29"/>
-      <c r="I66" s="30"/>
-    </row>
-    <row r="67" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="H66" s="32"/>
+      <c r="I66" s="33"/>
+    </row>
+    <row r="67" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A67" s="14"/>
       <c r="B67" s="14"/>
       <c r="C67" s="14"/>
@@ -1880,10 +1895,10 @@
       <c r="E67" s="14"/>
       <c r="F67" s="14"/>
       <c r="G67" s="16"/>
-      <c r="H67" s="29"/>
-      <c r="I67" s="30"/>
-    </row>
-    <row r="68" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="H67" s="32"/>
+      <c r="I67" s="33"/>
+    </row>
+    <row r="68" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A68" s="14"/>
       <c r="B68" s="14"/>
       <c r="C68" s="14"/>
@@ -1891,10 +1906,10 @@
       <c r="E68" s="14"/>
       <c r="F68" s="14"/>
       <c r="G68" s="16"/>
-      <c r="H68" s="29"/>
-      <c r="I68" s="30"/>
-    </row>
-    <row r="69" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="H68" s="32"/>
+      <c r="I68" s="33"/>
+    </row>
+    <row r="69" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A69" s="14"/>
       <c r="B69" s="14"/>
       <c r="C69" s="14"/>
@@ -1902,10 +1917,10 @@
       <c r="E69" s="14"/>
       <c r="F69" s="14"/>
       <c r="G69" s="16"/>
-      <c r="H69" s="29"/>
-      <c r="I69" s="30"/>
-    </row>
-    <row r="70" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="H69" s="32"/>
+      <c r="I69" s="33"/>
+    </row>
+    <row r="70" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A70" s="14"/>
       <c r="B70" s="14"/>
       <c r="C70" s="14"/>
@@ -1913,10 +1928,10 @@
       <c r="E70" s="14"/>
       <c r="F70" s="14"/>
       <c r="G70" s="16"/>
-      <c r="H70" s="29"/>
-      <c r="I70" s="30"/>
-    </row>
-    <row r="71" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="H70" s="32"/>
+      <c r="I70" s="33"/>
+    </row>
+    <row r="71" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A71" s="14"/>
       <c r="B71" s="14"/>
       <c r="C71" s="14"/>
@@ -1924,10 +1939,10 @@
       <c r="E71" s="14"/>
       <c r="F71" s="14"/>
       <c r="G71" s="16"/>
-      <c r="H71" s="29"/>
-      <c r="I71" s="30"/>
-    </row>
-    <row r="72" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="H71" s="32"/>
+      <c r="I71" s="33"/>
+    </row>
+    <row r="72" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A72" s="14"/>
       <c r="B72" s="14"/>
       <c r="C72" s="14"/>
@@ -1935,10 +1950,10 @@
       <c r="E72" s="14"/>
       <c r="F72" s="14"/>
       <c r="G72" s="16"/>
-      <c r="H72" s="29"/>
-      <c r="I72" s="30"/>
-    </row>
-    <row r="73" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="H72" s="32"/>
+      <c r="I72" s="33"/>
+    </row>
+    <row r="73" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A73" s="14"/>
       <c r="B73" s="14"/>
       <c r="C73" s="14"/>
@@ -1946,10 +1961,10 @@
       <c r="E73" s="14"/>
       <c r="F73" s="14"/>
       <c r="G73" s="16"/>
-      <c r="H73" s="29"/>
-      <c r="I73" s="30"/>
-    </row>
-    <row r="74" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="H73" s="32"/>
+      <c r="I73" s="33"/>
+    </row>
+    <row r="74" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A74" s="14"/>
       <c r="B74" s="14"/>
       <c r="C74" s="14"/>
@@ -1957,10 +1972,10 @@
       <c r="E74" s="14"/>
       <c r="F74" s="14"/>
       <c r="G74" s="16"/>
-      <c r="H74" s="29"/>
-      <c r="I74" s="30"/>
-    </row>
-    <row r="75" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="H74" s="32"/>
+      <c r="I74" s="33"/>
+    </row>
+    <row r="75" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A75" s="14"/>
       <c r="B75" s="14"/>
       <c r="C75" s="14"/>
@@ -1968,10 +1983,10 @@
       <c r="E75" s="14"/>
       <c r="F75" s="14"/>
       <c r="G75" s="16"/>
-      <c r="H75" s="29"/>
-      <c r="I75" s="30"/>
-    </row>
-    <row r="76" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="H75" s="32"/>
+      <c r="I75" s="33"/>
+    </row>
+    <row r="76" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A76" s="14"/>
       <c r="B76" s="14"/>
       <c r="C76" s="14"/>
@@ -1979,10 +1994,10 @@
       <c r="E76" s="14"/>
       <c r="F76" s="14"/>
       <c r="G76" s="16"/>
-      <c r="H76" s="29"/>
-      <c r="I76" s="30"/>
-    </row>
-    <row r="77" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="H76" s="32"/>
+      <c r="I76" s="33"/>
+    </row>
+    <row r="77" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A77" s="14"/>
       <c r="B77" s="14"/>
       <c r="C77" s="14"/>
@@ -1990,10 +2005,10 @@
       <c r="E77" s="14"/>
       <c r="F77" s="14"/>
       <c r="G77" s="16"/>
-      <c r="H77" s="29"/>
-      <c r="I77" s="30"/>
-    </row>
-    <row r="78" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="H77" s="32"/>
+      <c r="I77" s="33"/>
+    </row>
+    <row r="78" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A78" s="14"/>
       <c r="B78" s="14"/>
       <c r="C78" s="14"/>
@@ -2001,10 +2016,10 @@
       <c r="E78" s="14"/>
       <c r="F78" s="14"/>
       <c r="G78" s="16"/>
-      <c r="H78" s="29"/>
-      <c r="I78" s="30"/>
-    </row>
-    <row r="79" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="H78" s="32"/>
+      <c r="I78" s="33"/>
+    </row>
+    <row r="79" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A79" s="14"/>
       <c r="B79" s="14"/>
       <c r="C79" s="14"/>
@@ -2012,10 +2027,10 @@
       <c r="E79" s="14"/>
       <c r="F79" s="14"/>
       <c r="G79" s="16"/>
-      <c r="H79" s="29"/>
-      <c r="I79" s="30"/>
-    </row>
-    <row r="80" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="H79" s="32"/>
+      <c r="I79" s="33"/>
+    </row>
+    <row r="80" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A80" s="14"/>
       <c r="B80" s="14"/>
       <c r="C80" s="14"/>
@@ -2023,10 +2038,10 @@
       <c r="E80" s="14"/>
       <c r="F80" s="14"/>
       <c r="G80" s="16"/>
-      <c r="H80" s="29"/>
-      <c r="I80" s="30"/>
-    </row>
-    <row r="81" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="H80" s="32"/>
+      <c r="I80" s="33"/>
+    </row>
+    <row r="81" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A81" s="14"/>
       <c r="B81" s="14"/>
       <c r="C81" s="14"/>
@@ -2034,10 +2049,10 @@
       <c r="E81" s="14"/>
       <c r="F81" s="14"/>
       <c r="G81" s="16"/>
-      <c r="H81" s="29"/>
-      <c r="I81" s="30"/>
-    </row>
-    <row r="82" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="H81" s="32"/>
+      <c r="I81" s="33"/>
+    </row>
+    <row r="82" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A82" s="14"/>
       <c r="B82" s="14"/>
       <c r="C82" s="14"/>
@@ -2045,10 +2060,10 @@
       <c r="E82" s="14"/>
       <c r="F82" s="14"/>
       <c r="G82" s="16"/>
-      <c r="H82" s="29"/>
-      <c r="I82" s="30"/>
-    </row>
-    <row r="83" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="H82" s="32"/>
+      <c r="I82" s="33"/>
+    </row>
+    <row r="83" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A83" s="14"/>
       <c r="B83" s="14"/>
       <c r="C83" s="14"/>
@@ -2056,10 +2071,10 @@
       <c r="E83" s="14"/>
       <c r="F83" s="14"/>
       <c r="G83" s="16"/>
-      <c r="H83" s="29"/>
-      <c r="I83" s="30"/>
-    </row>
-    <row r="84" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="H83" s="32"/>
+      <c r="I83" s="33"/>
+    </row>
+    <row r="84" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A84" s="14"/>
       <c r="B84" s="14"/>
       <c r="C84" s="14"/>
@@ -2067,10 +2082,10 @@
       <c r="E84" s="14"/>
       <c r="F84" s="14"/>
       <c r="G84" s="16"/>
-      <c r="H84" s="29"/>
-      <c r="I84" s="30"/>
-    </row>
-    <row r="85" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="H84" s="32"/>
+      <c r="I84" s="33"/>
+    </row>
+    <row r="85" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A85" s="14"/>
       <c r="B85" s="14"/>
       <c r="C85" s="14"/>
@@ -2078,10 +2093,10 @@
       <c r="E85" s="14"/>
       <c r="F85" s="14"/>
       <c r="G85" s="16"/>
-      <c r="H85" s="29"/>
-      <c r="I85" s="30"/>
-    </row>
-    <row r="86" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="H85" s="32"/>
+      <c r="I85" s="33"/>
+    </row>
+    <row r="86" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A86" s="14"/>
       <c r="B86" s="14"/>
       <c r="C86" s="14"/>
@@ -2089,10 +2104,10 @@
       <c r="E86" s="14"/>
       <c r="F86" s="14"/>
       <c r="G86" s="16"/>
-      <c r="H86" s="29"/>
-      <c r="I86" s="30"/>
-    </row>
-    <row r="87" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="H86" s="32"/>
+      <c r="I86" s="33"/>
+    </row>
+    <row r="87" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A87" s="14"/>
       <c r="B87" s="14"/>
       <c r="C87" s="14"/>
@@ -2100,10 +2115,10 @@
       <c r="E87" s="14"/>
       <c r="F87" s="14"/>
       <c r="G87" s="16"/>
-      <c r="H87" s="29"/>
-      <c r="I87" s="30"/>
-    </row>
-    <row r="88" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="H87" s="32"/>
+      <c r="I87" s="33"/>
+    </row>
+    <row r="88" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A88" s="14"/>
       <c r="B88" s="14"/>
       <c r="C88" s="14"/>
@@ -2111,10 +2126,10 @@
       <c r="E88" s="14"/>
       <c r="F88" s="14"/>
       <c r="G88" s="16"/>
-      <c r="H88" s="29"/>
-      <c r="I88" s="30"/>
-    </row>
-    <row r="89" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="H88" s="32"/>
+      <c r="I88" s="33"/>
+    </row>
+    <row r="89" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A89" s="14"/>
       <c r="B89" s="14"/>
       <c r="C89" s="14"/>
@@ -2122,10 +2137,10 @@
       <c r="E89" s="14"/>
       <c r="F89" s="14"/>
       <c r="G89" s="16"/>
-      <c r="H89" s="29"/>
-      <c r="I89" s="30"/>
-    </row>
-    <row r="90" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="H89" s="32"/>
+      <c r="I89" s="33"/>
+    </row>
+    <row r="90" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A90" s="14"/>
       <c r="B90" s="14"/>
       <c r="C90" s="14"/>
@@ -2133,10 +2148,10 @@
       <c r="E90" s="14"/>
       <c r="F90" s="14"/>
       <c r="G90" s="16"/>
-      <c r="H90" s="29"/>
-      <c r="I90" s="30"/>
-    </row>
-    <row r="91" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="H90" s="32"/>
+      <c r="I90" s="33"/>
+    </row>
+    <row r="91" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A91" s="14"/>
       <c r="B91" s="14"/>
       <c r="C91" s="14"/>
@@ -2144,10 +2159,10 @@
       <c r="E91" s="14"/>
       <c r="F91" s="14"/>
       <c r="G91" s="16"/>
-      <c r="H91" s="29"/>
-      <c r="I91" s="30"/>
-    </row>
-    <row r="92" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="H91" s="32"/>
+      <c r="I91" s="33"/>
+    </row>
+    <row r="92" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A92" s="14"/>
       <c r="B92" s="14"/>
       <c r="C92" s="14"/>
@@ -2155,10 +2170,10 @@
       <c r="E92" s="14"/>
       <c r="F92" s="14"/>
       <c r="G92" s="16"/>
-      <c r="H92" s="29"/>
-      <c r="I92" s="30"/>
-    </row>
-    <row r="93" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="H92" s="32"/>
+      <c r="I92" s="33"/>
+    </row>
+    <row r="93" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A93" s="14"/>
       <c r="B93" s="14"/>
       <c r="C93" s="14"/>
@@ -2166,10 +2181,10 @@
       <c r="E93" s="14"/>
       <c r="F93" s="14"/>
       <c r="G93" s="16"/>
-      <c r="H93" s="29"/>
-      <c r="I93" s="30"/>
-    </row>
-    <row r="94" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="H93" s="32"/>
+      <c r="I93" s="33"/>
+    </row>
+    <row r="94" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A94" s="14"/>
       <c r="B94" s="14"/>
       <c r="C94" s="14"/>
@@ -2177,10 +2192,10 @@
       <c r="E94" s="14"/>
       <c r="F94" s="14"/>
       <c r="G94" s="16"/>
-      <c r="H94" s="29"/>
-      <c r="I94" s="30"/>
-    </row>
-    <row r="95" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="H94" s="32"/>
+      <c r="I94" s="33"/>
+    </row>
+    <row r="95" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A95" s="14"/>
       <c r="B95" s="14"/>
       <c r="C95" s="14"/>
@@ -2188,10 +2203,10 @@
       <c r="E95" s="14"/>
       <c r="F95" s="14"/>
       <c r="G95" s="16"/>
-      <c r="H95" s="29"/>
-      <c r="I95" s="30"/>
-    </row>
-    <row r="96" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="H95" s="32"/>
+      <c r="I95" s="33"/>
+    </row>
+    <row r="96" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A96" s="14"/>
       <c r="B96" s="14"/>
       <c r="C96" s="14"/>
@@ -2199,10 +2214,10 @@
       <c r="E96" s="14"/>
       <c r="F96" s="14"/>
       <c r="G96" s="16"/>
-      <c r="H96" s="29"/>
-      <c r="I96" s="30"/>
-    </row>
-    <row r="97" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="H96" s="32"/>
+      <c r="I96" s="33"/>
+    </row>
+    <row r="97" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A97" s="14"/>
       <c r="B97" s="14"/>
       <c r="C97" s="14"/>
@@ -2210,10 +2225,10 @@
       <c r="E97" s="14"/>
       <c r="F97" s="14"/>
       <c r="G97" s="16"/>
-      <c r="H97" s="29"/>
-      <c r="I97" s="30"/>
-    </row>
-    <row r="98" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="H97" s="32"/>
+      <c r="I97" s="33"/>
+    </row>
+    <row r="98" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A98" s="14"/>
       <c r="B98" s="14"/>
       <c r="C98" s="14"/>
@@ -2221,10 +2236,10 @@
       <c r="E98" s="14"/>
       <c r="F98" s="14"/>
       <c r="G98" s="16"/>
-      <c r="H98" s="29"/>
-      <c r="I98" s="30"/>
-    </row>
-    <row r="99" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="H98" s="32"/>
+      <c r="I98" s="33"/>
+    </row>
+    <row r="99" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A99" s="14"/>
       <c r="B99" s="14"/>
       <c r="C99" s="14"/>
@@ -2232,10 +2247,10 @@
       <c r="E99" s="14"/>
       <c r="F99" s="14"/>
       <c r="G99" s="16"/>
-      <c r="H99" s="29"/>
-      <c r="I99" s="30"/>
-    </row>
-    <row r="100" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="H99" s="32"/>
+      <c r="I99" s="33"/>
+    </row>
+    <row r="100" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A100" s="14"/>
       <c r="B100" s="14"/>
       <c r="C100" s="14"/>
@@ -2243,10 +2258,10 @@
       <c r="E100" s="14"/>
       <c r="F100" s="14"/>
       <c r="G100" s="16"/>
-      <c r="H100" s="29"/>
-      <c r="I100" s="30"/>
-    </row>
-    <row r="101" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="H100" s="32"/>
+      <c r="I100" s="33"/>
+    </row>
+    <row r="101" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A101" s="14"/>
       <c r="B101" s="14"/>
       <c r="C101" s="14"/>
@@ -2254,10 +2269,10 @@
       <c r="E101" s="14"/>
       <c r="F101" s="14"/>
       <c r="G101" s="16"/>
-      <c r="H101" s="29"/>
-      <c r="I101" s="30"/>
-    </row>
-    <row r="102" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="H101" s="32"/>
+      <c r="I101" s="33"/>
+    </row>
+    <row r="102" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A102" s="14"/>
       <c r="B102" s="14"/>
       <c r="C102" s="14"/>
@@ -2265,10 +2280,10 @@
       <c r="E102" s="14"/>
       <c r="F102" s="14"/>
       <c r="G102" s="16"/>
-      <c r="H102" s="29"/>
-      <c r="I102" s="30"/>
-    </row>
-    <row r="103" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="H102" s="32"/>
+      <c r="I102" s="33"/>
+    </row>
+    <row r="103" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A103" s="14"/>
       <c r="B103" s="14"/>
       <c r="C103" s="14"/>
@@ -2276,10 +2291,10 @@
       <c r="E103" s="14"/>
       <c r="F103" s="14"/>
       <c r="G103" s="16"/>
-      <c r="H103" s="29"/>
-      <c r="I103" s="30"/>
-    </row>
-    <row r="104" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="H103" s="32"/>
+      <c r="I103" s="33"/>
+    </row>
+    <row r="104" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A104" s="14"/>
       <c r="B104" s="14"/>
       <c r="C104" s="14"/>
@@ -2287,10 +2302,10 @@
       <c r="E104" s="14"/>
       <c r="F104" s="14"/>
       <c r="G104" s="16"/>
-      <c r="H104" s="29"/>
-      <c r="I104" s="30"/>
-    </row>
-    <row r="105" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="H104" s="32"/>
+      <c r="I104" s="33"/>
+    </row>
+    <row r="105" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A105" s="14"/>
       <c r="B105" s="14"/>
       <c r="C105" s="14"/>
@@ -2298,10 +2313,10 @@
       <c r="E105" s="14"/>
       <c r="F105" s="14"/>
       <c r="G105" s="16"/>
-      <c r="H105" s="29"/>
-      <c r="I105" s="30"/>
-    </row>
-    <row r="106" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="H105" s="32"/>
+      <c r="I105" s="33"/>
+    </row>
+    <row r="106" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A106" s="14"/>
       <c r="B106" s="14"/>
       <c r="C106" s="14"/>
@@ -2309,10 +2324,10 @@
       <c r="E106" s="14"/>
       <c r="F106" s="14"/>
       <c r="G106" s="16"/>
-      <c r="H106" s="29"/>
-      <c r="I106" s="30"/>
-    </row>
-    <row r="107" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="H106" s="32"/>
+      <c r="I106" s="33"/>
+    </row>
+    <row r="107" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A107" s="14"/>
       <c r="B107" s="14"/>
       <c r="C107" s="14"/>
@@ -2320,10 +2335,10 @@
       <c r="E107" s="14"/>
       <c r="F107" s="14"/>
       <c r="G107" s="16"/>
-      <c r="H107" s="29"/>
-      <c r="I107" s="30"/>
-    </row>
-    <row r="108" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="H107" s="32"/>
+      <c r="I107" s="33"/>
+    </row>
+    <row r="108" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A108" s="14"/>
       <c r="B108" s="14"/>
       <c r="C108" s="14"/>
@@ -2331,10 +2346,10 @@
       <c r="E108" s="14"/>
       <c r="F108" s="14"/>
       <c r="G108" s="16"/>
-      <c r="H108" s="29"/>
-      <c r="I108" s="30"/>
-    </row>
-    <row r="109" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="H108" s="32"/>
+      <c r="I108" s="33"/>
+    </row>
+    <row r="109" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A109" s="14"/>
       <c r="B109" s="14"/>
       <c r="C109" s="14"/>
@@ -2342,10 +2357,10 @@
       <c r="E109" s="14"/>
       <c r="F109" s="14"/>
       <c r="G109" s="16"/>
-      <c r="H109" s="29"/>
-      <c r="I109" s="30"/>
-    </row>
-    <row r="110" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="H109" s="32"/>
+      <c r="I109" s="33"/>
+    </row>
+    <row r="110" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A110" s="14"/>
       <c r="B110" s="14"/>
       <c r="C110" s="14"/>
@@ -2353,10 +2368,10 @@
       <c r="E110" s="14"/>
       <c r="F110" s="14"/>
       <c r="G110" s="16"/>
-      <c r="H110" s="29"/>
-      <c r="I110" s="30"/>
-    </row>
-    <row r="111" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="H110" s="32"/>
+      <c r="I110" s="33"/>
+    </row>
+    <row r="111" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A111" s="14"/>
       <c r="B111" s="14"/>
       <c r="C111" s="14"/>
@@ -2364,10 +2379,10 @@
       <c r="E111" s="14"/>
       <c r="F111" s="14"/>
       <c r="G111" s="16"/>
-      <c r="H111" s="29"/>
-      <c r="I111" s="30"/>
-    </row>
-    <row r="112" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="H111" s="32"/>
+      <c r="I111" s="33"/>
+    </row>
+    <row r="112" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A112" s="14"/>
       <c r="B112" s="14"/>
       <c r="C112" s="14"/>
@@ -2375,10 +2390,10 @@
       <c r="E112" s="14"/>
       <c r="F112" s="14"/>
       <c r="G112" s="16"/>
-      <c r="H112" s="29"/>
-      <c r="I112" s="30"/>
-    </row>
-    <row r="113" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="H112" s="32"/>
+      <c r="I112" s="33"/>
+    </row>
+    <row r="113" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A113" s="14"/>
       <c r="B113" s="14"/>
       <c r="C113" s="14"/>
@@ -2386,10 +2401,10 @@
       <c r="E113" s="14"/>
       <c r="F113" s="14"/>
       <c r="G113" s="16"/>
-      <c r="H113" s="29"/>
-      <c r="I113" s="30"/>
-    </row>
-    <row r="114" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="H113" s="32"/>
+      <c r="I113" s="33"/>
+    </row>
+    <row r="114" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A114" s="14"/>
       <c r="B114" s="14"/>
       <c r="C114" s="14"/>
@@ -2397,10 +2412,10 @@
       <c r="E114" s="14"/>
       <c r="F114" s="14"/>
       <c r="G114" s="16"/>
-      <c r="H114" s="29"/>
-      <c r="I114" s="30"/>
-    </row>
-    <row r="115" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="H114" s="32"/>
+      <c r="I114" s="33"/>
+    </row>
+    <row r="115" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A115" s="14"/>
       <c r="B115" s="14"/>
       <c r="C115" s="14"/>
@@ -2408,10 +2423,10 @@
       <c r="E115" s="14"/>
       <c r="F115" s="14"/>
       <c r="G115" s="16"/>
-      <c r="H115" s="29"/>
-      <c r="I115" s="30"/>
-    </row>
-    <row r="116" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="H115" s="32"/>
+      <c r="I115" s="33"/>
+    </row>
+    <row r="116" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A116" s="14"/>
       <c r="B116" s="14"/>
       <c r="C116" s="14"/>
@@ -2419,10 +2434,10 @@
       <c r="E116" s="14"/>
       <c r="F116" s="14"/>
       <c r="G116" s="16"/>
-      <c r="H116" s="29"/>
-      <c r="I116" s="30"/>
-    </row>
-    <row r="117" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="H116" s="32"/>
+      <c r="I116" s="33"/>
+    </row>
+    <row r="117" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A117" s="14"/>
       <c r="B117" s="14"/>
       <c r="C117" s="14"/>
@@ -2430,10 +2445,10 @@
       <c r="E117" s="14"/>
       <c r="F117" s="14"/>
       <c r="G117" s="16"/>
-      <c r="H117" s="29"/>
-      <c r="I117" s="30"/>
-    </row>
-    <row r="118" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="H117" s="32"/>
+      <c r="I117" s="33"/>
+    </row>
+    <row r="118" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A118" s="14"/>
       <c r="B118" s="14"/>
       <c r="C118" s="14"/>
@@ -2441,10 +2456,10 @@
       <c r="E118" s="14"/>
       <c r="F118" s="14"/>
       <c r="G118" s="16"/>
-      <c r="H118" s="29"/>
-      <c r="I118" s="30"/>
-    </row>
-    <row r="119" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="H118" s="32"/>
+      <c r="I118" s="33"/>
+    </row>
+    <row r="119" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A119" s="14"/>
       <c r="B119" s="14"/>
       <c r="C119" s="14"/>
@@ -2452,10 +2467,10 @@
       <c r="E119" s="14"/>
       <c r="F119" s="14"/>
       <c r="G119" s="16"/>
-      <c r="H119" s="29"/>
-      <c r="I119" s="30"/>
-    </row>
-    <row r="120" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="H119" s="32"/>
+      <c r="I119" s="33"/>
+    </row>
+    <row r="120" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A120" s="14"/>
       <c r="B120" s="14"/>
       <c r="C120" s="14"/>
@@ -2463,10 +2478,10 @@
       <c r="E120" s="14"/>
       <c r="F120" s="14"/>
       <c r="G120" s="16"/>
-      <c r="H120" s="29"/>
-      <c r="I120" s="30"/>
-    </row>
-    <row r="121" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="H120" s="32"/>
+      <c r="I120" s="33"/>
+    </row>
+    <row r="121" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A121" s="14"/>
       <c r="B121" s="14"/>
       <c r="C121" s="14"/>
@@ -2474,10 +2489,10 @@
       <c r="E121" s="14"/>
       <c r="F121" s="14"/>
       <c r="G121" s="16"/>
-      <c r="H121" s="29"/>
-      <c r="I121" s="30"/>
-    </row>
-    <row r="122" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="H121" s="32"/>
+      <c r="I121" s="33"/>
+    </row>
+    <row r="122" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A122" s="14"/>
       <c r="B122" s="14"/>
       <c r="C122" s="14"/>
@@ -2485,10 +2500,10 @@
       <c r="E122" s="14"/>
       <c r="F122" s="14"/>
       <c r="G122" s="16"/>
-      <c r="H122" s="29"/>
-      <c r="I122" s="30"/>
-    </row>
-    <row r="123" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="H122" s="32"/>
+      <c r="I122" s="33"/>
+    </row>
+    <row r="123" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A123" s="14"/>
       <c r="B123" s="14"/>
       <c r="C123" s="14"/>
@@ -2496,10 +2511,10 @@
       <c r="E123" s="14"/>
       <c r="F123" s="14"/>
       <c r="G123" s="16"/>
-      <c r="H123" s="29"/>
-      <c r="I123" s="30"/>
-    </row>
-    <row r="124" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="H123" s="32"/>
+      <c r="I123" s="33"/>
+    </row>
+    <row r="124" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A124" s="14"/>
       <c r="B124" s="14"/>
       <c r="C124" s="14"/>
@@ -2507,10 +2522,10 @@
       <c r="E124" s="14"/>
       <c r="F124" s="14"/>
       <c r="G124" s="16"/>
-      <c r="H124" s="29"/>
-      <c r="I124" s="30"/>
-    </row>
-    <row r="125" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="H124" s="32"/>
+      <c r="I124" s="33"/>
+    </row>
+    <row r="125" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A125" s="14"/>
       <c r="B125" s="14"/>
       <c r="C125" s="14"/>
@@ -2518,10 +2533,10 @@
       <c r="E125" s="14"/>
       <c r="F125" s="14"/>
       <c r="G125" s="16"/>
-      <c r="H125" s="29"/>
-      <c r="I125" s="30"/>
-    </row>
-    <row r="126" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="H125" s="32"/>
+      <c r="I125" s="33"/>
+    </row>
+    <row r="126" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A126" s="14"/>
       <c r="B126" s="14"/>
       <c r="C126" s="14"/>
@@ -2529,10 +2544,10 @@
       <c r="E126" s="14"/>
       <c r="F126" s="14"/>
       <c r="G126" s="16"/>
-      <c r="H126" s="29"/>
-      <c r="I126" s="30"/>
-    </row>
-    <row r="127" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="H126" s="32"/>
+      <c r="I126" s="33"/>
+    </row>
+    <row r="127" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A127" s="14"/>
       <c r="B127" s="14"/>
       <c r="C127" s="14"/>
@@ -2540,10 +2555,10 @@
       <c r="E127" s="14"/>
       <c r="F127" s="14"/>
       <c r="G127" s="16"/>
-      <c r="H127" s="29"/>
-      <c r="I127" s="30"/>
-    </row>
-    <row r="128" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="H127" s="32"/>
+      <c r="I127" s="33"/>
+    </row>
+    <row r="128" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A128" s="14"/>
       <c r="B128" s="14"/>
       <c r="C128" s="14"/>
@@ -2551,10 +2566,10 @@
       <c r="E128" s="14"/>
       <c r="F128" s="14"/>
       <c r="G128" s="16"/>
-      <c r="H128" s="29"/>
-      <c r="I128" s="30"/>
-    </row>
-    <row r="129" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="H128" s="32"/>
+      <c r="I128" s="33"/>
+    </row>
+    <row r="129" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A129" s="14"/>
       <c r="B129" s="14"/>
       <c r="C129" s="14"/>
@@ -2562,10 +2577,10 @@
       <c r="E129" s="14"/>
       <c r="F129" s="14"/>
       <c r="G129" s="16"/>
-      <c r="H129" s="29"/>
-      <c r="I129" s="30"/>
-    </row>
-    <row r="130" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="H129" s="32"/>
+      <c r="I129" s="33"/>
+    </row>
+    <row r="130" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A130" s="14"/>
       <c r="B130" s="14"/>
       <c r="C130" s="14"/>
@@ -2573,10 +2588,10 @@
       <c r="E130" s="14"/>
       <c r="F130" s="14"/>
       <c r="G130" s="16"/>
-      <c r="H130" s="29"/>
-      <c r="I130" s="30"/>
-    </row>
-    <row r="131" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="H130" s="32"/>
+      <c r="I130" s="33"/>
+    </row>
+    <row r="131" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A131" s="14"/>
       <c r="B131" s="14"/>
       <c r="C131" s="14"/>
@@ -2584,10 +2599,10 @@
       <c r="E131" s="14"/>
       <c r="F131" s="14"/>
       <c r="G131" s="16"/>
-      <c r="H131" s="29"/>
-      <c r="I131" s="30"/>
-    </row>
-    <row r="132" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="H131" s="32"/>
+      <c r="I131" s="33"/>
+    </row>
+    <row r="132" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A132" s="14"/>
       <c r="B132" s="14"/>
       <c r="C132" s="14"/>
@@ -2595,10 +2610,10 @@
       <c r="E132" s="14"/>
       <c r="F132" s="14"/>
       <c r="G132" s="16"/>
-      <c r="H132" s="29"/>
-      <c r="I132" s="30"/>
-    </row>
-    <row r="133" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="H132" s="32"/>
+      <c r="I132" s="33"/>
+    </row>
+    <row r="133" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A133" s="14"/>
       <c r="B133" s="14"/>
       <c r="C133" s="14"/>
@@ -2606,10 +2621,10 @@
       <c r="E133" s="14"/>
       <c r="F133" s="14"/>
       <c r="G133" s="16"/>
-      <c r="H133" s="29"/>
-      <c r="I133" s="30"/>
-    </row>
-    <row r="134" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="H133" s="32"/>
+      <c r="I133" s="33"/>
+    </row>
+    <row r="134" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A134" s="14"/>
       <c r="B134" s="14"/>
       <c r="C134" s="14"/>
@@ -2617,10 +2632,10 @@
       <c r="E134" s="14"/>
       <c r="F134" s="14"/>
       <c r="G134" s="16"/>
-      <c r="H134" s="29"/>
-      <c r="I134" s="30"/>
-    </row>
-    <row r="135" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="H134" s="32"/>
+      <c r="I134" s="33"/>
+    </row>
+    <row r="135" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A135" s="14"/>
       <c r="B135" s="14"/>
       <c r="C135" s="14"/>
@@ -2628,10 +2643,10 @@
       <c r="E135" s="14"/>
       <c r="F135" s="14"/>
       <c r="G135" s="16"/>
-      <c r="H135" s="29"/>
-      <c r="I135" s="30"/>
-    </row>
-    <row r="136" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="H135" s="32"/>
+      <c r="I135" s="33"/>
+    </row>
+    <row r="136" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A136" s="14"/>
       <c r="B136" s="14"/>
       <c r="C136" s="14"/>
@@ -2639,10 +2654,10 @@
       <c r="E136" s="14"/>
       <c r="F136" s="14"/>
       <c r="G136" s="16"/>
-      <c r="H136" s="29"/>
-      <c r="I136" s="30"/>
-    </row>
-    <row r="137" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="H136" s="32"/>
+      <c r="I136" s="33"/>
+    </row>
+    <row r="137" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A137" s="14"/>
       <c r="B137" s="14"/>
       <c r="C137" s="14"/>
@@ -2650,10 +2665,10 @@
       <c r="E137" s="14"/>
       <c r="F137" s="14"/>
       <c r="G137" s="16"/>
-      <c r="H137" s="29"/>
-      <c r="I137" s="30"/>
-    </row>
-    <row r="138" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="H137" s="32"/>
+      <c r="I137" s="33"/>
+    </row>
+    <row r="138" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A138" s="14"/>
       <c r="B138" s="14"/>
       <c r="C138" s="14"/>
@@ -2661,10 +2676,10 @@
       <c r="E138" s="14"/>
       <c r="F138" s="14"/>
       <c r="G138" s="16"/>
-      <c r="H138" s="29"/>
-      <c r="I138" s="30"/>
-    </row>
-    <row r="139" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="H138" s="32"/>
+      <c r="I138" s="33"/>
+    </row>
+    <row r="139" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A139" s="14"/>
       <c r="B139" s="14"/>
       <c r="C139" s="14"/>
@@ -2672,10 +2687,10 @@
       <c r="E139" s="14"/>
       <c r="F139" s="14"/>
       <c r="G139" s="16"/>
-      <c r="H139" s="29"/>
-      <c r="I139" s="30"/>
-    </row>
-    <row r="140" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="H139" s="32"/>
+      <c r="I139" s="33"/>
+    </row>
+    <row r="140" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A140" s="14"/>
       <c r="B140" s="14"/>
       <c r="C140" s="14"/>
@@ -2683,10 +2698,10 @@
       <c r="E140" s="14"/>
       <c r="F140" s="14"/>
       <c r="G140" s="16"/>
-      <c r="H140" s="29"/>
-      <c r="I140" s="30"/>
-    </row>
-    <row r="141" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="H140" s="32"/>
+      <c r="I140" s="33"/>
+    </row>
+    <row r="141" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A141" s="14"/>
       <c r="B141" s="14"/>
       <c r="C141" s="14"/>
@@ -2694,10 +2709,10 @@
       <c r="E141" s="14"/>
       <c r="F141" s="14"/>
       <c r="G141" s="16"/>
-      <c r="H141" s="29"/>
-      <c r="I141" s="30"/>
-    </row>
-    <row r="142" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="H141" s="32"/>
+      <c r="I141" s="33"/>
+    </row>
+    <row r="142" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A142" s="14"/>
       <c r="B142" s="14"/>
       <c r="C142" s="14"/>
@@ -2705,10 +2720,10 @@
       <c r="E142" s="14"/>
       <c r="F142" s="14"/>
       <c r="G142" s="16"/>
-      <c r="H142" s="29"/>
-      <c r="I142" s="30"/>
-    </row>
-    <row r="143" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="H142" s="32"/>
+      <c r="I142" s="33"/>
+    </row>
+    <row r="143" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A143" s="14"/>
       <c r="B143" s="14"/>
       <c r="C143" s="14"/>
@@ -2716,10 +2731,10 @@
       <c r="E143" s="14"/>
       <c r="F143" s="14"/>
       <c r="G143" s="16"/>
-      <c r="H143" s="29"/>
-      <c r="I143" s="30"/>
-    </row>
-    <row r="144" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="H143" s="32"/>
+      <c r="I143" s="33"/>
+    </row>
+    <row r="144" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A144" s="14"/>
       <c r="B144" s="14"/>
       <c r="C144" s="14"/>
@@ -2727,10 +2742,10 @@
       <c r="E144" s="14"/>
       <c r="F144" s="14"/>
       <c r="G144" s="16"/>
-      <c r="H144" s="29"/>
-      <c r="I144" s="30"/>
-    </row>
-    <row r="145" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="H144" s="32"/>
+      <c r="I144" s="33"/>
+    </row>
+    <row r="145" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A145" s="14"/>
       <c r="B145" s="14"/>
       <c r="C145" s="14"/>
@@ -2738,10 +2753,10 @@
       <c r="E145" s="14"/>
       <c r="F145" s="14"/>
       <c r="G145" s="16"/>
-      <c r="H145" s="29"/>
-      <c r="I145" s="30"/>
-    </row>
-    <row r="146" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="H145" s="32"/>
+      <c r="I145" s="33"/>
+    </row>
+    <row r="146" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A146" s="14"/>
       <c r="B146" s="14"/>
       <c r="C146" s="14"/>
@@ -2749,10 +2764,10 @@
       <c r="E146" s="14"/>
       <c r="F146" s="14"/>
       <c r="G146" s="16"/>
-      <c r="H146" s="29"/>
-      <c r="I146" s="30"/>
-    </row>
-    <row r="147" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="H146" s="32"/>
+      <c r="I146" s="33"/>
+    </row>
+    <row r="147" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A147" s="14"/>
       <c r="B147" s="14"/>
       <c r="C147" s="14"/>
@@ -2760,10 +2775,10 @@
       <c r="E147" s="14"/>
       <c r="F147" s="14"/>
       <c r="G147" s="16"/>
-      <c r="H147" s="29"/>
-      <c r="I147" s="30"/>
-    </row>
-    <row r="148" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="H147" s="32"/>
+      <c r="I147" s="33"/>
+    </row>
+    <row r="148" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A148" s="14"/>
       <c r="B148" s="14"/>
       <c r="C148" s="14"/>
@@ -2771,10 +2786,10 @@
       <c r="E148" s="14"/>
       <c r="F148" s="14"/>
       <c r="G148" s="16"/>
-      <c r="H148" s="29"/>
-      <c r="I148" s="30"/>
-    </row>
-    <row r="149" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="H148" s="32"/>
+      <c r="I148" s="33"/>
+    </row>
+    <row r="149" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A149" s="14"/>
       <c r="B149" s="14"/>
       <c r="C149" s="14"/>
@@ -2782,10 +2797,10 @@
       <c r="E149" s="14"/>
       <c r="F149" s="14"/>
       <c r="G149" s="16"/>
-      <c r="H149" s="29"/>
-      <c r="I149" s="30"/>
-    </row>
-    <row r="150" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="H149" s="32"/>
+      <c r="I149" s="33"/>
+    </row>
+    <row r="150" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A150" s="14"/>
       <c r="B150" s="14"/>
       <c r="C150" s="14"/>
@@ -2793,10 +2808,10 @@
       <c r="E150" s="14"/>
       <c r="F150" s="14"/>
       <c r="G150" s="16"/>
-      <c r="H150" s="29"/>
-      <c r="I150" s="30"/>
-    </row>
-    <row r="151" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="H150" s="32"/>
+      <c r="I150" s="33"/>
+    </row>
+    <row r="151" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A151" s="14"/>
       <c r="B151" s="14"/>
       <c r="C151" s="14"/>
@@ -2807,7 +2822,7 @@
       <c r="H151" s="14"/>
       <c r="I151" s="14"/>
     </row>
-    <row r="152" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A152" s="14"/>
       <c r="B152" s="14"/>
       <c r="C152" s="14"/>
@@ -2818,7 +2833,7 @@
       <c r="H152" s="14"/>
       <c r="I152" s="14"/>
     </row>
-    <row r="153" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A153" s="14"/>
       <c r="B153" s="14"/>
       <c r="C153" s="14"/>
@@ -2829,7 +2844,7 @@
       <c r="H153" s="14"/>
       <c r="I153" s="14"/>
     </row>
-    <row r="154" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A154" s="14"/>
       <c r="B154" s="14"/>
       <c r="C154" s="14"/>
@@ -2840,7 +2855,7 @@
       <c r="H154" s="14"/>
       <c r="I154" s="14"/>
     </row>
-    <row r="155" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A155" s="14"/>
       <c r="B155" s="14"/>
       <c r="C155" s="14"/>
@@ -2851,7 +2866,7 @@
       <c r="H155" s="14"/>
       <c r="I155" s="14"/>
     </row>
-    <row r="156" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A156" s="14"/>
       <c r="B156" s="14"/>
       <c r="C156" s="14"/>
@@ -2862,7 +2877,7 @@
       <c r="H156" s="14"/>
       <c r="I156" s="14"/>
     </row>
-    <row r="157" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A157" s="14"/>
       <c r="B157" s="14"/>
       <c r="C157" s="14"/>
@@ -2873,7 +2888,7 @@
       <c r="H157" s="14"/>
       <c r="I157" s="14"/>
     </row>
-    <row r="158" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A158" s="14"/>
       <c r="B158" s="14"/>
       <c r="C158" s="14"/>
@@ -2884,7 +2899,7 @@
       <c r="H158" s="14"/>
       <c r="I158" s="14"/>
     </row>
-    <row r="159" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A159" s="14"/>
       <c r="B159" s="14"/>
       <c r="C159" s="14"/>
@@ -2895,7 +2910,7 @@
       <c r="H159" s="14"/>
       <c r="I159" s="14"/>
     </row>
-    <row r="160" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A160" s="14"/>
       <c r="B160" s="14"/>
       <c r="C160" s="14"/>
@@ -2906,7 +2921,7 @@
       <c r="H160" s="14"/>
       <c r="I160" s="14"/>
     </row>
-    <row r="161" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A161" s="14"/>
       <c r="B161" s="14"/>
       <c r="C161" s="14"/>
@@ -2917,7 +2932,7 @@
       <c r="H161" s="14"/>
       <c r="I161" s="14"/>
     </row>
-    <row r="162" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A162" s="14"/>
       <c r="B162" s="14"/>
       <c r="C162" s="14"/>
@@ -2928,7 +2943,7 @@
       <c r="H162" s="14"/>
       <c r="I162" s="14"/>
     </row>
-    <row r="163" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A163" s="14"/>
       <c r="B163" s="14"/>
       <c r="C163" s="14"/>
@@ -2939,7 +2954,7 @@
       <c r="H163" s="14"/>
       <c r="I163" s="14"/>
     </row>
-    <row r="164" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A164" s="14"/>
       <c r="B164" s="14"/>
       <c r="C164" s="14"/>
@@ -2950,7 +2965,7 @@
       <c r="H164" s="14"/>
       <c r="I164" s="14"/>
     </row>
-    <row r="165" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A165" s="14"/>
       <c r="B165" s="14"/>
       <c r="C165" s="14"/>
@@ -2961,7 +2976,7 @@
       <c r="H165" s="14"/>
       <c r="I165" s="14"/>
     </row>
-    <row r="166" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A166" s="14"/>
       <c r="B166" s="14"/>
       <c r="C166" s="14"/>
@@ -2972,7 +2987,7 @@
       <c r="H166" s="14"/>
       <c r="I166" s="14"/>
     </row>
-    <row r="167" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A167" s="14"/>
       <c r="B167" s="14"/>
       <c r="C167" s="14"/>
@@ -2983,7 +2998,7 @@
       <c r="H167" s="14"/>
       <c r="I167" s="14"/>
     </row>
-    <row r="168" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A168" s="14"/>
       <c r="B168" s="14"/>
       <c r="C168" s="14"/>
@@ -2994,7 +3009,7 @@
       <c r="H168" s="14"/>
       <c r="I168" s="14"/>
     </row>
-    <row r="169" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A169" s="14"/>
       <c r="B169" s="14"/>
       <c r="C169" s="14"/>
@@ -3005,7 +3020,7 @@
       <c r="H169" s="14"/>
       <c r="I169" s="14"/>
     </row>
-    <row r="170" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A170" s="14"/>
       <c r="B170" s="14"/>
       <c r="C170" s="14"/>
@@ -3016,7 +3031,7 @@
       <c r="H170" s="14"/>
       <c r="I170" s="14"/>
     </row>
-    <row r="171" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A171" s="14"/>
       <c r="B171" s="14"/>
       <c r="C171" s="14"/>
@@ -3027,7 +3042,7 @@
       <c r="H171" s="14"/>
       <c r="I171" s="14"/>
     </row>
-    <row r="172" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A172" s="14"/>
       <c r="B172" s="14"/>
       <c r="C172" s="14"/>
@@ -3038,7 +3053,7 @@
       <c r="H172" s="14"/>
       <c r="I172" s="14"/>
     </row>
-    <row r="173" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A173" s="14"/>
       <c r="B173" s="14"/>
       <c r="C173" s="14"/>
@@ -3049,7 +3064,7 @@
       <c r="H173" s="14"/>
       <c r="I173" s="14"/>
     </row>
-    <row r="174" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A174" s="14"/>
       <c r="B174" s="14"/>
       <c r="C174" s="14"/>
@@ -3060,7 +3075,7 @@
       <c r="H174" s="14"/>
       <c r="I174" s="14"/>
     </row>
-    <row r="175" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A175" s="14"/>
       <c r="B175" s="14"/>
       <c r="C175" s="14"/>
@@ -3071,7 +3086,7 @@
       <c r="H175" s="14"/>
       <c r="I175" s="14"/>
     </row>
-    <row r="176" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A176" s="14"/>
       <c r="B176" s="14"/>
       <c r="C176" s="14"/>
@@ -3082,7 +3097,7 @@
       <c r="H176" s="14"/>
       <c r="I176" s="14"/>
     </row>
-    <row r="177" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A177" s="14"/>
       <c r="B177" s="14"/>
       <c r="C177" s="14"/>
@@ -3093,7 +3108,7 @@
       <c r="H177" s="14"/>
       <c r="I177" s="14"/>
     </row>
-    <row r="178" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A178" s="14"/>
       <c r="B178" s="14"/>
       <c r="C178" s="14"/>
@@ -3104,7 +3119,7 @@
       <c r="H178" s="14"/>
       <c r="I178" s="14"/>
     </row>
-    <row r="179" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A179" s="14"/>
       <c r="B179" s="14"/>
       <c r="C179" s="14"/>
@@ -3115,7 +3130,7 @@
       <c r="H179" s="14"/>
       <c r="I179" s="14"/>
     </row>
-    <row r="180" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A180" s="14"/>
       <c r="B180" s="14"/>
       <c r="C180" s="14"/>
@@ -3126,7 +3141,7 @@
       <c r="H180" s="14"/>
       <c r="I180" s="14"/>
     </row>
-    <row r="181" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A181" s="14"/>
       <c r="B181" s="14"/>
       <c r="C181" s="14"/>
@@ -3137,7 +3152,7 @@
       <c r="H181" s="14"/>
       <c r="I181" s="14"/>
     </row>
-    <row r="182" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A182" s="14"/>
       <c r="B182" s="14"/>
       <c r="C182" s="14"/>
@@ -3148,7 +3163,7 @@
       <c r="H182" s="14"/>
       <c r="I182" s="14"/>
     </row>
-    <row r="183" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A183" s="14"/>
       <c r="B183" s="14"/>
       <c r="C183" s="14"/>
@@ -3159,7 +3174,7 @@
       <c r="H183" s="14"/>
       <c r="I183" s="14"/>
     </row>
-    <row r="184" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A184" s="14"/>
       <c r="B184" s="14"/>
       <c r="C184" s="14"/>
@@ -3170,7 +3185,7 @@
       <c r="H184" s="14"/>
       <c r="I184" s="14"/>
     </row>
-    <row r="185" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A185" s="14"/>
       <c r="B185" s="14"/>
       <c r="C185" s="14"/>
@@ -3181,7 +3196,7 @@
       <c r="H185" s="14"/>
       <c r="I185" s="14"/>
     </row>
-    <row r="186" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A186" s="14"/>
       <c r="B186" s="14"/>
       <c r="C186" s="14"/>
@@ -3192,7 +3207,7 @@
       <c r="H186" s="14"/>
       <c r="I186" s="14"/>
     </row>
-    <row r="187" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A187" s="14"/>
       <c r="B187" s="14"/>
       <c r="C187" s="14"/>
@@ -3203,7 +3218,7 @@
       <c r="H187" s="14"/>
       <c r="I187" s="14"/>
     </row>
-    <row r="188" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A188" s="14"/>
       <c r="B188" s="14"/>
       <c r="C188" s="14"/>
@@ -3214,7 +3229,7 @@
       <c r="H188" s="14"/>
       <c r="I188" s="14"/>
     </row>
-    <row r="189" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A189" s="14"/>
       <c r="B189" s="14"/>
       <c r="C189" s="14"/>
@@ -3225,7 +3240,7 @@
       <c r="H189" s="14"/>
       <c r="I189" s="14"/>
     </row>
-    <row r="190" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A190" s="14"/>
       <c r="B190" s="14"/>
       <c r="C190" s="14"/>
@@ -3236,7 +3251,7 @@
       <c r="H190" s="14"/>
       <c r="I190" s="14"/>
     </row>
-    <row r="191" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A191" s="14"/>
       <c r="B191" s="14"/>
       <c r="C191" s="14"/>
@@ -3247,7 +3262,7 @@
       <c r="H191" s="14"/>
       <c r="I191" s="14"/>
     </row>
-    <row r="192" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A192" s="14"/>
       <c r="B192" s="14"/>
       <c r="C192" s="14"/>
@@ -3258,7 +3273,7 @@
       <c r="H192" s="14"/>
       <c r="I192" s="14"/>
     </row>
-    <row r="193" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A193" s="14"/>
       <c r="B193" s="14"/>
       <c r="C193" s="14"/>
@@ -3269,7 +3284,7 @@
       <c r="H193" s="14"/>
       <c r="I193" s="14"/>
     </row>
-    <row r="194" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A194" s="14"/>
       <c r="B194" s="14"/>
       <c r="C194" s="14"/>
@@ -3280,7 +3295,7 @@
       <c r="H194" s="14"/>
       <c r="I194" s="14"/>
     </row>
-    <row r="195" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A195" s="14"/>
       <c r="B195" s="14"/>
       <c r="C195" s="14"/>
@@ -3291,7 +3306,7 @@
       <c r="H195" s="14"/>
       <c r="I195" s="14"/>
     </row>
-    <row r="196" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A196" s="14"/>
       <c r="B196" s="14"/>
       <c r="C196" s="14"/>
@@ -3302,7 +3317,7 @@
       <c r="H196" s="14"/>
       <c r="I196" s="14"/>
     </row>
-    <row r="197" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A197" s="14"/>
       <c r="B197" s="14"/>
       <c r="C197" s="14"/>
@@ -3313,7 +3328,7 @@
       <c r="H197" s="14"/>
       <c r="I197" s="14"/>
     </row>
-    <row r="198" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A198" s="14"/>
       <c r="B198" s="14"/>
       <c r="C198" s="14"/>
@@ -3324,7 +3339,7 @@
       <c r="H198" s="14"/>
       <c r="I198" s="14"/>
     </row>
-    <row r="199" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A199" s="14"/>
       <c r="B199" s="14"/>
       <c r="C199" s="14"/>
@@ -3335,7 +3350,7 @@
       <c r="H199" s="14"/>
       <c r="I199" s="14"/>
     </row>
-    <row r="200" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A200" s="14"/>
       <c r="B200" s="14"/>
       <c r="C200" s="14"/>
@@ -3346,7 +3361,7 @@
       <c r="H200" s="14"/>
       <c r="I200" s="14"/>
     </row>
-    <row r="201" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A201" s="14"/>
       <c r="B201" s="14"/>
       <c r="C201" s="14"/>
@@ -3357,7 +3372,7 @@
       <c r="H201" s="14"/>
       <c r="I201" s="14"/>
     </row>
-    <row r="202" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A202" s="14"/>
       <c r="B202" s="14"/>
       <c r="C202" s="14"/>
@@ -3368,7 +3383,7 @@
       <c r="H202" s="14"/>
       <c r="I202" s="14"/>
     </row>
-    <row r="203" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A203" s="14"/>
       <c r="B203" s="14"/>
       <c r="C203" s="14"/>
@@ -3379,7 +3394,7 @@
       <c r="H203" s="14"/>
       <c r="I203" s="14"/>
     </row>
-    <row r="204" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A204" s="14"/>
       <c r="B204" s="14"/>
       <c r="C204" s="14"/>
@@ -3390,7 +3405,7 @@
       <c r="H204" s="14"/>
       <c r="I204" s="14"/>
     </row>
-    <row r="205" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A205" s="14"/>
       <c r="B205" s="14"/>
       <c r="C205" s="14"/>
@@ -3401,7 +3416,7 @@
       <c r="H205" s="14"/>
       <c r="I205" s="14"/>
     </row>
-    <row r="206" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A206" s="14"/>
       <c r="B206" s="14"/>
       <c r="C206" s="14"/>
@@ -3412,7 +3427,7 @@
       <c r="H206" s="14"/>
       <c r="I206" s="14"/>
     </row>
-    <row r="207" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A207" s="14"/>
       <c r="B207" s="14"/>
       <c r="C207" s="14"/>
@@ -3423,7 +3438,7 @@
       <c r="H207" s="14"/>
       <c r="I207" s="14"/>
     </row>
-    <row r="208" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A208" s="14"/>
       <c r="B208" s="14"/>
       <c r="C208" s="14"/>
@@ -3434,7 +3449,7 @@
       <c r="H208" s="14"/>
       <c r="I208" s="14"/>
     </row>
-    <row r="209" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A209" s="14"/>
       <c r="B209" s="14"/>
       <c r="C209" s="14"/>
@@ -3445,7 +3460,7 @@
       <c r="H209" s="14"/>
       <c r="I209" s="14"/>
     </row>
-    <row r="210" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A210" s="14"/>
       <c r="B210" s="14"/>
       <c r="C210" s="14"/>
@@ -3456,7 +3471,7 @@
       <c r="H210" s="14"/>
       <c r="I210" s="14"/>
     </row>
-    <row r="211" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A211" s="14"/>
       <c r="B211" s="14"/>
       <c r="C211" s="14"/>
@@ -3467,7 +3482,7 @@
       <c r="H211" s="14"/>
       <c r="I211" s="14"/>
     </row>
-    <row r="212" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A212" s="14"/>
       <c r="B212" s="14"/>
       <c r="C212" s="14"/>
@@ -3478,7 +3493,7 @@
       <c r="H212" s="14"/>
       <c r="I212" s="14"/>
     </row>
-    <row r="213" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A213" s="14"/>
       <c r="B213" s="14"/>
       <c r="C213" s="14"/>
@@ -3489,7 +3504,7 @@
       <c r="H213" s="14"/>
       <c r="I213" s="14"/>
     </row>
-    <row r="214" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A214" s="14"/>
       <c r="B214" s="14"/>
       <c r="C214" s="14"/>
@@ -3500,7 +3515,7 @@
       <c r="H214" s="14"/>
       <c r="I214" s="14"/>
     </row>
-    <row r="215" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A215" s="14"/>
       <c r="B215" s="14"/>
       <c r="C215" s="14"/>
@@ -3511,7 +3526,7 @@
       <c r="H215" s="14"/>
       <c r="I215" s="14"/>
     </row>
-    <row r="216" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A216" s="14"/>
       <c r="B216" s="14"/>
       <c r="C216" s="14"/>
@@ -3522,7 +3537,7 @@
       <c r="H216" s="14"/>
       <c r="I216" s="14"/>
     </row>
-    <row r="217" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A217" s="14"/>
       <c r="B217" s="14"/>
       <c r="C217" s="14"/>
@@ -3533,7 +3548,7 @@
       <c r="H217" s="14"/>
       <c r="I217" s="14"/>
     </row>
-    <row r="218" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A218" s="14"/>
       <c r="B218" s="14"/>
       <c r="C218" s="14"/>
@@ -3544,7 +3559,7 @@
       <c r="H218" s="14"/>
       <c r="I218" s="14"/>
     </row>
-    <row r="219" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A219" s="14"/>
       <c r="B219" s="14"/>
       <c r="C219" s="14"/>
@@ -3555,7 +3570,7 @@
       <c r="H219" s="14"/>
       <c r="I219" s="14"/>
     </row>
-    <row r="220" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A220" s="14"/>
       <c r="B220" s="14"/>
       <c r="C220" s="14"/>
@@ -3566,7 +3581,7 @@
       <c r="H220" s="14"/>
       <c r="I220" s="14"/>
     </row>
-    <row r="221" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A221" s="14"/>
       <c r="B221" s="14"/>
       <c r="C221" s="14"/>
@@ -3577,7 +3592,7 @@
       <c r="H221" s="14"/>
       <c r="I221" s="14"/>
     </row>
-    <row r="222" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A222" s="14"/>
       <c r="B222" s="14"/>
       <c r="C222" s="14"/>
@@ -3588,7 +3603,7 @@
       <c r="H222" s="14"/>
       <c r="I222" s="14"/>
     </row>
-    <row r="223" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A223" s="14"/>
       <c r="B223" s="14"/>
       <c r="C223" s="14"/>
@@ -3599,7 +3614,7 @@
       <c r="H223" s="14"/>
       <c r="I223" s="14"/>
     </row>
-    <row r="224" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A224" s="14"/>
       <c r="B224" s="14"/>
       <c r="C224" s="14"/>
@@ -3610,7 +3625,7 @@
       <c r="H224" s="14"/>
       <c r="I224" s="14"/>
     </row>
-    <row r="225" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A225" s="14"/>
       <c r="B225" s="14"/>
       <c r="C225" s="14"/>
@@ -3621,7 +3636,7 @@
       <c r="H225" s="14"/>
       <c r="I225" s="14"/>
     </row>
-    <row r="226" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A226" s="14"/>
       <c r="B226" s="14"/>
       <c r="C226" s="14"/>
@@ -3632,7 +3647,7 @@
       <c r="H226" s="14"/>
       <c r="I226" s="14"/>
     </row>
-    <row r="227" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A227" s="14"/>
       <c r="B227" s="14"/>
       <c r="C227" s="14"/>
@@ -3643,7 +3658,7 @@
       <c r="H227" s="14"/>
       <c r="I227" s="14"/>
     </row>
-    <row r="228" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A228" s="14"/>
       <c r="B228" s="14"/>
       <c r="C228" s="14"/>
@@ -3654,7 +3669,7 @@
       <c r="H228" s="14"/>
       <c r="I228" s="14"/>
     </row>
-    <row r="229" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A229" s="14"/>
       <c r="B229" s="14"/>
       <c r="C229" s="14"/>
@@ -3665,7 +3680,7 @@
       <c r="H229" s="14"/>
       <c r="I229" s="14"/>
     </row>
-    <row r="230" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A230" s="14"/>
       <c r="B230" s="14"/>
       <c r="C230" s="14"/>
@@ -3676,7 +3691,7 @@
       <c r="H230" s="14"/>
       <c r="I230" s="14"/>
     </row>
-    <row r="231" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A231" s="14"/>
       <c r="B231" s="14"/>
       <c r="C231" s="14"/>
@@ -3687,7 +3702,7 @@
       <c r="H231" s="14"/>
       <c r="I231" s="14"/>
     </row>
-    <row r="232" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A232" s="14"/>
       <c r="B232" s="14"/>
       <c r="C232" s="14"/>
@@ -3698,7 +3713,7 @@
       <c r="H232" s="14"/>
       <c r="I232" s="14"/>
     </row>
-    <row r="233" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A233" s="14"/>
       <c r="B233" s="14"/>
       <c r="C233" s="14"/>
@@ -3709,7 +3724,7 @@
       <c r="H233" s="14"/>
       <c r="I233" s="14"/>
     </row>
-    <row r="234" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A234" s="14"/>
       <c r="B234" s="14"/>
       <c r="C234" s="14"/>
@@ -3720,7 +3735,7 @@
       <c r="H234" s="14"/>
       <c r="I234" s="14"/>
     </row>
-    <row r="235" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A235" s="14"/>
       <c r="B235" s="14"/>
       <c r="C235" s="14"/>
@@ -3731,7 +3746,7 @@
       <c r="H235" s="14"/>
       <c r="I235" s="14"/>
     </row>
-    <row r="236" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A236" s="14"/>
       <c r="B236" s="14"/>
       <c r="C236" s="14"/>
@@ -3742,7 +3757,7 @@
       <c r="H236" s="14"/>
       <c r="I236" s="14"/>
     </row>
-    <row r="237" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A237" s="14"/>
       <c r="B237" s="14"/>
       <c r="C237" s="14"/>
@@ -3753,7 +3768,7 @@
       <c r="H237" s="14"/>
       <c r="I237" s="14"/>
     </row>
-    <row r="238" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A238" s="14"/>
       <c r="B238" s="14"/>
       <c r="C238" s="14"/>
@@ -3764,7 +3779,7 @@
       <c r="H238" s="14"/>
       <c r="I238" s="14"/>
     </row>
-    <row r="239" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A239" s="14"/>
       <c r="B239" s="14"/>
       <c r="C239" s="14"/>
@@ -3775,7 +3790,7 @@
       <c r="H239" s="14"/>
       <c r="I239" s="14"/>
     </row>
-    <row r="240" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A240" s="14"/>
       <c r="B240" s="14"/>
       <c r="C240" s="14"/>
@@ -3786,7 +3801,7 @@
       <c r="H240" s="14"/>
       <c r="I240" s="14"/>
     </row>
-    <row r="241" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A241" s="14"/>
       <c r="B241" s="14"/>
       <c r="C241" s="14"/>
@@ -3797,7 +3812,7 @@
       <c r="H241" s="14"/>
       <c r="I241" s="14"/>
     </row>
-    <row r="242" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A242" s="14"/>
       <c r="B242" s="14"/>
       <c r="C242" s="14"/>
@@ -3808,7 +3823,7 @@
       <c r="H242" s="14"/>
       <c r="I242" s="14"/>
     </row>
-    <row r="243" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A243" s="14"/>
       <c r="B243" s="14"/>
       <c r="C243" s="14"/>
@@ -3819,7 +3834,7 @@
       <c r="H243" s="14"/>
       <c r="I243" s="14"/>
     </row>
-    <row r="244" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A244" s="14"/>
       <c r="B244" s="14"/>
       <c r="C244" s="14"/>
@@ -3830,7 +3845,7 @@
       <c r="H244" s="14"/>
       <c r="I244" s="14"/>
     </row>
-    <row r="245" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A245" s="14"/>
       <c r="B245" s="14"/>
       <c r="C245" s="14"/>
@@ -3841,7 +3856,7 @@
       <c r="H245" s="14"/>
       <c r="I245" s="14"/>
     </row>
-    <row r="246" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A246" s="14"/>
       <c r="B246" s="14"/>
       <c r="C246" s="14"/>
@@ -3852,7 +3867,7 @@
       <c r="H246" s="14"/>
       <c r="I246" s="14"/>
     </row>
-    <row r="247" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A247" s="14"/>
       <c r="B247" s="14"/>
       <c r="C247" s="14"/>
@@ -3863,7 +3878,7 @@
       <c r="H247" s="14"/>
       <c r="I247" s="14"/>
     </row>
-    <row r="248" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A248" s="14"/>
       <c r="B248" s="14"/>
       <c r="C248" s="14"/>
@@ -3874,7 +3889,7 @@
       <c r="H248" s="14"/>
       <c r="I248" s="14"/>
     </row>
-    <row r="249" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A249" s="14"/>
       <c r="B249" s="14"/>
       <c r="C249" s="14"/>
@@ -3885,7 +3900,7 @@
       <c r="H249" s="14"/>
       <c r="I249" s="14"/>
     </row>
-    <row r="250" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A250" s="14"/>
       <c r="B250" s="14"/>
       <c r="C250" s="14"/>
@@ -3896,7 +3911,7 @@
       <c r="H250" s="14"/>
       <c r="I250" s="14"/>
     </row>
-    <row r="251" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A251" s="14"/>
       <c r="B251" s="14"/>
       <c r="C251" s="14"/>
@@ -3907,7 +3922,7 @@
       <c r="H251" s="14"/>
       <c r="I251" s="14"/>
     </row>
-    <row r="252" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A252" s="14"/>
       <c r="B252" s="14"/>
       <c r="C252" s="14"/>
@@ -3918,7 +3933,7 @@
       <c r="H252" s="14"/>
       <c r="I252" s="14"/>
     </row>
-    <row r="253" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A253" s="14"/>
       <c r="B253" s="14"/>
       <c r="C253" s="14"/>
@@ -3929,7 +3944,7 @@
       <c r="H253" s="14"/>
       <c r="I253" s="14"/>
     </row>
-    <row r="254" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A254" s="14"/>
       <c r="B254" s="14"/>
       <c r="C254" s="14"/>
@@ -3940,7 +3955,7 @@
       <c r="H254" s="14"/>
       <c r="I254" s="14"/>
     </row>
-    <row r="255" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A255" s="14"/>
       <c r="B255" s="14"/>
       <c r="C255" s="14"/>
@@ -3951,7 +3966,7 @@
       <c r="H255" s="14"/>
       <c r="I255" s="14"/>
     </row>
-    <row r="256" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A256" s="14"/>
       <c r="B256" s="14"/>
       <c r="C256" s="14"/>
@@ -3962,7 +3977,7 @@
       <c r="H256" s="14"/>
       <c r="I256" s="14"/>
     </row>
-    <row r="257" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A257" s="14"/>
       <c r="B257" s="14"/>
       <c r="C257" s="14"/>
@@ -3973,7 +3988,7 @@
       <c r="H257" s="14"/>
       <c r="I257" s="14"/>
     </row>
-    <row r="258" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A258" s="14"/>
       <c r="B258" s="14"/>
       <c r="C258" s="14"/>
@@ -3984,7 +3999,7 @@
       <c r="H258" s="14"/>
       <c r="I258" s="14"/>
     </row>
-    <row r="259" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A259" s="14"/>
       <c r="B259" s="14"/>
       <c r="C259" s="14"/>
@@ -3995,7 +4010,7 @@
       <c r="H259" s="14"/>
       <c r="I259" s="14"/>
     </row>
-    <row r="260" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A260" s="14"/>
       <c r="B260" s="14"/>
       <c r="C260" s="14"/>
@@ -4006,7 +4021,7 @@
       <c r="H260" s="14"/>
       <c r="I260" s="14"/>
     </row>
-    <row r="261" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A261" s="14"/>
       <c r="B261" s="14"/>
       <c r="C261" s="14"/>
@@ -4017,7 +4032,7 @@
       <c r="H261" s="14"/>
       <c r="I261" s="14"/>
     </row>
-    <row r="262" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A262" s="14"/>
       <c r="B262" s="14"/>
       <c r="C262" s="14"/>
@@ -4028,7 +4043,7 @@
       <c r="H262" s="14"/>
       <c r="I262" s="14"/>
     </row>
-    <row r="263" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A263" s="14"/>
       <c r="B263" s="14"/>
       <c r="C263" s="14"/>
@@ -4039,7 +4054,7 @@
       <c r="H263" s="14"/>
       <c r="I263" s="14"/>
     </row>
-    <row r="264" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A264" s="14"/>
       <c r="B264" s="14"/>
       <c r="C264" s="14"/>
@@ -4050,7 +4065,7 @@
       <c r="H264" s="14"/>
       <c r="I264" s="14"/>
     </row>
-    <row r="265" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A265" s="14"/>
       <c r="B265" s="14"/>
       <c r="C265" s="14"/>
@@ -4061,7 +4076,7 @@
       <c r="H265" s="14"/>
       <c r="I265" s="14"/>
     </row>
-    <row r="266" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A266" s="14"/>
       <c r="B266" s="14"/>
       <c r="C266" s="14"/>
@@ -4072,7 +4087,7 @@
       <c r="H266" s="14"/>
       <c r="I266" s="14"/>
     </row>
-    <row r="267" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A267" s="14"/>
       <c r="B267" s="14"/>
       <c r="C267" s="14"/>
@@ -4083,7 +4098,7 @@
       <c r="H267" s="14"/>
       <c r="I267" s="14"/>
     </row>
-    <row r="268" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A268" s="14"/>
       <c r="B268" s="14"/>
       <c r="C268" s="14"/>
@@ -4094,7 +4109,7 @@
       <c r="H268" s="14"/>
       <c r="I268" s="14"/>
     </row>
-    <row r="269" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A269" s="14"/>
       <c r="B269" s="14"/>
       <c r="C269" s="14"/>
@@ -4105,7 +4120,7 @@
       <c r="H269" s="14"/>
       <c r="I269" s="14"/>
     </row>
-    <row r="270" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A270" s="14"/>
       <c r="B270" s="14"/>
       <c r="C270" s="14"/>
@@ -4116,7 +4131,7 @@
       <c r="H270" s="14"/>
       <c r="I270" s="14"/>
     </row>
-    <row r="271" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A271" s="14"/>
       <c r="B271" s="14"/>
       <c r="C271" s="14"/>
@@ -4127,7 +4142,7 @@
       <c r="H271" s="14"/>
       <c r="I271" s="14"/>
     </row>
-    <row r="272" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A272" s="14"/>
       <c r="B272" s="14"/>
       <c r="C272" s="14"/>
@@ -4138,7 +4153,7 @@
       <c r="H272" s="14"/>
       <c r="I272" s="14"/>
     </row>
-    <row r="273" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A273" s="14"/>
       <c r="B273" s="14"/>
       <c r="C273" s="14"/>
@@ -4149,7 +4164,7 @@
       <c r="H273" s="14"/>
       <c r="I273" s="14"/>
     </row>
-    <row r="274" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A274" s="14"/>
       <c r="B274" s="14"/>
       <c r="C274" s="14"/>
@@ -4160,7 +4175,7 @@
       <c r="H274" s="14"/>
       <c r="I274" s="14"/>
     </row>
-    <row r="275" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A275" s="14"/>
       <c r="B275" s="14"/>
       <c r="C275" s="14"/>
@@ -4171,7 +4186,7 @@
       <c r="H275" s="14"/>
       <c r="I275" s="14"/>
     </row>
-    <row r="276" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A276" s="14"/>
       <c r="B276" s="14"/>
       <c r="C276" s="14"/>
@@ -4182,7 +4197,7 @@
       <c r="H276" s="14"/>
       <c r="I276" s="14"/>
     </row>
-    <row r="277" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A277" s="14"/>
       <c r="B277" s="14"/>
       <c r="C277" s="14"/>
@@ -4193,7 +4208,7 @@
       <c r="H277" s="14"/>
       <c r="I277" s="14"/>
     </row>
-    <row r="278" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A278" s="14"/>
       <c r="B278" s="14"/>
       <c r="C278" s="14"/>
@@ -4204,7 +4219,7 @@
       <c r="H278" s="14"/>
       <c r="I278" s="14"/>
     </row>
-    <row r="279" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A279" s="14"/>
       <c r="B279" s="14"/>
       <c r="C279" s="14"/>
@@ -4215,7 +4230,7 @@
       <c r="H279" s="14"/>
       <c r="I279" s="14"/>
     </row>
-    <row r="280" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A280" s="14"/>
       <c r="B280" s="14"/>
       <c r="C280" s="14"/>
@@ -4226,7 +4241,7 @@
       <c r="H280" s="14"/>
       <c r="I280" s="14"/>
     </row>
-    <row r="281" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A281" s="14"/>
       <c r="B281" s="14"/>
       <c r="C281" s="14"/>
@@ -4237,7 +4252,7 @@
       <c r="H281" s="14"/>
       <c r="I281" s="14"/>
     </row>
-    <row r="282" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A282" s="14"/>
       <c r="B282" s="14"/>
       <c r="C282" s="14"/>
@@ -4248,7 +4263,7 @@
       <c r="H282" s="14"/>
       <c r="I282" s="14"/>
     </row>
-    <row r="283" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A283" s="14"/>
       <c r="B283" s="14"/>
       <c r="C283" s="14"/>
@@ -4259,7 +4274,7 @@
       <c r="H283" s="14"/>
       <c r="I283" s="14"/>
     </row>
-    <row r="284" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A284" s="14"/>
       <c r="B284" s="14"/>
       <c r="C284" s="14"/>
@@ -4270,7 +4285,7 @@
       <c r="H284" s="14"/>
       <c r="I284" s="14"/>
     </row>
-    <row r="285" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A285" s="14"/>
       <c r="B285" s="14"/>
       <c r="C285" s="14"/>
@@ -4281,7 +4296,7 @@
       <c r="H285" s="14"/>
       <c r="I285" s="14"/>
     </row>
-    <row r="286" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A286" s="14"/>
       <c r="B286" s="14"/>
       <c r="C286" s="14"/>
@@ -4292,7 +4307,7 @@
       <c r="H286" s="14"/>
       <c r="I286" s="14"/>
     </row>
-    <row r="287" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A287" s="14"/>
       <c r="B287" s="14"/>
       <c r="C287" s="14"/>
@@ -4303,7 +4318,7 @@
       <c r="H287" s="14"/>
       <c r="I287" s="14"/>
     </row>
-    <row r="288" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A288" s="14"/>
       <c r="B288" s="14"/>
       <c r="C288" s="14"/>
@@ -4314,7 +4329,7 @@
       <c r="H288" s="14"/>
       <c r="I288" s="14"/>
     </row>
-    <row r="289" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A289" s="14"/>
       <c r="B289" s="14"/>
       <c r="C289" s="14"/>
@@ -4325,7 +4340,7 @@
       <c r="H289" s="14"/>
       <c r="I289" s="14"/>
     </row>
-    <row r="290" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A290" s="14"/>
       <c r="B290" s="14"/>
       <c r="C290" s="14"/>
@@ -4336,7 +4351,7 @@
       <c r="H290" s="14"/>
       <c r="I290" s="14"/>
     </row>
-    <row r="291" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A291" s="14"/>
       <c r="B291" s="14"/>
       <c r="C291" s="14"/>
@@ -4347,7 +4362,7 @@
       <c r="H291" s="14"/>
       <c r="I291" s="14"/>
     </row>
-    <row r="292" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A292" s="14"/>
       <c r="B292" s="14"/>
       <c r="C292" s="14"/>
@@ -4358,7 +4373,7 @@
       <c r="H292" s="14"/>
       <c r="I292" s="14"/>
     </row>
-    <row r="293" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A293" s="14"/>
       <c r="B293" s="14"/>
       <c r="C293" s="14"/>
@@ -4369,7 +4384,7 @@
       <c r="H293" s="14"/>
       <c r="I293" s="14"/>
     </row>
-    <row r="294" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A294" s="14"/>
       <c r="B294" s="14"/>
       <c r="C294" s="14"/>
@@ -4380,7 +4395,7 @@
       <c r="H294" s="14"/>
       <c r="I294" s="14"/>
     </row>
-    <row r="295" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A295" s="14"/>
       <c r="B295" s="14"/>
       <c r="C295" s="14"/>
@@ -4391,7 +4406,7 @@
       <c r="H295" s="14"/>
       <c r="I295" s="14"/>
     </row>
-    <row r="296" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A296" s="14"/>
       <c r="B296" s="14"/>
       <c r="C296" s="14"/>
@@ -4402,7 +4417,7 @@
       <c r="H296" s="14"/>
       <c r="I296" s="14"/>
     </row>
-    <row r="297" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A297" s="14"/>
       <c r="B297" s="14"/>
       <c r="C297" s="14"/>
@@ -4413,7 +4428,7 @@
       <c r="H297" s="14"/>
       <c r="I297" s="14"/>
     </row>
-    <row r="298" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A298" s="14"/>
       <c r="B298" s="14"/>
       <c r="C298" s="14"/>
@@ -4424,7 +4439,7 @@
       <c r="H298" s="14"/>
       <c r="I298" s="14"/>
     </row>
-    <row r="299" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A299" s="14"/>
       <c r="B299" s="14"/>
       <c r="C299" s="14"/>
@@ -4435,7 +4450,7 @@
       <c r="H299" s="14"/>
       <c r="I299" s="14"/>
     </row>
-    <row r="300" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A300" s="14"/>
       <c r="B300" s="14"/>
       <c r="C300" s="14"/>
@@ -4446,7 +4461,7 @@
       <c r="H300" s="14"/>
       <c r="I300" s="14"/>
     </row>
-    <row r="301" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A301" s="14"/>
       <c r="B301" s="14"/>
       <c r="C301" s="14"/>
@@ -4457,7 +4472,7 @@
       <c r="H301" s="14"/>
       <c r="I301" s="14"/>
     </row>
-    <row r="302" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A302" s="14"/>
       <c r="B302" s="14"/>
       <c r="C302" s="14"/>
@@ -4468,7 +4483,7 @@
       <c r="H302" s="14"/>
       <c r="I302" s="14"/>
     </row>
-    <row r="303" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A303" s="14"/>
       <c r="B303" s="14"/>
       <c r="C303" s="14"/>
@@ -4479,7 +4494,7 @@
       <c r="H303" s="14"/>
       <c r="I303" s="14"/>
     </row>
-    <row r="304" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A304" s="14"/>
       <c r="B304" s="14"/>
       <c r="C304" s="14"/>
@@ -4490,7 +4505,7 @@
       <c r="H304" s="14"/>
       <c r="I304" s="14"/>
     </row>
-    <row r="305" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A305" s="14"/>
       <c r="B305" s="14"/>
       <c r="C305" s="14"/>
@@ -4501,7 +4516,7 @@
       <c r="H305" s="14"/>
       <c r="I305" s="14"/>
     </row>
-    <row r="306" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A306" s="14"/>
       <c r="B306" s="14"/>
       <c r="C306" s="14"/>
@@ -4512,7 +4527,7 @@
       <c r="H306" s="14"/>
       <c r="I306" s="14"/>
     </row>
-    <row r="307" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A307" s="14"/>
       <c r="B307" s="14"/>
       <c r="C307" s="14"/>
@@ -4523,7 +4538,7 @@
       <c r="H307" s="14"/>
       <c r="I307" s="14"/>
     </row>
-    <row r="308" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A308" s="14"/>
       <c r="B308" s="14"/>
       <c r="C308" s="14"/>
@@ -4534,7 +4549,7 @@
       <c r="H308" s="14"/>
       <c r="I308" s="14"/>
     </row>
-    <row r="309" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A309" s="14"/>
       <c r="B309" s="14"/>
       <c r="C309" s="14"/>
@@ -4545,7 +4560,7 @@
       <c r="H309" s="14"/>
       <c r="I309" s="14"/>
     </row>
-    <row r="310" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A310" s="14"/>
       <c r="B310" s="14"/>
       <c r="C310" s="14"/>
@@ -4556,7 +4571,7 @@
       <c r="H310" s="14"/>
       <c r="I310" s="14"/>
     </row>
-    <row r="311" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A311" s="14"/>
       <c r="B311" s="14"/>
       <c r="C311" s="14"/>
@@ -4567,7 +4582,7 @@
       <c r="H311" s="14"/>
       <c r="I311" s="14"/>
     </row>
-    <row r="312" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="312" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A312" s="14"/>
       <c r="B312" s="14"/>
       <c r="C312" s="14"/>
@@ -4578,7 +4593,7 @@
       <c r="H312" s="14"/>
       <c r="I312" s="14"/>
     </row>
-    <row r="313" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="313" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A313" s="14"/>
       <c r="B313" s="14"/>
       <c r="C313" s="14"/>
@@ -4589,7 +4604,7 @@
       <c r="H313" s="14"/>
       <c r="I313" s="14"/>
     </row>
-    <row r="314" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="314" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A314" s="14"/>
       <c r="B314" s="14"/>
       <c r="C314" s="14"/>
@@ -4600,7 +4615,7 @@
       <c r="H314" s="14"/>
       <c r="I314" s="14"/>
     </row>
-    <row r="315" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="315" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A315" s="14"/>
       <c r="B315" s="14"/>
       <c r="C315" s="14"/>
@@ -4611,7 +4626,7 @@
       <c r="H315" s="14"/>
       <c r="I315" s="14"/>
     </row>
-    <row r="316" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="316" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A316" s="14"/>
       <c r="B316" s="14"/>
       <c r="C316" s="14"/>
@@ -4622,7 +4637,7 @@
       <c r="H316" s="14"/>
       <c r="I316" s="14"/>
     </row>
-    <row r="317" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="317" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A317" s="14"/>
       <c r="B317" s="14"/>
       <c r="C317" s="14"/>
@@ -4633,2033 +4648,2164 @@
       <c r="H317" s="14"/>
       <c r="I317" s="14"/>
     </row>
-    <row r="318" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G318" s="3"/>
     </row>
-    <row r="319" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G319" s="3"/>
     </row>
-    <row r="320" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G320" s="3"/>
     </row>
-    <row r="321" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="321" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G321" s="3"/>
     </row>
-    <row r="322" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="322" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G322" s="3"/>
     </row>
-    <row r="323" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="323" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G323" s="3"/>
     </row>
-    <row r="324" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="324" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G324" s="3"/>
     </row>
-    <row r="325" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="325" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G325" s="3"/>
     </row>
-    <row r="326" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="326" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G326" s="3"/>
     </row>
-    <row r="327" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="327" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G327" s="3"/>
     </row>
-    <row r="328" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="328" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G328" s="3"/>
     </row>
-    <row r="329" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="329" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G329" s="3"/>
     </row>
-    <row r="330" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="330" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G330" s="3"/>
     </row>
-    <row r="331" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="331" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G331" s="3"/>
     </row>
-    <row r="332" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="332" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G332" s="3"/>
     </row>
-    <row r="333" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="333" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G333" s="3"/>
     </row>
-    <row r="334" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="334" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G334" s="3"/>
     </row>
-    <row r="335" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="335" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G335" s="3"/>
     </row>
-    <row r="336" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="336" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G336" s="3"/>
     </row>
-    <row r="337" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="337" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G337" s="3"/>
     </row>
-    <row r="338" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="338" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G338" s="3"/>
     </row>
-    <row r="339" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="339" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G339" s="3"/>
     </row>
-    <row r="340" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="340" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G340" s="3"/>
     </row>
-    <row r="341" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="341" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G341" s="3"/>
     </row>
-    <row r="342" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="342" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G342" s="3"/>
     </row>
-    <row r="343" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="343" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G343" s="3"/>
     </row>
-    <row r="344" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="344" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G344" s="3"/>
     </row>
-    <row r="345" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="345" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G345" s="3"/>
     </row>
-    <row r="346" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="346" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G346" s="3"/>
     </row>
-    <row r="347" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="347" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G347" s="3"/>
     </row>
-    <row r="348" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="348" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G348" s="3"/>
     </row>
-    <row r="349" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="349" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G349" s="3"/>
     </row>
-    <row r="350" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="350" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G350" s="3"/>
     </row>
-    <row r="351" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="351" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G351" s="3"/>
     </row>
-    <row r="352" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="352" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G352" s="3"/>
     </row>
-    <row r="353" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="353" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G353" s="3"/>
     </row>
-    <row r="354" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="354" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G354" s="3"/>
     </row>
-    <row r="355" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="355" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G355" s="3"/>
     </row>
-    <row r="356" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="356" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G356" s="3"/>
     </row>
-    <row r="357" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="357" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G357" s="3"/>
     </row>
-    <row r="358" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="358" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G358" s="3"/>
     </row>
-    <row r="359" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="359" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G359" s="3"/>
     </row>
-    <row r="360" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="360" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G360" s="3"/>
     </row>
-    <row r="361" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="361" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G361" s="3"/>
     </row>
-    <row r="362" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="362" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G362" s="3"/>
     </row>
-    <row r="363" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="363" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G363" s="3"/>
     </row>
-    <row r="364" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="364" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G364" s="3"/>
     </row>
-    <row r="365" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="365" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G365" s="3"/>
     </row>
-    <row r="366" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="366" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G366" s="3"/>
     </row>
-    <row r="367" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="367" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G367" s="3"/>
     </row>
-    <row r="368" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="368" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G368" s="3"/>
     </row>
-    <row r="369" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="369" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G369" s="3"/>
     </row>
-    <row r="370" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="370" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G370" s="3"/>
     </row>
-    <row r="371" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="371" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G371" s="3"/>
     </row>
-    <row r="372" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="372" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G372" s="3"/>
     </row>
-    <row r="373" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="373" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G373" s="3"/>
     </row>
-    <row r="374" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="374" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G374" s="3"/>
     </row>
-    <row r="375" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="375" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G375" s="3"/>
     </row>
-    <row r="376" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="376" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G376" s="3"/>
     </row>
-    <row r="377" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="377" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G377" s="3"/>
     </row>
-    <row r="378" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="378" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G378" s="3"/>
     </row>
-    <row r="379" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="379" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G379" s="3"/>
     </row>
-    <row r="380" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="380" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G380" s="3"/>
     </row>
-    <row r="381" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="381" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G381" s="3"/>
     </row>
-    <row r="382" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="382" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G382" s="3"/>
     </row>
-    <row r="383" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="383" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G383" s="3"/>
     </row>
-    <row r="384" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="384" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G384" s="3"/>
     </row>
-    <row r="385" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="385" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G385" s="3"/>
     </row>
-    <row r="386" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="386" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G386" s="3"/>
     </row>
-    <row r="387" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="387" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G387" s="3"/>
     </row>
-    <row r="388" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="388" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G388" s="3"/>
     </row>
-    <row r="389" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="389" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G389" s="3"/>
     </row>
-    <row r="390" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="390" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G390" s="3"/>
     </row>
-    <row r="391" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="391" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G391" s="3"/>
     </row>
-    <row r="392" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="392" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G392" s="3"/>
     </row>
-    <row r="393" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="393" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G393" s="3"/>
     </row>
-    <row r="394" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="394" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G394" s="3"/>
     </row>
-    <row r="395" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="395" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G395" s="3"/>
     </row>
-    <row r="396" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="396" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G396" s="3"/>
     </row>
-    <row r="397" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="397" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G397" s="3"/>
     </row>
-    <row r="398" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="398" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G398" s="3"/>
     </row>
-    <row r="399" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="399" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G399" s="3"/>
     </row>
-    <row r="400" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="400" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G400" s="3"/>
     </row>
-    <row r="401" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="401" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G401" s="3"/>
     </row>
-    <row r="402" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="402" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G402" s="3"/>
     </row>
-    <row r="403" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="403" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G403" s="3"/>
     </row>
-    <row r="404" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="404" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G404" s="3"/>
     </row>
-    <row r="405" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="405" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G405" s="3"/>
     </row>
-    <row r="406" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="406" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G406" s="3"/>
     </row>
-    <row r="407" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="407" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G407" s="3"/>
     </row>
-    <row r="408" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="408" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G408" s="3"/>
     </row>
-    <row r="409" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="409" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G409" s="3"/>
     </row>
-    <row r="410" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="410" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G410" s="3"/>
     </row>
-    <row r="411" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="411" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G411" s="3"/>
     </row>
-    <row r="412" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="412" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G412" s="3"/>
     </row>
-    <row r="413" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="413" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G413" s="3"/>
     </row>
-    <row r="414" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="414" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G414" s="3"/>
     </row>
-    <row r="415" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="415" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G415" s="3"/>
     </row>
-    <row r="416" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="416" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G416" s="3"/>
     </row>
-    <row r="417" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="417" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G417" s="3"/>
     </row>
-    <row r="418" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="418" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G418" s="3"/>
     </row>
-    <row r="419" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="419" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G419" s="3"/>
     </row>
-    <row r="420" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="420" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G420" s="3"/>
     </row>
-    <row r="421" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="421" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G421" s="3"/>
     </row>
-    <row r="422" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="422" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G422" s="3"/>
     </row>
-    <row r="423" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="423" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G423" s="3"/>
     </row>
-    <row r="424" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="424" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G424" s="3"/>
     </row>
-    <row r="425" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="425" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G425" s="3"/>
     </row>
-    <row r="426" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="426" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G426" s="3"/>
     </row>
-    <row r="427" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="427" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G427" s="3"/>
     </row>
-    <row r="428" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="428" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G428" s="3"/>
     </row>
-    <row r="429" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="429" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G429" s="3"/>
     </row>
-    <row r="430" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="430" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G430" s="3"/>
     </row>
-    <row r="431" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="431" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G431" s="3"/>
     </row>
-    <row r="432" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="432" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G432" s="3"/>
     </row>
-    <row r="433" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="433" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G433" s="3"/>
     </row>
-    <row r="434" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="434" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G434" s="3"/>
     </row>
-    <row r="435" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="435" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G435" s="3"/>
     </row>
-    <row r="436" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="436" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G436" s="3"/>
     </row>
-    <row r="437" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="437" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G437" s="3"/>
     </row>
-    <row r="438" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="438" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G438" s="3"/>
     </row>
-    <row r="439" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="439" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G439" s="3"/>
     </row>
-    <row r="440" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="440" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G440" s="3"/>
     </row>
-    <row r="441" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="441" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G441" s="3"/>
     </row>
-    <row r="442" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="442" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G442" s="3"/>
     </row>
-    <row r="443" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="443" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G443" s="3"/>
     </row>
-    <row r="444" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="444" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G444" s="3"/>
     </row>
-    <row r="445" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="445" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G445" s="3"/>
     </row>
-    <row r="446" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="446" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G446" s="3"/>
     </row>
-    <row r="447" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="447" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G447" s="3"/>
     </row>
-    <row r="448" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="448" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G448" s="3"/>
     </row>
-    <row r="449" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="449" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G449" s="3"/>
     </row>
-    <row r="450" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="450" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G450" s="3"/>
     </row>
-    <row r="451" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="451" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G451" s="3"/>
     </row>
-    <row r="452" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="452" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G452" s="3"/>
     </row>
-    <row r="453" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="453" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G453" s="3"/>
     </row>
-    <row r="454" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="454" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G454" s="3"/>
     </row>
-    <row r="455" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="455" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G455" s="3"/>
     </row>
-    <row r="456" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="456" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G456" s="3"/>
     </row>
-    <row r="457" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="457" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G457" s="3"/>
     </row>
-    <row r="458" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="458" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G458" s="3"/>
     </row>
-    <row r="459" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="459" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G459" s="3"/>
     </row>
-    <row r="460" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="460" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G460" s="3"/>
     </row>
-    <row r="461" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="461" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G461" s="3"/>
     </row>
-    <row r="462" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="462" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G462" s="3"/>
     </row>
-    <row r="463" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="463" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G463" s="3"/>
     </row>
-    <row r="464" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="464" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G464" s="3"/>
     </row>
-    <row r="465" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="465" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G465" s="3"/>
     </row>
-    <row r="466" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="466" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G466" s="3"/>
     </row>
-    <row r="467" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="467" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G467" s="3"/>
     </row>
-    <row r="468" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="468" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G468" s="3"/>
     </row>
-    <row r="469" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="469" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G469" s="3"/>
     </row>
-    <row r="470" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="470" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G470" s="3"/>
     </row>
-    <row r="471" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="471" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G471" s="3"/>
     </row>
-    <row r="472" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="472" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G472" s="3"/>
     </row>
-    <row r="473" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="473" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G473" s="3"/>
     </row>
-    <row r="474" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="474" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G474" s="3"/>
     </row>
-    <row r="475" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="475" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G475" s="3"/>
     </row>
-    <row r="476" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="476" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G476" s="3"/>
     </row>
-    <row r="477" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="477" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G477" s="3"/>
     </row>
-    <row r="478" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="478" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G478" s="3"/>
     </row>
-    <row r="479" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="479" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G479" s="3"/>
     </row>
-    <row r="480" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="480" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G480" s="3"/>
     </row>
-    <row r="481" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="481" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G481" s="3"/>
     </row>
-    <row r="482" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="482" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G482" s="3"/>
     </row>
-    <row r="483" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="483" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G483" s="3"/>
     </row>
-    <row r="484" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="484" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G484" s="3"/>
     </row>
-    <row r="485" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="485" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G485" s="3"/>
     </row>
-    <row r="486" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="486" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G486" s="3"/>
     </row>
-    <row r="487" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="487" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G487" s="3"/>
     </row>
-    <row r="488" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="488" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G488" s="3"/>
     </row>
-    <row r="489" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="489" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G489" s="3"/>
     </row>
-    <row r="490" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="490" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G490" s="3"/>
     </row>
-    <row r="491" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="491" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G491" s="3"/>
     </row>
-    <row r="492" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="492" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G492" s="3"/>
     </row>
-    <row r="493" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="493" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G493" s="3"/>
     </row>
-    <row r="494" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="494" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G494" s="3"/>
     </row>
-    <row r="495" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="495" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G495" s="3"/>
     </row>
-    <row r="496" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="496" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G496" s="3"/>
     </row>
-    <row r="497" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="497" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G497" s="3"/>
     </row>
-    <row r="498" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="498" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G498" s="3"/>
     </row>
-    <row r="499" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="499" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G499" s="3"/>
     </row>
-    <row r="500" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="500" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G500" s="3"/>
     </row>
-    <row r="501" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="501" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G501" s="3"/>
     </row>
-    <row r="502" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="502" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G502" s="3"/>
     </row>
-    <row r="503" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="503" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G503" s="3"/>
     </row>
-    <row r="504" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="504" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G504" s="3"/>
     </row>
-    <row r="505" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="505" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G505" s="3"/>
     </row>
-    <row r="506" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="506" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G506" s="3"/>
     </row>
-    <row r="507" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="507" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G507" s="3"/>
     </row>
-    <row r="508" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="508" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G508" s="3"/>
     </row>
-    <row r="509" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="509" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G509" s="3"/>
     </row>
-    <row r="510" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="510" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G510" s="3"/>
     </row>
-    <row r="511" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="511" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G511" s="3"/>
     </row>
-    <row r="512" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="512" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G512" s="3"/>
     </row>
-    <row r="513" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="513" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G513" s="3"/>
     </row>
-    <row r="514" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="514" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G514" s="3"/>
     </row>
-    <row r="515" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="515" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G515" s="3"/>
     </row>
-    <row r="516" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="516" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G516" s="3"/>
     </row>
-    <row r="517" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="517" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G517" s="3"/>
     </row>
-    <row r="518" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="518" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G518" s="3"/>
     </row>
-    <row r="519" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="519" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G519" s="3"/>
     </row>
-    <row r="520" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="520" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G520" s="3"/>
     </row>
-    <row r="521" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="521" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G521" s="3"/>
     </row>
-    <row r="522" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="522" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G522" s="3"/>
     </row>
-    <row r="523" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="523" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G523" s="3"/>
     </row>
-    <row r="524" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="524" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G524" s="3"/>
     </row>
-    <row r="525" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="525" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G525" s="3"/>
     </row>
-    <row r="526" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="526" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G526" s="3"/>
     </row>
-    <row r="527" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="527" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G527" s="3"/>
     </row>
-    <row r="528" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="528" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G528" s="3"/>
     </row>
-    <row r="529" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="529" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G529" s="3"/>
     </row>
-    <row r="530" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="530" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G530" s="3"/>
     </row>
-    <row r="531" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="531" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G531" s="3"/>
     </row>
-    <row r="532" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="532" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G532" s="3"/>
     </row>
-    <row r="533" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="533" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G533" s="3"/>
     </row>
-    <row r="534" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="534" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G534" s="3"/>
     </row>
-    <row r="535" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="535" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G535" s="3"/>
     </row>
-    <row r="536" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="536" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G536" s="3"/>
     </row>
-    <row r="537" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="537" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G537" s="3"/>
     </row>
-    <row r="538" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="538" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G538" s="3"/>
     </row>
-    <row r="539" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="539" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G539" s="3"/>
     </row>
-    <row r="540" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="540" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G540" s="3"/>
     </row>
-    <row r="541" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="541" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G541" s="3"/>
     </row>
-    <row r="542" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="542" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G542" s="3"/>
     </row>
-    <row r="543" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="543" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G543" s="3"/>
     </row>
-    <row r="544" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="544" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G544" s="3"/>
     </row>
-    <row r="545" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="545" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G545" s="3"/>
     </row>
-    <row r="546" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="546" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G546" s="3"/>
     </row>
-    <row r="547" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="547" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G547" s="3"/>
     </row>
-    <row r="548" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="548" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G548" s="3"/>
     </row>
-    <row r="549" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="549" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G549" s="3"/>
     </row>
-    <row r="550" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="550" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G550" s="3"/>
     </row>
-    <row r="551" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="551" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G551" s="3"/>
     </row>
-    <row r="552" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="552" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G552" s="3"/>
     </row>
-    <row r="553" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="553" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G553" s="3"/>
     </row>
-    <row r="554" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="554" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G554" s="3"/>
     </row>
-    <row r="555" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="555" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G555" s="3"/>
     </row>
-    <row r="556" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="556" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G556" s="3"/>
     </row>
-    <row r="557" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="557" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G557" s="3"/>
     </row>
-    <row r="558" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="558" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G558" s="3"/>
     </row>
-    <row r="559" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="559" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G559" s="3"/>
     </row>
-    <row r="560" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="560" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G560" s="3"/>
     </row>
-    <row r="561" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="561" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G561" s="3"/>
     </row>
-    <row r="562" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="562" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G562" s="3"/>
     </row>
-    <row r="563" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="563" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G563" s="3"/>
     </row>
-    <row r="564" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="564" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G564" s="3"/>
     </row>
-    <row r="565" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="565" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G565" s="3"/>
     </row>
-    <row r="566" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="566" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G566" s="3"/>
     </row>
-    <row r="567" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="567" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G567" s="3"/>
     </row>
-    <row r="568" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="568" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G568" s="3"/>
     </row>
-    <row r="569" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="569" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G569" s="3"/>
     </row>
-    <row r="570" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="570" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G570" s="3"/>
     </row>
-    <row r="571" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="571" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G571" s="3"/>
     </row>
-    <row r="572" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="572" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G572" s="3"/>
     </row>
-    <row r="573" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="573" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G573" s="3"/>
     </row>
-    <row r="574" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="574" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G574" s="3"/>
     </row>
-    <row r="575" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="575" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G575" s="3"/>
     </row>
-    <row r="576" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="576" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G576" s="3"/>
     </row>
-    <row r="577" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="577" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G577" s="3"/>
     </row>
-    <row r="578" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="578" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G578" s="3"/>
     </row>
-    <row r="579" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="579" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G579" s="3"/>
     </row>
-    <row r="580" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="580" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G580" s="3"/>
     </row>
-    <row r="581" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="581" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G581" s="3"/>
     </row>
-    <row r="582" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="582" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G582" s="3"/>
     </row>
-    <row r="583" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="583" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G583" s="3"/>
     </row>
-    <row r="584" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="584" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G584" s="3"/>
     </row>
-    <row r="585" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="585" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G585" s="3"/>
     </row>
-    <row r="586" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="586" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G586" s="3"/>
     </row>
-    <row r="587" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="587" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G587" s="3"/>
     </row>
-    <row r="588" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="588" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G588" s="3"/>
     </row>
-    <row r="589" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="589" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G589" s="3"/>
     </row>
-    <row r="590" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="590" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G590" s="3"/>
     </row>
-    <row r="591" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="591" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G591" s="3"/>
     </row>
-    <row r="592" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="592" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G592" s="3"/>
     </row>
-    <row r="593" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="593" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G593" s="3"/>
     </row>
-    <row r="594" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="594" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G594" s="3"/>
     </row>
-    <row r="595" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="595" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G595" s="3"/>
     </row>
-    <row r="596" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="596" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G596" s="3"/>
     </row>
-    <row r="597" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="597" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G597" s="3"/>
     </row>
-    <row r="598" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="598" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G598" s="3"/>
     </row>
-    <row r="599" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="599" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G599" s="3"/>
     </row>
-    <row r="600" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="600" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G600" s="3"/>
     </row>
-    <row r="601" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="601" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G601" s="3"/>
     </row>
-    <row r="602" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="602" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G602" s="3"/>
     </row>
-    <row r="603" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="603" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G603" s="3"/>
     </row>
-    <row r="604" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="604" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G604" s="3"/>
     </row>
-    <row r="605" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="605" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G605" s="3"/>
     </row>
-    <row r="606" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="606" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G606" s="3"/>
     </row>
-    <row r="607" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="607" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G607" s="3"/>
     </row>
-    <row r="608" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="608" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G608" s="3"/>
     </row>
-    <row r="609" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="609" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G609" s="3"/>
     </row>
-    <row r="610" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="610" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G610" s="3"/>
     </row>
-    <row r="611" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="611" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G611" s="3"/>
     </row>
-    <row r="612" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="612" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G612" s="3"/>
     </row>
-    <row r="613" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="613" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G613" s="3"/>
     </row>
-    <row r="614" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="614" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G614" s="3"/>
     </row>
-    <row r="615" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="615" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G615" s="3"/>
     </row>
-    <row r="616" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="616" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G616" s="3"/>
     </row>
-    <row r="617" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="617" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G617" s="3"/>
     </row>
-    <row r="618" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="618" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G618" s="3"/>
     </row>
-    <row r="619" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="619" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G619" s="3"/>
     </row>
-    <row r="620" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="620" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G620" s="3"/>
     </row>
-    <row r="621" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="621" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G621" s="3"/>
     </row>
-    <row r="622" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="622" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G622" s="3"/>
     </row>
-    <row r="623" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="623" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G623" s="3"/>
     </row>
-    <row r="624" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="624" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G624" s="3"/>
     </row>
-    <row r="625" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="625" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G625" s="3"/>
     </row>
-    <row r="626" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="626" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G626" s="3"/>
     </row>
-    <row r="627" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="627" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G627" s="3"/>
     </row>
-    <row r="628" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="628" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G628" s="3"/>
     </row>
-    <row r="629" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="629" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G629" s="3"/>
     </row>
-    <row r="630" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="630" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G630" s="3"/>
     </row>
-    <row r="631" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="631" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G631" s="3"/>
     </row>
-    <row r="632" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="632" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G632" s="3"/>
     </row>
-    <row r="633" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="633" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G633" s="3"/>
     </row>
-    <row r="634" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="634" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G634" s="3"/>
     </row>
-    <row r="635" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="635" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G635" s="3"/>
     </row>
-    <row r="636" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="636" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G636" s="3"/>
     </row>
-    <row r="637" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="637" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G637" s="3"/>
     </row>
-    <row r="638" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="638" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G638" s="3"/>
     </row>
-    <row r="639" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="639" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G639" s="3"/>
     </row>
-    <row r="640" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="640" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G640" s="3"/>
     </row>
-    <row r="641" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="641" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G641" s="3"/>
     </row>
-    <row r="642" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="642" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G642" s="3"/>
     </row>
-    <row r="643" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="643" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G643" s="3"/>
     </row>
-    <row r="644" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="644" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G644" s="3"/>
     </row>
-    <row r="645" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="645" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G645" s="3"/>
     </row>
-    <row r="646" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="646" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G646" s="3"/>
     </row>
-    <row r="647" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="647" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G647" s="3"/>
     </row>
-    <row r="648" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="648" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G648" s="3"/>
     </row>
-    <row r="649" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="649" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G649" s="3"/>
     </row>
-    <row r="650" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="650" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G650" s="3"/>
     </row>
-    <row r="651" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="651" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G651" s="3"/>
     </row>
-    <row r="652" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="652" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G652" s="3"/>
     </row>
-    <row r="653" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="653" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G653" s="3"/>
     </row>
-    <row r="654" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="654" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G654" s="3"/>
     </row>
-    <row r="655" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="655" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G655" s="3"/>
     </row>
-    <row r="656" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="656" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G656" s="3"/>
     </row>
-    <row r="657" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="657" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G657" s="3"/>
     </row>
-    <row r="658" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="658" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G658" s="3"/>
     </row>
-    <row r="659" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="659" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G659" s="3"/>
     </row>
-    <row r="660" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="660" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G660" s="3"/>
     </row>
-    <row r="661" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="661" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G661" s="3"/>
     </row>
-    <row r="662" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="662" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G662" s="3"/>
     </row>
-    <row r="663" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="663" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G663" s="3"/>
     </row>
-    <row r="664" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="664" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G664" s="3"/>
     </row>
-    <row r="665" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="665" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G665" s="3"/>
     </row>
-    <row r="666" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="666" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G666" s="3"/>
     </row>
-    <row r="667" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="667" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G667" s="3"/>
     </row>
-    <row r="668" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="668" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G668" s="3"/>
     </row>
-    <row r="669" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="669" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G669" s="3"/>
     </row>
-    <row r="670" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="670" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G670" s="3"/>
     </row>
-    <row r="671" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="671" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G671" s="3"/>
     </row>
-    <row r="672" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="672" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G672" s="3"/>
     </row>
-    <row r="673" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="673" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G673" s="3"/>
     </row>
-    <row r="674" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="674" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G674" s="3"/>
     </row>
-    <row r="675" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="675" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G675" s="3"/>
     </row>
-    <row r="676" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="676" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G676" s="3"/>
     </row>
-    <row r="677" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="677" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G677" s="3"/>
     </row>
-    <row r="678" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="678" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G678" s="3"/>
     </row>
-    <row r="679" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="679" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G679" s="3"/>
     </row>
-    <row r="680" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="680" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G680" s="3"/>
     </row>
-    <row r="681" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="681" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G681" s="3"/>
     </row>
-    <row r="682" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="682" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G682" s="3"/>
     </row>
-    <row r="683" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="683" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G683" s="3"/>
     </row>
-    <row r="684" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="684" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G684" s="3"/>
     </row>
-    <row r="685" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="685" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G685" s="3"/>
     </row>
-    <row r="686" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="686" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G686" s="3"/>
     </row>
-    <row r="687" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="687" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G687" s="3"/>
     </row>
-    <row r="688" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="688" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G688" s="3"/>
     </row>
-    <row r="689" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="689" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G689" s="3"/>
     </row>
-    <row r="690" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="690" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G690" s="3"/>
     </row>
-    <row r="691" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="691" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G691" s="3"/>
     </row>
-    <row r="692" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="692" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G692" s="3"/>
     </row>
-    <row r="693" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="693" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G693" s="3"/>
     </row>
-    <row r="694" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="694" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G694" s="3"/>
     </row>
-    <row r="695" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="695" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G695" s="3"/>
     </row>
-    <row r="696" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="696" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G696" s="3"/>
     </row>
-    <row r="697" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="697" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G697" s="3"/>
     </row>
-    <row r="698" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="698" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G698" s="3"/>
     </row>
-    <row r="699" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="699" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G699" s="3"/>
     </row>
-    <row r="700" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="700" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G700" s="3"/>
     </row>
-    <row r="701" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="701" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G701" s="3"/>
     </row>
-    <row r="702" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="702" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G702" s="3"/>
     </row>
-    <row r="703" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="703" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G703" s="3"/>
     </row>
-    <row r="704" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="704" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G704" s="3"/>
     </row>
-    <row r="705" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="705" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G705" s="3"/>
     </row>
-    <row r="706" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="706" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G706" s="3"/>
     </row>
-    <row r="707" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="707" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G707" s="3"/>
     </row>
-    <row r="708" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="708" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G708" s="3"/>
     </row>
-    <row r="709" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="709" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G709" s="3"/>
     </row>
-    <row r="710" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="710" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G710" s="3"/>
     </row>
-    <row r="711" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="711" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G711" s="3"/>
     </row>
-    <row r="712" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="712" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G712" s="3"/>
     </row>
-    <row r="713" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="713" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G713" s="3"/>
     </row>
-    <row r="714" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="714" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G714" s="3"/>
     </row>
-    <row r="715" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="715" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G715" s="3"/>
     </row>
-    <row r="716" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="716" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G716" s="3"/>
     </row>
-    <row r="717" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="717" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G717" s="3"/>
     </row>
-    <row r="718" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="718" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G718" s="3"/>
     </row>
-    <row r="719" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="719" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G719" s="3"/>
     </row>
-    <row r="720" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="720" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G720" s="3"/>
     </row>
-    <row r="721" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="721" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G721" s="3"/>
     </row>
-    <row r="722" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="722" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G722" s="3"/>
     </row>
-    <row r="723" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="723" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G723" s="3"/>
     </row>
-    <row r="724" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="724" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G724" s="3"/>
     </row>
-    <row r="725" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="725" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G725" s="3"/>
     </row>
-    <row r="726" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="726" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G726" s="3"/>
     </row>
-    <row r="727" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="727" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G727" s="3"/>
     </row>
-    <row r="728" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="728" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G728" s="3"/>
     </row>
-    <row r="729" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="729" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G729" s="3"/>
     </row>
-    <row r="730" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="730" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G730" s="3"/>
     </row>
-    <row r="731" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="731" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G731" s="3"/>
     </row>
-    <row r="732" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="732" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G732" s="3"/>
     </row>
-    <row r="733" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="733" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G733" s="3"/>
     </row>
-    <row r="734" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="734" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G734" s="3"/>
     </row>
-    <row r="735" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="735" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G735" s="3"/>
     </row>
-    <row r="736" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="736" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G736" s="3"/>
     </row>
-    <row r="737" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="737" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G737" s="3"/>
     </row>
-    <row r="738" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="738" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G738" s="3"/>
     </row>
-    <row r="739" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="739" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G739" s="3"/>
     </row>
-    <row r="740" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="740" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G740" s="3"/>
     </row>
-    <row r="741" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="741" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G741" s="3"/>
     </row>
-    <row r="742" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="742" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G742" s="3"/>
     </row>
-    <row r="743" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="743" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G743" s="3"/>
     </row>
-    <row r="744" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="744" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G744" s="3"/>
     </row>
-    <row r="745" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="745" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G745" s="3"/>
     </row>
-    <row r="746" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="746" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G746" s="3"/>
     </row>
-    <row r="747" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="747" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G747" s="3"/>
     </row>
-    <row r="748" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="748" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G748" s="3"/>
     </row>
-    <row r="749" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="749" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G749" s="3"/>
     </row>
-    <row r="750" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="750" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G750" s="3"/>
     </row>
-    <row r="751" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="751" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G751" s="3"/>
     </row>
-    <row r="752" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="752" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G752" s="3"/>
     </row>
-    <row r="753" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="753" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G753" s="3"/>
     </row>
-    <row r="754" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="754" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G754" s="3"/>
     </row>
-    <row r="755" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="755" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G755" s="3"/>
     </row>
-    <row r="756" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="756" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G756" s="3"/>
     </row>
-    <row r="757" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="757" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G757" s="3"/>
     </row>
-    <row r="758" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="758" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G758" s="3"/>
     </row>
-    <row r="759" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="759" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G759" s="3"/>
     </row>
-    <row r="760" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="760" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G760" s="3"/>
     </row>
-    <row r="761" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="761" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G761" s="3"/>
     </row>
-    <row r="762" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="762" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G762" s="3"/>
     </row>
-    <row r="763" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="763" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G763" s="3"/>
     </row>
-    <row r="764" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="764" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G764" s="3"/>
     </row>
-    <row r="765" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="765" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G765" s="3"/>
     </row>
-    <row r="766" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="766" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G766" s="3"/>
     </row>
-    <row r="767" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="767" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G767" s="3"/>
     </row>
-    <row r="768" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="768" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G768" s="3"/>
     </row>
-    <row r="769" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="769" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G769" s="3"/>
     </row>
-    <row r="770" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="770" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G770" s="3"/>
     </row>
-    <row r="771" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="771" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G771" s="3"/>
     </row>
-    <row r="772" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="772" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G772" s="3"/>
     </row>
-    <row r="773" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="773" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G773" s="3"/>
     </row>
-    <row r="774" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="774" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G774" s="3"/>
     </row>
-    <row r="775" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="775" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G775" s="3"/>
     </row>
-    <row r="776" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="776" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G776" s="3"/>
     </row>
-    <row r="777" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="777" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G777" s="3"/>
     </row>
-    <row r="778" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="778" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G778" s="3"/>
     </row>
-    <row r="779" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="779" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G779" s="3"/>
     </row>
-    <row r="780" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="780" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G780" s="3"/>
     </row>
-    <row r="781" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="781" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G781" s="3"/>
     </row>
-    <row r="782" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="782" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G782" s="3"/>
     </row>
-    <row r="783" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="783" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G783" s="3"/>
     </row>
-    <row r="784" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="784" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G784" s="3"/>
     </row>
-    <row r="785" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="785" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G785" s="3"/>
     </row>
-    <row r="786" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="786" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G786" s="3"/>
     </row>
-    <row r="787" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="787" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G787" s="3"/>
     </row>
-    <row r="788" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="788" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G788" s="3"/>
     </row>
-    <row r="789" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="789" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G789" s="3"/>
     </row>
-    <row r="790" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="790" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G790" s="3"/>
     </row>
-    <row r="791" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="791" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G791" s="3"/>
     </row>
-    <row r="792" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="792" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G792" s="3"/>
     </row>
-    <row r="793" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="793" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G793" s="3"/>
     </row>
-    <row r="794" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="794" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G794" s="3"/>
     </row>
-    <row r="795" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="795" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G795" s="3"/>
     </row>
-    <row r="796" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="796" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G796" s="3"/>
     </row>
-    <row r="797" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="797" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G797" s="3"/>
     </row>
-    <row r="798" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="798" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G798" s="3"/>
     </row>
-    <row r="799" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="799" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G799" s="3"/>
     </row>
-    <row r="800" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="800" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G800" s="3"/>
     </row>
-    <row r="801" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="801" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G801" s="3"/>
     </row>
-    <row r="802" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="802" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G802" s="3"/>
     </row>
-    <row r="803" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="803" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G803" s="3"/>
     </row>
-    <row r="804" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="804" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G804" s="3"/>
     </row>
-    <row r="805" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="805" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G805" s="3"/>
     </row>
-    <row r="806" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="806" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G806" s="3"/>
     </row>
-    <row r="807" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="807" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G807" s="3"/>
     </row>
-    <row r="808" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="808" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G808" s="3"/>
     </row>
-    <row r="809" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="809" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G809" s="3"/>
     </row>
-    <row r="810" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="810" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G810" s="3"/>
     </row>
-    <row r="811" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="811" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G811" s="3"/>
     </row>
-    <row r="812" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="812" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G812" s="3"/>
     </row>
-    <row r="813" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="813" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G813" s="3"/>
     </row>
-    <row r="814" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="814" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G814" s="3"/>
     </row>
-    <row r="815" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="815" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G815" s="3"/>
     </row>
-    <row r="816" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="816" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G816" s="3"/>
     </row>
-    <row r="817" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="817" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G817" s="3"/>
     </row>
-    <row r="818" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="818" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G818" s="3"/>
     </row>
-    <row r="819" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="819" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G819" s="3"/>
     </row>
-    <row r="820" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="820" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G820" s="3"/>
     </row>
-    <row r="821" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="821" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G821" s="3"/>
     </row>
-    <row r="822" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="822" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G822" s="3"/>
     </row>
-    <row r="823" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="823" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G823" s="3"/>
     </row>
-    <row r="824" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="824" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G824" s="3"/>
     </row>
-    <row r="825" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="825" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G825" s="3"/>
     </row>
-    <row r="826" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="826" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G826" s="3"/>
     </row>
-    <row r="827" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="827" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G827" s="3"/>
     </row>
-    <row r="828" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="828" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G828" s="3"/>
     </row>
-    <row r="829" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="829" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G829" s="3"/>
     </row>
-    <row r="830" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="830" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G830" s="3"/>
     </row>
-    <row r="831" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="831" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G831" s="3"/>
     </row>
-    <row r="832" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="832" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G832" s="3"/>
     </row>
-    <row r="833" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="833" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G833" s="3"/>
     </row>
-    <row r="834" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="834" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G834" s="3"/>
     </row>
-    <row r="835" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="835" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G835" s="3"/>
     </row>
-    <row r="836" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="836" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G836" s="3"/>
     </row>
-    <row r="837" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="837" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G837" s="3"/>
     </row>
-    <row r="838" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="838" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G838" s="3"/>
     </row>
-    <row r="839" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="839" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G839" s="3"/>
     </row>
-    <row r="840" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="840" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G840" s="3"/>
     </row>
-    <row r="841" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="841" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G841" s="3"/>
     </row>
-    <row r="842" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="842" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G842" s="3"/>
     </row>
-    <row r="843" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="843" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G843" s="3"/>
     </row>
-    <row r="844" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="844" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G844" s="3"/>
     </row>
-    <row r="845" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="845" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G845" s="3"/>
     </row>
-    <row r="846" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="846" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G846" s="3"/>
     </row>
-    <row r="847" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="847" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G847" s="3"/>
     </row>
-    <row r="848" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="848" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G848" s="3"/>
     </row>
-    <row r="849" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="849" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G849" s="3"/>
     </row>
-    <row r="850" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="850" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G850" s="3"/>
     </row>
-    <row r="851" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="851" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G851" s="3"/>
     </row>
-    <row r="852" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="852" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G852" s="3"/>
     </row>
-    <row r="853" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="853" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G853" s="3"/>
     </row>
-    <row r="854" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="854" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G854" s="3"/>
     </row>
-    <row r="855" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="855" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G855" s="3"/>
     </row>
-    <row r="856" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="856" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G856" s="3"/>
     </row>
-    <row r="857" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="857" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G857" s="3"/>
     </row>
-    <row r="858" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="858" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G858" s="3"/>
     </row>
-    <row r="859" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="859" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G859" s="3"/>
     </row>
-    <row r="860" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="860" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G860" s="3"/>
     </row>
-    <row r="861" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="861" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G861" s="3"/>
     </row>
-    <row r="862" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="862" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G862" s="3"/>
     </row>
-    <row r="863" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="863" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G863" s="3"/>
     </row>
-    <row r="864" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="864" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G864" s="3"/>
     </row>
-    <row r="865" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="865" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G865" s="3"/>
     </row>
-    <row r="866" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="866" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G866" s="3"/>
     </row>
-    <row r="867" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="867" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G867" s="3"/>
     </row>
-    <row r="868" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="868" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G868" s="3"/>
     </row>
-    <row r="869" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="869" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G869" s="3"/>
     </row>
-    <row r="870" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="870" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G870" s="3"/>
     </row>
-    <row r="871" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="871" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G871" s="3"/>
     </row>
-    <row r="872" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="872" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G872" s="3"/>
     </row>
-    <row r="873" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="873" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G873" s="3"/>
     </row>
-    <row r="874" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="874" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G874" s="3"/>
     </row>
-    <row r="875" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="875" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G875" s="3"/>
     </row>
-    <row r="876" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="876" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G876" s="3"/>
     </row>
-    <row r="877" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="877" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G877" s="3"/>
     </row>
-    <row r="878" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="878" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G878" s="3"/>
     </row>
-    <row r="879" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="879" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G879" s="3"/>
     </row>
-    <row r="880" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="880" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G880" s="3"/>
     </row>
-    <row r="881" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="881" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G881" s="3"/>
     </row>
-    <row r="882" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="882" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G882" s="3"/>
     </row>
-    <row r="883" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="883" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G883" s="3"/>
     </row>
-    <row r="884" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="884" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G884" s="3"/>
     </row>
-    <row r="885" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="885" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G885" s="3"/>
     </row>
-    <row r="886" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="886" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G886" s="3"/>
     </row>
-    <row r="887" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="887" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G887" s="3"/>
     </row>
-    <row r="888" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="888" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G888" s="3"/>
     </row>
-    <row r="889" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="889" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G889" s="3"/>
     </row>
-    <row r="890" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="890" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G890" s="3"/>
     </row>
-    <row r="891" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="891" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G891" s="3"/>
     </row>
-    <row r="892" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="892" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G892" s="3"/>
     </row>
-    <row r="893" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="893" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G893" s="3"/>
     </row>
-    <row r="894" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="894" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G894" s="3"/>
     </row>
-    <row r="895" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="895" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G895" s="3"/>
     </row>
-    <row r="896" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="896" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G896" s="3"/>
     </row>
-    <row r="897" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="897" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G897" s="3"/>
     </row>
-    <row r="898" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="898" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G898" s="3"/>
     </row>
-    <row r="899" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="899" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G899" s="3"/>
     </row>
-    <row r="900" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="900" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G900" s="3"/>
     </row>
-    <row r="901" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="901" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G901" s="3"/>
     </row>
-    <row r="902" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="902" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G902" s="3"/>
     </row>
-    <row r="903" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="903" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G903" s="3"/>
     </row>
-    <row r="904" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="904" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G904" s="3"/>
     </row>
-    <row r="905" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="905" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G905" s="3"/>
     </row>
-    <row r="906" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="906" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G906" s="3"/>
     </row>
-    <row r="907" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="907" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G907" s="3"/>
     </row>
-    <row r="908" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="908" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G908" s="3"/>
     </row>
-    <row r="909" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="909" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G909" s="3"/>
     </row>
-    <row r="910" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="910" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G910" s="3"/>
     </row>
-    <row r="911" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="911" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G911" s="3"/>
     </row>
-    <row r="912" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="912" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G912" s="3"/>
     </row>
-    <row r="913" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="913" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G913" s="3"/>
     </row>
-    <row r="914" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="914" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G914" s="3"/>
     </row>
-    <row r="915" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="915" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G915" s="3"/>
     </row>
-    <row r="916" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="916" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G916" s="3"/>
     </row>
-    <row r="917" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="917" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G917" s="3"/>
     </row>
-    <row r="918" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="918" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G918" s="3"/>
     </row>
-    <row r="919" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="919" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G919" s="3"/>
     </row>
-    <row r="920" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="920" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G920" s="3"/>
     </row>
-    <row r="921" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="921" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G921" s="3"/>
     </row>
-    <row r="922" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="922" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G922" s="3"/>
     </row>
-    <row r="923" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="923" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G923" s="3"/>
     </row>
-    <row r="924" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="924" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G924" s="3"/>
     </row>
-    <row r="925" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="925" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G925" s="3"/>
     </row>
-    <row r="926" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="926" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G926" s="3"/>
     </row>
-    <row r="927" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="927" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G927" s="3"/>
     </row>
-    <row r="928" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="928" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G928" s="3"/>
     </row>
-    <row r="929" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="929" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G929" s="3"/>
     </row>
-    <row r="930" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="930" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G930" s="3"/>
     </row>
-    <row r="931" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="931" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G931" s="3"/>
     </row>
-    <row r="932" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="932" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G932" s="3"/>
     </row>
-    <row r="933" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="933" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G933" s="3"/>
     </row>
-    <row r="934" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="934" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G934" s="3"/>
     </row>
-    <row r="935" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="935" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G935" s="3"/>
     </row>
-    <row r="936" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="936" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G936" s="3"/>
     </row>
-    <row r="937" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="937" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G937" s="3"/>
     </row>
-    <row r="938" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="938" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G938" s="3"/>
     </row>
-    <row r="939" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="939" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G939" s="3"/>
     </row>
-    <row r="940" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="940" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G940" s="3"/>
     </row>
-    <row r="941" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="941" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G941" s="3"/>
     </row>
-    <row r="942" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="942" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G942" s="3"/>
     </row>
-    <row r="943" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="943" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G943" s="3"/>
     </row>
-    <row r="944" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="944" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G944" s="3"/>
     </row>
-    <row r="945" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="945" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G945" s="3"/>
     </row>
-    <row r="946" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="946" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G946" s="3"/>
     </row>
-    <row r="947" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="947" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G947" s="3"/>
     </row>
-    <row r="948" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="948" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G948" s="3"/>
     </row>
-    <row r="949" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="949" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G949" s="3"/>
     </row>
-    <row r="950" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="950" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G950" s="3"/>
     </row>
-    <row r="951" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="951" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G951" s="3"/>
     </row>
-    <row r="952" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="952" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G952" s="3"/>
     </row>
-    <row r="953" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="953" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G953" s="3"/>
     </row>
-    <row r="954" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="954" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G954" s="3"/>
     </row>
-    <row r="955" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="955" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G955" s="3"/>
     </row>
-    <row r="956" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="956" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G956" s="3"/>
     </row>
-    <row r="957" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="957" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G957" s="3"/>
     </row>
-    <row r="958" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="958" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G958" s="3"/>
     </row>
-    <row r="959" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="959" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G959" s="3"/>
     </row>
-    <row r="960" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="960" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G960" s="3"/>
     </row>
-    <row r="961" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="961" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G961" s="3"/>
     </row>
-    <row r="962" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="962" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G962" s="3"/>
     </row>
-    <row r="963" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="963" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G963" s="3"/>
     </row>
-    <row r="964" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="964" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G964" s="3"/>
     </row>
-    <row r="965" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="965" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G965" s="3"/>
     </row>
-    <row r="966" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="966" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G966" s="3"/>
     </row>
-    <row r="967" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="967" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G967" s="3"/>
     </row>
-    <row r="968" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="968" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G968" s="3"/>
     </row>
-    <row r="969" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="969" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G969" s="3"/>
     </row>
-    <row r="970" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="970" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G970" s="3"/>
     </row>
-    <row r="971" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="971" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G971" s="3"/>
     </row>
-    <row r="972" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="972" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G972" s="3"/>
     </row>
-    <row r="973" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="973" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G973" s="3"/>
     </row>
-    <row r="974" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="974" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G974" s="3"/>
     </row>
-    <row r="975" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="975" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G975" s="3"/>
     </row>
-    <row r="976" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="976" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G976" s="3"/>
     </row>
-    <row r="977" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="977" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G977" s="3"/>
     </row>
-    <row r="978" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="978" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G978" s="3"/>
     </row>
-    <row r="979" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="979" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G979" s="3"/>
     </row>
-    <row r="980" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="980" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G980" s="3"/>
     </row>
-    <row r="981" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="981" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G981" s="3"/>
     </row>
-    <row r="982" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="982" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G982" s="3"/>
     </row>
-    <row r="983" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="983" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G983" s="3"/>
     </row>
-    <row r="984" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="984" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G984" s="3"/>
     </row>
-    <row r="985" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="985" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G985" s="3"/>
     </row>
-    <row r="986" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="986" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G986" s="3"/>
     </row>
-    <row r="987" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="987" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G987" s="3"/>
     </row>
-    <row r="988" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="988" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G988" s="3"/>
     </row>
-    <row r="989" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="989" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G989" s="3"/>
     </row>
-    <row r="990" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="990" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G990" s="3"/>
     </row>
-    <row r="991" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="991" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G991" s="3"/>
     </row>
-    <row r="992" spans="7:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="992" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G992" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="148">
+  <mergeCells count="149">
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="H146:I146"/>
+    <mergeCell ref="H147:I147"/>
+    <mergeCell ref="H148:I148"/>
+    <mergeCell ref="H149:I149"/>
+    <mergeCell ref="H150:I150"/>
+    <mergeCell ref="H141:I141"/>
+    <mergeCell ref="H142:I142"/>
+    <mergeCell ref="H143:I143"/>
+    <mergeCell ref="H144:I144"/>
+    <mergeCell ref="H145:I145"/>
+    <mergeCell ref="H136:I136"/>
+    <mergeCell ref="H137:I137"/>
+    <mergeCell ref="H138:I138"/>
+    <mergeCell ref="H139:I139"/>
+    <mergeCell ref="H140:I140"/>
+    <mergeCell ref="H131:I131"/>
+    <mergeCell ref="H132:I132"/>
+    <mergeCell ref="H133:I133"/>
+    <mergeCell ref="H134:I134"/>
+    <mergeCell ref="H135:I135"/>
+    <mergeCell ref="H126:I126"/>
+    <mergeCell ref="H127:I127"/>
+    <mergeCell ref="H128:I128"/>
+    <mergeCell ref="H129:I129"/>
+    <mergeCell ref="H130:I130"/>
+    <mergeCell ref="H121:I121"/>
+    <mergeCell ref="H122:I122"/>
+    <mergeCell ref="H123:I123"/>
+    <mergeCell ref="H124:I124"/>
+    <mergeCell ref="H125:I125"/>
+    <mergeCell ref="H116:I116"/>
+    <mergeCell ref="H117:I117"/>
+    <mergeCell ref="H118:I118"/>
+    <mergeCell ref="H119:I119"/>
+    <mergeCell ref="H120:I120"/>
+    <mergeCell ref="H111:I111"/>
+    <mergeCell ref="H112:I112"/>
+    <mergeCell ref="H113:I113"/>
+    <mergeCell ref="H114:I114"/>
+    <mergeCell ref="H115:I115"/>
+    <mergeCell ref="H106:I106"/>
+    <mergeCell ref="H107:I107"/>
+    <mergeCell ref="H108:I108"/>
+    <mergeCell ref="H109:I109"/>
+    <mergeCell ref="H110:I110"/>
+    <mergeCell ref="H101:I101"/>
+    <mergeCell ref="H102:I102"/>
+    <mergeCell ref="H103:I103"/>
+    <mergeCell ref="H104:I104"/>
+    <mergeCell ref="H105:I105"/>
+    <mergeCell ref="H96:I96"/>
+    <mergeCell ref="H97:I97"/>
+    <mergeCell ref="H98:I98"/>
+    <mergeCell ref="H99:I99"/>
+    <mergeCell ref="H100:I100"/>
+    <mergeCell ref="H91:I91"/>
+    <mergeCell ref="H92:I92"/>
+    <mergeCell ref="H93:I93"/>
+    <mergeCell ref="H94:I94"/>
+    <mergeCell ref="H95:I95"/>
+    <mergeCell ref="H86:I86"/>
+    <mergeCell ref="H87:I87"/>
+    <mergeCell ref="H88:I88"/>
+    <mergeCell ref="H89:I89"/>
+    <mergeCell ref="H90:I90"/>
+    <mergeCell ref="H81:I81"/>
+    <mergeCell ref="H82:I82"/>
+    <mergeCell ref="H83:I83"/>
+    <mergeCell ref="H84:I84"/>
+    <mergeCell ref="H85:I85"/>
+    <mergeCell ref="H76:I76"/>
+    <mergeCell ref="H77:I77"/>
+    <mergeCell ref="H78:I78"/>
+    <mergeCell ref="H79:I79"/>
+    <mergeCell ref="H80:I80"/>
+    <mergeCell ref="H71:I71"/>
+    <mergeCell ref="H72:I72"/>
+    <mergeCell ref="H73:I73"/>
+    <mergeCell ref="H74:I74"/>
+    <mergeCell ref="H75:I75"/>
+    <mergeCell ref="H66:I66"/>
+    <mergeCell ref="H67:I67"/>
+    <mergeCell ref="H68:I68"/>
+    <mergeCell ref="H69:I69"/>
+    <mergeCell ref="H70:I70"/>
+    <mergeCell ref="H61:I61"/>
+    <mergeCell ref="H62:I62"/>
+    <mergeCell ref="H63:I63"/>
+    <mergeCell ref="H64:I64"/>
+    <mergeCell ref="H65:I65"/>
+    <mergeCell ref="H56:I56"/>
+    <mergeCell ref="H57:I57"/>
+    <mergeCell ref="H58:I58"/>
+    <mergeCell ref="H59:I59"/>
+    <mergeCell ref="H60:I60"/>
+    <mergeCell ref="H51:I51"/>
+    <mergeCell ref="H52:I52"/>
+    <mergeCell ref="H53:I53"/>
+    <mergeCell ref="H54:I54"/>
+    <mergeCell ref="H55:I55"/>
+    <mergeCell ref="H46:I46"/>
+    <mergeCell ref="H47:I47"/>
+    <mergeCell ref="H48:I48"/>
+    <mergeCell ref="H49:I49"/>
+    <mergeCell ref="H50:I50"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="H42:I42"/>
+    <mergeCell ref="H43:I43"/>
+    <mergeCell ref="H44:I44"/>
+    <mergeCell ref="H45:I45"/>
+    <mergeCell ref="H36:I36"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="A20:I20"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="H25:I25"/>
     <mergeCell ref="H15:I15"/>
     <mergeCell ref="H16:I16"/>
     <mergeCell ref="H17:I17"/>
@@ -6678,136 +6824,6 @@
     <mergeCell ref="H12:I12"/>
     <mergeCell ref="H13:I13"/>
     <mergeCell ref="H14:I14"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="A20:I20"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="H36:I36"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="H38:I38"/>
-    <mergeCell ref="H39:I39"/>
-    <mergeCell ref="H40:I40"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="H46:I46"/>
-    <mergeCell ref="H47:I47"/>
-    <mergeCell ref="H48:I48"/>
-    <mergeCell ref="H49:I49"/>
-    <mergeCell ref="H50:I50"/>
-    <mergeCell ref="H41:I41"/>
-    <mergeCell ref="H42:I42"/>
-    <mergeCell ref="H43:I43"/>
-    <mergeCell ref="H44:I44"/>
-    <mergeCell ref="H45:I45"/>
-    <mergeCell ref="H56:I56"/>
-    <mergeCell ref="H57:I57"/>
-    <mergeCell ref="H58:I58"/>
-    <mergeCell ref="H59:I59"/>
-    <mergeCell ref="H60:I60"/>
-    <mergeCell ref="H51:I51"/>
-    <mergeCell ref="H52:I52"/>
-    <mergeCell ref="H53:I53"/>
-    <mergeCell ref="H54:I54"/>
-    <mergeCell ref="H55:I55"/>
-    <mergeCell ref="H66:I66"/>
-    <mergeCell ref="H67:I67"/>
-    <mergeCell ref="H68:I68"/>
-    <mergeCell ref="H69:I69"/>
-    <mergeCell ref="H70:I70"/>
-    <mergeCell ref="H61:I61"/>
-    <mergeCell ref="H62:I62"/>
-    <mergeCell ref="H63:I63"/>
-    <mergeCell ref="H64:I64"/>
-    <mergeCell ref="H65:I65"/>
-    <mergeCell ref="H76:I76"/>
-    <mergeCell ref="H77:I77"/>
-    <mergeCell ref="H78:I78"/>
-    <mergeCell ref="H79:I79"/>
-    <mergeCell ref="H80:I80"/>
-    <mergeCell ref="H71:I71"/>
-    <mergeCell ref="H72:I72"/>
-    <mergeCell ref="H73:I73"/>
-    <mergeCell ref="H74:I74"/>
-    <mergeCell ref="H75:I75"/>
-    <mergeCell ref="H86:I86"/>
-    <mergeCell ref="H87:I87"/>
-    <mergeCell ref="H88:I88"/>
-    <mergeCell ref="H89:I89"/>
-    <mergeCell ref="H90:I90"/>
-    <mergeCell ref="H81:I81"/>
-    <mergeCell ref="H82:I82"/>
-    <mergeCell ref="H83:I83"/>
-    <mergeCell ref="H84:I84"/>
-    <mergeCell ref="H85:I85"/>
-    <mergeCell ref="H96:I96"/>
-    <mergeCell ref="H97:I97"/>
-    <mergeCell ref="H98:I98"/>
-    <mergeCell ref="H99:I99"/>
-    <mergeCell ref="H100:I100"/>
-    <mergeCell ref="H91:I91"/>
-    <mergeCell ref="H92:I92"/>
-    <mergeCell ref="H93:I93"/>
-    <mergeCell ref="H94:I94"/>
-    <mergeCell ref="H95:I95"/>
-    <mergeCell ref="H106:I106"/>
-    <mergeCell ref="H107:I107"/>
-    <mergeCell ref="H108:I108"/>
-    <mergeCell ref="H109:I109"/>
-    <mergeCell ref="H110:I110"/>
-    <mergeCell ref="H101:I101"/>
-    <mergeCell ref="H102:I102"/>
-    <mergeCell ref="H103:I103"/>
-    <mergeCell ref="H104:I104"/>
-    <mergeCell ref="H105:I105"/>
-    <mergeCell ref="H116:I116"/>
-    <mergeCell ref="H117:I117"/>
-    <mergeCell ref="H118:I118"/>
-    <mergeCell ref="H119:I119"/>
-    <mergeCell ref="H120:I120"/>
-    <mergeCell ref="H111:I111"/>
-    <mergeCell ref="H112:I112"/>
-    <mergeCell ref="H113:I113"/>
-    <mergeCell ref="H114:I114"/>
-    <mergeCell ref="H115:I115"/>
-    <mergeCell ref="H126:I126"/>
-    <mergeCell ref="H127:I127"/>
-    <mergeCell ref="H128:I128"/>
-    <mergeCell ref="H129:I129"/>
-    <mergeCell ref="H130:I130"/>
-    <mergeCell ref="H121:I121"/>
-    <mergeCell ref="H122:I122"/>
-    <mergeCell ref="H123:I123"/>
-    <mergeCell ref="H124:I124"/>
-    <mergeCell ref="H125:I125"/>
-    <mergeCell ref="H136:I136"/>
-    <mergeCell ref="H137:I137"/>
-    <mergeCell ref="H138:I138"/>
-    <mergeCell ref="H139:I139"/>
-    <mergeCell ref="H140:I140"/>
-    <mergeCell ref="H131:I131"/>
-    <mergeCell ref="H132:I132"/>
-    <mergeCell ref="H133:I133"/>
-    <mergeCell ref="H134:I134"/>
-    <mergeCell ref="H135:I135"/>
-    <mergeCell ref="H146:I146"/>
-    <mergeCell ref="H147:I147"/>
-    <mergeCell ref="H148:I148"/>
-    <mergeCell ref="H149:I149"/>
-    <mergeCell ref="H150:I150"/>
-    <mergeCell ref="H141:I141"/>
-    <mergeCell ref="H142:I142"/>
-    <mergeCell ref="H143:I143"/>
-    <mergeCell ref="H144:I144"/>
-    <mergeCell ref="H145:I145"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G1 G3:G19 G21:G992" xr:uid="{00000000-0002-0000-0000-000000000000}">

--- a/Requirments/Review.xlsx
+++ b/Requirments/Review.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ITI\QA\Online-Mobile-Store-WebSite\Requirments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE393F68-3D55-4E0C-B32D-F712BEBC45EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81E89E36-B68E-44B3-98AC-E47576FC9178}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="86">
   <si>
     <t>ID</t>
   </si>
@@ -197,12 +197,6 @@
   </si>
   <si>
     <t>CRS-SIQ_Cl_005</t>
-  </si>
-  <si>
-    <t>CRS-SIQ Document Reviewe</t>
-  </si>
-  <si>
-    <t>CRS Document Reviewe</t>
   </si>
   <si>
     <t>CRS_Client_006</t>
@@ -270,6 +264,21 @@
   </si>
   <si>
     <t>Document Version</t>
+  </si>
+  <si>
+    <t>8d3a823e3639a6f40b6cf7bbae1d2c7eddb17b8f</t>
+  </si>
+  <si>
+    <t>1971f83128b5ef307b3bcb8d265fd810d81a6946</t>
+  </si>
+  <si>
+    <t>SRS Document Review</t>
+  </si>
+  <si>
+    <t>CRS Document Review</t>
+  </si>
+  <si>
+    <t>CRS-SIQ Document Review</t>
   </si>
 </sst>
 </file>
@@ -531,14 +540,21 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -551,15 +567,8 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -785,8 +794,8 @@
   </sheetPr>
   <dimension ref="A1:AC992"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+    <sheetView tabSelected="1" topLeftCell="C21" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -800,7 +809,7 @@
     <col min="7" max="7" width="18.5703125" customWidth="1"/>
     <col min="8" max="8" width="34.140625" customWidth="1"/>
     <col min="9" max="9" width="25.7109375" customWidth="1"/>
-    <col min="11" max="11" width="22.7109375" customWidth="1"/>
+    <col min="11" max="11" width="34.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="36" customHeight="1" x14ac:dyDescent="0.4">
@@ -825,14 +834,14 @@
       <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="26" t="s">
-        <v>70</v>
-      </c>
-      <c r="I1" s="27"/>
-      <c r="J1" s="26" t="s">
-        <v>82</v>
-      </c>
-      <c r="K1" s="27"/>
+      <c r="H1" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="I1" s="32"/>
+      <c r="J1" s="31" t="s">
+        <v>80</v>
+      </c>
+      <c r="K1" s="32"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
@@ -853,19 +862,19 @@
       <c r="AC1" s="1"/>
     </row>
     <row r="2" spans="1:29" ht="36" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="36" t="s">
-        <v>59</v>
-      </c>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="37"/>
+      <c r="A2" s="27" t="s">
+        <v>85</v>
+      </c>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="28"/>
+      <c r="K2" s="28"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
@@ -907,10 +916,12 @@
       <c r="G3" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="34"/>
-      <c r="I3" s="35"/>
-      <c r="J3" s="38"/>
-      <c r="K3" s="38"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="K3" s="26"/>
     </row>
     <row r="4" spans="1:29" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
@@ -934,10 +945,12 @@
       <c r="G4" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="H4" s="34"/>
-      <c r="I4" s="35"/>
-      <c r="J4" s="38"/>
-      <c r="K4" s="38"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="30"/>
+      <c r="J4" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="K4" s="26"/>
     </row>
     <row r="5" spans="1:29" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
@@ -961,10 +974,12 @@
       <c r="G5" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="H5" s="34"/>
-      <c r="I5" s="35"/>
-      <c r="J5" s="38"/>
-      <c r="K5" s="38"/>
+      <c r="H5" s="29"/>
+      <c r="I5" s="30"/>
+      <c r="J5" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="K5" s="26"/>
     </row>
     <row r="6" spans="1:29" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
@@ -988,10 +1003,12 @@
       <c r="G6" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="H6" s="34"/>
-      <c r="I6" s="35"/>
-      <c r="J6" s="38"/>
-      <c r="K6" s="38"/>
+      <c r="H6" s="29"/>
+      <c r="I6" s="30"/>
+      <c r="J6" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="K6" s="26"/>
     </row>
     <row r="7" spans="1:29" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
@@ -1015,10 +1032,12 @@
       <c r="G7" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="H7" s="34"/>
-      <c r="I7" s="35"/>
-      <c r="J7" s="38"/>
-      <c r="K7" s="38"/>
+      <c r="H7" s="29"/>
+      <c r="I7" s="30"/>
+      <c r="J7" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="K7" s="26"/>
     </row>
     <row r="8" spans="1:29" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
@@ -1042,10 +1061,12 @@
       <c r="G8" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="H8" s="34"/>
-      <c r="I8" s="35"/>
-      <c r="J8" s="38"/>
-      <c r="K8" s="38"/>
+      <c r="H8" s="29"/>
+      <c r="I8" s="30"/>
+      <c r="J8" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="K8" s="26"/>
     </row>
     <row r="9" spans="1:29" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
@@ -1069,10 +1090,12 @@
       <c r="G9" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="H9" s="34"/>
-      <c r="I9" s="35"/>
-      <c r="J9" s="38"/>
-      <c r="K9" s="38"/>
+      <c r="H9" s="29"/>
+      <c r="I9" s="30"/>
+      <c r="J9" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="K9" s="26"/>
     </row>
     <row r="10" spans="1:29" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
@@ -1096,10 +1119,12 @@
       <c r="G10" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="H10" s="34"/>
-      <c r="I10" s="35"/>
-      <c r="J10" s="38"/>
-      <c r="K10" s="38"/>
+      <c r="H10" s="29"/>
+      <c r="I10" s="30"/>
+      <c r="J10" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="K10" s="26"/>
     </row>
     <row r="11" spans="1:29" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
@@ -1123,10 +1148,12 @@
       <c r="G11" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="H11" s="34"/>
-      <c r="I11" s="35"/>
-      <c r="J11" s="38"/>
-      <c r="K11" s="38"/>
+      <c r="H11" s="29"/>
+      <c r="I11" s="30"/>
+      <c r="J11" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="K11" s="26"/>
     </row>
     <row r="12" spans="1:29" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
@@ -1150,10 +1177,12 @@
       <c r="G12" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="H12" s="34"/>
-      <c r="I12" s="35"/>
-      <c r="J12" s="38"/>
-      <c r="K12" s="38"/>
+      <c r="H12" s="29"/>
+      <c r="I12" s="30"/>
+      <c r="J12" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="K12" s="26"/>
     </row>
     <row r="13" spans="1:29" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
@@ -1177,10 +1206,12 @@
       <c r="G13" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="H13" s="34"/>
-      <c r="I13" s="35"/>
-      <c r="J13" s="38"/>
-      <c r="K13" s="38"/>
+      <c r="H13" s="29"/>
+      <c r="I13" s="30"/>
+      <c r="J13" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="K13" s="26"/>
     </row>
     <row r="14" spans="1:29" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
@@ -1204,10 +1235,12 @@
       <c r="G14" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="H14" s="34"/>
-      <c r="I14" s="35"/>
-      <c r="J14" s="38"/>
-      <c r="K14" s="38"/>
+      <c r="H14" s="29"/>
+      <c r="I14" s="30"/>
+      <c r="J14" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="K14" s="26"/>
     </row>
     <row r="15" spans="1:29" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
@@ -1229,10 +1262,12 @@
       <c r="G15" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="H15" s="34"/>
-      <c r="I15" s="35"/>
-      <c r="J15" s="38"/>
-      <c r="K15" s="38"/>
+      <c r="H15" s="29"/>
+      <c r="I15" s="30"/>
+      <c r="J15" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="K15" s="26"/>
     </row>
     <row r="16" spans="1:29" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
@@ -1256,10 +1291,12 @@
       <c r="G16" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="H16" s="34"/>
-      <c r="I16" s="35"/>
-      <c r="J16" s="38"/>
-      <c r="K16" s="38"/>
+      <c r="H16" s="29"/>
+      <c r="I16" s="30"/>
+      <c r="J16" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="K16" s="26"/>
     </row>
     <row r="17" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
@@ -1283,10 +1320,12 @@
       <c r="G17" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="H17" s="34"/>
-      <c r="I17" s="35"/>
-      <c r="J17" s="38"/>
-      <c r="K17" s="38"/>
+      <c r="H17" s="29"/>
+      <c r="I17" s="30"/>
+      <c r="J17" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="K17" s="26"/>
     </row>
     <row r="18" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
@@ -1310,10 +1349,12 @@
       <c r="G18" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="H18" s="34"/>
-      <c r="I18" s="35"/>
-      <c r="J18" s="38"/>
-      <c r="K18" s="38"/>
+      <c r="H18" s="29"/>
+      <c r="I18" s="30"/>
+      <c r="J18" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="K18" s="26"/>
     </row>
     <row r="19" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A19" s="15" t="s">
@@ -1337,25 +1378,27 @@
       <c r="G19" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="H19" s="34"/>
-      <c r="I19" s="35"/>
-      <c r="J19" s="38"/>
-      <c r="K19" s="38"/>
+      <c r="H19" s="29"/>
+      <c r="I19" s="30"/>
+      <c r="J19" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="K19" s="26"/>
     </row>
     <row r="20" spans="1:11" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A20" s="30" t="s">
-        <v>60</v>
-      </c>
-      <c r="B20" s="31"/>
-      <c r="C20" s="31"/>
-      <c r="D20" s="31"/>
-      <c r="E20" s="31"/>
-      <c r="F20" s="31"/>
-      <c r="G20" s="31"/>
-      <c r="H20" s="31"/>
-      <c r="I20" s="32"/>
-      <c r="J20" s="38"/>
-      <c r="K20" s="38"/>
+      <c r="A20" s="33" t="s">
+        <v>84</v>
+      </c>
+      <c r="B20" s="34"/>
+      <c r="C20" s="34"/>
+      <c r="D20" s="34"/>
+      <c r="E20" s="34"/>
+      <c r="F20" s="34"/>
+      <c r="G20" s="34"/>
+      <c r="H20" s="34"/>
+      <c r="I20" s="34"/>
+      <c r="J20" s="34"/>
+      <c r="K20" s="35"/>
     </row>
     <row r="21" spans="1:11" s="16" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="13" t="s">
@@ -1365,26 +1408,28 @@
         <v>45756</v>
       </c>
       <c r="C21" s="18" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D21" s="13" t="s">
         <v>9</v>
       </c>
       <c r="E21" s="13" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F21" s="13" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G21" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="H21" s="33" t="s">
-        <v>74</v>
-      </c>
-      <c r="I21" s="29"/>
-      <c r="J21" s="38"/>
-      <c r="K21" s="38"/>
+      <c r="H21" s="36" t="s">
+        <v>72</v>
+      </c>
+      <c r="I21" s="37"/>
+      <c r="J21" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="K21" s="26"/>
     </row>
     <row r="22" spans="1:11" s="19" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A22" s="20" t="s">
@@ -1394,24 +1439,26 @@
         <v>45756</v>
       </c>
       <c r="C22" s="22" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D22" s="20" t="s">
         <v>9</v>
       </c>
       <c r="E22" s="20" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F22" s="20" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G22" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="H22" s="28"/>
-      <c r="I22" s="29"/>
-      <c r="J22" s="38"/>
-      <c r="K22" s="38"/>
+      <c r="H22" s="38"/>
+      <c r="I22" s="37"/>
+      <c r="J22" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="K22" s="26"/>
     </row>
     <row r="23" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A23" s="13" t="s">
@@ -1421,26 +1468,28 @@
         <v>45756</v>
       </c>
       <c r="C23" s="18" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D23" s="13" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E23" s="13" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F23" s="13" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G23" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="H23" s="28" t="s">
-        <v>75</v>
-      </c>
-      <c r="I23" s="29"/>
-      <c r="J23" s="38"/>
-      <c r="K23" s="38"/>
+      <c r="H23" s="38" t="s">
+        <v>73</v>
+      </c>
+      <c r="I23" s="37"/>
+      <c r="J23" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="K23" s="26"/>
     </row>
     <row r="24" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A24" s="13" t="s">
@@ -1450,95 +1499,101 @@
         <v>45756</v>
       </c>
       <c r="C24" s="18" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D24" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="E24" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="F24" s="13" t="s">
         <v>71</v>
-      </c>
-      <c r="E24" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="F24" s="13" t="s">
-        <v>73</v>
       </c>
       <c r="G24" s="15" t="s">
         <v>12</v>
       </c>
       <c r="H24" s="24" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="I24" s="25"/>
-      <c r="J24" s="38"/>
-      <c r="K24" s="38"/>
+      <c r="J24" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="K24" s="26"/>
     </row>
     <row r="25" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A25" s="13" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B25" s="17">
         <v>45756</v>
       </c>
       <c r="C25" s="18" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D25" s="13" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E25" s="13" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F25" s="13" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G25" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="H25" s="28" t="s">
-        <v>78</v>
-      </c>
-      <c r="I25" s="29"/>
-      <c r="J25" s="38"/>
-      <c r="K25" s="38"/>
+      <c r="H25" s="38" t="s">
+        <v>76</v>
+      </c>
+      <c r="I25" s="37"/>
+      <c r="J25" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="K25" s="26"/>
     </row>
     <row r="26" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A26" s="13" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B26" s="17">
         <v>45756</v>
       </c>
       <c r="C26" s="18" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D26" s="13" t="s">
         <v>56</v>
       </c>
       <c r="E26" s="13" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F26" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="G26" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="H26" s="28"/>
-      <c r="I26" s="29"/>
-      <c r="J26" s="38"/>
-      <c r="K26" s="38"/>
-    </row>
-    <row r="27" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A27" s="13"/>
-      <c r="B27" s="13"/>
-      <c r="C27" s="13"/>
-      <c r="D27" s="13"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="13"/>
-      <c r="G27" s="15"/>
-      <c r="H27" s="28"/>
-      <c r="I27" s="29"/>
-      <c r="J27" s="38"/>
-      <c r="K27" s="38"/>
+        <v>79</v>
+      </c>
+      <c r="G26" s="15"/>
+      <c r="H26" s="38"/>
+      <c r="I26" s="37"/>
+      <c r="J26" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="K26" s="26"/>
+    </row>
+    <row r="27" spans="1:11" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A27" s="33" t="s">
+        <v>83</v>
+      </c>
+      <c r="B27" s="34"/>
+      <c r="C27" s="34"/>
+      <c r="D27" s="34"/>
+      <c r="E27" s="34"/>
+      <c r="F27" s="34"/>
+      <c r="G27" s="34"/>
+      <c r="H27" s="34"/>
+      <c r="I27" s="34"/>
+      <c r="J27" s="34"/>
+      <c r="K27" s="35"/>
     </row>
     <row r="28" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A28" s="13"/>
@@ -1548,10 +1603,10 @@
       <c r="E28" s="13"/>
       <c r="F28" s="13"/>
       <c r="G28" s="15"/>
-      <c r="H28" s="28"/>
-      <c r="I28" s="29"/>
-      <c r="J28" s="38"/>
-      <c r="K28" s="38"/>
+      <c r="H28" s="38"/>
+      <c r="I28" s="37"/>
+      <c r="J28" s="26"/>
+      <c r="K28" s="26"/>
     </row>
     <row r="29" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A29" s="13"/>
@@ -1561,10 +1616,10 @@
       <c r="E29" s="13"/>
       <c r="F29" s="13"/>
       <c r="G29" s="15"/>
-      <c r="H29" s="28"/>
-      <c r="I29" s="29"/>
-      <c r="J29" s="38"/>
-      <c r="K29" s="38"/>
+      <c r="H29" s="38"/>
+      <c r="I29" s="37"/>
+      <c r="J29" s="26"/>
+      <c r="K29" s="26"/>
     </row>
     <row r="30" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A30" s="13"/>
@@ -1574,10 +1629,10 @@
       <c r="E30" s="13"/>
       <c r="F30" s="13"/>
       <c r="G30" s="15"/>
-      <c r="H30" s="28"/>
-      <c r="I30" s="29"/>
-      <c r="J30" s="38"/>
-      <c r="K30" s="38"/>
+      <c r="H30" s="38"/>
+      <c r="I30" s="37"/>
+      <c r="J30" s="26"/>
+      <c r="K30" s="26"/>
     </row>
     <row r="31" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A31" s="13"/>
@@ -1587,10 +1642,10 @@
       <c r="E31" s="13"/>
       <c r="F31" s="13"/>
       <c r="G31" s="15"/>
-      <c r="H31" s="28"/>
-      <c r="I31" s="29"/>
-      <c r="J31" s="38"/>
-      <c r="K31" s="38"/>
+      <c r="H31" s="38"/>
+      <c r="I31" s="37"/>
+      <c r="J31" s="26"/>
+      <c r="K31" s="26"/>
     </row>
     <row r="32" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A32" s="13"/>
@@ -1600,10 +1655,10 @@
       <c r="E32" s="13"/>
       <c r="F32" s="13"/>
       <c r="G32" s="15"/>
-      <c r="H32" s="28"/>
-      <c r="I32" s="29"/>
-      <c r="J32" s="38"/>
-      <c r="K32" s="38"/>
+      <c r="H32" s="38"/>
+      <c r="I32" s="37"/>
+      <c r="J32" s="26"/>
+      <c r="K32" s="26"/>
     </row>
     <row r="33" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A33" s="13"/>
@@ -1613,10 +1668,10 @@
       <c r="E33" s="13"/>
       <c r="F33" s="13"/>
       <c r="G33" s="15"/>
-      <c r="H33" s="28"/>
-      <c r="I33" s="29"/>
-      <c r="J33" s="38"/>
-      <c r="K33" s="38"/>
+      <c r="H33" s="38"/>
+      <c r="I33" s="37"/>
+      <c r="J33" s="26"/>
+      <c r="K33" s="26"/>
     </row>
     <row r="34" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A34" s="13"/>
@@ -1626,10 +1681,10 @@
       <c r="E34" s="13"/>
       <c r="F34" s="13"/>
       <c r="G34" s="15"/>
-      <c r="H34" s="28"/>
-      <c r="I34" s="29"/>
-      <c r="J34" s="38"/>
-      <c r="K34" s="38"/>
+      <c r="H34" s="38"/>
+      <c r="I34" s="37"/>
+      <c r="J34" s="26"/>
+      <c r="K34" s="26"/>
     </row>
     <row r="35" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A35" s="13"/>
@@ -1639,10 +1694,10 @@
       <c r="E35" s="13"/>
       <c r="F35" s="13"/>
       <c r="G35" s="15"/>
-      <c r="H35" s="28"/>
-      <c r="I35" s="29"/>
-      <c r="J35" s="38"/>
-      <c r="K35" s="38"/>
+      <c r="H35" s="38"/>
+      <c r="I35" s="37"/>
+      <c r="J35" s="26"/>
+      <c r="K35" s="26"/>
     </row>
     <row r="36" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A36" s="13"/>
@@ -1652,10 +1707,10 @@
       <c r="E36" s="13"/>
       <c r="F36" s="13"/>
       <c r="G36" s="15"/>
-      <c r="H36" s="28"/>
-      <c r="I36" s="29"/>
-      <c r="J36" s="38"/>
-      <c r="K36" s="38"/>
+      <c r="H36" s="38"/>
+      <c r="I36" s="37"/>
+      <c r="J36" s="26"/>
+      <c r="K36" s="26"/>
     </row>
     <row r="37" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A37" s="13"/>
@@ -1665,10 +1720,10 @@
       <c r="E37" s="13"/>
       <c r="F37" s="13"/>
       <c r="G37" s="15"/>
-      <c r="H37" s="28"/>
-      <c r="I37" s="29"/>
-      <c r="J37" s="38"/>
-      <c r="K37" s="38"/>
+      <c r="H37" s="38"/>
+      <c r="I37" s="37"/>
+      <c r="J37" s="26"/>
+      <c r="K37" s="26"/>
     </row>
     <row r="38" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A38" s="13"/>
@@ -1678,10 +1733,10 @@
       <c r="E38" s="13"/>
       <c r="F38" s="13"/>
       <c r="G38" s="15"/>
-      <c r="H38" s="28"/>
-      <c r="I38" s="29"/>
-      <c r="J38" s="38"/>
-      <c r="K38" s="38"/>
+      <c r="H38" s="38"/>
+      <c r="I38" s="37"/>
+      <c r="J38" s="26"/>
+      <c r="K38" s="26"/>
     </row>
     <row r="39" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A39" s="13"/>
@@ -1691,10 +1746,10 @@
       <c r="E39" s="13"/>
       <c r="F39" s="13"/>
       <c r="G39" s="15"/>
-      <c r="H39" s="28"/>
-      <c r="I39" s="29"/>
-      <c r="J39" s="38"/>
-      <c r="K39" s="38"/>
+      <c r="H39" s="38"/>
+      <c r="I39" s="37"/>
+      <c r="J39" s="26"/>
+      <c r="K39" s="26"/>
     </row>
     <row r="40" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A40" s="13"/>
@@ -1704,10 +1759,10 @@
       <c r="E40" s="13"/>
       <c r="F40" s="13"/>
       <c r="G40" s="15"/>
-      <c r="H40" s="28"/>
-      <c r="I40" s="29"/>
-      <c r="J40" s="38"/>
-      <c r="K40" s="38"/>
+      <c r="H40" s="38"/>
+      <c r="I40" s="37"/>
+      <c r="J40" s="26"/>
+      <c r="K40" s="26"/>
     </row>
     <row r="41" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A41" s="13"/>
@@ -1717,10 +1772,10 @@
       <c r="E41" s="13"/>
       <c r="F41" s="13"/>
       <c r="G41" s="15"/>
-      <c r="H41" s="28"/>
-      <c r="I41" s="29"/>
-      <c r="J41" s="38"/>
-      <c r="K41" s="38"/>
+      <c r="H41" s="38"/>
+      <c r="I41" s="37"/>
+      <c r="J41" s="26"/>
+      <c r="K41" s="26"/>
     </row>
     <row r="42" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A42" s="13"/>
@@ -1730,10 +1785,10 @@
       <c r="E42" s="13"/>
       <c r="F42" s="13"/>
       <c r="G42" s="15"/>
-      <c r="H42" s="28"/>
-      <c r="I42" s="29"/>
-      <c r="J42" s="38"/>
-      <c r="K42" s="38"/>
+      <c r="H42" s="38"/>
+      <c r="I42" s="37"/>
+      <c r="J42" s="26"/>
+      <c r="K42" s="26"/>
     </row>
     <row r="43" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A43" s="13"/>
@@ -1743,10 +1798,10 @@
       <c r="E43" s="13"/>
       <c r="F43" s="13"/>
       <c r="G43" s="15"/>
-      <c r="H43" s="28"/>
-      <c r="I43" s="29"/>
-      <c r="J43" s="38"/>
-      <c r="K43" s="38"/>
+      <c r="H43" s="38"/>
+      <c r="I43" s="37"/>
+      <c r="J43" s="26"/>
+      <c r="K43" s="26"/>
     </row>
     <row r="44" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A44" s="13"/>
@@ -1756,10 +1811,10 @@
       <c r="E44" s="13"/>
       <c r="F44" s="13"/>
       <c r="G44" s="15"/>
-      <c r="H44" s="28"/>
-      <c r="I44" s="29"/>
-      <c r="J44" s="38"/>
-      <c r="K44" s="38"/>
+      <c r="H44" s="38"/>
+      <c r="I44" s="37"/>
+      <c r="J44" s="26"/>
+      <c r="K44" s="26"/>
     </row>
     <row r="45" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A45" s="13"/>
@@ -1769,10 +1824,10 @@
       <c r="E45" s="13"/>
       <c r="F45" s="13"/>
       <c r="G45" s="15"/>
-      <c r="H45" s="28"/>
-      <c r="I45" s="29"/>
-      <c r="J45" s="38"/>
-      <c r="K45" s="38"/>
+      <c r="H45" s="38"/>
+      <c r="I45" s="37"/>
+      <c r="J45" s="26"/>
+      <c r="K45" s="26"/>
     </row>
     <row r="46" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A46" s="13"/>
@@ -1782,10 +1837,10 @@
       <c r="E46" s="13"/>
       <c r="F46" s="13"/>
       <c r="G46" s="15"/>
-      <c r="H46" s="28"/>
-      <c r="I46" s="29"/>
-      <c r="J46" s="38"/>
-      <c r="K46" s="38"/>
+      <c r="H46" s="38"/>
+      <c r="I46" s="37"/>
+      <c r="J46" s="26"/>
+      <c r="K46" s="26"/>
     </row>
     <row r="47" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A47" s="13"/>
@@ -1795,10 +1850,10 @@
       <c r="E47" s="13"/>
       <c r="F47" s="13"/>
       <c r="G47" s="15"/>
-      <c r="H47" s="28"/>
-      <c r="I47" s="29"/>
-      <c r="J47" s="38"/>
-      <c r="K47" s="38"/>
+      <c r="H47" s="38"/>
+      <c r="I47" s="37"/>
+      <c r="J47" s="26"/>
+      <c r="K47" s="26"/>
     </row>
     <row r="48" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A48" s="13"/>
@@ -1808,10 +1863,10 @@
       <c r="E48" s="13"/>
       <c r="F48" s="13"/>
       <c r="G48" s="15"/>
-      <c r="H48" s="28"/>
-      <c r="I48" s="29"/>
-      <c r="J48" s="38"/>
-      <c r="K48" s="38"/>
+      <c r="H48" s="38"/>
+      <c r="I48" s="37"/>
+      <c r="J48" s="26"/>
+      <c r="K48" s="26"/>
     </row>
     <row r="49" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A49" s="13"/>
@@ -1821,10 +1876,10 @@
       <c r="E49" s="13"/>
       <c r="F49" s="13"/>
       <c r="G49" s="15"/>
-      <c r="H49" s="28"/>
-      <c r="I49" s="29"/>
-      <c r="J49" s="38"/>
-      <c r="K49" s="38"/>
+      <c r="H49" s="38"/>
+      <c r="I49" s="37"/>
+      <c r="J49" s="26"/>
+      <c r="K49" s="26"/>
     </row>
     <row r="50" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A50" s="13"/>
@@ -1834,10 +1889,10 @@
       <c r="E50" s="13"/>
       <c r="F50" s="13"/>
       <c r="G50" s="15"/>
-      <c r="H50" s="28"/>
-      <c r="I50" s="29"/>
-      <c r="J50" s="38"/>
-      <c r="K50" s="38"/>
+      <c r="H50" s="38"/>
+      <c r="I50" s="37"/>
+      <c r="J50" s="26"/>
+      <c r="K50" s="26"/>
     </row>
     <row r="51" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A51" s="13"/>
@@ -1847,10 +1902,10 @@
       <c r="E51" s="13"/>
       <c r="F51" s="13"/>
       <c r="G51" s="15"/>
-      <c r="H51" s="28"/>
-      <c r="I51" s="29"/>
-      <c r="J51" s="38"/>
-      <c r="K51" s="38"/>
+      <c r="H51" s="38"/>
+      <c r="I51" s="37"/>
+      <c r="J51" s="26"/>
+      <c r="K51" s="26"/>
     </row>
     <row r="52" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A52" s="13"/>
@@ -1860,10 +1915,10 @@
       <c r="E52" s="13"/>
       <c r="F52" s="13"/>
       <c r="G52" s="15"/>
-      <c r="H52" s="28"/>
-      <c r="I52" s="29"/>
-      <c r="J52" s="38"/>
-      <c r="K52" s="38"/>
+      <c r="H52" s="38"/>
+      <c r="I52" s="37"/>
+      <c r="J52" s="26"/>
+      <c r="K52" s="26"/>
     </row>
     <row r="53" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A53" s="13"/>
@@ -1873,10 +1928,10 @@
       <c r="E53" s="13"/>
       <c r="F53" s="13"/>
       <c r="G53" s="15"/>
-      <c r="H53" s="28"/>
-      <c r="I53" s="29"/>
-      <c r="J53" s="38"/>
-      <c r="K53" s="38"/>
+      <c r="H53" s="38"/>
+      <c r="I53" s="37"/>
+      <c r="J53" s="26"/>
+      <c r="K53" s="26"/>
     </row>
     <row r="54" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A54" s="13"/>
@@ -1886,10 +1941,10 @@
       <c r="E54" s="13"/>
       <c r="F54" s="13"/>
       <c r="G54" s="15"/>
-      <c r="H54" s="28"/>
-      <c r="I54" s="29"/>
-      <c r="J54" s="38"/>
-      <c r="K54" s="38"/>
+      <c r="H54" s="38"/>
+      <c r="I54" s="37"/>
+      <c r="J54" s="26"/>
+      <c r="K54" s="26"/>
     </row>
     <row r="55" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A55" s="13"/>
@@ -1899,10 +1954,10 @@
       <c r="E55" s="13"/>
       <c r="F55" s="13"/>
       <c r="G55" s="15"/>
-      <c r="H55" s="28"/>
-      <c r="I55" s="29"/>
-      <c r="J55" s="38"/>
-      <c r="K55" s="38"/>
+      <c r="H55" s="38"/>
+      <c r="I55" s="37"/>
+      <c r="J55" s="26"/>
+      <c r="K55" s="26"/>
     </row>
     <row r="56" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A56" s="13"/>
@@ -1912,10 +1967,10 @@
       <c r="E56" s="13"/>
       <c r="F56" s="13"/>
       <c r="G56" s="15"/>
-      <c r="H56" s="28"/>
-      <c r="I56" s="29"/>
-      <c r="J56" s="38"/>
-      <c r="K56" s="38"/>
+      <c r="H56" s="38"/>
+      <c r="I56" s="37"/>
+      <c r="J56" s="26"/>
+      <c r="K56" s="26"/>
     </row>
     <row r="57" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A57" s="13"/>
@@ -1925,10 +1980,10 @@
       <c r="E57" s="13"/>
       <c r="F57" s="13"/>
       <c r="G57" s="15"/>
-      <c r="H57" s="28"/>
-      <c r="I57" s="29"/>
-      <c r="J57" s="38"/>
-      <c r="K57" s="38"/>
+      <c r="H57" s="38"/>
+      <c r="I57" s="37"/>
+      <c r="J57" s="26"/>
+      <c r="K57" s="26"/>
     </row>
     <row r="58" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A58" s="13"/>
@@ -1938,10 +1993,10 @@
       <c r="E58" s="13"/>
       <c r="F58" s="13"/>
       <c r="G58" s="15"/>
-      <c r="H58" s="28"/>
-      <c r="I58" s="29"/>
-      <c r="J58" s="38"/>
-      <c r="K58" s="38"/>
+      <c r="H58" s="38"/>
+      <c r="I58" s="37"/>
+      <c r="J58" s="26"/>
+      <c r="K58" s="26"/>
     </row>
     <row r="59" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A59" s="13"/>
@@ -1951,10 +2006,10 @@
       <c r="E59" s="13"/>
       <c r="F59" s="13"/>
       <c r="G59" s="15"/>
-      <c r="H59" s="28"/>
-      <c r="I59" s="29"/>
-      <c r="J59" s="38"/>
-      <c r="K59" s="38"/>
+      <c r="H59" s="38"/>
+      <c r="I59" s="37"/>
+      <c r="J59" s="26"/>
+      <c r="K59" s="26"/>
     </row>
     <row r="60" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A60" s="13"/>
@@ -1964,10 +2019,10 @@
       <c r="E60" s="13"/>
       <c r="F60" s="13"/>
       <c r="G60" s="15"/>
-      <c r="H60" s="28"/>
-      <c r="I60" s="29"/>
-      <c r="J60" s="38"/>
-      <c r="K60" s="38"/>
+      <c r="H60" s="38"/>
+      <c r="I60" s="37"/>
+      <c r="J60" s="26"/>
+      <c r="K60" s="26"/>
     </row>
     <row r="61" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A61" s="13"/>
@@ -1977,10 +2032,10 @@
       <c r="E61" s="13"/>
       <c r="F61" s="13"/>
       <c r="G61" s="15"/>
-      <c r="H61" s="28"/>
-      <c r="I61" s="29"/>
-      <c r="J61" s="38"/>
-      <c r="K61" s="38"/>
+      <c r="H61" s="38"/>
+      <c r="I61" s="37"/>
+      <c r="J61" s="26"/>
+      <c r="K61" s="26"/>
     </row>
     <row r="62" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A62" s="13"/>
@@ -1990,10 +2045,10 @@
       <c r="E62" s="13"/>
       <c r="F62" s="13"/>
       <c r="G62" s="15"/>
-      <c r="H62" s="28"/>
-      <c r="I62" s="29"/>
-      <c r="J62" s="38"/>
-      <c r="K62" s="38"/>
+      <c r="H62" s="38"/>
+      <c r="I62" s="37"/>
+      <c r="J62" s="26"/>
+      <c r="K62" s="26"/>
     </row>
     <row r="63" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A63" s="13"/>
@@ -2003,10 +2058,10 @@
       <c r="E63" s="13"/>
       <c r="F63" s="13"/>
       <c r="G63" s="15"/>
-      <c r="H63" s="28"/>
-      <c r="I63" s="29"/>
-      <c r="J63" s="38"/>
-      <c r="K63" s="38"/>
+      <c r="H63" s="38"/>
+      <c r="I63" s="37"/>
+      <c r="J63" s="26"/>
+      <c r="K63" s="26"/>
     </row>
     <row r="64" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A64" s="13"/>
@@ -2016,10 +2071,10 @@
       <c r="E64" s="13"/>
       <c r="F64" s="13"/>
       <c r="G64" s="15"/>
-      <c r="H64" s="28"/>
-      <c r="I64" s="29"/>
-      <c r="J64" s="38"/>
-      <c r="K64" s="38"/>
+      <c r="H64" s="38"/>
+      <c r="I64" s="37"/>
+      <c r="J64" s="26"/>
+      <c r="K64" s="26"/>
     </row>
     <row r="65" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A65" s="13"/>
@@ -2029,10 +2084,10 @@
       <c r="E65" s="13"/>
       <c r="F65" s="13"/>
       <c r="G65" s="15"/>
-      <c r="H65" s="28"/>
-      <c r="I65" s="29"/>
-      <c r="J65" s="38"/>
-      <c r="K65" s="38"/>
+      <c r="H65" s="38"/>
+      <c r="I65" s="37"/>
+      <c r="J65" s="26"/>
+      <c r="K65" s="26"/>
     </row>
     <row r="66" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A66" s="13"/>
@@ -2042,10 +2097,10 @@
       <c r="E66" s="13"/>
       <c r="F66" s="13"/>
       <c r="G66" s="15"/>
-      <c r="H66" s="28"/>
-      <c r="I66" s="29"/>
-      <c r="J66" s="38"/>
-      <c r="K66" s="38"/>
+      <c r="H66" s="38"/>
+      <c r="I66" s="37"/>
+      <c r="J66" s="26"/>
+      <c r="K66" s="26"/>
     </row>
     <row r="67" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A67" s="13"/>
@@ -2055,10 +2110,10 @@
       <c r="E67" s="13"/>
       <c r="F67" s="13"/>
       <c r="G67" s="15"/>
-      <c r="H67" s="28"/>
-      <c r="I67" s="29"/>
-      <c r="J67" s="38"/>
-      <c r="K67" s="38"/>
+      <c r="H67" s="38"/>
+      <c r="I67" s="37"/>
+      <c r="J67" s="26"/>
+      <c r="K67" s="26"/>
     </row>
     <row r="68" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A68" s="13"/>
@@ -2068,10 +2123,10 @@
       <c r="E68" s="13"/>
       <c r="F68" s="13"/>
       <c r="G68" s="15"/>
-      <c r="H68" s="28"/>
-      <c r="I68" s="29"/>
-      <c r="J68" s="38"/>
-      <c r="K68" s="38"/>
+      <c r="H68" s="38"/>
+      <c r="I68" s="37"/>
+      <c r="J68" s="26"/>
+      <c r="K68" s="26"/>
     </row>
     <row r="69" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A69" s="13"/>
@@ -2081,10 +2136,10 @@
       <c r="E69" s="13"/>
       <c r="F69" s="13"/>
       <c r="G69" s="15"/>
-      <c r="H69" s="28"/>
-      <c r="I69" s="29"/>
-      <c r="J69" s="38"/>
-      <c r="K69" s="38"/>
+      <c r="H69" s="38"/>
+      <c r="I69" s="37"/>
+      <c r="J69" s="26"/>
+      <c r="K69" s="26"/>
     </row>
     <row r="70" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A70" s="13"/>
@@ -2094,10 +2149,10 @@
       <c r="E70" s="13"/>
       <c r="F70" s="13"/>
       <c r="G70" s="15"/>
-      <c r="H70" s="28"/>
-      <c r="I70" s="29"/>
-      <c r="J70" s="38"/>
-      <c r="K70" s="38"/>
+      <c r="H70" s="38"/>
+      <c r="I70" s="37"/>
+      <c r="J70" s="26"/>
+      <c r="K70" s="26"/>
     </row>
     <row r="71" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A71" s="13"/>
@@ -2107,10 +2162,10 @@
       <c r="E71" s="13"/>
       <c r="F71" s="13"/>
       <c r="G71" s="15"/>
-      <c r="H71" s="28"/>
-      <c r="I71" s="29"/>
-      <c r="J71" s="38"/>
-      <c r="K71" s="38"/>
+      <c r="H71" s="38"/>
+      <c r="I71" s="37"/>
+      <c r="J71" s="26"/>
+      <c r="K71" s="26"/>
     </row>
     <row r="72" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A72" s="13"/>
@@ -2120,10 +2175,10 @@
       <c r="E72" s="13"/>
       <c r="F72" s="13"/>
       <c r="G72" s="15"/>
-      <c r="H72" s="28"/>
-      <c r="I72" s="29"/>
-      <c r="J72" s="38"/>
-      <c r="K72" s="38"/>
+      <c r="H72" s="38"/>
+      <c r="I72" s="37"/>
+      <c r="J72" s="26"/>
+      <c r="K72" s="26"/>
     </row>
     <row r="73" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A73" s="13"/>
@@ -2133,10 +2188,10 @@
       <c r="E73" s="13"/>
       <c r="F73" s="13"/>
       <c r="G73" s="15"/>
-      <c r="H73" s="28"/>
-      <c r="I73" s="29"/>
-      <c r="J73" s="38"/>
-      <c r="K73" s="38"/>
+      <c r="H73" s="38"/>
+      <c r="I73" s="37"/>
+      <c r="J73" s="26"/>
+      <c r="K73" s="26"/>
     </row>
     <row r="74" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A74" s="13"/>
@@ -2146,10 +2201,10 @@
       <c r="E74" s="13"/>
       <c r="F74" s="13"/>
       <c r="G74" s="15"/>
-      <c r="H74" s="28"/>
-      <c r="I74" s="29"/>
-      <c r="J74" s="38"/>
-      <c r="K74" s="38"/>
+      <c r="H74" s="38"/>
+      <c r="I74" s="37"/>
+      <c r="J74" s="26"/>
+      <c r="K74" s="26"/>
     </row>
     <row r="75" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A75" s="13"/>
@@ -2159,10 +2214,10 @@
       <c r="E75" s="13"/>
       <c r="F75" s="13"/>
       <c r="G75" s="15"/>
-      <c r="H75" s="28"/>
-      <c r="I75" s="29"/>
-      <c r="J75" s="38"/>
-      <c r="K75" s="38"/>
+      <c r="H75" s="38"/>
+      <c r="I75" s="37"/>
+      <c r="J75" s="26"/>
+      <c r="K75" s="26"/>
     </row>
     <row r="76" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A76" s="13"/>
@@ -2172,10 +2227,10 @@
       <c r="E76" s="13"/>
       <c r="F76" s="13"/>
       <c r="G76" s="15"/>
-      <c r="H76" s="28"/>
-      <c r="I76" s="29"/>
-      <c r="J76" s="38"/>
-      <c r="K76" s="38"/>
+      <c r="H76" s="38"/>
+      <c r="I76" s="37"/>
+      <c r="J76" s="26"/>
+      <c r="K76" s="26"/>
     </row>
     <row r="77" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A77" s="13"/>
@@ -2185,10 +2240,10 @@
       <c r="E77" s="13"/>
       <c r="F77" s="13"/>
       <c r="G77" s="15"/>
-      <c r="H77" s="28"/>
-      <c r="I77" s="29"/>
-      <c r="J77" s="38"/>
-      <c r="K77" s="38"/>
+      <c r="H77" s="38"/>
+      <c r="I77" s="37"/>
+      <c r="J77" s="26"/>
+      <c r="K77" s="26"/>
     </row>
     <row r="78" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A78" s="13"/>
@@ -2198,10 +2253,10 @@
       <c r="E78" s="13"/>
       <c r="F78" s="13"/>
       <c r="G78" s="15"/>
-      <c r="H78" s="28"/>
-      <c r="I78" s="29"/>
-      <c r="J78" s="38"/>
-      <c r="K78" s="38"/>
+      <c r="H78" s="38"/>
+      <c r="I78" s="37"/>
+      <c r="J78" s="26"/>
+      <c r="K78" s="26"/>
     </row>
     <row r="79" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A79" s="13"/>
@@ -2211,10 +2266,10 @@
       <c r="E79" s="13"/>
       <c r="F79" s="13"/>
       <c r="G79" s="15"/>
-      <c r="H79" s="28"/>
-      <c r="I79" s="29"/>
-      <c r="J79" s="38"/>
-      <c r="K79" s="38"/>
+      <c r="H79" s="38"/>
+      <c r="I79" s="37"/>
+      <c r="J79" s="26"/>
+      <c r="K79" s="26"/>
     </row>
     <row r="80" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A80" s="13"/>
@@ -2224,10 +2279,10 @@
       <c r="E80" s="13"/>
       <c r="F80" s="13"/>
       <c r="G80" s="15"/>
-      <c r="H80" s="28"/>
-      <c r="I80" s="29"/>
-      <c r="J80" s="38"/>
-      <c r="K80" s="38"/>
+      <c r="H80" s="38"/>
+      <c r="I80" s="37"/>
+      <c r="J80" s="26"/>
+      <c r="K80" s="26"/>
     </row>
     <row r="81" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A81" s="13"/>
@@ -2237,10 +2292,10 @@
       <c r="E81" s="13"/>
       <c r="F81" s="13"/>
       <c r="G81" s="15"/>
-      <c r="H81" s="28"/>
-      <c r="I81" s="29"/>
-      <c r="J81" s="38"/>
-      <c r="K81" s="38"/>
+      <c r="H81" s="38"/>
+      <c r="I81" s="37"/>
+      <c r="J81" s="26"/>
+      <c r="K81" s="26"/>
     </row>
     <row r="82" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A82" s="13"/>
@@ -2250,10 +2305,10 @@
       <c r="E82" s="13"/>
       <c r="F82" s="13"/>
       <c r="G82" s="15"/>
-      <c r="H82" s="28"/>
-      <c r="I82" s="29"/>
-      <c r="J82" s="38"/>
-      <c r="K82" s="38"/>
+      <c r="H82" s="38"/>
+      <c r="I82" s="37"/>
+      <c r="J82" s="26"/>
+      <c r="K82" s="26"/>
     </row>
     <row r="83" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A83" s="13"/>
@@ -2263,10 +2318,10 @@
       <c r="E83" s="13"/>
       <c r="F83" s="13"/>
       <c r="G83" s="15"/>
-      <c r="H83" s="28"/>
-      <c r="I83" s="29"/>
-      <c r="J83" s="38"/>
-      <c r="K83" s="38"/>
+      <c r="H83" s="38"/>
+      <c r="I83" s="37"/>
+      <c r="J83" s="26"/>
+      <c r="K83" s="26"/>
     </row>
     <row r="84" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A84" s="13"/>
@@ -2276,10 +2331,10 @@
       <c r="E84" s="13"/>
       <c r="F84" s="13"/>
       <c r="G84" s="15"/>
-      <c r="H84" s="28"/>
-      <c r="I84" s="29"/>
-      <c r="J84" s="38"/>
-      <c r="K84" s="38"/>
+      <c r="H84" s="38"/>
+      <c r="I84" s="37"/>
+      <c r="J84" s="26"/>
+      <c r="K84" s="26"/>
     </row>
     <row r="85" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A85" s="13"/>
@@ -2289,10 +2344,10 @@
       <c r="E85" s="13"/>
       <c r="F85" s="13"/>
       <c r="G85" s="15"/>
-      <c r="H85" s="28"/>
-      <c r="I85" s="29"/>
-      <c r="J85" s="38"/>
-      <c r="K85" s="38"/>
+      <c r="H85" s="38"/>
+      <c r="I85" s="37"/>
+      <c r="J85" s="26"/>
+      <c r="K85" s="26"/>
     </row>
     <row r="86" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A86" s="13"/>
@@ -2302,10 +2357,10 @@
       <c r="E86" s="13"/>
       <c r="F86" s="13"/>
       <c r="G86" s="15"/>
-      <c r="H86" s="28"/>
-      <c r="I86" s="29"/>
-      <c r="J86" s="38"/>
-      <c r="K86" s="38"/>
+      <c r="H86" s="38"/>
+      <c r="I86" s="37"/>
+      <c r="J86" s="26"/>
+      <c r="K86" s="26"/>
     </row>
     <row r="87" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A87" s="13"/>
@@ -2315,10 +2370,10 @@
       <c r="E87" s="13"/>
       <c r="F87" s="13"/>
       <c r="G87" s="15"/>
-      <c r="H87" s="28"/>
-      <c r="I87" s="29"/>
-      <c r="J87" s="38"/>
-      <c r="K87" s="38"/>
+      <c r="H87" s="38"/>
+      <c r="I87" s="37"/>
+      <c r="J87" s="26"/>
+      <c r="K87" s="26"/>
     </row>
     <row r="88" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A88" s="13"/>
@@ -2328,10 +2383,10 @@
       <c r="E88" s="13"/>
       <c r="F88" s="13"/>
       <c r="G88" s="15"/>
-      <c r="H88" s="28"/>
-      <c r="I88" s="29"/>
-      <c r="J88" s="38"/>
-      <c r="K88" s="38"/>
+      <c r="H88" s="38"/>
+      <c r="I88" s="37"/>
+      <c r="J88" s="26"/>
+      <c r="K88" s="26"/>
     </row>
     <row r="89" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A89" s="13"/>
@@ -2341,10 +2396,10 @@
       <c r="E89" s="13"/>
       <c r="F89" s="13"/>
       <c r="G89" s="15"/>
-      <c r="H89" s="28"/>
-      <c r="I89" s="29"/>
-      <c r="J89" s="38"/>
-      <c r="K89" s="38"/>
+      <c r="H89" s="38"/>
+      <c r="I89" s="37"/>
+      <c r="J89" s="26"/>
+      <c r="K89" s="26"/>
     </row>
     <row r="90" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A90" s="13"/>
@@ -2354,10 +2409,10 @@
       <c r="E90" s="13"/>
       <c r="F90" s="13"/>
       <c r="G90" s="15"/>
-      <c r="H90" s="28"/>
-      <c r="I90" s="29"/>
-      <c r="J90" s="38"/>
-      <c r="K90" s="38"/>
+      <c r="H90" s="38"/>
+      <c r="I90" s="37"/>
+      <c r="J90" s="26"/>
+      <c r="K90" s="26"/>
     </row>
     <row r="91" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A91" s="13"/>
@@ -2367,10 +2422,10 @@
       <c r="E91" s="13"/>
       <c r="F91" s="13"/>
       <c r="G91" s="15"/>
-      <c r="H91" s="28"/>
-      <c r="I91" s="29"/>
-      <c r="J91" s="38"/>
-      <c r="K91" s="38"/>
+      <c r="H91" s="38"/>
+      <c r="I91" s="37"/>
+      <c r="J91" s="26"/>
+      <c r="K91" s="26"/>
     </row>
     <row r="92" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A92" s="13"/>
@@ -2380,10 +2435,10 @@
       <c r="E92" s="13"/>
       <c r="F92" s="13"/>
       <c r="G92" s="15"/>
-      <c r="H92" s="28"/>
-      <c r="I92" s="29"/>
-      <c r="J92" s="38"/>
-      <c r="K92" s="38"/>
+      <c r="H92" s="38"/>
+      <c r="I92" s="37"/>
+      <c r="J92" s="26"/>
+      <c r="K92" s="26"/>
     </row>
     <row r="93" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A93" s="13"/>
@@ -2393,10 +2448,10 @@
       <c r="E93" s="13"/>
       <c r="F93" s="13"/>
       <c r="G93" s="15"/>
-      <c r="H93" s="28"/>
-      <c r="I93" s="29"/>
-      <c r="J93" s="38"/>
-      <c r="K93" s="38"/>
+      <c r="H93" s="38"/>
+      <c r="I93" s="37"/>
+      <c r="J93" s="26"/>
+      <c r="K93" s="26"/>
     </row>
     <row r="94" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A94" s="13"/>
@@ -2406,10 +2461,10 @@
       <c r="E94" s="13"/>
       <c r="F94" s="13"/>
       <c r="G94" s="15"/>
-      <c r="H94" s="28"/>
-      <c r="I94" s="29"/>
-      <c r="J94" s="38"/>
-      <c r="K94" s="38"/>
+      <c r="H94" s="38"/>
+      <c r="I94" s="37"/>
+      <c r="J94" s="26"/>
+      <c r="K94" s="26"/>
     </row>
     <row r="95" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A95" s="13"/>
@@ -2419,10 +2474,10 @@
       <c r="E95" s="13"/>
       <c r="F95" s="13"/>
       <c r="G95" s="15"/>
-      <c r="H95" s="28"/>
-      <c r="I95" s="29"/>
-      <c r="J95" s="38"/>
-      <c r="K95" s="38"/>
+      <c r="H95" s="38"/>
+      <c r="I95" s="37"/>
+      <c r="J95" s="26"/>
+      <c r="K95" s="26"/>
     </row>
     <row r="96" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A96" s="13"/>
@@ -2432,10 +2487,10 @@
       <c r="E96" s="13"/>
       <c r="F96" s="13"/>
       <c r="G96" s="15"/>
-      <c r="H96" s="28"/>
-      <c r="I96" s="29"/>
-      <c r="J96" s="38"/>
-      <c r="K96" s="38"/>
+      <c r="H96" s="38"/>
+      <c r="I96" s="37"/>
+      <c r="J96" s="26"/>
+      <c r="K96" s="26"/>
     </row>
     <row r="97" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A97" s="13"/>
@@ -2445,10 +2500,10 @@
       <c r="E97" s="13"/>
       <c r="F97" s="13"/>
       <c r="G97" s="15"/>
-      <c r="H97" s="28"/>
-      <c r="I97" s="29"/>
-      <c r="J97" s="38"/>
-      <c r="K97" s="38"/>
+      <c r="H97" s="38"/>
+      <c r="I97" s="37"/>
+      <c r="J97" s="26"/>
+      <c r="K97" s="26"/>
     </row>
     <row r="98" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A98" s="13"/>
@@ -2458,10 +2513,10 @@
       <c r="E98" s="13"/>
       <c r="F98" s="13"/>
       <c r="G98" s="15"/>
-      <c r="H98" s="28"/>
-      <c r="I98" s="29"/>
-      <c r="J98" s="38"/>
-      <c r="K98" s="38"/>
+      <c r="H98" s="38"/>
+      <c r="I98" s="37"/>
+      <c r="J98" s="26"/>
+      <c r="K98" s="26"/>
     </row>
     <row r="99" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A99" s="13"/>
@@ -2471,10 +2526,10 @@
       <c r="E99" s="13"/>
       <c r="F99" s="13"/>
       <c r="G99" s="15"/>
-      <c r="H99" s="28"/>
-      <c r="I99" s="29"/>
-      <c r="J99" s="38"/>
-      <c r="K99" s="38"/>
+      <c r="H99" s="38"/>
+      <c r="I99" s="37"/>
+      <c r="J99" s="26"/>
+      <c r="K99" s="26"/>
     </row>
     <row r="100" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A100" s="13"/>
@@ -2484,10 +2539,10 @@
       <c r="E100" s="13"/>
       <c r="F100" s="13"/>
       <c r="G100" s="15"/>
-      <c r="H100" s="28"/>
-      <c r="I100" s="29"/>
-      <c r="J100" s="38"/>
-      <c r="K100" s="38"/>
+      <c r="H100" s="38"/>
+      <c r="I100" s="37"/>
+      <c r="J100" s="26"/>
+      <c r="K100" s="26"/>
     </row>
     <row r="101" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A101" s="13"/>
@@ -2497,10 +2552,10 @@
       <c r="E101" s="13"/>
       <c r="F101" s="13"/>
       <c r="G101" s="15"/>
-      <c r="H101" s="28"/>
-      <c r="I101" s="29"/>
-      <c r="J101" s="38"/>
-      <c r="K101" s="38"/>
+      <c r="H101" s="38"/>
+      <c r="I101" s="37"/>
+      <c r="J101" s="26"/>
+      <c r="K101" s="26"/>
     </row>
     <row r="102" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A102" s="13"/>
@@ -2510,10 +2565,10 @@
       <c r="E102" s="13"/>
       <c r="F102" s="13"/>
       <c r="G102" s="15"/>
-      <c r="H102" s="28"/>
-      <c r="I102" s="29"/>
-      <c r="J102" s="38"/>
-      <c r="K102" s="38"/>
+      <c r="H102" s="38"/>
+      <c r="I102" s="37"/>
+      <c r="J102" s="26"/>
+      <c r="K102" s="26"/>
     </row>
     <row r="103" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A103" s="13"/>
@@ -2523,10 +2578,10 @@
       <c r="E103" s="13"/>
       <c r="F103" s="13"/>
       <c r="G103" s="15"/>
-      <c r="H103" s="28"/>
-      <c r="I103" s="29"/>
-      <c r="J103" s="38"/>
-      <c r="K103" s="38"/>
+      <c r="H103" s="38"/>
+      <c r="I103" s="37"/>
+      <c r="J103" s="26"/>
+      <c r="K103" s="26"/>
     </row>
     <row r="104" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A104" s="13"/>
@@ -2536,10 +2591,10 @@
       <c r="E104" s="13"/>
       <c r="F104" s="13"/>
       <c r="G104" s="15"/>
-      <c r="H104" s="28"/>
-      <c r="I104" s="29"/>
-      <c r="J104" s="38"/>
-      <c r="K104" s="38"/>
+      <c r="H104" s="38"/>
+      <c r="I104" s="37"/>
+      <c r="J104" s="26"/>
+      <c r="K104" s="26"/>
     </row>
     <row r="105" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A105" s="13"/>
@@ -2549,10 +2604,10 @@
       <c r="E105" s="13"/>
       <c r="F105" s="13"/>
       <c r="G105" s="15"/>
-      <c r="H105" s="28"/>
-      <c r="I105" s="29"/>
-      <c r="J105" s="38"/>
-      <c r="K105" s="38"/>
+      <c r="H105" s="38"/>
+      <c r="I105" s="37"/>
+      <c r="J105" s="26"/>
+      <c r="K105" s="26"/>
     </row>
     <row r="106" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A106" s="13"/>
@@ -2562,10 +2617,10 @@
       <c r="E106" s="13"/>
       <c r="F106" s="13"/>
       <c r="G106" s="15"/>
-      <c r="H106" s="28"/>
-      <c r="I106" s="29"/>
-      <c r="J106" s="38"/>
-      <c r="K106" s="38"/>
+      <c r="H106" s="38"/>
+      <c r="I106" s="37"/>
+      <c r="J106" s="26"/>
+      <c r="K106" s="26"/>
     </row>
     <row r="107" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A107" s="13"/>
@@ -2575,10 +2630,10 @@
       <c r="E107" s="13"/>
       <c r="F107" s="13"/>
       <c r="G107" s="15"/>
-      <c r="H107" s="28"/>
-      <c r="I107" s="29"/>
-      <c r="J107" s="38"/>
-      <c r="K107" s="38"/>
+      <c r="H107" s="38"/>
+      <c r="I107" s="37"/>
+      <c r="J107" s="26"/>
+      <c r="K107" s="26"/>
     </row>
     <row r="108" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A108" s="13"/>
@@ -2588,10 +2643,10 @@
       <c r="E108" s="13"/>
       <c r="F108" s="13"/>
       <c r="G108" s="15"/>
-      <c r="H108" s="28"/>
-      <c r="I108" s="29"/>
-      <c r="J108" s="38"/>
-      <c r="K108" s="38"/>
+      <c r="H108" s="38"/>
+      <c r="I108" s="37"/>
+      <c r="J108" s="26"/>
+      <c r="K108" s="26"/>
     </row>
     <row r="109" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A109" s="13"/>
@@ -2601,10 +2656,10 @@
       <c r="E109" s="13"/>
       <c r="F109" s="13"/>
       <c r="G109" s="15"/>
-      <c r="H109" s="28"/>
-      <c r="I109" s="29"/>
-      <c r="J109" s="38"/>
-      <c r="K109" s="38"/>
+      <c r="H109" s="38"/>
+      <c r="I109" s="37"/>
+      <c r="J109" s="26"/>
+      <c r="K109" s="26"/>
     </row>
     <row r="110" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A110" s="13"/>
@@ -2614,10 +2669,10 @@
       <c r="E110" s="13"/>
       <c r="F110" s="13"/>
       <c r="G110" s="15"/>
-      <c r="H110" s="28"/>
-      <c r="I110" s="29"/>
-      <c r="J110" s="38"/>
-      <c r="K110" s="38"/>
+      <c r="H110" s="38"/>
+      <c r="I110" s="37"/>
+      <c r="J110" s="26"/>
+      <c r="K110" s="26"/>
     </row>
     <row r="111" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A111" s="13"/>
@@ -2627,10 +2682,10 @@
       <c r="E111" s="13"/>
       <c r="F111" s="13"/>
       <c r="G111" s="15"/>
-      <c r="H111" s="28"/>
-      <c r="I111" s="29"/>
-      <c r="J111" s="38"/>
-      <c r="K111" s="38"/>
+      <c r="H111" s="38"/>
+      <c r="I111" s="37"/>
+      <c r="J111" s="26"/>
+      <c r="K111" s="26"/>
     </row>
     <row r="112" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A112" s="13"/>
@@ -2640,10 +2695,10 @@
       <c r="E112" s="13"/>
       <c r="F112" s="13"/>
       <c r="G112" s="15"/>
-      <c r="H112" s="28"/>
-      <c r="I112" s="29"/>
-      <c r="J112" s="38"/>
-      <c r="K112" s="38"/>
+      <c r="H112" s="38"/>
+      <c r="I112" s="37"/>
+      <c r="J112" s="26"/>
+      <c r="K112" s="26"/>
     </row>
     <row r="113" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A113" s="13"/>
@@ -2653,10 +2708,10 @@
       <c r="E113" s="13"/>
       <c r="F113" s="13"/>
       <c r="G113" s="15"/>
-      <c r="H113" s="28"/>
-      <c r="I113" s="29"/>
-      <c r="J113" s="38"/>
-      <c r="K113" s="38"/>
+      <c r="H113" s="38"/>
+      <c r="I113" s="37"/>
+      <c r="J113" s="26"/>
+      <c r="K113" s="26"/>
     </row>
     <row r="114" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A114" s="13"/>
@@ -2666,10 +2721,10 @@
       <c r="E114" s="13"/>
       <c r="F114" s="13"/>
       <c r="G114" s="15"/>
-      <c r="H114" s="28"/>
-      <c r="I114" s="29"/>
-      <c r="J114" s="38"/>
-      <c r="K114" s="38"/>
+      <c r="H114" s="38"/>
+      <c r="I114" s="37"/>
+      <c r="J114" s="26"/>
+      <c r="K114" s="26"/>
     </row>
     <row r="115" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A115" s="13"/>
@@ -2679,10 +2734,10 @@
       <c r="E115" s="13"/>
       <c r="F115" s="13"/>
       <c r="G115" s="15"/>
-      <c r="H115" s="28"/>
-      <c r="I115" s="29"/>
-      <c r="J115" s="38"/>
-      <c r="K115" s="38"/>
+      <c r="H115" s="38"/>
+      <c r="I115" s="37"/>
+      <c r="J115" s="26"/>
+      <c r="K115" s="26"/>
     </row>
     <row r="116" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A116" s="13"/>
@@ -2692,10 +2747,10 @@
       <c r="E116" s="13"/>
       <c r="F116" s="13"/>
       <c r="G116" s="15"/>
-      <c r="H116" s="28"/>
-      <c r="I116" s="29"/>
-      <c r="J116" s="38"/>
-      <c r="K116" s="38"/>
+      <c r="H116" s="38"/>
+      <c r="I116" s="37"/>
+      <c r="J116" s="26"/>
+      <c r="K116" s="26"/>
     </row>
     <row r="117" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A117" s="13"/>
@@ -2705,10 +2760,10 @@
       <c r="E117" s="13"/>
       <c r="F117" s="13"/>
       <c r="G117" s="15"/>
-      <c r="H117" s="28"/>
-      <c r="I117" s="29"/>
-      <c r="J117" s="38"/>
-      <c r="K117" s="38"/>
+      <c r="H117" s="38"/>
+      <c r="I117" s="37"/>
+      <c r="J117" s="26"/>
+      <c r="K117" s="26"/>
     </row>
     <row r="118" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A118" s="13"/>
@@ -2718,10 +2773,10 @@
       <c r="E118" s="13"/>
       <c r="F118" s="13"/>
       <c r="G118" s="15"/>
-      <c r="H118" s="28"/>
-      <c r="I118" s="29"/>
-      <c r="J118" s="38"/>
-      <c r="K118" s="38"/>
+      <c r="H118" s="38"/>
+      <c r="I118" s="37"/>
+      <c r="J118" s="26"/>
+      <c r="K118" s="26"/>
     </row>
     <row r="119" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A119" s="13"/>
@@ -2731,10 +2786,10 @@
       <c r="E119" s="13"/>
       <c r="F119" s="13"/>
       <c r="G119" s="15"/>
-      <c r="H119" s="28"/>
-      <c r="I119" s="29"/>
-      <c r="J119" s="38"/>
-      <c r="K119" s="38"/>
+      <c r="H119" s="38"/>
+      <c r="I119" s="37"/>
+      <c r="J119" s="26"/>
+      <c r="K119" s="26"/>
     </row>
     <row r="120" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A120" s="13"/>
@@ -2744,10 +2799,10 @@
       <c r="E120" s="13"/>
       <c r="F120" s="13"/>
       <c r="G120" s="15"/>
-      <c r="H120" s="28"/>
-      <c r="I120" s="29"/>
-      <c r="J120" s="38"/>
-      <c r="K120" s="38"/>
+      <c r="H120" s="38"/>
+      <c r="I120" s="37"/>
+      <c r="J120" s="26"/>
+      <c r="K120" s="26"/>
     </row>
     <row r="121" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A121" s="13"/>
@@ -2757,10 +2812,10 @@
       <c r="E121" s="13"/>
       <c r="F121" s="13"/>
       <c r="G121" s="15"/>
-      <c r="H121" s="28"/>
-      <c r="I121" s="29"/>
-      <c r="J121" s="38"/>
-      <c r="K121" s="38"/>
+      <c r="H121" s="38"/>
+      <c r="I121" s="37"/>
+      <c r="J121" s="26"/>
+      <c r="K121" s="26"/>
     </row>
     <row r="122" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A122" s="13"/>
@@ -2770,10 +2825,10 @@
       <c r="E122" s="13"/>
       <c r="F122" s="13"/>
       <c r="G122" s="15"/>
-      <c r="H122" s="28"/>
-      <c r="I122" s="29"/>
-      <c r="J122" s="38"/>
-      <c r="K122" s="38"/>
+      <c r="H122" s="38"/>
+      <c r="I122" s="37"/>
+      <c r="J122" s="26"/>
+      <c r="K122" s="26"/>
     </row>
     <row r="123" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A123" s="13"/>
@@ -2783,10 +2838,10 @@
       <c r="E123" s="13"/>
       <c r="F123" s="13"/>
       <c r="G123" s="15"/>
-      <c r="H123" s="28"/>
-      <c r="I123" s="29"/>
-      <c r="J123" s="38"/>
-      <c r="K123" s="38"/>
+      <c r="H123" s="38"/>
+      <c r="I123" s="37"/>
+      <c r="J123" s="26"/>
+      <c r="K123" s="26"/>
     </row>
     <row r="124" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A124" s="13"/>
@@ -2796,10 +2851,10 @@
       <c r="E124" s="13"/>
       <c r="F124" s="13"/>
       <c r="G124" s="15"/>
-      <c r="H124" s="28"/>
-      <c r="I124" s="29"/>
-      <c r="J124" s="38"/>
-      <c r="K124" s="38"/>
+      <c r="H124" s="38"/>
+      <c r="I124" s="37"/>
+      <c r="J124" s="26"/>
+      <c r="K124" s="26"/>
     </row>
     <row r="125" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A125" s="13"/>
@@ -2809,10 +2864,10 @@
       <c r="E125" s="13"/>
       <c r="F125" s="13"/>
       <c r="G125" s="15"/>
-      <c r="H125" s="28"/>
-      <c r="I125" s="29"/>
-      <c r="J125" s="38"/>
-      <c r="K125" s="38"/>
+      <c r="H125" s="38"/>
+      <c r="I125" s="37"/>
+      <c r="J125" s="26"/>
+      <c r="K125" s="26"/>
     </row>
     <row r="126" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A126" s="13"/>
@@ -2822,10 +2877,10 @@
       <c r="E126" s="13"/>
       <c r="F126" s="13"/>
       <c r="G126" s="15"/>
-      <c r="H126" s="28"/>
-      <c r="I126" s="29"/>
-      <c r="J126" s="38"/>
-      <c r="K126" s="38"/>
+      <c r="H126" s="38"/>
+      <c r="I126" s="37"/>
+      <c r="J126" s="26"/>
+      <c r="K126" s="26"/>
     </row>
     <row r="127" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A127" s="13"/>
@@ -2835,10 +2890,10 @@
       <c r="E127" s="13"/>
       <c r="F127" s="13"/>
       <c r="G127" s="15"/>
-      <c r="H127" s="28"/>
-      <c r="I127" s="29"/>
-      <c r="J127" s="38"/>
-      <c r="K127" s="38"/>
+      <c r="H127" s="38"/>
+      <c r="I127" s="37"/>
+      <c r="J127" s="26"/>
+      <c r="K127" s="26"/>
     </row>
     <row r="128" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A128" s="13"/>
@@ -2848,10 +2903,10 @@
       <c r="E128" s="13"/>
       <c r="F128" s="13"/>
       <c r="G128" s="15"/>
-      <c r="H128" s="28"/>
-      <c r="I128" s="29"/>
-      <c r="J128" s="38"/>
-      <c r="K128" s="38"/>
+      <c r="H128" s="38"/>
+      <c r="I128" s="37"/>
+      <c r="J128" s="26"/>
+      <c r="K128" s="26"/>
     </row>
     <row r="129" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A129" s="13"/>
@@ -2861,10 +2916,10 @@
       <c r="E129" s="13"/>
       <c r="F129" s="13"/>
       <c r="G129" s="15"/>
-      <c r="H129" s="28"/>
-      <c r="I129" s="29"/>
-      <c r="J129" s="38"/>
-      <c r="K129" s="38"/>
+      <c r="H129" s="38"/>
+      <c r="I129" s="37"/>
+      <c r="J129" s="26"/>
+      <c r="K129" s="26"/>
     </row>
     <row r="130" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A130" s="13"/>
@@ -2874,10 +2929,10 @@
       <c r="E130" s="13"/>
       <c r="F130" s="13"/>
       <c r="G130" s="15"/>
-      <c r="H130" s="28"/>
-      <c r="I130" s="29"/>
-      <c r="J130" s="38"/>
-      <c r="K130" s="38"/>
+      <c r="H130" s="38"/>
+      <c r="I130" s="37"/>
+      <c r="J130" s="26"/>
+      <c r="K130" s="26"/>
     </row>
     <row r="131" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A131" s="13"/>
@@ -2887,10 +2942,10 @@
       <c r="E131" s="13"/>
       <c r="F131" s="13"/>
       <c r="G131" s="15"/>
-      <c r="H131" s="28"/>
-      <c r="I131" s="29"/>
-      <c r="J131" s="38"/>
-      <c r="K131" s="38"/>
+      <c r="H131" s="38"/>
+      <c r="I131" s="37"/>
+      <c r="J131" s="26"/>
+      <c r="K131" s="26"/>
     </row>
     <row r="132" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A132" s="13"/>
@@ -2900,10 +2955,10 @@
       <c r="E132" s="13"/>
       <c r="F132" s="13"/>
       <c r="G132" s="15"/>
-      <c r="H132" s="28"/>
-      <c r="I132" s="29"/>
-      <c r="J132" s="38"/>
-      <c r="K132" s="38"/>
+      <c r="H132" s="38"/>
+      <c r="I132" s="37"/>
+      <c r="J132" s="26"/>
+      <c r="K132" s="26"/>
     </row>
     <row r="133" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A133" s="13"/>
@@ -2913,10 +2968,10 @@
       <c r="E133" s="13"/>
       <c r="F133" s="13"/>
       <c r="G133" s="15"/>
-      <c r="H133" s="28"/>
-      <c r="I133" s="29"/>
-      <c r="J133" s="38"/>
-      <c r="K133" s="38"/>
+      <c r="H133" s="38"/>
+      <c r="I133" s="37"/>
+      <c r="J133" s="26"/>
+      <c r="K133" s="26"/>
     </row>
     <row r="134" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A134" s="13"/>
@@ -2926,10 +2981,10 @@
       <c r="E134" s="13"/>
       <c r="F134" s="13"/>
       <c r="G134" s="15"/>
-      <c r="H134" s="28"/>
-      <c r="I134" s="29"/>
-      <c r="J134" s="38"/>
-      <c r="K134" s="38"/>
+      <c r="H134" s="38"/>
+      <c r="I134" s="37"/>
+      <c r="J134" s="26"/>
+      <c r="K134" s="26"/>
     </row>
     <row r="135" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A135" s="13"/>
@@ -2939,10 +2994,10 @@
       <c r="E135" s="13"/>
       <c r="F135" s="13"/>
       <c r="G135" s="15"/>
-      <c r="H135" s="28"/>
-      <c r="I135" s="29"/>
-      <c r="J135" s="38"/>
-      <c r="K135" s="38"/>
+      <c r="H135" s="38"/>
+      <c r="I135" s="37"/>
+      <c r="J135" s="26"/>
+      <c r="K135" s="26"/>
     </row>
     <row r="136" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A136" s="13"/>
@@ -2952,10 +3007,10 @@
       <c r="E136" s="13"/>
       <c r="F136" s="13"/>
       <c r="G136" s="15"/>
-      <c r="H136" s="28"/>
-      <c r="I136" s="29"/>
-      <c r="J136" s="38"/>
-      <c r="K136" s="38"/>
+      <c r="H136" s="38"/>
+      <c r="I136" s="37"/>
+      <c r="J136" s="26"/>
+      <c r="K136" s="26"/>
     </row>
     <row r="137" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A137" s="13"/>
@@ -2965,10 +3020,10 @@
       <c r="E137" s="13"/>
       <c r="F137" s="13"/>
       <c r="G137" s="15"/>
-      <c r="H137" s="28"/>
-      <c r="I137" s="29"/>
-      <c r="J137" s="38"/>
-      <c r="K137" s="38"/>
+      <c r="H137" s="38"/>
+      <c r="I137" s="37"/>
+      <c r="J137" s="26"/>
+      <c r="K137" s="26"/>
     </row>
     <row r="138" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A138" s="13"/>
@@ -2978,10 +3033,10 @@
       <c r="E138" s="13"/>
       <c r="F138" s="13"/>
       <c r="G138" s="15"/>
-      <c r="H138" s="28"/>
-      <c r="I138" s="29"/>
-      <c r="J138" s="38"/>
-      <c r="K138" s="38"/>
+      <c r="H138" s="38"/>
+      <c r="I138" s="37"/>
+      <c r="J138" s="26"/>
+      <c r="K138" s="26"/>
     </row>
     <row r="139" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A139" s="13"/>
@@ -2991,10 +3046,10 @@
       <c r="E139" s="13"/>
       <c r="F139" s="13"/>
       <c r="G139" s="15"/>
-      <c r="H139" s="28"/>
-      <c r="I139" s="29"/>
-      <c r="J139" s="38"/>
-      <c r="K139" s="38"/>
+      <c r="H139" s="38"/>
+      <c r="I139" s="37"/>
+      <c r="J139" s="26"/>
+      <c r="K139" s="26"/>
     </row>
     <row r="140" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A140" s="13"/>
@@ -3004,10 +3059,10 @@
       <c r="E140" s="13"/>
       <c r="F140" s="13"/>
       <c r="G140" s="15"/>
-      <c r="H140" s="28"/>
-      <c r="I140" s="29"/>
-      <c r="J140" s="38"/>
-      <c r="K140" s="38"/>
+      <c r="H140" s="38"/>
+      <c r="I140" s="37"/>
+      <c r="J140" s="26"/>
+      <c r="K140" s="26"/>
     </row>
     <row r="141" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A141" s="13"/>
@@ -3017,10 +3072,10 @@
       <c r="E141" s="13"/>
       <c r="F141" s="13"/>
       <c r="G141" s="15"/>
-      <c r="H141" s="28"/>
-      <c r="I141" s="29"/>
-      <c r="J141" s="38"/>
-      <c r="K141" s="38"/>
+      <c r="H141" s="38"/>
+      <c r="I141" s="37"/>
+      <c r="J141" s="26"/>
+      <c r="K141" s="26"/>
     </row>
     <row r="142" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A142" s="13"/>
@@ -3030,10 +3085,10 @@
       <c r="E142" s="13"/>
       <c r="F142" s="13"/>
       <c r="G142" s="15"/>
-      <c r="H142" s="28"/>
-      <c r="I142" s="29"/>
-      <c r="J142" s="38"/>
-      <c r="K142" s="38"/>
+      <c r="H142" s="38"/>
+      <c r="I142" s="37"/>
+      <c r="J142" s="26"/>
+      <c r="K142" s="26"/>
     </row>
     <row r="143" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A143" s="13"/>
@@ -3043,10 +3098,10 @@
       <c r="E143" s="13"/>
       <c r="F143" s="13"/>
       <c r="G143" s="15"/>
-      <c r="H143" s="28"/>
-      <c r="I143" s="29"/>
-      <c r="J143" s="38"/>
-      <c r="K143" s="38"/>
+      <c r="H143" s="38"/>
+      <c r="I143" s="37"/>
+      <c r="J143" s="26"/>
+      <c r="K143" s="26"/>
     </row>
     <row r="144" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A144" s="13"/>
@@ -3056,10 +3111,10 @@
       <c r="E144" s="13"/>
       <c r="F144" s="13"/>
       <c r="G144" s="15"/>
-      <c r="H144" s="28"/>
-      <c r="I144" s="29"/>
-      <c r="J144" s="38"/>
-      <c r="K144" s="38"/>
+      <c r="H144" s="38"/>
+      <c r="I144" s="37"/>
+      <c r="J144" s="26"/>
+      <c r="K144" s="26"/>
     </row>
     <row r="145" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A145" s="13"/>
@@ -3069,10 +3124,10 @@
       <c r="E145" s="13"/>
       <c r="F145" s="13"/>
       <c r="G145" s="15"/>
-      <c r="H145" s="28"/>
-      <c r="I145" s="29"/>
-      <c r="J145" s="38"/>
-      <c r="K145" s="38"/>
+      <c r="H145" s="38"/>
+      <c r="I145" s="37"/>
+      <c r="J145" s="26"/>
+      <c r="K145" s="26"/>
     </row>
     <row r="146" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A146" s="13"/>
@@ -3082,10 +3137,10 @@
       <c r="E146" s="13"/>
       <c r="F146" s="13"/>
       <c r="G146" s="15"/>
-      <c r="H146" s="28"/>
-      <c r="I146" s="29"/>
-      <c r="J146" s="38"/>
-      <c r="K146" s="38"/>
+      <c r="H146" s="38"/>
+      <c r="I146" s="37"/>
+      <c r="J146" s="26"/>
+      <c r="K146" s="26"/>
     </row>
     <row r="147" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A147" s="13"/>
@@ -3095,10 +3150,10 @@
       <c r="E147" s="13"/>
       <c r="F147" s="13"/>
       <c r="G147" s="15"/>
-      <c r="H147" s="28"/>
-      <c r="I147" s="29"/>
-      <c r="J147" s="38"/>
-      <c r="K147" s="38"/>
+      <c r="H147" s="38"/>
+      <c r="I147" s="37"/>
+      <c r="J147" s="26"/>
+      <c r="K147" s="26"/>
     </row>
     <row r="148" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A148" s="13"/>
@@ -3108,10 +3163,10 @@
       <c r="E148" s="13"/>
       <c r="F148" s="13"/>
       <c r="G148" s="15"/>
-      <c r="H148" s="28"/>
-      <c r="I148" s="29"/>
-      <c r="J148" s="38"/>
-      <c r="K148" s="38"/>
+      <c r="H148" s="38"/>
+      <c r="I148" s="37"/>
+      <c r="J148" s="26"/>
+      <c r="K148" s="26"/>
     </row>
     <row r="149" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A149" s="13"/>
@@ -3121,10 +3176,10 @@
       <c r="E149" s="13"/>
       <c r="F149" s="13"/>
       <c r="G149" s="15"/>
-      <c r="H149" s="28"/>
-      <c r="I149" s="29"/>
-      <c r="J149" s="38"/>
-      <c r="K149" s="38"/>
+      <c r="H149" s="38"/>
+      <c r="I149" s="37"/>
+      <c r="J149" s="26"/>
+      <c r="K149" s="26"/>
     </row>
     <row r="150" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A150" s="13"/>
@@ -3134,10 +3189,10 @@
       <c r="E150" s="13"/>
       <c r="F150" s="13"/>
       <c r="G150" s="15"/>
-      <c r="H150" s="28"/>
-      <c r="I150" s="29"/>
-      <c r="J150" s="38"/>
-      <c r="K150" s="38"/>
+      <c r="H150" s="38"/>
+      <c r="I150" s="37"/>
+      <c r="J150" s="26"/>
+      <c r="K150" s="26"/>
     </row>
     <row r="151" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A151" s="13"/>
@@ -3149,8 +3204,8 @@
       <c r="G151" s="15"/>
       <c r="H151" s="13"/>
       <c r="I151" s="13"/>
-      <c r="J151" s="38"/>
-      <c r="K151" s="38"/>
+      <c r="J151" s="26"/>
+      <c r="K151" s="26"/>
     </row>
     <row r="152" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A152" s="13"/>
@@ -3162,8 +3217,8 @@
       <c r="G152" s="15"/>
       <c r="H152" s="13"/>
       <c r="I152" s="13"/>
-      <c r="J152" s="38"/>
-      <c r="K152" s="38"/>
+      <c r="J152" s="26"/>
+      <c r="K152" s="26"/>
     </row>
     <row r="153" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A153" s="13"/>
@@ -3175,8 +3230,8 @@
       <c r="G153" s="15"/>
       <c r="H153" s="13"/>
       <c r="I153" s="13"/>
-      <c r="J153" s="38"/>
-      <c r="K153" s="38"/>
+      <c r="J153" s="26"/>
+      <c r="K153" s="26"/>
     </row>
     <row r="154" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A154" s="13"/>
@@ -3188,8 +3243,8 @@
       <c r="G154" s="15"/>
       <c r="H154" s="13"/>
       <c r="I154" s="13"/>
-      <c r="J154" s="38"/>
-      <c r="K154" s="38"/>
+      <c r="J154" s="26"/>
+      <c r="K154" s="26"/>
     </row>
     <row r="155" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A155" s="13"/>
@@ -3201,8 +3256,8 @@
       <c r="G155" s="15"/>
       <c r="H155" s="13"/>
       <c r="I155" s="13"/>
-      <c r="J155" s="38"/>
-      <c r="K155" s="38"/>
+      <c r="J155" s="26"/>
+      <c r="K155" s="26"/>
     </row>
     <row r="156" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A156" s="13"/>
@@ -3214,8 +3269,8 @@
       <c r="G156" s="15"/>
       <c r="H156" s="13"/>
       <c r="I156" s="13"/>
-      <c r="J156" s="38"/>
-      <c r="K156" s="38"/>
+      <c r="J156" s="26"/>
+      <c r="K156" s="26"/>
     </row>
     <row r="157" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A157" s="13"/>
@@ -3227,8 +3282,8 @@
       <c r="G157" s="15"/>
       <c r="H157" s="13"/>
       <c r="I157" s="13"/>
-      <c r="J157" s="38"/>
-      <c r="K157" s="38"/>
+      <c r="J157" s="26"/>
+      <c r="K157" s="26"/>
     </row>
     <row r="158" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A158" s="13"/>
@@ -3240,8 +3295,8 @@
       <c r="G158" s="15"/>
       <c r="H158" s="13"/>
       <c r="I158" s="13"/>
-      <c r="J158" s="38"/>
-      <c r="K158" s="38"/>
+      <c r="J158" s="26"/>
+      <c r="K158" s="26"/>
     </row>
     <row r="159" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A159" s="13"/>
@@ -3253,8 +3308,8 @@
       <c r="G159" s="15"/>
       <c r="H159" s="13"/>
       <c r="I159" s="13"/>
-      <c r="J159" s="38"/>
-      <c r="K159" s="38"/>
+      <c r="J159" s="26"/>
+      <c r="K159" s="26"/>
     </row>
     <row r="160" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A160" s="13"/>
@@ -3266,8 +3321,8 @@
       <c r="G160" s="15"/>
       <c r="H160" s="13"/>
       <c r="I160" s="13"/>
-      <c r="J160" s="38"/>
-      <c r="K160" s="38"/>
+      <c r="J160" s="26"/>
+      <c r="K160" s="26"/>
     </row>
     <row r="161" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A161" s="13"/>
@@ -3279,8 +3334,8 @@
       <c r="G161" s="15"/>
       <c r="H161" s="13"/>
       <c r="I161" s="13"/>
-      <c r="J161" s="38"/>
-      <c r="K161" s="38"/>
+      <c r="J161" s="26"/>
+      <c r="K161" s="26"/>
     </row>
     <row r="162" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A162" s="13"/>
@@ -3292,8 +3347,8 @@
       <c r="G162" s="15"/>
       <c r="H162" s="13"/>
       <c r="I162" s="13"/>
-      <c r="J162" s="38"/>
-      <c r="K162" s="38"/>
+      <c r="J162" s="26"/>
+      <c r="K162" s="26"/>
     </row>
     <row r="163" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A163" s="13"/>
@@ -3305,8 +3360,8 @@
       <c r="G163" s="15"/>
       <c r="H163" s="13"/>
       <c r="I163" s="13"/>
-      <c r="J163" s="38"/>
-      <c r="K163" s="38"/>
+      <c r="J163" s="26"/>
+      <c r="K163" s="26"/>
     </row>
     <row r="164" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A164" s="13"/>
@@ -3318,8 +3373,8 @@
       <c r="G164" s="15"/>
       <c r="H164" s="13"/>
       <c r="I164" s="13"/>
-      <c r="J164" s="38"/>
-      <c r="K164" s="38"/>
+      <c r="J164" s="26"/>
+      <c r="K164" s="26"/>
     </row>
     <row r="165" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A165" s="13"/>
@@ -3331,8 +3386,8 @@
       <c r="G165" s="15"/>
       <c r="H165" s="13"/>
       <c r="I165" s="13"/>
-      <c r="J165" s="38"/>
-      <c r="K165" s="38"/>
+      <c r="J165" s="26"/>
+      <c r="K165" s="26"/>
     </row>
     <row r="166" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A166" s="13"/>
@@ -3344,8 +3399,8 @@
       <c r="G166" s="15"/>
       <c r="H166" s="13"/>
       <c r="I166" s="13"/>
-      <c r="J166" s="38"/>
-      <c r="K166" s="38"/>
+      <c r="J166" s="26"/>
+      <c r="K166" s="26"/>
     </row>
     <row r="167" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A167" s="13"/>
@@ -3357,8 +3412,8 @@
       <c r="G167" s="15"/>
       <c r="H167" s="13"/>
       <c r="I167" s="13"/>
-      <c r="J167" s="38"/>
-      <c r="K167" s="38"/>
+      <c r="J167" s="26"/>
+      <c r="K167" s="26"/>
     </row>
     <row r="168" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A168" s="13"/>
@@ -3370,8 +3425,8 @@
       <c r="G168" s="15"/>
       <c r="H168" s="13"/>
       <c r="I168" s="13"/>
-      <c r="J168" s="38"/>
-      <c r="K168" s="38"/>
+      <c r="J168" s="26"/>
+      <c r="K168" s="26"/>
     </row>
     <row r="169" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A169" s="13"/>
@@ -3383,8 +3438,8 @@
       <c r="G169" s="15"/>
       <c r="H169" s="13"/>
       <c r="I169" s="13"/>
-      <c r="J169" s="38"/>
-      <c r="K169" s="38"/>
+      <c r="J169" s="26"/>
+      <c r="K169" s="26"/>
     </row>
     <row r="170" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A170" s="13"/>
@@ -3396,8 +3451,8 @@
       <c r="G170" s="15"/>
       <c r="H170" s="13"/>
       <c r="I170" s="13"/>
-      <c r="J170" s="38"/>
-      <c r="K170" s="38"/>
+      <c r="J170" s="26"/>
+      <c r="K170" s="26"/>
     </row>
     <row r="171" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A171" s="13"/>
@@ -3409,8 +3464,8 @@
       <c r="G171" s="15"/>
       <c r="H171" s="13"/>
       <c r="I171" s="13"/>
-      <c r="J171" s="38"/>
-      <c r="K171" s="38"/>
+      <c r="J171" s="26"/>
+      <c r="K171" s="26"/>
     </row>
     <row r="172" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A172" s="13"/>
@@ -3422,8 +3477,8 @@
       <c r="G172" s="15"/>
       <c r="H172" s="13"/>
       <c r="I172" s="13"/>
-      <c r="J172" s="38"/>
-      <c r="K172" s="38"/>
+      <c r="J172" s="26"/>
+      <c r="K172" s="26"/>
     </row>
     <row r="173" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A173" s="13"/>
@@ -3435,8 +3490,8 @@
       <c r="G173" s="15"/>
       <c r="H173" s="13"/>
       <c r="I173" s="13"/>
-      <c r="J173" s="38"/>
-      <c r="K173" s="38"/>
+      <c r="J173" s="26"/>
+      <c r="K173" s="26"/>
     </row>
     <row r="174" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A174" s="13"/>
@@ -3448,8 +3503,8 @@
       <c r="G174" s="15"/>
       <c r="H174" s="13"/>
       <c r="I174" s="13"/>
-      <c r="J174" s="38"/>
-      <c r="K174" s="38"/>
+      <c r="J174" s="26"/>
+      <c r="K174" s="26"/>
     </row>
     <row r="175" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A175" s="13"/>
@@ -3461,8 +3516,8 @@
       <c r="G175" s="15"/>
       <c r="H175" s="13"/>
       <c r="I175" s="13"/>
-      <c r="J175" s="38"/>
-      <c r="K175" s="38"/>
+      <c r="J175" s="26"/>
+      <c r="K175" s="26"/>
     </row>
     <row r="176" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A176" s="13"/>
@@ -3474,8 +3529,8 @@
       <c r="G176" s="15"/>
       <c r="H176" s="13"/>
       <c r="I176" s="13"/>
-      <c r="J176" s="38"/>
-      <c r="K176" s="38"/>
+      <c r="J176" s="26"/>
+      <c r="K176" s="26"/>
     </row>
     <row r="177" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A177" s="13"/>
@@ -3487,8 +3542,8 @@
       <c r="G177" s="15"/>
       <c r="H177" s="13"/>
       <c r="I177" s="13"/>
-      <c r="J177" s="38"/>
-      <c r="K177" s="38"/>
+      <c r="J177" s="26"/>
+      <c r="K177" s="26"/>
     </row>
     <row r="178" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A178" s="13"/>
@@ -3500,8 +3555,8 @@
       <c r="G178" s="15"/>
       <c r="H178" s="13"/>
       <c r="I178" s="13"/>
-      <c r="J178" s="38"/>
-      <c r="K178" s="38"/>
+      <c r="J178" s="26"/>
+      <c r="K178" s="26"/>
     </row>
     <row r="179" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A179" s="13"/>
@@ -3513,8 +3568,8 @@
       <c r="G179" s="15"/>
       <c r="H179" s="13"/>
       <c r="I179" s="13"/>
-      <c r="J179" s="38"/>
-      <c r="K179" s="38"/>
+      <c r="J179" s="26"/>
+      <c r="K179" s="26"/>
     </row>
     <row r="180" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A180" s="13"/>
@@ -3526,8 +3581,8 @@
       <c r="G180" s="15"/>
       <c r="H180" s="13"/>
       <c r="I180" s="13"/>
-      <c r="J180" s="38"/>
-      <c r="K180" s="38"/>
+      <c r="J180" s="26"/>
+      <c r="K180" s="26"/>
     </row>
     <row r="181" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A181" s="13"/>
@@ -3539,8 +3594,8 @@
       <c r="G181" s="15"/>
       <c r="H181" s="13"/>
       <c r="I181" s="13"/>
-      <c r="J181" s="38"/>
-      <c r="K181" s="38"/>
+      <c r="J181" s="26"/>
+      <c r="K181" s="26"/>
     </row>
     <row r="182" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A182" s="13"/>
@@ -3552,8 +3607,8 @@
       <c r="G182" s="15"/>
       <c r="H182" s="13"/>
       <c r="I182" s="13"/>
-      <c r="J182" s="38"/>
-      <c r="K182" s="38"/>
+      <c r="J182" s="26"/>
+      <c r="K182" s="26"/>
     </row>
     <row r="183" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A183" s="13"/>
@@ -3565,8 +3620,8 @@
       <c r="G183" s="15"/>
       <c r="H183" s="13"/>
       <c r="I183" s="13"/>
-      <c r="J183" s="38"/>
-      <c r="K183" s="38"/>
+      <c r="J183" s="26"/>
+      <c r="K183" s="26"/>
     </row>
     <row r="184" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A184" s="13"/>
@@ -3578,8 +3633,8 @@
       <c r="G184" s="15"/>
       <c r="H184" s="13"/>
       <c r="I184" s="13"/>
-      <c r="J184" s="38"/>
-      <c r="K184" s="38"/>
+      <c r="J184" s="26"/>
+      <c r="K184" s="26"/>
     </row>
     <row r="185" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A185" s="13"/>
@@ -3591,8 +3646,8 @@
       <c r="G185" s="15"/>
       <c r="H185" s="13"/>
       <c r="I185" s="13"/>
-      <c r="J185" s="38"/>
-      <c r="K185" s="38"/>
+      <c r="J185" s="26"/>
+      <c r="K185" s="26"/>
     </row>
     <row r="186" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A186" s="13"/>
@@ -3604,8 +3659,8 @@
       <c r="G186" s="15"/>
       <c r="H186" s="13"/>
       <c r="I186" s="13"/>
-      <c r="J186" s="38"/>
-      <c r="K186" s="38"/>
+      <c r="J186" s="26"/>
+      <c r="K186" s="26"/>
     </row>
     <row r="187" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A187" s="13"/>
@@ -3617,8 +3672,8 @@
       <c r="G187" s="15"/>
       <c r="H187" s="13"/>
       <c r="I187" s="13"/>
-      <c r="J187" s="38"/>
-      <c r="K187" s="38"/>
+      <c r="J187" s="26"/>
+      <c r="K187" s="26"/>
     </row>
     <row r="188" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A188" s="13"/>
@@ -3630,8 +3685,8 @@
       <c r="G188" s="15"/>
       <c r="H188" s="13"/>
       <c r="I188" s="13"/>
-      <c r="J188" s="38"/>
-      <c r="K188" s="38"/>
+      <c r="J188" s="26"/>
+      <c r="K188" s="26"/>
     </row>
     <row r="189" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A189" s="13"/>
@@ -3643,8 +3698,8 @@
       <c r="G189" s="15"/>
       <c r="H189" s="13"/>
       <c r="I189" s="13"/>
-      <c r="J189" s="38"/>
-      <c r="K189" s="38"/>
+      <c r="J189" s="26"/>
+      <c r="K189" s="26"/>
     </row>
     <row r="190" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A190" s="13"/>
@@ -3656,8 +3711,8 @@
       <c r="G190" s="15"/>
       <c r="H190" s="13"/>
       <c r="I190" s="13"/>
-      <c r="J190" s="38"/>
-      <c r="K190" s="38"/>
+      <c r="J190" s="26"/>
+      <c r="K190" s="26"/>
     </row>
     <row r="191" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A191" s="13"/>
@@ -3669,8 +3724,8 @@
       <c r="G191" s="15"/>
       <c r="H191" s="13"/>
       <c r="I191" s="13"/>
-      <c r="J191" s="38"/>
-      <c r="K191" s="38"/>
+      <c r="J191" s="26"/>
+      <c r="K191" s="26"/>
     </row>
     <row r="192" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A192" s="13"/>
@@ -3682,8 +3737,8 @@
       <c r="G192" s="15"/>
       <c r="H192" s="13"/>
       <c r="I192" s="13"/>
-      <c r="J192" s="38"/>
-      <c r="K192" s="38"/>
+      <c r="J192" s="26"/>
+      <c r="K192" s="26"/>
     </row>
     <row r="193" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A193" s="13"/>
@@ -3695,8 +3750,8 @@
       <c r="G193" s="15"/>
       <c r="H193" s="13"/>
       <c r="I193" s="13"/>
-      <c r="J193" s="38"/>
-      <c r="K193" s="38"/>
+      <c r="J193" s="26"/>
+      <c r="K193" s="26"/>
     </row>
     <row r="194" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A194" s="13"/>
@@ -3708,8 +3763,8 @@
       <c r="G194" s="15"/>
       <c r="H194" s="13"/>
       <c r="I194" s="13"/>
-      <c r="J194" s="38"/>
-      <c r="K194" s="38"/>
+      <c r="J194" s="26"/>
+      <c r="K194" s="26"/>
     </row>
     <row r="195" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A195" s="13"/>
@@ -3721,8 +3776,8 @@
       <c r="G195" s="15"/>
       <c r="H195" s="13"/>
       <c r="I195" s="13"/>
-      <c r="J195" s="38"/>
-      <c r="K195" s="38"/>
+      <c r="J195" s="26"/>
+      <c r="K195" s="26"/>
     </row>
     <row r="196" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A196" s="13"/>
@@ -3734,8 +3789,8 @@
       <c r="G196" s="15"/>
       <c r="H196" s="13"/>
       <c r="I196" s="13"/>
-      <c r="J196" s="38"/>
-      <c r="K196" s="38"/>
+      <c r="J196" s="26"/>
+      <c r="K196" s="26"/>
     </row>
     <row r="197" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A197" s="13"/>
@@ -3747,8 +3802,8 @@
       <c r="G197" s="15"/>
       <c r="H197" s="13"/>
       <c r="I197" s="13"/>
-      <c r="J197" s="38"/>
-      <c r="K197" s="38"/>
+      <c r="J197" s="26"/>
+      <c r="K197" s="26"/>
     </row>
     <row r="198" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A198" s="13"/>
@@ -3760,8 +3815,8 @@
       <c r="G198" s="15"/>
       <c r="H198" s="13"/>
       <c r="I198" s="13"/>
-      <c r="J198" s="38"/>
-      <c r="K198" s="38"/>
+      <c r="J198" s="26"/>
+      <c r="K198" s="26"/>
     </row>
     <row r="199" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A199" s="13"/>
@@ -3773,8 +3828,8 @@
       <c r="G199" s="15"/>
       <c r="H199" s="13"/>
       <c r="I199" s="13"/>
-      <c r="J199" s="38"/>
-      <c r="K199" s="38"/>
+      <c r="J199" s="26"/>
+      <c r="K199" s="26"/>
     </row>
     <row r="200" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A200" s="13"/>
@@ -3786,8 +3841,8 @@
       <c r="G200" s="15"/>
       <c r="H200" s="13"/>
       <c r="I200" s="13"/>
-      <c r="J200" s="38"/>
-      <c r="K200" s="38"/>
+      <c r="J200" s="26"/>
+      <c r="K200" s="26"/>
     </row>
     <row r="201" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A201" s="13"/>
@@ -3799,8 +3854,8 @@
       <c r="G201" s="15"/>
       <c r="H201" s="13"/>
       <c r="I201" s="13"/>
-      <c r="J201" s="38"/>
-      <c r="K201" s="38"/>
+      <c r="J201" s="26"/>
+      <c r="K201" s="26"/>
     </row>
     <row r="202" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A202" s="13"/>
@@ -3812,8 +3867,8 @@
       <c r="G202" s="15"/>
       <c r="H202" s="13"/>
       <c r="I202" s="13"/>
-      <c r="J202" s="38"/>
-      <c r="K202" s="38"/>
+      <c r="J202" s="26"/>
+      <c r="K202" s="26"/>
     </row>
     <row r="203" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A203" s="13"/>
@@ -3825,8 +3880,8 @@
       <c r="G203" s="15"/>
       <c r="H203" s="13"/>
       <c r="I203" s="13"/>
-      <c r="J203" s="38"/>
-      <c r="K203" s="38"/>
+      <c r="J203" s="26"/>
+      <c r="K203" s="26"/>
     </row>
     <row r="204" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A204" s="13"/>
@@ -3838,8 +3893,8 @@
       <c r="G204" s="15"/>
       <c r="H204" s="13"/>
       <c r="I204" s="13"/>
-      <c r="J204" s="38"/>
-      <c r="K204" s="38"/>
+      <c r="J204" s="26"/>
+      <c r="K204" s="26"/>
     </row>
     <row r="205" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A205" s="13"/>
@@ -3851,8 +3906,8 @@
       <c r="G205" s="15"/>
       <c r="H205" s="13"/>
       <c r="I205" s="13"/>
-      <c r="J205" s="38"/>
-      <c r="K205" s="38"/>
+      <c r="J205" s="26"/>
+      <c r="K205" s="26"/>
     </row>
     <row r="206" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A206" s="13"/>
@@ -3864,8 +3919,8 @@
       <c r="G206" s="15"/>
       <c r="H206" s="13"/>
       <c r="I206" s="13"/>
-      <c r="J206" s="38"/>
-      <c r="K206" s="38"/>
+      <c r="J206" s="26"/>
+      <c r="K206" s="26"/>
     </row>
     <row r="207" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A207" s="13"/>
@@ -3877,8 +3932,8 @@
       <c r="G207" s="15"/>
       <c r="H207" s="13"/>
       <c r="I207" s="13"/>
-      <c r="J207" s="38"/>
-      <c r="K207" s="38"/>
+      <c r="J207" s="26"/>
+      <c r="K207" s="26"/>
     </row>
     <row r="208" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A208" s="13"/>
@@ -3890,8 +3945,8 @@
       <c r="G208" s="15"/>
       <c r="H208" s="13"/>
       <c r="I208" s="13"/>
-      <c r="J208" s="38"/>
-      <c r="K208" s="38"/>
+      <c r="J208" s="26"/>
+      <c r="K208" s="26"/>
     </row>
     <row r="209" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A209" s="13"/>
@@ -3903,8 +3958,8 @@
       <c r="G209" s="15"/>
       <c r="H209" s="13"/>
       <c r="I209" s="13"/>
-      <c r="J209" s="38"/>
-      <c r="K209" s="38"/>
+      <c r="J209" s="26"/>
+      <c r="K209" s="26"/>
     </row>
     <row r="210" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A210" s="13"/>
@@ -3916,8 +3971,8 @@
       <c r="G210" s="15"/>
       <c r="H210" s="13"/>
       <c r="I210" s="13"/>
-      <c r="J210" s="38"/>
-      <c r="K210" s="38"/>
+      <c r="J210" s="26"/>
+      <c r="K210" s="26"/>
     </row>
     <row r="211" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A211" s="13"/>
@@ -3929,8 +3984,8 @@
       <c r="G211" s="15"/>
       <c r="H211" s="13"/>
       <c r="I211" s="13"/>
-      <c r="J211" s="38"/>
-      <c r="K211" s="38"/>
+      <c r="J211" s="26"/>
+      <c r="K211" s="26"/>
     </row>
     <row r="212" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A212" s="13"/>
@@ -3942,8 +3997,8 @@
       <c r="G212" s="15"/>
       <c r="H212" s="13"/>
       <c r="I212" s="13"/>
-      <c r="J212" s="38"/>
-      <c r="K212" s="38"/>
+      <c r="J212" s="26"/>
+      <c r="K212" s="26"/>
     </row>
     <row r="213" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A213" s="13"/>
@@ -3955,8 +4010,8 @@
       <c r="G213" s="15"/>
       <c r="H213" s="13"/>
       <c r="I213" s="13"/>
-      <c r="J213" s="38"/>
-      <c r="K213" s="38"/>
+      <c r="J213" s="26"/>
+      <c r="K213" s="26"/>
     </row>
     <row r="214" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A214" s="13"/>
@@ -3968,8 +4023,8 @@
       <c r="G214" s="15"/>
       <c r="H214" s="13"/>
       <c r="I214" s="13"/>
-      <c r="J214" s="38"/>
-      <c r="K214" s="38"/>
+      <c r="J214" s="26"/>
+      <c r="K214" s="26"/>
     </row>
     <row r="215" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A215" s="13"/>
@@ -3981,8 +4036,8 @@
       <c r="G215" s="15"/>
       <c r="H215" s="13"/>
       <c r="I215" s="13"/>
-      <c r="J215" s="38"/>
-      <c r="K215" s="38"/>
+      <c r="J215" s="26"/>
+      <c r="K215" s="26"/>
     </row>
     <row r="216" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A216" s="13"/>
@@ -3994,8 +4049,8 @@
       <c r="G216" s="15"/>
       <c r="H216" s="13"/>
       <c r="I216" s="13"/>
-      <c r="J216" s="38"/>
-      <c r="K216" s="38"/>
+      <c r="J216" s="26"/>
+      <c r="K216" s="26"/>
     </row>
     <row r="217" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A217" s="13"/>
@@ -4007,8 +4062,8 @@
       <c r="G217" s="15"/>
       <c r="H217" s="13"/>
       <c r="I217" s="13"/>
-      <c r="J217" s="38"/>
-      <c r="K217" s="38"/>
+      <c r="J217" s="26"/>
+      <c r="K217" s="26"/>
     </row>
     <row r="218" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A218" s="13"/>
@@ -4020,8 +4075,8 @@
       <c r="G218" s="15"/>
       <c r="H218" s="13"/>
       <c r="I218" s="13"/>
-      <c r="J218" s="38"/>
-      <c r="K218" s="38"/>
+      <c r="J218" s="26"/>
+      <c r="K218" s="26"/>
     </row>
     <row r="219" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A219" s="13"/>
@@ -4033,8 +4088,8 @@
       <c r="G219" s="15"/>
       <c r="H219" s="13"/>
       <c r="I219" s="13"/>
-      <c r="J219" s="38"/>
-      <c r="K219" s="38"/>
+      <c r="J219" s="26"/>
+      <c r="K219" s="26"/>
     </row>
     <row r="220" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A220" s="13"/>
@@ -4046,8 +4101,8 @@
       <c r="G220" s="15"/>
       <c r="H220" s="13"/>
       <c r="I220" s="13"/>
-      <c r="J220" s="38"/>
-      <c r="K220" s="38"/>
+      <c r="J220" s="26"/>
+      <c r="K220" s="26"/>
     </row>
     <row r="221" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A221" s="13"/>
@@ -4059,8 +4114,8 @@
       <c r="G221" s="15"/>
       <c r="H221" s="13"/>
       <c r="I221" s="13"/>
-      <c r="J221" s="38"/>
-      <c r="K221" s="38"/>
+      <c r="J221" s="26"/>
+      <c r="K221" s="26"/>
     </row>
     <row r="222" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A222" s="13"/>
@@ -4072,8 +4127,8 @@
       <c r="G222" s="15"/>
       <c r="H222" s="13"/>
       <c r="I222" s="13"/>
-      <c r="J222" s="38"/>
-      <c r="K222" s="38"/>
+      <c r="J222" s="26"/>
+      <c r="K222" s="26"/>
     </row>
     <row r="223" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A223" s="13"/>
@@ -4085,8 +4140,8 @@
       <c r="G223" s="15"/>
       <c r="H223" s="13"/>
       <c r="I223" s="13"/>
-      <c r="J223" s="38"/>
-      <c r="K223" s="38"/>
+      <c r="J223" s="26"/>
+      <c r="K223" s="26"/>
     </row>
     <row r="224" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A224" s="13"/>
@@ -4098,8 +4153,8 @@
       <c r="G224" s="15"/>
       <c r="H224" s="13"/>
       <c r="I224" s="13"/>
-      <c r="J224" s="38"/>
-      <c r="K224" s="38"/>
+      <c r="J224" s="26"/>
+      <c r="K224" s="26"/>
     </row>
     <row r="225" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A225" s="13"/>
@@ -4111,8 +4166,8 @@
       <c r="G225" s="15"/>
       <c r="H225" s="13"/>
       <c r="I225" s="13"/>
-      <c r="J225" s="38"/>
-      <c r="K225" s="38"/>
+      <c r="J225" s="26"/>
+      <c r="K225" s="26"/>
     </row>
     <row r="226" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A226" s="13"/>
@@ -4124,8 +4179,8 @@
       <c r="G226" s="15"/>
       <c r="H226" s="13"/>
       <c r="I226" s="13"/>
-      <c r="J226" s="38"/>
-      <c r="K226" s="38"/>
+      <c r="J226" s="26"/>
+      <c r="K226" s="26"/>
     </row>
     <row r="227" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A227" s="13"/>
@@ -4137,8 +4192,8 @@
       <c r="G227" s="15"/>
       <c r="H227" s="13"/>
       <c r="I227" s="13"/>
-      <c r="J227" s="38"/>
-      <c r="K227" s="38"/>
+      <c r="J227" s="26"/>
+      <c r="K227" s="26"/>
     </row>
     <row r="228" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A228" s="13"/>
@@ -4150,8 +4205,8 @@
       <c r="G228" s="15"/>
       <c r="H228" s="13"/>
       <c r="I228" s="13"/>
-      <c r="J228" s="38"/>
-      <c r="K228" s="38"/>
+      <c r="J228" s="26"/>
+      <c r="K228" s="26"/>
     </row>
     <row r="229" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A229" s="13"/>
@@ -4163,8 +4218,8 @@
       <c r="G229" s="15"/>
       <c r="H229" s="13"/>
       <c r="I229" s="13"/>
-      <c r="J229" s="38"/>
-      <c r="K229" s="38"/>
+      <c r="J229" s="26"/>
+      <c r="K229" s="26"/>
     </row>
     <row r="230" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A230" s="13"/>
@@ -4176,8 +4231,8 @@
       <c r="G230" s="15"/>
       <c r="H230" s="13"/>
       <c r="I230" s="13"/>
-      <c r="J230" s="38"/>
-      <c r="K230" s="38"/>
+      <c r="J230" s="26"/>
+      <c r="K230" s="26"/>
     </row>
     <row r="231" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A231" s="13"/>
@@ -4189,8 +4244,8 @@
       <c r="G231" s="15"/>
       <c r="H231" s="13"/>
       <c r="I231" s="13"/>
-      <c r="J231" s="38"/>
-      <c r="K231" s="38"/>
+      <c r="J231" s="26"/>
+      <c r="K231" s="26"/>
     </row>
     <row r="232" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A232" s="13"/>
@@ -4202,8 +4257,8 @@
       <c r="G232" s="15"/>
       <c r="H232" s="13"/>
       <c r="I232" s="13"/>
-      <c r="J232" s="38"/>
-      <c r="K232" s="38"/>
+      <c r="J232" s="26"/>
+      <c r="K232" s="26"/>
     </row>
     <row r="233" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A233" s="13"/>
@@ -4215,8 +4270,8 @@
       <c r="G233" s="15"/>
       <c r="H233" s="13"/>
       <c r="I233" s="13"/>
-      <c r="J233" s="38"/>
-      <c r="K233" s="38"/>
+      <c r="J233" s="26"/>
+      <c r="K233" s="26"/>
     </row>
     <row r="234" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A234" s="13"/>
@@ -4228,8 +4283,8 @@
       <c r="G234" s="15"/>
       <c r="H234" s="13"/>
       <c r="I234" s="13"/>
-      <c r="J234" s="38"/>
-      <c r="K234" s="38"/>
+      <c r="J234" s="26"/>
+      <c r="K234" s="26"/>
     </row>
     <row r="235" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A235" s="13"/>
@@ -4241,8 +4296,8 @@
       <c r="G235" s="15"/>
       <c r="H235" s="13"/>
       <c r="I235" s="13"/>
-      <c r="J235" s="38"/>
-      <c r="K235" s="38"/>
+      <c r="J235" s="26"/>
+      <c r="K235" s="26"/>
     </row>
     <row r="236" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A236" s="13"/>
@@ -4254,8 +4309,8 @@
       <c r="G236" s="15"/>
       <c r="H236" s="13"/>
       <c r="I236" s="13"/>
-      <c r="J236" s="38"/>
-      <c r="K236" s="38"/>
+      <c r="J236" s="26"/>
+      <c r="K236" s="26"/>
     </row>
     <row r="237" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A237" s="13"/>
@@ -4267,8 +4322,8 @@
       <c r="G237" s="15"/>
       <c r="H237" s="13"/>
       <c r="I237" s="13"/>
-      <c r="J237" s="38"/>
-      <c r="K237" s="38"/>
+      <c r="J237" s="26"/>
+      <c r="K237" s="26"/>
     </row>
     <row r="238" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A238" s="13"/>
@@ -4280,8 +4335,8 @@
       <c r="G238" s="15"/>
       <c r="H238" s="13"/>
       <c r="I238" s="13"/>
-      <c r="J238" s="38"/>
-      <c r="K238" s="38"/>
+      <c r="J238" s="26"/>
+      <c r="K238" s="26"/>
     </row>
     <row r="239" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A239" s="13"/>
@@ -4293,8 +4348,8 @@
       <c r="G239" s="15"/>
       <c r="H239" s="13"/>
       <c r="I239" s="13"/>
-      <c r="J239" s="38"/>
-      <c r="K239" s="38"/>
+      <c r="J239" s="26"/>
+      <c r="K239" s="26"/>
     </row>
     <row r="240" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A240" s="13"/>
@@ -4306,8 +4361,8 @@
       <c r="G240" s="15"/>
       <c r="H240" s="13"/>
       <c r="I240" s="13"/>
-      <c r="J240" s="38"/>
-      <c r="K240" s="38"/>
+      <c r="J240" s="26"/>
+      <c r="K240" s="26"/>
     </row>
     <row r="241" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A241" s="13"/>
@@ -4319,8 +4374,8 @@
       <c r="G241" s="15"/>
       <c r="H241" s="13"/>
       <c r="I241" s="13"/>
-      <c r="J241" s="38"/>
-      <c r="K241" s="38"/>
+      <c r="J241" s="26"/>
+      <c r="K241" s="26"/>
     </row>
     <row r="242" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A242" s="13"/>
@@ -4332,8 +4387,8 @@
       <c r="G242" s="15"/>
       <c r="H242" s="13"/>
       <c r="I242" s="13"/>
-      <c r="J242" s="38"/>
-      <c r="K242" s="38"/>
+      <c r="J242" s="26"/>
+      <c r="K242" s="26"/>
     </row>
     <row r="243" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A243" s="13"/>
@@ -4345,8 +4400,8 @@
       <c r="G243" s="15"/>
       <c r="H243" s="13"/>
       <c r="I243" s="13"/>
-      <c r="J243" s="38"/>
-      <c r="K243" s="38"/>
+      <c r="J243" s="26"/>
+      <c r="K243" s="26"/>
     </row>
     <row r="244" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A244" s="13"/>
@@ -4358,8 +4413,8 @@
       <c r="G244" s="15"/>
       <c r="H244" s="13"/>
       <c r="I244" s="13"/>
-      <c r="J244" s="38"/>
-      <c r="K244" s="38"/>
+      <c r="J244" s="26"/>
+      <c r="K244" s="26"/>
     </row>
     <row r="245" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A245" s="13"/>
@@ -4371,8 +4426,8 @@
       <c r="G245" s="15"/>
       <c r="H245" s="13"/>
       <c r="I245" s="13"/>
-      <c r="J245" s="38"/>
-      <c r="K245" s="38"/>
+      <c r="J245" s="26"/>
+      <c r="K245" s="26"/>
     </row>
     <row r="246" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A246" s="13"/>
@@ -4384,8 +4439,8 @@
       <c r="G246" s="15"/>
       <c r="H246" s="13"/>
       <c r="I246" s="13"/>
-      <c r="J246" s="38"/>
-      <c r="K246" s="38"/>
+      <c r="J246" s="26"/>
+      <c r="K246" s="26"/>
     </row>
     <row r="247" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A247" s="13"/>
@@ -4397,8 +4452,8 @@
       <c r="G247" s="15"/>
       <c r="H247" s="13"/>
       <c r="I247" s="13"/>
-      <c r="J247" s="38"/>
-      <c r="K247" s="38"/>
+      <c r="J247" s="26"/>
+      <c r="K247" s="26"/>
     </row>
     <row r="248" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A248" s="13"/>
@@ -4410,8 +4465,8 @@
       <c r="G248" s="15"/>
       <c r="H248" s="13"/>
       <c r="I248" s="13"/>
-      <c r="J248" s="38"/>
-      <c r="K248" s="38"/>
+      <c r="J248" s="26"/>
+      <c r="K248" s="26"/>
     </row>
     <row r="249" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A249" s="13"/>
@@ -4423,8 +4478,8 @@
       <c r="G249" s="15"/>
       <c r="H249" s="13"/>
       <c r="I249" s="13"/>
-      <c r="J249" s="38"/>
-      <c r="K249" s="38"/>
+      <c r="J249" s="26"/>
+      <c r="K249" s="26"/>
     </row>
     <row r="250" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A250" s="13"/>
@@ -4436,8 +4491,8 @@
       <c r="G250" s="15"/>
       <c r="H250" s="13"/>
       <c r="I250" s="13"/>
-      <c r="J250" s="38"/>
-      <c r="K250" s="38"/>
+      <c r="J250" s="26"/>
+      <c r="K250" s="26"/>
     </row>
     <row r="251" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A251" s="13"/>
@@ -4449,8 +4504,8 @@
       <c r="G251" s="15"/>
       <c r="H251" s="13"/>
       <c r="I251" s="13"/>
-      <c r="J251" s="38"/>
-      <c r="K251" s="38"/>
+      <c r="J251" s="26"/>
+      <c r="K251" s="26"/>
     </row>
     <row r="252" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A252" s="13"/>
@@ -4462,8 +4517,8 @@
       <c r="G252" s="15"/>
       <c r="H252" s="13"/>
       <c r="I252" s="13"/>
-      <c r="J252" s="38"/>
-      <c r="K252" s="38"/>
+      <c r="J252" s="26"/>
+      <c r="K252" s="26"/>
     </row>
     <row r="253" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A253" s="13"/>
@@ -4475,8 +4530,8 @@
       <c r="G253" s="15"/>
       <c r="H253" s="13"/>
       <c r="I253" s="13"/>
-      <c r="J253" s="38"/>
-      <c r="K253" s="38"/>
+      <c r="J253" s="26"/>
+      <c r="K253" s="26"/>
     </row>
     <row r="254" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A254" s="13"/>
@@ -4488,8 +4543,8 @@
       <c r="G254" s="15"/>
       <c r="H254" s="13"/>
       <c r="I254" s="13"/>
-      <c r="J254" s="38"/>
-      <c r="K254" s="38"/>
+      <c r="J254" s="26"/>
+      <c r="K254" s="26"/>
     </row>
     <row r="255" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A255" s="13"/>
@@ -4501,8 +4556,8 @@
       <c r="G255" s="15"/>
       <c r="H255" s="13"/>
       <c r="I255" s="13"/>
-      <c r="J255" s="38"/>
-      <c r="K255" s="38"/>
+      <c r="J255" s="26"/>
+      <c r="K255" s="26"/>
     </row>
     <row r="256" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A256" s="13"/>
@@ -4514,8 +4569,8 @@
       <c r="G256" s="15"/>
       <c r="H256" s="13"/>
       <c r="I256" s="13"/>
-      <c r="J256" s="38"/>
-      <c r="K256" s="38"/>
+      <c r="J256" s="26"/>
+      <c r="K256" s="26"/>
     </row>
     <row r="257" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A257" s="13"/>
@@ -4527,8 +4582,8 @@
       <c r="G257" s="15"/>
       <c r="H257" s="13"/>
       <c r="I257" s="13"/>
-      <c r="J257" s="38"/>
-      <c r="K257" s="38"/>
+      <c r="J257" s="26"/>
+      <c r="K257" s="26"/>
     </row>
     <row r="258" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A258" s="13"/>
@@ -4540,8 +4595,8 @@
       <c r="G258" s="15"/>
       <c r="H258" s="13"/>
       <c r="I258" s="13"/>
-      <c r="J258" s="38"/>
-      <c r="K258" s="38"/>
+      <c r="J258" s="26"/>
+      <c r="K258" s="26"/>
     </row>
     <row r="259" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A259" s="13"/>
@@ -4553,8 +4608,8 @@
       <c r="G259" s="15"/>
       <c r="H259" s="13"/>
       <c r="I259" s="13"/>
-      <c r="J259" s="38"/>
-      <c r="K259" s="38"/>
+      <c r="J259" s="26"/>
+      <c r="K259" s="26"/>
     </row>
     <row r="260" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A260" s="13"/>
@@ -4566,8 +4621,8 @@
       <c r="G260" s="15"/>
       <c r="H260" s="13"/>
       <c r="I260" s="13"/>
-      <c r="J260" s="38"/>
-      <c r="K260" s="38"/>
+      <c r="J260" s="26"/>
+      <c r="K260" s="26"/>
     </row>
     <row r="261" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A261" s="13"/>
@@ -4579,8 +4634,8 @@
       <c r="G261" s="15"/>
       <c r="H261" s="13"/>
       <c r="I261" s="13"/>
-      <c r="J261" s="38"/>
-      <c r="K261" s="38"/>
+      <c r="J261" s="26"/>
+      <c r="K261" s="26"/>
     </row>
     <row r="262" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A262" s="13"/>
@@ -4592,8 +4647,8 @@
       <c r="G262" s="15"/>
       <c r="H262" s="13"/>
       <c r="I262" s="13"/>
-      <c r="J262" s="38"/>
-      <c r="K262" s="38"/>
+      <c r="J262" s="26"/>
+      <c r="K262" s="26"/>
     </row>
     <row r="263" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A263" s="13"/>
@@ -4605,8 +4660,8 @@
       <c r="G263" s="15"/>
       <c r="H263" s="13"/>
       <c r="I263" s="13"/>
-      <c r="J263" s="38"/>
-      <c r="K263" s="38"/>
+      <c r="J263" s="26"/>
+      <c r="K263" s="26"/>
     </row>
     <row r="264" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A264" s="13"/>
@@ -4618,8 +4673,8 @@
       <c r="G264" s="15"/>
       <c r="H264" s="13"/>
       <c r="I264" s="13"/>
-      <c r="J264" s="38"/>
-      <c r="K264" s="38"/>
+      <c r="J264" s="26"/>
+      <c r="K264" s="26"/>
     </row>
     <row r="265" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A265" s="13"/>
@@ -4631,8 +4686,8 @@
       <c r="G265" s="15"/>
       <c r="H265" s="13"/>
       <c r="I265" s="13"/>
-      <c r="J265" s="38"/>
-      <c r="K265" s="38"/>
+      <c r="J265" s="26"/>
+      <c r="K265" s="26"/>
     </row>
     <row r="266" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A266" s="13"/>
@@ -4644,8 +4699,8 @@
       <c r="G266" s="15"/>
       <c r="H266" s="13"/>
       <c r="I266" s="13"/>
-      <c r="J266" s="38"/>
-      <c r="K266" s="38"/>
+      <c r="J266" s="26"/>
+      <c r="K266" s="26"/>
     </row>
     <row r="267" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A267" s="13"/>
@@ -4657,8 +4712,8 @@
       <c r="G267" s="15"/>
       <c r="H267" s="13"/>
       <c r="I267" s="13"/>
-      <c r="J267" s="38"/>
-      <c r="K267" s="38"/>
+      <c r="J267" s="26"/>
+      <c r="K267" s="26"/>
     </row>
     <row r="268" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A268" s="13"/>
@@ -4670,8 +4725,8 @@
       <c r="G268" s="15"/>
       <c r="H268" s="13"/>
       <c r="I268" s="13"/>
-      <c r="J268" s="38"/>
-      <c r="K268" s="38"/>
+      <c r="J268" s="26"/>
+      <c r="K268" s="26"/>
     </row>
     <row r="269" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A269" s="13"/>
@@ -4683,8 +4738,8 @@
       <c r="G269" s="15"/>
       <c r="H269" s="13"/>
       <c r="I269" s="13"/>
-      <c r="J269" s="38"/>
-      <c r="K269" s="38"/>
+      <c r="J269" s="26"/>
+      <c r="K269" s="26"/>
     </row>
     <row r="270" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A270" s="13"/>
@@ -4696,8 +4751,8 @@
       <c r="G270" s="15"/>
       <c r="H270" s="13"/>
       <c r="I270" s="13"/>
-      <c r="J270" s="38"/>
-      <c r="K270" s="38"/>
+      <c r="J270" s="26"/>
+      <c r="K270" s="26"/>
     </row>
     <row r="271" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A271" s="13"/>
@@ -4709,8 +4764,8 @@
       <c r="G271" s="15"/>
       <c r="H271" s="13"/>
       <c r="I271" s="13"/>
-      <c r="J271" s="38"/>
-      <c r="K271" s="38"/>
+      <c r="J271" s="26"/>
+      <c r="K271" s="26"/>
     </row>
     <row r="272" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A272" s="13"/>
@@ -4722,8 +4777,8 @@
       <c r="G272" s="15"/>
       <c r="H272" s="13"/>
       <c r="I272" s="13"/>
-      <c r="J272" s="38"/>
-      <c r="K272" s="38"/>
+      <c r="J272" s="26"/>
+      <c r="K272" s="26"/>
     </row>
     <row r="273" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A273" s="13"/>
@@ -4735,8 +4790,8 @@
       <c r="G273" s="15"/>
       <c r="H273" s="13"/>
       <c r="I273" s="13"/>
-      <c r="J273" s="38"/>
-      <c r="K273" s="38"/>
+      <c r="J273" s="26"/>
+      <c r="K273" s="26"/>
     </row>
     <row r="274" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A274" s="13"/>
@@ -4748,8 +4803,8 @@
       <c r="G274" s="15"/>
       <c r="H274" s="13"/>
       <c r="I274" s="13"/>
-      <c r="J274" s="38"/>
-      <c r="K274" s="38"/>
+      <c r="J274" s="26"/>
+      <c r="K274" s="26"/>
     </row>
     <row r="275" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A275" s="13"/>
@@ -4761,8 +4816,8 @@
       <c r="G275" s="15"/>
       <c r="H275" s="13"/>
       <c r="I275" s="13"/>
-      <c r="J275" s="38"/>
-      <c r="K275" s="38"/>
+      <c r="J275" s="26"/>
+      <c r="K275" s="26"/>
     </row>
     <row r="276" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A276" s="13"/>
@@ -4774,8 +4829,8 @@
       <c r="G276" s="15"/>
       <c r="H276" s="13"/>
       <c r="I276" s="13"/>
-      <c r="J276" s="38"/>
-      <c r="K276" s="38"/>
+      <c r="J276" s="26"/>
+      <c r="K276" s="26"/>
     </row>
     <row r="277" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A277" s="13"/>
@@ -4787,8 +4842,8 @@
       <c r="G277" s="15"/>
       <c r="H277" s="13"/>
       <c r="I277" s="13"/>
-      <c r="J277" s="38"/>
-      <c r="K277" s="38"/>
+      <c r="J277" s="26"/>
+      <c r="K277" s="26"/>
     </row>
     <row r="278" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A278" s="13"/>
@@ -4800,8 +4855,8 @@
       <c r="G278" s="15"/>
       <c r="H278" s="13"/>
       <c r="I278" s="13"/>
-      <c r="J278" s="38"/>
-      <c r="K278" s="38"/>
+      <c r="J278" s="26"/>
+      <c r="K278" s="26"/>
     </row>
     <row r="279" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A279" s="13"/>
@@ -4813,8 +4868,8 @@
       <c r="G279" s="15"/>
       <c r="H279" s="13"/>
       <c r="I279" s="13"/>
-      <c r="J279" s="38"/>
-      <c r="K279" s="38"/>
+      <c r="J279" s="26"/>
+      <c r="K279" s="26"/>
     </row>
     <row r="280" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A280" s="13"/>
@@ -4826,8 +4881,8 @@
       <c r="G280" s="15"/>
       <c r="H280" s="13"/>
       <c r="I280" s="13"/>
-      <c r="J280" s="38"/>
-      <c r="K280" s="38"/>
+      <c r="J280" s="26"/>
+      <c r="K280" s="26"/>
     </row>
     <row r="281" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A281" s="13"/>
@@ -4839,8 +4894,8 @@
       <c r="G281" s="15"/>
       <c r="H281" s="13"/>
       <c r="I281" s="13"/>
-      <c r="J281" s="38"/>
-      <c r="K281" s="38"/>
+      <c r="J281" s="26"/>
+      <c r="K281" s="26"/>
     </row>
     <row r="282" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A282" s="13"/>
@@ -4852,8 +4907,8 @@
       <c r="G282" s="15"/>
       <c r="H282" s="13"/>
       <c r="I282" s="13"/>
-      <c r="J282" s="38"/>
-      <c r="K282" s="38"/>
+      <c r="J282" s="26"/>
+      <c r="K282" s="26"/>
     </row>
     <row r="283" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A283" s="13"/>
@@ -4865,8 +4920,8 @@
       <c r="G283" s="15"/>
       <c r="H283" s="13"/>
       <c r="I283" s="13"/>
-      <c r="J283" s="38"/>
-      <c r="K283" s="38"/>
+      <c r="J283" s="26"/>
+      <c r="K283" s="26"/>
     </row>
     <row r="284" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A284" s="13"/>
@@ -4878,8 +4933,8 @@
       <c r="G284" s="15"/>
       <c r="H284" s="13"/>
       <c r="I284" s="13"/>
-      <c r="J284" s="38"/>
-      <c r="K284" s="38"/>
+      <c r="J284" s="26"/>
+      <c r="K284" s="26"/>
     </row>
     <row r="285" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A285" s="13"/>
@@ -4891,8 +4946,8 @@
       <c r="G285" s="15"/>
       <c r="H285" s="13"/>
       <c r="I285" s="13"/>
-      <c r="J285" s="38"/>
-      <c r="K285" s="38"/>
+      <c r="J285" s="26"/>
+      <c r="K285" s="26"/>
     </row>
     <row r="286" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A286" s="13"/>
@@ -4904,8 +4959,8 @@
       <c r="G286" s="15"/>
       <c r="H286" s="13"/>
       <c r="I286" s="13"/>
-      <c r="J286" s="38"/>
-      <c r="K286" s="38"/>
+      <c r="J286" s="26"/>
+      <c r="K286" s="26"/>
     </row>
     <row r="287" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A287" s="13"/>
@@ -4917,8 +4972,8 @@
       <c r="G287" s="15"/>
       <c r="H287" s="13"/>
       <c r="I287" s="13"/>
-      <c r="J287" s="38"/>
-      <c r="K287" s="38"/>
+      <c r="J287" s="26"/>
+      <c r="K287" s="26"/>
     </row>
     <row r="288" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A288" s="13"/>
@@ -4930,8 +4985,8 @@
       <c r="G288" s="15"/>
       <c r="H288" s="13"/>
       <c r="I288" s="13"/>
-      <c r="J288" s="38"/>
-      <c r="K288" s="38"/>
+      <c r="J288" s="26"/>
+      <c r="K288" s="26"/>
     </row>
     <row r="289" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A289" s="13"/>
@@ -4943,8 +4998,8 @@
       <c r="G289" s="15"/>
       <c r="H289" s="13"/>
       <c r="I289" s="13"/>
-      <c r="J289" s="38"/>
-      <c r="K289" s="38"/>
+      <c r="J289" s="26"/>
+      <c r="K289" s="26"/>
     </row>
     <row r="290" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A290" s="13"/>
@@ -4956,8 +5011,8 @@
       <c r="G290" s="15"/>
       <c r="H290" s="13"/>
       <c r="I290" s="13"/>
-      <c r="J290" s="38"/>
-      <c r="K290" s="38"/>
+      <c r="J290" s="26"/>
+      <c r="K290" s="26"/>
     </row>
     <row r="291" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A291" s="13"/>
@@ -4969,8 +5024,8 @@
       <c r="G291" s="15"/>
       <c r="H291" s="13"/>
       <c r="I291" s="13"/>
-      <c r="J291" s="38"/>
-      <c r="K291" s="38"/>
+      <c r="J291" s="26"/>
+      <c r="K291" s="26"/>
     </row>
     <row r="292" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A292" s="13"/>
@@ -4982,8 +5037,8 @@
       <c r="G292" s="15"/>
       <c r="H292" s="13"/>
       <c r="I292" s="13"/>
-      <c r="J292" s="38"/>
-      <c r="K292" s="38"/>
+      <c r="J292" s="26"/>
+      <c r="K292" s="26"/>
     </row>
     <row r="293" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A293" s="13"/>
@@ -4995,8 +5050,8 @@
       <c r="G293" s="15"/>
       <c r="H293" s="13"/>
       <c r="I293" s="13"/>
-      <c r="J293" s="38"/>
-      <c r="K293" s="38"/>
+      <c r="J293" s="26"/>
+      <c r="K293" s="26"/>
     </row>
     <row r="294" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A294" s="13"/>
@@ -5008,8 +5063,8 @@
       <c r="G294" s="15"/>
       <c r="H294" s="13"/>
       <c r="I294" s="13"/>
-      <c r="J294" s="38"/>
-      <c r="K294" s="38"/>
+      <c r="J294" s="26"/>
+      <c r="K294" s="26"/>
     </row>
     <row r="295" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A295" s="13"/>
@@ -5021,8 +5076,8 @@
       <c r="G295" s="15"/>
       <c r="H295" s="13"/>
       <c r="I295" s="13"/>
-      <c r="J295" s="38"/>
-      <c r="K295" s="38"/>
+      <c r="J295" s="26"/>
+      <c r="K295" s="26"/>
     </row>
     <row r="296" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A296" s="13"/>
@@ -5034,8 +5089,8 @@
       <c r="G296" s="15"/>
       <c r="H296" s="13"/>
       <c r="I296" s="13"/>
-      <c r="J296" s="38"/>
-      <c r="K296" s="38"/>
+      <c r="J296" s="26"/>
+      <c r="K296" s="26"/>
     </row>
     <row r="297" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A297" s="13"/>
@@ -5047,8 +5102,8 @@
       <c r="G297" s="15"/>
       <c r="H297" s="13"/>
       <c r="I297" s="13"/>
-      <c r="J297" s="38"/>
-      <c r="K297" s="38"/>
+      <c r="J297" s="26"/>
+      <c r="K297" s="26"/>
     </row>
     <row r="298" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A298" s="13"/>
@@ -5060,8 +5115,8 @@
       <c r="G298" s="15"/>
       <c r="H298" s="13"/>
       <c r="I298" s="13"/>
-      <c r="J298" s="38"/>
-      <c r="K298" s="38"/>
+      <c r="J298" s="26"/>
+      <c r="K298" s="26"/>
     </row>
     <row r="299" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A299" s="13"/>
@@ -5073,8 +5128,8 @@
       <c r="G299" s="15"/>
       <c r="H299" s="13"/>
       <c r="I299" s="13"/>
-      <c r="J299" s="38"/>
-      <c r="K299" s="38"/>
+      <c r="J299" s="26"/>
+      <c r="K299" s="26"/>
     </row>
     <row r="300" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A300" s="13"/>
@@ -5086,8 +5141,8 @@
       <c r="G300" s="15"/>
       <c r="H300" s="13"/>
       <c r="I300" s="13"/>
-      <c r="J300" s="38"/>
-      <c r="K300" s="38"/>
+      <c r="J300" s="26"/>
+      <c r="K300" s="26"/>
     </row>
     <row r="301" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A301" s="13"/>
@@ -5099,8 +5154,8 @@
       <c r="G301" s="15"/>
       <c r="H301" s="13"/>
       <c r="I301" s="13"/>
-      <c r="J301" s="38"/>
-      <c r="K301" s="38"/>
+      <c r="J301" s="26"/>
+      <c r="K301" s="26"/>
     </row>
     <row r="302" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A302" s="13"/>
@@ -5112,8 +5167,8 @@
       <c r="G302" s="15"/>
       <c r="H302" s="13"/>
       <c r="I302" s="13"/>
-      <c r="J302" s="38"/>
-      <c r="K302" s="38"/>
+      <c r="J302" s="26"/>
+      <c r="K302" s="26"/>
     </row>
     <row r="303" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A303" s="13"/>
@@ -5125,8 +5180,8 @@
       <c r="G303" s="15"/>
       <c r="H303" s="13"/>
       <c r="I303" s="13"/>
-      <c r="J303" s="38"/>
-      <c r="K303" s="38"/>
+      <c r="J303" s="26"/>
+      <c r="K303" s="26"/>
     </row>
     <row r="304" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A304" s="13"/>
@@ -5138,8 +5193,8 @@
       <c r="G304" s="15"/>
       <c r="H304" s="13"/>
       <c r="I304" s="13"/>
-      <c r="J304" s="38"/>
-      <c r="K304" s="38"/>
+      <c r="J304" s="26"/>
+      <c r="K304" s="26"/>
     </row>
     <row r="305" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A305" s="13"/>
@@ -5151,8 +5206,8 @@
       <c r="G305" s="15"/>
       <c r="H305" s="13"/>
       <c r="I305" s="13"/>
-      <c r="J305" s="38"/>
-      <c r="K305" s="38"/>
+      <c r="J305" s="26"/>
+      <c r="K305" s="26"/>
     </row>
     <row r="306" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A306" s="13"/>
@@ -5164,8 +5219,8 @@
       <c r="G306" s="15"/>
       <c r="H306" s="13"/>
       <c r="I306" s="13"/>
-      <c r="J306" s="38"/>
-      <c r="K306" s="38"/>
+      <c r="J306" s="26"/>
+      <c r="K306" s="26"/>
     </row>
     <row r="307" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A307" s="13"/>
@@ -5177,8 +5232,8 @@
       <c r="G307" s="15"/>
       <c r="H307" s="13"/>
       <c r="I307" s="13"/>
-      <c r="J307" s="38"/>
-      <c r="K307" s="38"/>
+      <c r="J307" s="26"/>
+      <c r="K307" s="26"/>
     </row>
     <row r="308" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A308" s="13"/>
@@ -5190,8 +5245,8 @@
       <c r="G308" s="15"/>
       <c r="H308" s="13"/>
       <c r="I308" s="13"/>
-      <c r="J308" s="38"/>
-      <c r="K308" s="38"/>
+      <c r="J308" s="26"/>
+      <c r="K308" s="26"/>
     </row>
     <row r="309" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A309" s="13"/>
@@ -5203,8 +5258,8 @@
       <c r="G309" s="15"/>
       <c r="H309" s="13"/>
       <c r="I309" s="13"/>
-      <c r="J309" s="38"/>
-      <c r="K309" s="38"/>
+      <c r="J309" s="26"/>
+      <c r="K309" s="26"/>
     </row>
     <row r="310" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A310" s="13"/>
@@ -5216,8 +5271,8 @@
       <c r="G310" s="15"/>
       <c r="H310" s="13"/>
       <c r="I310" s="13"/>
-      <c r="J310" s="38"/>
-      <c r="K310" s="38"/>
+      <c r="J310" s="26"/>
+      <c r="K310" s="26"/>
     </row>
     <row r="311" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A311" s="13"/>
@@ -5229,8 +5284,8 @@
       <c r="G311" s="15"/>
       <c r="H311" s="13"/>
       <c r="I311" s="13"/>
-      <c r="J311" s="38"/>
-      <c r="K311" s="38"/>
+      <c r="J311" s="26"/>
+      <c r="K311" s="26"/>
     </row>
     <row r="312" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A312" s="13"/>
@@ -5242,8 +5297,8 @@
       <c r="G312" s="15"/>
       <c r="H312" s="13"/>
       <c r="I312" s="13"/>
-      <c r="J312" s="38"/>
-      <c r="K312" s="38"/>
+      <c r="J312" s="26"/>
+      <c r="K312" s="26"/>
     </row>
     <row r="313" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A313" s="13"/>
@@ -5255,8 +5310,8 @@
       <c r="G313" s="15"/>
       <c r="H313" s="13"/>
       <c r="I313" s="13"/>
-      <c r="J313" s="38"/>
-      <c r="K313" s="38"/>
+      <c r="J313" s="26"/>
+      <c r="K313" s="26"/>
     </row>
     <row r="314" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A314" s="13"/>
@@ -5268,8 +5323,8 @@
       <c r="G314" s="15"/>
       <c r="H314" s="13"/>
       <c r="I314" s="13"/>
-      <c r="J314" s="38"/>
-      <c r="K314" s="38"/>
+      <c r="J314" s="26"/>
+      <c r="K314" s="26"/>
     </row>
     <row r="315" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A315" s="13"/>
@@ -5281,8 +5336,8 @@
       <c r="G315" s="15"/>
       <c r="H315" s="13"/>
       <c r="I315" s="13"/>
-      <c r="J315" s="38"/>
-      <c r="K315" s="38"/>
+      <c r="J315" s="26"/>
+      <c r="K315" s="26"/>
     </row>
     <row r="316" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A316" s="13"/>
@@ -5294,8 +5349,8 @@
       <c r="G316" s="15"/>
       <c r="H316" s="13"/>
       <c r="I316" s="13"/>
-      <c r="J316" s="38"/>
-      <c r="K316" s="38"/>
+      <c r="J316" s="26"/>
+      <c r="K316" s="26"/>
     </row>
     <row r="317" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A317" s="13"/>
@@ -5307,8 +5362,8 @@
       <c r="G317" s="15"/>
       <c r="H317" s="13"/>
       <c r="I317" s="13"/>
-      <c r="J317" s="38"/>
-      <c r="K317" s="38"/>
+      <c r="J317" s="26"/>
+      <c r="K317" s="26"/>
     </row>
     <row r="318" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G318" s="2"/>
@@ -7336,311 +7391,144 @@
       <c r="G992" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="465">
-    <mergeCell ref="J316:K316"/>
-    <mergeCell ref="J317:K317"/>
-    <mergeCell ref="J307:K307"/>
-    <mergeCell ref="J308:K308"/>
-    <mergeCell ref="J309:K309"/>
-    <mergeCell ref="J310:K310"/>
-    <mergeCell ref="J311:K311"/>
-    <mergeCell ref="J312:K312"/>
-    <mergeCell ref="J313:K313"/>
-    <mergeCell ref="J314:K314"/>
-    <mergeCell ref="J315:K315"/>
-    <mergeCell ref="J298:K298"/>
-    <mergeCell ref="J299:K299"/>
-    <mergeCell ref="J300:K300"/>
-    <mergeCell ref="J301:K301"/>
-    <mergeCell ref="J302:K302"/>
-    <mergeCell ref="J303:K303"/>
-    <mergeCell ref="J304:K304"/>
-    <mergeCell ref="J305:K305"/>
-    <mergeCell ref="J306:K306"/>
-    <mergeCell ref="J289:K289"/>
-    <mergeCell ref="J290:K290"/>
-    <mergeCell ref="J291:K291"/>
-    <mergeCell ref="J292:K292"/>
-    <mergeCell ref="J293:K293"/>
-    <mergeCell ref="J294:K294"/>
-    <mergeCell ref="J295:K295"/>
-    <mergeCell ref="J296:K296"/>
-    <mergeCell ref="J297:K297"/>
-    <mergeCell ref="J280:K280"/>
-    <mergeCell ref="J281:K281"/>
-    <mergeCell ref="J282:K282"/>
-    <mergeCell ref="J283:K283"/>
-    <mergeCell ref="J284:K284"/>
-    <mergeCell ref="J285:K285"/>
-    <mergeCell ref="J286:K286"/>
-    <mergeCell ref="J287:K287"/>
-    <mergeCell ref="J288:K288"/>
-    <mergeCell ref="J271:K271"/>
-    <mergeCell ref="J272:K272"/>
-    <mergeCell ref="J273:K273"/>
-    <mergeCell ref="J274:K274"/>
-    <mergeCell ref="J275:K275"/>
-    <mergeCell ref="J276:K276"/>
-    <mergeCell ref="J277:K277"/>
-    <mergeCell ref="J278:K278"/>
-    <mergeCell ref="J279:K279"/>
-    <mergeCell ref="J262:K262"/>
-    <mergeCell ref="J263:K263"/>
-    <mergeCell ref="J264:K264"/>
-    <mergeCell ref="J265:K265"/>
-    <mergeCell ref="J266:K266"/>
-    <mergeCell ref="J267:K267"/>
-    <mergeCell ref="J268:K268"/>
-    <mergeCell ref="J269:K269"/>
-    <mergeCell ref="J270:K270"/>
-    <mergeCell ref="J253:K253"/>
-    <mergeCell ref="J254:K254"/>
-    <mergeCell ref="J255:K255"/>
-    <mergeCell ref="J256:K256"/>
-    <mergeCell ref="J257:K257"/>
-    <mergeCell ref="J258:K258"/>
-    <mergeCell ref="J259:K259"/>
-    <mergeCell ref="J260:K260"/>
-    <mergeCell ref="J261:K261"/>
-    <mergeCell ref="J244:K244"/>
-    <mergeCell ref="J245:K245"/>
-    <mergeCell ref="J246:K246"/>
-    <mergeCell ref="J247:K247"/>
-    <mergeCell ref="J248:K248"/>
-    <mergeCell ref="J249:K249"/>
-    <mergeCell ref="J250:K250"/>
-    <mergeCell ref="J251:K251"/>
-    <mergeCell ref="J252:K252"/>
-    <mergeCell ref="J235:K235"/>
-    <mergeCell ref="J236:K236"/>
-    <mergeCell ref="J237:K237"/>
-    <mergeCell ref="J238:K238"/>
-    <mergeCell ref="J239:K239"/>
-    <mergeCell ref="J240:K240"/>
-    <mergeCell ref="J241:K241"/>
-    <mergeCell ref="J242:K242"/>
-    <mergeCell ref="J243:K243"/>
-    <mergeCell ref="J226:K226"/>
-    <mergeCell ref="J227:K227"/>
-    <mergeCell ref="J228:K228"/>
-    <mergeCell ref="J229:K229"/>
-    <mergeCell ref="J230:K230"/>
-    <mergeCell ref="J231:K231"/>
-    <mergeCell ref="J232:K232"/>
-    <mergeCell ref="J233:K233"/>
-    <mergeCell ref="J234:K234"/>
-    <mergeCell ref="J217:K217"/>
-    <mergeCell ref="J218:K218"/>
-    <mergeCell ref="J219:K219"/>
-    <mergeCell ref="J220:K220"/>
-    <mergeCell ref="J221:K221"/>
-    <mergeCell ref="J222:K222"/>
-    <mergeCell ref="J223:K223"/>
-    <mergeCell ref="J224:K224"/>
-    <mergeCell ref="J225:K225"/>
-    <mergeCell ref="J208:K208"/>
-    <mergeCell ref="J209:K209"/>
-    <mergeCell ref="J210:K210"/>
-    <mergeCell ref="J211:K211"/>
-    <mergeCell ref="J212:K212"/>
-    <mergeCell ref="J213:K213"/>
-    <mergeCell ref="J214:K214"/>
-    <mergeCell ref="J215:K215"/>
-    <mergeCell ref="J216:K216"/>
-    <mergeCell ref="J199:K199"/>
-    <mergeCell ref="J200:K200"/>
-    <mergeCell ref="J201:K201"/>
-    <mergeCell ref="J202:K202"/>
-    <mergeCell ref="J203:K203"/>
-    <mergeCell ref="J204:K204"/>
-    <mergeCell ref="J205:K205"/>
-    <mergeCell ref="J206:K206"/>
-    <mergeCell ref="J207:K207"/>
-    <mergeCell ref="J190:K190"/>
-    <mergeCell ref="J191:K191"/>
-    <mergeCell ref="J192:K192"/>
-    <mergeCell ref="J193:K193"/>
-    <mergeCell ref="J194:K194"/>
-    <mergeCell ref="J195:K195"/>
-    <mergeCell ref="J196:K196"/>
-    <mergeCell ref="J197:K197"/>
-    <mergeCell ref="J198:K198"/>
-    <mergeCell ref="J181:K181"/>
-    <mergeCell ref="J182:K182"/>
-    <mergeCell ref="J183:K183"/>
-    <mergeCell ref="J184:K184"/>
-    <mergeCell ref="J185:K185"/>
-    <mergeCell ref="J186:K186"/>
-    <mergeCell ref="J187:K187"/>
-    <mergeCell ref="J188:K188"/>
-    <mergeCell ref="J189:K189"/>
-    <mergeCell ref="J159:K159"/>
-    <mergeCell ref="J160:K160"/>
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="J161:K161"/>
-    <mergeCell ref="J162:K162"/>
-    <mergeCell ref="J163:K163"/>
-    <mergeCell ref="J164:K164"/>
-    <mergeCell ref="J165:K165"/>
-    <mergeCell ref="J166:K166"/>
-    <mergeCell ref="J167:K167"/>
-    <mergeCell ref="J168:K168"/>
-    <mergeCell ref="J169:K169"/>
-    <mergeCell ref="J170:K170"/>
-    <mergeCell ref="J171:K171"/>
-    <mergeCell ref="J172:K172"/>
-    <mergeCell ref="J173:K173"/>
-    <mergeCell ref="J174:K174"/>
-    <mergeCell ref="J175:K175"/>
-    <mergeCell ref="J176:K176"/>
-    <mergeCell ref="J177:K177"/>
-    <mergeCell ref="J178:K178"/>
-    <mergeCell ref="J179:K179"/>
-    <mergeCell ref="J180:K180"/>
-    <mergeCell ref="J150:K150"/>
-    <mergeCell ref="J151:K151"/>
-    <mergeCell ref="J152:K152"/>
-    <mergeCell ref="J153:K153"/>
-    <mergeCell ref="J154:K154"/>
-    <mergeCell ref="J155:K155"/>
-    <mergeCell ref="J156:K156"/>
-    <mergeCell ref="J157:K157"/>
-    <mergeCell ref="J158:K158"/>
-    <mergeCell ref="J141:K141"/>
-    <mergeCell ref="J142:K142"/>
-    <mergeCell ref="J143:K143"/>
-    <mergeCell ref="J144:K144"/>
-    <mergeCell ref="J145:K145"/>
-    <mergeCell ref="J146:K146"/>
-    <mergeCell ref="J147:K147"/>
-    <mergeCell ref="J148:K148"/>
-    <mergeCell ref="J149:K149"/>
-    <mergeCell ref="J132:K132"/>
-    <mergeCell ref="J133:K133"/>
-    <mergeCell ref="J134:K134"/>
-    <mergeCell ref="J135:K135"/>
-    <mergeCell ref="J136:K136"/>
-    <mergeCell ref="J137:K137"/>
-    <mergeCell ref="J138:K138"/>
-    <mergeCell ref="J139:K139"/>
-    <mergeCell ref="J140:K140"/>
-    <mergeCell ref="J123:K123"/>
-    <mergeCell ref="J124:K124"/>
-    <mergeCell ref="J125:K125"/>
-    <mergeCell ref="J126:K126"/>
-    <mergeCell ref="J127:K127"/>
-    <mergeCell ref="J128:K128"/>
-    <mergeCell ref="J129:K129"/>
-    <mergeCell ref="J130:K130"/>
-    <mergeCell ref="J131:K131"/>
-    <mergeCell ref="J114:K114"/>
-    <mergeCell ref="J115:K115"/>
-    <mergeCell ref="J116:K116"/>
-    <mergeCell ref="J117:K117"/>
-    <mergeCell ref="J118:K118"/>
-    <mergeCell ref="J119:K119"/>
-    <mergeCell ref="J120:K120"/>
-    <mergeCell ref="J121:K121"/>
-    <mergeCell ref="J122:K122"/>
-    <mergeCell ref="J105:K105"/>
-    <mergeCell ref="J106:K106"/>
-    <mergeCell ref="J107:K107"/>
-    <mergeCell ref="J108:K108"/>
-    <mergeCell ref="J109:K109"/>
-    <mergeCell ref="J110:K110"/>
-    <mergeCell ref="J111:K111"/>
-    <mergeCell ref="J112:K112"/>
-    <mergeCell ref="J113:K113"/>
-    <mergeCell ref="J96:K96"/>
-    <mergeCell ref="J97:K97"/>
-    <mergeCell ref="J98:K98"/>
-    <mergeCell ref="J99:K99"/>
-    <mergeCell ref="J100:K100"/>
-    <mergeCell ref="J101:K101"/>
-    <mergeCell ref="J102:K102"/>
-    <mergeCell ref="J103:K103"/>
-    <mergeCell ref="J104:K104"/>
-    <mergeCell ref="J87:K87"/>
-    <mergeCell ref="J88:K88"/>
-    <mergeCell ref="J89:K89"/>
-    <mergeCell ref="J90:K90"/>
-    <mergeCell ref="J91:K91"/>
-    <mergeCell ref="J92:K92"/>
-    <mergeCell ref="J93:K93"/>
-    <mergeCell ref="J94:K94"/>
-    <mergeCell ref="J95:K95"/>
-    <mergeCell ref="J78:K78"/>
-    <mergeCell ref="J79:K79"/>
-    <mergeCell ref="J80:K80"/>
-    <mergeCell ref="J81:K81"/>
-    <mergeCell ref="J82:K82"/>
-    <mergeCell ref="J83:K83"/>
-    <mergeCell ref="J84:K84"/>
-    <mergeCell ref="J85:K85"/>
-    <mergeCell ref="J86:K86"/>
-    <mergeCell ref="J69:K69"/>
-    <mergeCell ref="J70:K70"/>
-    <mergeCell ref="J71:K71"/>
-    <mergeCell ref="J72:K72"/>
-    <mergeCell ref="J73:K73"/>
-    <mergeCell ref="J74:K74"/>
-    <mergeCell ref="J75:K75"/>
-    <mergeCell ref="J76:K76"/>
-    <mergeCell ref="J77:K77"/>
-    <mergeCell ref="J60:K60"/>
-    <mergeCell ref="J61:K61"/>
-    <mergeCell ref="J62:K62"/>
-    <mergeCell ref="J63:K63"/>
-    <mergeCell ref="J64:K64"/>
-    <mergeCell ref="J65:K65"/>
-    <mergeCell ref="J66:K66"/>
-    <mergeCell ref="J67:K67"/>
-    <mergeCell ref="J68:K68"/>
-    <mergeCell ref="J51:K51"/>
-    <mergeCell ref="J52:K52"/>
-    <mergeCell ref="J53:K53"/>
-    <mergeCell ref="J54:K54"/>
-    <mergeCell ref="J55:K55"/>
-    <mergeCell ref="J56:K56"/>
-    <mergeCell ref="J57:K57"/>
-    <mergeCell ref="J58:K58"/>
-    <mergeCell ref="J59:K59"/>
-    <mergeCell ref="J42:K42"/>
-    <mergeCell ref="J43:K43"/>
-    <mergeCell ref="J44:K44"/>
-    <mergeCell ref="J45:K45"/>
-    <mergeCell ref="J46:K46"/>
-    <mergeCell ref="J47:K47"/>
-    <mergeCell ref="J48:K48"/>
-    <mergeCell ref="J49:K49"/>
-    <mergeCell ref="J50:K50"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="J34:K34"/>
-    <mergeCell ref="J35:K35"/>
-    <mergeCell ref="J36:K36"/>
-    <mergeCell ref="J37:K37"/>
-    <mergeCell ref="J38:K38"/>
-    <mergeCell ref="J39:K39"/>
-    <mergeCell ref="J40:K40"/>
-    <mergeCell ref="J41:K41"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="J31:K31"/>
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="J23:K23"/>
+  <mergeCells count="463">
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="H146:I146"/>
+    <mergeCell ref="H147:I147"/>
+    <mergeCell ref="H148:I148"/>
+    <mergeCell ref="H149:I149"/>
+    <mergeCell ref="H150:I150"/>
+    <mergeCell ref="H141:I141"/>
+    <mergeCell ref="H142:I142"/>
+    <mergeCell ref="H143:I143"/>
+    <mergeCell ref="H144:I144"/>
+    <mergeCell ref="H145:I145"/>
+    <mergeCell ref="H136:I136"/>
+    <mergeCell ref="H137:I137"/>
+    <mergeCell ref="H138:I138"/>
+    <mergeCell ref="H139:I139"/>
+    <mergeCell ref="H140:I140"/>
+    <mergeCell ref="H131:I131"/>
+    <mergeCell ref="H132:I132"/>
+    <mergeCell ref="H133:I133"/>
+    <mergeCell ref="H134:I134"/>
+    <mergeCell ref="H135:I135"/>
+    <mergeCell ref="H126:I126"/>
+    <mergeCell ref="H127:I127"/>
+    <mergeCell ref="H128:I128"/>
+    <mergeCell ref="H129:I129"/>
+    <mergeCell ref="H130:I130"/>
+    <mergeCell ref="H121:I121"/>
+    <mergeCell ref="H122:I122"/>
+    <mergeCell ref="H123:I123"/>
+    <mergeCell ref="H124:I124"/>
+    <mergeCell ref="H125:I125"/>
+    <mergeCell ref="H116:I116"/>
+    <mergeCell ref="H117:I117"/>
+    <mergeCell ref="H118:I118"/>
+    <mergeCell ref="H119:I119"/>
+    <mergeCell ref="H120:I120"/>
+    <mergeCell ref="H111:I111"/>
+    <mergeCell ref="H112:I112"/>
+    <mergeCell ref="H113:I113"/>
+    <mergeCell ref="H114:I114"/>
+    <mergeCell ref="H115:I115"/>
+    <mergeCell ref="H106:I106"/>
+    <mergeCell ref="H107:I107"/>
+    <mergeCell ref="H108:I108"/>
+    <mergeCell ref="H109:I109"/>
+    <mergeCell ref="H110:I110"/>
+    <mergeCell ref="H101:I101"/>
+    <mergeCell ref="H102:I102"/>
+    <mergeCell ref="H103:I103"/>
+    <mergeCell ref="H104:I104"/>
+    <mergeCell ref="H105:I105"/>
+    <mergeCell ref="H96:I96"/>
+    <mergeCell ref="H97:I97"/>
+    <mergeCell ref="H98:I98"/>
+    <mergeCell ref="H99:I99"/>
+    <mergeCell ref="H100:I100"/>
+    <mergeCell ref="H91:I91"/>
+    <mergeCell ref="H92:I92"/>
+    <mergeCell ref="H93:I93"/>
+    <mergeCell ref="H94:I94"/>
+    <mergeCell ref="H95:I95"/>
+    <mergeCell ref="H86:I86"/>
+    <mergeCell ref="H87:I87"/>
+    <mergeCell ref="H88:I88"/>
+    <mergeCell ref="H89:I89"/>
+    <mergeCell ref="H90:I90"/>
+    <mergeCell ref="H81:I81"/>
+    <mergeCell ref="H82:I82"/>
+    <mergeCell ref="H83:I83"/>
+    <mergeCell ref="H84:I84"/>
+    <mergeCell ref="H85:I85"/>
+    <mergeCell ref="H76:I76"/>
+    <mergeCell ref="H77:I77"/>
+    <mergeCell ref="H78:I78"/>
+    <mergeCell ref="H79:I79"/>
+    <mergeCell ref="H80:I80"/>
+    <mergeCell ref="H71:I71"/>
+    <mergeCell ref="H72:I72"/>
+    <mergeCell ref="H73:I73"/>
+    <mergeCell ref="H74:I74"/>
+    <mergeCell ref="H75:I75"/>
+    <mergeCell ref="H66:I66"/>
+    <mergeCell ref="H67:I67"/>
+    <mergeCell ref="H68:I68"/>
+    <mergeCell ref="H69:I69"/>
+    <mergeCell ref="H70:I70"/>
+    <mergeCell ref="H61:I61"/>
+    <mergeCell ref="H62:I62"/>
+    <mergeCell ref="H63:I63"/>
+    <mergeCell ref="H64:I64"/>
+    <mergeCell ref="H65:I65"/>
+    <mergeCell ref="H56:I56"/>
+    <mergeCell ref="H57:I57"/>
+    <mergeCell ref="H58:I58"/>
+    <mergeCell ref="H59:I59"/>
+    <mergeCell ref="H60:I60"/>
+    <mergeCell ref="H51:I51"/>
+    <mergeCell ref="H52:I52"/>
+    <mergeCell ref="H53:I53"/>
+    <mergeCell ref="H54:I54"/>
+    <mergeCell ref="H55:I55"/>
+    <mergeCell ref="H46:I46"/>
+    <mergeCell ref="H47:I47"/>
+    <mergeCell ref="H48:I48"/>
+    <mergeCell ref="H49:I49"/>
+    <mergeCell ref="H50:I50"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="H42:I42"/>
+    <mergeCell ref="H43:I43"/>
+    <mergeCell ref="H44:I44"/>
+    <mergeCell ref="H45:I45"/>
+    <mergeCell ref="H36:I36"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="A27:K27"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="A20:K20"/>
     <mergeCell ref="H11:I11"/>
     <mergeCell ref="H12:I12"/>
     <mergeCell ref="H13:I13"/>
@@ -7665,146 +7553,311 @@
     <mergeCell ref="H7:I7"/>
     <mergeCell ref="H8:I8"/>
     <mergeCell ref="H9:I9"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="A20:I20"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="H41:I41"/>
-    <mergeCell ref="H42:I42"/>
-    <mergeCell ref="H43:I43"/>
-    <mergeCell ref="H44:I44"/>
-    <mergeCell ref="H45:I45"/>
-    <mergeCell ref="H36:I36"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="H38:I38"/>
-    <mergeCell ref="H39:I39"/>
-    <mergeCell ref="H40:I40"/>
-    <mergeCell ref="H51:I51"/>
-    <mergeCell ref="H52:I52"/>
-    <mergeCell ref="H53:I53"/>
-    <mergeCell ref="H54:I54"/>
-    <mergeCell ref="H55:I55"/>
-    <mergeCell ref="H46:I46"/>
-    <mergeCell ref="H47:I47"/>
-    <mergeCell ref="H48:I48"/>
-    <mergeCell ref="H49:I49"/>
-    <mergeCell ref="H50:I50"/>
-    <mergeCell ref="H61:I61"/>
-    <mergeCell ref="H62:I62"/>
-    <mergeCell ref="H63:I63"/>
-    <mergeCell ref="H64:I64"/>
-    <mergeCell ref="H65:I65"/>
-    <mergeCell ref="H56:I56"/>
-    <mergeCell ref="H57:I57"/>
-    <mergeCell ref="H58:I58"/>
-    <mergeCell ref="H59:I59"/>
-    <mergeCell ref="H60:I60"/>
-    <mergeCell ref="H71:I71"/>
-    <mergeCell ref="H72:I72"/>
-    <mergeCell ref="H73:I73"/>
-    <mergeCell ref="H74:I74"/>
-    <mergeCell ref="H75:I75"/>
-    <mergeCell ref="H66:I66"/>
-    <mergeCell ref="H67:I67"/>
-    <mergeCell ref="H68:I68"/>
-    <mergeCell ref="H69:I69"/>
-    <mergeCell ref="H70:I70"/>
-    <mergeCell ref="H81:I81"/>
-    <mergeCell ref="H82:I82"/>
-    <mergeCell ref="H83:I83"/>
-    <mergeCell ref="H84:I84"/>
-    <mergeCell ref="H85:I85"/>
-    <mergeCell ref="H76:I76"/>
-    <mergeCell ref="H77:I77"/>
-    <mergeCell ref="H78:I78"/>
-    <mergeCell ref="H79:I79"/>
-    <mergeCell ref="H80:I80"/>
-    <mergeCell ref="H91:I91"/>
-    <mergeCell ref="H92:I92"/>
-    <mergeCell ref="H93:I93"/>
-    <mergeCell ref="H94:I94"/>
-    <mergeCell ref="H95:I95"/>
-    <mergeCell ref="H86:I86"/>
-    <mergeCell ref="H87:I87"/>
-    <mergeCell ref="H88:I88"/>
-    <mergeCell ref="H89:I89"/>
-    <mergeCell ref="H90:I90"/>
-    <mergeCell ref="H101:I101"/>
-    <mergeCell ref="H102:I102"/>
-    <mergeCell ref="H103:I103"/>
-    <mergeCell ref="H104:I104"/>
-    <mergeCell ref="H105:I105"/>
-    <mergeCell ref="H96:I96"/>
-    <mergeCell ref="H97:I97"/>
-    <mergeCell ref="H98:I98"/>
-    <mergeCell ref="H99:I99"/>
-    <mergeCell ref="H100:I100"/>
-    <mergeCell ref="H111:I111"/>
-    <mergeCell ref="H112:I112"/>
-    <mergeCell ref="H113:I113"/>
-    <mergeCell ref="H114:I114"/>
-    <mergeCell ref="H115:I115"/>
-    <mergeCell ref="H106:I106"/>
-    <mergeCell ref="H107:I107"/>
-    <mergeCell ref="H108:I108"/>
-    <mergeCell ref="H109:I109"/>
-    <mergeCell ref="H110:I110"/>
-    <mergeCell ref="H129:I129"/>
-    <mergeCell ref="H130:I130"/>
-    <mergeCell ref="H121:I121"/>
-    <mergeCell ref="H122:I122"/>
-    <mergeCell ref="H123:I123"/>
-    <mergeCell ref="H124:I124"/>
-    <mergeCell ref="H125:I125"/>
-    <mergeCell ref="H116:I116"/>
-    <mergeCell ref="H117:I117"/>
-    <mergeCell ref="H118:I118"/>
-    <mergeCell ref="H119:I119"/>
-    <mergeCell ref="H120:I120"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="H146:I146"/>
-    <mergeCell ref="H147:I147"/>
-    <mergeCell ref="H148:I148"/>
-    <mergeCell ref="H149:I149"/>
-    <mergeCell ref="H150:I150"/>
-    <mergeCell ref="H141:I141"/>
-    <mergeCell ref="H142:I142"/>
-    <mergeCell ref="H143:I143"/>
-    <mergeCell ref="H144:I144"/>
-    <mergeCell ref="H145:I145"/>
-    <mergeCell ref="H136:I136"/>
-    <mergeCell ref="H137:I137"/>
-    <mergeCell ref="H138:I138"/>
-    <mergeCell ref="H139:I139"/>
-    <mergeCell ref="H140:I140"/>
-    <mergeCell ref="H131:I131"/>
-    <mergeCell ref="H132:I132"/>
-    <mergeCell ref="H133:I133"/>
-    <mergeCell ref="H134:I134"/>
-    <mergeCell ref="H135:I135"/>
-    <mergeCell ref="H126:I126"/>
-    <mergeCell ref="H127:I127"/>
-    <mergeCell ref="H128:I128"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="J35:K35"/>
+    <mergeCell ref="J36:K36"/>
+    <mergeCell ref="J37:K37"/>
+    <mergeCell ref="J38:K38"/>
+    <mergeCell ref="J39:K39"/>
+    <mergeCell ref="J40:K40"/>
+    <mergeCell ref="J41:K41"/>
+    <mergeCell ref="J42:K42"/>
+    <mergeCell ref="J43:K43"/>
+    <mergeCell ref="J44:K44"/>
+    <mergeCell ref="J45:K45"/>
+    <mergeCell ref="J46:K46"/>
+    <mergeCell ref="J47:K47"/>
+    <mergeCell ref="J48:K48"/>
+    <mergeCell ref="J49:K49"/>
+    <mergeCell ref="J50:K50"/>
+    <mergeCell ref="J51:K51"/>
+    <mergeCell ref="J52:K52"/>
+    <mergeCell ref="J53:K53"/>
+    <mergeCell ref="J54:K54"/>
+    <mergeCell ref="J55:K55"/>
+    <mergeCell ref="J56:K56"/>
+    <mergeCell ref="J57:K57"/>
+    <mergeCell ref="J58:K58"/>
+    <mergeCell ref="J59:K59"/>
+    <mergeCell ref="J60:K60"/>
+    <mergeCell ref="J61:K61"/>
+    <mergeCell ref="J62:K62"/>
+    <mergeCell ref="J63:K63"/>
+    <mergeCell ref="J64:K64"/>
+    <mergeCell ref="J65:K65"/>
+    <mergeCell ref="J66:K66"/>
+    <mergeCell ref="J67:K67"/>
+    <mergeCell ref="J68:K68"/>
+    <mergeCell ref="J69:K69"/>
+    <mergeCell ref="J70:K70"/>
+    <mergeCell ref="J71:K71"/>
+    <mergeCell ref="J72:K72"/>
+    <mergeCell ref="J73:K73"/>
+    <mergeCell ref="J74:K74"/>
+    <mergeCell ref="J75:K75"/>
+    <mergeCell ref="J76:K76"/>
+    <mergeCell ref="J77:K77"/>
+    <mergeCell ref="J78:K78"/>
+    <mergeCell ref="J79:K79"/>
+    <mergeCell ref="J80:K80"/>
+    <mergeCell ref="J81:K81"/>
+    <mergeCell ref="J82:K82"/>
+    <mergeCell ref="J83:K83"/>
+    <mergeCell ref="J84:K84"/>
+    <mergeCell ref="J85:K85"/>
+    <mergeCell ref="J86:K86"/>
+    <mergeCell ref="J87:K87"/>
+    <mergeCell ref="J88:K88"/>
+    <mergeCell ref="J89:K89"/>
+    <mergeCell ref="J90:K90"/>
+    <mergeCell ref="J91:K91"/>
+    <mergeCell ref="J92:K92"/>
+    <mergeCell ref="J93:K93"/>
+    <mergeCell ref="J94:K94"/>
+    <mergeCell ref="J95:K95"/>
+    <mergeCell ref="J96:K96"/>
+    <mergeCell ref="J97:K97"/>
+    <mergeCell ref="J98:K98"/>
+    <mergeCell ref="J99:K99"/>
+    <mergeCell ref="J100:K100"/>
+    <mergeCell ref="J101:K101"/>
+    <mergeCell ref="J102:K102"/>
+    <mergeCell ref="J103:K103"/>
+    <mergeCell ref="J104:K104"/>
+    <mergeCell ref="J105:K105"/>
+    <mergeCell ref="J106:K106"/>
+    <mergeCell ref="J107:K107"/>
+    <mergeCell ref="J108:K108"/>
+    <mergeCell ref="J109:K109"/>
+    <mergeCell ref="J110:K110"/>
+    <mergeCell ref="J111:K111"/>
+    <mergeCell ref="J112:K112"/>
+    <mergeCell ref="J113:K113"/>
+    <mergeCell ref="J114:K114"/>
+    <mergeCell ref="J115:K115"/>
+    <mergeCell ref="J116:K116"/>
+    <mergeCell ref="J117:K117"/>
+    <mergeCell ref="J118:K118"/>
+    <mergeCell ref="J119:K119"/>
+    <mergeCell ref="J120:K120"/>
+    <mergeCell ref="J121:K121"/>
+    <mergeCell ref="J122:K122"/>
+    <mergeCell ref="J138:K138"/>
+    <mergeCell ref="J139:K139"/>
+    <mergeCell ref="J140:K140"/>
+    <mergeCell ref="J123:K123"/>
+    <mergeCell ref="J124:K124"/>
+    <mergeCell ref="J125:K125"/>
+    <mergeCell ref="J126:K126"/>
+    <mergeCell ref="J127:K127"/>
+    <mergeCell ref="J128:K128"/>
+    <mergeCell ref="J129:K129"/>
+    <mergeCell ref="J130:K130"/>
+    <mergeCell ref="J131:K131"/>
+    <mergeCell ref="J176:K176"/>
+    <mergeCell ref="J177:K177"/>
+    <mergeCell ref="J178:K178"/>
+    <mergeCell ref="J179:K179"/>
+    <mergeCell ref="J180:K180"/>
+    <mergeCell ref="J150:K150"/>
+    <mergeCell ref="J151:K151"/>
+    <mergeCell ref="J152:K152"/>
+    <mergeCell ref="J153:K153"/>
+    <mergeCell ref="J154:K154"/>
+    <mergeCell ref="J155:K155"/>
+    <mergeCell ref="J156:K156"/>
+    <mergeCell ref="J157:K157"/>
+    <mergeCell ref="J158:K158"/>
+    <mergeCell ref="J167:K167"/>
+    <mergeCell ref="J168:K168"/>
+    <mergeCell ref="J169:K169"/>
+    <mergeCell ref="J170:K170"/>
+    <mergeCell ref="J171:K171"/>
+    <mergeCell ref="J172:K172"/>
+    <mergeCell ref="J173:K173"/>
+    <mergeCell ref="J174:K174"/>
+    <mergeCell ref="J175:K175"/>
+    <mergeCell ref="J159:K159"/>
+    <mergeCell ref="J160:K160"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="J161:K161"/>
+    <mergeCell ref="J162:K162"/>
+    <mergeCell ref="J163:K163"/>
+    <mergeCell ref="J164:K164"/>
+    <mergeCell ref="J165:K165"/>
+    <mergeCell ref="J166:K166"/>
+    <mergeCell ref="J141:K141"/>
+    <mergeCell ref="J142:K142"/>
+    <mergeCell ref="J143:K143"/>
+    <mergeCell ref="J144:K144"/>
+    <mergeCell ref="J145:K145"/>
+    <mergeCell ref="J146:K146"/>
+    <mergeCell ref="J147:K147"/>
+    <mergeCell ref="J148:K148"/>
+    <mergeCell ref="J149:K149"/>
+    <mergeCell ref="J132:K132"/>
+    <mergeCell ref="J133:K133"/>
+    <mergeCell ref="J134:K134"/>
+    <mergeCell ref="J135:K135"/>
+    <mergeCell ref="J136:K136"/>
+    <mergeCell ref="J137:K137"/>
+    <mergeCell ref="J181:K181"/>
+    <mergeCell ref="J182:K182"/>
+    <mergeCell ref="J183:K183"/>
+    <mergeCell ref="J184:K184"/>
+    <mergeCell ref="J185:K185"/>
+    <mergeCell ref="J186:K186"/>
+    <mergeCell ref="J187:K187"/>
+    <mergeCell ref="J188:K188"/>
+    <mergeCell ref="J189:K189"/>
+    <mergeCell ref="J190:K190"/>
+    <mergeCell ref="J191:K191"/>
+    <mergeCell ref="J192:K192"/>
+    <mergeCell ref="J193:K193"/>
+    <mergeCell ref="J194:K194"/>
+    <mergeCell ref="J195:K195"/>
+    <mergeCell ref="J196:K196"/>
+    <mergeCell ref="J197:K197"/>
+    <mergeCell ref="J198:K198"/>
+    <mergeCell ref="J199:K199"/>
+    <mergeCell ref="J200:K200"/>
+    <mergeCell ref="J201:K201"/>
+    <mergeCell ref="J202:K202"/>
+    <mergeCell ref="J203:K203"/>
+    <mergeCell ref="J204:K204"/>
+    <mergeCell ref="J205:K205"/>
+    <mergeCell ref="J206:K206"/>
+    <mergeCell ref="J207:K207"/>
+    <mergeCell ref="J208:K208"/>
+    <mergeCell ref="J209:K209"/>
+    <mergeCell ref="J210:K210"/>
+    <mergeCell ref="J211:K211"/>
+    <mergeCell ref="J212:K212"/>
+    <mergeCell ref="J213:K213"/>
+    <mergeCell ref="J214:K214"/>
+    <mergeCell ref="J215:K215"/>
+    <mergeCell ref="J216:K216"/>
+    <mergeCell ref="J217:K217"/>
+    <mergeCell ref="J218:K218"/>
+    <mergeCell ref="J219:K219"/>
+    <mergeCell ref="J220:K220"/>
+    <mergeCell ref="J221:K221"/>
+    <mergeCell ref="J222:K222"/>
+    <mergeCell ref="J223:K223"/>
+    <mergeCell ref="J224:K224"/>
+    <mergeCell ref="J225:K225"/>
+    <mergeCell ref="J226:K226"/>
+    <mergeCell ref="J227:K227"/>
+    <mergeCell ref="J228:K228"/>
+    <mergeCell ref="J229:K229"/>
+    <mergeCell ref="J230:K230"/>
+    <mergeCell ref="J231:K231"/>
+    <mergeCell ref="J232:K232"/>
+    <mergeCell ref="J233:K233"/>
+    <mergeCell ref="J234:K234"/>
+    <mergeCell ref="J235:K235"/>
+    <mergeCell ref="J236:K236"/>
+    <mergeCell ref="J237:K237"/>
+    <mergeCell ref="J238:K238"/>
+    <mergeCell ref="J239:K239"/>
+    <mergeCell ref="J240:K240"/>
+    <mergeCell ref="J241:K241"/>
+    <mergeCell ref="J242:K242"/>
+    <mergeCell ref="J243:K243"/>
+    <mergeCell ref="J244:K244"/>
+    <mergeCell ref="J245:K245"/>
+    <mergeCell ref="J246:K246"/>
+    <mergeCell ref="J247:K247"/>
+    <mergeCell ref="J248:K248"/>
+    <mergeCell ref="J249:K249"/>
+    <mergeCell ref="J250:K250"/>
+    <mergeCell ref="J251:K251"/>
+    <mergeCell ref="J252:K252"/>
+    <mergeCell ref="J253:K253"/>
+    <mergeCell ref="J254:K254"/>
+    <mergeCell ref="J255:K255"/>
+    <mergeCell ref="J256:K256"/>
+    <mergeCell ref="J257:K257"/>
+    <mergeCell ref="J258:K258"/>
+    <mergeCell ref="J259:K259"/>
+    <mergeCell ref="J260:K260"/>
+    <mergeCell ref="J261:K261"/>
+    <mergeCell ref="J262:K262"/>
+    <mergeCell ref="J263:K263"/>
+    <mergeCell ref="J264:K264"/>
+    <mergeCell ref="J265:K265"/>
+    <mergeCell ref="J266:K266"/>
+    <mergeCell ref="J267:K267"/>
+    <mergeCell ref="J268:K268"/>
+    <mergeCell ref="J269:K269"/>
+    <mergeCell ref="J270:K270"/>
+    <mergeCell ref="J271:K271"/>
+    <mergeCell ref="J272:K272"/>
+    <mergeCell ref="J273:K273"/>
+    <mergeCell ref="J274:K274"/>
+    <mergeCell ref="J275:K275"/>
+    <mergeCell ref="J276:K276"/>
+    <mergeCell ref="J277:K277"/>
+    <mergeCell ref="J278:K278"/>
+    <mergeCell ref="J279:K279"/>
+    <mergeCell ref="J280:K280"/>
+    <mergeCell ref="J281:K281"/>
+    <mergeCell ref="J282:K282"/>
+    <mergeCell ref="J283:K283"/>
+    <mergeCell ref="J284:K284"/>
+    <mergeCell ref="J285:K285"/>
+    <mergeCell ref="J286:K286"/>
+    <mergeCell ref="J287:K287"/>
+    <mergeCell ref="J288:K288"/>
+    <mergeCell ref="J289:K289"/>
+    <mergeCell ref="J290:K290"/>
+    <mergeCell ref="J291:K291"/>
+    <mergeCell ref="J292:K292"/>
+    <mergeCell ref="J293:K293"/>
+    <mergeCell ref="J294:K294"/>
+    <mergeCell ref="J295:K295"/>
+    <mergeCell ref="J296:K296"/>
+    <mergeCell ref="J297:K297"/>
+    <mergeCell ref="J298:K298"/>
+    <mergeCell ref="J299:K299"/>
+    <mergeCell ref="J300:K300"/>
+    <mergeCell ref="J301:K301"/>
+    <mergeCell ref="J302:K302"/>
+    <mergeCell ref="J303:K303"/>
+    <mergeCell ref="J304:K304"/>
+    <mergeCell ref="J305:K305"/>
+    <mergeCell ref="J306:K306"/>
+    <mergeCell ref="J316:K316"/>
+    <mergeCell ref="J317:K317"/>
+    <mergeCell ref="J307:K307"/>
+    <mergeCell ref="J308:K308"/>
+    <mergeCell ref="J309:K309"/>
+    <mergeCell ref="J310:K310"/>
+    <mergeCell ref="J311:K311"/>
+    <mergeCell ref="J312:K312"/>
+    <mergeCell ref="J313:K313"/>
+    <mergeCell ref="J314:K314"/>
+    <mergeCell ref="J315:K315"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G1 G3:G19 G21:G992" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G1 G3:G19 G21:G26 G28:G992" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"Approved,Rejected,Pending"</formula1>
     </dataValidation>
   </dataValidations>

--- a/Requirments/Review.xlsx
+++ b/Requirments/Review.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ITI\QA\Online-Mobile-Store-WebSite\Requirments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81E89E36-B68E-44B3-98AC-E47576FC9178}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C48B157-68EF-4BD0-BC60-74DF23870D3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="94">
   <si>
     <t>ID</t>
   </si>
@@ -279,13 +279,37 @@
   </si>
   <si>
     <t>CRS-SIQ Document Review</t>
+  </si>
+  <si>
+    <t>SRS File</t>
+  </si>
+  <si>
+    <t>SRS_Client_010</t>
+  </si>
+  <si>
+    <t>660008384a6474675cba117bbecaff44211bdc17</t>
+  </si>
+  <si>
+    <t>the client can cancel the order when in the payment page or only complete the process</t>
+  </si>
+  <si>
+    <t>yes the client can also cancel payment</t>
+  </si>
+  <si>
+    <t>Review_Client_002</t>
+  </si>
+  <si>
+    <t>SRS_Client_005</t>
+  </si>
+  <si>
+    <t>what if the product is out of stock</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -360,6 +384,13 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="6">
@@ -491,7 +522,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -540,21 +571,14 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -564,11 +588,28 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -794,8 +835,8 @@
   </sheetPr>
   <dimension ref="A1:AC992"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C21" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -803,8 +844,8 @@
     <col min="1" max="1" width="24" customWidth="1"/>
     <col min="2" max="2" width="27.28515625" customWidth="1"/>
     <col min="3" max="3" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="24" customWidth="1"/>
-    <col min="5" max="5" width="94.28515625" customWidth="1"/>
+    <col min="4" max="4" width="25.5703125" customWidth="1"/>
+    <col min="5" max="5" width="97.140625" customWidth="1"/>
     <col min="6" max="6" width="25.85546875" customWidth="1"/>
     <col min="7" max="7" width="18.5703125" customWidth="1"/>
     <col min="8" max="8" width="34.140625" customWidth="1"/>
@@ -834,14 +875,14 @@
       <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="31" t="s">
+      <c r="H1" s="26" t="s">
         <v>68</v>
       </c>
-      <c r="I1" s="32"/>
-      <c r="J1" s="31" t="s">
+      <c r="I1" s="27"/>
+      <c r="J1" s="26" t="s">
         <v>80</v>
       </c>
-      <c r="K1" s="32"/>
+      <c r="K1" s="27"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
@@ -862,19 +903,19 @@
       <c r="AC1" s="1"/>
     </row>
     <row r="2" spans="1:29" ht="36" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="37" t="s">
         <v>85</v>
       </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="28"/>
-      <c r="K2" s="28"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="38"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
@@ -916,12 +957,12 @@
       <c r="G3" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="29"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="26" t="s">
+      <c r="H3" s="33"/>
+      <c r="I3" s="34"/>
+      <c r="J3" s="36" t="s">
         <v>81</v>
       </c>
-      <c r="K3" s="26"/>
+      <c r="K3" s="36"/>
     </row>
     <row r="4" spans="1:29" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
@@ -945,12 +986,12 @@
       <c r="G4" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="H4" s="29"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="26" t="s">
+      <c r="H4" s="33"/>
+      <c r="I4" s="34"/>
+      <c r="J4" s="36" t="s">
         <v>81</v>
       </c>
-      <c r="K4" s="26"/>
+      <c r="K4" s="36"/>
     </row>
     <row r="5" spans="1:29" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
@@ -974,12 +1015,12 @@
       <c r="G5" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="H5" s="29"/>
-      <c r="I5" s="30"/>
-      <c r="J5" s="26" t="s">
+      <c r="H5" s="33"/>
+      <c r="I5" s="34"/>
+      <c r="J5" s="36" t="s">
         <v>81</v>
       </c>
-      <c r="K5" s="26"/>
+      <c r="K5" s="36"/>
     </row>
     <row r="6" spans="1:29" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
@@ -1003,12 +1044,12 @@
       <c r="G6" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="H6" s="29"/>
-      <c r="I6" s="30"/>
-      <c r="J6" s="26" t="s">
+      <c r="H6" s="33"/>
+      <c r="I6" s="34"/>
+      <c r="J6" s="36" t="s">
         <v>81</v>
       </c>
-      <c r="K6" s="26"/>
+      <c r="K6" s="36"/>
     </row>
     <row r="7" spans="1:29" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
@@ -1032,12 +1073,12 @@
       <c r="G7" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="H7" s="29"/>
-      <c r="I7" s="30"/>
-      <c r="J7" s="26" t="s">
+      <c r="H7" s="33"/>
+      <c r="I7" s="34"/>
+      <c r="J7" s="36" t="s">
         <v>81</v>
       </c>
-      <c r="K7" s="26"/>
+      <c r="K7" s="36"/>
     </row>
     <row r="8" spans="1:29" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
@@ -1061,12 +1102,12 @@
       <c r="G8" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="H8" s="29"/>
-      <c r="I8" s="30"/>
-      <c r="J8" s="26" t="s">
+      <c r="H8" s="33"/>
+      <c r="I8" s="34"/>
+      <c r="J8" s="36" t="s">
         <v>81</v>
       </c>
-      <c r="K8" s="26"/>
+      <c r="K8" s="36"/>
     </row>
     <row r="9" spans="1:29" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
@@ -1090,12 +1131,12 @@
       <c r="G9" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="H9" s="29"/>
-      <c r="I9" s="30"/>
-      <c r="J9" s="26" t="s">
+      <c r="H9" s="33"/>
+      <c r="I9" s="34"/>
+      <c r="J9" s="36" t="s">
         <v>81</v>
       </c>
-      <c r="K9" s="26"/>
+      <c r="K9" s="36"/>
     </row>
     <row r="10" spans="1:29" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
@@ -1119,12 +1160,12 @@
       <c r="G10" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="H10" s="29"/>
-      <c r="I10" s="30"/>
-      <c r="J10" s="26" t="s">
+      <c r="H10" s="33"/>
+      <c r="I10" s="34"/>
+      <c r="J10" s="36" t="s">
         <v>81</v>
       </c>
-      <c r="K10" s="26"/>
+      <c r="K10" s="36"/>
     </row>
     <row r="11" spans="1:29" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
@@ -1148,12 +1189,12 @@
       <c r="G11" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="H11" s="29"/>
-      <c r="I11" s="30"/>
-      <c r="J11" s="26" t="s">
+      <c r="H11" s="33"/>
+      <c r="I11" s="34"/>
+      <c r="J11" s="36" t="s">
         <v>81</v>
       </c>
-      <c r="K11" s="26"/>
+      <c r="K11" s="36"/>
     </row>
     <row r="12" spans="1:29" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
@@ -1177,12 +1218,12 @@
       <c r="G12" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="H12" s="29"/>
-      <c r="I12" s="30"/>
-      <c r="J12" s="26" t="s">
+      <c r="H12" s="33"/>
+      <c r="I12" s="34"/>
+      <c r="J12" s="36" t="s">
         <v>81</v>
       </c>
-      <c r="K12" s="26"/>
+      <c r="K12" s="36"/>
     </row>
     <row r="13" spans="1:29" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
@@ -1206,12 +1247,12 @@
       <c r="G13" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="H13" s="29"/>
-      <c r="I13" s="30"/>
-      <c r="J13" s="26" t="s">
+      <c r="H13" s="33"/>
+      <c r="I13" s="34"/>
+      <c r="J13" s="36" t="s">
         <v>81</v>
       </c>
-      <c r="K13" s="26"/>
+      <c r="K13" s="36"/>
     </row>
     <row r="14" spans="1:29" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
@@ -1235,12 +1276,12 @@
       <c r="G14" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="H14" s="29"/>
-      <c r="I14" s="30"/>
-      <c r="J14" s="26" t="s">
+      <c r="H14" s="33"/>
+      <c r="I14" s="34"/>
+      <c r="J14" s="36" t="s">
         <v>81</v>
       </c>
-      <c r="K14" s="26"/>
+      <c r="K14" s="36"/>
     </row>
     <row r="15" spans="1:29" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
@@ -1262,12 +1303,12 @@
       <c r="G15" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="H15" s="29"/>
-      <c r="I15" s="30"/>
-      <c r="J15" s="26" t="s">
+      <c r="H15" s="33"/>
+      <c r="I15" s="34"/>
+      <c r="J15" s="36" t="s">
         <v>81</v>
       </c>
-      <c r="K15" s="26"/>
+      <c r="K15" s="36"/>
     </row>
     <row r="16" spans="1:29" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
@@ -1291,12 +1332,12 @@
       <c r="G16" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="H16" s="29"/>
-      <c r="I16" s="30"/>
-      <c r="J16" s="26" t="s">
+      <c r="H16" s="33"/>
+      <c r="I16" s="34"/>
+      <c r="J16" s="36" t="s">
         <v>81</v>
       </c>
-      <c r="K16" s="26"/>
+      <c r="K16" s="36"/>
     </row>
     <row r="17" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
@@ -1320,12 +1361,12 @@
       <c r="G17" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="H17" s="29"/>
-      <c r="I17" s="30"/>
-      <c r="J17" s="26" t="s">
+      <c r="H17" s="33"/>
+      <c r="I17" s="34"/>
+      <c r="J17" s="36" t="s">
         <v>81</v>
       </c>
-      <c r="K17" s="26"/>
+      <c r="K17" s="36"/>
     </row>
     <row r="18" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
@@ -1349,12 +1390,12 @@
       <c r="G18" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="H18" s="29"/>
-      <c r="I18" s="30"/>
-      <c r="J18" s="26" t="s">
+      <c r="H18" s="33"/>
+      <c r="I18" s="34"/>
+      <c r="J18" s="36" t="s">
         <v>81</v>
       </c>
-      <c r="K18" s="26"/>
+      <c r="K18" s="36"/>
     </row>
     <row r="19" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A19" s="15" t="s">
@@ -1378,27 +1419,27 @@
       <c r="G19" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="H19" s="29"/>
-      <c r="I19" s="30"/>
-      <c r="J19" s="26" t="s">
+      <c r="H19" s="33"/>
+      <c r="I19" s="34"/>
+      <c r="J19" s="36" t="s">
         <v>81</v>
       </c>
-      <c r="K19" s="26"/>
+      <c r="K19" s="36"/>
     </row>
     <row r="20" spans="1:11" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A20" s="33" t="s">
+      <c r="A20" s="30" t="s">
         <v>84</v>
       </c>
-      <c r="B20" s="34"/>
-      <c r="C20" s="34"/>
-      <c r="D20" s="34"/>
-      <c r="E20" s="34"/>
-      <c r="F20" s="34"/>
-      <c r="G20" s="34"/>
-      <c r="H20" s="34"/>
-      <c r="I20" s="34"/>
-      <c r="J20" s="34"/>
-      <c r="K20" s="35"/>
+      <c r="B20" s="31"/>
+      <c r="C20" s="31"/>
+      <c r="D20" s="31"/>
+      <c r="E20" s="31"/>
+      <c r="F20" s="31"/>
+      <c r="G20" s="31"/>
+      <c r="H20" s="31"/>
+      <c r="I20" s="31"/>
+      <c r="J20" s="31"/>
+      <c r="K20" s="32"/>
     </row>
     <row r="21" spans="1:11" s="16" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="13" t="s">
@@ -1422,14 +1463,14 @@
       <c r="G21" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="H21" s="36" t="s">
+      <c r="H21" s="35" t="s">
         <v>72</v>
       </c>
-      <c r="I21" s="37"/>
-      <c r="J21" s="26" t="s">
+      <c r="I21" s="29"/>
+      <c r="J21" s="36" t="s">
         <v>82</v>
       </c>
-      <c r="K21" s="26"/>
+      <c r="K21" s="36"/>
     </row>
     <row r="22" spans="1:11" s="19" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A22" s="20" t="s">
@@ -1453,12 +1494,12 @@
       <c r="G22" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="H22" s="38"/>
-      <c r="I22" s="37"/>
-      <c r="J22" s="26" t="s">
+      <c r="H22" s="28"/>
+      <c r="I22" s="29"/>
+      <c r="J22" s="36" t="s">
         <v>82</v>
       </c>
-      <c r="K22" s="26"/>
+      <c r="K22" s="36"/>
     </row>
     <row r="23" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A23" s="13" t="s">
@@ -1482,14 +1523,14 @@
       <c r="G23" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="H23" s="38" t="s">
+      <c r="H23" s="28" t="s">
         <v>73</v>
       </c>
-      <c r="I23" s="37"/>
-      <c r="J23" s="26" t="s">
+      <c r="I23" s="29"/>
+      <c r="J23" s="36" t="s">
         <v>82</v>
       </c>
-      <c r="K23" s="26"/>
+      <c r="K23" s="36"/>
     </row>
     <row r="24" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A24" s="13" t="s">
@@ -1517,10 +1558,10 @@
         <v>74</v>
       </c>
       <c r="I24" s="25"/>
-      <c r="J24" s="26" t="s">
+      <c r="J24" s="36" t="s">
         <v>82</v>
       </c>
-      <c r="K24" s="26"/>
+      <c r="K24" s="36"/>
     </row>
     <row r="25" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A25" s="13" t="s">
@@ -1544,14 +1585,14 @@
       <c r="G25" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="H25" s="38" t="s">
+      <c r="H25" s="28" t="s">
         <v>76</v>
       </c>
-      <c r="I25" s="37"/>
-      <c r="J25" s="26" t="s">
+      <c r="I25" s="29"/>
+      <c r="J25" s="36" t="s">
         <v>82</v>
       </c>
-      <c r="K25" s="26"/>
+      <c r="K25" s="36"/>
     </row>
     <row r="26" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A26" s="13" t="s">
@@ -1572,522 +1613,558 @@
       <c r="F26" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="G26" s="15"/>
-      <c r="H26" s="38"/>
-      <c r="I26" s="37"/>
-      <c r="J26" s="26" t="s">
+      <c r="G26" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="H26" s="28"/>
+      <c r="I26" s="29"/>
+      <c r="J26" s="36" t="s">
         <v>82</v>
       </c>
-      <c r="K26" s="26"/>
+      <c r="K26" s="36"/>
     </row>
     <row r="27" spans="1:11" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A27" s="33" t="s">
+      <c r="A27" s="30" t="s">
         <v>83</v>
       </c>
-      <c r="B27" s="34"/>
-      <c r="C27" s="34"/>
-      <c r="D27" s="34"/>
-      <c r="E27" s="34"/>
-      <c r="F27" s="34"/>
-      <c r="G27" s="34"/>
-      <c r="H27" s="34"/>
-      <c r="I27" s="34"/>
-      <c r="J27" s="34"/>
-      <c r="K27" s="35"/>
+      <c r="B27" s="31"/>
+      <c r="C27" s="31"/>
+      <c r="D27" s="31"/>
+      <c r="E27" s="31"/>
+      <c r="F27" s="31"/>
+      <c r="G27" s="31"/>
+      <c r="H27" s="31"/>
+      <c r="I27" s="31"/>
+      <c r="J27" s="31"/>
+      <c r="K27" s="32"/>
     </row>
     <row r="28" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A28" s="13"/>
-      <c r="B28" s="13"/>
-      <c r="C28" s="13"/>
-      <c r="D28" s="13"/>
-      <c r="E28" s="13"/>
-      <c r="F28" s="13"/>
-      <c r="G28" s="15"/>
-      <c r="H28" s="38"/>
-      <c r="I28" s="37"/>
-      <c r="J28" s="26"/>
-      <c r="K28" s="26"/>
+      <c r="A28" s="40" t="s">
+        <v>55</v>
+      </c>
+      <c r="B28" s="17">
+        <v>45762</v>
+      </c>
+      <c r="C28" s="41" t="s">
+        <v>86</v>
+      </c>
+      <c r="D28" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="E28" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="F28" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="G28" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="H28" s="44"/>
+      <c r="I28" s="42"/>
+      <c r="J28" s="44" t="s">
+        <v>88</v>
+      </c>
+      <c r="K28" s="42"/>
     </row>
     <row r="29" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A29" s="13"/>
-      <c r="B29" s="13"/>
-      <c r="C29" s="13"/>
-      <c r="D29" s="13"/>
-      <c r="E29" s="13"/>
-      <c r="F29" s="13"/>
-      <c r="G29" s="15"/>
-      <c r="H29" s="38"/>
-      <c r="I29" s="37"/>
-      <c r="J29" s="26"/>
-      <c r="K29" s="26"/>
+      <c r="A29" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="B29" s="17">
+        <v>45762</v>
+      </c>
+      <c r="C29" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="D29" s="39" t="s">
+        <v>47</v>
+      </c>
+      <c r="E29" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="F29" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="G29" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="H29" s="28" t="s">
+        <v>90</v>
+      </c>
+      <c r="I29" s="29"/>
+      <c r="J29" s="43" t="s">
+        <v>88</v>
+      </c>
+      <c r="K29" s="36"/>
     </row>
     <row r="30" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A30" s="13"/>
-      <c r="B30" s="13"/>
-      <c r="C30" s="13"/>
-      <c r="D30" s="13"/>
+      <c r="B30" s="18"/>
+      <c r="C30" s="18"/>
+      <c r="D30" s="39"/>
       <c r="E30" s="13"/>
       <c r="F30" s="13"/>
       <c r="G30" s="15"/>
-      <c r="H30" s="38"/>
-      <c r="I30" s="37"/>
-      <c r="J30" s="26"/>
-      <c r="K30" s="26"/>
+      <c r="H30" s="28"/>
+      <c r="I30" s="29"/>
+      <c r="J30" s="36"/>
+      <c r="K30" s="36"/>
     </row>
     <row r="31" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A31" s="13"/>
-      <c r="B31" s="13"/>
-      <c r="C31" s="13"/>
-      <c r="D31" s="13"/>
+      <c r="B31" s="18"/>
+      <c r="C31" s="18"/>
+      <c r="D31" s="39"/>
       <c r="E31" s="13"/>
       <c r="F31" s="13"/>
       <c r="G31" s="15"/>
-      <c r="H31" s="38"/>
-      <c r="I31" s="37"/>
-      <c r="J31" s="26"/>
-      <c r="K31" s="26"/>
+      <c r="H31" s="28"/>
+      <c r="I31" s="29"/>
+      <c r="J31" s="36"/>
+      <c r="K31" s="36"/>
     </row>
     <row r="32" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A32" s="13"/>
-      <c r="B32" s="13"/>
-      <c r="C32" s="13"/>
-      <c r="D32" s="13"/>
+      <c r="B32" s="18"/>
+      <c r="C32" s="18"/>
+      <c r="D32" s="39"/>
       <c r="E32" s="13"/>
       <c r="F32" s="13"/>
       <c r="G32" s="15"/>
-      <c r="H32" s="38"/>
-      <c r="I32" s="37"/>
-      <c r="J32" s="26"/>
-      <c r="K32" s="26"/>
+      <c r="H32" s="28"/>
+      <c r="I32" s="29"/>
+      <c r="J32" s="36"/>
+      <c r="K32" s="36"/>
     </row>
     <row r="33" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A33" s="13"/>
-      <c r="B33" s="13"/>
-      <c r="C33" s="13"/>
-      <c r="D33" s="13"/>
+      <c r="B33" s="18"/>
+      <c r="C33" s="18"/>
+      <c r="D33" s="39"/>
       <c r="E33" s="13"/>
       <c r="F33" s="13"/>
       <c r="G33" s="15"/>
-      <c r="H33" s="38"/>
-      <c r="I33" s="37"/>
-      <c r="J33" s="26"/>
-      <c r="K33" s="26"/>
+      <c r="H33" s="28"/>
+      <c r="I33" s="29"/>
+      <c r="J33" s="36"/>
+      <c r="K33" s="36"/>
     </row>
     <row r="34" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A34" s="13"/>
-      <c r="B34" s="13"/>
-      <c r="C34" s="13"/>
-      <c r="D34" s="13"/>
+      <c r="B34" s="18"/>
+      <c r="C34" s="18"/>
+      <c r="D34" s="39"/>
       <c r="E34" s="13"/>
       <c r="F34" s="13"/>
       <c r="G34" s="15"/>
-      <c r="H34" s="38"/>
-      <c r="I34" s="37"/>
-      <c r="J34" s="26"/>
-      <c r="K34" s="26"/>
+      <c r="H34" s="28"/>
+      <c r="I34" s="29"/>
+      <c r="J34" s="36"/>
+      <c r="K34" s="36"/>
     </row>
     <row r="35" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A35" s="13"/>
-      <c r="B35" s="13"/>
-      <c r="C35" s="13"/>
-      <c r="D35" s="13"/>
+      <c r="B35" s="18"/>
+      <c r="C35" s="18"/>
+      <c r="D35" s="39"/>
       <c r="E35" s="13"/>
       <c r="F35" s="13"/>
       <c r="G35" s="15"/>
-      <c r="H35" s="38"/>
-      <c r="I35" s="37"/>
-      <c r="J35" s="26"/>
-      <c r="K35" s="26"/>
+      <c r="H35" s="28"/>
+      <c r="I35" s="29"/>
+      <c r="J35" s="36"/>
+      <c r="K35" s="36"/>
     </row>
     <row r="36" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A36" s="13"/>
-      <c r="B36" s="13"/>
-      <c r="C36" s="13"/>
-      <c r="D36" s="13"/>
+      <c r="B36" s="18"/>
+      <c r="C36" s="18"/>
+      <c r="D36" s="39"/>
       <c r="E36" s="13"/>
       <c r="F36" s="13"/>
       <c r="G36" s="15"/>
-      <c r="H36" s="38"/>
-      <c r="I36" s="37"/>
-      <c r="J36" s="26"/>
-      <c r="K36" s="26"/>
+      <c r="H36" s="28"/>
+      <c r="I36" s="29"/>
+      <c r="J36" s="36"/>
+      <c r="K36" s="36"/>
     </row>
     <row r="37" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A37" s="13"/>
-      <c r="B37" s="13"/>
-      <c r="C37" s="13"/>
-      <c r="D37" s="13"/>
+      <c r="B37" s="18"/>
+      <c r="C37" s="18"/>
+      <c r="D37" s="39"/>
       <c r="E37" s="13"/>
       <c r="F37" s="13"/>
       <c r="G37" s="15"/>
-      <c r="H37" s="38"/>
-      <c r="I37" s="37"/>
-      <c r="J37" s="26"/>
-      <c r="K37" s="26"/>
+      <c r="H37" s="28"/>
+      <c r="I37" s="29"/>
+      <c r="J37" s="36"/>
+      <c r="K37" s="36"/>
     </row>
     <row r="38" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A38" s="13"/>
-      <c r="B38" s="13"/>
-      <c r="C38" s="13"/>
-      <c r="D38" s="13"/>
+      <c r="B38" s="18"/>
+      <c r="C38" s="18"/>
+      <c r="D38" s="39"/>
       <c r="E38" s="13"/>
       <c r="F38" s="13"/>
       <c r="G38" s="15"/>
-      <c r="H38" s="38"/>
-      <c r="I38" s="37"/>
-      <c r="J38" s="26"/>
-      <c r="K38" s="26"/>
+      <c r="H38" s="28"/>
+      <c r="I38" s="29"/>
+      <c r="J38" s="36"/>
+      <c r="K38" s="36"/>
     </row>
     <row r="39" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A39" s="13"/>
-      <c r="B39" s="13"/>
-      <c r="C39" s="13"/>
-      <c r="D39" s="13"/>
+      <c r="B39" s="18"/>
+      <c r="C39" s="18"/>
+      <c r="D39" s="39"/>
       <c r="E39" s="13"/>
       <c r="F39" s="13"/>
       <c r="G39" s="15"/>
-      <c r="H39" s="38"/>
-      <c r="I39" s="37"/>
-      <c r="J39" s="26"/>
-      <c r="K39" s="26"/>
+      <c r="H39" s="28"/>
+      <c r="I39" s="29"/>
+      <c r="J39" s="36"/>
+      <c r="K39" s="36"/>
     </row>
     <row r="40" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A40" s="13"/>
-      <c r="B40" s="13"/>
-      <c r="C40" s="13"/>
-      <c r="D40" s="13"/>
+      <c r="B40" s="18"/>
+      <c r="C40" s="18"/>
+      <c r="D40" s="39"/>
       <c r="E40" s="13"/>
       <c r="F40" s="13"/>
       <c r="G40" s="15"/>
-      <c r="H40" s="38"/>
-      <c r="I40" s="37"/>
-      <c r="J40" s="26"/>
-      <c r="K40" s="26"/>
+      <c r="H40" s="28"/>
+      <c r="I40" s="29"/>
+      <c r="J40" s="36"/>
+      <c r="K40" s="36"/>
     </row>
     <row r="41" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A41" s="13"/>
-      <c r="B41" s="13"/>
-      <c r="C41" s="13"/>
-      <c r="D41" s="13"/>
+      <c r="B41" s="18"/>
+      <c r="C41" s="18"/>
+      <c r="D41" s="39"/>
       <c r="E41" s="13"/>
       <c r="F41" s="13"/>
       <c r="G41" s="15"/>
-      <c r="H41" s="38"/>
-      <c r="I41" s="37"/>
-      <c r="J41" s="26"/>
-      <c r="K41" s="26"/>
+      <c r="H41" s="28"/>
+      <c r="I41" s="29"/>
+      <c r="J41" s="36"/>
+      <c r="K41" s="36"/>
     </row>
     <row r="42" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A42" s="13"/>
-      <c r="B42" s="13"/>
-      <c r="C42" s="13"/>
-      <c r="D42" s="13"/>
+      <c r="B42" s="18"/>
+      <c r="C42" s="18"/>
+      <c r="D42" s="39"/>
       <c r="E42" s="13"/>
       <c r="F42" s="13"/>
       <c r="G42" s="15"/>
-      <c r="H42" s="38"/>
-      <c r="I42" s="37"/>
-      <c r="J42" s="26"/>
-      <c r="K42" s="26"/>
+      <c r="H42" s="28"/>
+      <c r="I42" s="29"/>
+      <c r="J42" s="36"/>
+      <c r="K42" s="36"/>
     </row>
     <row r="43" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A43" s="13"/>
-      <c r="B43" s="13"/>
-      <c r="C43" s="13"/>
-      <c r="D43" s="13"/>
+      <c r="B43" s="18"/>
+      <c r="C43" s="18"/>
+      <c r="D43" s="39"/>
       <c r="E43" s="13"/>
       <c r="F43" s="13"/>
       <c r="G43" s="15"/>
-      <c r="H43" s="38"/>
-      <c r="I43" s="37"/>
-      <c r="J43" s="26"/>
-      <c r="K43" s="26"/>
+      <c r="H43" s="28"/>
+      <c r="I43" s="29"/>
+      <c r="J43" s="36"/>
+      <c r="K43" s="36"/>
     </row>
     <row r="44" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A44" s="13"/>
-      <c r="B44" s="13"/>
-      <c r="C44" s="13"/>
-      <c r="D44" s="13"/>
+      <c r="B44" s="18"/>
+      <c r="C44" s="18"/>
+      <c r="D44" s="39"/>
       <c r="E44" s="13"/>
       <c r="F44" s="13"/>
       <c r="G44" s="15"/>
-      <c r="H44" s="38"/>
-      <c r="I44" s="37"/>
-      <c r="J44" s="26"/>
-      <c r="K44" s="26"/>
+      <c r="H44" s="28"/>
+      <c r="I44" s="29"/>
+      <c r="J44" s="36"/>
+      <c r="K44" s="36"/>
     </row>
     <row r="45" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A45" s="13"/>
-      <c r="B45" s="13"/>
-      <c r="C45" s="13"/>
-      <c r="D45" s="13"/>
+      <c r="B45" s="18"/>
+      <c r="C45" s="18"/>
+      <c r="D45" s="39"/>
       <c r="E45" s="13"/>
       <c r="F45" s="13"/>
       <c r="G45" s="15"/>
-      <c r="H45" s="38"/>
-      <c r="I45" s="37"/>
-      <c r="J45" s="26"/>
-      <c r="K45" s="26"/>
+      <c r="H45" s="28"/>
+      <c r="I45" s="29"/>
+      <c r="J45" s="36"/>
+      <c r="K45" s="36"/>
     </row>
     <row r="46" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A46" s="13"/>
-      <c r="B46" s="13"/>
-      <c r="C46" s="13"/>
-      <c r="D46" s="13"/>
+      <c r="B46" s="18"/>
+      <c r="C46" s="18"/>
+      <c r="D46" s="39"/>
       <c r="E46" s="13"/>
       <c r="F46" s="13"/>
       <c r="G46" s="15"/>
-      <c r="H46" s="38"/>
-      <c r="I46" s="37"/>
-      <c r="J46" s="26"/>
-      <c r="K46" s="26"/>
+      <c r="H46" s="28"/>
+      <c r="I46" s="29"/>
+      <c r="J46" s="36"/>
+      <c r="K46" s="36"/>
     </row>
     <row r="47" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A47" s="13"/>
-      <c r="B47" s="13"/>
-      <c r="C47" s="13"/>
-      <c r="D47" s="13"/>
+      <c r="B47" s="18"/>
+      <c r="C47" s="18"/>
+      <c r="D47" s="39"/>
       <c r="E47" s="13"/>
       <c r="F47" s="13"/>
       <c r="G47" s="15"/>
-      <c r="H47" s="38"/>
-      <c r="I47" s="37"/>
-      <c r="J47" s="26"/>
-      <c r="K47" s="26"/>
+      <c r="H47" s="28"/>
+      <c r="I47" s="29"/>
+      <c r="J47" s="36"/>
+      <c r="K47" s="36"/>
     </row>
     <row r="48" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A48" s="13"/>
-      <c r="B48" s="13"/>
-      <c r="C48" s="13"/>
-      <c r="D48" s="13"/>
+      <c r="B48" s="18"/>
+      <c r="C48" s="18"/>
+      <c r="D48" s="39"/>
       <c r="E48" s="13"/>
       <c r="F48" s="13"/>
       <c r="G48" s="15"/>
-      <c r="H48" s="38"/>
-      <c r="I48" s="37"/>
-      <c r="J48" s="26"/>
-      <c r="K48" s="26"/>
+      <c r="H48" s="28"/>
+      <c r="I48" s="29"/>
+      <c r="J48" s="36"/>
+      <c r="K48" s="36"/>
     </row>
     <row r="49" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A49" s="13"/>
-      <c r="B49" s="13"/>
-      <c r="C49" s="13"/>
-      <c r="D49" s="13"/>
+      <c r="B49" s="18"/>
+      <c r="C49" s="18"/>
+      <c r="D49" s="39"/>
       <c r="E49" s="13"/>
       <c r="F49" s="13"/>
       <c r="G49" s="15"/>
-      <c r="H49" s="38"/>
-      <c r="I49" s="37"/>
-      <c r="J49" s="26"/>
-      <c r="K49" s="26"/>
+      <c r="H49" s="28"/>
+      <c r="I49" s="29"/>
+      <c r="J49" s="36"/>
+      <c r="K49" s="36"/>
     </row>
     <row r="50" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A50" s="13"/>
-      <c r="B50" s="13"/>
-      <c r="C50" s="13"/>
-      <c r="D50" s="13"/>
+      <c r="B50" s="18"/>
+      <c r="C50" s="18"/>
+      <c r="D50" s="39"/>
       <c r="E50" s="13"/>
       <c r="F50" s="13"/>
       <c r="G50" s="15"/>
-      <c r="H50" s="38"/>
-      <c r="I50" s="37"/>
-      <c r="J50" s="26"/>
-      <c r="K50" s="26"/>
+      <c r="H50" s="28"/>
+      <c r="I50" s="29"/>
+      <c r="J50" s="36"/>
+      <c r="K50" s="36"/>
     </row>
     <row r="51" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A51" s="13"/>
-      <c r="B51" s="13"/>
-      <c r="C51" s="13"/>
-      <c r="D51" s="13"/>
+      <c r="B51" s="18"/>
+      <c r="C51" s="18"/>
+      <c r="D51" s="39"/>
       <c r="E51" s="13"/>
       <c r="F51" s="13"/>
       <c r="G51" s="15"/>
-      <c r="H51" s="38"/>
-      <c r="I51" s="37"/>
-      <c r="J51" s="26"/>
-      <c r="K51" s="26"/>
+      <c r="H51" s="28"/>
+      <c r="I51" s="29"/>
+      <c r="J51" s="36"/>
+      <c r="K51" s="36"/>
     </row>
     <row r="52" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A52" s="13"/>
-      <c r="B52" s="13"/>
-      <c r="C52" s="13"/>
-      <c r="D52" s="13"/>
+      <c r="B52" s="18"/>
+      <c r="C52" s="18"/>
+      <c r="D52" s="39"/>
       <c r="E52" s="13"/>
       <c r="F52" s="13"/>
       <c r="G52" s="15"/>
-      <c r="H52" s="38"/>
-      <c r="I52" s="37"/>
-      <c r="J52" s="26"/>
-      <c r="K52" s="26"/>
+      <c r="H52" s="28"/>
+      <c r="I52" s="29"/>
+      <c r="J52" s="36"/>
+      <c r="K52" s="36"/>
     </row>
     <row r="53" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A53" s="13"/>
       <c r="B53" s="13"/>
       <c r="C53" s="13"/>
-      <c r="D53" s="13"/>
+      <c r="D53" s="39"/>
       <c r="E53" s="13"/>
       <c r="F53" s="13"/>
       <c r="G53" s="15"/>
-      <c r="H53" s="38"/>
-      <c r="I53" s="37"/>
-      <c r="J53" s="26"/>
-      <c r="K53" s="26"/>
+      <c r="H53" s="28"/>
+      <c r="I53" s="29"/>
+      <c r="J53" s="36"/>
+      <c r="K53" s="36"/>
     </row>
     <row r="54" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A54" s="13"/>
       <c r="B54" s="13"/>
       <c r="C54" s="13"/>
-      <c r="D54" s="13"/>
+      <c r="D54" s="39"/>
       <c r="E54" s="13"/>
       <c r="F54" s="13"/>
       <c r="G54" s="15"/>
-      <c r="H54" s="38"/>
-      <c r="I54" s="37"/>
-      <c r="J54" s="26"/>
-      <c r="K54" s="26"/>
+      <c r="H54" s="28"/>
+      <c r="I54" s="29"/>
+      <c r="J54" s="36"/>
+      <c r="K54" s="36"/>
     </row>
     <row r="55" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A55" s="13"/>
       <c r="B55" s="13"/>
       <c r="C55" s="13"/>
-      <c r="D55" s="13"/>
+      <c r="D55" s="39"/>
       <c r="E55" s="13"/>
       <c r="F55" s="13"/>
       <c r="G55" s="15"/>
-      <c r="H55" s="38"/>
-      <c r="I55" s="37"/>
-      <c r="J55" s="26"/>
-      <c r="K55" s="26"/>
+      <c r="H55" s="28"/>
+      <c r="I55" s="29"/>
+      <c r="J55" s="36"/>
+      <c r="K55" s="36"/>
     </row>
     <row r="56" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A56" s="13"/>
       <c r="B56" s="13"/>
       <c r="C56" s="13"/>
-      <c r="D56" s="13"/>
+      <c r="D56" s="39"/>
       <c r="E56" s="13"/>
       <c r="F56" s="13"/>
       <c r="G56" s="15"/>
-      <c r="H56" s="38"/>
-      <c r="I56" s="37"/>
-      <c r="J56" s="26"/>
-      <c r="K56" s="26"/>
+      <c r="H56" s="28"/>
+      <c r="I56" s="29"/>
+      <c r="J56" s="36"/>
+      <c r="K56" s="36"/>
     </row>
     <row r="57" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A57" s="13"/>
       <c r="B57" s="13"/>
       <c r="C57" s="13"/>
-      <c r="D57" s="13"/>
+      <c r="D57" s="39"/>
       <c r="E57" s="13"/>
       <c r="F57" s="13"/>
       <c r="G57" s="15"/>
-      <c r="H57" s="38"/>
-      <c r="I57" s="37"/>
-      <c r="J57" s="26"/>
-      <c r="K57" s="26"/>
+      <c r="H57" s="28"/>
+      <c r="I57" s="29"/>
+      <c r="J57" s="36"/>
+      <c r="K57" s="36"/>
     </row>
     <row r="58" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A58" s="13"/>
       <c r="B58" s="13"/>
       <c r="C58" s="13"/>
-      <c r="D58" s="13"/>
+      <c r="D58" s="39"/>
       <c r="E58" s="13"/>
       <c r="F58" s="13"/>
       <c r="G58" s="15"/>
-      <c r="H58" s="38"/>
-      <c r="I58" s="37"/>
-      <c r="J58" s="26"/>
-      <c r="K58" s="26"/>
+      <c r="H58" s="28"/>
+      <c r="I58" s="29"/>
+      <c r="J58" s="36"/>
+      <c r="K58" s="36"/>
     </row>
     <row r="59" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A59" s="13"/>
       <c r="B59" s="13"/>
       <c r="C59" s="13"/>
-      <c r="D59" s="13"/>
+      <c r="D59" s="39"/>
       <c r="E59" s="13"/>
       <c r="F59" s="13"/>
       <c r="G59" s="15"/>
-      <c r="H59" s="38"/>
-      <c r="I59" s="37"/>
-      <c r="J59" s="26"/>
-      <c r="K59" s="26"/>
+      <c r="H59" s="28"/>
+      <c r="I59" s="29"/>
+      <c r="J59" s="36"/>
+      <c r="K59" s="36"/>
     </row>
     <row r="60" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A60" s="13"/>
       <c r="B60" s="13"/>
       <c r="C60" s="13"/>
-      <c r="D60" s="13"/>
+      <c r="D60" s="39"/>
       <c r="E60" s="13"/>
       <c r="F60" s="13"/>
       <c r="G60" s="15"/>
-      <c r="H60" s="38"/>
-      <c r="I60" s="37"/>
-      <c r="J60" s="26"/>
-      <c r="K60" s="26"/>
+      <c r="H60" s="28"/>
+      <c r="I60" s="29"/>
+      <c r="J60" s="36"/>
+      <c r="K60" s="36"/>
     </row>
     <row r="61" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A61" s="13"/>
       <c r="B61" s="13"/>
       <c r="C61" s="13"/>
-      <c r="D61" s="13"/>
+      <c r="D61" s="39"/>
       <c r="E61" s="13"/>
       <c r="F61" s="13"/>
       <c r="G61" s="15"/>
-      <c r="H61" s="38"/>
-      <c r="I61" s="37"/>
-      <c r="J61" s="26"/>
-      <c r="K61" s="26"/>
+      <c r="H61" s="28"/>
+      <c r="I61" s="29"/>
+      <c r="J61" s="36"/>
+      <c r="K61" s="36"/>
     </row>
     <row r="62" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A62" s="13"/>
       <c r="B62" s="13"/>
       <c r="C62" s="13"/>
-      <c r="D62" s="13"/>
+      <c r="D62" s="39"/>
       <c r="E62" s="13"/>
       <c r="F62" s="13"/>
       <c r="G62" s="15"/>
-      <c r="H62" s="38"/>
-      <c r="I62" s="37"/>
-      <c r="J62" s="26"/>
-      <c r="K62" s="26"/>
+      <c r="H62" s="28"/>
+      <c r="I62" s="29"/>
+      <c r="J62" s="36"/>
+      <c r="K62" s="36"/>
     </row>
     <row r="63" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A63" s="13"/>
       <c r="B63" s="13"/>
       <c r="C63" s="13"/>
-      <c r="D63" s="13"/>
+      <c r="D63" s="39"/>
       <c r="E63" s="13"/>
       <c r="F63" s="13"/>
       <c r="G63" s="15"/>
-      <c r="H63" s="38"/>
-      <c r="I63" s="37"/>
-      <c r="J63" s="26"/>
-      <c r="K63" s="26"/>
+      <c r="H63" s="28"/>
+      <c r="I63" s="29"/>
+      <c r="J63" s="36"/>
+      <c r="K63" s="36"/>
     </row>
     <row r="64" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A64" s="13"/>
       <c r="B64" s="13"/>
       <c r="C64" s="13"/>
-      <c r="D64" s="13"/>
+      <c r="D64" s="39"/>
       <c r="E64" s="13"/>
       <c r="F64" s="13"/>
       <c r="G64" s="15"/>
-      <c r="H64" s="38"/>
-      <c r="I64" s="37"/>
-      <c r="J64" s="26"/>
-      <c r="K64" s="26"/>
+      <c r="H64" s="28"/>
+      <c r="I64" s="29"/>
+      <c r="J64" s="36"/>
+      <c r="K64" s="36"/>
     </row>
     <row r="65" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A65" s="13"/>
       <c r="B65" s="13"/>
       <c r="C65" s="13"/>
-      <c r="D65" s="13"/>
+      <c r="D65" s="39"/>
       <c r="E65" s="13"/>
       <c r="F65" s="13"/>
       <c r="G65" s="15"/>
-      <c r="H65" s="38"/>
-      <c r="I65" s="37"/>
-      <c r="J65" s="26"/>
-      <c r="K65" s="26"/>
+      <c r="H65" s="28"/>
+      <c r="I65" s="29"/>
+      <c r="J65" s="36"/>
+      <c r="K65" s="36"/>
     </row>
     <row r="66" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A66" s="13"/>
@@ -2097,10 +2174,10 @@
       <c r="E66" s="13"/>
       <c r="F66" s="13"/>
       <c r="G66" s="15"/>
-      <c r="H66" s="38"/>
-      <c r="I66" s="37"/>
-      <c r="J66" s="26"/>
-      <c r="K66" s="26"/>
+      <c r="H66" s="28"/>
+      <c r="I66" s="29"/>
+      <c r="J66" s="36"/>
+      <c r="K66" s="36"/>
     </row>
     <row r="67" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A67" s="13"/>
@@ -2110,10 +2187,10 @@
       <c r="E67" s="13"/>
       <c r="F67" s="13"/>
       <c r="G67" s="15"/>
-      <c r="H67" s="38"/>
-      <c r="I67" s="37"/>
-      <c r="J67" s="26"/>
-      <c r="K67" s="26"/>
+      <c r="H67" s="28"/>
+      <c r="I67" s="29"/>
+      <c r="J67" s="36"/>
+      <c r="K67" s="36"/>
     </row>
     <row r="68" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A68" s="13"/>
@@ -2123,10 +2200,10 @@
       <c r="E68" s="13"/>
       <c r="F68" s="13"/>
       <c r="G68" s="15"/>
-      <c r="H68" s="38"/>
-      <c r="I68" s="37"/>
-      <c r="J68" s="26"/>
-      <c r="K68" s="26"/>
+      <c r="H68" s="28"/>
+      <c r="I68" s="29"/>
+      <c r="J68" s="36"/>
+      <c r="K68" s="36"/>
     </row>
     <row r="69" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A69" s="13"/>
@@ -2136,10 +2213,10 @@
       <c r="E69" s="13"/>
       <c r="F69" s="13"/>
       <c r="G69" s="15"/>
-      <c r="H69" s="38"/>
-      <c r="I69" s="37"/>
-      <c r="J69" s="26"/>
-      <c r="K69" s="26"/>
+      <c r="H69" s="28"/>
+      <c r="I69" s="29"/>
+      <c r="J69" s="36"/>
+      <c r="K69" s="36"/>
     </row>
     <row r="70" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A70" s="13"/>
@@ -2149,10 +2226,10 @@
       <c r="E70" s="13"/>
       <c r="F70" s="13"/>
       <c r="G70" s="15"/>
-      <c r="H70" s="38"/>
-      <c r="I70" s="37"/>
-      <c r="J70" s="26"/>
-      <c r="K70" s="26"/>
+      <c r="H70" s="28"/>
+      <c r="I70" s="29"/>
+      <c r="J70" s="36"/>
+      <c r="K70" s="36"/>
     </row>
     <row r="71" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A71" s="13"/>
@@ -2162,10 +2239,10 @@
       <c r="E71" s="13"/>
       <c r="F71" s="13"/>
       <c r="G71" s="15"/>
-      <c r="H71" s="38"/>
-      <c r="I71" s="37"/>
-      <c r="J71" s="26"/>
-      <c r="K71" s="26"/>
+      <c r="H71" s="28"/>
+      <c r="I71" s="29"/>
+      <c r="J71" s="36"/>
+      <c r="K71" s="36"/>
     </row>
     <row r="72" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A72" s="13"/>
@@ -2175,10 +2252,10 @@
       <c r="E72" s="13"/>
       <c r="F72" s="13"/>
       <c r="G72" s="15"/>
-      <c r="H72" s="38"/>
-      <c r="I72" s="37"/>
-      <c r="J72" s="26"/>
-      <c r="K72" s="26"/>
+      <c r="H72" s="28"/>
+      <c r="I72" s="29"/>
+      <c r="J72" s="36"/>
+      <c r="K72" s="36"/>
     </row>
     <row r="73" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A73" s="13"/>
@@ -2188,10 +2265,10 @@
       <c r="E73" s="13"/>
       <c r="F73" s="13"/>
       <c r="G73" s="15"/>
-      <c r="H73" s="38"/>
-      <c r="I73" s="37"/>
-      <c r="J73" s="26"/>
-      <c r="K73" s="26"/>
+      <c r="H73" s="28"/>
+      <c r="I73" s="29"/>
+      <c r="J73" s="36"/>
+      <c r="K73" s="36"/>
     </row>
     <row r="74" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A74" s="13"/>
@@ -2201,10 +2278,10 @@
       <c r="E74" s="13"/>
       <c r="F74" s="13"/>
       <c r="G74" s="15"/>
-      <c r="H74" s="38"/>
-      <c r="I74" s="37"/>
-      <c r="J74" s="26"/>
-      <c r="K74" s="26"/>
+      <c r="H74" s="28"/>
+      <c r="I74" s="29"/>
+      <c r="J74" s="36"/>
+      <c r="K74" s="36"/>
     </row>
     <row r="75" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A75" s="13"/>
@@ -2214,10 +2291,10 @@
       <c r="E75" s="13"/>
       <c r="F75" s="13"/>
       <c r="G75" s="15"/>
-      <c r="H75" s="38"/>
-      <c r="I75" s="37"/>
-      <c r="J75" s="26"/>
-      <c r="K75" s="26"/>
+      <c r="H75" s="28"/>
+      <c r="I75" s="29"/>
+      <c r="J75" s="36"/>
+      <c r="K75" s="36"/>
     </row>
     <row r="76" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A76" s="13"/>
@@ -2227,10 +2304,10 @@
       <c r="E76" s="13"/>
       <c r="F76" s="13"/>
       <c r="G76" s="15"/>
-      <c r="H76" s="38"/>
-      <c r="I76" s="37"/>
-      <c r="J76" s="26"/>
-      <c r="K76" s="26"/>
+      <c r="H76" s="28"/>
+      <c r="I76" s="29"/>
+      <c r="J76" s="36"/>
+      <c r="K76" s="36"/>
     </row>
     <row r="77" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A77" s="13"/>
@@ -2240,10 +2317,10 @@
       <c r="E77" s="13"/>
       <c r="F77" s="13"/>
       <c r="G77" s="15"/>
-      <c r="H77" s="38"/>
-      <c r="I77" s="37"/>
-      <c r="J77" s="26"/>
-      <c r="K77" s="26"/>
+      <c r="H77" s="28"/>
+      <c r="I77" s="29"/>
+      <c r="J77" s="36"/>
+      <c r="K77" s="36"/>
     </row>
     <row r="78" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A78" s="13"/>
@@ -2253,10 +2330,10 @@
       <c r="E78" s="13"/>
       <c r="F78" s="13"/>
       <c r="G78" s="15"/>
-      <c r="H78" s="38"/>
-      <c r="I78" s="37"/>
-      <c r="J78" s="26"/>
-      <c r="K78" s="26"/>
+      <c r="H78" s="28"/>
+      <c r="I78" s="29"/>
+      <c r="J78" s="36"/>
+      <c r="K78" s="36"/>
     </row>
     <row r="79" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A79" s="13"/>
@@ -2266,10 +2343,10 @@
       <c r="E79" s="13"/>
       <c r="F79" s="13"/>
       <c r="G79" s="15"/>
-      <c r="H79" s="38"/>
-      <c r="I79" s="37"/>
-      <c r="J79" s="26"/>
-      <c r="K79" s="26"/>
+      <c r="H79" s="28"/>
+      <c r="I79" s="29"/>
+      <c r="J79" s="36"/>
+      <c r="K79" s="36"/>
     </row>
     <row r="80" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A80" s="13"/>
@@ -2279,10 +2356,10 @@
       <c r="E80" s="13"/>
       <c r="F80" s="13"/>
       <c r="G80" s="15"/>
-      <c r="H80" s="38"/>
-      <c r="I80" s="37"/>
-      <c r="J80" s="26"/>
-      <c r="K80" s="26"/>
+      <c r="H80" s="28"/>
+      <c r="I80" s="29"/>
+      <c r="J80" s="36"/>
+      <c r="K80" s="36"/>
     </row>
     <row r="81" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A81" s="13"/>
@@ -2292,10 +2369,10 @@
       <c r="E81" s="13"/>
       <c r="F81" s="13"/>
       <c r="G81" s="15"/>
-      <c r="H81" s="38"/>
-      <c r="I81" s="37"/>
-      <c r="J81" s="26"/>
-      <c r="K81" s="26"/>
+      <c r="H81" s="28"/>
+      <c r="I81" s="29"/>
+      <c r="J81" s="36"/>
+      <c r="K81" s="36"/>
     </row>
     <row r="82" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A82" s="13"/>
@@ -2305,10 +2382,10 @@
       <c r="E82" s="13"/>
       <c r="F82" s="13"/>
       <c r="G82" s="15"/>
-      <c r="H82" s="38"/>
-      <c r="I82" s="37"/>
-      <c r="J82" s="26"/>
-      <c r="K82" s="26"/>
+      <c r="H82" s="28"/>
+      <c r="I82" s="29"/>
+      <c r="J82" s="36"/>
+      <c r="K82" s="36"/>
     </row>
     <row r="83" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A83" s="13"/>
@@ -2318,10 +2395,10 @@
       <c r="E83" s="13"/>
       <c r="F83" s="13"/>
       <c r="G83" s="15"/>
-      <c r="H83" s="38"/>
-      <c r="I83" s="37"/>
-      <c r="J83" s="26"/>
-      <c r="K83" s="26"/>
+      <c r="H83" s="28"/>
+      <c r="I83" s="29"/>
+      <c r="J83" s="36"/>
+      <c r="K83" s="36"/>
     </row>
     <row r="84" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A84" s="13"/>
@@ -2331,10 +2408,10 @@
       <c r="E84" s="13"/>
       <c r="F84" s="13"/>
       <c r="G84" s="15"/>
-      <c r="H84" s="38"/>
-      <c r="I84" s="37"/>
-      <c r="J84" s="26"/>
-      <c r="K84" s="26"/>
+      <c r="H84" s="28"/>
+      <c r="I84" s="29"/>
+      <c r="J84" s="36"/>
+      <c r="K84" s="36"/>
     </row>
     <row r="85" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A85" s="13"/>
@@ -2344,10 +2421,10 @@
       <c r="E85" s="13"/>
       <c r="F85" s="13"/>
       <c r="G85" s="15"/>
-      <c r="H85" s="38"/>
-      <c r="I85" s="37"/>
-      <c r="J85" s="26"/>
-      <c r="K85" s="26"/>
+      <c r="H85" s="28"/>
+      <c r="I85" s="29"/>
+      <c r="J85" s="36"/>
+      <c r="K85" s="36"/>
     </row>
     <row r="86" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A86" s="13"/>
@@ -2357,10 +2434,10 @@
       <c r="E86" s="13"/>
       <c r="F86" s="13"/>
       <c r="G86" s="15"/>
-      <c r="H86" s="38"/>
-      <c r="I86" s="37"/>
-      <c r="J86" s="26"/>
-      <c r="K86" s="26"/>
+      <c r="H86" s="28"/>
+      <c r="I86" s="29"/>
+      <c r="J86" s="36"/>
+      <c r="K86" s="36"/>
     </row>
     <row r="87" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A87" s="13"/>
@@ -2370,10 +2447,10 @@
       <c r="E87" s="13"/>
       <c r="F87" s="13"/>
       <c r="G87" s="15"/>
-      <c r="H87" s="38"/>
-      <c r="I87" s="37"/>
-      <c r="J87" s="26"/>
-      <c r="K87" s="26"/>
+      <c r="H87" s="28"/>
+      <c r="I87" s="29"/>
+      <c r="J87" s="36"/>
+      <c r="K87" s="36"/>
     </row>
     <row r="88" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A88" s="13"/>
@@ -2383,10 +2460,10 @@
       <c r="E88" s="13"/>
       <c r="F88" s="13"/>
       <c r="G88" s="15"/>
-      <c r="H88" s="38"/>
-      <c r="I88" s="37"/>
-      <c r="J88" s="26"/>
-      <c r="K88" s="26"/>
+      <c r="H88" s="28"/>
+      <c r="I88" s="29"/>
+      <c r="J88" s="36"/>
+      <c r="K88" s="36"/>
     </row>
     <row r="89" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A89" s="13"/>
@@ -2396,10 +2473,10 @@
       <c r="E89" s="13"/>
       <c r="F89" s="13"/>
       <c r="G89" s="15"/>
-      <c r="H89" s="38"/>
-      <c r="I89" s="37"/>
-      <c r="J89" s="26"/>
-      <c r="K89" s="26"/>
+      <c r="H89" s="28"/>
+      <c r="I89" s="29"/>
+      <c r="J89" s="36"/>
+      <c r="K89" s="36"/>
     </row>
     <row r="90" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A90" s="13"/>
@@ -2409,10 +2486,10 @@
       <c r="E90" s="13"/>
       <c r="F90" s="13"/>
       <c r="G90" s="15"/>
-      <c r="H90" s="38"/>
-      <c r="I90" s="37"/>
-      <c r="J90" s="26"/>
-      <c r="K90" s="26"/>
+      <c r="H90" s="28"/>
+      <c r="I90" s="29"/>
+      <c r="J90" s="36"/>
+      <c r="K90" s="36"/>
     </row>
     <row r="91" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A91" s="13"/>
@@ -2422,10 +2499,10 @@
       <c r="E91" s="13"/>
       <c r="F91" s="13"/>
       <c r="G91" s="15"/>
-      <c r="H91" s="38"/>
-      <c r="I91" s="37"/>
-      <c r="J91" s="26"/>
-      <c r="K91" s="26"/>
+      <c r="H91" s="28"/>
+      <c r="I91" s="29"/>
+      <c r="J91" s="36"/>
+      <c r="K91" s="36"/>
     </row>
     <row r="92" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A92" s="13"/>
@@ -2435,10 +2512,10 @@
       <c r="E92" s="13"/>
       <c r="F92" s="13"/>
       <c r="G92" s="15"/>
-      <c r="H92" s="38"/>
-      <c r="I92" s="37"/>
-      <c r="J92" s="26"/>
-      <c r="K92" s="26"/>
+      <c r="H92" s="28"/>
+      <c r="I92" s="29"/>
+      <c r="J92" s="36"/>
+      <c r="K92" s="36"/>
     </row>
     <row r="93" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A93" s="13"/>
@@ -2448,10 +2525,10 @@
       <c r="E93" s="13"/>
       <c r="F93" s="13"/>
       <c r="G93" s="15"/>
-      <c r="H93" s="38"/>
-      <c r="I93" s="37"/>
-      <c r="J93" s="26"/>
-      <c r="K93" s="26"/>
+      <c r="H93" s="28"/>
+      <c r="I93" s="29"/>
+      <c r="J93" s="36"/>
+      <c r="K93" s="36"/>
     </row>
     <row r="94" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A94" s="13"/>
@@ -2461,10 +2538,10 @@
       <c r="E94" s="13"/>
       <c r="F94" s="13"/>
       <c r="G94" s="15"/>
-      <c r="H94" s="38"/>
-      <c r="I94" s="37"/>
-      <c r="J94" s="26"/>
-      <c r="K94" s="26"/>
+      <c r="H94" s="28"/>
+      <c r="I94" s="29"/>
+      <c r="J94" s="36"/>
+      <c r="K94" s="36"/>
     </row>
     <row r="95" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A95" s="13"/>
@@ -2474,10 +2551,10 @@
       <c r="E95" s="13"/>
       <c r="F95" s="13"/>
       <c r="G95" s="15"/>
-      <c r="H95" s="38"/>
-      <c r="I95" s="37"/>
-      <c r="J95" s="26"/>
-      <c r="K95" s="26"/>
+      <c r="H95" s="28"/>
+      <c r="I95" s="29"/>
+      <c r="J95" s="36"/>
+      <c r="K95" s="36"/>
     </row>
     <row r="96" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A96" s="13"/>
@@ -2487,10 +2564,10 @@
       <c r="E96" s="13"/>
       <c r="F96" s="13"/>
       <c r="G96" s="15"/>
-      <c r="H96" s="38"/>
-      <c r="I96" s="37"/>
-      <c r="J96" s="26"/>
-      <c r="K96" s="26"/>
+      <c r="H96" s="28"/>
+      <c r="I96" s="29"/>
+      <c r="J96" s="36"/>
+      <c r="K96" s="36"/>
     </row>
     <row r="97" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A97" s="13"/>
@@ -2500,10 +2577,10 @@
       <c r="E97" s="13"/>
       <c r="F97" s="13"/>
       <c r="G97" s="15"/>
-      <c r="H97" s="38"/>
-      <c r="I97" s="37"/>
-      <c r="J97" s="26"/>
-      <c r="K97" s="26"/>
+      <c r="H97" s="28"/>
+      <c r="I97" s="29"/>
+      <c r="J97" s="36"/>
+      <c r="K97" s="36"/>
     </row>
     <row r="98" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A98" s="13"/>
@@ -2513,10 +2590,10 @@
       <c r="E98" s="13"/>
       <c r="F98" s="13"/>
       <c r="G98" s="15"/>
-      <c r="H98" s="38"/>
-      <c r="I98" s="37"/>
-      <c r="J98" s="26"/>
-      <c r="K98" s="26"/>
+      <c r="H98" s="28"/>
+      <c r="I98" s="29"/>
+      <c r="J98" s="36"/>
+      <c r="K98" s="36"/>
     </row>
     <row r="99" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A99" s="13"/>
@@ -2526,10 +2603,10 @@
       <c r="E99" s="13"/>
       <c r="F99" s="13"/>
       <c r="G99" s="15"/>
-      <c r="H99" s="38"/>
-      <c r="I99" s="37"/>
-      <c r="J99" s="26"/>
-      <c r="K99" s="26"/>
+      <c r="H99" s="28"/>
+      <c r="I99" s="29"/>
+      <c r="J99" s="36"/>
+      <c r="K99" s="36"/>
     </row>
     <row r="100" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A100" s="13"/>
@@ -2539,10 +2616,10 @@
       <c r="E100" s="13"/>
       <c r="F100" s="13"/>
       <c r="G100" s="15"/>
-      <c r="H100" s="38"/>
-      <c r="I100" s="37"/>
-      <c r="J100" s="26"/>
-      <c r="K100" s="26"/>
+      <c r="H100" s="28"/>
+      <c r="I100" s="29"/>
+      <c r="J100" s="36"/>
+      <c r="K100" s="36"/>
     </row>
     <row r="101" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A101" s="13"/>
@@ -2552,10 +2629,10 @@
       <c r="E101" s="13"/>
       <c r="F101" s="13"/>
       <c r="G101" s="15"/>
-      <c r="H101" s="38"/>
-      <c r="I101" s="37"/>
-      <c r="J101" s="26"/>
-      <c r="K101" s="26"/>
+      <c r="H101" s="28"/>
+      <c r="I101" s="29"/>
+      <c r="J101" s="36"/>
+      <c r="K101" s="36"/>
     </row>
     <row r="102" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A102" s="13"/>
@@ -2565,10 +2642,10 @@
       <c r="E102" s="13"/>
       <c r="F102" s="13"/>
       <c r="G102" s="15"/>
-      <c r="H102" s="38"/>
-      <c r="I102" s="37"/>
-      <c r="J102" s="26"/>
-      <c r="K102" s="26"/>
+      <c r="H102" s="28"/>
+      <c r="I102" s="29"/>
+      <c r="J102" s="36"/>
+      <c r="K102" s="36"/>
     </row>
     <row r="103" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A103" s="13"/>
@@ -2578,10 +2655,10 @@
       <c r="E103" s="13"/>
       <c r="F103" s="13"/>
       <c r="G103" s="15"/>
-      <c r="H103" s="38"/>
-      <c r="I103" s="37"/>
-      <c r="J103" s="26"/>
-      <c r="K103" s="26"/>
+      <c r="H103" s="28"/>
+      <c r="I103" s="29"/>
+      <c r="J103" s="36"/>
+      <c r="K103" s="36"/>
     </row>
     <row r="104" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A104" s="13"/>
@@ -2591,10 +2668,10 @@
       <c r="E104" s="13"/>
       <c r="F104" s="13"/>
       <c r="G104" s="15"/>
-      <c r="H104" s="38"/>
-      <c r="I104" s="37"/>
-      <c r="J104" s="26"/>
-      <c r="K104" s="26"/>
+      <c r="H104" s="28"/>
+      <c r="I104" s="29"/>
+      <c r="J104" s="36"/>
+      <c r="K104" s="36"/>
     </row>
     <row r="105" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A105" s="13"/>
@@ -2604,10 +2681,10 @@
       <c r="E105" s="13"/>
       <c r="F105" s="13"/>
       <c r="G105" s="15"/>
-      <c r="H105" s="38"/>
-      <c r="I105" s="37"/>
-      <c r="J105" s="26"/>
-      <c r="K105" s="26"/>
+      <c r="H105" s="28"/>
+      <c r="I105" s="29"/>
+      <c r="J105" s="36"/>
+      <c r="K105" s="36"/>
     </row>
     <row r="106" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A106" s="13"/>
@@ -2617,10 +2694,10 @@
       <c r="E106" s="13"/>
       <c r="F106" s="13"/>
       <c r="G106" s="15"/>
-      <c r="H106" s="38"/>
-      <c r="I106" s="37"/>
-      <c r="J106" s="26"/>
-      <c r="K106" s="26"/>
+      <c r="H106" s="28"/>
+      <c r="I106" s="29"/>
+      <c r="J106" s="36"/>
+      <c r="K106" s="36"/>
     </row>
     <row r="107" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A107" s="13"/>
@@ -2630,10 +2707,10 @@
       <c r="E107" s="13"/>
       <c r="F107" s="13"/>
       <c r="G107" s="15"/>
-      <c r="H107" s="38"/>
-      <c r="I107" s="37"/>
-      <c r="J107" s="26"/>
-      <c r="K107" s="26"/>
+      <c r="H107" s="28"/>
+      <c r="I107" s="29"/>
+      <c r="J107" s="36"/>
+      <c r="K107" s="36"/>
     </row>
     <row r="108" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A108" s="13"/>
@@ -2643,10 +2720,10 @@
       <c r="E108" s="13"/>
       <c r="F108" s="13"/>
       <c r="G108" s="15"/>
-      <c r="H108" s="38"/>
-      <c r="I108" s="37"/>
-      <c r="J108" s="26"/>
-      <c r="K108" s="26"/>
+      <c r="H108" s="28"/>
+      <c r="I108" s="29"/>
+      <c r="J108" s="36"/>
+      <c r="K108" s="36"/>
     </row>
     <row r="109" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A109" s="13"/>
@@ -2656,10 +2733,10 @@
       <c r="E109" s="13"/>
       <c r="F109" s="13"/>
       <c r="G109" s="15"/>
-      <c r="H109" s="38"/>
-      <c r="I109" s="37"/>
-      <c r="J109" s="26"/>
-      <c r="K109" s="26"/>
+      <c r="H109" s="28"/>
+      <c r="I109" s="29"/>
+      <c r="J109" s="36"/>
+      <c r="K109" s="36"/>
     </row>
     <row r="110" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A110" s="13"/>
@@ -2669,10 +2746,10 @@
       <c r="E110" s="13"/>
       <c r="F110" s="13"/>
       <c r="G110" s="15"/>
-      <c r="H110" s="38"/>
-      <c r="I110" s="37"/>
-      <c r="J110" s="26"/>
-      <c r="K110" s="26"/>
+      <c r="H110" s="28"/>
+      <c r="I110" s="29"/>
+      <c r="J110" s="36"/>
+      <c r="K110" s="36"/>
     </row>
     <row r="111" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A111" s="13"/>
@@ -2682,10 +2759,10 @@
       <c r="E111" s="13"/>
       <c r="F111" s="13"/>
       <c r="G111" s="15"/>
-      <c r="H111" s="38"/>
-      <c r="I111" s="37"/>
-      <c r="J111" s="26"/>
-      <c r="K111" s="26"/>
+      <c r="H111" s="28"/>
+      <c r="I111" s="29"/>
+      <c r="J111" s="36"/>
+      <c r="K111" s="36"/>
     </row>
     <row r="112" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A112" s="13"/>
@@ -2695,10 +2772,10 @@
       <c r="E112" s="13"/>
       <c r="F112" s="13"/>
       <c r="G112" s="15"/>
-      <c r="H112" s="38"/>
-      <c r="I112" s="37"/>
-      <c r="J112" s="26"/>
-      <c r="K112" s="26"/>
+      <c r="H112" s="28"/>
+      <c r="I112" s="29"/>
+      <c r="J112" s="36"/>
+      <c r="K112" s="36"/>
     </row>
     <row r="113" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A113" s="13"/>
@@ -2708,10 +2785,10 @@
       <c r="E113" s="13"/>
       <c r="F113" s="13"/>
       <c r="G113" s="15"/>
-      <c r="H113" s="38"/>
-      <c r="I113" s="37"/>
-      <c r="J113" s="26"/>
-      <c r="K113" s="26"/>
+      <c r="H113" s="28"/>
+      <c r="I113" s="29"/>
+      <c r="J113" s="36"/>
+      <c r="K113" s="36"/>
     </row>
     <row r="114" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A114" s="13"/>
@@ -2721,10 +2798,10 @@
       <c r="E114" s="13"/>
       <c r="F114" s="13"/>
       <c r="G114" s="15"/>
-      <c r="H114" s="38"/>
-      <c r="I114" s="37"/>
-      <c r="J114" s="26"/>
-      <c r="K114" s="26"/>
+      <c r="H114" s="28"/>
+      <c r="I114" s="29"/>
+      <c r="J114" s="36"/>
+      <c r="K114" s="36"/>
     </row>
     <row r="115" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A115" s="13"/>
@@ -2734,10 +2811,10 @@
       <c r="E115" s="13"/>
       <c r="F115" s="13"/>
       <c r="G115" s="15"/>
-      <c r="H115" s="38"/>
-      <c r="I115" s="37"/>
-      <c r="J115" s="26"/>
-      <c r="K115" s="26"/>
+      <c r="H115" s="28"/>
+      <c r="I115" s="29"/>
+      <c r="J115" s="36"/>
+      <c r="K115" s="36"/>
     </row>
     <row r="116" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A116" s="13"/>
@@ -2747,10 +2824,10 @@
       <c r="E116" s="13"/>
       <c r="F116" s="13"/>
       <c r="G116" s="15"/>
-      <c r="H116" s="38"/>
-      <c r="I116" s="37"/>
-      <c r="J116" s="26"/>
-      <c r="K116" s="26"/>
+      <c r="H116" s="28"/>
+      <c r="I116" s="29"/>
+      <c r="J116" s="36"/>
+      <c r="K116" s="36"/>
     </row>
     <row r="117" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A117" s="13"/>
@@ -2760,10 +2837,10 @@
       <c r="E117" s="13"/>
       <c r="F117" s="13"/>
       <c r="G117" s="15"/>
-      <c r="H117" s="38"/>
-      <c r="I117" s="37"/>
-      <c r="J117" s="26"/>
-      <c r="K117" s="26"/>
+      <c r="H117" s="28"/>
+      <c r="I117" s="29"/>
+      <c r="J117" s="36"/>
+      <c r="K117" s="36"/>
     </row>
     <row r="118" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A118" s="13"/>
@@ -2773,10 +2850,10 @@
       <c r="E118" s="13"/>
       <c r="F118" s="13"/>
       <c r="G118" s="15"/>
-      <c r="H118" s="38"/>
-      <c r="I118" s="37"/>
-      <c r="J118" s="26"/>
-      <c r="K118" s="26"/>
+      <c r="H118" s="28"/>
+      <c r="I118" s="29"/>
+      <c r="J118" s="36"/>
+      <c r="K118" s="36"/>
     </row>
     <row r="119" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A119" s="13"/>
@@ -2786,10 +2863,10 @@
       <c r="E119" s="13"/>
       <c r="F119" s="13"/>
       <c r="G119" s="15"/>
-      <c r="H119" s="38"/>
-      <c r="I119" s="37"/>
-      <c r="J119" s="26"/>
-      <c r="K119" s="26"/>
+      <c r="H119" s="28"/>
+      <c r="I119" s="29"/>
+      <c r="J119" s="36"/>
+      <c r="K119" s="36"/>
     </row>
     <row r="120" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A120" s="13"/>
@@ -2799,10 +2876,10 @@
       <c r="E120" s="13"/>
       <c r="F120" s="13"/>
       <c r="G120" s="15"/>
-      <c r="H120" s="38"/>
-      <c r="I120" s="37"/>
-      <c r="J120" s="26"/>
-      <c r="K120" s="26"/>
+      <c r="H120" s="28"/>
+      <c r="I120" s="29"/>
+      <c r="J120" s="36"/>
+      <c r="K120" s="36"/>
     </row>
     <row r="121" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A121" s="13"/>
@@ -2812,10 +2889,10 @@
       <c r="E121" s="13"/>
       <c r="F121" s="13"/>
       <c r="G121" s="15"/>
-      <c r="H121" s="38"/>
-      <c r="I121" s="37"/>
-      <c r="J121" s="26"/>
-      <c r="K121" s="26"/>
+      <c r="H121" s="28"/>
+      <c r="I121" s="29"/>
+      <c r="J121" s="36"/>
+      <c r="K121" s="36"/>
     </row>
     <row r="122" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A122" s="13"/>
@@ -2825,10 +2902,10 @@
       <c r="E122" s="13"/>
       <c r="F122" s="13"/>
       <c r="G122" s="15"/>
-      <c r="H122" s="38"/>
-      <c r="I122" s="37"/>
-      <c r="J122" s="26"/>
-      <c r="K122" s="26"/>
+      <c r="H122" s="28"/>
+      <c r="I122" s="29"/>
+      <c r="J122" s="36"/>
+      <c r="K122" s="36"/>
     </row>
     <row r="123" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A123" s="13"/>
@@ -2838,10 +2915,10 @@
       <c r="E123" s="13"/>
       <c r="F123" s="13"/>
       <c r="G123" s="15"/>
-      <c r="H123" s="38"/>
-      <c r="I123" s="37"/>
-      <c r="J123" s="26"/>
-      <c r="K123" s="26"/>
+      <c r="H123" s="28"/>
+      <c r="I123" s="29"/>
+      <c r="J123" s="36"/>
+      <c r="K123" s="36"/>
     </row>
     <row r="124" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A124" s="13"/>
@@ -2851,10 +2928,10 @@
       <c r="E124" s="13"/>
       <c r="F124" s="13"/>
       <c r="G124" s="15"/>
-      <c r="H124" s="38"/>
-      <c r="I124" s="37"/>
-      <c r="J124" s="26"/>
-      <c r="K124" s="26"/>
+      <c r="H124" s="28"/>
+      <c r="I124" s="29"/>
+      <c r="J124" s="36"/>
+      <c r="K124" s="36"/>
     </row>
     <row r="125" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A125" s="13"/>
@@ -2864,10 +2941,10 @@
       <c r="E125" s="13"/>
       <c r="F125" s="13"/>
       <c r="G125" s="15"/>
-      <c r="H125" s="38"/>
-      <c r="I125" s="37"/>
-      <c r="J125" s="26"/>
-      <c r="K125" s="26"/>
+      <c r="H125" s="28"/>
+      <c r="I125" s="29"/>
+      <c r="J125" s="36"/>
+      <c r="K125" s="36"/>
     </row>
     <row r="126" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A126" s="13"/>
@@ -2877,10 +2954,10 @@
       <c r="E126" s="13"/>
       <c r="F126" s="13"/>
       <c r="G126" s="15"/>
-      <c r="H126" s="38"/>
-      <c r="I126" s="37"/>
-      <c r="J126" s="26"/>
-      <c r="K126" s="26"/>
+      <c r="H126" s="28"/>
+      <c r="I126" s="29"/>
+      <c r="J126" s="36"/>
+      <c r="K126" s="36"/>
     </row>
     <row r="127" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A127" s="13"/>
@@ -2890,10 +2967,10 @@
       <c r="E127" s="13"/>
       <c r="F127" s="13"/>
       <c r="G127" s="15"/>
-      <c r="H127" s="38"/>
-      <c r="I127" s="37"/>
-      <c r="J127" s="26"/>
-      <c r="K127" s="26"/>
+      <c r="H127" s="28"/>
+      <c r="I127" s="29"/>
+      <c r="J127" s="36"/>
+      <c r="K127" s="36"/>
     </row>
     <row r="128" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A128" s="13"/>
@@ -2903,10 +2980,10 @@
       <c r="E128" s="13"/>
       <c r="F128" s="13"/>
       <c r="G128" s="15"/>
-      <c r="H128" s="38"/>
-      <c r="I128" s="37"/>
-      <c r="J128" s="26"/>
-      <c r="K128" s="26"/>
+      <c r="H128" s="28"/>
+      <c r="I128" s="29"/>
+      <c r="J128" s="36"/>
+      <c r="K128" s="36"/>
     </row>
     <row r="129" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A129" s="13"/>
@@ -2916,10 +2993,10 @@
       <c r="E129" s="13"/>
       <c r="F129" s="13"/>
       <c r="G129" s="15"/>
-      <c r="H129" s="38"/>
-      <c r="I129" s="37"/>
-      <c r="J129" s="26"/>
-      <c r="K129" s="26"/>
+      <c r="H129" s="28"/>
+      <c r="I129" s="29"/>
+      <c r="J129" s="36"/>
+      <c r="K129" s="36"/>
     </row>
     <row r="130" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A130" s="13"/>
@@ -2929,10 +3006,10 @@
       <c r="E130" s="13"/>
       <c r="F130" s="13"/>
       <c r="G130" s="15"/>
-      <c r="H130" s="38"/>
-      <c r="I130" s="37"/>
-      <c r="J130" s="26"/>
-      <c r="K130" s="26"/>
+      <c r="H130" s="28"/>
+      <c r="I130" s="29"/>
+      <c r="J130" s="36"/>
+      <c r="K130" s="36"/>
     </row>
     <row r="131" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A131" s="13"/>
@@ -2942,10 +3019,10 @@
       <c r="E131" s="13"/>
       <c r="F131" s="13"/>
       <c r="G131" s="15"/>
-      <c r="H131" s="38"/>
-      <c r="I131" s="37"/>
-      <c r="J131" s="26"/>
-      <c r="K131" s="26"/>
+      <c r="H131" s="28"/>
+      <c r="I131" s="29"/>
+      <c r="J131" s="36"/>
+      <c r="K131" s="36"/>
     </row>
     <row r="132" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A132" s="13"/>
@@ -2955,10 +3032,10 @@
       <c r="E132" s="13"/>
       <c r="F132" s="13"/>
       <c r="G132" s="15"/>
-      <c r="H132" s="38"/>
-      <c r="I132" s="37"/>
-      <c r="J132" s="26"/>
-      <c r="K132" s="26"/>
+      <c r="H132" s="28"/>
+      <c r="I132" s="29"/>
+      <c r="J132" s="36"/>
+      <c r="K132" s="36"/>
     </row>
     <row r="133" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A133" s="13"/>
@@ -2968,10 +3045,10 @@
       <c r="E133" s="13"/>
       <c r="F133" s="13"/>
       <c r="G133" s="15"/>
-      <c r="H133" s="38"/>
-      <c r="I133" s="37"/>
-      <c r="J133" s="26"/>
-      <c r="K133" s="26"/>
+      <c r="H133" s="28"/>
+      <c r="I133" s="29"/>
+      <c r="J133" s="36"/>
+      <c r="K133" s="36"/>
     </row>
     <row r="134" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A134" s="13"/>
@@ -2981,10 +3058,10 @@
       <c r="E134" s="13"/>
       <c r="F134" s="13"/>
       <c r="G134" s="15"/>
-      <c r="H134" s="38"/>
-      <c r="I134" s="37"/>
-      <c r="J134" s="26"/>
-      <c r="K134" s="26"/>
+      <c r="H134" s="28"/>
+      <c r="I134" s="29"/>
+      <c r="J134" s="36"/>
+      <c r="K134" s="36"/>
     </row>
     <row r="135" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A135" s="13"/>
@@ -2994,10 +3071,10 @@
       <c r="E135" s="13"/>
       <c r="F135" s="13"/>
       <c r="G135" s="15"/>
-      <c r="H135" s="38"/>
-      <c r="I135" s="37"/>
-      <c r="J135" s="26"/>
-      <c r="K135" s="26"/>
+      <c r="H135" s="28"/>
+      <c r="I135" s="29"/>
+      <c r="J135" s="36"/>
+      <c r="K135" s="36"/>
     </row>
     <row r="136" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A136" s="13"/>
@@ -3007,10 +3084,10 @@
       <c r="E136" s="13"/>
       <c r="F136" s="13"/>
       <c r="G136" s="15"/>
-      <c r="H136" s="38"/>
-      <c r="I136" s="37"/>
-      <c r="J136" s="26"/>
-      <c r="K136" s="26"/>
+      <c r="H136" s="28"/>
+      <c r="I136" s="29"/>
+      <c r="J136" s="36"/>
+      <c r="K136" s="36"/>
     </row>
     <row r="137" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A137" s="13"/>
@@ -3020,10 +3097,10 @@
       <c r="E137" s="13"/>
       <c r="F137" s="13"/>
       <c r="G137" s="15"/>
-      <c r="H137" s="38"/>
-      <c r="I137" s="37"/>
-      <c r="J137" s="26"/>
-      <c r="K137" s="26"/>
+      <c r="H137" s="28"/>
+      <c r="I137" s="29"/>
+      <c r="J137" s="36"/>
+      <c r="K137" s="36"/>
     </row>
     <row r="138" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A138" s="13"/>
@@ -3033,10 +3110,10 @@
       <c r="E138" s="13"/>
       <c r="F138" s="13"/>
       <c r="G138" s="15"/>
-      <c r="H138" s="38"/>
-      <c r="I138" s="37"/>
-      <c r="J138" s="26"/>
-      <c r="K138" s="26"/>
+      <c r="H138" s="28"/>
+      <c r="I138" s="29"/>
+      <c r="J138" s="36"/>
+      <c r="K138" s="36"/>
     </row>
     <row r="139" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A139" s="13"/>
@@ -3046,10 +3123,10 @@
       <c r="E139" s="13"/>
       <c r="F139" s="13"/>
       <c r="G139" s="15"/>
-      <c r="H139" s="38"/>
-      <c r="I139" s="37"/>
-      <c r="J139" s="26"/>
-      <c r="K139" s="26"/>
+      <c r="H139" s="28"/>
+      <c r="I139" s="29"/>
+      <c r="J139" s="36"/>
+      <c r="K139" s="36"/>
     </row>
     <row r="140" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A140" s="13"/>
@@ -3059,10 +3136,10 @@
       <c r="E140" s="13"/>
       <c r="F140" s="13"/>
       <c r="G140" s="15"/>
-      <c r="H140" s="38"/>
-      <c r="I140" s="37"/>
-      <c r="J140" s="26"/>
-      <c r="K140" s="26"/>
+      <c r="H140" s="28"/>
+      <c r="I140" s="29"/>
+      <c r="J140" s="36"/>
+      <c r="K140" s="36"/>
     </row>
     <row r="141" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A141" s="13"/>
@@ -3072,10 +3149,10 @@
       <c r="E141" s="13"/>
       <c r="F141" s="13"/>
       <c r="G141" s="15"/>
-      <c r="H141" s="38"/>
-      <c r="I141" s="37"/>
-      <c r="J141" s="26"/>
-      <c r="K141" s="26"/>
+      <c r="H141" s="28"/>
+      <c r="I141" s="29"/>
+      <c r="J141" s="36"/>
+      <c r="K141" s="36"/>
     </row>
     <row r="142" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A142" s="13"/>
@@ -3085,10 +3162,10 @@
       <c r="E142" s="13"/>
       <c r="F142" s="13"/>
       <c r="G142" s="15"/>
-      <c r="H142" s="38"/>
-      <c r="I142" s="37"/>
-      <c r="J142" s="26"/>
-      <c r="K142" s="26"/>
+      <c r="H142" s="28"/>
+      <c r="I142" s="29"/>
+      <c r="J142" s="36"/>
+      <c r="K142" s="36"/>
     </row>
     <row r="143" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A143" s="13"/>
@@ -3098,10 +3175,10 @@
       <c r="E143" s="13"/>
       <c r="F143" s="13"/>
       <c r="G143" s="15"/>
-      <c r="H143" s="38"/>
-      <c r="I143" s="37"/>
-      <c r="J143" s="26"/>
-      <c r="K143" s="26"/>
+      <c r="H143" s="28"/>
+      <c r="I143" s="29"/>
+      <c r="J143" s="36"/>
+      <c r="K143" s="36"/>
     </row>
     <row r="144" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A144" s="13"/>
@@ -3111,10 +3188,10 @@
       <c r="E144" s="13"/>
       <c r="F144" s="13"/>
       <c r="G144" s="15"/>
-      <c r="H144" s="38"/>
-      <c r="I144" s="37"/>
-      <c r="J144" s="26"/>
-      <c r="K144" s="26"/>
+      <c r="H144" s="28"/>
+      <c r="I144" s="29"/>
+      <c r="J144" s="36"/>
+      <c r="K144" s="36"/>
     </row>
     <row r="145" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A145" s="13"/>
@@ -3124,10 +3201,10 @@
       <c r="E145" s="13"/>
       <c r="F145" s="13"/>
       <c r="G145" s="15"/>
-      <c r="H145" s="38"/>
-      <c r="I145" s="37"/>
-      <c r="J145" s="26"/>
-      <c r="K145" s="26"/>
+      <c r="H145" s="28"/>
+      <c r="I145" s="29"/>
+      <c r="J145" s="36"/>
+      <c r="K145" s="36"/>
     </row>
     <row r="146" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A146" s="13"/>
@@ -3137,10 +3214,10 @@
       <c r="E146" s="13"/>
       <c r="F146" s="13"/>
       <c r="G146" s="15"/>
-      <c r="H146" s="38"/>
-      <c r="I146" s="37"/>
-      <c r="J146" s="26"/>
-      <c r="K146" s="26"/>
+      <c r="H146" s="28"/>
+      <c r="I146" s="29"/>
+      <c r="J146" s="36"/>
+      <c r="K146" s="36"/>
     </row>
     <row r="147" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A147" s="13"/>
@@ -3150,10 +3227,10 @@
       <c r="E147" s="13"/>
       <c r="F147" s="13"/>
       <c r="G147" s="15"/>
-      <c r="H147" s="38"/>
-      <c r="I147" s="37"/>
-      <c r="J147" s="26"/>
-      <c r="K147" s="26"/>
+      <c r="H147" s="28"/>
+      <c r="I147" s="29"/>
+      <c r="J147" s="36"/>
+      <c r="K147" s="36"/>
     </row>
     <row r="148" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A148" s="13"/>
@@ -3163,10 +3240,10 @@
       <c r="E148" s="13"/>
       <c r="F148" s="13"/>
       <c r="G148" s="15"/>
-      <c r="H148" s="38"/>
-      <c r="I148" s="37"/>
-      <c r="J148" s="26"/>
-      <c r="K148" s="26"/>
+      <c r="H148" s="28"/>
+      <c r="I148" s="29"/>
+      <c r="J148" s="36"/>
+      <c r="K148" s="36"/>
     </row>
     <row r="149" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A149" s="13"/>
@@ -3176,10 +3253,10 @@
       <c r="E149" s="13"/>
       <c r="F149" s="13"/>
       <c r="G149" s="15"/>
-      <c r="H149" s="38"/>
-      <c r="I149" s="37"/>
-      <c r="J149" s="26"/>
-      <c r="K149" s="26"/>
+      <c r="H149" s="28"/>
+      <c r="I149" s="29"/>
+      <c r="J149" s="36"/>
+      <c r="K149" s="36"/>
     </row>
     <row r="150" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A150" s="13"/>
@@ -3189,10 +3266,10 @@
       <c r="E150" s="13"/>
       <c r="F150" s="13"/>
       <c r="G150" s="15"/>
-      <c r="H150" s="38"/>
-      <c r="I150" s="37"/>
-      <c r="J150" s="26"/>
-      <c r="K150" s="26"/>
+      <c r="H150" s="28"/>
+      <c r="I150" s="29"/>
+      <c r="J150" s="36"/>
+      <c r="K150" s="36"/>
     </row>
     <row r="151" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A151" s="13"/>
@@ -3204,8 +3281,8 @@
       <c r="G151" s="15"/>
       <c r="H151" s="13"/>
       <c r="I151" s="13"/>
-      <c r="J151" s="26"/>
-      <c r="K151" s="26"/>
+      <c r="J151" s="36"/>
+      <c r="K151" s="36"/>
     </row>
     <row r="152" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A152" s="13"/>
@@ -3217,8 +3294,8 @@
       <c r="G152" s="15"/>
       <c r="H152" s="13"/>
       <c r="I152" s="13"/>
-      <c r="J152" s="26"/>
-      <c r="K152" s="26"/>
+      <c r="J152" s="36"/>
+      <c r="K152" s="36"/>
     </row>
     <row r="153" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A153" s="13"/>
@@ -3230,8 +3307,8 @@
       <c r="G153" s="15"/>
       <c r="H153" s="13"/>
       <c r="I153" s="13"/>
-      <c r="J153" s="26"/>
-      <c r="K153" s="26"/>
+      <c r="J153" s="36"/>
+      <c r="K153" s="36"/>
     </row>
     <row r="154" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A154" s="13"/>
@@ -3243,8 +3320,8 @@
       <c r="G154" s="15"/>
       <c r="H154" s="13"/>
       <c r="I154" s="13"/>
-      <c r="J154" s="26"/>
-      <c r="K154" s="26"/>
+      <c r="J154" s="36"/>
+      <c r="K154" s="36"/>
     </row>
     <row r="155" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A155" s="13"/>
@@ -3256,8 +3333,8 @@
       <c r="G155" s="15"/>
       <c r="H155" s="13"/>
       <c r="I155" s="13"/>
-      <c r="J155" s="26"/>
-      <c r="K155" s="26"/>
+      <c r="J155" s="36"/>
+      <c r="K155" s="36"/>
     </row>
     <row r="156" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A156" s="13"/>
@@ -3269,8 +3346,8 @@
       <c r="G156" s="15"/>
       <c r="H156" s="13"/>
       <c r="I156" s="13"/>
-      <c r="J156" s="26"/>
-      <c r="K156" s="26"/>
+      <c r="J156" s="36"/>
+      <c r="K156" s="36"/>
     </row>
     <row r="157" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A157" s="13"/>
@@ -3282,8 +3359,8 @@
       <c r="G157" s="15"/>
       <c r="H157" s="13"/>
       <c r="I157" s="13"/>
-      <c r="J157" s="26"/>
-      <c r="K157" s="26"/>
+      <c r="J157" s="36"/>
+      <c r="K157" s="36"/>
     </row>
     <row r="158" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A158" s="13"/>
@@ -3295,8 +3372,8 @@
       <c r="G158" s="15"/>
       <c r="H158" s="13"/>
       <c r="I158" s="13"/>
-      <c r="J158" s="26"/>
-      <c r="K158" s="26"/>
+      <c r="J158" s="36"/>
+      <c r="K158" s="36"/>
     </row>
     <row r="159" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A159" s="13"/>
@@ -3308,8 +3385,8 @@
       <c r="G159" s="15"/>
       <c r="H159" s="13"/>
       <c r="I159" s="13"/>
-      <c r="J159" s="26"/>
-      <c r="K159" s="26"/>
+      <c r="J159" s="36"/>
+      <c r="K159" s="36"/>
     </row>
     <row r="160" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A160" s="13"/>
@@ -3321,8 +3398,8 @@
       <c r="G160" s="15"/>
       <c r="H160" s="13"/>
       <c r="I160" s="13"/>
-      <c r="J160" s="26"/>
-      <c r="K160" s="26"/>
+      <c r="J160" s="36"/>
+      <c r="K160" s="36"/>
     </row>
     <row r="161" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A161" s="13"/>
@@ -3334,8 +3411,8 @@
       <c r="G161" s="15"/>
       <c r="H161" s="13"/>
       <c r="I161" s="13"/>
-      <c r="J161" s="26"/>
-      <c r="K161" s="26"/>
+      <c r="J161" s="36"/>
+      <c r="K161" s="36"/>
     </row>
     <row r="162" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A162" s="13"/>
@@ -3347,8 +3424,8 @@
       <c r="G162" s="15"/>
       <c r="H162" s="13"/>
       <c r="I162" s="13"/>
-      <c r="J162" s="26"/>
-      <c r="K162" s="26"/>
+      <c r="J162" s="36"/>
+      <c r="K162" s="36"/>
     </row>
     <row r="163" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A163" s="13"/>
@@ -3360,8 +3437,8 @@
       <c r="G163" s="15"/>
       <c r="H163" s="13"/>
       <c r="I163" s="13"/>
-      <c r="J163" s="26"/>
-      <c r="K163" s="26"/>
+      <c r="J163" s="36"/>
+      <c r="K163" s="36"/>
     </row>
     <row r="164" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A164" s="13"/>
@@ -3373,8 +3450,8 @@
       <c r="G164" s="15"/>
       <c r="H164" s="13"/>
       <c r="I164" s="13"/>
-      <c r="J164" s="26"/>
-      <c r="K164" s="26"/>
+      <c r="J164" s="36"/>
+      <c r="K164" s="36"/>
     </row>
     <row r="165" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A165" s="13"/>
@@ -3386,8 +3463,8 @@
       <c r="G165" s="15"/>
       <c r="H165" s="13"/>
       <c r="I165" s="13"/>
-      <c r="J165" s="26"/>
-      <c r="K165" s="26"/>
+      <c r="J165" s="36"/>
+      <c r="K165" s="36"/>
     </row>
     <row r="166" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A166" s="13"/>
@@ -3399,8 +3476,8 @@
       <c r="G166" s="15"/>
       <c r="H166" s="13"/>
       <c r="I166" s="13"/>
-      <c r="J166" s="26"/>
-      <c r="K166" s="26"/>
+      <c r="J166" s="36"/>
+      <c r="K166" s="36"/>
     </row>
     <row r="167" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A167" s="13"/>
@@ -3412,8 +3489,8 @@
       <c r="G167" s="15"/>
       <c r="H167" s="13"/>
       <c r="I167" s="13"/>
-      <c r="J167" s="26"/>
-      <c r="K167" s="26"/>
+      <c r="J167" s="36"/>
+      <c r="K167" s="36"/>
     </row>
     <row r="168" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A168" s="13"/>
@@ -3425,8 +3502,8 @@
       <c r="G168" s="15"/>
       <c r="H168" s="13"/>
       <c r="I168" s="13"/>
-      <c r="J168" s="26"/>
-      <c r="K168" s="26"/>
+      <c r="J168" s="36"/>
+      <c r="K168" s="36"/>
     </row>
     <row r="169" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A169" s="13"/>
@@ -3438,8 +3515,8 @@
       <c r="G169" s="15"/>
       <c r="H169" s="13"/>
       <c r="I169" s="13"/>
-      <c r="J169" s="26"/>
-      <c r="K169" s="26"/>
+      <c r="J169" s="36"/>
+      <c r="K169" s="36"/>
     </row>
     <row r="170" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A170" s="13"/>
@@ -3451,8 +3528,8 @@
       <c r="G170" s="15"/>
       <c r="H170" s="13"/>
       <c r="I170" s="13"/>
-      <c r="J170" s="26"/>
-      <c r="K170" s="26"/>
+      <c r="J170" s="36"/>
+      <c r="K170" s="36"/>
     </row>
     <row r="171" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A171" s="13"/>
@@ -3464,8 +3541,8 @@
       <c r="G171" s="15"/>
       <c r="H171" s="13"/>
       <c r="I171" s="13"/>
-      <c r="J171" s="26"/>
-      <c r="K171" s="26"/>
+      <c r="J171" s="36"/>
+      <c r="K171" s="36"/>
     </row>
     <row r="172" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A172" s="13"/>
@@ -3477,8 +3554,8 @@
       <c r="G172" s="15"/>
       <c r="H172" s="13"/>
       <c r="I172" s="13"/>
-      <c r="J172" s="26"/>
-      <c r="K172" s="26"/>
+      <c r="J172" s="36"/>
+      <c r="K172" s="36"/>
     </row>
     <row r="173" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A173" s="13"/>
@@ -3490,8 +3567,8 @@
       <c r="G173" s="15"/>
       <c r="H173" s="13"/>
       <c r="I173" s="13"/>
-      <c r="J173" s="26"/>
-      <c r="K173" s="26"/>
+      <c r="J173" s="36"/>
+      <c r="K173" s="36"/>
     </row>
     <row r="174" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A174" s="13"/>
@@ -3503,8 +3580,8 @@
       <c r="G174" s="15"/>
       <c r="H174" s="13"/>
       <c r="I174" s="13"/>
-      <c r="J174" s="26"/>
-      <c r="K174" s="26"/>
+      <c r="J174" s="36"/>
+      <c r="K174" s="36"/>
     </row>
     <row r="175" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A175" s="13"/>
@@ -3516,8 +3593,8 @@
       <c r="G175" s="15"/>
       <c r="H175" s="13"/>
       <c r="I175" s="13"/>
-      <c r="J175" s="26"/>
-      <c r="K175" s="26"/>
+      <c r="J175" s="36"/>
+      <c r="K175" s="36"/>
     </row>
     <row r="176" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A176" s="13"/>
@@ -3529,8 +3606,8 @@
       <c r="G176" s="15"/>
       <c r="H176" s="13"/>
       <c r="I176" s="13"/>
-      <c r="J176" s="26"/>
-      <c r="K176" s="26"/>
+      <c r="J176" s="36"/>
+      <c r="K176" s="36"/>
     </row>
     <row r="177" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A177" s="13"/>
@@ -3542,8 +3619,8 @@
       <c r="G177" s="15"/>
       <c r="H177" s="13"/>
       <c r="I177" s="13"/>
-      <c r="J177" s="26"/>
-      <c r="K177" s="26"/>
+      <c r="J177" s="36"/>
+      <c r="K177" s="36"/>
     </row>
     <row r="178" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A178" s="13"/>
@@ -3555,8 +3632,8 @@
       <c r="G178" s="15"/>
       <c r="H178" s="13"/>
       <c r="I178" s="13"/>
-      <c r="J178" s="26"/>
-      <c r="K178" s="26"/>
+      <c r="J178" s="36"/>
+      <c r="K178" s="36"/>
     </row>
     <row r="179" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A179" s="13"/>
@@ -3568,8 +3645,8 @@
       <c r="G179" s="15"/>
       <c r="H179" s="13"/>
       <c r="I179" s="13"/>
-      <c r="J179" s="26"/>
-      <c r="K179" s="26"/>
+      <c r="J179" s="36"/>
+      <c r="K179" s="36"/>
     </row>
     <row r="180" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A180" s="13"/>
@@ -3581,8 +3658,8 @@
       <c r="G180" s="15"/>
       <c r="H180" s="13"/>
       <c r="I180" s="13"/>
-      <c r="J180" s="26"/>
-      <c r="K180" s="26"/>
+      <c r="J180" s="36"/>
+      <c r="K180" s="36"/>
     </row>
     <row r="181" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A181" s="13"/>
@@ -3594,8 +3671,8 @@
       <c r="G181" s="15"/>
       <c r="H181" s="13"/>
       <c r="I181" s="13"/>
-      <c r="J181" s="26"/>
-      <c r="K181" s="26"/>
+      <c r="J181" s="36"/>
+      <c r="K181" s="36"/>
     </row>
     <row r="182" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A182" s="13"/>
@@ -3607,8 +3684,8 @@
       <c r="G182" s="15"/>
       <c r="H182" s="13"/>
       <c r="I182" s="13"/>
-      <c r="J182" s="26"/>
-      <c r="K182" s="26"/>
+      <c r="J182" s="36"/>
+      <c r="K182" s="36"/>
     </row>
     <row r="183" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A183" s="13"/>
@@ -3620,8 +3697,8 @@
       <c r="G183" s="15"/>
       <c r="H183" s="13"/>
       <c r="I183" s="13"/>
-      <c r="J183" s="26"/>
-      <c r="K183" s="26"/>
+      <c r="J183" s="36"/>
+      <c r="K183" s="36"/>
     </row>
     <row r="184" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A184" s="13"/>
@@ -3633,8 +3710,8 @@
       <c r="G184" s="15"/>
       <c r="H184" s="13"/>
       <c r="I184" s="13"/>
-      <c r="J184" s="26"/>
-      <c r="K184" s="26"/>
+      <c r="J184" s="36"/>
+      <c r="K184" s="36"/>
     </row>
     <row r="185" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A185" s="13"/>
@@ -3646,8 +3723,8 @@
       <c r="G185" s="15"/>
       <c r="H185" s="13"/>
       <c r="I185" s="13"/>
-      <c r="J185" s="26"/>
-      <c r="K185" s="26"/>
+      <c r="J185" s="36"/>
+      <c r="K185" s="36"/>
     </row>
     <row r="186" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A186" s="13"/>
@@ -3659,8 +3736,8 @@
       <c r="G186" s="15"/>
       <c r="H186" s="13"/>
       <c r="I186" s="13"/>
-      <c r="J186" s="26"/>
-      <c r="K186" s="26"/>
+      <c r="J186" s="36"/>
+      <c r="K186" s="36"/>
     </row>
     <row r="187" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A187" s="13"/>
@@ -3672,8 +3749,8 @@
       <c r="G187" s="15"/>
       <c r="H187" s="13"/>
       <c r="I187" s="13"/>
-      <c r="J187" s="26"/>
-      <c r="K187" s="26"/>
+      <c r="J187" s="36"/>
+      <c r="K187" s="36"/>
     </row>
     <row r="188" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A188" s="13"/>
@@ -3685,8 +3762,8 @@
       <c r="G188" s="15"/>
       <c r="H188" s="13"/>
       <c r="I188" s="13"/>
-      <c r="J188" s="26"/>
-      <c r="K188" s="26"/>
+      <c r="J188" s="36"/>
+      <c r="K188" s="36"/>
     </row>
     <row r="189" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A189" s="13"/>
@@ -3698,8 +3775,8 @@
       <c r="G189" s="15"/>
       <c r="H189" s="13"/>
       <c r="I189" s="13"/>
-      <c r="J189" s="26"/>
-      <c r="K189" s="26"/>
+      <c r="J189" s="36"/>
+      <c r="K189" s="36"/>
     </row>
     <row r="190" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A190" s="13"/>
@@ -3711,8 +3788,8 @@
       <c r="G190" s="15"/>
       <c r="H190" s="13"/>
       <c r="I190" s="13"/>
-      <c r="J190" s="26"/>
-      <c r="K190" s="26"/>
+      <c r="J190" s="36"/>
+      <c r="K190" s="36"/>
     </row>
     <row r="191" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A191" s="13"/>
@@ -3724,8 +3801,8 @@
       <c r="G191" s="15"/>
       <c r="H191" s="13"/>
       <c r="I191" s="13"/>
-      <c r="J191" s="26"/>
-      <c r="K191" s="26"/>
+      <c r="J191" s="36"/>
+      <c r="K191" s="36"/>
     </row>
     <row r="192" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A192" s="13"/>
@@ -3737,8 +3814,8 @@
       <c r="G192" s="15"/>
       <c r="H192" s="13"/>
       <c r="I192" s="13"/>
-      <c r="J192" s="26"/>
-      <c r="K192" s="26"/>
+      <c r="J192" s="36"/>
+      <c r="K192" s="36"/>
     </row>
     <row r="193" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A193" s="13"/>
@@ -3750,8 +3827,8 @@
       <c r="G193" s="15"/>
       <c r="H193" s="13"/>
       <c r="I193" s="13"/>
-      <c r="J193" s="26"/>
-      <c r="K193" s="26"/>
+      <c r="J193" s="36"/>
+      <c r="K193" s="36"/>
     </row>
     <row r="194" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A194" s="13"/>
@@ -3763,8 +3840,8 @@
       <c r="G194" s="15"/>
       <c r="H194" s="13"/>
       <c r="I194" s="13"/>
-      <c r="J194" s="26"/>
-      <c r="K194" s="26"/>
+      <c r="J194" s="36"/>
+      <c r="K194" s="36"/>
     </row>
     <row r="195" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A195" s="13"/>
@@ -3776,8 +3853,8 @@
       <c r="G195" s="15"/>
       <c r="H195" s="13"/>
       <c r="I195" s="13"/>
-      <c r="J195" s="26"/>
-      <c r="K195" s="26"/>
+      <c r="J195" s="36"/>
+      <c r="K195" s="36"/>
     </row>
     <row r="196" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A196" s="13"/>
@@ -3789,8 +3866,8 @@
       <c r="G196" s="15"/>
       <c r="H196" s="13"/>
       <c r="I196" s="13"/>
-      <c r="J196" s="26"/>
-      <c r="K196" s="26"/>
+      <c r="J196" s="36"/>
+      <c r="K196" s="36"/>
     </row>
     <row r="197" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A197" s="13"/>
@@ -3802,8 +3879,8 @@
       <c r="G197" s="15"/>
       <c r="H197" s="13"/>
       <c r="I197" s="13"/>
-      <c r="J197" s="26"/>
-      <c r="K197" s="26"/>
+      <c r="J197" s="36"/>
+      <c r="K197" s="36"/>
     </row>
     <row r="198" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A198" s="13"/>
@@ -3815,8 +3892,8 @@
       <c r="G198" s="15"/>
       <c r="H198" s="13"/>
       <c r="I198" s="13"/>
-      <c r="J198" s="26"/>
-      <c r="K198" s="26"/>
+      <c r="J198" s="36"/>
+      <c r="K198" s="36"/>
     </row>
     <row r="199" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A199" s="13"/>
@@ -3828,8 +3905,8 @@
       <c r="G199" s="15"/>
       <c r="H199" s="13"/>
       <c r="I199" s="13"/>
-      <c r="J199" s="26"/>
-      <c r="K199" s="26"/>
+      <c r="J199" s="36"/>
+      <c r="K199" s="36"/>
     </row>
     <row r="200" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A200" s="13"/>
@@ -3841,8 +3918,8 @@
       <c r="G200" s="15"/>
       <c r="H200" s="13"/>
       <c r="I200" s="13"/>
-      <c r="J200" s="26"/>
-      <c r="K200" s="26"/>
+      <c r="J200" s="36"/>
+      <c r="K200" s="36"/>
     </row>
     <row r="201" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A201" s="13"/>
@@ -3854,8 +3931,8 @@
       <c r="G201" s="15"/>
       <c r="H201" s="13"/>
       <c r="I201" s="13"/>
-      <c r="J201" s="26"/>
-      <c r="K201" s="26"/>
+      <c r="J201" s="36"/>
+      <c r="K201" s="36"/>
     </row>
     <row r="202" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A202" s="13"/>
@@ -3867,8 +3944,8 @@
       <c r="G202" s="15"/>
       <c r="H202" s="13"/>
       <c r="I202" s="13"/>
-      <c r="J202" s="26"/>
-      <c r="K202" s="26"/>
+      <c r="J202" s="36"/>
+      <c r="K202" s="36"/>
     </row>
     <row r="203" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A203" s="13"/>
@@ -3880,8 +3957,8 @@
       <c r="G203" s="15"/>
       <c r="H203" s="13"/>
       <c r="I203" s="13"/>
-      <c r="J203" s="26"/>
-      <c r="K203" s="26"/>
+      <c r="J203" s="36"/>
+      <c r="K203" s="36"/>
     </row>
     <row r="204" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A204" s="13"/>
@@ -3893,8 +3970,8 @@
       <c r="G204" s="15"/>
       <c r="H204" s="13"/>
       <c r="I204" s="13"/>
-      <c r="J204" s="26"/>
-      <c r="K204" s="26"/>
+      <c r="J204" s="36"/>
+      <c r="K204" s="36"/>
     </row>
     <row r="205" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A205" s="13"/>
@@ -3906,8 +3983,8 @@
       <c r="G205" s="15"/>
       <c r="H205" s="13"/>
       <c r="I205" s="13"/>
-      <c r="J205" s="26"/>
-      <c r="K205" s="26"/>
+      <c r="J205" s="36"/>
+      <c r="K205" s="36"/>
     </row>
     <row r="206" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A206" s="13"/>
@@ -3919,8 +3996,8 @@
       <c r="G206" s="15"/>
       <c r="H206" s="13"/>
       <c r="I206" s="13"/>
-      <c r="J206" s="26"/>
-      <c r="K206" s="26"/>
+      <c r="J206" s="36"/>
+      <c r="K206" s="36"/>
     </row>
     <row r="207" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A207" s="13"/>
@@ -3932,8 +4009,8 @@
       <c r="G207" s="15"/>
       <c r="H207" s="13"/>
       <c r="I207" s="13"/>
-      <c r="J207" s="26"/>
-      <c r="K207" s="26"/>
+      <c r="J207" s="36"/>
+      <c r="K207" s="36"/>
     </row>
     <row r="208" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A208" s="13"/>
@@ -3945,8 +4022,8 @@
       <c r="G208" s="15"/>
       <c r="H208" s="13"/>
       <c r="I208" s="13"/>
-      <c r="J208" s="26"/>
-      <c r="K208" s="26"/>
+      <c r="J208" s="36"/>
+      <c r="K208" s="36"/>
     </row>
     <row r="209" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A209" s="13"/>
@@ -3958,8 +4035,8 @@
       <c r="G209" s="15"/>
       <c r="H209" s="13"/>
       <c r="I209" s="13"/>
-      <c r="J209" s="26"/>
-      <c r="K209" s="26"/>
+      <c r="J209" s="36"/>
+      <c r="K209" s="36"/>
     </row>
     <row r="210" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A210" s="13"/>
@@ -3971,8 +4048,8 @@
       <c r="G210" s="15"/>
       <c r="H210" s="13"/>
       <c r="I210" s="13"/>
-      <c r="J210" s="26"/>
-      <c r="K210" s="26"/>
+      <c r="J210" s="36"/>
+      <c r="K210" s="36"/>
     </row>
     <row r="211" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A211" s="13"/>
@@ -3984,8 +4061,8 @@
       <c r="G211" s="15"/>
       <c r="H211" s="13"/>
       <c r="I211" s="13"/>
-      <c r="J211" s="26"/>
-      <c r="K211" s="26"/>
+      <c r="J211" s="36"/>
+      <c r="K211" s="36"/>
     </row>
     <row r="212" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A212" s="13"/>
@@ -3997,8 +4074,8 @@
       <c r="G212" s="15"/>
       <c r="H212" s="13"/>
       <c r="I212" s="13"/>
-      <c r="J212" s="26"/>
-      <c r="K212" s="26"/>
+      <c r="J212" s="36"/>
+      <c r="K212" s="36"/>
     </row>
     <row r="213" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A213" s="13"/>
@@ -4010,8 +4087,8 @@
       <c r="G213" s="15"/>
       <c r="H213" s="13"/>
       <c r="I213" s="13"/>
-      <c r="J213" s="26"/>
-      <c r="K213" s="26"/>
+      <c r="J213" s="36"/>
+      <c r="K213" s="36"/>
     </row>
     <row r="214" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A214" s="13"/>
@@ -4023,8 +4100,8 @@
       <c r="G214" s="15"/>
       <c r="H214" s="13"/>
       <c r="I214" s="13"/>
-      <c r="J214" s="26"/>
-      <c r="K214" s="26"/>
+      <c r="J214" s="36"/>
+      <c r="K214" s="36"/>
     </row>
     <row r="215" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A215" s="13"/>
@@ -4036,8 +4113,8 @@
       <c r="G215" s="15"/>
       <c r="H215" s="13"/>
       <c r="I215" s="13"/>
-      <c r="J215" s="26"/>
-      <c r="K215" s="26"/>
+      <c r="J215" s="36"/>
+      <c r="K215" s="36"/>
     </row>
     <row r="216" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A216" s="13"/>
@@ -4049,8 +4126,8 @@
       <c r="G216" s="15"/>
       <c r="H216" s="13"/>
       <c r="I216" s="13"/>
-      <c r="J216" s="26"/>
-      <c r="K216" s="26"/>
+      <c r="J216" s="36"/>
+      <c r="K216" s="36"/>
     </row>
     <row r="217" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A217" s="13"/>
@@ -4062,8 +4139,8 @@
       <c r="G217" s="15"/>
       <c r="H217" s="13"/>
       <c r="I217" s="13"/>
-      <c r="J217" s="26"/>
-      <c r="K217" s="26"/>
+      <c r="J217" s="36"/>
+      <c r="K217" s="36"/>
     </row>
     <row r="218" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A218" s="13"/>
@@ -4075,8 +4152,8 @@
       <c r="G218" s="15"/>
       <c r="H218" s="13"/>
       <c r="I218" s="13"/>
-      <c r="J218" s="26"/>
-      <c r="K218" s="26"/>
+      <c r="J218" s="36"/>
+      <c r="K218" s="36"/>
     </row>
     <row r="219" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A219" s="13"/>
@@ -4088,8 +4165,8 @@
       <c r="G219" s="15"/>
       <c r="H219" s="13"/>
       <c r="I219" s="13"/>
-      <c r="J219" s="26"/>
-      <c r="K219" s="26"/>
+      <c r="J219" s="36"/>
+      <c r="K219" s="36"/>
     </row>
     <row r="220" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A220" s="13"/>
@@ -4101,8 +4178,8 @@
       <c r="G220" s="15"/>
       <c r="H220" s="13"/>
       <c r="I220" s="13"/>
-      <c r="J220" s="26"/>
-      <c r="K220" s="26"/>
+      <c r="J220" s="36"/>
+      <c r="K220" s="36"/>
     </row>
     <row r="221" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A221" s="13"/>
@@ -4114,8 +4191,8 @@
       <c r="G221" s="15"/>
       <c r="H221" s="13"/>
       <c r="I221" s="13"/>
-      <c r="J221" s="26"/>
-      <c r="K221" s="26"/>
+      <c r="J221" s="36"/>
+      <c r="K221" s="36"/>
     </row>
     <row r="222" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A222" s="13"/>
@@ -4127,8 +4204,8 @@
       <c r="G222" s="15"/>
       <c r="H222" s="13"/>
       <c r="I222" s="13"/>
-      <c r="J222" s="26"/>
-      <c r="K222" s="26"/>
+      <c r="J222" s="36"/>
+      <c r="K222" s="36"/>
     </row>
     <row r="223" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A223" s="13"/>
@@ -4140,8 +4217,8 @@
       <c r="G223" s="15"/>
       <c r="H223" s="13"/>
       <c r="I223" s="13"/>
-      <c r="J223" s="26"/>
-      <c r="K223" s="26"/>
+      <c r="J223" s="36"/>
+      <c r="K223" s="36"/>
     </row>
     <row r="224" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A224" s="13"/>
@@ -4153,8 +4230,8 @@
       <c r="G224" s="15"/>
       <c r="H224" s="13"/>
       <c r="I224" s="13"/>
-      <c r="J224" s="26"/>
-      <c r="K224" s="26"/>
+      <c r="J224" s="36"/>
+      <c r="K224" s="36"/>
     </row>
     <row r="225" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A225" s="13"/>
@@ -4166,8 +4243,8 @@
       <c r="G225" s="15"/>
       <c r="H225" s="13"/>
       <c r="I225" s="13"/>
-      <c r="J225" s="26"/>
-      <c r="K225" s="26"/>
+      <c r="J225" s="36"/>
+      <c r="K225" s="36"/>
     </row>
     <row r="226" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A226" s="13"/>
@@ -4179,8 +4256,8 @@
       <c r="G226" s="15"/>
       <c r="H226" s="13"/>
       <c r="I226" s="13"/>
-      <c r="J226" s="26"/>
-      <c r="K226" s="26"/>
+      <c r="J226" s="36"/>
+      <c r="K226" s="36"/>
     </row>
     <row r="227" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A227" s="13"/>
@@ -4192,8 +4269,8 @@
       <c r="G227" s="15"/>
       <c r="H227" s="13"/>
       <c r="I227" s="13"/>
-      <c r="J227" s="26"/>
-      <c r="K227" s="26"/>
+      <c r="J227" s="36"/>
+      <c r="K227" s="36"/>
     </row>
     <row r="228" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A228" s="13"/>
@@ -4205,8 +4282,8 @@
       <c r="G228" s="15"/>
       <c r="H228" s="13"/>
       <c r="I228" s="13"/>
-      <c r="J228" s="26"/>
-      <c r="K228" s="26"/>
+      <c r="J228" s="36"/>
+      <c r="K228" s="36"/>
     </row>
     <row r="229" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A229" s="13"/>
@@ -4218,8 +4295,8 @@
       <c r="G229" s="15"/>
       <c r="H229" s="13"/>
       <c r="I229" s="13"/>
-      <c r="J229" s="26"/>
-      <c r="K229" s="26"/>
+      <c r="J229" s="36"/>
+      <c r="K229" s="36"/>
     </row>
     <row r="230" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A230" s="13"/>
@@ -4231,8 +4308,8 @@
       <c r="G230" s="15"/>
       <c r="H230" s="13"/>
       <c r="I230" s="13"/>
-      <c r="J230" s="26"/>
-      <c r="K230" s="26"/>
+      <c r="J230" s="36"/>
+      <c r="K230" s="36"/>
     </row>
     <row r="231" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A231" s="13"/>
@@ -4244,8 +4321,8 @@
       <c r="G231" s="15"/>
       <c r="H231" s="13"/>
       <c r="I231" s="13"/>
-      <c r="J231" s="26"/>
-      <c r="K231" s="26"/>
+      <c r="J231" s="36"/>
+      <c r="K231" s="36"/>
     </row>
     <row r="232" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A232" s="13"/>
@@ -4257,8 +4334,8 @@
       <c r="G232" s="15"/>
       <c r="H232" s="13"/>
       <c r="I232" s="13"/>
-      <c r="J232" s="26"/>
-      <c r="K232" s="26"/>
+      <c r="J232" s="36"/>
+      <c r="K232" s="36"/>
     </row>
     <row r="233" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A233" s="13"/>
@@ -4270,8 +4347,8 @@
       <c r="G233" s="15"/>
       <c r="H233" s="13"/>
       <c r="I233" s="13"/>
-      <c r="J233" s="26"/>
-      <c r="K233" s="26"/>
+      <c r="J233" s="36"/>
+      <c r="K233" s="36"/>
     </row>
     <row r="234" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A234" s="13"/>
@@ -4283,8 +4360,8 @@
       <c r="G234" s="15"/>
       <c r="H234" s="13"/>
       <c r="I234" s="13"/>
-      <c r="J234" s="26"/>
-      <c r="K234" s="26"/>
+      <c r="J234" s="36"/>
+      <c r="K234" s="36"/>
     </row>
     <row r="235" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A235" s="13"/>
@@ -4296,8 +4373,8 @@
       <c r="G235" s="15"/>
       <c r="H235" s="13"/>
       <c r="I235" s="13"/>
-      <c r="J235" s="26"/>
-      <c r="K235" s="26"/>
+      <c r="J235" s="36"/>
+      <c r="K235" s="36"/>
     </row>
     <row r="236" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A236" s="13"/>
@@ -4309,8 +4386,8 @@
       <c r="G236" s="15"/>
       <c r="H236" s="13"/>
       <c r="I236" s="13"/>
-      <c r="J236" s="26"/>
-      <c r="K236" s="26"/>
+      <c r="J236" s="36"/>
+      <c r="K236" s="36"/>
     </row>
     <row r="237" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A237" s="13"/>
@@ -4322,8 +4399,8 @@
       <c r="G237" s="15"/>
       <c r="H237" s="13"/>
       <c r="I237" s="13"/>
-      <c r="J237" s="26"/>
-      <c r="K237" s="26"/>
+      <c r="J237" s="36"/>
+      <c r="K237" s="36"/>
     </row>
     <row r="238" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A238" s="13"/>
@@ -4335,8 +4412,8 @@
       <c r="G238" s="15"/>
       <c r="H238" s="13"/>
       <c r="I238" s="13"/>
-      <c r="J238" s="26"/>
-      <c r="K238" s="26"/>
+      <c r="J238" s="36"/>
+      <c r="K238" s="36"/>
     </row>
     <row r="239" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A239" s="13"/>
@@ -4348,8 +4425,8 @@
       <c r="G239" s="15"/>
       <c r="H239" s="13"/>
       <c r="I239" s="13"/>
-      <c r="J239" s="26"/>
-      <c r="K239" s="26"/>
+      <c r="J239" s="36"/>
+      <c r="K239" s="36"/>
     </row>
     <row r="240" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A240" s="13"/>
@@ -4361,8 +4438,8 @@
       <c r="G240" s="15"/>
       <c r="H240" s="13"/>
       <c r="I240" s="13"/>
-      <c r="J240" s="26"/>
-      <c r="K240" s="26"/>
+      <c r="J240" s="36"/>
+      <c r="K240" s="36"/>
     </row>
     <row r="241" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A241" s="13"/>
@@ -4374,8 +4451,8 @@
       <c r="G241" s="15"/>
       <c r="H241" s="13"/>
       <c r="I241" s="13"/>
-      <c r="J241" s="26"/>
-      <c r="K241" s="26"/>
+      <c r="J241" s="36"/>
+      <c r="K241" s="36"/>
     </row>
     <row r="242" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A242" s="13"/>
@@ -4387,8 +4464,8 @@
       <c r="G242" s="15"/>
       <c r="H242" s="13"/>
       <c r="I242" s="13"/>
-      <c r="J242" s="26"/>
-      <c r="K242" s="26"/>
+      <c r="J242" s="36"/>
+      <c r="K242" s="36"/>
     </row>
     <row r="243" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A243" s="13"/>
@@ -4400,8 +4477,8 @@
       <c r="G243" s="15"/>
       <c r="H243" s="13"/>
       <c r="I243" s="13"/>
-      <c r="J243" s="26"/>
-      <c r="K243" s="26"/>
+      <c r="J243" s="36"/>
+      <c r="K243" s="36"/>
     </row>
     <row r="244" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A244" s="13"/>
@@ -4413,8 +4490,8 @@
       <c r="G244" s="15"/>
       <c r="H244" s="13"/>
       <c r="I244" s="13"/>
-      <c r="J244" s="26"/>
-      <c r="K244" s="26"/>
+      <c r="J244" s="36"/>
+      <c r="K244" s="36"/>
     </row>
     <row r="245" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A245" s="13"/>
@@ -4426,8 +4503,8 @@
       <c r="G245" s="15"/>
       <c r="H245" s="13"/>
       <c r="I245" s="13"/>
-      <c r="J245" s="26"/>
-      <c r="K245" s="26"/>
+      <c r="J245" s="36"/>
+      <c r="K245" s="36"/>
     </row>
     <row r="246" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A246" s="13"/>
@@ -4439,8 +4516,8 @@
       <c r="G246" s="15"/>
       <c r="H246" s="13"/>
       <c r="I246" s="13"/>
-      <c r="J246" s="26"/>
-      <c r="K246" s="26"/>
+      <c r="J246" s="36"/>
+      <c r="K246" s="36"/>
     </row>
     <row r="247" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A247" s="13"/>
@@ -4452,8 +4529,8 @@
       <c r="G247" s="15"/>
       <c r="H247" s="13"/>
       <c r="I247" s="13"/>
-      <c r="J247" s="26"/>
-      <c r="K247" s="26"/>
+      <c r="J247" s="36"/>
+      <c r="K247" s="36"/>
     </row>
     <row r="248" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A248" s="13"/>
@@ -4465,8 +4542,8 @@
       <c r="G248" s="15"/>
       <c r="H248" s="13"/>
       <c r="I248" s="13"/>
-      <c r="J248" s="26"/>
-      <c r="K248" s="26"/>
+      <c r="J248" s="36"/>
+      <c r="K248" s="36"/>
     </row>
     <row r="249" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A249" s="13"/>
@@ -4478,8 +4555,8 @@
       <c r="G249" s="15"/>
       <c r="H249" s="13"/>
       <c r="I249" s="13"/>
-      <c r="J249" s="26"/>
-      <c r="K249" s="26"/>
+      <c r="J249" s="36"/>
+      <c r="K249" s="36"/>
     </row>
     <row r="250" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A250" s="13"/>
@@ -4491,8 +4568,8 @@
       <c r="G250" s="15"/>
       <c r="H250" s="13"/>
       <c r="I250" s="13"/>
-      <c r="J250" s="26"/>
-      <c r="K250" s="26"/>
+      <c r="J250" s="36"/>
+      <c r="K250" s="36"/>
     </row>
     <row r="251" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A251" s="13"/>
@@ -4504,8 +4581,8 @@
       <c r="G251" s="15"/>
       <c r="H251" s="13"/>
       <c r="I251" s="13"/>
-      <c r="J251" s="26"/>
-      <c r="K251" s="26"/>
+      <c r="J251" s="36"/>
+      <c r="K251" s="36"/>
     </row>
     <row r="252" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A252" s="13"/>
@@ -4517,8 +4594,8 @@
       <c r="G252" s="15"/>
       <c r="H252" s="13"/>
       <c r="I252" s="13"/>
-      <c r="J252" s="26"/>
-      <c r="K252" s="26"/>
+      <c r="J252" s="36"/>
+      <c r="K252" s="36"/>
     </row>
     <row r="253" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A253" s="13"/>
@@ -4530,8 +4607,8 @@
       <c r="G253" s="15"/>
       <c r="H253" s="13"/>
       <c r="I253" s="13"/>
-      <c r="J253" s="26"/>
-      <c r="K253" s="26"/>
+      <c r="J253" s="36"/>
+      <c r="K253" s="36"/>
     </row>
     <row r="254" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A254" s="13"/>
@@ -4543,8 +4620,8 @@
       <c r="G254" s="15"/>
       <c r="H254" s="13"/>
       <c r="I254" s="13"/>
-      <c r="J254" s="26"/>
-      <c r="K254" s="26"/>
+      <c r="J254" s="36"/>
+      <c r="K254" s="36"/>
     </row>
     <row r="255" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A255" s="13"/>
@@ -4556,8 +4633,8 @@
       <c r="G255" s="15"/>
       <c r="H255" s="13"/>
       <c r="I255" s="13"/>
-      <c r="J255" s="26"/>
-      <c r="K255" s="26"/>
+      <c r="J255" s="36"/>
+      <c r="K255" s="36"/>
     </row>
     <row r="256" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A256" s="13"/>
@@ -4569,8 +4646,8 @@
       <c r="G256" s="15"/>
       <c r="H256" s="13"/>
       <c r="I256" s="13"/>
-      <c r="J256" s="26"/>
-      <c r="K256" s="26"/>
+      <c r="J256" s="36"/>
+      <c r="K256" s="36"/>
     </row>
     <row r="257" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A257" s="13"/>
@@ -4582,8 +4659,8 @@
       <c r="G257" s="15"/>
       <c r="H257" s="13"/>
       <c r="I257" s="13"/>
-      <c r="J257" s="26"/>
-      <c r="K257" s="26"/>
+      <c r="J257" s="36"/>
+      <c r="K257" s="36"/>
     </row>
     <row r="258" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A258" s="13"/>
@@ -4595,8 +4672,8 @@
       <c r="G258" s="15"/>
       <c r="H258" s="13"/>
       <c r="I258" s="13"/>
-      <c r="J258" s="26"/>
-      <c r="K258" s="26"/>
+      <c r="J258" s="36"/>
+      <c r="K258" s="36"/>
     </row>
     <row r="259" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A259" s="13"/>
@@ -4608,8 +4685,8 @@
       <c r="G259" s="15"/>
       <c r="H259" s="13"/>
       <c r="I259" s="13"/>
-      <c r="J259" s="26"/>
-      <c r="K259" s="26"/>
+      <c r="J259" s="36"/>
+      <c r="K259" s="36"/>
     </row>
     <row r="260" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A260" s="13"/>
@@ -4621,8 +4698,8 @@
       <c r="G260" s="15"/>
       <c r="H260" s="13"/>
       <c r="I260" s="13"/>
-      <c r="J260" s="26"/>
-      <c r="K260" s="26"/>
+      <c r="J260" s="36"/>
+      <c r="K260" s="36"/>
     </row>
     <row r="261" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A261" s="13"/>
@@ -4634,8 +4711,8 @@
       <c r="G261" s="15"/>
       <c r="H261" s="13"/>
       <c r="I261" s="13"/>
-      <c r="J261" s="26"/>
-      <c r="K261" s="26"/>
+      <c r="J261" s="36"/>
+      <c r="K261" s="36"/>
     </row>
     <row r="262" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A262" s="13"/>
@@ -4647,8 +4724,8 @@
       <c r="G262" s="15"/>
       <c r="H262" s="13"/>
       <c r="I262" s="13"/>
-      <c r="J262" s="26"/>
-      <c r="K262" s="26"/>
+      <c r="J262" s="36"/>
+      <c r="K262" s="36"/>
     </row>
     <row r="263" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A263" s="13"/>
@@ -4660,8 +4737,8 @@
       <c r="G263" s="15"/>
       <c r="H263" s="13"/>
       <c r="I263" s="13"/>
-      <c r="J263" s="26"/>
-      <c r="K263" s="26"/>
+      <c r="J263" s="36"/>
+      <c r="K263" s="36"/>
     </row>
     <row r="264" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A264" s="13"/>
@@ -4673,8 +4750,8 @@
       <c r="G264" s="15"/>
       <c r="H264" s="13"/>
       <c r="I264" s="13"/>
-      <c r="J264" s="26"/>
-      <c r="K264" s="26"/>
+      <c r="J264" s="36"/>
+      <c r="K264" s="36"/>
     </row>
     <row r="265" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A265" s="13"/>
@@ -4686,8 +4763,8 @@
       <c r="G265" s="15"/>
       <c r="H265" s="13"/>
       <c r="I265" s="13"/>
-      <c r="J265" s="26"/>
-      <c r="K265" s="26"/>
+      <c r="J265" s="36"/>
+      <c r="K265" s="36"/>
     </row>
     <row r="266" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A266" s="13"/>
@@ -4699,8 +4776,8 @@
       <c r="G266" s="15"/>
       <c r="H266" s="13"/>
       <c r="I266" s="13"/>
-      <c r="J266" s="26"/>
-      <c r="K266" s="26"/>
+      <c r="J266" s="36"/>
+      <c r="K266" s="36"/>
     </row>
     <row r="267" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A267" s="13"/>
@@ -4712,8 +4789,8 @@
       <c r="G267" s="15"/>
       <c r="H267" s="13"/>
       <c r="I267" s="13"/>
-      <c r="J267" s="26"/>
-      <c r="K267" s="26"/>
+      <c r="J267" s="36"/>
+      <c r="K267" s="36"/>
     </row>
     <row r="268" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A268" s="13"/>
@@ -4725,8 +4802,8 @@
       <c r="G268" s="15"/>
       <c r="H268" s="13"/>
       <c r="I268" s="13"/>
-      <c r="J268" s="26"/>
-      <c r="K268" s="26"/>
+      <c r="J268" s="36"/>
+      <c r="K268" s="36"/>
     </row>
     <row r="269" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A269" s="13"/>
@@ -4738,8 +4815,8 @@
       <c r="G269" s="15"/>
       <c r="H269" s="13"/>
       <c r="I269" s="13"/>
-      <c r="J269" s="26"/>
-      <c r="K269" s="26"/>
+      <c r="J269" s="36"/>
+      <c r="K269" s="36"/>
     </row>
     <row r="270" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A270" s="13"/>
@@ -4751,8 +4828,8 @@
       <c r="G270" s="15"/>
       <c r="H270" s="13"/>
       <c r="I270" s="13"/>
-      <c r="J270" s="26"/>
-      <c r="K270" s="26"/>
+      <c r="J270" s="36"/>
+      <c r="K270" s="36"/>
     </row>
     <row r="271" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A271" s="13"/>
@@ -4764,8 +4841,8 @@
       <c r="G271" s="15"/>
       <c r="H271" s="13"/>
       <c r="I271" s="13"/>
-      <c r="J271" s="26"/>
-      <c r="K271" s="26"/>
+      <c r="J271" s="36"/>
+      <c r="K271" s="36"/>
     </row>
     <row r="272" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A272" s="13"/>
@@ -4777,8 +4854,8 @@
       <c r="G272" s="15"/>
       <c r="H272" s="13"/>
       <c r="I272" s="13"/>
-      <c r="J272" s="26"/>
-      <c r="K272" s="26"/>
+      <c r="J272" s="36"/>
+      <c r="K272" s="36"/>
     </row>
     <row r="273" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A273" s="13"/>
@@ -4790,8 +4867,8 @@
       <c r="G273" s="15"/>
       <c r="H273" s="13"/>
       <c r="I273" s="13"/>
-      <c r="J273" s="26"/>
-      <c r="K273" s="26"/>
+      <c r="J273" s="36"/>
+      <c r="K273" s="36"/>
     </row>
     <row r="274" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A274" s="13"/>
@@ -4803,8 +4880,8 @@
       <c r="G274" s="15"/>
       <c r="H274" s="13"/>
       <c r="I274" s="13"/>
-      <c r="J274" s="26"/>
-      <c r="K274" s="26"/>
+      <c r="J274" s="36"/>
+      <c r="K274" s="36"/>
     </row>
     <row r="275" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A275" s="13"/>
@@ -4816,8 +4893,8 @@
       <c r="G275" s="15"/>
       <c r="H275" s="13"/>
       <c r="I275" s="13"/>
-      <c r="J275" s="26"/>
-      <c r="K275" s="26"/>
+      <c r="J275" s="36"/>
+      <c r="K275" s="36"/>
     </row>
     <row r="276" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A276" s="13"/>
@@ -4829,8 +4906,8 @@
       <c r="G276" s="15"/>
       <c r="H276" s="13"/>
       <c r="I276" s="13"/>
-      <c r="J276" s="26"/>
-      <c r="K276" s="26"/>
+      <c r="J276" s="36"/>
+      <c r="K276" s="36"/>
     </row>
     <row r="277" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A277" s="13"/>
@@ -4842,8 +4919,8 @@
       <c r="G277" s="15"/>
       <c r="H277" s="13"/>
       <c r="I277" s="13"/>
-      <c r="J277" s="26"/>
-      <c r="K277" s="26"/>
+      <c r="J277" s="36"/>
+      <c r="K277" s="36"/>
     </row>
     <row r="278" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A278" s="13"/>
@@ -4855,8 +4932,8 @@
       <c r="G278" s="15"/>
       <c r="H278" s="13"/>
       <c r="I278" s="13"/>
-      <c r="J278" s="26"/>
-      <c r="K278" s="26"/>
+      <c r="J278" s="36"/>
+      <c r="K278" s="36"/>
     </row>
     <row r="279" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A279" s="13"/>
@@ -4868,8 +4945,8 @@
       <c r="G279" s="15"/>
       <c r="H279" s="13"/>
       <c r="I279" s="13"/>
-      <c r="J279" s="26"/>
-      <c r="K279" s="26"/>
+      <c r="J279" s="36"/>
+      <c r="K279" s="36"/>
     </row>
     <row r="280" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A280" s="13"/>
@@ -4881,8 +4958,8 @@
       <c r="G280" s="15"/>
       <c r="H280" s="13"/>
       <c r="I280" s="13"/>
-      <c r="J280" s="26"/>
-      <c r="K280" s="26"/>
+      <c r="J280" s="36"/>
+      <c r="K280" s="36"/>
     </row>
     <row r="281" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A281" s="13"/>
@@ -4894,8 +4971,8 @@
       <c r="G281" s="15"/>
       <c r="H281" s="13"/>
       <c r="I281" s="13"/>
-      <c r="J281" s="26"/>
-      <c r="K281" s="26"/>
+      <c r="J281" s="36"/>
+      <c r="K281" s="36"/>
     </row>
     <row r="282" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A282" s="13"/>
@@ -4907,8 +4984,8 @@
       <c r="G282" s="15"/>
       <c r="H282" s="13"/>
       <c r="I282" s="13"/>
-      <c r="J282" s="26"/>
-      <c r="K282" s="26"/>
+      <c r="J282" s="36"/>
+      <c r="K282" s="36"/>
     </row>
     <row r="283" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A283" s="13"/>
@@ -4920,8 +4997,8 @@
       <c r="G283" s="15"/>
       <c r="H283" s="13"/>
       <c r="I283" s="13"/>
-      <c r="J283" s="26"/>
-      <c r="K283" s="26"/>
+      <c r="J283" s="36"/>
+      <c r="K283" s="36"/>
     </row>
     <row r="284" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A284" s="13"/>
@@ -4933,8 +5010,8 @@
       <c r="G284" s="15"/>
       <c r="H284" s="13"/>
       <c r="I284" s="13"/>
-      <c r="J284" s="26"/>
-      <c r="K284" s="26"/>
+      <c r="J284" s="36"/>
+      <c r="K284" s="36"/>
     </row>
     <row r="285" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A285" s="13"/>
@@ -4946,8 +5023,8 @@
       <c r="G285" s="15"/>
       <c r="H285" s="13"/>
       <c r="I285" s="13"/>
-      <c r="J285" s="26"/>
-      <c r="K285" s="26"/>
+      <c r="J285" s="36"/>
+      <c r="K285" s="36"/>
     </row>
     <row r="286" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A286" s="13"/>
@@ -4959,8 +5036,8 @@
       <c r="G286" s="15"/>
       <c r="H286" s="13"/>
       <c r="I286" s="13"/>
-      <c r="J286" s="26"/>
-      <c r="K286" s="26"/>
+      <c r="J286" s="36"/>
+      <c r="K286" s="36"/>
     </row>
     <row r="287" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A287" s="13"/>
@@ -4972,8 +5049,8 @@
       <c r="G287" s="15"/>
       <c r="H287" s="13"/>
       <c r="I287" s="13"/>
-      <c r="J287" s="26"/>
-      <c r="K287" s="26"/>
+      <c r="J287" s="36"/>
+      <c r="K287" s="36"/>
     </row>
     <row r="288" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A288" s="13"/>
@@ -4985,8 +5062,8 @@
       <c r="G288" s="15"/>
       <c r="H288" s="13"/>
       <c r="I288" s="13"/>
-      <c r="J288" s="26"/>
-      <c r="K288" s="26"/>
+      <c r="J288" s="36"/>
+      <c r="K288" s="36"/>
     </row>
     <row r="289" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A289" s="13"/>
@@ -4998,8 +5075,8 @@
       <c r="G289" s="15"/>
       <c r="H289" s="13"/>
       <c r="I289" s="13"/>
-      <c r="J289" s="26"/>
-      <c r="K289" s="26"/>
+      <c r="J289" s="36"/>
+      <c r="K289" s="36"/>
     </row>
     <row r="290" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A290" s="13"/>
@@ -5011,8 +5088,8 @@
       <c r="G290" s="15"/>
       <c r="H290" s="13"/>
       <c r="I290" s="13"/>
-      <c r="J290" s="26"/>
-      <c r="K290" s="26"/>
+      <c r="J290" s="36"/>
+      <c r="K290" s="36"/>
     </row>
     <row r="291" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A291" s="13"/>
@@ -5024,8 +5101,8 @@
       <c r="G291" s="15"/>
       <c r="H291" s="13"/>
       <c r="I291" s="13"/>
-      <c r="J291" s="26"/>
-      <c r="K291" s="26"/>
+      <c r="J291" s="36"/>
+      <c r="K291" s="36"/>
     </row>
     <row r="292" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A292" s="13"/>
@@ -5037,8 +5114,8 @@
       <c r="G292" s="15"/>
       <c r="H292" s="13"/>
       <c r="I292" s="13"/>
-      <c r="J292" s="26"/>
-      <c r="K292" s="26"/>
+      <c r="J292" s="36"/>
+      <c r="K292" s="36"/>
     </row>
     <row r="293" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A293" s="13"/>
@@ -5050,8 +5127,8 @@
       <c r="G293" s="15"/>
       <c r="H293" s="13"/>
       <c r="I293" s="13"/>
-      <c r="J293" s="26"/>
-      <c r="K293" s="26"/>
+      <c r="J293" s="36"/>
+      <c r="K293" s="36"/>
     </row>
     <row r="294" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A294" s="13"/>
@@ -5063,8 +5140,8 @@
       <c r="G294" s="15"/>
       <c r="H294" s="13"/>
       <c r="I294" s="13"/>
-      <c r="J294" s="26"/>
-      <c r="K294" s="26"/>
+      <c r="J294" s="36"/>
+      <c r="K294" s="36"/>
     </row>
     <row r="295" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A295" s="13"/>
@@ -5076,8 +5153,8 @@
       <c r="G295" s="15"/>
       <c r="H295" s="13"/>
       <c r="I295" s="13"/>
-      <c r="J295" s="26"/>
-      <c r="K295" s="26"/>
+      <c r="J295" s="36"/>
+      <c r="K295" s="36"/>
     </row>
     <row r="296" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A296" s="13"/>
@@ -5089,8 +5166,8 @@
       <c r="G296" s="15"/>
       <c r="H296" s="13"/>
       <c r="I296" s="13"/>
-      <c r="J296" s="26"/>
-      <c r="K296" s="26"/>
+      <c r="J296" s="36"/>
+      <c r="K296" s="36"/>
     </row>
     <row r="297" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A297" s="13"/>
@@ -5102,8 +5179,8 @@
       <c r="G297" s="15"/>
       <c r="H297" s="13"/>
       <c r="I297" s="13"/>
-      <c r="J297" s="26"/>
-      <c r="K297" s="26"/>
+      <c r="J297" s="36"/>
+      <c r="K297" s="36"/>
     </row>
     <row r="298" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A298" s="13"/>
@@ -5115,8 +5192,8 @@
       <c r="G298" s="15"/>
       <c r="H298" s="13"/>
       <c r="I298" s="13"/>
-      <c r="J298" s="26"/>
-      <c r="K298" s="26"/>
+      <c r="J298" s="36"/>
+      <c r="K298" s="36"/>
     </row>
     <row r="299" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A299" s="13"/>
@@ -5128,8 +5205,8 @@
       <c r="G299" s="15"/>
       <c r="H299" s="13"/>
       <c r="I299" s="13"/>
-      <c r="J299" s="26"/>
-      <c r="K299" s="26"/>
+      <c r="J299" s="36"/>
+      <c r="K299" s="36"/>
     </row>
     <row r="300" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A300" s="13"/>
@@ -5141,8 +5218,8 @@
       <c r="G300" s="15"/>
       <c r="H300" s="13"/>
       <c r="I300" s="13"/>
-      <c r="J300" s="26"/>
-      <c r="K300" s="26"/>
+      <c r="J300" s="36"/>
+      <c r="K300" s="36"/>
     </row>
     <row r="301" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A301" s="13"/>
@@ -5154,8 +5231,8 @@
       <c r="G301" s="15"/>
       <c r="H301" s="13"/>
       <c r="I301" s="13"/>
-      <c r="J301" s="26"/>
-      <c r="K301" s="26"/>
+      <c r="J301" s="36"/>
+      <c r="K301" s="36"/>
     </row>
     <row r="302" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A302" s="13"/>
@@ -5167,8 +5244,8 @@
       <c r="G302" s="15"/>
       <c r="H302" s="13"/>
       <c r="I302" s="13"/>
-      <c r="J302" s="26"/>
-      <c r="K302" s="26"/>
+      <c r="J302" s="36"/>
+      <c r="K302" s="36"/>
     </row>
     <row r="303" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A303" s="13"/>
@@ -5180,8 +5257,8 @@
       <c r="G303" s="15"/>
       <c r="H303" s="13"/>
       <c r="I303" s="13"/>
-      <c r="J303" s="26"/>
-      <c r="K303" s="26"/>
+      <c r="J303" s="36"/>
+      <c r="K303" s="36"/>
     </row>
     <row r="304" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A304" s="13"/>
@@ -5193,8 +5270,8 @@
       <c r="G304" s="15"/>
       <c r="H304" s="13"/>
       <c r="I304" s="13"/>
-      <c r="J304" s="26"/>
-      <c r="K304" s="26"/>
+      <c r="J304" s="36"/>
+      <c r="K304" s="36"/>
     </row>
     <row r="305" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A305" s="13"/>
@@ -5206,8 +5283,8 @@
       <c r="G305" s="15"/>
       <c r="H305" s="13"/>
       <c r="I305" s="13"/>
-      <c r="J305" s="26"/>
-      <c r="K305" s="26"/>
+      <c r="J305" s="36"/>
+      <c r="K305" s="36"/>
     </row>
     <row r="306" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A306" s="13"/>
@@ -5219,8 +5296,8 @@
       <c r="G306" s="15"/>
       <c r="H306" s="13"/>
       <c r="I306" s="13"/>
-      <c r="J306" s="26"/>
-      <c r="K306" s="26"/>
+      <c r="J306" s="36"/>
+      <c r="K306" s="36"/>
     </row>
     <row r="307" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A307" s="13"/>
@@ -5232,8 +5309,8 @@
       <c r="G307" s="15"/>
       <c r="H307" s="13"/>
       <c r="I307" s="13"/>
-      <c r="J307" s="26"/>
-      <c r="K307" s="26"/>
+      <c r="J307" s="36"/>
+      <c r="K307" s="36"/>
     </row>
     <row r="308" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A308" s="13"/>
@@ -5245,8 +5322,8 @@
       <c r="G308" s="15"/>
       <c r="H308" s="13"/>
       <c r="I308" s="13"/>
-      <c r="J308" s="26"/>
-      <c r="K308" s="26"/>
+      <c r="J308" s="36"/>
+      <c r="K308" s="36"/>
     </row>
     <row r="309" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A309" s="13"/>
@@ -5258,8 +5335,8 @@
       <c r="G309" s="15"/>
       <c r="H309" s="13"/>
       <c r="I309" s="13"/>
-      <c r="J309" s="26"/>
-      <c r="K309" s="26"/>
+      <c r="J309" s="36"/>
+      <c r="K309" s="36"/>
     </row>
     <row r="310" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A310" s="13"/>
@@ -5271,8 +5348,8 @@
       <c r="G310" s="15"/>
       <c r="H310" s="13"/>
       <c r="I310" s="13"/>
-      <c r="J310" s="26"/>
-      <c r="K310" s="26"/>
+      <c r="J310" s="36"/>
+      <c r="K310" s="36"/>
     </row>
     <row r="311" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A311" s="13"/>
@@ -5284,8 +5361,8 @@
       <c r="G311" s="15"/>
       <c r="H311" s="13"/>
       <c r="I311" s="13"/>
-      <c r="J311" s="26"/>
-      <c r="K311" s="26"/>
+      <c r="J311" s="36"/>
+      <c r="K311" s="36"/>
     </row>
     <row r="312" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A312" s="13"/>
@@ -5297,8 +5374,8 @@
       <c r="G312" s="15"/>
       <c r="H312" s="13"/>
       <c r="I312" s="13"/>
-      <c r="J312" s="26"/>
-      <c r="K312" s="26"/>
+      <c r="J312" s="36"/>
+      <c r="K312" s="36"/>
     </row>
     <row r="313" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A313" s="13"/>
@@ -5310,8 +5387,8 @@
       <c r="G313" s="15"/>
       <c r="H313" s="13"/>
       <c r="I313" s="13"/>
-      <c r="J313" s="26"/>
-      <c r="K313" s="26"/>
+      <c r="J313" s="36"/>
+      <c r="K313" s="36"/>
     </row>
     <row r="314" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A314" s="13"/>
@@ -5323,8 +5400,8 @@
       <c r="G314" s="15"/>
       <c r="H314" s="13"/>
       <c r="I314" s="13"/>
-      <c r="J314" s="26"/>
-      <c r="K314" s="26"/>
+      <c r="J314" s="36"/>
+      <c r="K314" s="36"/>
     </row>
     <row r="315" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A315" s="13"/>
@@ -5336,8 +5413,8 @@
       <c r="G315" s="15"/>
       <c r="H315" s="13"/>
       <c r="I315" s="13"/>
-      <c r="J315" s="26"/>
-      <c r="K315" s="26"/>
+      <c r="J315" s="36"/>
+      <c r="K315" s="36"/>
     </row>
     <row r="316" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A316" s="13"/>
@@ -5349,8 +5426,8 @@
       <c r="G316" s="15"/>
       <c r="H316" s="13"/>
       <c r="I316" s="13"/>
-      <c r="J316" s="26"/>
-      <c r="K316" s="26"/>
+      <c r="J316" s="36"/>
+      <c r="K316" s="36"/>
     </row>
     <row r="317" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A317" s="13"/>
@@ -5362,8 +5439,8 @@
       <c r="G317" s="15"/>
       <c r="H317" s="13"/>
       <c r="I317" s="13"/>
-      <c r="J317" s="26"/>
-      <c r="K317" s="26"/>
+      <c r="J317" s="36"/>
+      <c r="K317" s="36"/>
     </row>
     <row r="318" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G318" s="2"/>
@@ -7392,6 +7469,445 @@
     </row>
   </sheetData>
   <mergeCells count="463">
+    <mergeCell ref="J316:K316"/>
+    <mergeCell ref="J317:K317"/>
+    <mergeCell ref="J307:K307"/>
+    <mergeCell ref="J308:K308"/>
+    <mergeCell ref="J309:K309"/>
+    <mergeCell ref="J310:K310"/>
+    <mergeCell ref="J311:K311"/>
+    <mergeCell ref="J312:K312"/>
+    <mergeCell ref="J313:K313"/>
+    <mergeCell ref="J314:K314"/>
+    <mergeCell ref="J315:K315"/>
+    <mergeCell ref="J298:K298"/>
+    <mergeCell ref="J299:K299"/>
+    <mergeCell ref="J300:K300"/>
+    <mergeCell ref="J301:K301"/>
+    <mergeCell ref="J302:K302"/>
+    <mergeCell ref="J303:K303"/>
+    <mergeCell ref="J304:K304"/>
+    <mergeCell ref="J305:K305"/>
+    <mergeCell ref="J306:K306"/>
+    <mergeCell ref="J289:K289"/>
+    <mergeCell ref="J290:K290"/>
+    <mergeCell ref="J291:K291"/>
+    <mergeCell ref="J292:K292"/>
+    <mergeCell ref="J293:K293"/>
+    <mergeCell ref="J294:K294"/>
+    <mergeCell ref="J295:K295"/>
+    <mergeCell ref="J296:K296"/>
+    <mergeCell ref="J297:K297"/>
+    <mergeCell ref="J280:K280"/>
+    <mergeCell ref="J281:K281"/>
+    <mergeCell ref="J282:K282"/>
+    <mergeCell ref="J283:K283"/>
+    <mergeCell ref="J284:K284"/>
+    <mergeCell ref="J285:K285"/>
+    <mergeCell ref="J286:K286"/>
+    <mergeCell ref="J287:K287"/>
+    <mergeCell ref="J288:K288"/>
+    <mergeCell ref="J271:K271"/>
+    <mergeCell ref="J272:K272"/>
+    <mergeCell ref="J273:K273"/>
+    <mergeCell ref="J274:K274"/>
+    <mergeCell ref="J275:K275"/>
+    <mergeCell ref="J276:K276"/>
+    <mergeCell ref="J277:K277"/>
+    <mergeCell ref="J278:K278"/>
+    <mergeCell ref="J279:K279"/>
+    <mergeCell ref="J262:K262"/>
+    <mergeCell ref="J263:K263"/>
+    <mergeCell ref="J264:K264"/>
+    <mergeCell ref="J265:K265"/>
+    <mergeCell ref="J266:K266"/>
+    <mergeCell ref="J267:K267"/>
+    <mergeCell ref="J268:K268"/>
+    <mergeCell ref="J269:K269"/>
+    <mergeCell ref="J270:K270"/>
+    <mergeCell ref="J253:K253"/>
+    <mergeCell ref="J254:K254"/>
+    <mergeCell ref="J255:K255"/>
+    <mergeCell ref="J256:K256"/>
+    <mergeCell ref="J257:K257"/>
+    <mergeCell ref="J258:K258"/>
+    <mergeCell ref="J259:K259"/>
+    <mergeCell ref="J260:K260"/>
+    <mergeCell ref="J261:K261"/>
+    <mergeCell ref="J244:K244"/>
+    <mergeCell ref="J245:K245"/>
+    <mergeCell ref="J246:K246"/>
+    <mergeCell ref="J247:K247"/>
+    <mergeCell ref="J248:K248"/>
+    <mergeCell ref="J249:K249"/>
+    <mergeCell ref="J250:K250"/>
+    <mergeCell ref="J251:K251"/>
+    <mergeCell ref="J252:K252"/>
+    <mergeCell ref="J235:K235"/>
+    <mergeCell ref="J236:K236"/>
+    <mergeCell ref="J237:K237"/>
+    <mergeCell ref="J238:K238"/>
+    <mergeCell ref="J239:K239"/>
+    <mergeCell ref="J240:K240"/>
+    <mergeCell ref="J241:K241"/>
+    <mergeCell ref="J242:K242"/>
+    <mergeCell ref="J243:K243"/>
+    <mergeCell ref="J226:K226"/>
+    <mergeCell ref="J227:K227"/>
+    <mergeCell ref="J228:K228"/>
+    <mergeCell ref="J229:K229"/>
+    <mergeCell ref="J230:K230"/>
+    <mergeCell ref="J231:K231"/>
+    <mergeCell ref="J232:K232"/>
+    <mergeCell ref="J233:K233"/>
+    <mergeCell ref="J234:K234"/>
+    <mergeCell ref="J217:K217"/>
+    <mergeCell ref="J218:K218"/>
+    <mergeCell ref="J219:K219"/>
+    <mergeCell ref="J220:K220"/>
+    <mergeCell ref="J221:K221"/>
+    <mergeCell ref="J222:K222"/>
+    <mergeCell ref="J223:K223"/>
+    <mergeCell ref="J224:K224"/>
+    <mergeCell ref="J225:K225"/>
+    <mergeCell ref="J208:K208"/>
+    <mergeCell ref="J209:K209"/>
+    <mergeCell ref="J210:K210"/>
+    <mergeCell ref="J211:K211"/>
+    <mergeCell ref="J212:K212"/>
+    <mergeCell ref="J213:K213"/>
+    <mergeCell ref="J214:K214"/>
+    <mergeCell ref="J215:K215"/>
+    <mergeCell ref="J216:K216"/>
+    <mergeCell ref="J199:K199"/>
+    <mergeCell ref="J200:K200"/>
+    <mergeCell ref="J201:K201"/>
+    <mergeCell ref="J202:K202"/>
+    <mergeCell ref="J203:K203"/>
+    <mergeCell ref="J204:K204"/>
+    <mergeCell ref="J205:K205"/>
+    <mergeCell ref="J206:K206"/>
+    <mergeCell ref="J207:K207"/>
+    <mergeCell ref="J190:K190"/>
+    <mergeCell ref="J191:K191"/>
+    <mergeCell ref="J192:K192"/>
+    <mergeCell ref="J193:K193"/>
+    <mergeCell ref="J194:K194"/>
+    <mergeCell ref="J195:K195"/>
+    <mergeCell ref="J196:K196"/>
+    <mergeCell ref="J197:K197"/>
+    <mergeCell ref="J198:K198"/>
+    <mergeCell ref="J181:K181"/>
+    <mergeCell ref="J182:K182"/>
+    <mergeCell ref="J183:K183"/>
+    <mergeCell ref="J184:K184"/>
+    <mergeCell ref="J185:K185"/>
+    <mergeCell ref="J186:K186"/>
+    <mergeCell ref="J187:K187"/>
+    <mergeCell ref="J188:K188"/>
+    <mergeCell ref="J189:K189"/>
+    <mergeCell ref="J160:K160"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="J161:K161"/>
+    <mergeCell ref="J162:K162"/>
+    <mergeCell ref="J163:K163"/>
+    <mergeCell ref="J164:K164"/>
+    <mergeCell ref="J165:K165"/>
+    <mergeCell ref="J166:K166"/>
+    <mergeCell ref="J141:K141"/>
+    <mergeCell ref="J142:K142"/>
+    <mergeCell ref="J143:K143"/>
+    <mergeCell ref="J144:K144"/>
+    <mergeCell ref="J145:K145"/>
+    <mergeCell ref="J146:K146"/>
+    <mergeCell ref="J147:K147"/>
+    <mergeCell ref="J148:K148"/>
+    <mergeCell ref="J149:K149"/>
+    <mergeCell ref="J132:K132"/>
+    <mergeCell ref="J133:K133"/>
+    <mergeCell ref="J134:K134"/>
+    <mergeCell ref="J135:K135"/>
+    <mergeCell ref="J136:K136"/>
+    <mergeCell ref="J137:K137"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="J176:K176"/>
+    <mergeCell ref="J177:K177"/>
+    <mergeCell ref="J178:K178"/>
+    <mergeCell ref="J179:K179"/>
+    <mergeCell ref="J180:K180"/>
+    <mergeCell ref="J150:K150"/>
+    <mergeCell ref="J151:K151"/>
+    <mergeCell ref="J152:K152"/>
+    <mergeCell ref="J153:K153"/>
+    <mergeCell ref="J154:K154"/>
+    <mergeCell ref="J155:K155"/>
+    <mergeCell ref="J156:K156"/>
+    <mergeCell ref="J157:K157"/>
+    <mergeCell ref="J158:K158"/>
+    <mergeCell ref="J167:K167"/>
+    <mergeCell ref="J168:K168"/>
+    <mergeCell ref="J169:K169"/>
+    <mergeCell ref="J170:K170"/>
+    <mergeCell ref="J171:K171"/>
+    <mergeCell ref="J172:K172"/>
+    <mergeCell ref="J173:K173"/>
+    <mergeCell ref="J174:K174"/>
+    <mergeCell ref="J175:K175"/>
+    <mergeCell ref="J159:K159"/>
+    <mergeCell ref="J117:K117"/>
+    <mergeCell ref="J118:K118"/>
+    <mergeCell ref="J119:K119"/>
+    <mergeCell ref="J120:K120"/>
+    <mergeCell ref="J121:K121"/>
+    <mergeCell ref="J122:K122"/>
+    <mergeCell ref="J138:K138"/>
+    <mergeCell ref="J139:K139"/>
+    <mergeCell ref="J140:K140"/>
+    <mergeCell ref="J123:K123"/>
+    <mergeCell ref="J124:K124"/>
+    <mergeCell ref="J125:K125"/>
+    <mergeCell ref="J126:K126"/>
+    <mergeCell ref="J127:K127"/>
+    <mergeCell ref="J128:K128"/>
+    <mergeCell ref="J129:K129"/>
+    <mergeCell ref="J130:K130"/>
+    <mergeCell ref="J131:K131"/>
+    <mergeCell ref="J108:K108"/>
+    <mergeCell ref="J109:K109"/>
+    <mergeCell ref="J110:K110"/>
+    <mergeCell ref="J111:K111"/>
+    <mergeCell ref="J112:K112"/>
+    <mergeCell ref="J113:K113"/>
+    <mergeCell ref="J114:K114"/>
+    <mergeCell ref="J115:K115"/>
+    <mergeCell ref="J116:K116"/>
+    <mergeCell ref="J99:K99"/>
+    <mergeCell ref="J100:K100"/>
+    <mergeCell ref="J101:K101"/>
+    <mergeCell ref="J102:K102"/>
+    <mergeCell ref="J103:K103"/>
+    <mergeCell ref="J104:K104"/>
+    <mergeCell ref="J105:K105"/>
+    <mergeCell ref="J106:K106"/>
+    <mergeCell ref="J107:K107"/>
+    <mergeCell ref="J90:K90"/>
+    <mergeCell ref="J91:K91"/>
+    <mergeCell ref="J92:K92"/>
+    <mergeCell ref="J93:K93"/>
+    <mergeCell ref="J94:K94"/>
+    <mergeCell ref="J95:K95"/>
+    <mergeCell ref="J96:K96"/>
+    <mergeCell ref="J97:K97"/>
+    <mergeCell ref="J98:K98"/>
+    <mergeCell ref="J81:K81"/>
+    <mergeCell ref="J82:K82"/>
+    <mergeCell ref="J83:K83"/>
+    <mergeCell ref="J84:K84"/>
+    <mergeCell ref="J85:K85"/>
+    <mergeCell ref="J86:K86"/>
+    <mergeCell ref="J87:K87"/>
+    <mergeCell ref="J88:K88"/>
+    <mergeCell ref="J89:K89"/>
+    <mergeCell ref="J72:K72"/>
+    <mergeCell ref="J73:K73"/>
+    <mergeCell ref="J74:K74"/>
+    <mergeCell ref="J75:K75"/>
+    <mergeCell ref="J76:K76"/>
+    <mergeCell ref="J77:K77"/>
+    <mergeCell ref="J78:K78"/>
+    <mergeCell ref="J79:K79"/>
+    <mergeCell ref="J80:K80"/>
+    <mergeCell ref="J63:K63"/>
+    <mergeCell ref="J64:K64"/>
+    <mergeCell ref="J65:K65"/>
+    <mergeCell ref="J66:K66"/>
+    <mergeCell ref="J67:K67"/>
+    <mergeCell ref="J68:K68"/>
+    <mergeCell ref="J69:K69"/>
+    <mergeCell ref="J70:K70"/>
+    <mergeCell ref="J71:K71"/>
+    <mergeCell ref="J54:K54"/>
+    <mergeCell ref="J55:K55"/>
+    <mergeCell ref="J56:K56"/>
+    <mergeCell ref="J57:K57"/>
+    <mergeCell ref="J58:K58"/>
+    <mergeCell ref="J59:K59"/>
+    <mergeCell ref="J60:K60"/>
+    <mergeCell ref="J61:K61"/>
+    <mergeCell ref="J62:K62"/>
+    <mergeCell ref="J45:K45"/>
+    <mergeCell ref="J46:K46"/>
+    <mergeCell ref="J47:K47"/>
+    <mergeCell ref="J48:K48"/>
+    <mergeCell ref="J49:K49"/>
+    <mergeCell ref="J50:K50"/>
+    <mergeCell ref="J51:K51"/>
+    <mergeCell ref="J52:K52"/>
+    <mergeCell ref="J53:K53"/>
+    <mergeCell ref="J36:K36"/>
+    <mergeCell ref="J37:K37"/>
+    <mergeCell ref="J38:K38"/>
+    <mergeCell ref="J39:K39"/>
+    <mergeCell ref="J40:K40"/>
+    <mergeCell ref="J41:K41"/>
+    <mergeCell ref="J42:K42"/>
+    <mergeCell ref="J43:K43"/>
+    <mergeCell ref="J44:K44"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="A20:K20"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="A27:K27"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="J35:K35"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="H42:I42"/>
+    <mergeCell ref="H43:I43"/>
+    <mergeCell ref="H44:I44"/>
+    <mergeCell ref="H45:I45"/>
+    <mergeCell ref="H36:I36"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="H51:I51"/>
+    <mergeCell ref="H52:I52"/>
+    <mergeCell ref="H53:I53"/>
+    <mergeCell ref="H54:I54"/>
+    <mergeCell ref="H55:I55"/>
+    <mergeCell ref="H46:I46"/>
+    <mergeCell ref="H47:I47"/>
+    <mergeCell ref="H48:I48"/>
+    <mergeCell ref="H49:I49"/>
+    <mergeCell ref="H50:I50"/>
+    <mergeCell ref="H61:I61"/>
+    <mergeCell ref="H62:I62"/>
+    <mergeCell ref="H63:I63"/>
+    <mergeCell ref="H64:I64"/>
+    <mergeCell ref="H65:I65"/>
+    <mergeCell ref="H56:I56"/>
+    <mergeCell ref="H57:I57"/>
+    <mergeCell ref="H58:I58"/>
+    <mergeCell ref="H59:I59"/>
+    <mergeCell ref="H60:I60"/>
+    <mergeCell ref="H71:I71"/>
+    <mergeCell ref="H72:I72"/>
+    <mergeCell ref="H73:I73"/>
+    <mergeCell ref="H74:I74"/>
+    <mergeCell ref="H75:I75"/>
+    <mergeCell ref="H66:I66"/>
+    <mergeCell ref="H67:I67"/>
+    <mergeCell ref="H68:I68"/>
+    <mergeCell ref="H69:I69"/>
+    <mergeCell ref="H70:I70"/>
+    <mergeCell ref="H81:I81"/>
+    <mergeCell ref="H82:I82"/>
+    <mergeCell ref="H83:I83"/>
+    <mergeCell ref="H84:I84"/>
+    <mergeCell ref="H85:I85"/>
+    <mergeCell ref="H76:I76"/>
+    <mergeCell ref="H77:I77"/>
+    <mergeCell ref="H78:I78"/>
+    <mergeCell ref="H79:I79"/>
+    <mergeCell ref="H80:I80"/>
+    <mergeCell ref="H91:I91"/>
+    <mergeCell ref="H92:I92"/>
+    <mergeCell ref="H93:I93"/>
+    <mergeCell ref="H94:I94"/>
+    <mergeCell ref="H95:I95"/>
+    <mergeCell ref="H86:I86"/>
+    <mergeCell ref="H87:I87"/>
+    <mergeCell ref="H88:I88"/>
+    <mergeCell ref="H89:I89"/>
+    <mergeCell ref="H90:I90"/>
+    <mergeCell ref="H101:I101"/>
+    <mergeCell ref="H102:I102"/>
+    <mergeCell ref="H103:I103"/>
+    <mergeCell ref="H104:I104"/>
+    <mergeCell ref="H105:I105"/>
+    <mergeCell ref="H96:I96"/>
+    <mergeCell ref="H97:I97"/>
+    <mergeCell ref="H98:I98"/>
+    <mergeCell ref="H99:I99"/>
+    <mergeCell ref="H100:I100"/>
+    <mergeCell ref="H111:I111"/>
+    <mergeCell ref="H112:I112"/>
+    <mergeCell ref="H113:I113"/>
+    <mergeCell ref="H114:I114"/>
+    <mergeCell ref="H115:I115"/>
+    <mergeCell ref="H106:I106"/>
+    <mergeCell ref="H107:I107"/>
+    <mergeCell ref="H108:I108"/>
+    <mergeCell ref="H109:I109"/>
+    <mergeCell ref="H110:I110"/>
+    <mergeCell ref="H129:I129"/>
+    <mergeCell ref="H130:I130"/>
+    <mergeCell ref="H121:I121"/>
+    <mergeCell ref="H122:I122"/>
+    <mergeCell ref="H123:I123"/>
+    <mergeCell ref="H124:I124"/>
+    <mergeCell ref="H125:I125"/>
+    <mergeCell ref="H116:I116"/>
+    <mergeCell ref="H117:I117"/>
+    <mergeCell ref="H118:I118"/>
+    <mergeCell ref="H119:I119"/>
+    <mergeCell ref="H120:I120"/>
     <mergeCell ref="H1:I1"/>
     <mergeCell ref="H146:I146"/>
     <mergeCell ref="H147:I147"/>
@@ -7416,445 +7932,6 @@
     <mergeCell ref="H126:I126"/>
     <mergeCell ref="H127:I127"/>
     <mergeCell ref="H128:I128"/>
-    <mergeCell ref="H129:I129"/>
-    <mergeCell ref="H130:I130"/>
-    <mergeCell ref="H121:I121"/>
-    <mergeCell ref="H122:I122"/>
-    <mergeCell ref="H123:I123"/>
-    <mergeCell ref="H124:I124"/>
-    <mergeCell ref="H125:I125"/>
-    <mergeCell ref="H116:I116"/>
-    <mergeCell ref="H117:I117"/>
-    <mergeCell ref="H118:I118"/>
-    <mergeCell ref="H119:I119"/>
-    <mergeCell ref="H120:I120"/>
-    <mergeCell ref="H111:I111"/>
-    <mergeCell ref="H112:I112"/>
-    <mergeCell ref="H113:I113"/>
-    <mergeCell ref="H114:I114"/>
-    <mergeCell ref="H115:I115"/>
-    <mergeCell ref="H106:I106"/>
-    <mergeCell ref="H107:I107"/>
-    <mergeCell ref="H108:I108"/>
-    <mergeCell ref="H109:I109"/>
-    <mergeCell ref="H110:I110"/>
-    <mergeCell ref="H101:I101"/>
-    <mergeCell ref="H102:I102"/>
-    <mergeCell ref="H103:I103"/>
-    <mergeCell ref="H104:I104"/>
-    <mergeCell ref="H105:I105"/>
-    <mergeCell ref="H96:I96"/>
-    <mergeCell ref="H97:I97"/>
-    <mergeCell ref="H98:I98"/>
-    <mergeCell ref="H99:I99"/>
-    <mergeCell ref="H100:I100"/>
-    <mergeCell ref="H91:I91"/>
-    <mergeCell ref="H92:I92"/>
-    <mergeCell ref="H93:I93"/>
-    <mergeCell ref="H94:I94"/>
-    <mergeCell ref="H95:I95"/>
-    <mergeCell ref="H86:I86"/>
-    <mergeCell ref="H87:I87"/>
-    <mergeCell ref="H88:I88"/>
-    <mergeCell ref="H89:I89"/>
-    <mergeCell ref="H90:I90"/>
-    <mergeCell ref="H81:I81"/>
-    <mergeCell ref="H82:I82"/>
-    <mergeCell ref="H83:I83"/>
-    <mergeCell ref="H84:I84"/>
-    <mergeCell ref="H85:I85"/>
-    <mergeCell ref="H76:I76"/>
-    <mergeCell ref="H77:I77"/>
-    <mergeCell ref="H78:I78"/>
-    <mergeCell ref="H79:I79"/>
-    <mergeCell ref="H80:I80"/>
-    <mergeCell ref="H71:I71"/>
-    <mergeCell ref="H72:I72"/>
-    <mergeCell ref="H73:I73"/>
-    <mergeCell ref="H74:I74"/>
-    <mergeCell ref="H75:I75"/>
-    <mergeCell ref="H66:I66"/>
-    <mergeCell ref="H67:I67"/>
-    <mergeCell ref="H68:I68"/>
-    <mergeCell ref="H69:I69"/>
-    <mergeCell ref="H70:I70"/>
-    <mergeCell ref="H61:I61"/>
-    <mergeCell ref="H62:I62"/>
-    <mergeCell ref="H63:I63"/>
-    <mergeCell ref="H64:I64"/>
-    <mergeCell ref="H65:I65"/>
-    <mergeCell ref="H56:I56"/>
-    <mergeCell ref="H57:I57"/>
-    <mergeCell ref="H58:I58"/>
-    <mergeCell ref="H59:I59"/>
-    <mergeCell ref="H60:I60"/>
-    <mergeCell ref="H51:I51"/>
-    <mergeCell ref="H52:I52"/>
-    <mergeCell ref="H53:I53"/>
-    <mergeCell ref="H54:I54"/>
-    <mergeCell ref="H55:I55"/>
-    <mergeCell ref="H46:I46"/>
-    <mergeCell ref="H47:I47"/>
-    <mergeCell ref="H48:I48"/>
-    <mergeCell ref="H49:I49"/>
-    <mergeCell ref="H50:I50"/>
-    <mergeCell ref="H41:I41"/>
-    <mergeCell ref="H42:I42"/>
-    <mergeCell ref="H43:I43"/>
-    <mergeCell ref="H44:I44"/>
-    <mergeCell ref="H45:I45"/>
-    <mergeCell ref="H36:I36"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="H38:I38"/>
-    <mergeCell ref="H39:I39"/>
-    <mergeCell ref="H40:I40"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="A27:K27"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="A20:K20"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="J31:K31"/>
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="J34:K34"/>
-    <mergeCell ref="J35:K35"/>
-    <mergeCell ref="J36:K36"/>
-    <mergeCell ref="J37:K37"/>
-    <mergeCell ref="J38:K38"/>
-    <mergeCell ref="J39:K39"/>
-    <mergeCell ref="J40:K40"/>
-    <mergeCell ref="J41:K41"/>
-    <mergeCell ref="J42:K42"/>
-    <mergeCell ref="J43:K43"/>
-    <mergeCell ref="J44:K44"/>
-    <mergeCell ref="J45:K45"/>
-    <mergeCell ref="J46:K46"/>
-    <mergeCell ref="J47:K47"/>
-    <mergeCell ref="J48:K48"/>
-    <mergeCell ref="J49:K49"/>
-    <mergeCell ref="J50:K50"/>
-    <mergeCell ref="J51:K51"/>
-    <mergeCell ref="J52:K52"/>
-    <mergeCell ref="J53:K53"/>
-    <mergeCell ref="J54:K54"/>
-    <mergeCell ref="J55:K55"/>
-    <mergeCell ref="J56:K56"/>
-    <mergeCell ref="J57:K57"/>
-    <mergeCell ref="J58:K58"/>
-    <mergeCell ref="J59:K59"/>
-    <mergeCell ref="J60:K60"/>
-    <mergeCell ref="J61:K61"/>
-    <mergeCell ref="J62:K62"/>
-    <mergeCell ref="J63:K63"/>
-    <mergeCell ref="J64:K64"/>
-    <mergeCell ref="J65:K65"/>
-    <mergeCell ref="J66:K66"/>
-    <mergeCell ref="J67:K67"/>
-    <mergeCell ref="J68:K68"/>
-    <mergeCell ref="J69:K69"/>
-    <mergeCell ref="J70:K70"/>
-    <mergeCell ref="J71:K71"/>
-    <mergeCell ref="J72:K72"/>
-    <mergeCell ref="J73:K73"/>
-    <mergeCell ref="J74:K74"/>
-    <mergeCell ref="J75:K75"/>
-    <mergeCell ref="J76:K76"/>
-    <mergeCell ref="J77:K77"/>
-    <mergeCell ref="J78:K78"/>
-    <mergeCell ref="J79:K79"/>
-    <mergeCell ref="J80:K80"/>
-    <mergeCell ref="J81:K81"/>
-    <mergeCell ref="J82:K82"/>
-    <mergeCell ref="J83:K83"/>
-    <mergeCell ref="J84:K84"/>
-    <mergeCell ref="J85:K85"/>
-    <mergeCell ref="J86:K86"/>
-    <mergeCell ref="J87:K87"/>
-    <mergeCell ref="J88:K88"/>
-    <mergeCell ref="J89:K89"/>
-    <mergeCell ref="J90:K90"/>
-    <mergeCell ref="J91:K91"/>
-    <mergeCell ref="J92:K92"/>
-    <mergeCell ref="J93:K93"/>
-    <mergeCell ref="J94:K94"/>
-    <mergeCell ref="J95:K95"/>
-    <mergeCell ref="J96:K96"/>
-    <mergeCell ref="J97:K97"/>
-    <mergeCell ref="J98:K98"/>
-    <mergeCell ref="J99:K99"/>
-    <mergeCell ref="J100:K100"/>
-    <mergeCell ref="J101:K101"/>
-    <mergeCell ref="J102:K102"/>
-    <mergeCell ref="J103:K103"/>
-    <mergeCell ref="J104:K104"/>
-    <mergeCell ref="J105:K105"/>
-    <mergeCell ref="J106:K106"/>
-    <mergeCell ref="J107:K107"/>
-    <mergeCell ref="J108:K108"/>
-    <mergeCell ref="J109:K109"/>
-    <mergeCell ref="J110:K110"/>
-    <mergeCell ref="J111:K111"/>
-    <mergeCell ref="J112:K112"/>
-    <mergeCell ref="J113:K113"/>
-    <mergeCell ref="J114:K114"/>
-    <mergeCell ref="J115:K115"/>
-    <mergeCell ref="J116:K116"/>
-    <mergeCell ref="J117:K117"/>
-    <mergeCell ref="J118:K118"/>
-    <mergeCell ref="J119:K119"/>
-    <mergeCell ref="J120:K120"/>
-    <mergeCell ref="J121:K121"/>
-    <mergeCell ref="J122:K122"/>
-    <mergeCell ref="J138:K138"/>
-    <mergeCell ref="J139:K139"/>
-    <mergeCell ref="J140:K140"/>
-    <mergeCell ref="J123:K123"/>
-    <mergeCell ref="J124:K124"/>
-    <mergeCell ref="J125:K125"/>
-    <mergeCell ref="J126:K126"/>
-    <mergeCell ref="J127:K127"/>
-    <mergeCell ref="J128:K128"/>
-    <mergeCell ref="J129:K129"/>
-    <mergeCell ref="J130:K130"/>
-    <mergeCell ref="J131:K131"/>
-    <mergeCell ref="J176:K176"/>
-    <mergeCell ref="J177:K177"/>
-    <mergeCell ref="J178:K178"/>
-    <mergeCell ref="J179:K179"/>
-    <mergeCell ref="J180:K180"/>
-    <mergeCell ref="J150:K150"/>
-    <mergeCell ref="J151:K151"/>
-    <mergeCell ref="J152:K152"/>
-    <mergeCell ref="J153:K153"/>
-    <mergeCell ref="J154:K154"/>
-    <mergeCell ref="J155:K155"/>
-    <mergeCell ref="J156:K156"/>
-    <mergeCell ref="J157:K157"/>
-    <mergeCell ref="J158:K158"/>
-    <mergeCell ref="J167:K167"/>
-    <mergeCell ref="J168:K168"/>
-    <mergeCell ref="J169:K169"/>
-    <mergeCell ref="J170:K170"/>
-    <mergeCell ref="J171:K171"/>
-    <mergeCell ref="J172:K172"/>
-    <mergeCell ref="J173:K173"/>
-    <mergeCell ref="J174:K174"/>
-    <mergeCell ref="J175:K175"/>
-    <mergeCell ref="J159:K159"/>
-    <mergeCell ref="J160:K160"/>
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="J161:K161"/>
-    <mergeCell ref="J162:K162"/>
-    <mergeCell ref="J163:K163"/>
-    <mergeCell ref="J164:K164"/>
-    <mergeCell ref="J165:K165"/>
-    <mergeCell ref="J166:K166"/>
-    <mergeCell ref="J141:K141"/>
-    <mergeCell ref="J142:K142"/>
-    <mergeCell ref="J143:K143"/>
-    <mergeCell ref="J144:K144"/>
-    <mergeCell ref="J145:K145"/>
-    <mergeCell ref="J146:K146"/>
-    <mergeCell ref="J147:K147"/>
-    <mergeCell ref="J148:K148"/>
-    <mergeCell ref="J149:K149"/>
-    <mergeCell ref="J132:K132"/>
-    <mergeCell ref="J133:K133"/>
-    <mergeCell ref="J134:K134"/>
-    <mergeCell ref="J135:K135"/>
-    <mergeCell ref="J136:K136"/>
-    <mergeCell ref="J137:K137"/>
-    <mergeCell ref="J181:K181"/>
-    <mergeCell ref="J182:K182"/>
-    <mergeCell ref="J183:K183"/>
-    <mergeCell ref="J184:K184"/>
-    <mergeCell ref="J185:K185"/>
-    <mergeCell ref="J186:K186"/>
-    <mergeCell ref="J187:K187"/>
-    <mergeCell ref="J188:K188"/>
-    <mergeCell ref="J189:K189"/>
-    <mergeCell ref="J190:K190"/>
-    <mergeCell ref="J191:K191"/>
-    <mergeCell ref="J192:K192"/>
-    <mergeCell ref="J193:K193"/>
-    <mergeCell ref="J194:K194"/>
-    <mergeCell ref="J195:K195"/>
-    <mergeCell ref="J196:K196"/>
-    <mergeCell ref="J197:K197"/>
-    <mergeCell ref="J198:K198"/>
-    <mergeCell ref="J199:K199"/>
-    <mergeCell ref="J200:K200"/>
-    <mergeCell ref="J201:K201"/>
-    <mergeCell ref="J202:K202"/>
-    <mergeCell ref="J203:K203"/>
-    <mergeCell ref="J204:K204"/>
-    <mergeCell ref="J205:K205"/>
-    <mergeCell ref="J206:K206"/>
-    <mergeCell ref="J207:K207"/>
-    <mergeCell ref="J208:K208"/>
-    <mergeCell ref="J209:K209"/>
-    <mergeCell ref="J210:K210"/>
-    <mergeCell ref="J211:K211"/>
-    <mergeCell ref="J212:K212"/>
-    <mergeCell ref="J213:K213"/>
-    <mergeCell ref="J214:K214"/>
-    <mergeCell ref="J215:K215"/>
-    <mergeCell ref="J216:K216"/>
-    <mergeCell ref="J217:K217"/>
-    <mergeCell ref="J218:K218"/>
-    <mergeCell ref="J219:K219"/>
-    <mergeCell ref="J220:K220"/>
-    <mergeCell ref="J221:K221"/>
-    <mergeCell ref="J222:K222"/>
-    <mergeCell ref="J223:K223"/>
-    <mergeCell ref="J224:K224"/>
-    <mergeCell ref="J225:K225"/>
-    <mergeCell ref="J226:K226"/>
-    <mergeCell ref="J227:K227"/>
-    <mergeCell ref="J228:K228"/>
-    <mergeCell ref="J229:K229"/>
-    <mergeCell ref="J230:K230"/>
-    <mergeCell ref="J231:K231"/>
-    <mergeCell ref="J232:K232"/>
-    <mergeCell ref="J233:K233"/>
-    <mergeCell ref="J234:K234"/>
-    <mergeCell ref="J235:K235"/>
-    <mergeCell ref="J236:K236"/>
-    <mergeCell ref="J237:K237"/>
-    <mergeCell ref="J238:K238"/>
-    <mergeCell ref="J239:K239"/>
-    <mergeCell ref="J240:K240"/>
-    <mergeCell ref="J241:K241"/>
-    <mergeCell ref="J242:K242"/>
-    <mergeCell ref="J243:K243"/>
-    <mergeCell ref="J244:K244"/>
-    <mergeCell ref="J245:K245"/>
-    <mergeCell ref="J246:K246"/>
-    <mergeCell ref="J247:K247"/>
-    <mergeCell ref="J248:K248"/>
-    <mergeCell ref="J249:K249"/>
-    <mergeCell ref="J250:K250"/>
-    <mergeCell ref="J251:K251"/>
-    <mergeCell ref="J252:K252"/>
-    <mergeCell ref="J253:K253"/>
-    <mergeCell ref="J254:K254"/>
-    <mergeCell ref="J255:K255"/>
-    <mergeCell ref="J256:K256"/>
-    <mergeCell ref="J257:K257"/>
-    <mergeCell ref="J258:K258"/>
-    <mergeCell ref="J259:K259"/>
-    <mergeCell ref="J260:K260"/>
-    <mergeCell ref="J261:K261"/>
-    <mergeCell ref="J262:K262"/>
-    <mergeCell ref="J263:K263"/>
-    <mergeCell ref="J264:K264"/>
-    <mergeCell ref="J265:K265"/>
-    <mergeCell ref="J266:K266"/>
-    <mergeCell ref="J267:K267"/>
-    <mergeCell ref="J268:K268"/>
-    <mergeCell ref="J269:K269"/>
-    <mergeCell ref="J270:K270"/>
-    <mergeCell ref="J271:K271"/>
-    <mergeCell ref="J272:K272"/>
-    <mergeCell ref="J273:K273"/>
-    <mergeCell ref="J274:K274"/>
-    <mergeCell ref="J275:K275"/>
-    <mergeCell ref="J276:K276"/>
-    <mergeCell ref="J277:K277"/>
-    <mergeCell ref="J278:K278"/>
-    <mergeCell ref="J279:K279"/>
-    <mergeCell ref="J280:K280"/>
-    <mergeCell ref="J281:K281"/>
-    <mergeCell ref="J282:K282"/>
-    <mergeCell ref="J283:K283"/>
-    <mergeCell ref="J284:K284"/>
-    <mergeCell ref="J285:K285"/>
-    <mergeCell ref="J286:K286"/>
-    <mergeCell ref="J287:K287"/>
-    <mergeCell ref="J288:K288"/>
-    <mergeCell ref="J289:K289"/>
-    <mergeCell ref="J290:K290"/>
-    <mergeCell ref="J291:K291"/>
-    <mergeCell ref="J292:K292"/>
-    <mergeCell ref="J293:K293"/>
-    <mergeCell ref="J294:K294"/>
-    <mergeCell ref="J295:K295"/>
-    <mergeCell ref="J296:K296"/>
-    <mergeCell ref="J297:K297"/>
-    <mergeCell ref="J298:K298"/>
-    <mergeCell ref="J299:K299"/>
-    <mergeCell ref="J300:K300"/>
-    <mergeCell ref="J301:K301"/>
-    <mergeCell ref="J302:K302"/>
-    <mergeCell ref="J303:K303"/>
-    <mergeCell ref="J304:K304"/>
-    <mergeCell ref="J305:K305"/>
-    <mergeCell ref="J306:K306"/>
-    <mergeCell ref="J316:K316"/>
-    <mergeCell ref="J317:K317"/>
-    <mergeCell ref="J307:K307"/>
-    <mergeCell ref="J308:K308"/>
-    <mergeCell ref="J309:K309"/>
-    <mergeCell ref="J310:K310"/>
-    <mergeCell ref="J311:K311"/>
-    <mergeCell ref="J312:K312"/>
-    <mergeCell ref="J313:K313"/>
-    <mergeCell ref="J314:K314"/>
-    <mergeCell ref="J315:K315"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G1 G3:G19 G21:G26 G28:G992" xr:uid="{00000000-0002-0000-0000-000000000000}">

--- a/Requirments/Review.xlsx
+++ b/Requirments/Review.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ITI\QA\Online-Mobile-Store-WebSite\Requirments\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Online-Mobile-Store-WebSite\Requirments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C48B157-68EF-4BD0-BC60-74DF23870D3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{624D7E8B-684E-4F34-AD62-D9A7E1985F3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="127">
   <si>
     <t>ID</t>
   </si>
@@ -303,13 +303,112 @@
   </si>
   <si>
     <t>what if the product is out of stock</t>
+  </si>
+  <si>
+    <t>ef50fe1c29fc02acea2f17e5b98048c5c9a592a1</t>
+  </si>
+  <si>
+    <t>Test Cases Document Review</t>
+  </si>
+  <si>
+    <t>Review_TC_Login_001</t>
+  </si>
+  <si>
+    <t>Review_TC_Login_002</t>
+  </si>
+  <si>
+    <t>Review_TC_Login_003</t>
+  </si>
+  <si>
+    <t>Review_TC_Login_004</t>
+  </si>
+  <si>
+    <t>Review_TC_Login_005</t>
+  </si>
+  <si>
+    <t>Review_TC_Login_006</t>
+  </si>
+  <si>
+    <t>Review_TC_Login_007</t>
+  </si>
+  <si>
+    <t>Review_TC_Login_008</t>
+  </si>
+  <si>
+    <t>Review_TC_Login_009</t>
+  </si>
+  <si>
+    <t>Review_TC_Login_010</t>
+  </si>
+  <si>
+    <t>Test file</t>
+  </si>
+  <si>
+    <t>Mohamed Mumtaz</t>
+  </si>
+  <si>
+    <t>No Gaps</t>
+  </si>
+  <si>
+    <t>Review_TC_Login_011</t>
+  </si>
+  <si>
+    <t>Review_TC_Login_012</t>
+  </si>
+  <si>
+    <t>Review_TC_Login_013</t>
+  </si>
+  <si>
+    <t>Review_TC_Login_014</t>
+  </si>
+  <si>
+    <t>TC_Login_001</t>
+  </si>
+  <si>
+    <t>TC_Login_002</t>
+  </si>
+  <si>
+    <t>TC_Login_003</t>
+  </si>
+  <si>
+    <t>TC_Login_004</t>
+  </si>
+  <si>
+    <t>TC_Login_005</t>
+  </si>
+  <si>
+    <t>TC_Login_006</t>
+  </si>
+  <si>
+    <t>TC_Login_007</t>
+  </si>
+  <si>
+    <t>TC_Login_008</t>
+  </si>
+  <si>
+    <t>TC_Login_009</t>
+  </si>
+  <si>
+    <t>TC_Login_010</t>
+  </si>
+  <si>
+    <t>TC_Login_011</t>
+  </si>
+  <si>
+    <t>TC_Login_012</t>
+  </si>
+  <si>
+    <t>TC_Login_013</t>
+  </si>
+  <si>
+    <t>TC_Login_014</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -321,6 +420,7 @@
       <sz val="14"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -328,29 +428,34 @@
       <sz val="20"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="17"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -388,6 +493,12 @@
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -522,7 +633,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -571,14 +682,32 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -588,28 +717,13 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -835,25 +949,25 @@
   </sheetPr>
   <dimension ref="A1:AC992"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView tabSelected="1" topLeftCell="E118" workbookViewId="0">
+      <selection activeCell="J125" sqref="J125:K125"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24" customWidth="1"/>
-    <col min="2" max="2" width="27.28515625" customWidth="1"/>
-    <col min="3" max="3" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="25.5703125" customWidth="1"/>
-    <col min="5" max="5" width="97.140625" customWidth="1"/>
-    <col min="6" max="6" width="25.85546875" customWidth="1"/>
-    <col min="7" max="7" width="18.5703125" customWidth="1"/>
-    <col min="8" max="8" width="34.140625" customWidth="1"/>
-    <col min="9" max="9" width="25.7109375" customWidth="1"/>
-    <col min="11" max="11" width="34.28515625" customWidth="1"/>
+    <col min="2" max="2" width="27.26953125" customWidth="1"/>
+    <col min="3" max="3" width="20.7265625" customWidth="1"/>
+    <col min="4" max="4" width="25.54296875" customWidth="1"/>
+    <col min="5" max="5" width="97.1796875" customWidth="1"/>
+    <col min="6" max="6" width="25.81640625" customWidth="1"/>
+    <col min="7" max="7" width="18.54296875" customWidth="1"/>
+    <col min="8" max="8" width="34.1796875" customWidth="1"/>
+    <col min="9" max="9" width="25.7265625" customWidth="1"/>
+    <col min="11" max="11" width="34.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="36" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:29" ht="36" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -875,14 +989,14 @@
       <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="26" t="s">
+      <c r="H1" s="35" t="s">
         <v>68</v>
       </c>
-      <c r="I1" s="27"/>
-      <c r="J1" s="26" t="s">
+      <c r="I1" s="36"/>
+      <c r="J1" s="35" t="s">
         <v>80</v>
       </c>
-      <c r="K1" s="27"/>
+      <c r="K1" s="36"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
@@ -902,20 +1016,20 @@
       <c r="AB1" s="1"/>
       <c r="AC1" s="1"/>
     </row>
-    <row r="2" spans="1:29" ht="36" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="37" t="s">
+    <row r="2" spans="1:29" ht="36" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A2" s="28" t="s">
         <v>85</v>
       </c>
-      <c r="B2" s="38"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="38"/>
-      <c r="J2" s="38"/>
-      <c r="K2" s="38"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="29"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
@@ -935,7 +1049,7 @@
       <c r="AB2" s="1"/>
       <c r="AC2" s="1"/>
     </row>
-    <row r="3" spans="1:29" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:29" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A3" s="6" t="s">
         <v>7</v>
       </c>
@@ -959,12 +1073,12 @@
       </c>
       <c r="H3" s="33"/>
       <c r="I3" s="34"/>
-      <c r="J3" s="36" t="s">
+      <c r="J3" s="27" t="s">
         <v>81</v>
       </c>
-      <c r="K3" s="36"/>
-    </row>
-    <row r="4" spans="1:29" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="K3" s="27"/>
+    </row>
+    <row r="4" spans="1:29" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A4" s="6" t="s">
         <v>13</v>
       </c>
@@ -988,12 +1102,12 @@
       </c>
       <c r="H4" s="33"/>
       <c r="I4" s="34"/>
-      <c r="J4" s="36" t="s">
+      <c r="J4" s="27" t="s">
         <v>81</v>
       </c>
-      <c r="K4" s="36"/>
-    </row>
-    <row r="5" spans="1:29" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="K4" s="27"/>
+    </row>
+    <row r="5" spans="1:29" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A5" s="6" t="s">
         <v>15</v>
       </c>
@@ -1017,12 +1131,12 @@
       </c>
       <c r="H5" s="33"/>
       <c r="I5" s="34"/>
-      <c r="J5" s="36" t="s">
+      <c r="J5" s="27" t="s">
         <v>81</v>
       </c>
-      <c r="K5" s="36"/>
-    </row>
-    <row r="6" spans="1:29" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="K5" s="27"/>
+    </row>
+    <row r="6" spans="1:29" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A6" s="10" t="s">
         <v>19</v>
       </c>
@@ -1046,12 +1160,12 @@
       </c>
       <c r="H6" s="33"/>
       <c r="I6" s="34"/>
-      <c r="J6" s="36" t="s">
+      <c r="J6" s="27" t="s">
         <v>81</v>
       </c>
-      <c r="K6" s="36"/>
-    </row>
-    <row r="7" spans="1:29" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="K6" s="27"/>
+    </row>
+    <row r="7" spans="1:29" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A7" s="10" t="s">
         <v>22</v>
       </c>
@@ -1075,12 +1189,12 @@
       </c>
       <c r="H7" s="33"/>
       <c r="I7" s="34"/>
-      <c r="J7" s="36" t="s">
+      <c r="J7" s="27" t="s">
         <v>81</v>
       </c>
-      <c r="K7" s="36"/>
-    </row>
-    <row r="8" spans="1:29" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="K7" s="27"/>
+    </row>
+    <row r="8" spans="1:29" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A8" s="10" t="s">
         <v>25</v>
       </c>
@@ -1104,12 +1218,12 @@
       </c>
       <c r="H8" s="33"/>
       <c r="I8" s="34"/>
-      <c r="J8" s="36" t="s">
+      <c r="J8" s="27" t="s">
         <v>81</v>
       </c>
-      <c r="K8" s="36"/>
-    </row>
-    <row r="9" spans="1:29" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="K8" s="27"/>
+    </row>
+    <row r="9" spans="1:29" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A9" s="6" t="s">
         <v>28</v>
       </c>
@@ -1133,12 +1247,12 @@
       </c>
       <c r="H9" s="33"/>
       <c r="I9" s="34"/>
-      <c r="J9" s="36" t="s">
+      <c r="J9" s="27" t="s">
         <v>81</v>
       </c>
-      <c r="K9" s="36"/>
-    </row>
-    <row r="10" spans="1:29" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="K9" s="27"/>
+    </row>
+    <row r="10" spans="1:29" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A10" s="6" t="s">
         <v>31</v>
       </c>
@@ -1162,12 +1276,12 @@
       </c>
       <c r="H10" s="33"/>
       <c r="I10" s="34"/>
-      <c r="J10" s="36" t="s">
+      <c r="J10" s="27" t="s">
         <v>81</v>
       </c>
-      <c r="K10" s="36"/>
-    </row>
-    <row r="11" spans="1:29" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="K10" s="27"/>
+    </row>
+    <row r="11" spans="1:29" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A11" s="6" t="s">
         <v>34</v>
       </c>
@@ -1191,12 +1305,12 @@
       </c>
       <c r="H11" s="33"/>
       <c r="I11" s="34"/>
-      <c r="J11" s="36" t="s">
+      <c r="J11" s="27" t="s">
         <v>81</v>
       </c>
-      <c r="K11" s="36"/>
-    </row>
-    <row r="12" spans="1:29" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="K11" s="27"/>
+    </row>
+    <row r="12" spans="1:29" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A12" s="6" t="s">
         <v>36</v>
       </c>
@@ -1220,12 +1334,12 @@
       </c>
       <c r="H12" s="33"/>
       <c r="I12" s="34"/>
-      <c r="J12" s="36" t="s">
+      <c r="J12" s="27" t="s">
         <v>81</v>
       </c>
-      <c r="K12" s="36"/>
-    </row>
-    <row r="13" spans="1:29" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="K12" s="27"/>
+    </row>
+    <row r="13" spans="1:29" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A13" s="6" t="s">
         <v>39</v>
       </c>
@@ -1249,12 +1363,12 @@
       </c>
       <c r="H13" s="33"/>
       <c r="I13" s="34"/>
-      <c r="J13" s="36" t="s">
+      <c r="J13" s="27" t="s">
         <v>81</v>
       </c>
-      <c r="K13" s="36"/>
-    </row>
-    <row r="14" spans="1:29" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="K13" s="27"/>
+    </row>
+    <row r="14" spans="1:29" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A14" s="6" t="s">
         <v>42</v>
       </c>
@@ -1278,12 +1392,12 @@
       </c>
       <c r="H14" s="33"/>
       <c r="I14" s="34"/>
-      <c r="J14" s="36" t="s">
+      <c r="J14" s="27" t="s">
         <v>81</v>
       </c>
-      <c r="K14" s="36"/>
-    </row>
-    <row r="15" spans="1:29" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="K14" s="27"/>
+    </row>
+    <row r="15" spans="1:29" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A15" s="6" t="s">
         <v>44</v>
       </c>
@@ -1305,12 +1419,12 @@
       </c>
       <c r="H15" s="33"/>
       <c r="I15" s="34"/>
-      <c r="J15" s="36" t="s">
+      <c r="J15" s="27" t="s">
         <v>81</v>
       </c>
-      <c r="K15" s="36"/>
-    </row>
-    <row r="16" spans="1:29" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="K15" s="27"/>
+    </row>
+    <row r="16" spans="1:29" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A16" s="6" t="s">
         <v>46</v>
       </c>
@@ -1334,12 +1448,12 @@
       </c>
       <c r="H16" s="33"/>
       <c r="I16" s="34"/>
-      <c r="J16" s="36" t="s">
+      <c r="J16" s="27" t="s">
         <v>81</v>
       </c>
-      <c r="K16" s="36"/>
-    </row>
-    <row r="17" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="K16" s="27"/>
+    </row>
+    <row r="17" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A17" s="6" t="s">
         <v>50</v>
       </c>
@@ -1363,12 +1477,12 @@
       </c>
       <c r="H17" s="33"/>
       <c r="I17" s="34"/>
-      <c r="J17" s="36" t="s">
+      <c r="J17" s="27" t="s">
         <v>81</v>
       </c>
-      <c r="K17" s="36"/>
-    </row>
-    <row r="18" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="K17" s="27"/>
+    </row>
+    <row r="18" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A18" s="6" t="s">
         <v>52</v>
       </c>
@@ -1392,12 +1506,12 @@
       </c>
       <c r="H18" s="33"/>
       <c r="I18" s="34"/>
-      <c r="J18" s="36" t="s">
+      <c r="J18" s="27" t="s">
         <v>81</v>
       </c>
-      <c r="K18" s="36"/>
-    </row>
-    <row r="19" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="K18" s="27"/>
+    </row>
+    <row r="19" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A19" s="15" t="s">
         <v>55</v>
       </c>
@@ -1421,27 +1535,27 @@
       </c>
       <c r="H19" s="33"/>
       <c r="I19" s="34"/>
-      <c r="J19" s="36" t="s">
+      <c r="J19" s="27" t="s">
         <v>81</v>
       </c>
-      <c r="K19" s="36"/>
-    </row>
-    <row r="20" spans="1:11" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A20" s="30" t="s">
+      <c r="K19" s="27"/>
+    </row>
+    <row r="20" spans="1:11" ht="26" x14ac:dyDescent="0.6">
+      <c r="A20" s="40" t="s">
         <v>84</v>
       </c>
-      <c r="B20" s="31"/>
-      <c r="C20" s="31"/>
-      <c r="D20" s="31"/>
-      <c r="E20" s="31"/>
-      <c r="F20" s="31"/>
-      <c r="G20" s="31"/>
-      <c r="H20" s="31"/>
-      <c r="I20" s="31"/>
-      <c r="J20" s="31"/>
-      <c r="K20" s="32"/>
-    </row>
-    <row r="21" spans="1:11" s="16" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="41"/>
+      <c r="C20" s="41"/>
+      <c r="D20" s="41"/>
+      <c r="E20" s="41"/>
+      <c r="F20" s="41"/>
+      <c r="G20" s="41"/>
+      <c r="H20" s="41"/>
+      <c r="I20" s="41"/>
+      <c r="J20" s="41"/>
+      <c r="K20" s="42"/>
+    </row>
+    <row r="21" spans="1:11" s="16" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A21" s="13" t="s">
         <v>55</v>
       </c>
@@ -1460,19 +1574,19 @@
       <c r="F21" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="G21" s="15" t="s">
+      <c r="G21" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="H21" s="35" t="s">
+      <c r="H21" s="37" t="s">
         <v>72</v>
       </c>
-      <c r="I21" s="29"/>
-      <c r="J21" s="36" t="s">
+      <c r="I21" s="38"/>
+      <c r="J21" s="27" t="s">
         <v>82</v>
       </c>
-      <c r="K21" s="36"/>
-    </row>
-    <row r="22" spans="1:11" s="19" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="K21" s="27"/>
+    </row>
+    <row r="22" spans="1:11" s="19" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A22" s="20" t="s">
         <v>7</v>
       </c>
@@ -1494,14 +1608,14 @@
       <c r="G22" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="H22" s="28"/>
-      <c r="I22" s="29"/>
-      <c r="J22" s="36" t="s">
+      <c r="H22" s="39"/>
+      <c r="I22" s="38"/>
+      <c r="J22" s="27" t="s">
         <v>82</v>
       </c>
-      <c r="K22" s="36"/>
-    </row>
-    <row r="23" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="K22" s="27"/>
+    </row>
+    <row r="23" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A23" s="13" t="s">
         <v>46</v>
       </c>
@@ -1523,16 +1637,16 @@
       <c r="G23" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="H23" s="28" t="s">
+      <c r="H23" s="39" t="s">
         <v>73</v>
       </c>
-      <c r="I23" s="29"/>
-      <c r="J23" s="36" t="s">
+      <c r="I23" s="38"/>
+      <c r="J23" s="27" t="s">
         <v>82</v>
       </c>
-      <c r="K23" s="36"/>
-    </row>
-    <row r="24" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="K23" s="27"/>
+    </row>
+    <row r="24" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A24" s="13" t="s">
         <v>50</v>
       </c>
@@ -1558,12 +1672,12 @@
         <v>74</v>
       </c>
       <c r="I24" s="25"/>
-      <c r="J24" s="36" t="s">
+      <c r="J24" s="27" t="s">
         <v>82</v>
       </c>
-      <c r="K24" s="36"/>
-    </row>
-    <row r="25" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="K24" s="27"/>
+    </row>
+    <row r="25" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A25" s="13" t="s">
         <v>70</v>
       </c>
@@ -1585,16 +1699,16 @@
       <c r="G25" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="H25" s="28" t="s">
+      <c r="H25" s="39" t="s">
         <v>76</v>
       </c>
-      <c r="I25" s="29"/>
-      <c r="J25" s="36" t="s">
+      <c r="I25" s="38"/>
+      <c r="J25" s="27" t="s">
         <v>82</v>
       </c>
-      <c r="K25" s="36"/>
-    </row>
-    <row r="26" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="K25" s="27"/>
+    </row>
+    <row r="26" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A26" s="13" t="s">
         <v>77</v>
       </c>
@@ -1616,36 +1730,36 @@
       <c r="G26" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="H26" s="28"/>
-      <c r="I26" s="29"/>
-      <c r="J26" s="36" t="s">
+      <c r="H26" s="39"/>
+      <c r="I26" s="38"/>
+      <c r="J26" s="27" t="s">
         <v>82</v>
       </c>
-      <c r="K26" s="36"/>
-    </row>
-    <row r="27" spans="1:11" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A27" s="30" t="s">
+      <c r="K26" s="27"/>
+    </row>
+    <row r="27" spans="1:11" ht="26" x14ac:dyDescent="0.6">
+      <c r="A27" s="40" t="s">
         <v>83</v>
       </c>
-      <c r="B27" s="31"/>
-      <c r="C27" s="31"/>
-      <c r="D27" s="31"/>
-      <c r="E27" s="31"/>
-      <c r="F27" s="31"/>
-      <c r="G27" s="31"/>
-      <c r="H27" s="31"/>
-      <c r="I27" s="31"/>
-      <c r="J27" s="31"/>
-      <c r="K27" s="32"/>
-    </row>
-    <row r="28" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A28" s="40" t="s">
+      <c r="B27" s="41"/>
+      <c r="C27" s="41"/>
+      <c r="D27" s="41"/>
+      <c r="E27" s="41"/>
+      <c r="F27" s="41"/>
+      <c r="G27" s="41"/>
+      <c r="H27" s="41"/>
+      <c r="I27" s="41"/>
+      <c r="J27" s="41"/>
+      <c r="K27" s="42"/>
+    </row>
+    <row r="28" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A28" s="13" t="s">
         <v>55</v>
       </c>
       <c r="B28" s="17">
         <v>45762</v>
       </c>
-      <c r="C28" s="41" t="s">
+      <c r="C28" s="18" t="s">
         <v>86</v>
       </c>
       <c r="D28" s="13" t="s">
@@ -1660,14 +1774,14 @@
       <c r="G28" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="H28" s="44"/>
-      <c r="I28" s="42"/>
-      <c r="J28" s="44" t="s">
+      <c r="H28" s="30"/>
+      <c r="I28" s="31"/>
+      <c r="J28" s="30" t="s">
         <v>88</v>
       </c>
-      <c r="K28" s="42"/>
-    </row>
-    <row r="29" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="K28" s="31"/>
+    </row>
+    <row r="29" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A29" s="13" t="s">
         <v>91</v>
       </c>
@@ -1677,7 +1791,7 @@
       <c r="C29" s="18" t="s">
         <v>86</v>
       </c>
-      <c r="D29" s="39" t="s">
+      <c r="D29" s="26" t="s">
         <v>47</v>
       </c>
       <c r="E29" s="13" t="s">
@@ -1689,484 +1803,484 @@
       <c r="G29" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="H29" s="28" t="s">
+      <c r="H29" s="39" t="s">
         <v>90</v>
       </c>
-      <c r="I29" s="29"/>
-      <c r="J29" s="43" t="s">
+      <c r="I29" s="38"/>
+      <c r="J29" s="32" t="s">
         <v>88</v>
       </c>
-      <c r="K29" s="36"/>
-    </row>
-    <row r="30" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="K29" s="27"/>
+    </row>
+    <row r="30" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A30" s="13"/>
       <c r="B30" s="18"/>
       <c r="C30" s="18"/>
-      <c r="D30" s="39"/>
+      <c r="D30" s="26"/>
       <c r="E30" s="13"/>
       <c r="F30" s="13"/>
       <c r="G30" s="15"/>
-      <c r="H30" s="28"/>
-      <c r="I30" s="29"/>
-      <c r="J30" s="36"/>
-      <c r="K30" s="36"/>
-    </row>
-    <row r="31" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H30" s="39"/>
+      <c r="I30" s="38"/>
+      <c r="J30" s="27"/>
+      <c r="K30" s="27"/>
+    </row>
+    <row r="31" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A31" s="13"/>
       <c r="B31" s="18"/>
       <c r="C31" s="18"/>
-      <c r="D31" s="39"/>
+      <c r="D31" s="26"/>
       <c r="E31" s="13"/>
       <c r="F31" s="13"/>
       <c r="G31" s="15"/>
-      <c r="H31" s="28"/>
-      <c r="I31" s="29"/>
-      <c r="J31" s="36"/>
-      <c r="K31" s="36"/>
-    </row>
-    <row r="32" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H31" s="39"/>
+      <c r="I31" s="38"/>
+      <c r="J31" s="27"/>
+      <c r="K31" s="27"/>
+    </row>
+    <row r="32" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A32" s="13"/>
       <c r="B32" s="18"/>
       <c r="C32" s="18"/>
-      <c r="D32" s="39"/>
+      <c r="D32" s="26"/>
       <c r="E32" s="13"/>
       <c r="F32" s="13"/>
       <c r="G32" s="15"/>
-      <c r="H32" s="28"/>
-      <c r="I32" s="29"/>
-      <c r="J32" s="36"/>
-      <c r="K32" s="36"/>
-    </row>
-    <row r="33" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H32" s="39"/>
+      <c r="I32" s="38"/>
+      <c r="J32" s="27"/>
+      <c r="K32" s="27"/>
+    </row>
+    <row r="33" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A33" s="13"/>
       <c r="B33" s="18"/>
       <c r="C33" s="18"/>
-      <c r="D33" s="39"/>
+      <c r="D33" s="26"/>
       <c r="E33" s="13"/>
       <c r="F33" s="13"/>
       <c r="G33" s="15"/>
-      <c r="H33" s="28"/>
-      <c r="I33" s="29"/>
-      <c r="J33" s="36"/>
-      <c r="K33" s="36"/>
-    </row>
-    <row r="34" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H33" s="39"/>
+      <c r="I33" s="38"/>
+      <c r="J33" s="27"/>
+      <c r="K33" s="27"/>
+    </row>
+    <row r="34" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A34" s="13"/>
       <c r="B34" s="18"/>
       <c r="C34" s="18"/>
-      <c r="D34" s="39"/>
+      <c r="D34" s="26"/>
       <c r="E34" s="13"/>
       <c r="F34" s="13"/>
       <c r="G34" s="15"/>
-      <c r="H34" s="28"/>
-      <c r="I34" s="29"/>
-      <c r="J34" s="36"/>
-      <c r="K34" s="36"/>
-    </row>
-    <row r="35" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H34" s="39"/>
+      <c r="I34" s="38"/>
+      <c r="J34" s="27"/>
+      <c r="K34" s="27"/>
+    </row>
+    <row r="35" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A35" s="13"/>
       <c r="B35" s="18"/>
       <c r="C35" s="18"/>
-      <c r="D35" s="39"/>
+      <c r="D35" s="26"/>
       <c r="E35" s="13"/>
       <c r="F35" s="13"/>
       <c r="G35" s="15"/>
-      <c r="H35" s="28"/>
-      <c r="I35" s="29"/>
-      <c r="J35" s="36"/>
-      <c r="K35" s="36"/>
-    </row>
-    <row r="36" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H35" s="39"/>
+      <c r="I35" s="38"/>
+      <c r="J35" s="27"/>
+      <c r="K35" s="27"/>
+    </row>
+    <row r="36" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A36" s="13"/>
       <c r="B36" s="18"/>
       <c r="C36" s="18"/>
-      <c r="D36" s="39"/>
+      <c r="D36" s="26"/>
       <c r="E36" s="13"/>
       <c r="F36" s="13"/>
       <c r="G36" s="15"/>
-      <c r="H36" s="28"/>
-      <c r="I36" s="29"/>
-      <c r="J36" s="36"/>
-      <c r="K36" s="36"/>
-    </row>
-    <row r="37" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H36" s="39"/>
+      <c r="I36" s="38"/>
+      <c r="J36" s="27"/>
+      <c r="K36" s="27"/>
+    </row>
+    <row r="37" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A37" s="13"/>
       <c r="B37" s="18"/>
       <c r="C37" s="18"/>
-      <c r="D37" s="39"/>
+      <c r="D37" s="26"/>
       <c r="E37" s="13"/>
       <c r="F37" s="13"/>
       <c r="G37" s="15"/>
-      <c r="H37" s="28"/>
-      <c r="I37" s="29"/>
-      <c r="J37" s="36"/>
-      <c r="K37" s="36"/>
-    </row>
-    <row r="38" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H37" s="39"/>
+      <c r="I37" s="38"/>
+      <c r="J37" s="27"/>
+      <c r="K37" s="27"/>
+    </row>
+    <row r="38" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A38" s="13"/>
       <c r="B38" s="18"/>
       <c r="C38" s="18"/>
-      <c r="D38" s="39"/>
+      <c r="D38" s="26"/>
       <c r="E38" s="13"/>
       <c r="F38" s="13"/>
       <c r="G38" s="15"/>
-      <c r="H38" s="28"/>
-      <c r="I38" s="29"/>
-      <c r="J38" s="36"/>
-      <c r="K38" s="36"/>
-    </row>
-    <row r="39" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H38" s="39"/>
+      <c r="I38" s="38"/>
+      <c r="J38" s="27"/>
+      <c r="K38" s="27"/>
+    </row>
+    <row r="39" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A39" s="13"/>
       <c r="B39" s="18"/>
       <c r="C39" s="18"/>
-      <c r="D39" s="39"/>
+      <c r="D39" s="26"/>
       <c r="E39" s="13"/>
       <c r="F39" s="13"/>
       <c r="G39" s="15"/>
-      <c r="H39" s="28"/>
-      <c r="I39" s="29"/>
-      <c r="J39" s="36"/>
-      <c r="K39" s="36"/>
-    </row>
-    <row r="40" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H39" s="39"/>
+      <c r="I39" s="38"/>
+      <c r="J39" s="27"/>
+      <c r="K39" s="27"/>
+    </row>
+    <row r="40" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A40" s="13"/>
       <c r="B40" s="18"/>
       <c r="C40" s="18"/>
-      <c r="D40" s="39"/>
+      <c r="D40" s="26"/>
       <c r="E40" s="13"/>
       <c r="F40" s="13"/>
       <c r="G40" s="15"/>
-      <c r="H40" s="28"/>
-      <c r="I40" s="29"/>
-      <c r="J40" s="36"/>
-      <c r="K40" s="36"/>
-    </row>
-    <row r="41" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H40" s="39"/>
+      <c r="I40" s="38"/>
+      <c r="J40" s="27"/>
+      <c r="K40" s="27"/>
+    </row>
+    <row r="41" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A41" s="13"/>
       <c r="B41" s="18"/>
       <c r="C41" s="18"/>
-      <c r="D41" s="39"/>
+      <c r="D41" s="26"/>
       <c r="E41" s="13"/>
       <c r="F41" s="13"/>
       <c r="G41" s="15"/>
-      <c r="H41" s="28"/>
-      <c r="I41" s="29"/>
-      <c r="J41" s="36"/>
-      <c r="K41" s="36"/>
-    </row>
-    <row r="42" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H41" s="39"/>
+      <c r="I41" s="38"/>
+      <c r="J41" s="27"/>
+      <c r="K41" s="27"/>
+    </row>
+    <row r="42" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A42" s="13"/>
       <c r="B42" s="18"/>
       <c r="C42" s="18"/>
-      <c r="D42" s="39"/>
+      <c r="D42" s="26"/>
       <c r="E42" s="13"/>
       <c r="F42" s="13"/>
       <c r="G42" s="15"/>
-      <c r="H42" s="28"/>
-      <c r="I42" s="29"/>
-      <c r="J42" s="36"/>
-      <c r="K42" s="36"/>
-    </row>
-    <row r="43" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H42" s="39"/>
+      <c r="I42" s="38"/>
+      <c r="J42" s="27"/>
+      <c r="K42" s="27"/>
+    </row>
+    <row r="43" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A43" s="13"/>
       <c r="B43" s="18"/>
       <c r="C43" s="18"/>
-      <c r="D43" s="39"/>
+      <c r="D43" s="26"/>
       <c r="E43" s="13"/>
       <c r="F43" s="13"/>
       <c r="G43" s="15"/>
-      <c r="H43" s="28"/>
-      <c r="I43" s="29"/>
-      <c r="J43" s="36"/>
-      <c r="K43" s="36"/>
-    </row>
-    <row r="44" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H43" s="39"/>
+      <c r="I43" s="38"/>
+      <c r="J43" s="27"/>
+      <c r="K43" s="27"/>
+    </row>
+    <row r="44" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A44" s="13"/>
       <c r="B44" s="18"/>
       <c r="C44" s="18"/>
-      <c r="D44" s="39"/>
+      <c r="D44" s="26"/>
       <c r="E44" s="13"/>
       <c r="F44" s="13"/>
       <c r="G44" s="15"/>
-      <c r="H44" s="28"/>
-      <c r="I44" s="29"/>
-      <c r="J44" s="36"/>
-      <c r="K44" s="36"/>
-    </row>
-    <row r="45" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H44" s="39"/>
+      <c r="I44" s="38"/>
+      <c r="J44" s="27"/>
+      <c r="K44" s="27"/>
+    </row>
+    <row r="45" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A45" s="13"/>
       <c r="B45" s="18"/>
       <c r="C45" s="18"/>
-      <c r="D45" s="39"/>
+      <c r="D45" s="26"/>
       <c r="E45" s="13"/>
       <c r="F45" s="13"/>
       <c r="G45" s="15"/>
-      <c r="H45" s="28"/>
-      <c r="I45" s="29"/>
-      <c r="J45" s="36"/>
-      <c r="K45" s="36"/>
-    </row>
-    <row r="46" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H45" s="39"/>
+      <c r="I45" s="38"/>
+      <c r="J45" s="27"/>
+      <c r="K45" s="27"/>
+    </row>
+    <row r="46" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A46" s="13"/>
       <c r="B46" s="18"/>
       <c r="C46" s="18"/>
-      <c r="D46" s="39"/>
+      <c r="D46" s="26"/>
       <c r="E46" s="13"/>
       <c r="F46" s="13"/>
       <c r="G46" s="15"/>
-      <c r="H46" s="28"/>
-      <c r="I46" s="29"/>
-      <c r="J46" s="36"/>
-      <c r="K46" s="36"/>
-    </row>
-    <row r="47" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H46" s="39"/>
+      <c r="I46" s="38"/>
+      <c r="J46" s="27"/>
+      <c r="K46" s="27"/>
+    </row>
+    <row r="47" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A47" s="13"/>
       <c r="B47" s="18"/>
       <c r="C47" s="18"/>
-      <c r="D47" s="39"/>
+      <c r="D47" s="26"/>
       <c r="E47" s="13"/>
       <c r="F47" s="13"/>
       <c r="G47" s="15"/>
-      <c r="H47" s="28"/>
-      <c r="I47" s="29"/>
-      <c r="J47" s="36"/>
-      <c r="K47" s="36"/>
-    </row>
-    <row r="48" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H47" s="39"/>
+      <c r="I47" s="38"/>
+      <c r="J47" s="27"/>
+      <c r="K47" s="27"/>
+    </row>
+    <row r="48" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A48" s="13"/>
       <c r="B48" s="18"/>
       <c r="C48" s="18"/>
-      <c r="D48" s="39"/>
+      <c r="D48" s="26"/>
       <c r="E48" s="13"/>
       <c r="F48" s="13"/>
       <c r="G48" s="15"/>
-      <c r="H48" s="28"/>
-      <c r="I48" s="29"/>
-      <c r="J48" s="36"/>
-      <c r="K48" s="36"/>
-    </row>
-    <row r="49" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H48" s="39"/>
+      <c r="I48" s="38"/>
+      <c r="J48" s="27"/>
+      <c r="K48" s="27"/>
+    </row>
+    <row r="49" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A49" s="13"/>
       <c r="B49" s="18"/>
       <c r="C49" s="18"/>
-      <c r="D49" s="39"/>
+      <c r="D49" s="26"/>
       <c r="E49" s="13"/>
       <c r="F49" s="13"/>
       <c r="G49" s="15"/>
-      <c r="H49" s="28"/>
-      <c r="I49" s="29"/>
-      <c r="J49" s="36"/>
-      <c r="K49" s="36"/>
-    </row>
-    <row r="50" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H49" s="39"/>
+      <c r="I49" s="38"/>
+      <c r="J49" s="27"/>
+      <c r="K49" s="27"/>
+    </row>
+    <row r="50" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A50" s="13"/>
       <c r="B50" s="18"/>
       <c r="C50" s="18"/>
-      <c r="D50" s="39"/>
+      <c r="D50" s="26"/>
       <c r="E50" s="13"/>
       <c r="F50" s="13"/>
       <c r="G50" s="15"/>
-      <c r="H50" s="28"/>
-      <c r="I50" s="29"/>
-      <c r="J50" s="36"/>
-      <c r="K50" s="36"/>
-    </row>
-    <row r="51" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H50" s="39"/>
+      <c r="I50" s="38"/>
+      <c r="J50" s="27"/>
+      <c r="K50" s="27"/>
+    </row>
+    <row r="51" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A51" s="13"/>
       <c r="B51" s="18"/>
       <c r="C51" s="18"/>
-      <c r="D51" s="39"/>
+      <c r="D51" s="26"/>
       <c r="E51" s="13"/>
       <c r="F51" s="13"/>
       <c r="G51" s="15"/>
-      <c r="H51" s="28"/>
-      <c r="I51" s="29"/>
-      <c r="J51" s="36"/>
-      <c r="K51" s="36"/>
-    </row>
-    <row r="52" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H51" s="39"/>
+      <c r="I51" s="38"/>
+      <c r="J51" s="27"/>
+      <c r="K51" s="27"/>
+    </row>
+    <row r="52" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A52" s="13"/>
       <c r="B52" s="18"/>
       <c r="C52" s="18"/>
-      <c r="D52" s="39"/>
+      <c r="D52" s="26"/>
       <c r="E52" s="13"/>
       <c r="F52" s="13"/>
       <c r="G52" s="15"/>
-      <c r="H52" s="28"/>
-      <c r="I52" s="29"/>
-      <c r="J52" s="36"/>
-      <c r="K52" s="36"/>
-    </row>
-    <row r="53" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H52" s="39"/>
+      <c r="I52" s="38"/>
+      <c r="J52" s="27"/>
+      <c r="K52" s="27"/>
+    </row>
+    <row r="53" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A53" s="13"/>
       <c r="B53" s="13"/>
       <c r="C53" s="13"/>
-      <c r="D53" s="39"/>
+      <c r="D53" s="26"/>
       <c r="E53" s="13"/>
       <c r="F53" s="13"/>
       <c r="G53" s="15"/>
-      <c r="H53" s="28"/>
-      <c r="I53" s="29"/>
-      <c r="J53" s="36"/>
-      <c r="K53" s="36"/>
-    </row>
-    <row r="54" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H53" s="39"/>
+      <c r="I53" s="38"/>
+      <c r="J53" s="27"/>
+      <c r="K53" s="27"/>
+    </row>
+    <row r="54" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A54" s="13"/>
       <c r="B54" s="13"/>
       <c r="C54" s="13"/>
-      <c r="D54" s="39"/>
+      <c r="D54" s="26"/>
       <c r="E54" s="13"/>
       <c r="F54" s="13"/>
       <c r="G54" s="15"/>
-      <c r="H54" s="28"/>
-      <c r="I54" s="29"/>
-      <c r="J54" s="36"/>
-      <c r="K54" s="36"/>
-    </row>
-    <row r="55" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H54" s="39"/>
+      <c r="I54" s="38"/>
+      <c r="J54" s="27"/>
+      <c r="K54" s="27"/>
+    </row>
+    <row r="55" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A55" s="13"/>
       <c r="B55" s="13"/>
       <c r="C55" s="13"/>
-      <c r="D55" s="39"/>
+      <c r="D55" s="26"/>
       <c r="E55" s="13"/>
       <c r="F55" s="13"/>
       <c r="G55" s="15"/>
-      <c r="H55" s="28"/>
-      <c r="I55" s="29"/>
-      <c r="J55" s="36"/>
-      <c r="K55" s="36"/>
-    </row>
-    <row r="56" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H55" s="39"/>
+      <c r="I55" s="38"/>
+      <c r="J55" s="27"/>
+      <c r="K55" s="27"/>
+    </row>
+    <row r="56" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A56" s="13"/>
       <c r="B56" s="13"/>
       <c r="C56" s="13"/>
-      <c r="D56" s="39"/>
+      <c r="D56" s="26"/>
       <c r="E56" s="13"/>
       <c r="F56" s="13"/>
       <c r="G56" s="15"/>
-      <c r="H56" s="28"/>
-      <c r="I56" s="29"/>
-      <c r="J56" s="36"/>
-      <c r="K56" s="36"/>
-    </row>
-    <row r="57" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H56" s="39"/>
+      <c r="I56" s="38"/>
+      <c r="J56" s="27"/>
+      <c r="K56" s="27"/>
+    </row>
+    <row r="57" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A57" s="13"/>
       <c r="B57" s="13"/>
       <c r="C57" s="13"/>
-      <c r="D57" s="39"/>
+      <c r="D57" s="26"/>
       <c r="E57" s="13"/>
       <c r="F57" s="13"/>
       <c r="G57" s="15"/>
-      <c r="H57" s="28"/>
-      <c r="I57" s="29"/>
-      <c r="J57" s="36"/>
-      <c r="K57" s="36"/>
-    </row>
-    <row r="58" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H57" s="39"/>
+      <c r="I57" s="38"/>
+      <c r="J57" s="27"/>
+      <c r="K57" s="27"/>
+    </row>
+    <row r="58" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A58" s="13"/>
       <c r="B58" s="13"/>
       <c r="C58" s="13"/>
-      <c r="D58" s="39"/>
+      <c r="D58" s="26"/>
       <c r="E58" s="13"/>
       <c r="F58" s="13"/>
       <c r="G58" s="15"/>
-      <c r="H58" s="28"/>
-      <c r="I58" s="29"/>
-      <c r="J58" s="36"/>
-      <c r="K58" s="36"/>
-    </row>
-    <row r="59" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H58" s="39"/>
+      <c r="I58" s="38"/>
+      <c r="J58" s="27"/>
+      <c r="K58" s="27"/>
+    </row>
+    <row r="59" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A59" s="13"/>
       <c r="B59" s="13"/>
       <c r="C59" s="13"/>
-      <c r="D59" s="39"/>
+      <c r="D59" s="26"/>
       <c r="E59" s="13"/>
       <c r="F59" s="13"/>
       <c r="G59" s="15"/>
-      <c r="H59" s="28"/>
-      <c r="I59" s="29"/>
-      <c r="J59" s="36"/>
-      <c r="K59" s="36"/>
-    </row>
-    <row r="60" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H59" s="39"/>
+      <c r="I59" s="38"/>
+      <c r="J59" s="27"/>
+      <c r="K59" s="27"/>
+    </row>
+    <row r="60" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A60" s="13"/>
       <c r="B60" s="13"/>
       <c r="C60" s="13"/>
-      <c r="D60" s="39"/>
+      <c r="D60" s="26"/>
       <c r="E60" s="13"/>
       <c r="F60" s="13"/>
       <c r="G60" s="15"/>
-      <c r="H60" s="28"/>
-      <c r="I60" s="29"/>
-      <c r="J60" s="36"/>
-      <c r="K60" s="36"/>
-    </row>
-    <row r="61" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H60" s="39"/>
+      <c r="I60" s="38"/>
+      <c r="J60" s="27"/>
+      <c r="K60" s="27"/>
+    </row>
+    <row r="61" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A61" s="13"/>
       <c r="B61" s="13"/>
       <c r="C61" s="13"/>
-      <c r="D61" s="39"/>
+      <c r="D61" s="26"/>
       <c r="E61" s="13"/>
       <c r="F61" s="13"/>
       <c r="G61" s="15"/>
-      <c r="H61" s="28"/>
-      <c r="I61" s="29"/>
-      <c r="J61" s="36"/>
-      <c r="K61" s="36"/>
-    </row>
-    <row r="62" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H61" s="39"/>
+      <c r="I61" s="38"/>
+      <c r="J61" s="27"/>
+      <c r="K61" s="27"/>
+    </row>
+    <row r="62" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A62" s="13"/>
       <c r="B62" s="13"/>
       <c r="C62" s="13"/>
-      <c r="D62" s="39"/>
+      <c r="D62" s="26"/>
       <c r="E62" s="13"/>
       <c r="F62" s="13"/>
       <c r="G62" s="15"/>
-      <c r="H62" s="28"/>
-      <c r="I62" s="29"/>
-      <c r="J62" s="36"/>
-      <c r="K62" s="36"/>
-    </row>
-    <row r="63" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H62" s="39"/>
+      <c r="I62" s="38"/>
+      <c r="J62" s="27"/>
+      <c r="K62" s="27"/>
+    </row>
+    <row r="63" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A63" s="13"/>
       <c r="B63" s="13"/>
       <c r="C63" s="13"/>
-      <c r="D63" s="39"/>
+      <c r="D63" s="26"/>
       <c r="E63" s="13"/>
       <c r="F63" s="13"/>
       <c r="G63" s="15"/>
-      <c r="H63" s="28"/>
-      <c r="I63" s="29"/>
-      <c r="J63" s="36"/>
-      <c r="K63" s="36"/>
-    </row>
-    <row r="64" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H63" s="39"/>
+      <c r="I63" s="38"/>
+      <c r="J63" s="27"/>
+      <c r="K63" s="27"/>
+    </row>
+    <row r="64" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A64" s="13"/>
       <c r="B64" s="13"/>
       <c r="C64" s="13"/>
-      <c r="D64" s="39"/>
+      <c r="D64" s="26"/>
       <c r="E64" s="13"/>
       <c r="F64" s="13"/>
       <c r="G64" s="15"/>
-      <c r="H64" s="28"/>
-      <c r="I64" s="29"/>
-      <c r="J64" s="36"/>
-      <c r="K64" s="36"/>
-    </row>
-    <row r="65" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H64" s="39"/>
+      <c r="I64" s="38"/>
+      <c r="J64" s="27"/>
+      <c r="K64" s="27"/>
+    </row>
+    <row r="65" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A65" s="13"/>
       <c r="B65" s="13"/>
       <c r="C65" s="13"/>
-      <c r="D65" s="39"/>
+      <c r="D65" s="26"/>
       <c r="E65" s="13"/>
       <c r="F65" s="13"/>
       <c r="G65" s="15"/>
-      <c r="H65" s="28"/>
-      <c r="I65" s="29"/>
-      <c r="J65" s="36"/>
-      <c r="K65" s="36"/>
-    </row>
-    <row r="66" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H65" s="39"/>
+      <c r="I65" s="38"/>
+      <c r="J65" s="27"/>
+      <c r="K65" s="27"/>
+    </row>
+    <row r="66" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A66" s="13"/>
       <c r="B66" s="13"/>
       <c r="C66" s="13"/>
@@ -2174,12 +2288,12 @@
       <c r="E66" s="13"/>
       <c r="F66" s="13"/>
       <c r="G66" s="15"/>
-      <c r="H66" s="28"/>
-      <c r="I66" s="29"/>
-      <c r="J66" s="36"/>
-      <c r="K66" s="36"/>
-    </row>
-    <row r="67" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H66" s="39"/>
+      <c r="I66" s="38"/>
+      <c r="J66" s="27"/>
+      <c r="K66" s="27"/>
+    </row>
+    <row r="67" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A67" s="13"/>
       <c r="B67" s="13"/>
       <c r="C67" s="13"/>
@@ -2187,12 +2301,12 @@
       <c r="E67" s="13"/>
       <c r="F67" s="13"/>
       <c r="G67" s="15"/>
-      <c r="H67" s="28"/>
-      <c r="I67" s="29"/>
-      <c r="J67" s="36"/>
-      <c r="K67" s="36"/>
-    </row>
-    <row r="68" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H67" s="39"/>
+      <c r="I67" s="38"/>
+      <c r="J67" s="27"/>
+      <c r="K67" s="27"/>
+    </row>
+    <row r="68" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A68" s="13"/>
       <c r="B68" s="13"/>
       <c r="C68" s="13"/>
@@ -2200,12 +2314,12 @@
       <c r="E68" s="13"/>
       <c r="F68" s="13"/>
       <c r="G68" s="15"/>
-      <c r="H68" s="28"/>
-      <c r="I68" s="29"/>
-      <c r="J68" s="36"/>
-      <c r="K68" s="36"/>
-    </row>
-    <row r="69" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H68" s="39"/>
+      <c r="I68" s="38"/>
+      <c r="J68" s="27"/>
+      <c r="K68" s="27"/>
+    </row>
+    <row r="69" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A69" s="13"/>
       <c r="B69" s="13"/>
       <c r="C69" s="13"/>
@@ -2213,12 +2327,12 @@
       <c r="E69" s="13"/>
       <c r="F69" s="13"/>
       <c r="G69" s="15"/>
-      <c r="H69" s="28"/>
-      <c r="I69" s="29"/>
-      <c r="J69" s="36"/>
-      <c r="K69" s="36"/>
-    </row>
-    <row r="70" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H69" s="39"/>
+      <c r="I69" s="38"/>
+      <c r="J69" s="27"/>
+      <c r="K69" s="27"/>
+    </row>
+    <row r="70" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A70" s="13"/>
       <c r="B70" s="13"/>
       <c r="C70" s="13"/>
@@ -2226,12 +2340,12 @@
       <c r="E70" s="13"/>
       <c r="F70" s="13"/>
       <c r="G70" s="15"/>
-      <c r="H70" s="28"/>
-      <c r="I70" s="29"/>
-      <c r="J70" s="36"/>
-      <c r="K70" s="36"/>
-    </row>
-    <row r="71" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H70" s="39"/>
+      <c r="I70" s="38"/>
+      <c r="J70" s="27"/>
+      <c r="K70" s="27"/>
+    </row>
+    <row r="71" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A71" s="13"/>
       <c r="B71" s="13"/>
       <c r="C71" s="13"/>
@@ -2239,12 +2353,12 @@
       <c r="E71" s="13"/>
       <c r="F71" s="13"/>
       <c r="G71" s="15"/>
-      <c r="H71" s="28"/>
-      <c r="I71" s="29"/>
-      <c r="J71" s="36"/>
-      <c r="K71" s="36"/>
-    </row>
-    <row r="72" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H71" s="39"/>
+      <c r="I71" s="38"/>
+      <c r="J71" s="27"/>
+      <c r="K71" s="27"/>
+    </row>
+    <row r="72" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A72" s="13"/>
       <c r="B72" s="13"/>
       <c r="C72" s="13"/>
@@ -2252,12 +2366,12 @@
       <c r="E72" s="13"/>
       <c r="F72" s="13"/>
       <c r="G72" s="15"/>
-      <c r="H72" s="28"/>
-      <c r="I72" s="29"/>
-      <c r="J72" s="36"/>
-      <c r="K72" s="36"/>
-    </row>
-    <row r="73" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H72" s="39"/>
+      <c r="I72" s="38"/>
+      <c r="J72" s="27"/>
+      <c r="K72" s="27"/>
+    </row>
+    <row r="73" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A73" s="13"/>
       <c r="B73" s="13"/>
       <c r="C73" s="13"/>
@@ -2265,12 +2379,12 @@
       <c r="E73" s="13"/>
       <c r="F73" s="13"/>
       <c r="G73" s="15"/>
-      <c r="H73" s="28"/>
-      <c r="I73" s="29"/>
-      <c r="J73" s="36"/>
-      <c r="K73" s="36"/>
-    </row>
-    <row r="74" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H73" s="39"/>
+      <c r="I73" s="38"/>
+      <c r="J73" s="27"/>
+      <c r="K73" s="27"/>
+    </row>
+    <row r="74" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A74" s="13"/>
       <c r="B74" s="13"/>
       <c r="C74" s="13"/>
@@ -2278,12 +2392,12 @@
       <c r="E74" s="13"/>
       <c r="F74" s="13"/>
       <c r="G74" s="15"/>
-      <c r="H74" s="28"/>
-      <c r="I74" s="29"/>
-      <c r="J74" s="36"/>
-      <c r="K74" s="36"/>
-    </row>
-    <row r="75" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H74" s="39"/>
+      <c r="I74" s="38"/>
+      <c r="J74" s="27"/>
+      <c r="K74" s="27"/>
+    </row>
+    <row r="75" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A75" s="13"/>
       <c r="B75" s="13"/>
       <c r="C75" s="13"/>
@@ -2291,12 +2405,12 @@
       <c r="E75" s="13"/>
       <c r="F75" s="13"/>
       <c r="G75" s="15"/>
-      <c r="H75" s="28"/>
-      <c r="I75" s="29"/>
-      <c r="J75" s="36"/>
-      <c r="K75" s="36"/>
-    </row>
-    <row r="76" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H75" s="39"/>
+      <c r="I75" s="38"/>
+      <c r="J75" s="27"/>
+      <c r="K75" s="27"/>
+    </row>
+    <row r="76" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A76" s="13"/>
       <c r="B76" s="13"/>
       <c r="C76" s="13"/>
@@ -2304,12 +2418,12 @@
       <c r="E76" s="13"/>
       <c r="F76" s="13"/>
       <c r="G76" s="15"/>
-      <c r="H76" s="28"/>
-      <c r="I76" s="29"/>
-      <c r="J76" s="36"/>
-      <c r="K76" s="36"/>
-    </row>
-    <row r="77" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H76" s="39"/>
+      <c r="I76" s="38"/>
+      <c r="J76" s="27"/>
+      <c r="K76" s="27"/>
+    </row>
+    <row r="77" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A77" s="13"/>
       <c r="B77" s="13"/>
       <c r="C77" s="13"/>
@@ -2317,12 +2431,12 @@
       <c r="E77" s="13"/>
       <c r="F77" s="13"/>
       <c r="G77" s="15"/>
-      <c r="H77" s="28"/>
-      <c r="I77" s="29"/>
-      <c r="J77" s="36"/>
-      <c r="K77" s="36"/>
-    </row>
-    <row r="78" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H77" s="39"/>
+      <c r="I77" s="38"/>
+      <c r="J77" s="27"/>
+      <c r="K77" s="27"/>
+    </row>
+    <row r="78" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A78" s="13"/>
       <c r="B78" s="13"/>
       <c r="C78" s="13"/>
@@ -2330,12 +2444,12 @@
       <c r="E78" s="13"/>
       <c r="F78" s="13"/>
       <c r="G78" s="15"/>
-      <c r="H78" s="28"/>
-      <c r="I78" s="29"/>
-      <c r="J78" s="36"/>
-      <c r="K78" s="36"/>
-    </row>
-    <row r="79" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H78" s="39"/>
+      <c r="I78" s="38"/>
+      <c r="J78" s="27"/>
+      <c r="K78" s="27"/>
+    </row>
+    <row r="79" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A79" s="13"/>
       <c r="B79" s="13"/>
       <c r="C79" s="13"/>
@@ -2343,12 +2457,12 @@
       <c r="E79" s="13"/>
       <c r="F79" s="13"/>
       <c r="G79" s="15"/>
-      <c r="H79" s="28"/>
-      <c r="I79" s="29"/>
-      <c r="J79" s="36"/>
-      <c r="K79" s="36"/>
-    </row>
-    <row r="80" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H79" s="39"/>
+      <c r="I79" s="38"/>
+      <c r="J79" s="27"/>
+      <c r="K79" s="27"/>
+    </row>
+    <row r="80" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A80" s="13"/>
       <c r="B80" s="13"/>
       <c r="C80" s="13"/>
@@ -2356,12 +2470,12 @@
       <c r="E80" s="13"/>
       <c r="F80" s="13"/>
       <c r="G80" s="15"/>
-      <c r="H80" s="28"/>
-      <c r="I80" s="29"/>
-      <c r="J80" s="36"/>
-      <c r="K80" s="36"/>
-    </row>
-    <row r="81" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H80" s="39"/>
+      <c r="I80" s="38"/>
+      <c r="J80" s="27"/>
+      <c r="K80" s="27"/>
+    </row>
+    <row r="81" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A81" s="13"/>
       <c r="B81" s="13"/>
       <c r="C81" s="13"/>
@@ -2369,12 +2483,12 @@
       <c r="E81" s="13"/>
       <c r="F81" s="13"/>
       <c r="G81" s="15"/>
-      <c r="H81" s="28"/>
-      <c r="I81" s="29"/>
-      <c r="J81" s="36"/>
-      <c r="K81" s="36"/>
-    </row>
-    <row r="82" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H81" s="39"/>
+      <c r="I81" s="38"/>
+      <c r="J81" s="27"/>
+      <c r="K81" s="27"/>
+    </row>
+    <row r="82" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A82" s="13"/>
       <c r="B82" s="13"/>
       <c r="C82" s="13"/>
@@ -2382,12 +2496,12 @@
       <c r="E82" s="13"/>
       <c r="F82" s="13"/>
       <c r="G82" s="15"/>
-      <c r="H82" s="28"/>
-      <c r="I82" s="29"/>
-      <c r="J82" s="36"/>
-      <c r="K82" s="36"/>
-    </row>
-    <row r="83" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H82" s="39"/>
+      <c r="I82" s="38"/>
+      <c r="J82" s="27"/>
+      <c r="K82" s="27"/>
+    </row>
+    <row r="83" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A83" s="13"/>
       <c r="B83" s="13"/>
       <c r="C83" s="13"/>
@@ -2395,12 +2509,12 @@
       <c r="E83" s="13"/>
       <c r="F83" s="13"/>
       <c r="G83" s="15"/>
-      <c r="H83" s="28"/>
-      <c r="I83" s="29"/>
-      <c r="J83" s="36"/>
-      <c r="K83" s="36"/>
-    </row>
-    <row r="84" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H83" s="39"/>
+      <c r="I83" s="38"/>
+      <c r="J83" s="27"/>
+      <c r="K83" s="27"/>
+    </row>
+    <row r="84" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A84" s="13"/>
       <c r="B84" s="13"/>
       <c r="C84" s="13"/>
@@ -2408,12 +2522,12 @@
       <c r="E84" s="13"/>
       <c r="F84" s="13"/>
       <c r="G84" s="15"/>
-      <c r="H84" s="28"/>
-      <c r="I84" s="29"/>
-      <c r="J84" s="36"/>
-      <c r="K84" s="36"/>
-    </row>
-    <row r="85" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H84" s="39"/>
+      <c r="I84" s="38"/>
+      <c r="J84" s="27"/>
+      <c r="K84" s="27"/>
+    </row>
+    <row r="85" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A85" s="13"/>
       <c r="B85" s="13"/>
       <c r="C85" s="13"/>
@@ -2421,12 +2535,12 @@
       <c r="E85" s="13"/>
       <c r="F85" s="13"/>
       <c r="G85" s="15"/>
-      <c r="H85" s="28"/>
-      <c r="I85" s="29"/>
-      <c r="J85" s="36"/>
-      <c r="K85" s="36"/>
-    </row>
-    <row r="86" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H85" s="39"/>
+      <c r="I85" s="38"/>
+      <c r="J85" s="27"/>
+      <c r="K85" s="27"/>
+    </row>
+    <row r="86" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A86" s="13"/>
       <c r="B86" s="13"/>
       <c r="C86" s="13"/>
@@ -2434,12 +2548,12 @@
       <c r="E86" s="13"/>
       <c r="F86" s="13"/>
       <c r="G86" s="15"/>
-      <c r="H86" s="28"/>
-      <c r="I86" s="29"/>
-      <c r="J86" s="36"/>
-      <c r="K86" s="36"/>
-    </row>
-    <row r="87" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H86" s="39"/>
+      <c r="I86" s="38"/>
+      <c r="J86" s="27"/>
+      <c r="K86" s="27"/>
+    </row>
+    <row r="87" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A87" s="13"/>
       <c r="B87" s="13"/>
       <c r="C87" s="13"/>
@@ -2447,12 +2561,12 @@
       <c r="E87" s="13"/>
       <c r="F87" s="13"/>
       <c r="G87" s="15"/>
-      <c r="H87" s="28"/>
-      <c r="I87" s="29"/>
-      <c r="J87" s="36"/>
-      <c r="K87" s="36"/>
-    </row>
-    <row r="88" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H87" s="39"/>
+      <c r="I87" s="38"/>
+      <c r="J87" s="27"/>
+      <c r="K87" s="27"/>
+    </row>
+    <row r="88" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A88" s="13"/>
       <c r="B88" s="13"/>
       <c r="C88" s="13"/>
@@ -2460,12 +2574,12 @@
       <c r="E88" s="13"/>
       <c r="F88" s="13"/>
       <c r="G88" s="15"/>
-      <c r="H88" s="28"/>
-      <c r="I88" s="29"/>
-      <c r="J88" s="36"/>
-      <c r="K88" s="36"/>
-    </row>
-    <row r="89" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H88" s="39"/>
+      <c r="I88" s="38"/>
+      <c r="J88" s="27"/>
+      <c r="K88" s="27"/>
+    </row>
+    <row r="89" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A89" s="13"/>
       <c r="B89" s="13"/>
       <c r="C89" s="13"/>
@@ -2473,12 +2587,12 @@
       <c r="E89" s="13"/>
       <c r="F89" s="13"/>
       <c r="G89" s="15"/>
-      <c r="H89" s="28"/>
-      <c r="I89" s="29"/>
-      <c r="J89" s="36"/>
-      <c r="K89" s="36"/>
-    </row>
-    <row r="90" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H89" s="39"/>
+      <c r="I89" s="38"/>
+      <c r="J89" s="27"/>
+      <c r="K89" s="27"/>
+    </row>
+    <row r="90" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A90" s="13"/>
       <c r="B90" s="13"/>
       <c r="C90" s="13"/>
@@ -2486,12 +2600,12 @@
       <c r="E90" s="13"/>
       <c r="F90" s="13"/>
       <c r="G90" s="15"/>
-      <c r="H90" s="28"/>
-      <c r="I90" s="29"/>
-      <c r="J90" s="36"/>
-      <c r="K90" s="36"/>
-    </row>
-    <row r="91" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H90" s="39"/>
+      <c r="I90" s="38"/>
+      <c r="J90" s="27"/>
+      <c r="K90" s="27"/>
+    </row>
+    <row r="91" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A91" s="13"/>
       <c r="B91" s="13"/>
       <c r="C91" s="13"/>
@@ -2499,12 +2613,12 @@
       <c r="E91" s="13"/>
       <c r="F91" s="13"/>
       <c r="G91" s="15"/>
-      <c r="H91" s="28"/>
-      <c r="I91" s="29"/>
-      <c r="J91" s="36"/>
-      <c r="K91" s="36"/>
-    </row>
-    <row r="92" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H91" s="39"/>
+      <c r="I91" s="38"/>
+      <c r="J91" s="27"/>
+      <c r="K91" s="27"/>
+    </row>
+    <row r="92" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A92" s="13"/>
       <c r="B92" s="13"/>
       <c r="C92" s="13"/>
@@ -2512,12 +2626,12 @@
       <c r="E92" s="13"/>
       <c r="F92" s="13"/>
       <c r="G92" s="15"/>
-      <c r="H92" s="28"/>
-      <c r="I92" s="29"/>
-      <c r="J92" s="36"/>
-      <c r="K92" s="36"/>
-    </row>
-    <row r="93" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H92" s="39"/>
+      <c r="I92" s="38"/>
+      <c r="J92" s="27"/>
+      <c r="K92" s="27"/>
+    </row>
+    <row r="93" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A93" s="13"/>
       <c r="B93" s="13"/>
       <c r="C93" s="13"/>
@@ -2525,12 +2639,12 @@
       <c r="E93" s="13"/>
       <c r="F93" s="13"/>
       <c r="G93" s="15"/>
-      <c r="H93" s="28"/>
-      <c r="I93" s="29"/>
-      <c r="J93" s="36"/>
-      <c r="K93" s="36"/>
-    </row>
-    <row r="94" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H93" s="39"/>
+      <c r="I93" s="38"/>
+      <c r="J93" s="27"/>
+      <c r="K93" s="27"/>
+    </row>
+    <row r="94" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A94" s="13"/>
       <c r="B94" s="13"/>
       <c r="C94" s="13"/>
@@ -2538,12 +2652,12 @@
       <c r="E94" s="13"/>
       <c r="F94" s="13"/>
       <c r="G94" s="15"/>
-      <c r="H94" s="28"/>
-      <c r="I94" s="29"/>
-      <c r="J94" s="36"/>
-      <c r="K94" s="36"/>
-    </row>
-    <row r="95" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H94" s="39"/>
+      <c r="I94" s="38"/>
+      <c r="J94" s="27"/>
+      <c r="K94" s="27"/>
+    </row>
+    <row r="95" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A95" s="13"/>
       <c r="B95" s="13"/>
       <c r="C95" s="13"/>
@@ -2551,12 +2665,12 @@
       <c r="E95" s="13"/>
       <c r="F95" s="13"/>
       <c r="G95" s="15"/>
-      <c r="H95" s="28"/>
-      <c r="I95" s="29"/>
-      <c r="J95" s="36"/>
-      <c r="K95" s="36"/>
-    </row>
-    <row r="96" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H95" s="39"/>
+      <c r="I95" s="38"/>
+      <c r="J95" s="27"/>
+      <c r="K95" s="27"/>
+    </row>
+    <row r="96" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A96" s="13"/>
       <c r="B96" s="13"/>
       <c r="C96" s="13"/>
@@ -2564,12 +2678,12 @@
       <c r="E96" s="13"/>
       <c r="F96" s="13"/>
       <c r="G96" s="15"/>
-      <c r="H96" s="28"/>
-      <c r="I96" s="29"/>
-      <c r="J96" s="36"/>
-      <c r="K96" s="36"/>
-    </row>
-    <row r="97" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H96" s="39"/>
+      <c r="I96" s="38"/>
+      <c r="J96" s="27"/>
+      <c r="K96" s="27"/>
+    </row>
+    <row r="97" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A97" s="13"/>
       <c r="B97" s="13"/>
       <c r="C97" s="13"/>
@@ -2577,12 +2691,12 @@
       <c r="E97" s="13"/>
       <c r="F97" s="13"/>
       <c r="G97" s="15"/>
-      <c r="H97" s="28"/>
-      <c r="I97" s="29"/>
-      <c r="J97" s="36"/>
-      <c r="K97" s="36"/>
-    </row>
-    <row r="98" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H97" s="39"/>
+      <c r="I97" s="38"/>
+      <c r="J97" s="27"/>
+      <c r="K97" s="27"/>
+    </row>
+    <row r="98" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A98" s="13"/>
       <c r="B98" s="13"/>
       <c r="C98" s="13"/>
@@ -2590,12 +2704,12 @@
       <c r="E98" s="13"/>
       <c r="F98" s="13"/>
       <c r="G98" s="15"/>
-      <c r="H98" s="28"/>
-      <c r="I98" s="29"/>
-      <c r="J98" s="36"/>
-      <c r="K98" s="36"/>
-    </row>
-    <row r="99" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H98" s="39"/>
+      <c r="I98" s="38"/>
+      <c r="J98" s="27"/>
+      <c r="K98" s="27"/>
+    </row>
+    <row r="99" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A99" s="13"/>
       <c r="B99" s="13"/>
       <c r="C99" s="13"/>
@@ -2603,25 +2717,27 @@
       <c r="E99" s="13"/>
       <c r="F99" s="13"/>
       <c r="G99" s="15"/>
-      <c r="H99" s="28"/>
-      <c r="I99" s="29"/>
-      <c r="J99" s="36"/>
-      <c r="K99" s="36"/>
-    </row>
-    <row r="100" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A100" s="13"/>
-      <c r="B100" s="13"/>
-      <c r="C100" s="13"/>
-      <c r="D100" s="13"/>
-      <c r="E100" s="13"/>
-      <c r="F100" s="13"/>
-      <c r="G100" s="15"/>
-      <c r="H100" s="28"/>
-      <c r="I100" s="29"/>
-      <c r="J100" s="36"/>
-      <c r="K100" s="36"/>
-    </row>
-    <row r="101" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H99" s="39"/>
+      <c r="I99" s="38"/>
+      <c r="J99" s="32"/>
+      <c r="K99" s="27"/>
+    </row>
+    <row r="100" spans="1:11" ht="26" x14ac:dyDescent="0.6">
+      <c r="A100" s="43" t="s">
+        <v>95</v>
+      </c>
+      <c r="B100" s="41"/>
+      <c r="C100" s="41"/>
+      <c r="D100" s="41"/>
+      <c r="E100" s="41"/>
+      <c r="F100" s="41"/>
+      <c r="G100" s="41"/>
+      <c r="H100" s="41"/>
+      <c r="I100" s="41"/>
+      <c r="J100" s="41"/>
+      <c r="K100" s="42"/>
+    </row>
+    <row r="101" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A101" s="13"/>
       <c r="B101" s="13"/>
       <c r="C101" s="13"/>
@@ -2629,12 +2745,14 @@
       <c r="E101" s="13"/>
       <c r="F101" s="13"/>
       <c r="G101" s="15"/>
-      <c r="H101" s="28"/>
-      <c r="I101" s="29"/>
-      <c r="J101" s="36"/>
-      <c r="K101" s="36"/>
-    </row>
-    <row r="102" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H101" s="39"/>
+      <c r="I101" s="38"/>
+      <c r="J101" s="32" t="s">
+        <v>94</v>
+      </c>
+      <c r="K101" s="27"/>
+    </row>
+    <row r="102" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A102" s="13"/>
       <c r="B102" s="13"/>
       <c r="C102" s="13"/>
@@ -2642,12 +2760,12 @@
       <c r="E102" s="13"/>
       <c r="F102" s="13"/>
       <c r="G102" s="15"/>
-      <c r="H102" s="28"/>
-      <c r="I102" s="29"/>
-      <c r="J102" s="36"/>
-      <c r="K102" s="36"/>
-    </row>
-    <row r="103" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H102" s="39"/>
+      <c r="I102" s="38"/>
+      <c r="J102" s="27"/>
+      <c r="K102" s="27"/>
+    </row>
+    <row r="103" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A103" s="13"/>
       <c r="B103" s="13"/>
       <c r="C103" s="13"/>
@@ -2655,12 +2773,12 @@
       <c r="E103" s="13"/>
       <c r="F103" s="13"/>
       <c r="G103" s="15"/>
-      <c r="H103" s="28"/>
-      <c r="I103" s="29"/>
-      <c r="J103" s="36"/>
-      <c r="K103" s="36"/>
-    </row>
-    <row r="104" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H103" s="39"/>
+      <c r="I103" s="38"/>
+      <c r="J103" s="27"/>
+      <c r="K103" s="27"/>
+    </row>
+    <row r="104" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A104" s="13"/>
       <c r="B104" s="13"/>
       <c r="C104" s="13"/>
@@ -2668,12 +2786,12 @@
       <c r="E104" s="13"/>
       <c r="F104" s="13"/>
       <c r="G104" s="15"/>
-      <c r="H104" s="28"/>
-      <c r="I104" s="29"/>
-      <c r="J104" s="36"/>
-      <c r="K104" s="36"/>
-    </row>
-    <row r="105" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H104" s="39"/>
+      <c r="I104" s="38"/>
+      <c r="J104" s="27"/>
+      <c r="K104" s="27"/>
+    </row>
+    <row r="105" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A105" s="13"/>
       <c r="B105" s="13"/>
       <c r="C105" s="13"/>
@@ -2681,12 +2799,12 @@
       <c r="E105" s="13"/>
       <c r="F105" s="13"/>
       <c r="G105" s="15"/>
-      <c r="H105" s="28"/>
-      <c r="I105" s="29"/>
-      <c r="J105" s="36"/>
-      <c r="K105" s="36"/>
-    </row>
-    <row r="106" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H105" s="39"/>
+      <c r="I105" s="38"/>
+      <c r="J105" s="27"/>
+      <c r="K105" s="27"/>
+    </row>
+    <row r="106" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A106" s="13"/>
       <c r="B106" s="13"/>
       <c r="C106" s="13"/>
@@ -2694,12 +2812,12 @@
       <c r="E106" s="13"/>
       <c r="F106" s="13"/>
       <c r="G106" s="15"/>
-      <c r="H106" s="28"/>
-      <c r="I106" s="29"/>
-      <c r="J106" s="36"/>
-      <c r="K106" s="36"/>
-    </row>
-    <row r="107" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H106" s="39"/>
+      <c r="I106" s="38"/>
+      <c r="J106" s="27"/>
+      <c r="K106" s="27"/>
+    </row>
+    <row r="107" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A107" s="13"/>
       <c r="B107" s="13"/>
       <c r="C107" s="13"/>
@@ -2707,12 +2825,12 @@
       <c r="E107" s="13"/>
       <c r="F107" s="13"/>
       <c r="G107" s="15"/>
-      <c r="H107" s="28"/>
-      <c r="I107" s="29"/>
-      <c r="J107" s="36"/>
-      <c r="K107" s="36"/>
-    </row>
-    <row r="108" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H107" s="39"/>
+      <c r="I107" s="38"/>
+      <c r="J107" s="27"/>
+      <c r="K107" s="27"/>
+    </row>
+    <row r="108" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A108" s="13"/>
       <c r="B108" s="13"/>
       <c r="C108" s="13"/>
@@ -2720,12 +2838,12 @@
       <c r="E108" s="13"/>
       <c r="F108" s="13"/>
       <c r="G108" s="15"/>
-      <c r="H108" s="28"/>
-      <c r="I108" s="29"/>
-      <c r="J108" s="36"/>
-      <c r="K108" s="36"/>
-    </row>
-    <row r="109" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H108" s="39"/>
+      <c r="I108" s="38"/>
+      <c r="J108" s="27"/>
+      <c r="K108" s="27"/>
+    </row>
+    <row r="109" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A109" s="13"/>
       <c r="B109" s="13"/>
       <c r="C109" s="13"/>
@@ -2733,12 +2851,12 @@
       <c r="E109" s="13"/>
       <c r="F109" s="13"/>
       <c r="G109" s="15"/>
-      <c r="H109" s="28"/>
-      <c r="I109" s="29"/>
-      <c r="J109" s="36"/>
-      <c r="K109" s="36"/>
-    </row>
-    <row r="110" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H109" s="39"/>
+      <c r="I109" s="38"/>
+      <c r="J109" s="27"/>
+      <c r="K109" s="27"/>
+    </row>
+    <row r="110" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A110" s="13"/>
       <c r="B110" s="13"/>
       <c r="C110" s="13"/>
@@ -2746,12 +2864,12 @@
       <c r="E110" s="13"/>
       <c r="F110" s="13"/>
       <c r="G110" s="15"/>
-      <c r="H110" s="28"/>
-      <c r="I110" s="29"/>
-      <c r="J110" s="36"/>
-      <c r="K110" s="36"/>
-    </row>
-    <row r="111" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H110" s="39"/>
+      <c r="I110" s="38"/>
+      <c r="J110" s="27"/>
+      <c r="K110" s="27"/>
+    </row>
+    <row r="111" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A111" s="13"/>
       <c r="B111" s="13"/>
       <c r="C111" s="13"/>
@@ -2759,12 +2877,12 @@
       <c r="E111" s="13"/>
       <c r="F111" s="13"/>
       <c r="G111" s="15"/>
-      <c r="H111" s="28"/>
-      <c r="I111" s="29"/>
-      <c r="J111" s="36"/>
-      <c r="K111" s="36"/>
-    </row>
-    <row r="112" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H111" s="39"/>
+      <c r="I111" s="38"/>
+      <c r="J111" s="27"/>
+      <c r="K111" s="27"/>
+    </row>
+    <row r="112" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A112" s="13"/>
       <c r="B112" s="13"/>
       <c r="C112" s="13"/>
@@ -2772,12 +2890,12 @@
       <c r="E112" s="13"/>
       <c r="F112" s="13"/>
       <c r="G112" s="15"/>
-      <c r="H112" s="28"/>
-      <c r="I112" s="29"/>
-      <c r="J112" s="36"/>
-      <c r="K112" s="36"/>
-    </row>
-    <row r="113" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H112" s="39"/>
+      <c r="I112" s="38"/>
+      <c r="J112" s="27"/>
+      <c r="K112" s="27"/>
+    </row>
+    <row r="113" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A113" s="13"/>
       <c r="B113" s="13"/>
       <c r="C113" s="13"/>
@@ -2785,12 +2903,12 @@
       <c r="E113" s="13"/>
       <c r="F113" s="13"/>
       <c r="G113" s="15"/>
-      <c r="H113" s="28"/>
-      <c r="I113" s="29"/>
-      <c r="J113" s="36"/>
-      <c r="K113" s="36"/>
-    </row>
-    <row r="114" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H113" s="39"/>
+      <c r="I113" s="38"/>
+      <c r="J113" s="27"/>
+      <c r="K113" s="27"/>
+    </row>
+    <row r="114" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A114" s="13"/>
       <c r="B114" s="13"/>
       <c r="C114" s="13"/>
@@ -2798,12 +2916,12 @@
       <c r="E114" s="13"/>
       <c r="F114" s="13"/>
       <c r="G114" s="15"/>
-      <c r="H114" s="28"/>
-      <c r="I114" s="29"/>
-      <c r="J114" s="36"/>
-      <c r="K114" s="36"/>
-    </row>
-    <row r="115" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H114" s="39"/>
+      <c r="I114" s="38"/>
+      <c r="J114" s="27"/>
+      <c r="K114" s="27"/>
+    </row>
+    <row r="115" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A115" s="13"/>
       <c r="B115" s="13"/>
       <c r="C115" s="13"/>
@@ -2811,12 +2929,12 @@
       <c r="E115" s="13"/>
       <c r="F115" s="13"/>
       <c r="G115" s="15"/>
-      <c r="H115" s="28"/>
-      <c r="I115" s="29"/>
-      <c r="J115" s="36"/>
-      <c r="K115" s="36"/>
-    </row>
-    <row r="116" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H115" s="39"/>
+      <c r="I115" s="38"/>
+      <c r="J115" s="27"/>
+      <c r="K115" s="27"/>
+    </row>
+    <row r="116" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A116" s="13"/>
       <c r="B116" s="13"/>
       <c r="C116" s="13"/>
@@ -2824,12 +2942,12 @@
       <c r="E116" s="13"/>
       <c r="F116" s="13"/>
       <c r="G116" s="15"/>
-      <c r="H116" s="28"/>
-      <c r="I116" s="29"/>
-      <c r="J116" s="36"/>
-      <c r="K116" s="36"/>
-    </row>
-    <row r="117" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H116" s="39"/>
+      <c r="I116" s="38"/>
+      <c r="J116" s="27"/>
+      <c r="K116" s="27"/>
+    </row>
+    <row r="117" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A117" s="13"/>
       <c r="B117" s="13"/>
       <c r="C117" s="13"/>
@@ -2837,220 +2955,443 @@
       <c r="E117" s="13"/>
       <c r="F117" s="13"/>
       <c r="G117" s="15"/>
-      <c r="H117" s="28"/>
-      <c r="I117" s="29"/>
-      <c r="J117" s="36"/>
-      <c r="K117" s="36"/>
-    </row>
-    <row r="118" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H117" s="39"/>
+      <c r="I117" s="38"/>
+      <c r="J117" s="27"/>
+      <c r="K117" s="27"/>
+    </row>
+    <row r="118" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A118" s="13"/>
       <c r="B118" s="13"/>
-      <c r="C118" s="13"/>
+      <c r="C118" s="18"/>
       <c r="D118" s="13"/>
       <c r="E118" s="13"/>
       <c r="F118" s="13"/>
       <c r="G118" s="15"/>
-      <c r="H118" s="28"/>
-      <c r="I118" s="29"/>
-      <c r="J118" s="36"/>
-      <c r="K118" s="36"/>
-    </row>
-    <row r="119" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H118" s="39"/>
+      <c r="I118" s="38"/>
+      <c r="J118" s="27"/>
+      <c r="K118" s="27"/>
+    </row>
+    <row r="119" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A119" s="13"/>
-      <c r="B119" s="13"/>
+      <c r="B119" s="18"/>
       <c r="C119" s="13"/>
       <c r="D119" s="13"/>
       <c r="E119" s="13"/>
       <c r="F119" s="13"/>
       <c r="G119" s="15"/>
-      <c r="H119" s="28"/>
-      <c r="I119" s="29"/>
-      <c r="J119" s="36"/>
-      <c r="K119" s="36"/>
-    </row>
-    <row r="120" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A120" s="13"/>
-      <c r="B120" s="13"/>
-      <c r="C120" s="13"/>
-      <c r="D120" s="13"/>
-      <c r="E120" s="13"/>
-      <c r="F120" s="13"/>
-      <c r="G120" s="15"/>
-      <c r="H120" s="28"/>
-      <c r="I120" s="29"/>
-      <c r="J120" s="36"/>
-      <c r="K120" s="36"/>
-    </row>
-    <row r="121" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A121" s="13"/>
-      <c r="B121" s="13"/>
-      <c r="C121" s="13"/>
-      <c r="D121" s="13"/>
-      <c r="E121" s="13"/>
-      <c r="F121" s="13"/>
-      <c r="G121" s="15"/>
-      <c r="H121" s="28"/>
-      <c r="I121" s="29"/>
-      <c r="J121" s="36"/>
-      <c r="K121" s="36"/>
-    </row>
-    <row r="122" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A122" s="13"/>
-      <c r="B122" s="13"/>
-      <c r="C122" s="13"/>
-      <c r="D122" s="13"/>
-      <c r="E122" s="13"/>
-      <c r="F122" s="13"/>
-      <c r="G122" s="15"/>
-      <c r="H122" s="28"/>
-      <c r="I122" s="29"/>
-      <c r="J122" s="36"/>
-      <c r="K122" s="36"/>
-    </row>
-    <row r="123" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A123" s="13"/>
-      <c r="B123" s="13"/>
-      <c r="C123" s="13"/>
-      <c r="D123" s="13"/>
-      <c r="E123" s="13"/>
-      <c r="F123" s="13"/>
-      <c r="G123" s="15"/>
-      <c r="H123" s="28"/>
-      <c r="I123" s="29"/>
-      <c r="J123" s="36"/>
-      <c r="K123" s="36"/>
-    </row>
-    <row r="124" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A124" s="13"/>
-      <c r="B124" s="13"/>
-      <c r="C124" s="13"/>
-      <c r="D124" s="13"/>
-      <c r="E124" s="13"/>
-      <c r="F124" s="13"/>
-      <c r="G124" s="15"/>
-      <c r="H124" s="28"/>
-      <c r="I124" s="29"/>
-      <c r="J124" s="36"/>
-      <c r="K124" s="36"/>
-    </row>
-    <row r="125" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A125" s="13"/>
-      <c r="B125" s="13"/>
-      <c r="C125" s="13"/>
-      <c r="D125" s="13"/>
-      <c r="E125" s="13"/>
-      <c r="F125" s="13"/>
-      <c r="G125" s="15"/>
-      <c r="H125" s="28"/>
-      <c r="I125" s="29"/>
-      <c r="J125" s="36"/>
-      <c r="K125" s="36"/>
-    </row>
-    <row r="126" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A126" s="13"/>
-      <c r="B126" s="13"/>
-      <c r="C126" s="13"/>
-      <c r="D126" s="13"/>
-      <c r="E126" s="13"/>
-      <c r="F126" s="13"/>
-      <c r="G126" s="15"/>
-      <c r="H126" s="28"/>
-      <c r="I126" s="29"/>
-      <c r="J126" s="36"/>
-      <c r="K126" s="36"/>
-    </row>
-    <row r="127" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A127" s="13"/>
-      <c r="B127" s="13"/>
-      <c r="C127" s="13"/>
-      <c r="D127" s="13"/>
-      <c r="E127" s="13"/>
-      <c r="F127" s="13"/>
-      <c r="G127" s="15"/>
-      <c r="H127" s="28"/>
-      <c r="I127" s="29"/>
-      <c r="J127" s="36"/>
-      <c r="K127" s="36"/>
-    </row>
-    <row r="128" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A128" s="13"/>
-      <c r="B128" s="13"/>
-      <c r="C128" s="13"/>
-      <c r="D128" s="13"/>
-      <c r="E128" s="13"/>
-      <c r="F128" s="13"/>
-      <c r="G128" s="15"/>
-      <c r="H128" s="28"/>
-      <c r="I128" s="29"/>
-      <c r="J128" s="36"/>
-      <c r="K128" s="36"/>
-    </row>
-    <row r="129" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A129" s="13"/>
-      <c r="B129" s="13"/>
-      <c r="C129" s="13"/>
-      <c r="D129" s="13"/>
-      <c r="E129" s="13"/>
-      <c r="F129" s="13"/>
-      <c r="G129" s="15"/>
-      <c r="H129" s="28"/>
-      <c r="I129" s="29"/>
-      <c r="J129" s="36"/>
-      <c r="K129" s="36"/>
-    </row>
-    <row r="130" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A130" s="13"/>
-      <c r="B130" s="13"/>
-      <c r="C130" s="13"/>
-      <c r="D130" s="13"/>
-      <c r="E130" s="13"/>
-      <c r="F130" s="13"/>
-      <c r="G130" s="15"/>
-      <c r="H130" s="28"/>
-      <c r="I130" s="29"/>
-      <c r="J130" s="36"/>
-      <c r="K130" s="36"/>
-    </row>
-    <row r="131" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A131" s="13"/>
-      <c r="B131" s="13"/>
-      <c r="C131" s="13"/>
-      <c r="D131" s="13"/>
-      <c r="E131" s="13"/>
-      <c r="F131" s="13"/>
-      <c r="G131" s="15"/>
-      <c r="H131" s="28"/>
-      <c r="I131" s="29"/>
-      <c r="J131" s="36"/>
-      <c r="K131" s="36"/>
-    </row>
-    <row r="132" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A132" s="13"/>
-      <c r="B132" s="13"/>
-      <c r="C132" s="13"/>
-      <c r="D132" s="13"/>
-      <c r="E132" s="13"/>
-      <c r="F132" s="13"/>
-      <c r="G132" s="15"/>
-      <c r="H132" s="28"/>
-      <c r="I132" s="29"/>
-      <c r="J132" s="36"/>
-      <c r="K132" s="36"/>
-    </row>
-    <row r="133" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A133" s="13"/>
-      <c r="B133" s="13"/>
-      <c r="C133" s="13"/>
-      <c r="D133" s="13"/>
-      <c r="E133" s="13"/>
-      <c r="F133" s="13"/>
-      <c r="G133" s="15"/>
-      <c r="H133" s="28"/>
-      <c r="I133" s="29"/>
-      <c r="J133" s="36"/>
-      <c r="K133" s="36"/>
-    </row>
-    <row r="134" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H119" s="39"/>
+      <c r="I119" s="38"/>
+      <c r="J119" s="27"/>
+      <c r="K119" s="27"/>
+    </row>
+    <row r="120" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A120" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="B120" s="17">
+        <v>45766</v>
+      </c>
+      <c r="C120" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="D120" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="E120" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="F120" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="G120" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="H120" s="39"/>
+      <c r="I120" s="38"/>
+      <c r="J120" s="32" t="s">
+        <v>94</v>
+      </c>
+      <c r="K120" s="27"/>
+    </row>
+    <row r="121" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A121" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="B121" s="17">
+        <v>45766</v>
+      </c>
+      <c r="C121" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="D121" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="E121" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="F121" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="G121" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="H121" s="39"/>
+      <c r="I121" s="38"/>
+      <c r="J121" s="45" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A122" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="B122" s="44">
+        <v>45766</v>
+      </c>
+      <c r="C122" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="D122" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="E122" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="F122" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="G122" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="H122" s="39"/>
+      <c r="I122" s="38"/>
+      <c r="J122" s="32" t="s">
+        <v>94</v>
+      </c>
+      <c r="K122" s="27"/>
+    </row>
+    <row r="123" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A123" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="B123" s="17">
+        <v>45766</v>
+      </c>
+      <c r="C123" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="D123" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="E123" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="F123" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="G123" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="H123" s="39"/>
+      <c r="I123" s="38"/>
+      <c r="J123" s="32" t="s">
+        <v>94</v>
+      </c>
+      <c r="K123" s="27"/>
+    </row>
+    <row r="124" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A124" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="B124" s="17">
+        <v>45766</v>
+      </c>
+      <c r="C124" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="D124" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="E124" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="F124" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="G124" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="H124" s="39"/>
+      <c r="I124" s="38"/>
+      <c r="J124" s="32" t="s">
+        <v>94</v>
+      </c>
+      <c r="K124" s="27"/>
+    </row>
+    <row r="125" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A125" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="B125" s="17">
+        <v>45766</v>
+      </c>
+      <c r="C125" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="D125" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="E125" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="F125" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="G125" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="H125" s="39"/>
+      <c r="I125" s="38"/>
+      <c r="J125" s="32" t="s">
+        <v>94</v>
+      </c>
+      <c r="K125" s="27"/>
+    </row>
+    <row r="126" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A126" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="B126" s="17">
+        <v>45766</v>
+      </c>
+      <c r="C126" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="D126" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="E126" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="F126" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="G126" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="H126" s="39"/>
+      <c r="I126" s="38"/>
+      <c r="J126" s="32" t="s">
+        <v>94</v>
+      </c>
+      <c r="K126" s="27"/>
+    </row>
+    <row r="127" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A127" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="B127" s="17">
+        <v>45766</v>
+      </c>
+      <c r="C127" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="D127" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="E127" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="F127" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="G127" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="H127" s="39"/>
+      <c r="I127" s="38"/>
+      <c r="J127" s="32" t="s">
+        <v>94</v>
+      </c>
+      <c r="K127" s="27"/>
+    </row>
+    <row r="128" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A128" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="B128" s="17">
+        <v>45766</v>
+      </c>
+      <c r="C128" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="D128" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="E128" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="F128" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="G128" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="H128" s="39"/>
+      <c r="I128" s="38"/>
+      <c r="J128" s="32" t="s">
+        <v>94</v>
+      </c>
+      <c r="K128" s="27"/>
+    </row>
+    <row r="129" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A129" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="B129" s="17">
+        <v>45766</v>
+      </c>
+      <c r="C129" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="D129" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="E129" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="F129" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="G129" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="H129" s="39"/>
+      <c r="I129" s="38"/>
+      <c r="J129" s="32" t="s">
+        <v>94</v>
+      </c>
+      <c r="K129" s="27"/>
+    </row>
+    <row r="130" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A130" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="B130" s="17">
+        <v>45766</v>
+      </c>
+      <c r="C130" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="D130" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="E130" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="F130" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="G130" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="H130" s="39"/>
+      <c r="I130" s="38"/>
+      <c r="J130" s="32" t="s">
+        <v>94</v>
+      </c>
+      <c r="K130" s="27"/>
+    </row>
+    <row r="131" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A131" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="B131" s="17">
+        <v>45766</v>
+      </c>
+      <c r="C131" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="D131" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="E131" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="F131" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="G131" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="H131" s="39"/>
+      <c r="I131" s="38"/>
+      <c r="J131" s="32" t="s">
+        <v>94</v>
+      </c>
+      <c r="K131" s="27"/>
+    </row>
+    <row r="132" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A132" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="B132" s="17">
+        <v>45766</v>
+      </c>
+      <c r="C132" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="D132" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="E132" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="F132" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="G132" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="H132" s="39"/>
+      <c r="I132" s="38"/>
+      <c r="J132" s="32" t="s">
+        <v>94</v>
+      </c>
+      <c r="K132" s="27"/>
+    </row>
+    <row r="133" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A133" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="B133" s="17">
+        <v>45766</v>
+      </c>
+      <c r="C133" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="D133" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="E133" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="F133" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="G133" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="H133" s="39"/>
+      <c r="I133" s="38"/>
+      <c r="J133" s="32" t="s">
+        <v>94</v>
+      </c>
+      <c r="K133" s="27"/>
+    </row>
+    <row r="134" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A134" s="13"/>
       <c r="B134" s="13"/>
       <c r="C134" s="13"/>
@@ -3058,12 +3399,12 @@
       <c r="E134" s="13"/>
       <c r="F134" s="13"/>
       <c r="G134" s="15"/>
-      <c r="H134" s="28"/>
-      <c r="I134" s="29"/>
-      <c r="J134" s="36"/>
-      <c r="K134" s="36"/>
-    </row>
-    <row r="135" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H134" s="39"/>
+      <c r="I134" s="38"/>
+      <c r="J134" s="32"/>
+      <c r="K134" s="27"/>
+    </row>
+    <row r="135" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A135" s="13"/>
       <c r="B135" s="13"/>
       <c r="C135" s="13"/>
@@ -3071,12 +3412,12 @@
       <c r="E135" s="13"/>
       <c r="F135" s="13"/>
       <c r="G135" s="15"/>
-      <c r="H135" s="28"/>
-      <c r="I135" s="29"/>
-      <c r="J135" s="36"/>
-      <c r="K135" s="36"/>
-    </row>
-    <row r="136" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H135" s="39"/>
+      <c r="I135" s="38"/>
+      <c r="J135" s="27"/>
+      <c r="K135" s="27"/>
+    </row>
+    <row r="136" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A136" s="13"/>
       <c r="B136" s="13"/>
       <c r="C136" s="13"/>
@@ -3084,12 +3425,12 @@
       <c r="E136" s="13"/>
       <c r="F136" s="13"/>
       <c r="G136" s="15"/>
-      <c r="H136" s="28"/>
-      <c r="I136" s="29"/>
-      <c r="J136" s="36"/>
-      <c r="K136" s="36"/>
-    </row>
-    <row r="137" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H136" s="39"/>
+      <c r="I136" s="38"/>
+      <c r="J136" s="27"/>
+      <c r="K136" s="27"/>
+    </row>
+    <row r="137" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A137" s="13"/>
       <c r="B137" s="13"/>
       <c r="C137" s="13"/>
@@ -3097,12 +3438,12 @@
       <c r="E137" s="13"/>
       <c r="F137" s="13"/>
       <c r="G137" s="15"/>
-      <c r="H137" s="28"/>
-      <c r="I137" s="29"/>
-      <c r="J137" s="36"/>
-      <c r="K137" s="36"/>
-    </row>
-    <row r="138" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H137" s="39"/>
+      <c r="I137" s="38"/>
+      <c r="J137" s="27"/>
+      <c r="K137" s="27"/>
+    </row>
+    <row r="138" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A138" s="13"/>
       <c r="B138" s="13"/>
       <c r="C138" s="13"/>
@@ -3110,12 +3451,12 @@
       <c r="E138" s="13"/>
       <c r="F138" s="13"/>
       <c r="G138" s="15"/>
-      <c r="H138" s="28"/>
-      <c r="I138" s="29"/>
-      <c r="J138" s="36"/>
-      <c r="K138" s="36"/>
-    </row>
-    <row r="139" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H138" s="39"/>
+      <c r="I138" s="38"/>
+      <c r="J138" s="27"/>
+      <c r="K138" s="27"/>
+    </row>
+    <row r="139" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A139" s="13"/>
       <c r="B139" s="13"/>
       <c r="C139" s="13"/>
@@ -3123,12 +3464,12 @@
       <c r="E139" s="13"/>
       <c r="F139" s="13"/>
       <c r="G139" s="15"/>
-      <c r="H139" s="28"/>
-      <c r="I139" s="29"/>
-      <c r="J139" s="36"/>
-      <c r="K139" s="36"/>
-    </row>
-    <row r="140" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H139" s="39"/>
+      <c r="I139" s="38"/>
+      <c r="J139" s="27"/>
+      <c r="K139" s="27"/>
+    </row>
+    <row r="140" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A140" s="13"/>
       <c r="B140" s="13"/>
       <c r="C140" s="13"/>
@@ -3136,12 +3477,12 @@
       <c r="E140" s="13"/>
       <c r="F140" s="13"/>
       <c r="G140" s="15"/>
-      <c r="H140" s="28"/>
-      <c r="I140" s="29"/>
-      <c r="J140" s="36"/>
-      <c r="K140" s="36"/>
-    </row>
-    <row r="141" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H140" s="39"/>
+      <c r="I140" s="38"/>
+      <c r="J140" s="27"/>
+      <c r="K140" s="27"/>
+    </row>
+    <row r="141" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A141" s="13"/>
       <c r="B141" s="13"/>
       <c r="C141" s="13"/>
@@ -3149,12 +3490,12 @@
       <c r="E141" s="13"/>
       <c r="F141" s="13"/>
       <c r="G141" s="15"/>
-      <c r="H141" s="28"/>
-      <c r="I141" s="29"/>
-      <c r="J141" s="36"/>
-      <c r="K141" s="36"/>
-    </row>
-    <row r="142" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H141" s="39"/>
+      <c r="I141" s="38"/>
+      <c r="J141" s="27"/>
+      <c r="K141" s="27"/>
+    </row>
+    <row r="142" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A142" s="13"/>
       <c r="B142" s="13"/>
       <c r="C142" s="13"/>
@@ -3162,12 +3503,12 @@
       <c r="E142" s="13"/>
       <c r="F142" s="13"/>
       <c r="G142" s="15"/>
-      <c r="H142" s="28"/>
-      <c r="I142" s="29"/>
-      <c r="J142" s="36"/>
-      <c r="K142" s="36"/>
-    </row>
-    <row r="143" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H142" s="39"/>
+      <c r="I142" s="38"/>
+      <c r="J142" s="27"/>
+      <c r="K142" s="27"/>
+    </row>
+    <row r="143" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A143" s="13"/>
       <c r="B143" s="13"/>
       <c r="C143" s="13"/>
@@ -3175,12 +3516,12 @@
       <c r="E143" s="13"/>
       <c r="F143" s="13"/>
       <c r="G143" s="15"/>
-      <c r="H143" s="28"/>
-      <c r="I143" s="29"/>
-      <c r="J143" s="36"/>
-      <c r="K143" s="36"/>
-    </row>
-    <row r="144" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H143" s="39"/>
+      <c r="I143" s="38"/>
+      <c r="J143" s="27"/>
+      <c r="K143" s="27"/>
+    </row>
+    <row r="144" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A144" s="13"/>
       <c r="B144" s="13"/>
       <c r="C144" s="13"/>
@@ -3188,12 +3529,12 @@
       <c r="E144" s="13"/>
       <c r="F144" s="13"/>
       <c r="G144" s="15"/>
-      <c r="H144" s="28"/>
-      <c r="I144" s="29"/>
-      <c r="J144" s="36"/>
-      <c r="K144" s="36"/>
-    </row>
-    <row r="145" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H144" s="39"/>
+      <c r="I144" s="38"/>
+      <c r="J144" s="27"/>
+      <c r="K144" s="27"/>
+    </row>
+    <row r="145" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A145" s="13"/>
       <c r="B145" s="13"/>
       <c r="C145" s="13"/>
@@ -3201,12 +3542,12 @@
       <c r="E145" s="13"/>
       <c r="F145" s="13"/>
       <c r="G145" s="15"/>
-      <c r="H145" s="28"/>
-      <c r="I145" s="29"/>
-      <c r="J145" s="36"/>
-      <c r="K145" s="36"/>
-    </row>
-    <row r="146" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H145" s="39"/>
+      <c r="I145" s="38"/>
+      <c r="J145" s="27"/>
+      <c r="K145" s="27"/>
+    </row>
+    <row r="146" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A146" s="13"/>
       <c r="B146" s="13"/>
       <c r="C146" s="13"/>
@@ -3214,12 +3555,12 @@
       <c r="E146" s="13"/>
       <c r="F146" s="13"/>
       <c r="G146" s="15"/>
-      <c r="H146" s="28"/>
-      <c r="I146" s="29"/>
-      <c r="J146" s="36"/>
-      <c r="K146" s="36"/>
-    </row>
-    <row r="147" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H146" s="39"/>
+      <c r="I146" s="38"/>
+      <c r="J146" s="27"/>
+      <c r="K146" s="27"/>
+    </row>
+    <row r="147" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A147" s="13"/>
       <c r="B147" s="13"/>
       <c r="C147" s="13"/>
@@ -3227,12 +3568,12 @@
       <c r="E147" s="13"/>
       <c r="F147" s="13"/>
       <c r="G147" s="15"/>
-      <c r="H147" s="28"/>
-      <c r="I147" s="29"/>
-      <c r="J147" s="36"/>
-      <c r="K147" s="36"/>
-    </row>
-    <row r="148" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H147" s="39"/>
+      <c r="I147" s="38"/>
+      <c r="J147" s="27"/>
+      <c r="K147" s="27"/>
+    </row>
+    <row r="148" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A148" s="13"/>
       <c r="B148" s="13"/>
       <c r="C148" s="13"/>
@@ -3240,12 +3581,12 @@
       <c r="E148" s="13"/>
       <c r="F148" s="13"/>
       <c r="G148" s="15"/>
-      <c r="H148" s="28"/>
-      <c r="I148" s="29"/>
-      <c r="J148" s="36"/>
-      <c r="K148" s="36"/>
-    </row>
-    <row r="149" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H148" s="39"/>
+      <c r="I148" s="38"/>
+      <c r="J148" s="27"/>
+      <c r="K148" s="27"/>
+    </row>
+    <row r="149" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A149" s="13"/>
       <c r="B149" s="13"/>
       <c r="C149" s="13"/>
@@ -3253,12 +3594,12 @@
       <c r="E149" s="13"/>
       <c r="F149" s="13"/>
       <c r="G149" s="15"/>
-      <c r="H149" s="28"/>
-      <c r="I149" s="29"/>
-      <c r="J149" s="36"/>
-      <c r="K149" s="36"/>
-    </row>
-    <row r="150" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H149" s="39"/>
+      <c r="I149" s="38"/>
+      <c r="J149" s="27"/>
+      <c r="K149" s="27"/>
+    </row>
+    <row r="150" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A150" s="13"/>
       <c r="B150" s="13"/>
       <c r="C150" s="13"/>
@@ -3266,12 +3607,12 @@
       <c r="E150" s="13"/>
       <c r="F150" s="13"/>
       <c r="G150" s="15"/>
-      <c r="H150" s="28"/>
-      <c r="I150" s="29"/>
-      <c r="J150" s="36"/>
-      <c r="K150" s="36"/>
-    </row>
-    <row r="151" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H150" s="39"/>
+      <c r="I150" s="38"/>
+      <c r="J150" s="27"/>
+      <c r="K150" s="27"/>
+    </row>
+    <row r="151" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A151" s="13"/>
       <c r="B151" s="13"/>
       <c r="C151" s="13"/>
@@ -3281,10 +3622,10 @@
       <c r="G151" s="15"/>
       <c r="H151" s="13"/>
       <c r="I151" s="13"/>
-      <c r="J151" s="36"/>
-      <c r="K151" s="36"/>
-    </row>
-    <row r="152" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="J151" s="27"/>
+      <c r="K151" s="27"/>
+    </row>
+    <row r="152" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A152" s="13"/>
       <c r="B152" s="13"/>
       <c r="C152" s="13"/>
@@ -3294,10 +3635,10 @@
       <c r="G152" s="15"/>
       <c r="H152" s="13"/>
       <c r="I152" s="13"/>
-      <c r="J152" s="36"/>
-      <c r="K152" s="36"/>
-    </row>
-    <row r="153" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="J152" s="27"/>
+      <c r="K152" s="27"/>
+    </row>
+    <row r="153" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A153" s="13"/>
       <c r="B153" s="13"/>
       <c r="C153" s="13"/>
@@ -3307,10 +3648,10 @@
       <c r="G153" s="15"/>
       <c r="H153" s="13"/>
       <c r="I153" s="13"/>
-      <c r="J153" s="36"/>
-      <c r="K153" s="36"/>
-    </row>
-    <row r="154" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="J153" s="27"/>
+      <c r="K153" s="27"/>
+    </row>
+    <row r="154" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A154" s="13"/>
       <c r="B154" s="13"/>
       <c r="C154" s="13"/>
@@ -3320,10 +3661,10 @@
       <c r="G154" s="15"/>
       <c r="H154" s="13"/>
       <c r="I154" s="13"/>
-      <c r="J154" s="36"/>
-      <c r="K154" s="36"/>
-    </row>
-    <row r="155" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="J154" s="27"/>
+      <c r="K154" s="27"/>
+    </row>
+    <row r="155" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A155" s="13"/>
       <c r="B155" s="13"/>
       <c r="C155" s="13"/>
@@ -3333,10 +3674,10 @@
       <c r="G155" s="15"/>
       <c r="H155" s="13"/>
       <c r="I155" s="13"/>
-      <c r="J155" s="36"/>
-      <c r="K155" s="36"/>
-    </row>
-    <row r="156" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="J155" s="27"/>
+      <c r="K155" s="27"/>
+    </row>
+    <row r="156" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A156" s="13"/>
       <c r="B156" s="13"/>
       <c r="C156" s="13"/>
@@ -3346,10 +3687,10 @@
       <c r="G156" s="15"/>
       <c r="H156" s="13"/>
       <c r="I156" s="13"/>
-      <c r="J156" s="36"/>
-      <c r="K156" s="36"/>
-    </row>
-    <row r="157" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="J156" s="27"/>
+      <c r="K156" s="27"/>
+    </row>
+    <row r="157" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A157" s="13"/>
       <c r="B157" s="13"/>
       <c r="C157" s="13"/>
@@ -3359,10 +3700,10 @@
       <c r="G157" s="15"/>
       <c r="H157" s="13"/>
       <c r="I157" s="13"/>
-      <c r="J157" s="36"/>
-      <c r="K157" s="36"/>
-    </row>
-    <row r="158" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="J157" s="27"/>
+      <c r="K157" s="27"/>
+    </row>
+    <row r="158" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A158" s="13"/>
       <c r="B158" s="13"/>
       <c r="C158" s="13"/>
@@ -3372,10 +3713,10 @@
       <c r="G158" s="15"/>
       <c r="H158" s="13"/>
       <c r="I158" s="13"/>
-      <c r="J158" s="36"/>
-      <c r="K158" s="36"/>
-    </row>
-    <row r="159" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="J158" s="27"/>
+      <c r="K158" s="27"/>
+    </row>
+    <row r="159" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A159" s="13"/>
       <c r="B159" s="13"/>
       <c r="C159" s="13"/>
@@ -3385,10 +3726,10 @@
       <c r="G159" s="15"/>
       <c r="H159" s="13"/>
       <c r="I159" s="13"/>
-      <c r="J159" s="36"/>
-      <c r="K159" s="36"/>
-    </row>
-    <row r="160" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="J159" s="27"/>
+      <c r="K159" s="27"/>
+    </row>
+    <row r="160" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A160" s="13"/>
       <c r="B160" s="13"/>
       <c r="C160" s="13"/>
@@ -3398,10 +3739,10 @@
       <c r="G160" s="15"/>
       <c r="H160" s="13"/>
       <c r="I160" s="13"/>
-      <c r="J160" s="36"/>
-      <c r="K160" s="36"/>
-    </row>
-    <row r="161" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="J160" s="27"/>
+      <c r="K160" s="27"/>
+    </row>
+    <row r="161" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A161" s="13"/>
       <c r="B161" s="13"/>
       <c r="C161" s="13"/>
@@ -3411,10 +3752,10 @@
       <c r="G161" s="15"/>
       <c r="H161" s="13"/>
       <c r="I161" s="13"/>
-      <c r="J161" s="36"/>
-      <c r="K161" s="36"/>
-    </row>
-    <row r="162" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="J161" s="27"/>
+      <c r="K161" s="27"/>
+    </row>
+    <row r="162" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A162" s="13"/>
       <c r="B162" s="13"/>
       <c r="C162" s="13"/>
@@ -3424,10 +3765,10 @@
       <c r="G162" s="15"/>
       <c r="H162" s="13"/>
       <c r="I162" s="13"/>
-      <c r="J162" s="36"/>
-      <c r="K162" s="36"/>
-    </row>
-    <row r="163" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="J162" s="27"/>
+      <c r="K162" s="27"/>
+    </row>
+    <row r="163" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A163" s="13"/>
       <c r="B163" s="13"/>
       <c r="C163" s="13"/>
@@ -3437,10 +3778,10 @@
       <c r="G163" s="15"/>
       <c r="H163" s="13"/>
       <c r="I163" s="13"/>
-      <c r="J163" s="36"/>
-      <c r="K163" s="36"/>
-    </row>
-    <row r="164" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="J163" s="27"/>
+      <c r="K163" s="27"/>
+    </row>
+    <row r="164" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A164" s="13"/>
       <c r="B164" s="13"/>
       <c r="C164" s="13"/>
@@ -3450,10 +3791,10 @@
       <c r="G164" s="15"/>
       <c r="H164" s="13"/>
       <c r="I164" s="13"/>
-      <c r="J164" s="36"/>
-      <c r="K164" s="36"/>
-    </row>
-    <row r="165" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="J164" s="27"/>
+      <c r="K164" s="27"/>
+    </row>
+    <row r="165" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A165" s="13"/>
       <c r="B165" s="13"/>
       <c r="C165" s="13"/>
@@ -3463,10 +3804,10 @@
       <c r="G165" s="15"/>
       <c r="H165" s="13"/>
       <c r="I165" s="13"/>
-      <c r="J165" s="36"/>
-      <c r="K165" s="36"/>
-    </row>
-    <row r="166" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="J165" s="27"/>
+      <c r="K165" s="27"/>
+    </row>
+    <row r="166" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A166" s="13"/>
       <c r="B166" s="13"/>
       <c r="C166" s="13"/>
@@ -3476,10 +3817,10 @@
       <c r="G166" s="15"/>
       <c r="H166" s="13"/>
       <c r="I166" s="13"/>
-      <c r="J166" s="36"/>
-      <c r="K166" s="36"/>
-    </row>
-    <row r="167" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="J166" s="27"/>
+      <c r="K166" s="27"/>
+    </row>
+    <row r="167" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A167" s="13"/>
       <c r="B167" s="13"/>
       <c r="C167" s="13"/>
@@ -3489,10 +3830,10 @@
       <c r="G167" s="15"/>
       <c r="H167" s="13"/>
       <c r="I167" s="13"/>
-      <c r="J167" s="36"/>
-      <c r="K167" s="36"/>
-    </row>
-    <row r="168" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="J167" s="27"/>
+      <c r="K167" s="27"/>
+    </row>
+    <row r="168" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A168" s="13"/>
       <c r="B168" s="13"/>
       <c r="C168" s="13"/>
@@ -3502,10 +3843,10 @@
       <c r="G168" s="15"/>
       <c r="H168" s="13"/>
       <c r="I168" s="13"/>
-      <c r="J168" s="36"/>
-      <c r="K168" s="36"/>
-    </row>
-    <row r="169" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="J168" s="27"/>
+      <c r="K168" s="27"/>
+    </row>
+    <row r="169" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A169" s="13"/>
       <c r="B169" s="13"/>
       <c r="C169" s="13"/>
@@ -3515,10 +3856,10 @@
       <c r="G169" s="15"/>
       <c r="H169" s="13"/>
       <c r="I169" s="13"/>
-      <c r="J169" s="36"/>
-      <c r="K169" s="36"/>
-    </row>
-    <row r="170" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="J169" s="27"/>
+      <c r="K169" s="27"/>
+    </row>
+    <row r="170" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A170" s="13"/>
       <c r="B170" s="13"/>
       <c r="C170" s="13"/>
@@ -3528,10 +3869,10 @@
       <c r="G170" s="15"/>
       <c r="H170" s="13"/>
       <c r="I170" s="13"/>
-      <c r="J170" s="36"/>
-      <c r="K170" s="36"/>
-    </row>
-    <row r="171" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="J170" s="27"/>
+      <c r="K170" s="27"/>
+    </row>
+    <row r="171" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A171" s="13"/>
       <c r="B171" s="13"/>
       <c r="C171" s="13"/>
@@ -3541,10 +3882,10 @@
       <c r="G171" s="15"/>
       <c r="H171" s="13"/>
       <c r="I171" s="13"/>
-      <c r="J171" s="36"/>
-      <c r="K171" s="36"/>
-    </row>
-    <row r="172" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="J171" s="27"/>
+      <c r="K171" s="27"/>
+    </row>
+    <row r="172" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A172" s="13"/>
       <c r="B172" s="13"/>
       <c r="C172" s="13"/>
@@ -3554,10 +3895,10 @@
       <c r="G172" s="15"/>
       <c r="H172" s="13"/>
       <c r="I172" s="13"/>
-      <c r="J172" s="36"/>
-      <c r="K172" s="36"/>
-    </row>
-    <row r="173" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="J172" s="27"/>
+      <c r="K172" s="27"/>
+    </row>
+    <row r="173" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A173" s="13"/>
       <c r="B173" s="13"/>
       <c r="C173" s="13"/>
@@ -3567,10 +3908,10 @@
       <c r="G173" s="15"/>
       <c r="H173" s="13"/>
       <c r="I173" s="13"/>
-      <c r="J173" s="36"/>
-      <c r="K173" s="36"/>
-    </row>
-    <row r="174" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="J173" s="27"/>
+      <c r="K173" s="27"/>
+    </row>
+    <row r="174" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A174" s="13"/>
       <c r="B174" s="13"/>
       <c r="C174" s="13"/>
@@ -3580,10 +3921,10 @@
       <c r="G174" s="15"/>
       <c r="H174" s="13"/>
       <c r="I174" s="13"/>
-      <c r="J174" s="36"/>
-      <c r="K174" s="36"/>
-    </row>
-    <row r="175" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="J174" s="27"/>
+      <c r="K174" s="27"/>
+    </row>
+    <row r="175" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A175" s="13"/>
       <c r="B175" s="13"/>
       <c r="C175" s="13"/>
@@ -3593,10 +3934,10 @@
       <c r="G175" s="15"/>
       <c r="H175" s="13"/>
       <c r="I175" s="13"/>
-      <c r="J175" s="36"/>
-      <c r="K175" s="36"/>
-    </row>
-    <row r="176" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="J175" s="27"/>
+      <c r="K175" s="27"/>
+    </row>
+    <row r="176" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A176" s="13"/>
       <c r="B176" s="13"/>
       <c r="C176" s="13"/>
@@ -3606,10 +3947,10 @@
       <c r="G176" s="15"/>
       <c r="H176" s="13"/>
       <c r="I176" s="13"/>
-      <c r="J176" s="36"/>
-      <c r="K176" s="36"/>
-    </row>
-    <row r="177" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="J176" s="27"/>
+      <c r="K176" s="27"/>
+    </row>
+    <row r="177" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A177" s="13"/>
       <c r="B177" s="13"/>
       <c r="C177" s="13"/>
@@ -3619,10 +3960,10 @@
       <c r="G177" s="15"/>
       <c r="H177" s="13"/>
       <c r="I177" s="13"/>
-      <c r="J177" s="36"/>
-      <c r="K177" s="36"/>
-    </row>
-    <row r="178" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="J177" s="27"/>
+      <c r="K177" s="27"/>
+    </row>
+    <row r="178" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A178" s="13"/>
       <c r="B178" s="13"/>
       <c r="C178" s="13"/>
@@ -3632,10 +3973,10 @@
       <c r="G178" s="15"/>
       <c r="H178" s="13"/>
       <c r="I178" s="13"/>
-      <c r="J178" s="36"/>
-      <c r="K178" s="36"/>
-    </row>
-    <row r="179" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="J178" s="27"/>
+      <c r="K178" s="27"/>
+    </row>
+    <row r="179" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A179" s="13"/>
       <c r="B179" s="13"/>
       <c r="C179" s="13"/>
@@ -3645,10 +3986,10 @@
       <c r="G179" s="15"/>
       <c r="H179" s="13"/>
       <c r="I179" s="13"/>
-      <c r="J179" s="36"/>
-      <c r="K179" s="36"/>
-    </row>
-    <row r="180" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="J179" s="27"/>
+      <c r="K179" s="27"/>
+    </row>
+    <row r="180" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A180" s="13"/>
       <c r="B180" s="13"/>
       <c r="C180" s="13"/>
@@ -3658,10 +3999,10 @@
       <c r="G180" s="15"/>
       <c r="H180" s="13"/>
       <c r="I180" s="13"/>
-      <c r="J180" s="36"/>
-      <c r="K180" s="36"/>
-    </row>
-    <row r="181" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="J180" s="27"/>
+      <c r="K180" s="27"/>
+    </row>
+    <row r="181" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A181" s="13"/>
       <c r="B181" s="13"/>
       <c r="C181" s="13"/>
@@ -3671,10 +4012,10 @@
       <c r="G181" s="15"/>
       <c r="H181" s="13"/>
       <c r="I181" s="13"/>
-      <c r="J181" s="36"/>
-      <c r="K181" s="36"/>
-    </row>
-    <row r="182" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="J181" s="27"/>
+      <c r="K181" s="27"/>
+    </row>
+    <row r="182" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A182" s="13"/>
       <c r="B182" s="13"/>
       <c r="C182" s="13"/>
@@ -3684,10 +4025,10 @@
       <c r="G182" s="15"/>
       <c r="H182" s="13"/>
       <c r="I182" s="13"/>
-      <c r="J182" s="36"/>
-      <c r="K182" s="36"/>
-    </row>
-    <row r="183" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="J182" s="27"/>
+      <c r="K182" s="27"/>
+    </row>
+    <row r="183" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A183" s="13"/>
       <c r="B183" s="13"/>
       <c r="C183" s="13"/>
@@ -3697,10 +4038,10 @@
       <c r="G183" s="15"/>
       <c r="H183" s="13"/>
       <c r="I183" s="13"/>
-      <c r="J183" s="36"/>
-      <c r="K183" s="36"/>
-    </row>
-    <row r="184" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="J183" s="27"/>
+      <c r="K183" s="27"/>
+    </row>
+    <row r="184" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A184" s="13"/>
       <c r="B184" s="13"/>
       <c r="C184" s="13"/>
@@ -3710,10 +4051,10 @@
       <c r="G184" s="15"/>
       <c r="H184" s="13"/>
       <c r="I184" s="13"/>
-      <c r="J184" s="36"/>
-      <c r="K184" s="36"/>
-    </row>
-    <row r="185" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="J184" s="27"/>
+      <c r="K184" s="27"/>
+    </row>
+    <row r="185" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A185" s="13"/>
       <c r="B185" s="13"/>
       <c r="C185" s="13"/>
@@ -3723,10 +4064,10 @@
       <c r="G185" s="15"/>
       <c r="H185" s="13"/>
       <c r="I185" s="13"/>
-      <c r="J185" s="36"/>
-      <c r="K185" s="36"/>
-    </row>
-    <row r="186" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="J185" s="27"/>
+      <c r="K185" s="27"/>
+    </row>
+    <row r="186" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A186" s="13"/>
       <c r="B186" s="13"/>
       <c r="C186" s="13"/>
@@ -3736,10 +4077,10 @@
       <c r="G186" s="15"/>
       <c r="H186" s="13"/>
       <c r="I186" s="13"/>
-      <c r="J186" s="36"/>
-      <c r="K186" s="36"/>
-    </row>
-    <row r="187" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="J186" s="27"/>
+      <c r="K186" s="27"/>
+    </row>
+    <row r="187" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A187" s="13"/>
       <c r="B187" s="13"/>
       <c r="C187" s="13"/>
@@ -3749,10 +4090,10 @@
       <c r="G187" s="15"/>
       <c r="H187" s="13"/>
       <c r="I187" s="13"/>
-      <c r="J187" s="36"/>
-      <c r="K187" s="36"/>
-    </row>
-    <row r="188" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="J187" s="27"/>
+      <c r="K187" s="27"/>
+    </row>
+    <row r="188" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A188" s="13"/>
       <c r="B188" s="13"/>
       <c r="C188" s="13"/>
@@ -3762,10 +4103,10 @@
       <c r="G188" s="15"/>
       <c r="H188" s="13"/>
       <c r="I188" s="13"/>
-      <c r="J188" s="36"/>
-      <c r="K188" s="36"/>
-    </row>
-    <row r="189" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="J188" s="27"/>
+      <c r="K188" s="27"/>
+    </row>
+    <row r="189" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A189" s="13"/>
       <c r="B189" s="13"/>
       <c r="C189" s="13"/>
@@ -3775,10 +4116,10 @@
       <c r="G189" s="15"/>
       <c r="H189" s="13"/>
       <c r="I189" s="13"/>
-      <c r="J189" s="36"/>
-      <c r="K189" s="36"/>
-    </row>
-    <row r="190" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="J189" s="27"/>
+      <c r="K189" s="27"/>
+    </row>
+    <row r="190" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A190" s="13"/>
       <c r="B190" s="13"/>
       <c r="C190" s="13"/>
@@ -3788,10 +4129,10 @@
       <c r="G190" s="15"/>
       <c r="H190" s="13"/>
       <c r="I190" s="13"/>
-      <c r="J190" s="36"/>
-      <c r="K190" s="36"/>
-    </row>
-    <row r="191" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="J190" s="27"/>
+      <c r="K190" s="27"/>
+    </row>
+    <row r="191" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A191" s="13"/>
       <c r="B191" s="13"/>
       <c r="C191" s="13"/>
@@ -3801,10 +4142,10 @@
       <c r="G191" s="15"/>
       <c r="H191" s="13"/>
       <c r="I191" s="13"/>
-      <c r="J191" s="36"/>
-      <c r="K191" s="36"/>
-    </row>
-    <row r="192" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="J191" s="27"/>
+      <c r="K191" s="27"/>
+    </row>
+    <row r="192" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A192" s="13"/>
       <c r="B192" s="13"/>
       <c r="C192" s="13"/>
@@ -3814,10 +4155,10 @@
       <c r="G192" s="15"/>
       <c r="H192" s="13"/>
       <c r="I192" s="13"/>
-      <c r="J192" s="36"/>
-      <c r="K192" s="36"/>
-    </row>
-    <row r="193" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="J192" s="27"/>
+      <c r="K192" s="27"/>
+    </row>
+    <row r="193" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A193" s="13"/>
       <c r="B193" s="13"/>
       <c r="C193" s="13"/>
@@ -3827,10 +4168,10 @@
       <c r="G193" s="15"/>
       <c r="H193" s="13"/>
       <c r="I193" s="13"/>
-      <c r="J193" s="36"/>
-      <c r="K193" s="36"/>
-    </row>
-    <row r="194" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="J193" s="27"/>
+      <c r="K193" s="27"/>
+    </row>
+    <row r="194" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A194" s="13"/>
       <c r="B194" s="13"/>
       <c r="C194" s="13"/>
@@ -3840,10 +4181,10 @@
       <c r="G194" s="15"/>
       <c r="H194" s="13"/>
       <c r="I194" s="13"/>
-      <c r="J194" s="36"/>
-      <c r="K194" s="36"/>
-    </row>
-    <row r="195" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="J194" s="27"/>
+      <c r="K194" s="27"/>
+    </row>
+    <row r="195" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A195" s="13"/>
       <c r="B195" s="13"/>
       <c r="C195" s="13"/>
@@ -3853,10 +4194,10 @@
       <c r="G195" s="15"/>
       <c r="H195" s="13"/>
       <c r="I195" s="13"/>
-      <c r="J195" s="36"/>
-      <c r="K195" s="36"/>
-    </row>
-    <row r="196" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="J195" s="27"/>
+      <c r="K195" s="27"/>
+    </row>
+    <row r="196" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A196" s="13"/>
       <c r="B196" s="13"/>
       <c r="C196" s="13"/>
@@ -3866,10 +4207,10 @@
       <c r="G196" s="15"/>
       <c r="H196" s="13"/>
       <c r="I196" s="13"/>
-      <c r="J196" s="36"/>
-      <c r="K196" s="36"/>
-    </row>
-    <row r="197" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="J196" s="27"/>
+      <c r="K196" s="27"/>
+    </row>
+    <row r="197" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A197" s="13"/>
       <c r="B197" s="13"/>
       <c r="C197" s="13"/>
@@ -3879,10 +4220,10 @@
       <c r="G197" s="15"/>
       <c r="H197" s="13"/>
       <c r="I197" s="13"/>
-      <c r="J197" s="36"/>
-      <c r="K197" s="36"/>
-    </row>
-    <row r="198" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="J197" s="27"/>
+      <c r="K197" s="27"/>
+    </row>
+    <row r="198" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A198" s="13"/>
       <c r="B198" s="13"/>
       <c r="C198" s="13"/>
@@ -3892,10 +4233,10 @@
       <c r="G198" s="15"/>
       <c r="H198" s="13"/>
       <c r="I198" s="13"/>
-      <c r="J198" s="36"/>
-      <c r="K198" s="36"/>
-    </row>
-    <row r="199" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="J198" s="27"/>
+      <c r="K198" s="27"/>
+    </row>
+    <row r="199" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A199" s="13"/>
       <c r="B199" s="13"/>
       <c r="C199" s="13"/>
@@ -3905,10 +4246,10 @@
       <c r="G199" s="15"/>
       <c r="H199" s="13"/>
       <c r="I199" s="13"/>
-      <c r="J199" s="36"/>
-      <c r="K199" s="36"/>
-    </row>
-    <row r="200" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="J199" s="27"/>
+      <c r="K199" s="27"/>
+    </row>
+    <row r="200" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A200" s="13"/>
       <c r="B200" s="13"/>
       <c r="C200" s="13"/>
@@ -3918,10 +4259,10 @@
       <c r="G200" s="15"/>
       <c r="H200" s="13"/>
       <c r="I200" s="13"/>
-      <c r="J200" s="36"/>
-      <c r="K200" s="36"/>
-    </row>
-    <row r="201" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="J200" s="27"/>
+      <c r="K200" s="27"/>
+    </row>
+    <row r="201" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A201" s="13"/>
       <c r="B201" s="13"/>
       <c r="C201" s="13"/>
@@ -3931,10 +4272,10 @@
       <c r="G201" s="15"/>
       <c r="H201" s="13"/>
       <c r="I201" s="13"/>
-      <c r="J201" s="36"/>
-      <c r="K201" s="36"/>
-    </row>
-    <row r="202" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="J201" s="27"/>
+      <c r="K201" s="27"/>
+    </row>
+    <row r="202" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A202" s="13"/>
       <c r="B202" s="13"/>
       <c r="C202" s="13"/>
@@ -3944,10 +4285,10 @@
       <c r="G202" s="15"/>
       <c r="H202" s="13"/>
       <c r="I202" s="13"/>
-      <c r="J202" s="36"/>
-      <c r="K202" s="36"/>
-    </row>
-    <row r="203" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="J202" s="27"/>
+      <c r="K202" s="27"/>
+    </row>
+    <row r="203" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A203" s="13"/>
       <c r="B203" s="13"/>
       <c r="C203" s="13"/>
@@ -3957,10 +4298,10 @@
       <c r="G203" s="15"/>
       <c r="H203" s="13"/>
       <c r="I203" s="13"/>
-      <c r="J203" s="36"/>
-      <c r="K203" s="36"/>
-    </row>
-    <row r="204" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="J203" s="27"/>
+      <c r="K203" s="27"/>
+    </row>
+    <row r="204" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A204" s="13"/>
       <c r="B204" s="13"/>
       <c r="C204" s="13"/>
@@ -3970,10 +4311,10 @@
       <c r="G204" s="15"/>
       <c r="H204" s="13"/>
       <c r="I204" s="13"/>
-      <c r="J204" s="36"/>
-      <c r="K204" s="36"/>
-    </row>
-    <row r="205" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="J204" s="27"/>
+      <c r="K204" s="27"/>
+    </row>
+    <row r="205" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A205" s="13"/>
       <c r="B205" s="13"/>
       <c r="C205" s="13"/>
@@ -3983,10 +4324,10 @@
       <c r="G205" s="15"/>
       <c r="H205" s="13"/>
       <c r="I205" s="13"/>
-      <c r="J205" s="36"/>
-      <c r="K205" s="36"/>
-    </row>
-    <row r="206" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="J205" s="27"/>
+      <c r="K205" s="27"/>
+    </row>
+    <row r="206" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A206" s="13"/>
       <c r="B206" s="13"/>
       <c r="C206" s="13"/>
@@ -3996,10 +4337,10 @@
       <c r="G206" s="15"/>
       <c r="H206" s="13"/>
       <c r="I206" s="13"/>
-      <c r="J206" s="36"/>
-      <c r="K206" s="36"/>
-    </row>
-    <row r="207" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="J206" s="27"/>
+      <c r="K206" s="27"/>
+    </row>
+    <row r="207" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A207" s="13"/>
       <c r="B207" s="13"/>
       <c r="C207" s="13"/>
@@ -4009,10 +4350,10 @@
       <c r="G207" s="15"/>
       <c r="H207" s="13"/>
       <c r="I207" s="13"/>
-      <c r="J207" s="36"/>
-      <c r="K207" s="36"/>
-    </row>
-    <row r="208" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="J207" s="27"/>
+      <c r="K207" s="27"/>
+    </row>
+    <row r="208" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A208" s="13"/>
       <c r="B208" s="13"/>
       <c r="C208" s="13"/>
@@ -4022,10 +4363,10 @@
       <c r="G208" s="15"/>
       <c r="H208" s="13"/>
       <c r="I208" s="13"/>
-      <c r="J208" s="36"/>
-      <c r="K208" s="36"/>
-    </row>
-    <row r="209" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="J208" s="27"/>
+      <c r="K208" s="27"/>
+    </row>
+    <row r="209" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A209" s="13"/>
       <c r="B209" s="13"/>
       <c r="C209" s="13"/>
@@ -4035,10 +4376,10 @@
       <c r="G209" s="15"/>
       <c r="H209" s="13"/>
       <c r="I209" s="13"/>
-      <c r="J209" s="36"/>
-      <c r="K209" s="36"/>
-    </row>
-    <row r="210" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="J209" s="27"/>
+      <c r="K209" s="27"/>
+    </row>
+    <row r="210" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A210" s="13"/>
       <c r="B210" s="13"/>
       <c r="C210" s="13"/>
@@ -4048,10 +4389,10 @@
       <c r="G210" s="15"/>
       <c r="H210" s="13"/>
       <c r="I210" s="13"/>
-      <c r="J210" s="36"/>
-      <c r="K210" s="36"/>
-    </row>
-    <row r="211" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="J210" s="27"/>
+      <c r="K210" s="27"/>
+    </row>
+    <row r="211" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A211" s="13"/>
       <c r="B211" s="13"/>
       <c r="C211" s="13"/>
@@ -4061,10 +4402,10 @@
       <c r="G211" s="15"/>
       <c r="H211" s="13"/>
       <c r="I211" s="13"/>
-      <c r="J211" s="36"/>
-      <c r="K211" s="36"/>
-    </row>
-    <row r="212" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="J211" s="27"/>
+      <c r="K211" s="27"/>
+    </row>
+    <row r="212" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A212" s="13"/>
       <c r="B212" s="13"/>
       <c r="C212" s="13"/>
@@ -4074,10 +4415,10 @@
       <c r="G212" s="15"/>
       <c r="H212" s="13"/>
       <c r="I212" s="13"/>
-      <c r="J212" s="36"/>
-      <c r="K212" s="36"/>
-    </row>
-    <row r="213" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="J212" s="27"/>
+      <c r="K212" s="27"/>
+    </row>
+    <row r="213" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A213" s="13"/>
       <c r="B213" s="13"/>
       <c r="C213" s="13"/>
@@ -4087,10 +4428,10 @@
       <c r="G213" s="15"/>
       <c r="H213" s="13"/>
       <c r="I213" s="13"/>
-      <c r="J213" s="36"/>
-      <c r="K213" s="36"/>
-    </row>
-    <row r="214" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="J213" s="27"/>
+      <c r="K213" s="27"/>
+    </row>
+    <row r="214" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A214" s="13"/>
       <c r="B214" s="13"/>
       <c r="C214" s="13"/>
@@ -4100,10 +4441,10 @@
       <c r="G214" s="15"/>
       <c r="H214" s="13"/>
       <c r="I214" s="13"/>
-      <c r="J214" s="36"/>
-      <c r="K214" s="36"/>
-    </row>
-    <row r="215" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="J214" s="27"/>
+      <c r="K214" s="27"/>
+    </row>
+    <row r="215" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A215" s="13"/>
       <c r="B215" s="13"/>
       <c r="C215" s="13"/>
@@ -4113,10 +4454,10 @@
       <c r="G215" s="15"/>
       <c r="H215" s="13"/>
       <c r="I215" s="13"/>
-      <c r="J215" s="36"/>
-      <c r="K215" s="36"/>
-    </row>
-    <row r="216" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="J215" s="27"/>
+      <c r="K215" s="27"/>
+    </row>
+    <row r="216" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A216" s="13"/>
       <c r="B216" s="13"/>
       <c r="C216" s="13"/>
@@ -4126,10 +4467,10 @@
       <c r="G216" s="15"/>
       <c r="H216" s="13"/>
       <c r="I216" s="13"/>
-      <c r="J216" s="36"/>
-      <c r="K216" s="36"/>
-    </row>
-    <row r="217" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="J216" s="27"/>
+      <c r="K216" s="27"/>
+    </row>
+    <row r="217" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A217" s="13"/>
       <c r="B217" s="13"/>
       <c r="C217" s="13"/>
@@ -4139,10 +4480,10 @@
       <c r="G217" s="15"/>
       <c r="H217" s="13"/>
       <c r="I217" s="13"/>
-      <c r="J217" s="36"/>
-      <c r="K217" s="36"/>
-    </row>
-    <row r="218" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="J217" s="27"/>
+      <c r="K217" s="27"/>
+    </row>
+    <row r="218" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A218" s="13"/>
       <c r="B218" s="13"/>
       <c r="C218" s="13"/>
@@ -4152,10 +4493,10 @@
       <c r="G218" s="15"/>
       <c r="H218" s="13"/>
       <c r="I218" s="13"/>
-      <c r="J218" s="36"/>
-      <c r="K218" s="36"/>
-    </row>
-    <row r="219" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="J218" s="27"/>
+      <c r="K218" s="27"/>
+    </row>
+    <row r="219" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A219" s="13"/>
       <c r="B219" s="13"/>
       <c r="C219" s="13"/>
@@ -4165,10 +4506,10 @@
       <c r="G219" s="15"/>
       <c r="H219" s="13"/>
       <c r="I219" s="13"/>
-      <c r="J219" s="36"/>
-      <c r="K219" s="36"/>
-    </row>
-    <row r="220" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="J219" s="27"/>
+      <c r="K219" s="27"/>
+    </row>
+    <row r="220" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A220" s="13"/>
       <c r="B220" s="13"/>
       <c r="C220" s="13"/>
@@ -4178,10 +4519,10 @@
       <c r="G220" s="15"/>
       <c r="H220" s="13"/>
       <c r="I220" s="13"/>
-      <c r="J220" s="36"/>
-      <c r="K220" s="36"/>
-    </row>
-    <row r="221" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="J220" s="27"/>
+      <c r="K220" s="27"/>
+    </row>
+    <row r="221" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A221" s="13"/>
       <c r="B221" s="13"/>
       <c r="C221" s="13"/>
@@ -4191,10 +4532,10 @@
       <c r="G221" s="15"/>
       <c r="H221" s="13"/>
       <c r="I221" s="13"/>
-      <c r="J221" s="36"/>
-      <c r="K221" s="36"/>
-    </row>
-    <row r="222" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="J221" s="27"/>
+      <c r="K221" s="27"/>
+    </row>
+    <row r="222" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A222" s="13"/>
       <c r="B222" s="13"/>
       <c r="C222" s="13"/>
@@ -4204,10 +4545,10 @@
       <c r="G222" s="15"/>
       <c r="H222" s="13"/>
       <c r="I222" s="13"/>
-      <c r="J222" s="36"/>
-      <c r="K222" s="36"/>
-    </row>
-    <row r="223" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="J222" s="27"/>
+      <c r="K222" s="27"/>
+    </row>
+    <row r="223" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A223" s="13"/>
       <c r="B223" s="13"/>
       <c r="C223" s="13"/>
@@ -4217,10 +4558,10 @@
       <c r="G223" s="15"/>
       <c r="H223" s="13"/>
       <c r="I223" s="13"/>
-      <c r="J223" s="36"/>
-      <c r="K223" s="36"/>
-    </row>
-    <row r="224" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="J223" s="27"/>
+      <c r="K223" s="27"/>
+    </row>
+    <row r="224" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A224" s="13"/>
       <c r="B224" s="13"/>
       <c r="C224" s="13"/>
@@ -4230,10 +4571,10 @@
       <c r="G224" s="15"/>
       <c r="H224" s="13"/>
       <c r="I224" s="13"/>
-      <c r="J224" s="36"/>
-      <c r="K224" s="36"/>
-    </row>
-    <row r="225" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="J224" s="27"/>
+      <c r="K224" s="27"/>
+    </row>
+    <row r="225" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A225" s="13"/>
       <c r="B225" s="13"/>
       <c r="C225" s="13"/>
@@ -4243,10 +4584,10 @@
       <c r="G225" s="15"/>
       <c r="H225" s="13"/>
       <c r="I225" s="13"/>
-      <c r="J225" s="36"/>
-      <c r="K225" s="36"/>
-    </row>
-    <row r="226" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="J225" s="27"/>
+      <c r="K225" s="27"/>
+    </row>
+    <row r="226" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A226" s="13"/>
       <c r="B226" s="13"/>
       <c r="C226" s="13"/>
@@ -4256,10 +4597,10 @@
       <c r="G226" s="15"/>
       <c r="H226" s="13"/>
       <c r="I226" s="13"/>
-      <c r="J226" s="36"/>
-      <c r="K226" s="36"/>
-    </row>
-    <row r="227" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="J226" s="27"/>
+      <c r="K226" s="27"/>
+    </row>
+    <row r="227" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A227" s="13"/>
       <c r="B227" s="13"/>
       <c r="C227" s="13"/>
@@ -4269,10 +4610,10 @@
       <c r="G227" s="15"/>
       <c r="H227" s="13"/>
       <c r="I227" s="13"/>
-      <c r="J227" s="36"/>
-      <c r="K227" s="36"/>
-    </row>
-    <row r="228" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="J227" s="27"/>
+      <c r="K227" s="27"/>
+    </row>
+    <row r="228" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A228" s="13"/>
       <c r="B228" s="13"/>
       <c r="C228" s="13"/>
@@ -4282,10 +4623,10 @@
       <c r="G228" s="15"/>
       <c r="H228" s="13"/>
       <c r="I228" s="13"/>
-      <c r="J228" s="36"/>
-      <c r="K228" s="36"/>
-    </row>
-    <row r="229" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="J228" s="27"/>
+      <c r="K228" s="27"/>
+    </row>
+    <row r="229" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A229" s="13"/>
       <c r="B229" s="13"/>
       <c r="C229" s="13"/>
@@ -4295,10 +4636,10 @@
       <c r="G229" s="15"/>
       <c r="H229" s="13"/>
       <c r="I229" s="13"/>
-      <c r="J229" s="36"/>
-      <c r="K229" s="36"/>
-    </row>
-    <row r="230" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="J229" s="27"/>
+      <c r="K229" s="27"/>
+    </row>
+    <row r="230" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A230" s="13"/>
       <c r="B230" s="13"/>
       <c r="C230" s="13"/>
@@ -4308,10 +4649,10 @@
       <c r="G230" s="15"/>
       <c r="H230" s="13"/>
       <c r="I230" s="13"/>
-      <c r="J230" s="36"/>
-      <c r="K230" s="36"/>
-    </row>
-    <row r="231" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="J230" s="27"/>
+      <c r="K230" s="27"/>
+    </row>
+    <row r="231" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A231" s="13"/>
       <c r="B231" s="13"/>
       <c r="C231" s="13"/>
@@ -4321,10 +4662,10 @@
       <c r="G231" s="15"/>
       <c r="H231" s="13"/>
       <c r="I231" s="13"/>
-      <c r="J231" s="36"/>
-      <c r="K231" s="36"/>
-    </row>
-    <row r="232" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="J231" s="27"/>
+      <c r="K231" s="27"/>
+    </row>
+    <row r="232" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A232" s="13"/>
       <c r="B232" s="13"/>
       <c r="C232" s="13"/>
@@ -4334,10 +4675,10 @@
       <c r="G232" s="15"/>
       <c r="H232" s="13"/>
       <c r="I232" s="13"/>
-      <c r="J232" s="36"/>
-      <c r="K232" s="36"/>
-    </row>
-    <row r="233" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="J232" s="27"/>
+      <c r="K232" s="27"/>
+    </row>
+    <row r="233" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A233" s="13"/>
       <c r="B233" s="13"/>
       <c r="C233" s="13"/>
@@ -4347,10 +4688,10 @@
       <c r="G233" s="15"/>
       <c r="H233" s="13"/>
       <c r="I233" s="13"/>
-      <c r="J233" s="36"/>
-      <c r="K233" s="36"/>
-    </row>
-    <row r="234" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="J233" s="27"/>
+      <c r="K233" s="27"/>
+    </row>
+    <row r="234" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A234" s="13"/>
       <c r="B234" s="13"/>
       <c r="C234" s="13"/>
@@ -4360,10 +4701,10 @@
       <c r="G234" s="15"/>
       <c r="H234" s="13"/>
       <c r="I234" s="13"/>
-      <c r="J234" s="36"/>
-      <c r="K234" s="36"/>
-    </row>
-    <row r="235" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="J234" s="27"/>
+      <c r="K234" s="27"/>
+    </row>
+    <row r="235" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A235" s="13"/>
       <c r="B235" s="13"/>
       <c r="C235" s="13"/>
@@ -4373,10 +4714,10 @@
       <c r="G235" s="15"/>
       <c r="H235" s="13"/>
       <c r="I235" s="13"/>
-      <c r="J235" s="36"/>
-      <c r="K235" s="36"/>
-    </row>
-    <row r="236" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="J235" s="27"/>
+      <c r="K235" s="27"/>
+    </row>
+    <row r="236" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A236" s="13"/>
       <c r="B236" s="13"/>
       <c r="C236" s="13"/>
@@ -4386,10 +4727,10 @@
       <c r="G236" s="15"/>
       <c r="H236" s="13"/>
       <c r="I236" s="13"/>
-      <c r="J236" s="36"/>
-      <c r="K236" s="36"/>
-    </row>
-    <row r="237" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="J236" s="27"/>
+      <c r="K236" s="27"/>
+    </row>
+    <row r="237" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A237" s="13"/>
       <c r="B237" s="13"/>
       <c r="C237" s="13"/>
@@ -4399,10 +4740,10 @@
       <c r="G237" s="15"/>
       <c r="H237" s="13"/>
       <c r="I237" s="13"/>
-      <c r="J237" s="36"/>
-      <c r="K237" s="36"/>
-    </row>
-    <row r="238" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="J237" s="27"/>
+      <c r="K237" s="27"/>
+    </row>
+    <row r="238" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A238" s="13"/>
       <c r="B238" s="13"/>
       <c r="C238" s="13"/>
@@ -4412,10 +4753,10 @@
       <c r="G238" s="15"/>
       <c r="H238" s="13"/>
       <c r="I238" s="13"/>
-      <c r="J238" s="36"/>
-      <c r="K238" s="36"/>
-    </row>
-    <row r="239" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="J238" s="27"/>
+      <c r="K238" s="27"/>
+    </row>
+    <row r="239" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A239" s="13"/>
       <c r="B239" s="13"/>
       <c r="C239" s="13"/>
@@ -4425,10 +4766,10 @@
       <c r="G239" s="15"/>
       <c r="H239" s="13"/>
       <c r="I239" s="13"/>
-      <c r="J239" s="36"/>
-      <c r="K239" s="36"/>
-    </row>
-    <row r="240" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="J239" s="27"/>
+      <c r="K239" s="27"/>
+    </row>
+    <row r="240" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A240" s="13"/>
       <c r="B240" s="13"/>
       <c r="C240" s="13"/>
@@ -4438,10 +4779,10 @@
       <c r="G240" s="15"/>
       <c r="H240" s="13"/>
       <c r="I240" s="13"/>
-      <c r="J240" s="36"/>
-      <c r="K240" s="36"/>
-    </row>
-    <row r="241" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="J240" s="27"/>
+      <c r="K240" s="27"/>
+    </row>
+    <row r="241" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A241" s="13"/>
       <c r="B241" s="13"/>
       <c r="C241" s="13"/>
@@ -4451,10 +4792,10 @@
       <c r="G241" s="15"/>
       <c r="H241" s="13"/>
       <c r="I241" s="13"/>
-      <c r="J241" s="36"/>
-      <c r="K241" s="36"/>
-    </row>
-    <row r="242" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="J241" s="27"/>
+      <c r="K241" s="27"/>
+    </row>
+    <row r="242" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A242" s="13"/>
       <c r="B242" s="13"/>
       <c r="C242" s="13"/>
@@ -4464,10 +4805,10 @@
       <c r="G242" s="15"/>
       <c r="H242" s="13"/>
       <c r="I242" s="13"/>
-      <c r="J242" s="36"/>
-      <c r="K242" s="36"/>
-    </row>
-    <row r="243" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="J242" s="27"/>
+      <c r="K242" s="27"/>
+    </row>
+    <row r="243" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A243" s="13"/>
       <c r="B243" s="13"/>
       <c r="C243" s="13"/>
@@ -4477,10 +4818,10 @@
       <c r="G243" s="15"/>
       <c r="H243" s="13"/>
       <c r="I243" s="13"/>
-      <c r="J243" s="36"/>
-      <c r="K243" s="36"/>
-    </row>
-    <row r="244" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="J243" s="27"/>
+      <c r="K243" s="27"/>
+    </row>
+    <row r="244" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A244" s="13"/>
       <c r="B244" s="13"/>
       <c r="C244" s="13"/>
@@ -4490,10 +4831,10 @@
       <c r="G244" s="15"/>
       <c r="H244" s="13"/>
       <c r="I244" s="13"/>
-      <c r="J244" s="36"/>
-      <c r="K244" s="36"/>
-    </row>
-    <row r="245" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="J244" s="27"/>
+      <c r="K244" s="27"/>
+    </row>
+    <row r="245" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A245" s="13"/>
       <c r="B245" s="13"/>
       <c r="C245" s="13"/>
@@ -4503,10 +4844,10 @@
       <c r="G245" s="15"/>
       <c r="H245" s="13"/>
       <c r="I245" s="13"/>
-      <c r="J245" s="36"/>
-      <c r="K245" s="36"/>
-    </row>
-    <row r="246" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="J245" s="27"/>
+      <c r="K245" s="27"/>
+    </row>
+    <row r="246" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A246" s="13"/>
       <c r="B246" s="13"/>
       <c r="C246" s="13"/>
@@ -4516,10 +4857,10 @@
       <c r="G246" s="15"/>
       <c r="H246" s="13"/>
       <c r="I246" s="13"/>
-      <c r="J246" s="36"/>
-      <c r="K246" s="36"/>
-    </row>
-    <row r="247" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="J246" s="27"/>
+      <c r="K246" s="27"/>
+    </row>
+    <row r="247" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A247" s="13"/>
       <c r="B247" s="13"/>
       <c r="C247" s="13"/>
@@ -4529,10 +4870,10 @@
       <c r="G247" s="15"/>
       <c r="H247" s="13"/>
       <c r="I247" s="13"/>
-      <c r="J247" s="36"/>
-      <c r="K247" s="36"/>
-    </row>
-    <row r="248" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="J247" s="27"/>
+      <c r="K247" s="27"/>
+    </row>
+    <row r="248" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A248" s="13"/>
       <c r="B248" s="13"/>
       <c r="C248" s="13"/>
@@ -4542,10 +4883,10 @@
       <c r="G248" s="15"/>
       <c r="H248" s="13"/>
       <c r="I248" s="13"/>
-      <c r="J248" s="36"/>
-      <c r="K248" s="36"/>
-    </row>
-    <row r="249" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="J248" s="27"/>
+      <c r="K248" s="27"/>
+    </row>
+    <row r="249" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A249" s="13"/>
       <c r="B249" s="13"/>
       <c r="C249" s="13"/>
@@ -4555,10 +4896,10 @@
       <c r="G249" s="15"/>
       <c r="H249" s="13"/>
       <c r="I249" s="13"/>
-      <c r="J249" s="36"/>
-      <c r="K249" s="36"/>
-    </row>
-    <row r="250" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="J249" s="27"/>
+      <c r="K249" s="27"/>
+    </row>
+    <row r="250" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A250" s="13"/>
       <c r="B250" s="13"/>
       <c r="C250" s="13"/>
@@ -4568,10 +4909,10 @@
       <c r="G250" s="15"/>
       <c r="H250" s="13"/>
       <c r="I250" s="13"/>
-      <c r="J250" s="36"/>
-      <c r="K250" s="36"/>
-    </row>
-    <row r="251" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="J250" s="27"/>
+      <c r="K250" s="27"/>
+    </row>
+    <row r="251" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A251" s="13"/>
       <c r="B251" s="13"/>
       <c r="C251" s="13"/>
@@ -4581,10 +4922,10 @@
       <c r="G251" s="15"/>
       <c r="H251" s="13"/>
       <c r="I251" s="13"/>
-      <c r="J251" s="36"/>
-      <c r="K251" s="36"/>
-    </row>
-    <row r="252" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="J251" s="27"/>
+      <c r="K251" s="27"/>
+    </row>
+    <row r="252" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A252" s="13"/>
       <c r="B252" s="13"/>
       <c r="C252" s="13"/>
@@ -4594,10 +4935,10 @@
       <c r="G252" s="15"/>
       <c r="H252" s="13"/>
       <c r="I252" s="13"/>
-      <c r="J252" s="36"/>
-      <c r="K252" s="36"/>
-    </row>
-    <row r="253" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="J252" s="27"/>
+      <c r="K252" s="27"/>
+    </row>
+    <row r="253" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A253" s="13"/>
       <c r="B253" s="13"/>
       <c r="C253" s="13"/>
@@ -4607,10 +4948,10 @@
       <c r="G253" s="15"/>
       <c r="H253" s="13"/>
       <c r="I253" s="13"/>
-      <c r="J253" s="36"/>
-      <c r="K253" s="36"/>
-    </row>
-    <row r="254" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="J253" s="27"/>
+      <c r="K253" s="27"/>
+    </row>
+    <row r="254" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A254" s="13"/>
       <c r="B254" s="13"/>
       <c r="C254" s="13"/>
@@ -4620,10 +4961,10 @@
       <c r="G254" s="15"/>
       <c r="H254" s="13"/>
       <c r="I254" s="13"/>
-      <c r="J254" s="36"/>
-      <c r="K254" s="36"/>
-    </row>
-    <row r="255" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="J254" s="27"/>
+      <c r="K254" s="27"/>
+    </row>
+    <row r="255" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A255" s="13"/>
       <c r="B255" s="13"/>
       <c r="C255" s="13"/>
@@ -4633,10 +4974,10 @@
       <c r="G255" s="15"/>
       <c r="H255" s="13"/>
       <c r="I255" s="13"/>
-      <c r="J255" s="36"/>
-      <c r="K255" s="36"/>
-    </row>
-    <row r="256" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="J255" s="27"/>
+      <c r="K255" s="27"/>
+    </row>
+    <row r="256" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A256" s="13"/>
       <c r="B256" s="13"/>
       <c r="C256" s="13"/>
@@ -4646,10 +4987,10 @@
       <c r="G256" s="15"/>
       <c r="H256" s="13"/>
       <c r="I256" s="13"/>
-      <c r="J256" s="36"/>
-      <c r="K256" s="36"/>
-    </row>
-    <row r="257" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="J256" s="27"/>
+      <c r="K256" s="27"/>
+    </row>
+    <row r="257" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A257" s="13"/>
       <c r="B257" s="13"/>
       <c r="C257" s="13"/>
@@ -4659,10 +5000,10 @@
       <c r="G257" s="15"/>
       <c r="H257" s="13"/>
       <c r="I257" s="13"/>
-      <c r="J257" s="36"/>
-      <c r="K257" s="36"/>
-    </row>
-    <row r="258" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="J257" s="27"/>
+      <c r="K257" s="27"/>
+    </row>
+    <row r="258" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A258" s="13"/>
       <c r="B258" s="13"/>
       <c r="C258" s="13"/>
@@ -4672,10 +5013,10 @@
       <c r="G258" s="15"/>
       <c r="H258" s="13"/>
       <c r="I258" s="13"/>
-      <c r="J258" s="36"/>
-      <c r="K258" s="36"/>
-    </row>
-    <row r="259" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="J258" s="27"/>
+      <c r="K258" s="27"/>
+    </row>
+    <row r="259" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A259" s="13"/>
       <c r="B259" s="13"/>
       <c r="C259" s="13"/>
@@ -4685,10 +5026,10 @@
       <c r="G259" s="15"/>
       <c r="H259" s="13"/>
       <c r="I259" s="13"/>
-      <c r="J259" s="36"/>
-      <c r="K259" s="36"/>
-    </row>
-    <row r="260" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="J259" s="27"/>
+      <c r="K259" s="27"/>
+    </row>
+    <row r="260" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A260" s="13"/>
       <c r="B260" s="13"/>
       <c r="C260" s="13"/>
@@ -4698,10 +5039,10 @@
       <c r="G260" s="15"/>
       <c r="H260" s="13"/>
       <c r="I260" s="13"/>
-      <c r="J260" s="36"/>
-      <c r="K260" s="36"/>
-    </row>
-    <row r="261" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="J260" s="27"/>
+      <c r="K260" s="27"/>
+    </row>
+    <row r="261" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A261" s="13"/>
       <c r="B261" s="13"/>
       <c r="C261" s="13"/>
@@ -4711,10 +5052,10 @@
       <c r="G261" s="15"/>
       <c r="H261" s="13"/>
       <c r="I261" s="13"/>
-      <c r="J261" s="36"/>
-      <c r="K261" s="36"/>
-    </row>
-    <row r="262" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="J261" s="27"/>
+      <c r="K261" s="27"/>
+    </row>
+    <row r="262" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A262" s="13"/>
       <c r="B262" s="13"/>
       <c r="C262" s="13"/>
@@ -4724,10 +5065,10 @@
       <c r="G262" s="15"/>
       <c r="H262" s="13"/>
       <c r="I262" s="13"/>
-      <c r="J262" s="36"/>
-      <c r="K262" s="36"/>
-    </row>
-    <row r="263" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="J262" s="27"/>
+      <c r="K262" s="27"/>
+    </row>
+    <row r="263" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A263" s="13"/>
       <c r="B263" s="13"/>
       <c r="C263" s="13"/>
@@ -4737,10 +5078,10 @@
       <c r="G263" s="15"/>
       <c r="H263" s="13"/>
       <c r="I263" s="13"/>
-      <c r="J263" s="36"/>
-      <c r="K263" s="36"/>
-    </row>
-    <row r="264" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="J263" s="27"/>
+      <c r="K263" s="27"/>
+    </row>
+    <row r="264" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A264" s="13"/>
       <c r="B264" s="13"/>
       <c r="C264" s="13"/>
@@ -4750,10 +5091,10 @@
       <c r="G264" s="15"/>
       <c r="H264" s="13"/>
       <c r="I264" s="13"/>
-      <c r="J264" s="36"/>
-      <c r="K264" s="36"/>
-    </row>
-    <row r="265" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="J264" s="27"/>
+      <c r="K264" s="27"/>
+    </row>
+    <row r="265" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A265" s="13"/>
       <c r="B265" s="13"/>
       <c r="C265" s="13"/>
@@ -4763,10 +5104,10 @@
       <c r="G265" s="15"/>
       <c r="H265" s="13"/>
       <c r="I265" s="13"/>
-      <c r="J265" s="36"/>
-      <c r="K265" s="36"/>
-    </row>
-    <row r="266" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="J265" s="27"/>
+      <c r="K265" s="27"/>
+    </row>
+    <row r="266" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A266" s="13"/>
       <c r="B266" s="13"/>
       <c r="C266" s="13"/>
@@ -4776,10 +5117,10 @@
       <c r="G266" s="15"/>
       <c r="H266" s="13"/>
       <c r="I266" s="13"/>
-      <c r="J266" s="36"/>
-      <c r="K266" s="36"/>
-    </row>
-    <row r="267" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="J266" s="27"/>
+      <c r="K266" s="27"/>
+    </row>
+    <row r="267" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A267" s="13"/>
       <c r="B267" s="13"/>
       <c r="C267" s="13"/>
@@ -4789,10 +5130,10 @@
       <c r="G267" s="15"/>
       <c r="H267" s="13"/>
       <c r="I267" s="13"/>
-      <c r="J267" s="36"/>
-      <c r="K267" s="36"/>
-    </row>
-    <row r="268" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="J267" s="27"/>
+      <c r="K267" s="27"/>
+    </row>
+    <row r="268" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A268" s="13"/>
       <c r="B268" s="13"/>
       <c r="C268" s="13"/>
@@ -4802,10 +5143,10 @@
       <c r="G268" s="15"/>
       <c r="H268" s="13"/>
       <c r="I268" s="13"/>
-      <c r="J268" s="36"/>
-      <c r="K268" s="36"/>
-    </row>
-    <row r="269" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="J268" s="27"/>
+      <c r="K268" s="27"/>
+    </row>
+    <row r="269" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A269" s="13"/>
       <c r="B269" s="13"/>
       <c r="C269" s="13"/>
@@ -4815,10 +5156,10 @@
       <c r="G269" s="15"/>
       <c r="H269" s="13"/>
       <c r="I269" s="13"/>
-      <c r="J269" s="36"/>
-      <c r="K269" s="36"/>
-    </row>
-    <row r="270" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="J269" s="27"/>
+      <c r="K269" s="27"/>
+    </row>
+    <row r="270" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A270" s="13"/>
       <c r="B270" s="13"/>
       <c r="C270" s="13"/>
@@ -4828,10 +5169,10 @@
       <c r="G270" s="15"/>
       <c r="H270" s="13"/>
       <c r="I270" s="13"/>
-      <c r="J270" s="36"/>
-      <c r="K270" s="36"/>
-    </row>
-    <row r="271" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="J270" s="27"/>
+      <c r="K270" s="27"/>
+    </row>
+    <row r="271" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A271" s="13"/>
       <c r="B271" s="13"/>
       <c r="C271" s="13"/>
@@ -4841,10 +5182,10 @@
       <c r="G271" s="15"/>
       <c r="H271" s="13"/>
       <c r="I271" s="13"/>
-      <c r="J271" s="36"/>
-      <c r="K271" s="36"/>
-    </row>
-    <row r="272" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="J271" s="27"/>
+      <c r="K271" s="27"/>
+    </row>
+    <row r="272" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A272" s="13"/>
       <c r="B272" s="13"/>
       <c r="C272" s="13"/>
@@ -4854,10 +5195,10 @@
       <c r="G272" s="15"/>
       <c r="H272" s="13"/>
       <c r="I272" s="13"/>
-      <c r="J272" s="36"/>
-      <c r="K272" s="36"/>
-    </row>
-    <row r="273" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="J272" s="27"/>
+      <c r="K272" s="27"/>
+    </row>
+    <row r="273" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A273" s="13"/>
       <c r="B273" s="13"/>
       <c r="C273" s="13"/>
@@ -4867,10 +5208,10 @@
       <c r="G273" s="15"/>
       <c r="H273" s="13"/>
       <c r="I273" s="13"/>
-      <c r="J273" s="36"/>
-      <c r="K273" s="36"/>
-    </row>
-    <row r="274" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="J273" s="27"/>
+      <c r="K273" s="27"/>
+    </row>
+    <row r="274" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A274" s="13"/>
       <c r="B274" s="13"/>
       <c r="C274" s="13"/>
@@ -4880,10 +5221,10 @@
       <c r="G274" s="15"/>
       <c r="H274" s="13"/>
       <c r="I274" s="13"/>
-      <c r="J274" s="36"/>
-      <c r="K274" s="36"/>
-    </row>
-    <row r="275" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="J274" s="27"/>
+      <c r="K274" s="27"/>
+    </row>
+    <row r="275" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A275" s="13"/>
       <c r="B275" s="13"/>
       <c r="C275" s="13"/>
@@ -4893,10 +5234,10 @@
       <c r="G275" s="15"/>
       <c r="H275" s="13"/>
       <c r="I275" s="13"/>
-      <c r="J275" s="36"/>
-      <c r="K275" s="36"/>
-    </row>
-    <row r="276" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="J275" s="27"/>
+      <c r="K275" s="27"/>
+    </row>
+    <row r="276" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A276" s="13"/>
       <c r="B276" s="13"/>
       <c r="C276" s="13"/>
@@ -4906,10 +5247,10 @@
       <c r="G276" s="15"/>
       <c r="H276" s="13"/>
       <c r="I276" s="13"/>
-      <c r="J276" s="36"/>
-      <c r="K276" s="36"/>
-    </row>
-    <row r="277" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="J276" s="27"/>
+      <c r="K276" s="27"/>
+    </row>
+    <row r="277" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A277" s="13"/>
       <c r="B277" s="13"/>
       <c r="C277" s="13"/>
@@ -4919,10 +5260,10 @@
       <c r="G277" s="15"/>
       <c r="H277" s="13"/>
       <c r="I277" s="13"/>
-      <c r="J277" s="36"/>
-      <c r="K277" s="36"/>
-    </row>
-    <row r="278" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="J277" s="27"/>
+      <c r="K277" s="27"/>
+    </row>
+    <row r="278" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A278" s="13"/>
       <c r="B278" s="13"/>
       <c r="C278" s="13"/>
@@ -4932,10 +5273,10 @@
       <c r="G278" s="15"/>
       <c r="H278" s="13"/>
       <c r="I278" s="13"/>
-      <c r="J278" s="36"/>
-      <c r="K278" s="36"/>
-    </row>
-    <row r="279" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="J278" s="27"/>
+      <c r="K278" s="27"/>
+    </row>
+    <row r="279" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A279" s="13"/>
       <c r="B279" s="13"/>
       <c r="C279" s="13"/>
@@ -4945,10 +5286,10 @@
       <c r="G279" s="15"/>
       <c r="H279" s="13"/>
       <c r="I279" s="13"/>
-      <c r="J279" s="36"/>
-      <c r="K279" s="36"/>
-    </row>
-    <row r="280" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="J279" s="27"/>
+      <c r="K279" s="27"/>
+    </row>
+    <row r="280" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A280" s="13"/>
       <c r="B280" s="13"/>
       <c r="C280" s="13"/>
@@ -4958,10 +5299,10 @@
       <c r="G280" s="15"/>
       <c r="H280" s="13"/>
       <c r="I280" s="13"/>
-      <c r="J280" s="36"/>
-      <c r="K280" s="36"/>
-    </row>
-    <row r="281" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="J280" s="27"/>
+      <c r="K280" s="27"/>
+    </row>
+    <row r="281" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A281" s="13"/>
       <c r="B281" s="13"/>
       <c r="C281" s="13"/>
@@ -4971,10 +5312,10 @@
       <c r="G281" s="15"/>
       <c r="H281" s="13"/>
       <c r="I281" s="13"/>
-      <c r="J281" s="36"/>
-      <c r="K281" s="36"/>
-    </row>
-    <row r="282" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="J281" s="27"/>
+      <c r="K281" s="27"/>
+    </row>
+    <row r="282" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A282" s="13"/>
       <c r="B282" s="13"/>
       <c r="C282" s="13"/>
@@ -4984,10 +5325,10 @@
       <c r="G282" s="15"/>
       <c r="H282" s="13"/>
       <c r="I282" s="13"/>
-      <c r="J282" s="36"/>
-      <c r="K282" s="36"/>
-    </row>
-    <row r="283" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="J282" s="27"/>
+      <c r="K282" s="27"/>
+    </row>
+    <row r="283" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A283" s="13"/>
       <c r="B283" s="13"/>
       <c r="C283" s="13"/>
@@ -4997,10 +5338,10 @@
       <c r="G283" s="15"/>
       <c r="H283" s="13"/>
       <c r="I283" s="13"/>
-      <c r="J283" s="36"/>
-      <c r="K283" s="36"/>
-    </row>
-    <row r="284" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="J283" s="27"/>
+      <c r="K283" s="27"/>
+    </row>
+    <row r="284" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A284" s="13"/>
       <c r="B284" s="13"/>
       <c r="C284" s="13"/>
@@ -5010,10 +5351,10 @@
       <c r="G284" s="15"/>
       <c r="H284" s="13"/>
       <c r="I284" s="13"/>
-      <c r="J284" s="36"/>
-      <c r="K284" s="36"/>
-    </row>
-    <row r="285" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="J284" s="27"/>
+      <c r="K284" s="27"/>
+    </row>
+    <row r="285" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A285" s="13"/>
       <c r="B285" s="13"/>
       <c r="C285" s="13"/>
@@ -5023,10 +5364,10 @@
       <c r="G285" s="15"/>
       <c r="H285" s="13"/>
       <c r="I285" s="13"/>
-      <c r="J285" s="36"/>
-      <c r="K285" s="36"/>
-    </row>
-    <row r="286" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="J285" s="27"/>
+      <c r="K285" s="27"/>
+    </row>
+    <row r="286" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A286" s="13"/>
       <c r="B286" s="13"/>
       <c r="C286" s="13"/>
@@ -5036,10 +5377,10 @@
       <c r="G286" s="15"/>
       <c r="H286" s="13"/>
       <c r="I286" s="13"/>
-      <c r="J286" s="36"/>
-      <c r="K286" s="36"/>
-    </row>
-    <row r="287" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="J286" s="27"/>
+      <c r="K286" s="27"/>
+    </row>
+    <row r="287" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A287" s="13"/>
       <c r="B287" s="13"/>
       <c r="C287" s="13"/>
@@ -5049,10 +5390,10 @@
       <c r="G287" s="15"/>
       <c r="H287" s="13"/>
       <c r="I287" s="13"/>
-      <c r="J287" s="36"/>
-      <c r="K287" s="36"/>
-    </row>
-    <row r="288" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="J287" s="27"/>
+      <c r="K287" s="27"/>
+    </row>
+    <row r="288" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A288" s="13"/>
       <c r="B288" s="13"/>
       <c r="C288" s="13"/>
@@ -5062,10 +5403,10 @@
       <c r="G288" s="15"/>
       <c r="H288" s="13"/>
       <c r="I288" s="13"/>
-      <c r="J288" s="36"/>
-      <c r="K288" s="36"/>
-    </row>
-    <row r="289" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="J288" s="27"/>
+      <c r="K288" s="27"/>
+    </row>
+    <row r="289" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A289" s="13"/>
       <c r="B289" s="13"/>
       <c r="C289" s="13"/>
@@ -5075,10 +5416,10 @@
       <c r="G289" s="15"/>
       <c r="H289" s="13"/>
       <c r="I289" s="13"/>
-      <c r="J289" s="36"/>
-      <c r="K289" s="36"/>
-    </row>
-    <row r="290" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="J289" s="27"/>
+      <c r="K289" s="27"/>
+    </row>
+    <row r="290" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A290" s="13"/>
       <c r="B290" s="13"/>
       <c r="C290" s="13"/>
@@ -5088,10 +5429,10 @@
       <c r="G290" s="15"/>
       <c r="H290" s="13"/>
       <c r="I290" s="13"/>
-      <c r="J290" s="36"/>
-      <c r="K290" s="36"/>
-    </row>
-    <row r="291" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="J290" s="27"/>
+      <c r="K290" s="27"/>
+    </row>
+    <row r="291" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A291" s="13"/>
       <c r="B291" s="13"/>
       <c r="C291" s="13"/>
@@ -5101,10 +5442,10 @@
       <c r="G291" s="15"/>
       <c r="H291" s="13"/>
       <c r="I291" s="13"/>
-      <c r="J291" s="36"/>
-      <c r="K291" s="36"/>
-    </row>
-    <row r="292" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="J291" s="27"/>
+      <c r="K291" s="27"/>
+    </row>
+    <row r="292" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A292" s="13"/>
       <c r="B292" s="13"/>
       <c r="C292" s="13"/>
@@ -5114,10 +5455,10 @@
       <c r="G292" s="15"/>
       <c r="H292" s="13"/>
       <c r="I292" s="13"/>
-      <c r="J292" s="36"/>
-      <c r="K292" s="36"/>
-    </row>
-    <row r="293" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="J292" s="27"/>
+      <c r="K292" s="27"/>
+    </row>
+    <row r="293" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A293" s="13"/>
       <c r="B293" s="13"/>
       <c r="C293" s="13"/>
@@ -5127,10 +5468,10 @@
       <c r="G293" s="15"/>
       <c r="H293" s="13"/>
       <c r="I293" s="13"/>
-      <c r="J293" s="36"/>
-      <c r="K293" s="36"/>
-    </row>
-    <row r="294" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="J293" s="27"/>
+      <c r="K293" s="27"/>
+    </row>
+    <row r="294" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A294" s="13"/>
       <c r="B294" s="13"/>
       <c r="C294" s="13"/>
@@ -5140,10 +5481,10 @@
       <c r="G294" s="15"/>
       <c r="H294" s="13"/>
       <c r="I294" s="13"/>
-      <c r="J294" s="36"/>
-      <c r="K294" s="36"/>
-    </row>
-    <row r="295" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="J294" s="27"/>
+      <c r="K294" s="27"/>
+    </row>
+    <row r="295" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A295" s="13"/>
       <c r="B295" s="13"/>
       <c r="C295" s="13"/>
@@ -5153,10 +5494,10 @@
       <c r="G295" s="15"/>
       <c r="H295" s="13"/>
       <c r="I295" s="13"/>
-      <c r="J295" s="36"/>
-      <c r="K295" s="36"/>
-    </row>
-    <row r="296" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="J295" s="27"/>
+      <c r="K295" s="27"/>
+    </row>
+    <row r="296" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A296" s="13"/>
       <c r="B296" s="13"/>
       <c r="C296" s="13"/>
@@ -5166,10 +5507,10 @@
       <c r="G296" s="15"/>
       <c r="H296" s="13"/>
       <c r="I296" s="13"/>
-      <c r="J296" s="36"/>
-      <c r="K296" s="36"/>
-    </row>
-    <row r="297" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="J296" s="27"/>
+      <c r="K296" s="27"/>
+    </row>
+    <row r="297" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A297" s="13"/>
       <c r="B297" s="13"/>
       <c r="C297" s="13"/>
@@ -5179,10 +5520,10 @@
       <c r="G297" s="15"/>
       <c r="H297" s="13"/>
       <c r="I297" s="13"/>
-      <c r="J297" s="36"/>
-      <c r="K297" s="36"/>
-    </row>
-    <row r="298" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="J297" s="27"/>
+      <c r="K297" s="27"/>
+    </row>
+    <row r="298" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A298" s="13"/>
       <c r="B298" s="13"/>
       <c r="C298" s="13"/>
@@ -5192,10 +5533,10 @@
       <c r="G298" s="15"/>
       <c r="H298" s="13"/>
       <c r="I298" s="13"/>
-      <c r="J298" s="36"/>
-      <c r="K298" s="36"/>
-    </row>
-    <row r="299" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="J298" s="27"/>
+      <c r="K298" s="27"/>
+    </row>
+    <row r="299" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A299" s="13"/>
       <c r="B299" s="13"/>
       <c r="C299" s="13"/>
@@ -5205,10 +5546,10 @@
       <c r="G299" s="15"/>
       <c r="H299" s="13"/>
       <c r="I299" s="13"/>
-      <c r="J299" s="36"/>
-      <c r="K299" s="36"/>
-    </row>
-    <row r="300" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="J299" s="27"/>
+      <c r="K299" s="27"/>
+    </row>
+    <row r="300" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A300" s="13"/>
       <c r="B300" s="13"/>
       <c r="C300" s="13"/>
@@ -5218,10 +5559,10 @@
       <c r="G300" s="15"/>
       <c r="H300" s="13"/>
       <c r="I300" s="13"/>
-      <c r="J300" s="36"/>
-      <c r="K300" s="36"/>
-    </row>
-    <row r="301" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="J300" s="27"/>
+      <c r="K300" s="27"/>
+    </row>
+    <row r="301" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A301" s="13"/>
       <c r="B301" s="13"/>
       <c r="C301" s="13"/>
@@ -5231,10 +5572,10 @@
       <c r="G301" s="15"/>
       <c r="H301" s="13"/>
       <c r="I301" s="13"/>
-      <c r="J301" s="36"/>
-      <c r="K301" s="36"/>
-    </row>
-    <row r="302" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="J301" s="27"/>
+      <c r="K301" s="27"/>
+    </row>
+    <row r="302" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A302" s="13"/>
       <c r="B302" s="13"/>
       <c r="C302" s="13"/>
@@ -5244,10 +5585,10 @@
       <c r="G302" s="15"/>
       <c r="H302" s="13"/>
       <c r="I302" s="13"/>
-      <c r="J302" s="36"/>
-      <c r="K302" s="36"/>
-    </row>
-    <row r="303" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="J302" s="27"/>
+      <c r="K302" s="27"/>
+    </row>
+    <row r="303" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A303" s="13"/>
       <c r="B303" s="13"/>
       <c r="C303" s="13"/>
@@ -5257,10 +5598,10 @@
       <c r="G303" s="15"/>
       <c r="H303" s="13"/>
       <c r="I303" s="13"/>
-      <c r="J303" s="36"/>
-      <c r="K303" s="36"/>
-    </row>
-    <row r="304" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="J303" s="27"/>
+      <c r="K303" s="27"/>
+    </row>
+    <row r="304" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A304" s="13"/>
       <c r="B304" s="13"/>
       <c r="C304" s="13"/>
@@ -5270,10 +5611,10 @@
       <c r="G304" s="15"/>
       <c r="H304" s="13"/>
       <c r="I304" s="13"/>
-      <c r="J304" s="36"/>
-      <c r="K304" s="36"/>
-    </row>
-    <row r="305" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="J304" s="27"/>
+      <c r="K304" s="27"/>
+    </row>
+    <row r="305" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A305" s="13"/>
       <c r="B305" s="13"/>
       <c r="C305" s="13"/>
@@ -5283,10 +5624,10 @@
       <c r="G305" s="15"/>
       <c r="H305" s="13"/>
       <c r="I305" s="13"/>
-      <c r="J305" s="36"/>
-      <c r="K305" s="36"/>
-    </row>
-    <row r="306" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="J305" s="27"/>
+      <c r="K305" s="27"/>
+    </row>
+    <row r="306" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A306" s="13"/>
       <c r="B306" s="13"/>
       <c r="C306" s="13"/>
@@ -5296,10 +5637,10 @@
       <c r="G306" s="15"/>
       <c r="H306" s="13"/>
       <c r="I306" s="13"/>
-      <c r="J306" s="36"/>
-      <c r="K306" s="36"/>
-    </row>
-    <row r="307" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="J306" s="27"/>
+      <c r="K306" s="27"/>
+    </row>
+    <row r="307" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A307" s="13"/>
       <c r="B307" s="13"/>
       <c r="C307" s="13"/>
@@ -5309,10 +5650,10 @@
       <c r="G307" s="15"/>
       <c r="H307" s="13"/>
       <c r="I307" s="13"/>
-      <c r="J307" s="36"/>
-      <c r="K307" s="36"/>
-    </row>
-    <row r="308" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="J307" s="27"/>
+      <c r="K307" s="27"/>
+    </row>
+    <row r="308" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A308" s="13"/>
       <c r="B308" s="13"/>
       <c r="C308" s="13"/>
@@ -5322,10 +5663,10 @@
       <c r="G308" s="15"/>
       <c r="H308" s="13"/>
       <c r="I308" s="13"/>
-      <c r="J308" s="36"/>
-      <c r="K308" s="36"/>
-    </row>
-    <row r="309" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="J308" s="27"/>
+      <c r="K308" s="27"/>
+    </row>
+    <row r="309" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A309" s="13"/>
       <c r="B309" s="13"/>
       <c r="C309" s="13"/>
@@ -5335,10 +5676,10 @@
       <c r="G309" s="15"/>
       <c r="H309" s="13"/>
       <c r="I309" s="13"/>
-      <c r="J309" s="36"/>
-      <c r="K309" s="36"/>
-    </row>
-    <row r="310" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="J309" s="27"/>
+      <c r="K309" s="27"/>
+    </row>
+    <row r="310" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A310" s="13"/>
       <c r="B310" s="13"/>
       <c r="C310" s="13"/>
@@ -5348,10 +5689,10 @@
       <c r="G310" s="15"/>
       <c r="H310" s="13"/>
       <c r="I310" s="13"/>
-      <c r="J310" s="36"/>
-      <c r="K310" s="36"/>
-    </row>
-    <row r="311" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="J310" s="27"/>
+      <c r="K310" s="27"/>
+    </row>
+    <row r="311" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A311" s="13"/>
       <c r="B311" s="13"/>
       <c r="C311" s="13"/>
@@ -5361,10 +5702,10 @@
       <c r="G311" s="15"/>
       <c r="H311" s="13"/>
       <c r="I311" s="13"/>
-      <c r="J311" s="36"/>
-      <c r="K311" s="36"/>
-    </row>
-    <row r="312" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="J311" s="27"/>
+      <c r="K311" s="27"/>
+    </row>
+    <row r="312" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A312" s="13"/>
       <c r="B312" s="13"/>
       <c r="C312" s="13"/>
@@ -5374,10 +5715,10 @@
       <c r="G312" s="15"/>
       <c r="H312" s="13"/>
       <c r="I312" s="13"/>
-      <c r="J312" s="36"/>
-      <c r="K312" s="36"/>
-    </row>
-    <row r="313" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="J312" s="27"/>
+      <c r="K312" s="27"/>
+    </row>
+    <row r="313" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A313" s="13"/>
       <c r="B313" s="13"/>
       <c r="C313" s="13"/>
@@ -5387,10 +5728,10 @@
       <c r="G313" s="15"/>
       <c r="H313" s="13"/>
       <c r="I313" s="13"/>
-      <c r="J313" s="36"/>
-      <c r="K313" s="36"/>
-    </row>
-    <row r="314" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="J313" s="27"/>
+      <c r="K313" s="27"/>
+    </row>
+    <row r="314" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A314" s="13"/>
       <c r="B314" s="13"/>
       <c r="C314" s="13"/>
@@ -5400,10 +5741,10 @@
       <c r="G314" s="15"/>
       <c r="H314" s="13"/>
       <c r="I314" s="13"/>
-      <c r="J314" s="36"/>
-      <c r="K314" s="36"/>
-    </row>
-    <row r="315" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="J314" s="27"/>
+      <c r="K314" s="27"/>
+    </row>
+    <row r="315" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A315" s="13"/>
       <c r="B315" s="13"/>
       <c r="C315" s="13"/>
@@ -5413,10 +5754,10 @@
       <c r="G315" s="15"/>
       <c r="H315" s="13"/>
       <c r="I315" s="13"/>
-      <c r="J315" s="36"/>
-      <c r="K315" s="36"/>
-    </row>
-    <row r="316" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="J315" s="27"/>
+      <c r="K315" s="27"/>
+    </row>
+    <row r="316" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A316" s="13"/>
       <c r="B316" s="13"/>
       <c r="C316" s="13"/>
@@ -5426,10 +5767,10 @@
       <c r="G316" s="15"/>
       <c r="H316" s="13"/>
       <c r="I316" s="13"/>
-      <c r="J316" s="36"/>
-      <c r="K316" s="36"/>
-    </row>
-    <row r="317" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="J316" s="27"/>
+      <c r="K316" s="27"/>
+    </row>
+    <row r="317" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A317" s="13"/>
       <c r="B317" s="13"/>
       <c r="C317" s="13"/>
@@ -5439,2173 +5780,2336 @@
       <c r="G317" s="15"/>
       <c r="H317" s="13"/>
       <c r="I317" s="13"/>
-      <c r="J317" s="36"/>
-      <c r="K317" s="36"/>
-    </row>
-    <row r="318" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="J317" s="27"/>
+      <c r="K317" s="27"/>
+    </row>
+    <row r="318" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G318" s="2"/>
     </row>
-    <row r="319" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G319" s="2"/>
     </row>
-    <row r="320" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G320" s="2"/>
     </row>
-    <row r="321" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="321" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G321" s="2"/>
     </row>
-    <row r="322" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="322" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G322" s="2"/>
     </row>
-    <row r="323" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="323" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G323" s="2"/>
     </row>
-    <row r="324" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="324" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G324" s="2"/>
     </row>
-    <row r="325" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="325" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G325" s="2"/>
     </row>
-    <row r="326" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="326" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G326" s="2"/>
     </row>
-    <row r="327" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="327" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G327" s="2"/>
     </row>
-    <row r="328" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="328" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G328" s="2"/>
     </row>
-    <row r="329" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="329" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G329" s="2"/>
     </row>
-    <row r="330" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="330" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G330" s="2"/>
     </row>
-    <row r="331" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="331" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G331" s="2"/>
     </row>
-    <row r="332" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="332" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G332" s="2"/>
     </row>
-    <row r="333" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="333" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G333" s="2"/>
     </row>
-    <row r="334" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="334" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G334" s="2"/>
     </row>
-    <row r="335" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="335" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G335" s="2"/>
     </row>
-    <row r="336" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="336" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G336" s="2"/>
     </row>
-    <row r="337" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="337" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G337" s="2"/>
     </row>
-    <row r="338" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="338" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G338" s="2"/>
     </row>
-    <row r="339" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="339" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G339" s="2"/>
     </row>
-    <row r="340" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="340" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G340" s="2"/>
     </row>
-    <row r="341" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="341" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G341" s="2"/>
     </row>
-    <row r="342" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="342" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G342" s="2"/>
     </row>
-    <row r="343" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="343" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G343" s="2"/>
     </row>
-    <row r="344" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="344" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G344" s="2"/>
     </row>
-    <row r="345" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="345" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G345" s="2"/>
     </row>
-    <row r="346" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="346" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G346" s="2"/>
     </row>
-    <row r="347" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="347" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G347" s="2"/>
     </row>
-    <row r="348" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="348" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G348" s="2"/>
     </row>
-    <row r="349" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="349" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G349" s="2"/>
     </row>
-    <row r="350" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="350" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G350" s="2"/>
     </row>
-    <row r="351" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="351" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G351" s="2"/>
     </row>
-    <row r="352" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="352" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G352" s="2"/>
     </row>
-    <row r="353" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="353" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G353" s="2"/>
     </row>
-    <row r="354" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="354" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G354" s="2"/>
     </row>
-    <row r="355" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="355" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G355" s="2"/>
     </row>
-    <row r="356" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="356" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G356" s="2"/>
     </row>
-    <row r="357" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="357" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G357" s="2"/>
     </row>
-    <row r="358" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="358" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G358" s="2"/>
     </row>
-    <row r="359" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="359" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G359" s="2"/>
     </row>
-    <row r="360" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="360" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G360" s="2"/>
     </row>
-    <row r="361" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="361" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G361" s="2"/>
     </row>
-    <row r="362" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="362" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G362" s="2"/>
     </row>
-    <row r="363" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="363" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G363" s="2"/>
     </row>
-    <row r="364" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="364" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G364" s="2"/>
     </row>
-    <row r="365" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="365" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G365" s="2"/>
     </row>
-    <row r="366" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="366" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G366" s="2"/>
     </row>
-    <row r="367" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="367" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G367" s="2"/>
     </row>
-    <row r="368" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="368" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G368" s="2"/>
     </row>
-    <row r="369" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="369" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G369" s="2"/>
     </row>
-    <row r="370" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="370" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G370" s="2"/>
     </row>
-    <row r="371" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="371" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G371" s="2"/>
     </row>
-    <row r="372" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="372" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G372" s="2"/>
     </row>
-    <row r="373" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="373" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G373" s="2"/>
     </row>
-    <row r="374" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="374" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G374" s="2"/>
     </row>
-    <row r="375" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="375" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G375" s="2"/>
     </row>
-    <row r="376" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="376" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G376" s="2"/>
     </row>
-    <row r="377" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="377" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G377" s="2"/>
     </row>
-    <row r="378" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="378" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G378" s="2"/>
     </row>
-    <row r="379" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="379" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G379" s="2"/>
     </row>
-    <row r="380" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="380" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G380" s="2"/>
     </row>
-    <row r="381" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="381" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G381" s="2"/>
     </row>
-    <row r="382" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="382" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G382" s="2"/>
     </row>
-    <row r="383" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="383" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G383" s="2"/>
     </row>
-    <row r="384" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="384" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G384" s="2"/>
     </row>
-    <row r="385" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="385" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G385" s="2"/>
     </row>
-    <row r="386" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="386" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G386" s="2"/>
     </row>
-    <row r="387" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="387" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G387" s="2"/>
     </row>
-    <row r="388" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="388" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G388" s="2"/>
     </row>
-    <row r="389" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="389" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G389" s="2"/>
     </row>
-    <row r="390" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="390" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G390" s="2"/>
     </row>
-    <row r="391" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="391" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G391" s="2"/>
     </row>
-    <row r="392" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="392" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G392" s="2"/>
     </row>
-    <row r="393" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="393" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G393" s="2"/>
     </row>
-    <row r="394" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="394" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G394" s="2"/>
     </row>
-    <row r="395" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="395" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G395" s="2"/>
     </row>
-    <row r="396" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="396" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G396" s="2"/>
     </row>
-    <row r="397" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="397" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G397" s="2"/>
     </row>
-    <row r="398" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="398" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G398" s="2"/>
     </row>
-    <row r="399" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="399" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G399" s="2"/>
     </row>
-    <row r="400" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="400" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G400" s="2"/>
     </row>
-    <row r="401" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="401" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G401" s="2"/>
     </row>
-    <row r="402" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="402" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G402" s="2"/>
     </row>
-    <row r="403" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="403" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G403" s="2"/>
     </row>
-    <row r="404" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="404" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G404" s="2"/>
     </row>
-    <row r="405" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="405" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G405" s="2"/>
     </row>
-    <row r="406" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="406" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G406" s="2"/>
     </row>
-    <row r="407" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="407" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G407" s="2"/>
     </row>
-    <row r="408" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="408" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G408" s="2"/>
     </row>
-    <row r="409" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="409" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G409" s="2"/>
     </row>
-    <row r="410" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="410" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G410" s="2"/>
     </row>
-    <row r="411" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="411" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G411" s="2"/>
     </row>
-    <row r="412" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="412" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G412" s="2"/>
     </row>
-    <row r="413" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="413" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G413" s="2"/>
     </row>
-    <row r="414" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="414" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G414" s="2"/>
     </row>
-    <row r="415" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="415" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G415" s="2"/>
     </row>
-    <row r="416" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="416" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G416" s="2"/>
     </row>
-    <row r="417" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="417" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G417" s="2"/>
     </row>
-    <row r="418" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="418" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G418" s="2"/>
     </row>
-    <row r="419" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="419" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G419" s="2"/>
     </row>
-    <row r="420" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="420" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G420" s="2"/>
     </row>
-    <row r="421" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="421" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G421" s="2"/>
     </row>
-    <row r="422" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="422" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G422" s="2"/>
     </row>
-    <row r="423" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="423" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G423" s="2"/>
     </row>
-    <row r="424" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="424" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G424" s="2"/>
     </row>
-    <row r="425" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="425" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G425" s="2"/>
     </row>
-    <row r="426" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="426" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G426" s="2"/>
     </row>
-    <row r="427" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="427" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G427" s="2"/>
     </row>
-    <row r="428" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="428" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G428" s="2"/>
     </row>
-    <row r="429" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="429" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G429" s="2"/>
     </row>
-    <row r="430" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="430" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G430" s="2"/>
     </row>
-    <row r="431" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="431" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G431" s="2"/>
     </row>
-    <row r="432" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="432" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G432" s="2"/>
     </row>
-    <row r="433" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="433" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G433" s="2"/>
     </row>
-    <row r="434" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="434" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G434" s="2"/>
     </row>
-    <row r="435" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="435" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G435" s="2"/>
     </row>
-    <row r="436" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="436" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G436" s="2"/>
     </row>
-    <row r="437" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="437" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G437" s="2"/>
     </row>
-    <row r="438" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="438" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G438" s="2"/>
     </row>
-    <row r="439" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="439" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G439" s="2"/>
     </row>
-    <row r="440" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="440" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G440" s="2"/>
     </row>
-    <row r="441" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="441" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G441" s="2"/>
     </row>
-    <row r="442" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="442" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G442" s="2"/>
     </row>
-    <row r="443" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="443" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G443" s="2"/>
     </row>
-    <row r="444" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="444" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G444" s="2"/>
     </row>
-    <row r="445" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="445" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G445" s="2"/>
     </row>
-    <row r="446" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="446" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G446" s="2"/>
     </row>
-    <row r="447" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="447" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G447" s="2"/>
     </row>
-    <row r="448" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="448" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G448" s="2"/>
     </row>
-    <row r="449" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="449" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G449" s="2"/>
     </row>
-    <row r="450" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="450" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G450" s="2"/>
     </row>
-    <row r="451" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="451" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G451" s="2"/>
     </row>
-    <row r="452" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="452" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G452" s="2"/>
     </row>
-    <row r="453" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="453" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G453" s="2"/>
     </row>
-    <row r="454" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="454" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G454" s="2"/>
     </row>
-    <row r="455" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="455" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G455" s="2"/>
     </row>
-    <row r="456" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="456" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G456" s="2"/>
     </row>
-    <row r="457" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="457" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G457" s="2"/>
     </row>
-    <row r="458" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="458" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G458" s="2"/>
     </row>
-    <row r="459" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="459" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G459" s="2"/>
     </row>
-    <row r="460" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="460" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G460" s="2"/>
     </row>
-    <row r="461" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="461" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G461" s="2"/>
     </row>
-    <row r="462" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="462" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G462" s="2"/>
     </row>
-    <row r="463" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="463" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G463" s="2"/>
     </row>
-    <row r="464" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="464" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G464" s="2"/>
     </row>
-    <row r="465" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="465" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G465" s="2"/>
     </row>
-    <row r="466" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="466" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G466" s="2"/>
     </row>
-    <row r="467" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="467" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G467" s="2"/>
     </row>
-    <row r="468" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="468" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G468" s="2"/>
     </row>
-    <row r="469" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="469" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G469" s="2"/>
     </row>
-    <row r="470" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="470" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G470" s="2"/>
     </row>
-    <row r="471" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="471" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G471" s="2"/>
     </row>
-    <row r="472" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="472" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G472" s="2"/>
     </row>
-    <row r="473" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="473" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G473" s="2"/>
     </row>
-    <row r="474" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="474" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G474" s="2"/>
     </row>
-    <row r="475" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="475" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G475" s="2"/>
     </row>
-    <row r="476" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="476" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G476" s="2"/>
     </row>
-    <row r="477" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="477" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G477" s="2"/>
     </row>
-    <row r="478" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="478" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G478" s="2"/>
     </row>
-    <row r="479" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="479" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G479" s="2"/>
     </row>
-    <row r="480" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="480" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G480" s="2"/>
     </row>
-    <row r="481" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="481" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G481" s="2"/>
     </row>
-    <row r="482" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="482" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G482" s="2"/>
     </row>
-    <row r="483" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="483" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G483" s="2"/>
     </row>
-    <row r="484" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="484" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G484" s="2"/>
     </row>
-    <row r="485" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="485" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G485" s="2"/>
     </row>
-    <row r="486" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="486" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G486" s="2"/>
     </row>
-    <row r="487" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="487" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G487" s="2"/>
     </row>
-    <row r="488" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="488" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G488" s="2"/>
     </row>
-    <row r="489" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="489" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G489" s="2"/>
     </row>
-    <row r="490" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="490" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G490" s="2"/>
     </row>
-    <row r="491" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="491" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G491" s="2"/>
     </row>
-    <row r="492" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="492" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G492" s="2"/>
     </row>
-    <row r="493" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="493" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G493" s="2"/>
     </row>
-    <row r="494" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="494" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G494" s="2"/>
     </row>
-    <row r="495" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="495" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G495" s="2"/>
     </row>
-    <row r="496" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="496" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G496" s="2"/>
     </row>
-    <row r="497" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="497" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G497" s="2"/>
     </row>
-    <row r="498" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="498" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G498" s="2"/>
     </row>
-    <row r="499" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="499" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G499" s="2"/>
     </row>
-    <row r="500" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="500" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G500" s="2"/>
     </row>
-    <row r="501" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="501" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G501" s="2"/>
     </row>
-    <row r="502" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="502" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G502" s="2"/>
     </row>
-    <row r="503" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="503" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G503" s="2"/>
     </row>
-    <row r="504" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="504" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G504" s="2"/>
     </row>
-    <row r="505" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="505" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G505" s="2"/>
     </row>
-    <row r="506" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="506" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G506" s="2"/>
     </row>
-    <row r="507" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="507" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G507" s="2"/>
     </row>
-    <row r="508" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="508" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G508" s="2"/>
     </row>
-    <row r="509" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="509" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G509" s="2"/>
     </row>
-    <row r="510" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="510" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G510" s="2"/>
     </row>
-    <row r="511" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="511" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G511" s="2"/>
     </row>
-    <row r="512" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="512" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G512" s="2"/>
     </row>
-    <row r="513" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="513" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G513" s="2"/>
     </row>
-    <row r="514" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="514" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G514" s="2"/>
     </row>
-    <row r="515" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="515" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G515" s="2"/>
     </row>
-    <row r="516" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="516" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G516" s="2"/>
     </row>
-    <row r="517" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="517" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G517" s="2"/>
     </row>
-    <row r="518" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="518" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G518" s="2"/>
     </row>
-    <row r="519" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="519" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G519" s="2"/>
     </row>
-    <row r="520" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="520" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G520" s="2"/>
     </row>
-    <row r="521" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="521" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G521" s="2"/>
     </row>
-    <row r="522" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="522" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G522" s="2"/>
     </row>
-    <row r="523" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="523" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G523" s="2"/>
     </row>
-    <row r="524" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="524" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G524" s="2"/>
     </row>
-    <row r="525" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="525" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G525" s="2"/>
     </row>
-    <row r="526" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="526" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G526" s="2"/>
     </row>
-    <row r="527" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="527" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G527" s="2"/>
     </row>
-    <row r="528" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="528" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G528" s="2"/>
     </row>
-    <row r="529" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="529" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G529" s="2"/>
     </row>
-    <row r="530" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="530" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G530" s="2"/>
     </row>
-    <row r="531" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="531" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G531" s="2"/>
     </row>
-    <row r="532" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="532" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G532" s="2"/>
     </row>
-    <row r="533" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="533" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G533" s="2"/>
     </row>
-    <row r="534" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="534" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G534" s="2"/>
     </row>
-    <row r="535" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="535" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G535" s="2"/>
     </row>
-    <row r="536" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="536" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G536" s="2"/>
     </row>
-    <row r="537" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="537" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G537" s="2"/>
     </row>
-    <row r="538" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="538" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G538" s="2"/>
     </row>
-    <row r="539" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="539" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G539" s="2"/>
     </row>
-    <row r="540" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="540" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G540" s="2"/>
     </row>
-    <row r="541" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="541" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G541" s="2"/>
     </row>
-    <row r="542" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="542" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G542" s="2"/>
     </row>
-    <row r="543" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="543" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G543" s="2"/>
     </row>
-    <row r="544" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="544" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G544" s="2"/>
     </row>
-    <row r="545" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="545" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G545" s="2"/>
     </row>
-    <row r="546" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="546" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G546" s="2"/>
     </row>
-    <row r="547" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="547" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G547" s="2"/>
     </row>
-    <row r="548" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="548" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G548" s="2"/>
     </row>
-    <row r="549" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="549" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G549" s="2"/>
     </row>
-    <row r="550" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="550" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G550" s="2"/>
     </row>
-    <row r="551" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="551" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G551" s="2"/>
     </row>
-    <row r="552" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="552" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G552" s="2"/>
     </row>
-    <row r="553" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="553" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G553" s="2"/>
     </row>
-    <row r="554" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="554" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G554" s="2"/>
     </row>
-    <row r="555" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="555" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G555" s="2"/>
     </row>
-    <row r="556" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="556" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G556" s="2"/>
     </row>
-    <row r="557" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="557" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G557" s="2"/>
     </row>
-    <row r="558" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="558" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G558" s="2"/>
     </row>
-    <row r="559" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="559" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G559" s="2"/>
     </row>
-    <row r="560" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="560" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G560" s="2"/>
     </row>
-    <row r="561" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="561" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G561" s="2"/>
     </row>
-    <row r="562" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="562" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G562" s="2"/>
     </row>
-    <row r="563" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="563" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G563" s="2"/>
     </row>
-    <row r="564" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="564" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G564" s="2"/>
     </row>
-    <row r="565" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="565" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G565" s="2"/>
     </row>
-    <row r="566" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="566" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G566" s="2"/>
     </row>
-    <row r="567" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="567" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G567" s="2"/>
     </row>
-    <row r="568" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="568" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G568" s="2"/>
     </row>
-    <row r="569" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="569" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G569" s="2"/>
     </row>
-    <row r="570" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="570" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G570" s="2"/>
     </row>
-    <row r="571" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="571" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G571" s="2"/>
     </row>
-    <row r="572" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="572" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G572" s="2"/>
     </row>
-    <row r="573" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="573" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G573" s="2"/>
     </row>
-    <row r="574" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="574" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G574" s="2"/>
     </row>
-    <row r="575" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="575" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G575" s="2"/>
     </row>
-    <row r="576" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="576" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G576" s="2"/>
     </row>
-    <row r="577" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="577" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G577" s="2"/>
     </row>
-    <row r="578" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="578" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G578" s="2"/>
     </row>
-    <row r="579" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="579" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G579" s="2"/>
     </row>
-    <row r="580" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="580" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G580" s="2"/>
     </row>
-    <row r="581" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="581" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G581" s="2"/>
     </row>
-    <row r="582" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="582" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G582" s="2"/>
     </row>
-    <row r="583" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="583" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G583" s="2"/>
     </row>
-    <row r="584" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="584" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G584" s="2"/>
     </row>
-    <row r="585" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="585" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G585" s="2"/>
     </row>
-    <row r="586" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="586" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G586" s="2"/>
     </row>
-    <row r="587" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="587" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G587" s="2"/>
     </row>
-    <row r="588" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="588" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G588" s="2"/>
     </row>
-    <row r="589" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="589" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G589" s="2"/>
     </row>
-    <row r="590" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="590" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G590" s="2"/>
     </row>
-    <row r="591" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="591" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G591" s="2"/>
     </row>
-    <row r="592" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="592" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G592" s="2"/>
     </row>
-    <row r="593" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="593" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G593" s="2"/>
     </row>
-    <row r="594" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="594" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G594" s="2"/>
     </row>
-    <row r="595" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="595" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G595" s="2"/>
     </row>
-    <row r="596" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="596" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G596" s="2"/>
     </row>
-    <row r="597" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="597" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G597" s="2"/>
     </row>
-    <row r="598" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="598" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G598" s="2"/>
     </row>
-    <row r="599" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="599" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G599" s="2"/>
     </row>
-    <row r="600" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="600" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G600" s="2"/>
     </row>
-    <row r="601" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="601" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G601" s="2"/>
     </row>
-    <row r="602" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="602" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G602" s="2"/>
     </row>
-    <row r="603" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="603" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G603" s="2"/>
     </row>
-    <row r="604" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="604" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G604" s="2"/>
     </row>
-    <row r="605" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="605" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G605" s="2"/>
     </row>
-    <row r="606" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="606" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G606" s="2"/>
     </row>
-    <row r="607" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="607" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G607" s="2"/>
     </row>
-    <row r="608" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="608" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G608" s="2"/>
     </row>
-    <row r="609" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="609" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G609" s="2"/>
     </row>
-    <row r="610" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="610" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G610" s="2"/>
     </row>
-    <row r="611" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="611" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G611" s="2"/>
     </row>
-    <row r="612" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="612" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G612" s="2"/>
     </row>
-    <row r="613" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="613" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G613" s="2"/>
     </row>
-    <row r="614" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="614" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G614" s="2"/>
     </row>
-    <row r="615" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="615" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G615" s="2"/>
     </row>
-    <row r="616" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="616" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G616" s="2"/>
     </row>
-    <row r="617" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="617" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G617" s="2"/>
     </row>
-    <row r="618" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="618" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G618" s="2"/>
     </row>
-    <row r="619" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="619" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G619" s="2"/>
     </row>
-    <row r="620" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="620" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G620" s="2"/>
     </row>
-    <row r="621" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="621" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G621" s="2"/>
     </row>
-    <row r="622" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="622" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G622" s="2"/>
     </row>
-    <row r="623" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="623" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G623" s="2"/>
     </row>
-    <row r="624" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="624" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G624" s="2"/>
     </row>
-    <row r="625" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="625" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G625" s="2"/>
     </row>
-    <row r="626" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="626" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G626" s="2"/>
     </row>
-    <row r="627" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="627" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G627" s="2"/>
     </row>
-    <row r="628" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="628" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G628" s="2"/>
     </row>
-    <row r="629" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="629" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G629" s="2"/>
     </row>
-    <row r="630" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="630" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G630" s="2"/>
     </row>
-    <row r="631" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="631" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G631" s="2"/>
     </row>
-    <row r="632" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="632" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G632" s="2"/>
     </row>
-    <row r="633" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="633" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G633" s="2"/>
     </row>
-    <row r="634" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="634" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G634" s="2"/>
     </row>
-    <row r="635" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="635" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G635" s="2"/>
     </row>
-    <row r="636" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="636" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G636" s="2"/>
     </row>
-    <row r="637" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="637" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G637" s="2"/>
     </row>
-    <row r="638" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="638" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G638" s="2"/>
     </row>
-    <row r="639" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="639" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G639" s="2"/>
     </row>
-    <row r="640" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="640" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G640" s="2"/>
     </row>
-    <row r="641" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="641" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G641" s="2"/>
     </row>
-    <row r="642" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="642" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G642" s="2"/>
     </row>
-    <row r="643" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="643" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G643" s="2"/>
     </row>
-    <row r="644" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="644" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G644" s="2"/>
     </row>
-    <row r="645" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="645" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G645" s="2"/>
     </row>
-    <row r="646" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="646" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G646" s="2"/>
     </row>
-    <row r="647" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="647" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G647" s="2"/>
     </row>
-    <row r="648" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="648" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G648" s="2"/>
     </row>
-    <row r="649" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="649" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G649" s="2"/>
     </row>
-    <row r="650" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="650" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G650" s="2"/>
     </row>
-    <row r="651" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="651" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G651" s="2"/>
     </row>
-    <row r="652" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="652" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G652" s="2"/>
     </row>
-    <row r="653" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="653" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G653" s="2"/>
     </row>
-    <row r="654" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="654" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G654" s="2"/>
     </row>
-    <row r="655" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="655" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G655" s="2"/>
     </row>
-    <row r="656" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="656" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G656" s="2"/>
     </row>
-    <row r="657" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="657" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G657" s="2"/>
     </row>
-    <row r="658" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="658" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G658" s="2"/>
     </row>
-    <row r="659" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="659" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G659" s="2"/>
     </row>
-    <row r="660" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="660" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G660" s="2"/>
     </row>
-    <row r="661" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="661" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G661" s="2"/>
     </row>
-    <row r="662" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="662" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G662" s="2"/>
     </row>
-    <row r="663" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="663" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G663" s="2"/>
     </row>
-    <row r="664" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="664" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G664" s="2"/>
     </row>
-    <row r="665" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="665" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G665" s="2"/>
     </row>
-    <row r="666" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="666" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G666" s="2"/>
     </row>
-    <row r="667" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="667" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G667" s="2"/>
     </row>
-    <row r="668" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="668" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G668" s="2"/>
     </row>
-    <row r="669" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="669" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G669" s="2"/>
     </row>
-    <row r="670" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="670" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G670" s="2"/>
     </row>
-    <row r="671" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="671" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G671" s="2"/>
     </row>
-    <row r="672" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="672" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G672" s="2"/>
     </row>
-    <row r="673" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="673" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G673" s="2"/>
     </row>
-    <row r="674" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="674" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G674" s="2"/>
     </row>
-    <row r="675" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="675" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G675" s="2"/>
     </row>
-    <row r="676" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="676" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G676" s="2"/>
     </row>
-    <row r="677" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="677" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G677" s="2"/>
     </row>
-    <row r="678" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="678" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G678" s="2"/>
     </row>
-    <row r="679" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="679" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G679" s="2"/>
     </row>
-    <row r="680" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="680" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G680" s="2"/>
     </row>
-    <row r="681" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="681" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G681" s="2"/>
     </row>
-    <row r="682" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="682" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G682" s="2"/>
     </row>
-    <row r="683" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="683" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G683" s="2"/>
     </row>
-    <row r="684" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="684" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G684" s="2"/>
     </row>
-    <row r="685" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="685" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G685" s="2"/>
     </row>
-    <row r="686" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="686" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G686" s="2"/>
     </row>
-    <row r="687" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="687" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G687" s="2"/>
     </row>
-    <row r="688" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="688" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G688" s="2"/>
     </row>
-    <row r="689" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="689" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G689" s="2"/>
     </row>
-    <row r="690" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="690" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G690" s="2"/>
     </row>
-    <row r="691" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="691" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G691" s="2"/>
     </row>
-    <row r="692" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="692" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G692" s="2"/>
     </row>
-    <row r="693" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="693" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G693" s="2"/>
     </row>
-    <row r="694" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="694" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G694" s="2"/>
     </row>
-    <row r="695" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="695" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G695" s="2"/>
     </row>
-    <row r="696" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="696" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G696" s="2"/>
     </row>
-    <row r="697" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="697" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G697" s="2"/>
     </row>
-    <row r="698" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="698" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G698" s="2"/>
     </row>
-    <row r="699" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="699" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G699" s="2"/>
     </row>
-    <row r="700" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="700" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G700" s="2"/>
     </row>
-    <row r="701" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="701" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G701" s="2"/>
     </row>
-    <row r="702" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="702" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G702" s="2"/>
     </row>
-    <row r="703" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="703" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G703" s="2"/>
     </row>
-    <row r="704" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="704" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G704" s="2"/>
     </row>
-    <row r="705" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="705" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G705" s="2"/>
     </row>
-    <row r="706" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="706" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G706" s="2"/>
     </row>
-    <row r="707" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="707" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G707" s="2"/>
     </row>
-    <row r="708" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="708" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G708" s="2"/>
     </row>
-    <row r="709" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="709" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G709" s="2"/>
     </row>
-    <row r="710" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="710" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G710" s="2"/>
     </row>
-    <row r="711" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="711" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G711" s="2"/>
     </row>
-    <row r="712" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="712" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G712" s="2"/>
     </row>
-    <row r="713" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="713" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G713" s="2"/>
     </row>
-    <row r="714" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="714" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G714" s="2"/>
     </row>
-    <row r="715" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="715" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G715" s="2"/>
     </row>
-    <row r="716" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="716" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G716" s="2"/>
     </row>
-    <row r="717" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="717" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G717" s="2"/>
     </row>
-    <row r="718" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="718" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G718" s="2"/>
     </row>
-    <row r="719" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="719" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G719" s="2"/>
     </row>
-    <row r="720" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="720" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G720" s="2"/>
     </row>
-    <row r="721" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="721" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G721" s="2"/>
     </row>
-    <row r="722" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="722" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G722" s="2"/>
     </row>
-    <row r="723" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="723" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G723" s="2"/>
     </row>
-    <row r="724" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="724" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G724" s="2"/>
     </row>
-    <row r="725" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="725" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G725" s="2"/>
     </row>
-    <row r="726" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="726" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G726" s="2"/>
     </row>
-    <row r="727" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="727" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G727" s="2"/>
     </row>
-    <row r="728" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="728" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G728" s="2"/>
     </row>
-    <row r="729" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="729" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G729" s="2"/>
     </row>
-    <row r="730" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="730" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G730" s="2"/>
     </row>
-    <row r="731" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="731" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G731" s="2"/>
     </row>
-    <row r="732" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="732" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G732" s="2"/>
     </row>
-    <row r="733" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="733" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G733" s="2"/>
     </row>
-    <row r="734" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="734" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G734" s="2"/>
     </row>
-    <row r="735" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="735" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G735" s="2"/>
     </row>
-    <row r="736" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="736" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G736" s="2"/>
     </row>
-    <row r="737" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="737" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G737" s="2"/>
     </row>
-    <row r="738" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="738" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G738" s="2"/>
     </row>
-    <row r="739" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="739" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G739" s="2"/>
     </row>
-    <row r="740" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="740" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G740" s="2"/>
     </row>
-    <row r="741" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="741" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G741" s="2"/>
     </row>
-    <row r="742" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="742" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G742" s="2"/>
     </row>
-    <row r="743" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="743" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G743" s="2"/>
     </row>
-    <row r="744" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="744" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G744" s="2"/>
     </row>
-    <row r="745" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="745" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G745" s="2"/>
     </row>
-    <row r="746" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="746" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G746" s="2"/>
     </row>
-    <row r="747" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="747" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G747" s="2"/>
     </row>
-    <row r="748" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="748" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G748" s="2"/>
     </row>
-    <row r="749" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="749" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G749" s="2"/>
     </row>
-    <row r="750" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="750" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G750" s="2"/>
     </row>
-    <row r="751" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="751" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G751" s="2"/>
     </row>
-    <row r="752" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="752" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G752" s="2"/>
     </row>
-    <row r="753" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="753" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G753" s="2"/>
     </row>
-    <row r="754" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="754" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G754" s="2"/>
     </row>
-    <row r="755" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="755" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G755" s="2"/>
     </row>
-    <row r="756" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="756" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G756" s="2"/>
     </row>
-    <row r="757" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="757" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G757" s="2"/>
     </row>
-    <row r="758" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="758" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G758" s="2"/>
     </row>
-    <row r="759" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="759" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G759" s="2"/>
     </row>
-    <row r="760" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="760" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G760" s="2"/>
     </row>
-    <row r="761" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="761" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G761" s="2"/>
     </row>
-    <row r="762" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="762" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G762" s="2"/>
     </row>
-    <row r="763" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="763" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G763" s="2"/>
     </row>
-    <row r="764" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="764" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G764" s="2"/>
     </row>
-    <row r="765" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="765" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G765" s="2"/>
     </row>
-    <row r="766" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="766" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G766" s="2"/>
     </row>
-    <row r="767" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="767" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G767" s="2"/>
     </row>
-    <row r="768" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="768" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G768" s="2"/>
     </row>
-    <row r="769" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="769" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G769" s="2"/>
     </row>
-    <row r="770" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="770" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G770" s="2"/>
     </row>
-    <row r="771" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="771" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G771" s="2"/>
     </row>
-    <row r="772" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="772" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G772" s="2"/>
     </row>
-    <row r="773" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="773" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G773" s="2"/>
     </row>
-    <row r="774" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="774" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G774" s="2"/>
     </row>
-    <row r="775" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="775" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G775" s="2"/>
     </row>
-    <row r="776" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="776" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G776" s="2"/>
     </row>
-    <row r="777" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="777" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G777" s="2"/>
     </row>
-    <row r="778" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="778" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G778" s="2"/>
     </row>
-    <row r="779" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="779" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G779" s="2"/>
     </row>
-    <row r="780" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="780" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G780" s="2"/>
     </row>
-    <row r="781" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="781" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G781" s="2"/>
     </row>
-    <row r="782" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="782" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G782" s="2"/>
     </row>
-    <row r="783" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="783" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G783" s="2"/>
     </row>
-    <row r="784" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="784" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G784" s="2"/>
     </row>
-    <row r="785" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="785" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G785" s="2"/>
     </row>
-    <row r="786" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="786" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G786" s="2"/>
     </row>
-    <row r="787" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="787" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G787" s="2"/>
     </row>
-    <row r="788" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="788" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G788" s="2"/>
     </row>
-    <row r="789" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="789" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G789" s="2"/>
     </row>
-    <row r="790" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="790" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G790" s="2"/>
     </row>
-    <row r="791" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="791" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G791" s="2"/>
     </row>
-    <row r="792" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="792" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G792" s="2"/>
     </row>
-    <row r="793" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="793" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G793" s="2"/>
     </row>
-    <row r="794" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="794" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G794" s="2"/>
     </row>
-    <row r="795" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="795" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G795" s="2"/>
     </row>
-    <row r="796" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="796" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G796" s="2"/>
     </row>
-    <row r="797" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="797" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G797" s="2"/>
     </row>
-    <row r="798" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="798" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G798" s="2"/>
     </row>
-    <row r="799" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="799" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G799" s="2"/>
     </row>
-    <row r="800" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="800" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G800" s="2"/>
     </row>
-    <row r="801" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="801" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G801" s="2"/>
     </row>
-    <row r="802" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="802" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G802" s="2"/>
     </row>
-    <row r="803" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="803" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G803" s="2"/>
     </row>
-    <row r="804" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="804" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G804" s="2"/>
     </row>
-    <row r="805" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="805" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G805" s="2"/>
     </row>
-    <row r="806" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="806" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G806" s="2"/>
     </row>
-    <row r="807" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="807" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G807" s="2"/>
     </row>
-    <row r="808" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="808" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G808" s="2"/>
     </row>
-    <row r="809" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="809" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G809" s="2"/>
     </row>
-    <row r="810" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="810" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G810" s="2"/>
     </row>
-    <row r="811" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="811" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G811" s="2"/>
     </row>
-    <row r="812" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="812" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G812" s="2"/>
     </row>
-    <row r="813" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="813" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G813" s="2"/>
     </row>
-    <row r="814" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="814" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G814" s="2"/>
     </row>
-    <row r="815" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="815" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G815" s="2"/>
     </row>
-    <row r="816" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="816" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G816" s="2"/>
     </row>
-    <row r="817" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="817" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G817" s="2"/>
     </row>
-    <row r="818" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="818" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G818" s="2"/>
     </row>
-    <row r="819" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="819" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G819" s="2"/>
     </row>
-    <row r="820" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="820" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G820" s="2"/>
     </row>
-    <row r="821" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="821" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G821" s="2"/>
     </row>
-    <row r="822" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="822" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G822" s="2"/>
     </row>
-    <row r="823" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="823" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G823" s="2"/>
     </row>
-    <row r="824" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="824" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G824" s="2"/>
     </row>
-    <row r="825" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="825" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G825" s="2"/>
     </row>
-    <row r="826" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="826" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G826" s="2"/>
     </row>
-    <row r="827" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="827" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G827" s="2"/>
     </row>
-    <row r="828" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="828" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G828" s="2"/>
     </row>
-    <row r="829" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="829" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G829" s="2"/>
     </row>
-    <row r="830" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="830" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G830" s="2"/>
     </row>
-    <row r="831" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="831" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G831" s="2"/>
     </row>
-    <row r="832" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="832" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G832" s="2"/>
     </row>
-    <row r="833" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="833" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G833" s="2"/>
     </row>
-    <row r="834" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="834" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G834" s="2"/>
     </row>
-    <row r="835" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="835" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G835" s="2"/>
     </row>
-    <row r="836" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="836" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G836" s="2"/>
     </row>
-    <row r="837" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="837" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G837" s="2"/>
     </row>
-    <row r="838" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="838" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G838" s="2"/>
     </row>
-    <row r="839" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="839" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G839" s="2"/>
     </row>
-    <row r="840" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="840" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G840" s="2"/>
     </row>
-    <row r="841" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="841" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G841" s="2"/>
     </row>
-    <row r="842" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="842" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G842" s="2"/>
     </row>
-    <row r="843" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="843" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G843" s="2"/>
     </row>
-    <row r="844" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="844" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G844" s="2"/>
     </row>
-    <row r="845" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="845" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G845" s="2"/>
     </row>
-    <row r="846" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="846" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G846" s="2"/>
     </row>
-    <row r="847" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="847" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G847" s="2"/>
     </row>
-    <row r="848" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="848" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G848" s="2"/>
     </row>
-    <row r="849" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="849" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G849" s="2"/>
     </row>
-    <row r="850" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="850" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G850" s="2"/>
     </row>
-    <row r="851" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="851" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G851" s="2"/>
     </row>
-    <row r="852" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="852" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G852" s="2"/>
     </row>
-    <row r="853" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="853" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G853" s="2"/>
     </row>
-    <row r="854" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="854" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G854" s="2"/>
     </row>
-    <row r="855" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="855" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G855" s="2"/>
     </row>
-    <row r="856" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="856" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G856" s="2"/>
     </row>
-    <row r="857" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="857" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G857" s="2"/>
     </row>
-    <row r="858" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="858" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G858" s="2"/>
     </row>
-    <row r="859" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="859" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G859" s="2"/>
     </row>
-    <row r="860" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="860" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G860" s="2"/>
     </row>
-    <row r="861" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="861" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G861" s="2"/>
     </row>
-    <row r="862" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="862" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G862" s="2"/>
     </row>
-    <row r="863" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="863" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G863" s="2"/>
     </row>
-    <row r="864" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="864" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G864" s="2"/>
     </row>
-    <row r="865" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="865" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G865" s="2"/>
     </row>
-    <row r="866" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="866" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G866" s="2"/>
     </row>
-    <row r="867" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="867" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G867" s="2"/>
     </row>
-    <row r="868" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="868" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G868" s="2"/>
     </row>
-    <row r="869" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="869" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G869" s="2"/>
     </row>
-    <row r="870" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="870" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G870" s="2"/>
     </row>
-    <row r="871" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="871" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G871" s="2"/>
     </row>
-    <row r="872" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="872" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G872" s="2"/>
     </row>
-    <row r="873" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="873" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G873" s="2"/>
     </row>
-    <row r="874" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="874" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G874" s="2"/>
     </row>
-    <row r="875" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="875" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G875" s="2"/>
     </row>
-    <row r="876" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="876" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G876" s="2"/>
     </row>
-    <row r="877" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="877" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G877" s="2"/>
     </row>
-    <row r="878" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="878" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G878" s="2"/>
     </row>
-    <row r="879" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="879" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G879" s="2"/>
     </row>
-    <row r="880" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="880" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G880" s="2"/>
     </row>
-    <row r="881" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="881" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G881" s="2"/>
     </row>
-    <row r="882" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="882" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G882" s="2"/>
     </row>
-    <row r="883" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="883" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G883" s="2"/>
     </row>
-    <row r="884" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="884" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G884" s="2"/>
     </row>
-    <row r="885" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="885" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G885" s="2"/>
     </row>
-    <row r="886" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="886" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G886" s="2"/>
     </row>
-    <row r="887" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="887" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G887" s="2"/>
     </row>
-    <row r="888" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="888" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G888" s="2"/>
     </row>
-    <row r="889" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="889" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G889" s="2"/>
     </row>
-    <row r="890" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="890" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G890" s="2"/>
     </row>
-    <row r="891" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="891" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G891" s="2"/>
     </row>
-    <row r="892" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="892" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G892" s="2"/>
     </row>
-    <row r="893" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="893" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G893" s="2"/>
     </row>
-    <row r="894" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="894" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G894" s="2"/>
     </row>
-    <row r="895" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="895" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G895" s="2"/>
     </row>
-    <row r="896" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="896" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G896" s="2"/>
     </row>
-    <row r="897" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="897" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G897" s="2"/>
     </row>
-    <row r="898" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="898" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G898" s="2"/>
     </row>
-    <row r="899" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="899" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G899" s="2"/>
     </row>
-    <row r="900" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="900" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G900" s="2"/>
     </row>
-    <row r="901" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="901" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G901" s="2"/>
     </row>
-    <row r="902" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="902" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G902" s="2"/>
     </row>
-    <row r="903" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="903" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G903" s="2"/>
     </row>
-    <row r="904" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="904" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G904" s="2"/>
     </row>
-    <row r="905" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="905" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G905" s="2"/>
     </row>
-    <row r="906" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="906" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G906" s="2"/>
     </row>
-    <row r="907" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="907" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G907" s="2"/>
     </row>
-    <row r="908" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="908" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G908" s="2"/>
     </row>
-    <row r="909" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="909" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G909" s="2"/>
     </row>
-    <row r="910" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="910" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G910" s="2"/>
     </row>
-    <row r="911" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="911" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G911" s="2"/>
     </row>
-    <row r="912" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="912" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G912" s="2"/>
     </row>
-    <row r="913" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="913" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G913" s="2"/>
     </row>
-    <row r="914" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="914" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G914" s="2"/>
     </row>
-    <row r="915" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="915" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G915" s="2"/>
     </row>
-    <row r="916" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="916" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G916" s="2"/>
     </row>
-    <row r="917" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="917" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G917" s="2"/>
     </row>
-    <row r="918" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="918" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G918" s="2"/>
     </row>
-    <row r="919" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="919" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G919" s="2"/>
     </row>
-    <row r="920" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="920" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G920" s="2"/>
     </row>
-    <row r="921" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="921" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G921" s="2"/>
     </row>
-    <row r="922" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="922" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G922" s="2"/>
     </row>
-    <row r="923" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="923" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G923" s="2"/>
     </row>
-    <row r="924" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="924" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G924" s="2"/>
     </row>
-    <row r="925" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="925" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G925" s="2"/>
     </row>
-    <row r="926" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="926" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G926" s="2"/>
     </row>
-    <row r="927" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="927" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G927" s="2"/>
     </row>
-    <row r="928" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="928" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G928" s="2"/>
     </row>
-    <row r="929" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="929" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G929" s="2"/>
     </row>
-    <row r="930" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="930" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G930" s="2"/>
     </row>
-    <row r="931" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="931" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G931" s="2"/>
     </row>
-    <row r="932" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="932" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G932" s="2"/>
     </row>
-    <row r="933" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="933" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G933" s="2"/>
     </row>
-    <row r="934" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="934" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G934" s="2"/>
     </row>
-    <row r="935" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="935" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G935" s="2"/>
     </row>
-    <row r="936" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="936" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G936" s="2"/>
     </row>
-    <row r="937" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="937" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G937" s="2"/>
     </row>
-    <row r="938" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="938" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G938" s="2"/>
     </row>
-    <row r="939" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="939" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G939" s="2"/>
     </row>
-    <row r="940" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="940" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G940" s="2"/>
     </row>
-    <row r="941" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="941" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G941" s="2"/>
     </row>
-    <row r="942" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="942" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G942" s="2"/>
     </row>
-    <row r="943" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="943" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G943" s="2"/>
     </row>
-    <row r="944" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="944" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G944" s="2"/>
     </row>
-    <row r="945" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="945" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G945" s="2"/>
     </row>
-    <row r="946" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="946" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G946" s="2"/>
     </row>
-    <row r="947" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="947" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G947" s="2"/>
     </row>
-    <row r="948" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="948" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G948" s="2"/>
     </row>
-    <row r="949" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="949" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G949" s="2"/>
     </row>
-    <row r="950" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="950" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G950" s="2"/>
     </row>
-    <row r="951" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="951" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G951" s="2"/>
     </row>
-    <row r="952" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="952" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G952" s="2"/>
     </row>
-    <row r="953" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="953" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G953" s="2"/>
     </row>
-    <row r="954" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="954" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G954" s="2"/>
     </row>
-    <row r="955" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="955" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G955" s="2"/>
     </row>
-    <row r="956" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="956" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G956" s="2"/>
     </row>
-    <row r="957" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="957" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G957" s="2"/>
     </row>
-    <row r="958" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="958" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G958" s="2"/>
     </row>
-    <row r="959" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="959" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G959" s="2"/>
     </row>
-    <row r="960" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="960" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G960" s="2"/>
     </row>
-    <row r="961" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="961" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G961" s="2"/>
     </row>
-    <row r="962" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="962" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G962" s="2"/>
     </row>
-    <row r="963" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="963" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G963" s="2"/>
     </row>
-    <row r="964" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="964" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G964" s="2"/>
     </row>
-    <row r="965" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="965" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G965" s="2"/>
     </row>
-    <row r="966" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="966" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G966" s="2"/>
     </row>
-    <row r="967" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="967" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G967" s="2"/>
     </row>
-    <row r="968" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="968" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G968" s="2"/>
     </row>
-    <row r="969" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="969" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G969" s="2"/>
     </row>
-    <row r="970" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="970" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G970" s="2"/>
     </row>
-    <row r="971" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="971" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G971" s="2"/>
     </row>
-    <row r="972" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="972" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G972" s="2"/>
     </row>
-    <row r="973" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="973" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G973" s="2"/>
     </row>
-    <row r="974" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="974" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G974" s="2"/>
     </row>
-    <row r="975" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="975" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G975" s="2"/>
     </row>
-    <row r="976" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="976" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G976" s="2"/>
     </row>
-    <row r="977" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="977" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G977" s="2"/>
     </row>
-    <row r="978" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="978" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G978" s="2"/>
     </row>
-    <row r="979" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="979" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G979" s="2"/>
     </row>
-    <row r="980" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="980" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G980" s="2"/>
     </row>
-    <row r="981" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="981" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G981" s="2"/>
     </row>
-    <row r="982" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="982" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G982" s="2"/>
     </row>
-    <row r="983" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="983" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G983" s="2"/>
     </row>
-    <row r="984" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="984" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G984" s="2"/>
     </row>
-    <row r="985" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="985" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G985" s="2"/>
     </row>
-    <row r="986" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="986" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G986" s="2"/>
     </row>
-    <row r="987" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="987" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G987" s="2"/>
     </row>
-    <row r="988" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="988" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G988" s="2"/>
     </row>
-    <row r="989" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="989" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G989" s="2"/>
     </row>
-    <row r="990" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="990" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G990" s="2"/>
     </row>
-    <row r="991" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="991" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G991" s="2"/>
     </row>
-    <row r="992" spans="7:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="992" spans="7:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G992" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="463">
-    <mergeCell ref="J316:K316"/>
-    <mergeCell ref="J317:K317"/>
-    <mergeCell ref="J307:K307"/>
-    <mergeCell ref="J308:K308"/>
-    <mergeCell ref="J309:K309"/>
-    <mergeCell ref="J310:K310"/>
-    <mergeCell ref="J311:K311"/>
-    <mergeCell ref="J312:K312"/>
-    <mergeCell ref="J313:K313"/>
-    <mergeCell ref="J314:K314"/>
-    <mergeCell ref="J315:K315"/>
-    <mergeCell ref="J298:K298"/>
-    <mergeCell ref="J299:K299"/>
-    <mergeCell ref="J300:K300"/>
-    <mergeCell ref="J301:K301"/>
-    <mergeCell ref="J302:K302"/>
-    <mergeCell ref="J303:K303"/>
-    <mergeCell ref="J304:K304"/>
-    <mergeCell ref="J305:K305"/>
-    <mergeCell ref="J306:K306"/>
-    <mergeCell ref="J289:K289"/>
-    <mergeCell ref="J290:K290"/>
-    <mergeCell ref="J291:K291"/>
-    <mergeCell ref="J292:K292"/>
-    <mergeCell ref="J293:K293"/>
-    <mergeCell ref="J294:K294"/>
-    <mergeCell ref="J295:K295"/>
-    <mergeCell ref="J296:K296"/>
-    <mergeCell ref="J297:K297"/>
-    <mergeCell ref="J280:K280"/>
-    <mergeCell ref="J281:K281"/>
-    <mergeCell ref="J282:K282"/>
-    <mergeCell ref="J283:K283"/>
-    <mergeCell ref="J284:K284"/>
-    <mergeCell ref="J285:K285"/>
-    <mergeCell ref="J286:K286"/>
-    <mergeCell ref="J287:K287"/>
-    <mergeCell ref="J288:K288"/>
-    <mergeCell ref="J271:K271"/>
-    <mergeCell ref="J272:K272"/>
-    <mergeCell ref="J273:K273"/>
-    <mergeCell ref="J274:K274"/>
-    <mergeCell ref="J275:K275"/>
-    <mergeCell ref="J276:K276"/>
-    <mergeCell ref="J277:K277"/>
-    <mergeCell ref="J278:K278"/>
-    <mergeCell ref="J279:K279"/>
-    <mergeCell ref="J262:K262"/>
-    <mergeCell ref="J263:K263"/>
-    <mergeCell ref="J264:K264"/>
-    <mergeCell ref="J265:K265"/>
-    <mergeCell ref="J266:K266"/>
-    <mergeCell ref="J267:K267"/>
-    <mergeCell ref="J268:K268"/>
-    <mergeCell ref="J269:K269"/>
-    <mergeCell ref="J270:K270"/>
-    <mergeCell ref="J253:K253"/>
-    <mergeCell ref="J254:K254"/>
-    <mergeCell ref="J255:K255"/>
-    <mergeCell ref="J256:K256"/>
-    <mergeCell ref="J257:K257"/>
-    <mergeCell ref="J258:K258"/>
-    <mergeCell ref="J259:K259"/>
-    <mergeCell ref="J260:K260"/>
-    <mergeCell ref="J261:K261"/>
-    <mergeCell ref="J244:K244"/>
-    <mergeCell ref="J245:K245"/>
-    <mergeCell ref="J246:K246"/>
-    <mergeCell ref="J247:K247"/>
-    <mergeCell ref="J248:K248"/>
-    <mergeCell ref="J249:K249"/>
-    <mergeCell ref="J250:K250"/>
-    <mergeCell ref="J251:K251"/>
-    <mergeCell ref="J252:K252"/>
-    <mergeCell ref="J235:K235"/>
-    <mergeCell ref="J236:K236"/>
-    <mergeCell ref="J237:K237"/>
-    <mergeCell ref="J238:K238"/>
-    <mergeCell ref="J239:K239"/>
-    <mergeCell ref="J240:K240"/>
-    <mergeCell ref="J241:K241"/>
-    <mergeCell ref="J242:K242"/>
-    <mergeCell ref="J243:K243"/>
-    <mergeCell ref="J226:K226"/>
-    <mergeCell ref="J227:K227"/>
-    <mergeCell ref="J228:K228"/>
-    <mergeCell ref="J229:K229"/>
-    <mergeCell ref="J230:K230"/>
-    <mergeCell ref="J231:K231"/>
-    <mergeCell ref="J232:K232"/>
-    <mergeCell ref="J233:K233"/>
-    <mergeCell ref="J234:K234"/>
-    <mergeCell ref="J217:K217"/>
-    <mergeCell ref="J218:K218"/>
-    <mergeCell ref="J219:K219"/>
-    <mergeCell ref="J220:K220"/>
-    <mergeCell ref="J221:K221"/>
-    <mergeCell ref="J222:K222"/>
-    <mergeCell ref="J223:K223"/>
-    <mergeCell ref="J224:K224"/>
-    <mergeCell ref="J225:K225"/>
-    <mergeCell ref="J208:K208"/>
-    <mergeCell ref="J209:K209"/>
-    <mergeCell ref="J210:K210"/>
-    <mergeCell ref="J211:K211"/>
-    <mergeCell ref="J212:K212"/>
-    <mergeCell ref="J213:K213"/>
-    <mergeCell ref="J214:K214"/>
-    <mergeCell ref="J215:K215"/>
-    <mergeCell ref="J216:K216"/>
-    <mergeCell ref="J199:K199"/>
-    <mergeCell ref="J200:K200"/>
-    <mergeCell ref="J201:K201"/>
-    <mergeCell ref="J202:K202"/>
-    <mergeCell ref="J203:K203"/>
-    <mergeCell ref="J204:K204"/>
-    <mergeCell ref="J205:K205"/>
-    <mergeCell ref="J206:K206"/>
-    <mergeCell ref="J207:K207"/>
-    <mergeCell ref="J190:K190"/>
-    <mergeCell ref="J191:K191"/>
-    <mergeCell ref="J192:K192"/>
-    <mergeCell ref="J193:K193"/>
-    <mergeCell ref="J194:K194"/>
-    <mergeCell ref="J195:K195"/>
-    <mergeCell ref="J196:K196"/>
-    <mergeCell ref="J197:K197"/>
-    <mergeCell ref="J198:K198"/>
-    <mergeCell ref="J181:K181"/>
-    <mergeCell ref="J182:K182"/>
-    <mergeCell ref="J183:K183"/>
-    <mergeCell ref="J184:K184"/>
-    <mergeCell ref="J185:K185"/>
-    <mergeCell ref="J186:K186"/>
-    <mergeCell ref="J187:K187"/>
-    <mergeCell ref="J188:K188"/>
-    <mergeCell ref="J189:K189"/>
+  <mergeCells count="461">
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="H146:I146"/>
+    <mergeCell ref="H147:I147"/>
+    <mergeCell ref="H148:I148"/>
+    <mergeCell ref="H149:I149"/>
+    <mergeCell ref="H150:I150"/>
+    <mergeCell ref="H141:I141"/>
+    <mergeCell ref="H142:I142"/>
+    <mergeCell ref="H143:I143"/>
+    <mergeCell ref="H144:I144"/>
+    <mergeCell ref="H145:I145"/>
+    <mergeCell ref="H136:I136"/>
+    <mergeCell ref="H137:I137"/>
+    <mergeCell ref="H138:I138"/>
+    <mergeCell ref="H139:I139"/>
+    <mergeCell ref="H140:I140"/>
+    <mergeCell ref="H131:I131"/>
+    <mergeCell ref="H132:I132"/>
+    <mergeCell ref="H133:I133"/>
+    <mergeCell ref="H134:I134"/>
+    <mergeCell ref="H135:I135"/>
+    <mergeCell ref="H126:I126"/>
+    <mergeCell ref="H127:I127"/>
+    <mergeCell ref="H128:I128"/>
+    <mergeCell ref="H129:I129"/>
+    <mergeCell ref="H130:I130"/>
+    <mergeCell ref="H121:I121"/>
+    <mergeCell ref="H122:I122"/>
+    <mergeCell ref="H123:I123"/>
+    <mergeCell ref="H124:I124"/>
+    <mergeCell ref="H125:I125"/>
+    <mergeCell ref="H116:I116"/>
+    <mergeCell ref="H117:I117"/>
+    <mergeCell ref="H118:I118"/>
+    <mergeCell ref="H119:I119"/>
+    <mergeCell ref="H120:I120"/>
+    <mergeCell ref="H111:I111"/>
+    <mergeCell ref="H112:I112"/>
+    <mergeCell ref="H113:I113"/>
+    <mergeCell ref="H114:I114"/>
+    <mergeCell ref="H115:I115"/>
+    <mergeCell ref="H106:I106"/>
+    <mergeCell ref="H107:I107"/>
+    <mergeCell ref="H108:I108"/>
+    <mergeCell ref="H109:I109"/>
+    <mergeCell ref="H110:I110"/>
+    <mergeCell ref="H101:I101"/>
+    <mergeCell ref="H102:I102"/>
+    <mergeCell ref="H103:I103"/>
+    <mergeCell ref="H104:I104"/>
+    <mergeCell ref="H105:I105"/>
+    <mergeCell ref="H96:I96"/>
+    <mergeCell ref="H97:I97"/>
+    <mergeCell ref="H98:I98"/>
+    <mergeCell ref="H99:I99"/>
+    <mergeCell ref="A100:K100"/>
+    <mergeCell ref="H91:I91"/>
+    <mergeCell ref="H92:I92"/>
+    <mergeCell ref="H93:I93"/>
+    <mergeCell ref="H94:I94"/>
+    <mergeCell ref="H95:I95"/>
+    <mergeCell ref="H86:I86"/>
+    <mergeCell ref="H87:I87"/>
+    <mergeCell ref="H88:I88"/>
+    <mergeCell ref="H89:I89"/>
+    <mergeCell ref="H90:I90"/>
+    <mergeCell ref="H81:I81"/>
+    <mergeCell ref="H82:I82"/>
+    <mergeCell ref="H83:I83"/>
+    <mergeCell ref="H84:I84"/>
+    <mergeCell ref="H85:I85"/>
+    <mergeCell ref="H76:I76"/>
+    <mergeCell ref="H77:I77"/>
+    <mergeCell ref="H78:I78"/>
+    <mergeCell ref="H79:I79"/>
+    <mergeCell ref="H80:I80"/>
+    <mergeCell ref="H71:I71"/>
+    <mergeCell ref="H72:I72"/>
+    <mergeCell ref="H73:I73"/>
+    <mergeCell ref="H74:I74"/>
+    <mergeCell ref="H75:I75"/>
+    <mergeCell ref="H66:I66"/>
+    <mergeCell ref="H67:I67"/>
+    <mergeCell ref="H68:I68"/>
+    <mergeCell ref="H69:I69"/>
+    <mergeCell ref="H70:I70"/>
+    <mergeCell ref="H61:I61"/>
+    <mergeCell ref="H62:I62"/>
+    <mergeCell ref="H63:I63"/>
+    <mergeCell ref="H64:I64"/>
+    <mergeCell ref="H65:I65"/>
+    <mergeCell ref="H56:I56"/>
+    <mergeCell ref="H57:I57"/>
+    <mergeCell ref="H58:I58"/>
+    <mergeCell ref="H59:I59"/>
+    <mergeCell ref="H60:I60"/>
+    <mergeCell ref="H51:I51"/>
+    <mergeCell ref="H52:I52"/>
+    <mergeCell ref="H53:I53"/>
+    <mergeCell ref="H54:I54"/>
+    <mergeCell ref="H55:I55"/>
+    <mergeCell ref="H46:I46"/>
+    <mergeCell ref="H47:I47"/>
+    <mergeCell ref="H48:I48"/>
+    <mergeCell ref="H49:I49"/>
+    <mergeCell ref="H50:I50"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="H42:I42"/>
+    <mergeCell ref="H43:I43"/>
+    <mergeCell ref="H44:I44"/>
+    <mergeCell ref="H45:I45"/>
+    <mergeCell ref="H36:I36"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="A27:K27"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="J35:K35"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="A20:K20"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="J36:K36"/>
+    <mergeCell ref="J37:K37"/>
+    <mergeCell ref="J38:K38"/>
+    <mergeCell ref="J39:K39"/>
+    <mergeCell ref="J40:K40"/>
+    <mergeCell ref="J41:K41"/>
+    <mergeCell ref="J42:K42"/>
+    <mergeCell ref="J43:K43"/>
+    <mergeCell ref="J44:K44"/>
+    <mergeCell ref="J45:K45"/>
+    <mergeCell ref="J46:K46"/>
+    <mergeCell ref="J47:K47"/>
+    <mergeCell ref="J48:K48"/>
+    <mergeCell ref="J49:K49"/>
+    <mergeCell ref="J50:K50"/>
+    <mergeCell ref="J51:K51"/>
+    <mergeCell ref="J52:K52"/>
+    <mergeCell ref="J53:K53"/>
+    <mergeCell ref="J54:K54"/>
+    <mergeCell ref="J55:K55"/>
+    <mergeCell ref="J56:K56"/>
+    <mergeCell ref="J57:K57"/>
+    <mergeCell ref="J58:K58"/>
+    <mergeCell ref="J59:K59"/>
+    <mergeCell ref="J60:K60"/>
+    <mergeCell ref="J61:K61"/>
+    <mergeCell ref="J62:K62"/>
+    <mergeCell ref="J63:K63"/>
+    <mergeCell ref="J64:K64"/>
+    <mergeCell ref="J65:K65"/>
+    <mergeCell ref="J66:K66"/>
+    <mergeCell ref="J67:K67"/>
+    <mergeCell ref="J68:K68"/>
+    <mergeCell ref="J69:K69"/>
+    <mergeCell ref="J70:K70"/>
+    <mergeCell ref="J71:K71"/>
+    <mergeCell ref="J72:K72"/>
+    <mergeCell ref="J73:K73"/>
+    <mergeCell ref="J74:K74"/>
+    <mergeCell ref="J75:K75"/>
+    <mergeCell ref="J76:K76"/>
+    <mergeCell ref="J77:K77"/>
+    <mergeCell ref="J78:K78"/>
+    <mergeCell ref="J79:K79"/>
+    <mergeCell ref="J80:K80"/>
+    <mergeCell ref="J81:K81"/>
+    <mergeCell ref="J82:K82"/>
+    <mergeCell ref="J83:K83"/>
+    <mergeCell ref="J84:K84"/>
+    <mergeCell ref="J85:K85"/>
+    <mergeCell ref="J86:K86"/>
+    <mergeCell ref="J87:K87"/>
+    <mergeCell ref="J88:K88"/>
+    <mergeCell ref="J89:K89"/>
+    <mergeCell ref="J90:K90"/>
+    <mergeCell ref="J91:K91"/>
+    <mergeCell ref="J92:K92"/>
+    <mergeCell ref="J93:K93"/>
+    <mergeCell ref="J94:K94"/>
+    <mergeCell ref="J95:K95"/>
+    <mergeCell ref="J96:K96"/>
+    <mergeCell ref="J97:K97"/>
+    <mergeCell ref="J98:K98"/>
+    <mergeCell ref="J99:K99"/>
+    <mergeCell ref="J101:K101"/>
+    <mergeCell ref="J102:K102"/>
+    <mergeCell ref="J103:K103"/>
+    <mergeCell ref="J104:K104"/>
+    <mergeCell ref="J105:K105"/>
+    <mergeCell ref="J106:K106"/>
+    <mergeCell ref="J107:K107"/>
+    <mergeCell ref="J108:K108"/>
+    <mergeCell ref="J109:K109"/>
+    <mergeCell ref="J110:K110"/>
+    <mergeCell ref="J111:K111"/>
+    <mergeCell ref="J112:K112"/>
+    <mergeCell ref="J113:K113"/>
+    <mergeCell ref="J114:K114"/>
+    <mergeCell ref="J115:K115"/>
+    <mergeCell ref="J116:K116"/>
+    <mergeCell ref="J117:K117"/>
+    <mergeCell ref="J118:K118"/>
+    <mergeCell ref="J119:K119"/>
+    <mergeCell ref="J120:K120"/>
+    <mergeCell ref="J122:K122"/>
+    <mergeCell ref="J138:K138"/>
+    <mergeCell ref="J139:K139"/>
+    <mergeCell ref="J140:K140"/>
+    <mergeCell ref="J123:K123"/>
+    <mergeCell ref="J124:K124"/>
+    <mergeCell ref="J125:K125"/>
+    <mergeCell ref="J126:K126"/>
+    <mergeCell ref="J127:K127"/>
+    <mergeCell ref="J128:K128"/>
+    <mergeCell ref="J129:K129"/>
+    <mergeCell ref="J130:K130"/>
+    <mergeCell ref="J131:K131"/>
+    <mergeCell ref="J176:K176"/>
+    <mergeCell ref="J177:K177"/>
+    <mergeCell ref="J178:K178"/>
+    <mergeCell ref="J179:K179"/>
+    <mergeCell ref="J180:K180"/>
+    <mergeCell ref="J150:K150"/>
+    <mergeCell ref="J151:K151"/>
+    <mergeCell ref="J152:K152"/>
+    <mergeCell ref="J153:K153"/>
+    <mergeCell ref="J154:K154"/>
+    <mergeCell ref="J155:K155"/>
+    <mergeCell ref="J156:K156"/>
+    <mergeCell ref="J157:K157"/>
+    <mergeCell ref="J158:K158"/>
+    <mergeCell ref="J167:K167"/>
+    <mergeCell ref="J168:K168"/>
+    <mergeCell ref="J169:K169"/>
+    <mergeCell ref="J170:K170"/>
+    <mergeCell ref="J171:K171"/>
+    <mergeCell ref="J172:K172"/>
+    <mergeCell ref="J173:K173"/>
+    <mergeCell ref="J174:K174"/>
+    <mergeCell ref="J175:K175"/>
+    <mergeCell ref="J159:K159"/>
     <mergeCell ref="J160:K160"/>
     <mergeCell ref="A2:K2"/>
     <mergeCell ref="J161:K161"/>
@@ -7630,311 +8134,147 @@
     <mergeCell ref="J136:K136"/>
     <mergeCell ref="J137:K137"/>
     <mergeCell ref="J28:K28"/>
-    <mergeCell ref="J176:K176"/>
-    <mergeCell ref="J177:K177"/>
-    <mergeCell ref="J178:K178"/>
-    <mergeCell ref="J179:K179"/>
-    <mergeCell ref="J180:K180"/>
-    <mergeCell ref="J150:K150"/>
-    <mergeCell ref="J151:K151"/>
-    <mergeCell ref="J152:K152"/>
-    <mergeCell ref="J153:K153"/>
-    <mergeCell ref="J154:K154"/>
-    <mergeCell ref="J155:K155"/>
-    <mergeCell ref="J156:K156"/>
-    <mergeCell ref="J157:K157"/>
-    <mergeCell ref="J158:K158"/>
-    <mergeCell ref="J167:K167"/>
-    <mergeCell ref="J168:K168"/>
-    <mergeCell ref="J169:K169"/>
-    <mergeCell ref="J170:K170"/>
-    <mergeCell ref="J171:K171"/>
-    <mergeCell ref="J172:K172"/>
-    <mergeCell ref="J173:K173"/>
-    <mergeCell ref="J174:K174"/>
-    <mergeCell ref="J175:K175"/>
-    <mergeCell ref="J159:K159"/>
-    <mergeCell ref="J117:K117"/>
-    <mergeCell ref="J118:K118"/>
-    <mergeCell ref="J119:K119"/>
-    <mergeCell ref="J120:K120"/>
-    <mergeCell ref="J121:K121"/>
-    <mergeCell ref="J122:K122"/>
-    <mergeCell ref="J138:K138"/>
-    <mergeCell ref="J139:K139"/>
-    <mergeCell ref="J140:K140"/>
-    <mergeCell ref="J123:K123"/>
-    <mergeCell ref="J124:K124"/>
-    <mergeCell ref="J125:K125"/>
-    <mergeCell ref="J126:K126"/>
-    <mergeCell ref="J127:K127"/>
-    <mergeCell ref="J128:K128"/>
-    <mergeCell ref="J129:K129"/>
-    <mergeCell ref="J130:K130"/>
-    <mergeCell ref="J131:K131"/>
-    <mergeCell ref="J108:K108"/>
-    <mergeCell ref="J109:K109"/>
-    <mergeCell ref="J110:K110"/>
-    <mergeCell ref="J111:K111"/>
-    <mergeCell ref="J112:K112"/>
-    <mergeCell ref="J113:K113"/>
-    <mergeCell ref="J114:K114"/>
-    <mergeCell ref="J115:K115"/>
-    <mergeCell ref="J116:K116"/>
-    <mergeCell ref="J99:K99"/>
-    <mergeCell ref="J100:K100"/>
-    <mergeCell ref="J101:K101"/>
-    <mergeCell ref="J102:K102"/>
-    <mergeCell ref="J103:K103"/>
-    <mergeCell ref="J104:K104"/>
-    <mergeCell ref="J105:K105"/>
-    <mergeCell ref="J106:K106"/>
-    <mergeCell ref="J107:K107"/>
-    <mergeCell ref="J90:K90"/>
-    <mergeCell ref="J91:K91"/>
-    <mergeCell ref="J92:K92"/>
-    <mergeCell ref="J93:K93"/>
-    <mergeCell ref="J94:K94"/>
-    <mergeCell ref="J95:K95"/>
-    <mergeCell ref="J96:K96"/>
-    <mergeCell ref="J97:K97"/>
-    <mergeCell ref="J98:K98"/>
-    <mergeCell ref="J81:K81"/>
-    <mergeCell ref="J82:K82"/>
-    <mergeCell ref="J83:K83"/>
-    <mergeCell ref="J84:K84"/>
-    <mergeCell ref="J85:K85"/>
-    <mergeCell ref="J86:K86"/>
-    <mergeCell ref="J87:K87"/>
-    <mergeCell ref="J88:K88"/>
-    <mergeCell ref="J89:K89"/>
-    <mergeCell ref="J72:K72"/>
-    <mergeCell ref="J73:K73"/>
-    <mergeCell ref="J74:K74"/>
-    <mergeCell ref="J75:K75"/>
-    <mergeCell ref="J76:K76"/>
-    <mergeCell ref="J77:K77"/>
-    <mergeCell ref="J78:K78"/>
-    <mergeCell ref="J79:K79"/>
-    <mergeCell ref="J80:K80"/>
-    <mergeCell ref="J63:K63"/>
-    <mergeCell ref="J64:K64"/>
-    <mergeCell ref="J65:K65"/>
-    <mergeCell ref="J66:K66"/>
-    <mergeCell ref="J67:K67"/>
-    <mergeCell ref="J68:K68"/>
-    <mergeCell ref="J69:K69"/>
-    <mergeCell ref="J70:K70"/>
-    <mergeCell ref="J71:K71"/>
-    <mergeCell ref="J54:K54"/>
-    <mergeCell ref="J55:K55"/>
-    <mergeCell ref="J56:K56"/>
-    <mergeCell ref="J57:K57"/>
-    <mergeCell ref="J58:K58"/>
-    <mergeCell ref="J59:K59"/>
-    <mergeCell ref="J60:K60"/>
-    <mergeCell ref="J61:K61"/>
-    <mergeCell ref="J62:K62"/>
-    <mergeCell ref="J45:K45"/>
-    <mergeCell ref="J46:K46"/>
-    <mergeCell ref="J47:K47"/>
-    <mergeCell ref="J48:K48"/>
-    <mergeCell ref="J49:K49"/>
-    <mergeCell ref="J50:K50"/>
-    <mergeCell ref="J51:K51"/>
-    <mergeCell ref="J52:K52"/>
-    <mergeCell ref="J53:K53"/>
-    <mergeCell ref="J36:K36"/>
-    <mergeCell ref="J37:K37"/>
-    <mergeCell ref="J38:K38"/>
-    <mergeCell ref="J39:K39"/>
-    <mergeCell ref="J40:K40"/>
-    <mergeCell ref="J41:K41"/>
-    <mergeCell ref="J42:K42"/>
-    <mergeCell ref="J43:K43"/>
-    <mergeCell ref="J44:K44"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="J31:K31"/>
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="A20:K20"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="A27:K27"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="J34:K34"/>
-    <mergeCell ref="J35:K35"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="H41:I41"/>
-    <mergeCell ref="H42:I42"/>
-    <mergeCell ref="H43:I43"/>
-    <mergeCell ref="H44:I44"/>
-    <mergeCell ref="H45:I45"/>
-    <mergeCell ref="H36:I36"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="H38:I38"/>
-    <mergeCell ref="H39:I39"/>
-    <mergeCell ref="H40:I40"/>
-    <mergeCell ref="H51:I51"/>
-    <mergeCell ref="H52:I52"/>
-    <mergeCell ref="H53:I53"/>
-    <mergeCell ref="H54:I54"/>
-    <mergeCell ref="H55:I55"/>
-    <mergeCell ref="H46:I46"/>
-    <mergeCell ref="H47:I47"/>
-    <mergeCell ref="H48:I48"/>
-    <mergeCell ref="H49:I49"/>
-    <mergeCell ref="H50:I50"/>
-    <mergeCell ref="H61:I61"/>
-    <mergeCell ref="H62:I62"/>
-    <mergeCell ref="H63:I63"/>
-    <mergeCell ref="H64:I64"/>
-    <mergeCell ref="H65:I65"/>
-    <mergeCell ref="H56:I56"/>
-    <mergeCell ref="H57:I57"/>
-    <mergeCell ref="H58:I58"/>
-    <mergeCell ref="H59:I59"/>
-    <mergeCell ref="H60:I60"/>
-    <mergeCell ref="H71:I71"/>
-    <mergeCell ref="H72:I72"/>
-    <mergeCell ref="H73:I73"/>
-    <mergeCell ref="H74:I74"/>
-    <mergeCell ref="H75:I75"/>
-    <mergeCell ref="H66:I66"/>
-    <mergeCell ref="H67:I67"/>
-    <mergeCell ref="H68:I68"/>
-    <mergeCell ref="H69:I69"/>
-    <mergeCell ref="H70:I70"/>
-    <mergeCell ref="H81:I81"/>
-    <mergeCell ref="H82:I82"/>
-    <mergeCell ref="H83:I83"/>
-    <mergeCell ref="H84:I84"/>
-    <mergeCell ref="H85:I85"/>
-    <mergeCell ref="H76:I76"/>
-    <mergeCell ref="H77:I77"/>
-    <mergeCell ref="H78:I78"/>
-    <mergeCell ref="H79:I79"/>
-    <mergeCell ref="H80:I80"/>
-    <mergeCell ref="H91:I91"/>
-    <mergeCell ref="H92:I92"/>
-    <mergeCell ref="H93:I93"/>
-    <mergeCell ref="H94:I94"/>
-    <mergeCell ref="H95:I95"/>
-    <mergeCell ref="H86:I86"/>
-    <mergeCell ref="H87:I87"/>
-    <mergeCell ref="H88:I88"/>
-    <mergeCell ref="H89:I89"/>
-    <mergeCell ref="H90:I90"/>
-    <mergeCell ref="H101:I101"/>
-    <mergeCell ref="H102:I102"/>
-    <mergeCell ref="H103:I103"/>
-    <mergeCell ref="H104:I104"/>
-    <mergeCell ref="H105:I105"/>
-    <mergeCell ref="H96:I96"/>
-    <mergeCell ref="H97:I97"/>
-    <mergeCell ref="H98:I98"/>
-    <mergeCell ref="H99:I99"/>
-    <mergeCell ref="H100:I100"/>
-    <mergeCell ref="H111:I111"/>
-    <mergeCell ref="H112:I112"/>
-    <mergeCell ref="H113:I113"/>
-    <mergeCell ref="H114:I114"/>
-    <mergeCell ref="H115:I115"/>
-    <mergeCell ref="H106:I106"/>
-    <mergeCell ref="H107:I107"/>
-    <mergeCell ref="H108:I108"/>
-    <mergeCell ref="H109:I109"/>
-    <mergeCell ref="H110:I110"/>
-    <mergeCell ref="H129:I129"/>
-    <mergeCell ref="H130:I130"/>
-    <mergeCell ref="H121:I121"/>
-    <mergeCell ref="H122:I122"/>
-    <mergeCell ref="H123:I123"/>
-    <mergeCell ref="H124:I124"/>
-    <mergeCell ref="H125:I125"/>
-    <mergeCell ref="H116:I116"/>
-    <mergeCell ref="H117:I117"/>
-    <mergeCell ref="H118:I118"/>
-    <mergeCell ref="H119:I119"/>
-    <mergeCell ref="H120:I120"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="H146:I146"/>
-    <mergeCell ref="H147:I147"/>
-    <mergeCell ref="H148:I148"/>
-    <mergeCell ref="H149:I149"/>
-    <mergeCell ref="H150:I150"/>
-    <mergeCell ref="H141:I141"/>
-    <mergeCell ref="H142:I142"/>
-    <mergeCell ref="H143:I143"/>
-    <mergeCell ref="H144:I144"/>
-    <mergeCell ref="H145:I145"/>
-    <mergeCell ref="H136:I136"/>
-    <mergeCell ref="H137:I137"/>
-    <mergeCell ref="H138:I138"/>
-    <mergeCell ref="H139:I139"/>
-    <mergeCell ref="H140:I140"/>
-    <mergeCell ref="H131:I131"/>
-    <mergeCell ref="H132:I132"/>
-    <mergeCell ref="H133:I133"/>
-    <mergeCell ref="H134:I134"/>
-    <mergeCell ref="H135:I135"/>
-    <mergeCell ref="H126:I126"/>
-    <mergeCell ref="H127:I127"/>
-    <mergeCell ref="H128:I128"/>
+    <mergeCell ref="J181:K181"/>
+    <mergeCell ref="J182:K182"/>
+    <mergeCell ref="J183:K183"/>
+    <mergeCell ref="J184:K184"/>
+    <mergeCell ref="J185:K185"/>
+    <mergeCell ref="J186:K186"/>
+    <mergeCell ref="J187:K187"/>
+    <mergeCell ref="J188:K188"/>
+    <mergeCell ref="J189:K189"/>
+    <mergeCell ref="J190:K190"/>
+    <mergeCell ref="J191:K191"/>
+    <mergeCell ref="J192:K192"/>
+    <mergeCell ref="J193:K193"/>
+    <mergeCell ref="J194:K194"/>
+    <mergeCell ref="J195:K195"/>
+    <mergeCell ref="J196:K196"/>
+    <mergeCell ref="J197:K197"/>
+    <mergeCell ref="J198:K198"/>
+    <mergeCell ref="J199:K199"/>
+    <mergeCell ref="J200:K200"/>
+    <mergeCell ref="J201:K201"/>
+    <mergeCell ref="J202:K202"/>
+    <mergeCell ref="J203:K203"/>
+    <mergeCell ref="J204:K204"/>
+    <mergeCell ref="J205:K205"/>
+    <mergeCell ref="J206:K206"/>
+    <mergeCell ref="J207:K207"/>
+    <mergeCell ref="J208:K208"/>
+    <mergeCell ref="J209:K209"/>
+    <mergeCell ref="J210:K210"/>
+    <mergeCell ref="J211:K211"/>
+    <mergeCell ref="J212:K212"/>
+    <mergeCell ref="J213:K213"/>
+    <mergeCell ref="J214:K214"/>
+    <mergeCell ref="J215:K215"/>
+    <mergeCell ref="J216:K216"/>
+    <mergeCell ref="J217:K217"/>
+    <mergeCell ref="J218:K218"/>
+    <mergeCell ref="J219:K219"/>
+    <mergeCell ref="J220:K220"/>
+    <mergeCell ref="J221:K221"/>
+    <mergeCell ref="J222:K222"/>
+    <mergeCell ref="J223:K223"/>
+    <mergeCell ref="J224:K224"/>
+    <mergeCell ref="J225:K225"/>
+    <mergeCell ref="J226:K226"/>
+    <mergeCell ref="J227:K227"/>
+    <mergeCell ref="J228:K228"/>
+    <mergeCell ref="J229:K229"/>
+    <mergeCell ref="J230:K230"/>
+    <mergeCell ref="J231:K231"/>
+    <mergeCell ref="J232:K232"/>
+    <mergeCell ref="J233:K233"/>
+    <mergeCell ref="J234:K234"/>
+    <mergeCell ref="J235:K235"/>
+    <mergeCell ref="J236:K236"/>
+    <mergeCell ref="J237:K237"/>
+    <mergeCell ref="J238:K238"/>
+    <mergeCell ref="J239:K239"/>
+    <mergeCell ref="J240:K240"/>
+    <mergeCell ref="J241:K241"/>
+    <mergeCell ref="J242:K242"/>
+    <mergeCell ref="J243:K243"/>
+    <mergeCell ref="J244:K244"/>
+    <mergeCell ref="J245:K245"/>
+    <mergeCell ref="J246:K246"/>
+    <mergeCell ref="J247:K247"/>
+    <mergeCell ref="J248:K248"/>
+    <mergeCell ref="J249:K249"/>
+    <mergeCell ref="J250:K250"/>
+    <mergeCell ref="J251:K251"/>
+    <mergeCell ref="J252:K252"/>
+    <mergeCell ref="J253:K253"/>
+    <mergeCell ref="J254:K254"/>
+    <mergeCell ref="J255:K255"/>
+    <mergeCell ref="J256:K256"/>
+    <mergeCell ref="J257:K257"/>
+    <mergeCell ref="J258:K258"/>
+    <mergeCell ref="J259:K259"/>
+    <mergeCell ref="J260:K260"/>
+    <mergeCell ref="J261:K261"/>
+    <mergeCell ref="J262:K262"/>
+    <mergeCell ref="J263:K263"/>
+    <mergeCell ref="J264:K264"/>
+    <mergeCell ref="J265:K265"/>
+    <mergeCell ref="J266:K266"/>
+    <mergeCell ref="J267:K267"/>
+    <mergeCell ref="J268:K268"/>
+    <mergeCell ref="J269:K269"/>
+    <mergeCell ref="J270:K270"/>
+    <mergeCell ref="J271:K271"/>
+    <mergeCell ref="J272:K272"/>
+    <mergeCell ref="J273:K273"/>
+    <mergeCell ref="J274:K274"/>
+    <mergeCell ref="J275:K275"/>
+    <mergeCell ref="J276:K276"/>
+    <mergeCell ref="J277:K277"/>
+    <mergeCell ref="J278:K278"/>
+    <mergeCell ref="J279:K279"/>
+    <mergeCell ref="J280:K280"/>
+    <mergeCell ref="J281:K281"/>
+    <mergeCell ref="J282:K282"/>
+    <mergeCell ref="J283:K283"/>
+    <mergeCell ref="J284:K284"/>
+    <mergeCell ref="J285:K285"/>
+    <mergeCell ref="J286:K286"/>
+    <mergeCell ref="J287:K287"/>
+    <mergeCell ref="J288:K288"/>
+    <mergeCell ref="J289:K289"/>
+    <mergeCell ref="J290:K290"/>
+    <mergeCell ref="J291:K291"/>
+    <mergeCell ref="J292:K292"/>
+    <mergeCell ref="J293:K293"/>
+    <mergeCell ref="J294:K294"/>
+    <mergeCell ref="J295:K295"/>
+    <mergeCell ref="J296:K296"/>
+    <mergeCell ref="J297:K297"/>
+    <mergeCell ref="J298:K298"/>
+    <mergeCell ref="J299:K299"/>
+    <mergeCell ref="J300:K300"/>
+    <mergeCell ref="J301:K301"/>
+    <mergeCell ref="J302:K302"/>
+    <mergeCell ref="J303:K303"/>
+    <mergeCell ref="J304:K304"/>
+    <mergeCell ref="J305:K305"/>
+    <mergeCell ref="J306:K306"/>
+    <mergeCell ref="J316:K316"/>
+    <mergeCell ref="J317:K317"/>
+    <mergeCell ref="J307:K307"/>
+    <mergeCell ref="J308:K308"/>
+    <mergeCell ref="J309:K309"/>
+    <mergeCell ref="J310:K310"/>
+    <mergeCell ref="J311:K311"/>
+    <mergeCell ref="J312:K312"/>
+    <mergeCell ref="J313:K313"/>
+    <mergeCell ref="J314:K314"/>
+    <mergeCell ref="J315:K315"/>
   </mergeCells>
+  <phoneticPr fontId="13" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G1 G3:G19 G21:G26 G28:G992" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G1 G3:G19 G21:G26 G28:G99 G101:G992" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"Approved,Rejected,Pending"</formula1>
     </dataValidation>
   </dataValidations>

--- a/Requirments/Review.xlsx
+++ b/Requirments/Review.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Online-Mobile-Store-WebSite\Requirments\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ITI\QA\Online-Mobile-Store-WebSite\Requirments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{624D7E8B-684E-4F34-AD62-D9A7E1985F3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB80FFB1-150E-40C2-B152-AA957F16D790}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="130">
   <si>
     <t>ID</t>
   </si>
@@ -402,6 +402,15 @@
   </si>
   <si>
     <t>TC_Login_014</t>
+  </si>
+  <si>
+    <t>SRS_Reg</t>
+  </si>
+  <si>
+    <t>99596a638833117dc9aaeabd36148c6441c9716f</t>
+  </si>
+  <si>
+    <t>SRS_Supplier</t>
   </si>
 </sst>
 </file>
@@ -685,30 +694,19 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -717,13 +715,24 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -949,25 +958,25 @@
   </sheetPr>
   <dimension ref="A1:AC992"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E118" workbookViewId="0">
-      <selection activeCell="J125" sqref="J125:K125"/>
+    <sheetView tabSelected="1" topLeftCell="E22" workbookViewId="0">
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="24" customWidth="1"/>
-    <col min="2" max="2" width="27.26953125" customWidth="1"/>
-    <col min="3" max="3" width="20.7265625" customWidth="1"/>
-    <col min="4" max="4" width="25.54296875" customWidth="1"/>
-    <col min="5" max="5" width="97.1796875" customWidth="1"/>
-    <col min="6" max="6" width="25.81640625" customWidth="1"/>
-    <col min="7" max="7" width="18.54296875" customWidth="1"/>
-    <col min="8" max="8" width="34.1796875" customWidth="1"/>
-    <col min="9" max="9" width="25.7265625" customWidth="1"/>
-    <col min="11" max="11" width="34.26953125" customWidth="1"/>
+    <col min="2" max="2" width="27.28515625" customWidth="1"/>
+    <col min="3" max="3" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="25.5703125" customWidth="1"/>
+    <col min="5" max="5" width="97.140625" customWidth="1"/>
+    <col min="6" max="6" width="25.85546875" customWidth="1"/>
+    <col min="7" max="7" width="18.5703125" customWidth="1"/>
+    <col min="8" max="8" width="34.140625" customWidth="1"/>
+    <col min="9" max="9" width="25.7109375" customWidth="1"/>
+    <col min="11" max="11" width="34.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="36" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:29" ht="36" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -989,14 +998,14 @@
       <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="35" t="s">
+      <c r="H1" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="I1" s="36"/>
-      <c r="J1" s="35" t="s">
+      <c r="I1" s="30"/>
+      <c r="J1" s="29" t="s">
         <v>80</v>
       </c>
-      <c r="K1" s="36"/>
+      <c r="K1" s="30"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
@@ -1016,20 +1025,20 @@
       <c r="AB1" s="1"/>
       <c r="AC1" s="1"/>
     </row>
-    <row r="2" spans="1:29" ht="36" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A2" s="28" t="s">
+    <row r="2" spans="1:29" ht="36" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="44" t="s">
         <v>85</v>
       </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="29"/>
+      <c r="B2" s="45"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="45"/>
+      <c r="J2" s="45"/>
+      <c r="K2" s="45"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
@@ -1049,7 +1058,7 @@
       <c r="AB2" s="1"/>
       <c r="AC2" s="1"/>
     </row>
-    <row r="3" spans="1:29" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:29" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>7</v>
       </c>
@@ -1071,14 +1080,14 @@
       <c r="G3" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="33"/>
-      <c r="I3" s="34"/>
-      <c r="J3" s="27" t="s">
+      <c r="H3" s="40"/>
+      <c r="I3" s="41"/>
+      <c r="J3" s="36" t="s">
         <v>81</v>
       </c>
-      <c r="K3" s="27"/>
-    </row>
-    <row r="4" spans="1:29" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="K3" s="36"/>
+    </row>
+    <row r="4" spans="1:29" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>13</v>
       </c>
@@ -1100,14 +1109,14 @@
       <c r="G4" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="H4" s="33"/>
-      <c r="I4" s="34"/>
-      <c r="J4" s="27" t="s">
+      <c r="H4" s="40"/>
+      <c r="I4" s="41"/>
+      <c r="J4" s="36" t="s">
         <v>81</v>
       </c>
-      <c r="K4" s="27"/>
-    </row>
-    <row r="5" spans="1:29" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="K4" s="36"/>
+    </row>
+    <row r="5" spans="1:29" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>15</v>
       </c>
@@ -1129,14 +1138,14 @@
       <c r="G5" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="H5" s="33"/>
-      <c r="I5" s="34"/>
-      <c r="J5" s="27" t="s">
+      <c r="H5" s="40"/>
+      <c r="I5" s="41"/>
+      <c r="J5" s="36" t="s">
         <v>81</v>
       </c>
-      <c r="K5" s="27"/>
-    </row>
-    <row r="6" spans="1:29" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="K5" s="36"/>
+    </row>
+    <row r="6" spans="1:29" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
         <v>19</v>
       </c>
@@ -1158,14 +1167,14 @@
       <c r="G6" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="H6" s="33"/>
-      <c r="I6" s="34"/>
-      <c r="J6" s="27" t="s">
+      <c r="H6" s="40"/>
+      <c r="I6" s="41"/>
+      <c r="J6" s="36" t="s">
         <v>81</v>
       </c>
-      <c r="K6" s="27"/>
-    </row>
-    <row r="7" spans="1:29" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="K6" s="36"/>
+    </row>
+    <row r="7" spans="1:29" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
         <v>22</v>
       </c>
@@ -1187,14 +1196,14 @@
       <c r="G7" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="H7" s="33"/>
-      <c r="I7" s="34"/>
-      <c r="J7" s="27" t="s">
+      <c r="H7" s="40"/>
+      <c r="I7" s="41"/>
+      <c r="J7" s="36" t="s">
         <v>81</v>
       </c>
-      <c r="K7" s="27"/>
-    </row>
-    <row r="8" spans="1:29" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="K7" s="36"/>
+    </row>
+    <row r="8" spans="1:29" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
         <v>25</v>
       </c>
@@ -1216,14 +1225,14 @@
       <c r="G8" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="H8" s="33"/>
-      <c r="I8" s="34"/>
-      <c r="J8" s="27" t="s">
+      <c r="H8" s="40"/>
+      <c r="I8" s="41"/>
+      <c r="J8" s="36" t="s">
         <v>81</v>
       </c>
-      <c r="K8" s="27"/>
-    </row>
-    <row r="9" spans="1:29" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="K8" s="36"/>
+    </row>
+    <row r="9" spans="1:29" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>28</v>
       </c>
@@ -1245,14 +1254,14 @@
       <c r="G9" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="H9" s="33"/>
-      <c r="I9" s="34"/>
-      <c r="J9" s="27" t="s">
+      <c r="H9" s="40"/>
+      <c r="I9" s="41"/>
+      <c r="J9" s="36" t="s">
         <v>81</v>
       </c>
-      <c r="K9" s="27"/>
-    </row>
-    <row r="10" spans="1:29" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="K9" s="36"/>
+    </row>
+    <row r="10" spans="1:29" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>31</v>
       </c>
@@ -1274,14 +1283,14 @@
       <c r="G10" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="H10" s="33"/>
-      <c r="I10" s="34"/>
-      <c r="J10" s="27" t="s">
+      <c r="H10" s="40"/>
+      <c r="I10" s="41"/>
+      <c r="J10" s="36" t="s">
         <v>81</v>
       </c>
-      <c r="K10" s="27"/>
-    </row>
-    <row r="11" spans="1:29" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="K10" s="36"/>
+    </row>
+    <row r="11" spans="1:29" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
         <v>34</v>
       </c>
@@ -1303,14 +1312,14 @@
       <c r="G11" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="H11" s="33"/>
-      <c r="I11" s="34"/>
-      <c r="J11" s="27" t="s">
+      <c r="H11" s="40"/>
+      <c r="I11" s="41"/>
+      <c r="J11" s="36" t="s">
         <v>81</v>
       </c>
-      <c r="K11" s="27"/>
-    </row>
-    <row r="12" spans="1:29" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="K11" s="36"/>
+    </row>
+    <row r="12" spans="1:29" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
         <v>36</v>
       </c>
@@ -1332,14 +1341,14 @@
       <c r="G12" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="H12" s="33"/>
-      <c r="I12" s="34"/>
-      <c r="J12" s="27" t="s">
+      <c r="H12" s="40"/>
+      <c r="I12" s="41"/>
+      <c r="J12" s="36" t="s">
         <v>81</v>
       </c>
-      <c r="K12" s="27"/>
-    </row>
-    <row r="13" spans="1:29" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="K12" s="36"/>
+    </row>
+    <row r="13" spans="1:29" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
         <v>39</v>
       </c>
@@ -1361,14 +1370,14 @@
       <c r="G13" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="H13" s="33"/>
-      <c r="I13" s="34"/>
-      <c r="J13" s="27" t="s">
+      <c r="H13" s="40"/>
+      <c r="I13" s="41"/>
+      <c r="J13" s="36" t="s">
         <v>81</v>
       </c>
-      <c r="K13" s="27"/>
-    </row>
-    <row r="14" spans="1:29" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="K13" s="36"/>
+    </row>
+    <row r="14" spans="1:29" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
         <v>42</v>
       </c>
@@ -1390,14 +1399,14 @@
       <c r="G14" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="H14" s="33"/>
-      <c r="I14" s="34"/>
-      <c r="J14" s="27" t="s">
+      <c r="H14" s="40"/>
+      <c r="I14" s="41"/>
+      <c r="J14" s="36" t="s">
         <v>81</v>
       </c>
-      <c r="K14" s="27"/>
-    </row>
-    <row r="15" spans="1:29" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="K14" s="36"/>
+    </row>
+    <row r="15" spans="1:29" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
         <v>44</v>
       </c>
@@ -1417,14 +1426,14 @@
       <c r="G15" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="H15" s="33"/>
-      <c r="I15" s="34"/>
-      <c r="J15" s="27" t="s">
+      <c r="H15" s="40"/>
+      <c r="I15" s="41"/>
+      <c r="J15" s="36" t="s">
         <v>81</v>
       </c>
-      <c r="K15" s="27"/>
-    </row>
-    <row r="16" spans="1:29" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="K15" s="36"/>
+    </row>
+    <row r="16" spans="1:29" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
         <v>46</v>
       </c>
@@ -1446,14 +1455,14 @@
       <c r="G16" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="H16" s="33"/>
-      <c r="I16" s="34"/>
-      <c r="J16" s="27" t="s">
+      <c r="H16" s="40"/>
+      <c r="I16" s="41"/>
+      <c r="J16" s="36" t="s">
         <v>81</v>
       </c>
-      <c r="K16" s="27"/>
-    </row>
-    <row r="17" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="K16" s="36"/>
+    </row>
+    <row r="17" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
         <v>50</v>
       </c>
@@ -1475,14 +1484,14 @@
       <c r="G17" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="H17" s="33"/>
-      <c r="I17" s="34"/>
-      <c r="J17" s="27" t="s">
+      <c r="H17" s="40"/>
+      <c r="I17" s="41"/>
+      <c r="J17" s="36" t="s">
         <v>81</v>
       </c>
-      <c r="K17" s="27"/>
-    </row>
-    <row r="18" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="K17" s="36"/>
+    </row>
+    <row r="18" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
         <v>52</v>
       </c>
@@ -1504,14 +1513,14 @@
       <c r="G18" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="H18" s="33"/>
-      <c r="I18" s="34"/>
-      <c r="J18" s="27" t="s">
+      <c r="H18" s="40"/>
+      <c r="I18" s="41"/>
+      <c r="J18" s="36" t="s">
         <v>81</v>
       </c>
-      <c r="K18" s="27"/>
-    </row>
-    <row r="19" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="K18" s="36"/>
+    </row>
+    <row r="19" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A19" s="15" t="s">
         <v>55</v>
       </c>
@@ -1533,29 +1542,29 @@
       <c r="G19" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="H19" s="33"/>
-      <c r="I19" s="34"/>
-      <c r="J19" s="27" t="s">
+      <c r="H19" s="40"/>
+      <c r="I19" s="41"/>
+      <c r="J19" s="36" t="s">
         <v>81</v>
       </c>
-      <c r="K19" s="27"/>
-    </row>
-    <row r="20" spans="1:11" ht="26" x14ac:dyDescent="0.6">
-      <c r="A20" s="40" t="s">
+      <c r="K19" s="36"/>
+    </row>
+    <row r="20" spans="1:11" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A20" s="37" t="s">
         <v>84</v>
       </c>
-      <c r="B20" s="41"/>
-      <c r="C20" s="41"/>
-      <c r="D20" s="41"/>
-      <c r="E20" s="41"/>
-      <c r="F20" s="41"/>
-      <c r="G20" s="41"/>
-      <c r="H20" s="41"/>
-      <c r="I20" s="41"/>
-      <c r="J20" s="41"/>
-      <c r="K20" s="42"/>
-    </row>
-    <row r="21" spans="1:11" s="16" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B20" s="34"/>
+      <c r="C20" s="34"/>
+      <c r="D20" s="34"/>
+      <c r="E20" s="34"/>
+      <c r="F20" s="34"/>
+      <c r="G20" s="34"/>
+      <c r="H20" s="34"/>
+      <c r="I20" s="34"/>
+      <c r="J20" s="34"/>
+      <c r="K20" s="35"/>
+    </row>
+    <row r="21" spans="1:11" s="16" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="13" t="s">
         <v>55</v>
       </c>
@@ -1577,16 +1586,16 @@
       <c r="G21" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="H21" s="37" t="s">
+      <c r="H21" s="43" t="s">
         <v>72</v>
       </c>
-      <c r="I21" s="38"/>
-      <c r="J21" s="27" t="s">
+      <c r="I21" s="32"/>
+      <c r="J21" s="36" t="s">
         <v>82</v>
       </c>
-      <c r="K21" s="27"/>
-    </row>
-    <row r="22" spans="1:11" s="19" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="K21" s="36"/>
+    </row>
+    <row r="22" spans="1:11" s="19" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A22" s="20" t="s">
         <v>7</v>
       </c>
@@ -1608,14 +1617,14 @@
       <c r="G22" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="H22" s="39"/>
-      <c r="I22" s="38"/>
-      <c r="J22" s="27" t="s">
+      <c r="H22" s="31"/>
+      <c r="I22" s="32"/>
+      <c r="J22" s="36" t="s">
         <v>82</v>
       </c>
-      <c r="K22" s="27"/>
-    </row>
-    <row r="23" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="K22" s="36"/>
+    </row>
+    <row r="23" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A23" s="13" t="s">
         <v>46</v>
       </c>
@@ -1637,16 +1646,16 @@
       <c r="G23" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="H23" s="39" t="s">
+      <c r="H23" s="31" t="s">
         <v>73</v>
       </c>
-      <c r="I23" s="38"/>
-      <c r="J23" s="27" t="s">
+      <c r="I23" s="32"/>
+      <c r="J23" s="36" t="s">
         <v>82</v>
       </c>
-      <c r="K23" s="27"/>
-    </row>
-    <row r="24" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="K23" s="36"/>
+    </row>
+    <row r="24" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A24" s="13" t="s">
         <v>50</v>
       </c>
@@ -1672,12 +1681,12 @@
         <v>74</v>
       </c>
       <c r="I24" s="25"/>
-      <c r="J24" s="27" t="s">
+      <c r="J24" s="36" t="s">
         <v>82</v>
       </c>
-      <c r="K24" s="27"/>
-    </row>
-    <row r="25" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="K24" s="36"/>
+    </row>
+    <row r="25" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A25" s="13" t="s">
         <v>70</v>
       </c>
@@ -1699,16 +1708,16 @@
       <c r="G25" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="H25" s="39" t="s">
+      <c r="H25" s="31" t="s">
         <v>76</v>
       </c>
-      <c r="I25" s="38"/>
-      <c r="J25" s="27" t="s">
+      <c r="I25" s="32"/>
+      <c r="J25" s="36" t="s">
         <v>82</v>
       </c>
-      <c r="K25" s="27"/>
-    </row>
-    <row r="26" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="K25" s="36"/>
+    </row>
+    <row r="26" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A26" s="13" t="s">
         <v>77</v>
       </c>
@@ -1730,29 +1739,29 @@
       <c r="G26" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="H26" s="39"/>
-      <c r="I26" s="38"/>
-      <c r="J26" s="27" t="s">
+      <c r="H26" s="31"/>
+      <c r="I26" s="32"/>
+      <c r="J26" s="36" t="s">
         <v>82</v>
       </c>
-      <c r="K26" s="27"/>
-    </row>
-    <row r="27" spans="1:11" ht="26" x14ac:dyDescent="0.6">
-      <c r="A27" s="40" t="s">
+      <c r="K26" s="36"/>
+    </row>
+    <row r="27" spans="1:11" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A27" s="37" t="s">
         <v>83</v>
       </c>
-      <c r="B27" s="41"/>
-      <c r="C27" s="41"/>
-      <c r="D27" s="41"/>
-      <c r="E27" s="41"/>
-      <c r="F27" s="41"/>
-      <c r="G27" s="41"/>
-      <c r="H27" s="41"/>
-      <c r="I27" s="41"/>
-      <c r="J27" s="41"/>
-      <c r="K27" s="42"/>
-    </row>
-    <row r="28" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="B27" s="34"/>
+      <c r="C27" s="34"/>
+      <c r="D27" s="34"/>
+      <c r="E27" s="34"/>
+      <c r="F27" s="34"/>
+      <c r="G27" s="34"/>
+      <c r="H27" s="34"/>
+      <c r="I27" s="34"/>
+      <c r="J27" s="34"/>
+      <c r="K27" s="35"/>
+    </row>
+    <row r="28" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A28" s="13" t="s">
         <v>55</v>
       </c>
@@ -1774,14 +1783,14 @@
       <c r="G28" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="H28" s="30"/>
-      <c r="I28" s="31"/>
-      <c r="J28" s="30" t="s">
+      <c r="H28" s="38"/>
+      <c r="I28" s="39"/>
+      <c r="J28" s="38" t="s">
         <v>88</v>
       </c>
-      <c r="K28" s="31"/>
-    </row>
-    <row r="29" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="K28" s="39"/>
+    </row>
+    <row r="29" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A29" s="13" t="s">
         <v>91</v>
       </c>
@@ -1803,42 +1812,74 @@
       <c r="G29" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="H29" s="39" t="s">
+      <c r="H29" s="31" t="s">
         <v>90</v>
       </c>
-      <c r="I29" s="38"/>
-      <c r="J29" s="32" t="s">
+      <c r="I29" s="32"/>
+      <c r="J29" s="42" t="s">
         <v>88</v>
       </c>
-      <c r="K29" s="27"/>
-    </row>
-    <row r="30" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A30" s="13"/>
-      <c r="B30" s="18"/>
-      <c r="C30" s="18"/>
-      <c r="D30" s="26"/>
-      <c r="E30" s="13"/>
-      <c r="F30" s="13"/>
-      <c r="G30" s="15"/>
-      <c r="H30" s="39"/>
-      <c r="I30" s="38"/>
-      <c r="J30" s="27"/>
-      <c r="K30" s="27"/>
-    </row>
-    <row r="31" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A31" s="13"/>
-      <c r="B31" s="18"/>
-      <c r="C31" s="18"/>
-      <c r="D31" s="26"/>
-      <c r="E31" s="13"/>
-      <c r="F31" s="13"/>
-      <c r="G31" s="15"/>
-      <c r="H31" s="39"/>
-      <c r="I31" s="38"/>
-      <c r="J31" s="27"/>
-      <c r="K31" s="27"/>
-    </row>
-    <row r="32" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="K29" s="36"/>
+    </row>
+    <row r="30" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A30" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="B30" s="17">
+        <v>45767</v>
+      </c>
+      <c r="C30" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="D30" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="E30" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="F30" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="G30" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="H30" s="31"/>
+      <c r="I30" s="32"/>
+      <c r="J30" s="36" t="s">
+        <v>128</v>
+      </c>
+      <c r="K30" s="36"/>
+    </row>
+    <row r="31" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A31" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="B31" s="17">
+        <v>45767</v>
+      </c>
+      <c r="C31" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="D31" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="E31" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="F31" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="G31" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="H31" s="31"/>
+      <c r="I31" s="32"/>
+      <c r="J31" s="36" t="s">
+        <v>128</v>
+      </c>
+      <c r="K31" s="36"/>
+    </row>
+    <row r="32" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A32" s="13"/>
       <c r="B32" s="18"/>
       <c r="C32" s="18"/>
@@ -1846,12 +1887,12 @@
       <c r="E32" s="13"/>
       <c r="F32" s="13"/>
       <c r="G32" s="15"/>
-      <c r="H32" s="39"/>
-      <c r="I32" s="38"/>
-      <c r="J32" s="27"/>
-      <c r="K32" s="27"/>
-    </row>
-    <row r="33" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="H32" s="31"/>
+      <c r="I32" s="32"/>
+      <c r="J32" s="36"/>
+      <c r="K32" s="36"/>
+    </row>
+    <row r="33" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A33" s="13"/>
       <c r="B33" s="18"/>
       <c r="C33" s="18"/>
@@ -1859,12 +1900,12 @@
       <c r="E33" s="13"/>
       <c r="F33" s="13"/>
       <c r="G33" s="15"/>
-      <c r="H33" s="39"/>
-      <c r="I33" s="38"/>
-      <c r="J33" s="27"/>
-      <c r="K33" s="27"/>
-    </row>
-    <row r="34" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="H33" s="31"/>
+      <c r="I33" s="32"/>
+      <c r="J33" s="36"/>
+      <c r="K33" s="36"/>
+    </row>
+    <row r="34" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A34" s="13"/>
       <c r="B34" s="18"/>
       <c r="C34" s="18"/>
@@ -1872,12 +1913,12 @@
       <c r="E34" s="13"/>
       <c r="F34" s="13"/>
       <c r="G34" s="15"/>
-      <c r="H34" s="39"/>
-      <c r="I34" s="38"/>
-      <c r="J34" s="27"/>
-      <c r="K34" s="27"/>
-    </row>
-    <row r="35" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="H34" s="31"/>
+      <c r="I34" s="32"/>
+      <c r="J34" s="36"/>
+      <c r="K34" s="36"/>
+    </row>
+    <row r="35" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A35" s="13"/>
       <c r="B35" s="18"/>
       <c r="C35" s="18"/>
@@ -1885,12 +1926,12 @@
       <c r="E35" s="13"/>
       <c r="F35" s="13"/>
       <c r="G35" s="15"/>
-      <c r="H35" s="39"/>
-      <c r="I35" s="38"/>
-      <c r="J35" s="27"/>
-      <c r="K35" s="27"/>
-    </row>
-    <row r="36" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="H35" s="31"/>
+      <c r="I35" s="32"/>
+      <c r="J35" s="36"/>
+      <c r="K35" s="36"/>
+    </row>
+    <row r="36" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A36" s="13"/>
       <c r="B36" s="18"/>
       <c r="C36" s="18"/>
@@ -1898,12 +1939,12 @@
       <c r="E36" s="13"/>
       <c r="F36" s="13"/>
       <c r="G36" s="15"/>
-      <c r="H36" s="39"/>
-      <c r="I36" s="38"/>
-      <c r="J36" s="27"/>
-      <c r="K36" s="27"/>
-    </row>
-    <row r="37" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="H36" s="31"/>
+      <c r="I36" s="32"/>
+      <c r="J36" s="36"/>
+      <c r="K36" s="36"/>
+    </row>
+    <row r="37" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A37" s="13"/>
       <c r="B37" s="18"/>
       <c r="C37" s="18"/>
@@ -1911,12 +1952,12 @@
       <c r="E37" s="13"/>
       <c r="F37" s="13"/>
       <c r="G37" s="15"/>
-      <c r="H37" s="39"/>
-      <c r="I37" s="38"/>
-      <c r="J37" s="27"/>
-      <c r="K37" s="27"/>
-    </row>
-    <row r="38" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="H37" s="31"/>
+      <c r="I37" s="32"/>
+      <c r="J37" s="36"/>
+      <c r="K37" s="36"/>
+    </row>
+    <row r="38" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A38" s="13"/>
       <c r="B38" s="18"/>
       <c r="C38" s="18"/>
@@ -1924,12 +1965,12 @@
       <c r="E38" s="13"/>
       <c r="F38" s="13"/>
       <c r="G38" s="15"/>
-      <c r="H38" s="39"/>
-      <c r="I38" s="38"/>
-      <c r="J38" s="27"/>
-      <c r="K38" s="27"/>
-    </row>
-    <row r="39" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="H38" s="31"/>
+      <c r="I38" s="32"/>
+      <c r="J38" s="36"/>
+      <c r="K38" s="36"/>
+    </row>
+    <row r="39" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A39" s="13"/>
       <c r="B39" s="18"/>
       <c r="C39" s="18"/>
@@ -1937,12 +1978,12 @@
       <c r="E39" s="13"/>
       <c r="F39" s="13"/>
       <c r="G39" s="15"/>
-      <c r="H39" s="39"/>
-      <c r="I39" s="38"/>
-      <c r="J39" s="27"/>
-      <c r="K39" s="27"/>
-    </row>
-    <row r="40" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="H39" s="31"/>
+      <c r="I39" s="32"/>
+      <c r="J39" s="36"/>
+      <c r="K39" s="36"/>
+    </row>
+    <row r="40" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A40" s="13"/>
       <c r="B40" s="18"/>
       <c r="C40" s="18"/>
@@ -1950,12 +1991,12 @@
       <c r="E40" s="13"/>
       <c r="F40" s="13"/>
       <c r="G40" s="15"/>
-      <c r="H40" s="39"/>
-      <c r="I40" s="38"/>
-      <c r="J40" s="27"/>
-      <c r="K40" s="27"/>
-    </row>
-    <row r="41" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="H40" s="31"/>
+      <c r="I40" s="32"/>
+      <c r="J40" s="36"/>
+      <c r="K40" s="36"/>
+    </row>
+    <row r="41" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A41" s="13"/>
       <c r="B41" s="18"/>
       <c r="C41" s="18"/>
@@ -1963,12 +2004,12 @@
       <c r="E41" s="13"/>
       <c r="F41" s="13"/>
       <c r="G41" s="15"/>
-      <c r="H41" s="39"/>
-      <c r="I41" s="38"/>
-      <c r="J41" s="27"/>
-      <c r="K41" s="27"/>
-    </row>
-    <row r="42" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="H41" s="31"/>
+      <c r="I41" s="32"/>
+      <c r="J41" s="36"/>
+      <c r="K41" s="36"/>
+    </row>
+    <row r="42" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A42" s="13"/>
       <c r="B42" s="18"/>
       <c r="C42" s="18"/>
@@ -1976,12 +2017,12 @@
       <c r="E42" s="13"/>
       <c r="F42" s="13"/>
       <c r="G42" s="15"/>
-      <c r="H42" s="39"/>
-      <c r="I42" s="38"/>
-      <c r="J42" s="27"/>
-      <c r="K42" s="27"/>
-    </row>
-    <row r="43" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="H42" s="31"/>
+      <c r="I42" s="32"/>
+      <c r="J42" s="36"/>
+      <c r="K42" s="36"/>
+    </row>
+    <row r="43" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A43" s="13"/>
       <c r="B43" s="18"/>
       <c r="C43" s="18"/>
@@ -1989,12 +2030,12 @@
       <c r="E43" s="13"/>
       <c r="F43" s="13"/>
       <c r="G43" s="15"/>
-      <c r="H43" s="39"/>
-      <c r="I43" s="38"/>
-      <c r="J43" s="27"/>
-      <c r="K43" s="27"/>
-    </row>
-    <row r="44" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="H43" s="31"/>
+      <c r="I43" s="32"/>
+      <c r="J43" s="36"/>
+      <c r="K43" s="36"/>
+    </row>
+    <row r="44" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A44" s="13"/>
       <c r="B44" s="18"/>
       <c r="C44" s="18"/>
@@ -2002,12 +2043,12 @@
       <c r="E44" s="13"/>
       <c r="F44" s="13"/>
       <c r="G44" s="15"/>
-      <c r="H44" s="39"/>
-      <c r="I44" s="38"/>
-      <c r="J44" s="27"/>
-      <c r="K44" s="27"/>
-    </row>
-    <row r="45" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="H44" s="31"/>
+      <c r="I44" s="32"/>
+      <c r="J44" s="36"/>
+      <c r="K44" s="36"/>
+    </row>
+    <row r="45" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A45" s="13"/>
       <c r="B45" s="18"/>
       <c r="C45" s="18"/>
@@ -2015,12 +2056,12 @@
       <c r="E45" s="13"/>
       <c r="F45" s="13"/>
       <c r="G45" s="15"/>
-      <c r="H45" s="39"/>
-      <c r="I45" s="38"/>
-      <c r="J45" s="27"/>
-      <c r="K45" s="27"/>
-    </row>
-    <row r="46" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="H45" s="31"/>
+      <c r="I45" s="32"/>
+      <c r="J45" s="36"/>
+      <c r="K45" s="36"/>
+    </row>
+    <row r="46" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A46" s="13"/>
       <c r="B46" s="18"/>
       <c r="C46" s="18"/>
@@ -2028,12 +2069,12 @@
       <c r="E46" s="13"/>
       <c r="F46" s="13"/>
       <c r="G46" s="15"/>
-      <c r="H46" s="39"/>
-      <c r="I46" s="38"/>
-      <c r="J46" s="27"/>
-      <c r="K46" s="27"/>
-    </row>
-    <row r="47" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="H46" s="31"/>
+      <c r="I46" s="32"/>
+      <c r="J46" s="36"/>
+      <c r="K46" s="36"/>
+    </row>
+    <row r="47" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A47" s="13"/>
       <c r="B47" s="18"/>
       <c r="C47" s="18"/>
@@ -2041,12 +2082,12 @@
       <c r="E47" s="13"/>
       <c r="F47" s="13"/>
       <c r="G47" s="15"/>
-      <c r="H47" s="39"/>
-      <c r="I47" s="38"/>
-      <c r="J47" s="27"/>
-      <c r="K47" s="27"/>
-    </row>
-    <row r="48" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="H47" s="31"/>
+      <c r="I47" s="32"/>
+      <c r="J47" s="36"/>
+      <c r="K47" s="36"/>
+    </row>
+    <row r="48" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A48" s="13"/>
       <c r="B48" s="18"/>
       <c r="C48" s="18"/>
@@ -2054,12 +2095,12 @@
       <c r="E48" s="13"/>
       <c r="F48" s="13"/>
       <c r="G48" s="15"/>
-      <c r="H48" s="39"/>
-      <c r="I48" s="38"/>
-      <c r="J48" s="27"/>
-      <c r="K48" s="27"/>
-    </row>
-    <row r="49" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="H48" s="31"/>
+      <c r="I48" s="32"/>
+      <c r="J48" s="36"/>
+      <c r="K48" s="36"/>
+    </row>
+    <row r="49" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A49" s="13"/>
       <c r="B49" s="18"/>
       <c r="C49" s="18"/>
@@ -2067,12 +2108,12 @@
       <c r="E49" s="13"/>
       <c r="F49" s="13"/>
       <c r="G49" s="15"/>
-      <c r="H49" s="39"/>
-      <c r="I49" s="38"/>
-      <c r="J49" s="27"/>
-      <c r="K49" s="27"/>
-    </row>
-    <row r="50" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="H49" s="31"/>
+      <c r="I49" s="32"/>
+      <c r="J49" s="36"/>
+      <c r="K49" s="36"/>
+    </row>
+    <row r="50" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A50" s="13"/>
       <c r="B50" s="18"/>
       <c r="C50" s="18"/>
@@ -2080,12 +2121,12 @@
       <c r="E50" s="13"/>
       <c r="F50" s="13"/>
       <c r="G50" s="15"/>
-      <c r="H50" s="39"/>
-      <c r="I50" s="38"/>
-      <c r="J50" s="27"/>
-      <c r="K50" s="27"/>
-    </row>
-    <row r="51" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="H50" s="31"/>
+      <c r="I50" s="32"/>
+      <c r="J50" s="36"/>
+      <c r="K50" s="36"/>
+    </row>
+    <row r="51" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A51" s="13"/>
       <c r="B51" s="18"/>
       <c r="C51" s="18"/>
@@ -2093,12 +2134,12 @@
       <c r="E51" s="13"/>
       <c r="F51" s="13"/>
       <c r="G51" s="15"/>
-      <c r="H51" s="39"/>
-      <c r="I51" s="38"/>
-      <c r="J51" s="27"/>
-      <c r="K51" s="27"/>
-    </row>
-    <row r="52" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="H51" s="31"/>
+      <c r="I51" s="32"/>
+      <c r="J51" s="36"/>
+      <c r="K51" s="36"/>
+    </row>
+    <row r="52" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A52" s="13"/>
       <c r="B52" s="18"/>
       <c r="C52" s="18"/>
@@ -2106,12 +2147,12 @@
       <c r="E52" s="13"/>
       <c r="F52" s="13"/>
       <c r="G52" s="15"/>
-      <c r="H52" s="39"/>
-      <c r="I52" s="38"/>
-      <c r="J52" s="27"/>
-      <c r="K52" s="27"/>
-    </row>
-    <row r="53" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="H52" s="31"/>
+      <c r="I52" s="32"/>
+      <c r="J52" s="36"/>
+      <c r="K52" s="36"/>
+    </row>
+    <row r="53" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A53" s="13"/>
       <c r="B53" s="13"/>
       <c r="C53" s="13"/>
@@ -2119,12 +2160,12 @@
       <c r="E53" s="13"/>
       <c r="F53" s="13"/>
       <c r="G53" s="15"/>
-      <c r="H53" s="39"/>
-      <c r="I53" s="38"/>
-      <c r="J53" s="27"/>
-      <c r="K53" s="27"/>
-    </row>
-    <row r="54" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="H53" s="31"/>
+      <c r="I53" s="32"/>
+      <c r="J53" s="36"/>
+      <c r="K53" s="36"/>
+    </row>
+    <row r="54" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A54" s="13"/>
       <c r="B54" s="13"/>
       <c r="C54" s="13"/>
@@ -2132,12 +2173,12 @@
       <c r="E54" s="13"/>
       <c r="F54" s="13"/>
       <c r="G54" s="15"/>
-      <c r="H54" s="39"/>
-      <c r="I54" s="38"/>
-      <c r="J54" s="27"/>
-      <c r="K54" s="27"/>
-    </row>
-    <row r="55" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="H54" s="31"/>
+      <c r="I54" s="32"/>
+      <c r="J54" s="36"/>
+      <c r="K54" s="36"/>
+    </row>
+    <row r="55" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A55" s="13"/>
       <c r="B55" s="13"/>
       <c r="C55" s="13"/>
@@ -2145,12 +2186,12 @@
       <c r="E55" s="13"/>
       <c r="F55" s="13"/>
       <c r="G55" s="15"/>
-      <c r="H55" s="39"/>
-      <c r="I55" s="38"/>
-      <c r="J55" s="27"/>
-      <c r="K55" s="27"/>
-    </row>
-    <row r="56" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="H55" s="31"/>
+      <c r="I55" s="32"/>
+      <c r="J55" s="36"/>
+      <c r="K55" s="36"/>
+    </row>
+    <row r="56" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A56" s="13"/>
       <c r="B56" s="13"/>
       <c r="C56" s="13"/>
@@ -2158,12 +2199,12 @@
       <c r="E56" s="13"/>
       <c r="F56" s="13"/>
       <c r="G56" s="15"/>
-      <c r="H56" s="39"/>
-      <c r="I56" s="38"/>
-      <c r="J56" s="27"/>
-      <c r="K56" s="27"/>
-    </row>
-    <row r="57" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="H56" s="31"/>
+      <c r="I56" s="32"/>
+      <c r="J56" s="36"/>
+      <c r="K56" s="36"/>
+    </row>
+    <row r="57" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A57" s="13"/>
       <c r="B57" s="13"/>
       <c r="C57" s="13"/>
@@ -2171,12 +2212,12 @@
       <c r="E57" s="13"/>
       <c r="F57" s="13"/>
       <c r="G57" s="15"/>
-      <c r="H57" s="39"/>
-      <c r="I57" s="38"/>
-      <c r="J57" s="27"/>
-      <c r="K57" s="27"/>
-    </row>
-    <row r="58" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="H57" s="31"/>
+      <c r="I57" s="32"/>
+      <c r="J57" s="36"/>
+      <c r="K57" s="36"/>
+    </row>
+    <row r="58" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A58" s="13"/>
       <c r="B58" s="13"/>
       <c r="C58" s="13"/>
@@ -2184,12 +2225,12 @@
       <c r="E58" s="13"/>
       <c r="F58" s="13"/>
       <c r="G58" s="15"/>
-      <c r="H58" s="39"/>
-      <c r="I58" s="38"/>
-      <c r="J58" s="27"/>
-      <c r="K58" s="27"/>
-    </row>
-    <row r="59" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="H58" s="31"/>
+      <c r="I58" s="32"/>
+      <c r="J58" s="36"/>
+      <c r="K58" s="36"/>
+    </row>
+    <row r="59" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A59" s="13"/>
       <c r="B59" s="13"/>
       <c r="C59" s="13"/>
@@ -2197,12 +2238,12 @@
       <c r="E59" s="13"/>
       <c r="F59" s="13"/>
       <c r="G59" s="15"/>
-      <c r="H59" s="39"/>
-      <c r="I59" s="38"/>
-      <c r="J59" s="27"/>
-      <c r="K59" s="27"/>
-    </row>
-    <row r="60" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="H59" s="31"/>
+      <c r="I59" s="32"/>
+      <c r="J59" s="36"/>
+      <c r="K59" s="36"/>
+    </row>
+    <row r="60" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A60" s="13"/>
       <c r="B60" s="13"/>
       <c r="C60" s="13"/>
@@ -2210,12 +2251,12 @@
       <c r="E60" s="13"/>
       <c r="F60" s="13"/>
       <c r="G60" s="15"/>
-      <c r="H60" s="39"/>
-      <c r="I60" s="38"/>
-      <c r="J60" s="27"/>
-      <c r="K60" s="27"/>
-    </row>
-    <row r="61" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="H60" s="31"/>
+      <c r="I60" s="32"/>
+      <c r="J60" s="36"/>
+      <c r="K60" s="36"/>
+    </row>
+    <row r="61" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A61" s="13"/>
       <c r="B61" s="13"/>
       <c r="C61" s="13"/>
@@ -2223,12 +2264,12 @@
       <c r="E61" s="13"/>
       <c r="F61" s="13"/>
       <c r="G61" s="15"/>
-      <c r="H61" s="39"/>
-      <c r="I61" s="38"/>
-      <c r="J61" s="27"/>
-      <c r="K61" s="27"/>
-    </row>
-    <row r="62" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="H61" s="31"/>
+      <c r="I61" s="32"/>
+      <c r="J61" s="36"/>
+      <c r="K61" s="36"/>
+    </row>
+    <row r="62" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A62" s="13"/>
       <c r="B62" s="13"/>
       <c r="C62" s="13"/>
@@ -2236,12 +2277,12 @@
       <c r="E62" s="13"/>
       <c r="F62" s="13"/>
       <c r="G62" s="15"/>
-      <c r="H62" s="39"/>
-      <c r="I62" s="38"/>
-      <c r="J62" s="27"/>
-      <c r="K62" s="27"/>
-    </row>
-    <row r="63" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="H62" s="31"/>
+      <c r="I62" s="32"/>
+      <c r="J62" s="36"/>
+      <c r="K62" s="36"/>
+    </row>
+    <row r="63" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A63" s="13"/>
       <c r="B63" s="13"/>
       <c r="C63" s="13"/>
@@ -2249,12 +2290,12 @@
       <c r="E63" s="13"/>
       <c r="F63" s="13"/>
       <c r="G63" s="15"/>
-      <c r="H63" s="39"/>
-      <c r="I63" s="38"/>
-      <c r="J63" s="27"/>
-      <c r="K63" s="27"/>
-    </row>
-    <row r="64" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="H63" s="31"/>
+      <c r="I63" s="32"/>
+      <c r="J63" s="36"/>
+      <c r="K63" s="36"/>
+    </row>
+    <row r="64" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A64" s="13"/>
       <c r="B64" s="13"/>
       <c r="C64" s="13"/>
@@ -2262,12 +2303,12 @@
       <c r="E64" s="13"/>
       <c r="F64" s="13"/>
       <c r="G64" s="15"/>
-      <c r="H64" s="39"/>
-      <c r="I64" s="38"/>
-      <c r="J64" s="27"/>
-      <c r="K64" s="27"/>
-    </row>
-    <row r="65" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="H64" s="31"/>
+      <c r="I64" s="32"/>
+      <c r="J64" s="36"/>
+      <c r="K64" s="36"/>
+    </row>
+    <row r="65" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A65" s="13"/>
       <c r="B65" s="13"/>
       <c r="C65" s="13"/>
@@ -2275,12 +2316,12 @@
       <c r="E65" s="13"/>
       <c r="F65" s="13"/>
       <c r="G65" s="15"/>
-      <c r="H65" s="39"/>
-      <c r="I65" s="38"/>
-      <c r="J65" s="27"/>
-      <c r="K65" s="27"/>
-    </row>
-    <row r="66" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="H65" s="31"/>
+      <c r="I65" s="32"/>
+      <c r="J65" s="36"/>
+      <c r="K65" s="36"/>
+    </row>
+    <row r="66" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A66" s="13"/>
       <c r="B66" s="13"/>
       <c r="C66" s="13"/>
@@ -2288,12 +2329,12 @@
       <c r="E66" s="13"/>
       <c r="F66" s="13"/>
       <c r="G66" s="15"/>
-      <c r="H66" s="39"/>
-      <c r="I66" s="38"/>
-      <c r="J66" s="27"/>
-      <c r="K66" s="27"/>
-    </row>
-    <row r="67" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="H66" s="31"/>
+      <c r="I66" s="32"/>
+      <c r="J66" s="36"/>
+      <c r="K66" s="36"/>
+    </row>
+    <row r="67" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A67" s="13"/>
       <c r="B67" s="13"/>
       <c r="C67" s="13"/>
@@ -2301,12 +2342,12 @@
       <c r="E67" s="13"/>
       <c r="F67" s="13"/>
       <c r="G67" s="15"/>
-      <c r="H67" s="39"/>
-      <c r="I67" s="38"/>
-      <c r="J67" s="27"/>
-      <c r="K67" s="27"/>
-    </row>
-    <row r="68" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="H67" s="31"/>
+      <c r="I67" s="32"/>
+      <c r="J67" s="36"/>
+      <c r="K67" s="36"/>
+    </row>
+    <row r="68" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A68" s="13"/>
       <c r="B68" s="13"/>
       <c r="C68" s="13"/>
@@ -2314,12 +2355,12 @@
       <c r="E68" s="13"/>
       <c r="F68" s="13"/>
       <c r="G68" s="15"/>
-      <c r="H68" s="39"/>
-      <c r="I68" s="38"/>
-      <c r="J68" s="27"/>
-      <c r="K68" s="27"/>
-    </row>
-    <row r="69" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="H68" s="31"/>
+      <c r="I68" s="32"/>
+      <c r="J68" s="36"/>
+      <c r="K68" s="36"/>
+    </row>
+    <row r="69" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A69" s="13"/>
       <c r="B69" s="13"/>
       <c r="C69" s="13"/>
@@ -2327,12 +2368,12 @@
       <c r="E69" s="13"/>
       <c r="F69" s="13"/>
       <c r="G69" s="15"/>
-      <c r="H69" s="39"/>
-      <c r="I69" s="38"/>
-      <c r="J69" s="27"/>
-      <c r="K69" s="27"/>
-    </row>
-    <row r="70" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="H69" s="31"/>
+      <c r="I69" s="32"/>
+      <c r="J69" s="36"/>
+      <c r="K69" s="36"/>
+    </row>
+    <row r="70" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A70" s="13"/>
       <c r="B70" s="13"/>
       <c r="C70" s="13"/>
@@ -2340,12 +2381,12 @@
       <c r="E70" s="13"/>
       <c r="F70" s="13"/>
       <c r="G70" s="15"/>
-      <c r="H70" s="39"/>
-      <c r="I70" s="38"/>
-      <c r="J70" s="27"/>
-      <c r="K70" s="27"/>
-    </row>
-    <row r="71" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="H70" s="31"/>
+      <c r="I70" s="32"/>
+      <c r="J70" s="36"/>
+      <c r="K70" s="36"/>
+    </row>
+    <row r="71" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A71" s="13"/>
       <c r="B71" s="13"/>
       <c r="C71" s="13"/>
@@ -2353,12 +2394,12 @@
       <c r="E71" s="13"/>
       <c r="F71" s="13"/>
       <c r="G71" s="15"/>
-      <c r="H71" s="39"/>
-      <c r="I71" s="38"/>
-      <c r="J71" s="27"/>
-      <c r="K71" s="27"/>
-    </row>
-    <row r="72" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="H71" s="31"/>
+      <c r="I71" s="32"/>
+      <c r="J71" s="36"/>
+      <c r="K71" s="36"/>
+    </row>
+    <row r="72" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A72" s="13"/>
       <c r="B72" s="13"/>
       <c r="C72" s="13"/>
@@ -2366,12 +2407,12 @@
       <c r="E72" s="13"/>
       <c r="F72" s="13"/>
       <c r="G72" s="15"/>
-      <c r="H72" s="39"/>
-      <c r="I72" s="38"/>
-      <c r="J72" s="27"/>
-      <c r="K72" s="27"/>
-    </row>
-    <row r="73" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="H72" s="31"/>
+      <c r="I72" s="32"/>
+      <c r="J72" s="36"/>
+      <c r="K72" s="36"/>
+    </row>
+    <row r="73" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A73" s="13"/>
       <c r="B73" s="13"/>
       <c r="C73" s="13"/>
@@ -2379,12 +2420,12 @@
       <c r="E73" s="13"/>
       <c r="F73" s="13"/>
       <c r="G73" s="15"/>
-      <c r="H73" s="39"/>
-      <c r="I73" s="38"/>
-      <c r="J73" s="27"/>
-      <c r="K73" s="27"/>
-    </row>
-    <row r="74" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="H73" s="31"/>
+      <c r="I73" s="32"/>
+      <c r="J73" s="36"/>
+      <c r="K73" s="36"/>
+    </row>
+    <row r="74" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A74" s="13"/>
       <c r="B74" s="13"/>
       <c r="C74" s="13"/>
@@ -2392,12 +2433,12 @@
       <c r="E74" s="13"/>
       <c r="F74" s="13"/>
       <c r="G74" s="15"/>
-      <c r="H74" s="39"/>
-      <c r="I74" s="38"/>
-      <c r="J74" s="27"/>
-      <c r="K74" s="27"/>
-    </row>
-    <row r="75" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="H74" s="31"/>
+      <c r="I74" s="32"/>
+      <c r="J74" s="36"/>
+      <c r="K74" s="36"/>
+    </row>
+    <row r="75" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A75" s="13"/>
       <c r="B75" s="13"/>
       <c r="C75" s="13"/>
@@ -2405,12 +2446,12 @@
       <c r="E75" s="13"/>
       <c r="F75" s="13"/>
       <c r="G75" s="15"/>
-      <c r="H75" s="39"/>
-      <c r="I75" s="38"/>
-      <c r="J75" s="27"/>
-      <c r="K75" s="27"/>
-    </row>
-    <row r="76" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="H75" s="31"/>
+      <c r="I75" s="32"/>
+      <c r="J75" s="36"/>
+      <c r="K75" s="36"/>
+    </row>
+    <row r="76" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A76" s="13"/>
       <c r="B76" s="13"/>
       <c r="C76" s="13"/>
@@ -2418,12 +2459,12 @@
       <c r="E76" s="13"/>
       <c r="F76" s="13"/>
       <c r="G76" s="15"/>
-      <c r="H76" s="39"/>
-      <c r="I76" s="38"/>
-      <c r="J76" s="27"/>
-      <c r="K76" s="27"/>
-    </row>
-    <row r="77" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="H76" s="31"/>
+      <c r="I76" s="32"/>
+      <c r="J76" s="36"/>
+      <c r="K76" s="36"/>
+    </row>
+    <row r="77" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A77" s="13"/>
       <c r="B77" s="13"/>
       <c r="C77" s="13"/>
@@ -2431,12 +2472,12 @@
       <c r="E77" s="13"/>
       <c r="F77" s="13"/>
       <c r="G77" s="15"/>
-      <c r="H77" s="39"/>
-      <c r="I77" s="38"/>
-      <c r="J77" s="27"/>
-      <c r="K77" s="27"/>
-    </row>
-    <row r="78" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="H77" s="31"/>
+      <c r="I77" s="32"/>
+      <c r="J77" s="36"/>
+      <c r="K77" s="36"/>
+    </row>
+    <row r="78" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A78" s="13"/>
       <c r="B78" s="13"/>
       <c r="C78" s="13"/>
@@ -2444,12 +2485,12 @@
       <c r="E78" s="13"/>
       <c r="F78" s="13"/>
       <c r="G78" s="15"/>
-      <c r="H78" s="39"/>
-      <c r="I78" s="38"/>
-      <c r="J78" s="27"/>
-      <c r="K78" s="27"/>
-    </row>
-    <row r="79" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="H78" s="31"/>
+      <c r="I78" s="32"/>
+      <c r="J78" s="36"/>
+      <c r="K78" s="36"/>
+    </row>
+    <row r="79" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A79" s="13"/>
       <c r="B79" s="13"/>
       <c r="C79" s="13"/>
@@ -2457,12 +2498,12 @@
       <c r="E79" s="13"/>
       <c r="F79" s="13"/>
       <c r="G79" s="15"/>
-      <c r="H79" s="39"/>
-      <c r="I79" s="38"/>
-      <c r="J79" s="27"/>
-      <c r="K79" s="27"/>
-    </row>
-    <row r="80" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="H79" s="31"/>
+      <c r="I79" s="32"/>
+      <c r="J79" s="36"/>
+      <c r="K79" s="36"/>
+    </row>
+    <row r="80" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A80" s="13"/>
       <c r="B80" s="13"/>
       <c r="C80" s="13"/>
@@ -2470,12 +2511,12 @@
       <c r="E80" s="13"/>
       <c r="F80" s="13"/>
       <c r="G80" s="15"/>
-      <c r="H80" s="39"/>
-      <c r="I80" s="38"/>
-      <c r="J80" s="27"/>
-      <c r="K80" s="27"/>
-    </row>
-    <row r="81" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="H80" s="31"/>
+      <c r="I80" s="32"/>
+      <c r="J80" s="36"/>
+      <c r="K80" s="36"/>
+    </row>
+    <row r="81" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A81" s="13"/>
       <c r="B81" s="13"/>
       <c r="C81" s="13"/>
@@ -2483,12 +2524,12 @@
       <c r="E81" s="13"/>
       <c r="F81" s="13"/>
       <c r="G81" s="15"/>
-      <c r="H81" s="39"/>
-      <c r="I81" s="38"/>
-      <c r="J81" s="27"/>
-      <c r="K81" s="27"/>
-    </row>
-    <row r="82" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="H81" s="31"/>
+      <c r="I81" s="32"/>
+      <c r="J81" s="36"/>
+      <c r="K81" s="36"/>
+    </row>
+    <row r="82" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A82" s="13"/>
       <c r="B82" s="13"/>
       <c r="C82" s="13"/>
@@ -2496,12 +2537,12 @@
       <c r="E82" s="13"/>
       <c r="F82" s="13"/>
       <c r="G82" s="15"/>
-      <c r="H82" s="39"/>
-      <c r="I82" s="38"/>
-      <c r="J82" s="27"/>
-      <c r="K82" s="27"/>
-    </row>
-    <row r="83" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="H82" s="31"/>
+      <c r="I82" s="32"/>
+      <c r="J82" s="36"/>
+      <c r="K82" s="36"/>
+    </row>
+    <row r="83" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A83" s="13"/>
       <c r="B83" s="13"/>
       <c r="C83" s="13"/>
@@ -2509,12 +2550,12 @@
       <c r="E83" s="13"/>
       <c r="F83" s="13"/>
       <c r="G83" s="15"/>
-      <c r="H83" s="39"/>
-      <c r="I83" s="38"/>
-      <c r="J83" s="27"/>
-      <c r="K83" s="27"/>
-    </row>
-    <row r="84" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="H83" s="31"/>
+      <c r="I83" s="32"/>
+      <c r="J83" s="36"/>
+      <c r="K83" s="36"/>
+    </row>
+    <row r="84" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A84" s="13"/>
       <c r="B84" s="13"/>
       <c r="C84" s="13"/>
@@ -2522,12 +2563,12 @@
       <c r="E84" s="13"/>
       <c r="F84" s="13"/>
       <c r="G84" s="15"/>
-      <c r="H84" s="39"/>
-      <c r="I84" s="38"/>
-      <c r="J84" s="27"/>
-      <c r="K84" s="27"/>
-    </row>
-    <row r="85" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="H84" s="31"/>
+      <c r="I84" s="32"/>
+      <c r="J84" s="36"/>
+      <c r="K84" s="36"/>
+    </row>
+    <row r="85" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A85" s="13"/>
       <c r="B85" s="13"/>
       <c r="C85" s="13"/>
@@ -2535,12 +2576,12 @@
       <c r="E85" s="13"/>
       <c r="F85" s="13"/>
       <c r="G85" s="15"/>
-      <c r="H85" s="39"/>
-      <c r="I85" s="38"/>
-      <c r="J85" s="27"/>
-      <c r="K85" s="27"/>
-    </row>
-    <row r="86" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="H85" s="31"/>
+      <c r="I85" s="32"/>
+      <c r="J85" s="36"/>
+      <c r="K85" s="36"/>
+    </row>
+    <row r="86" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A86" s="13"/>
       <c r="B86" s="13"/>
       <c r="C86" s="13"/>
@@ -2548,12 +2589,12 @@
       <c r="E86" s="13"/>
       <c r="F86" s="13"/>
       <c r="G86" s="15"/>
-      <c r="H86" s="39"/>
-      <c r="I86" s="38"/>
-      <c r="J86" s="27"/>
-      <c r="K86" s="27"/>
-    </row>
-    <row r="87" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="H86" s="31"/>
+      <c r="I86" s="32"/>
+      <c r="J86" s="36"/>
+      <c r="K86" s="36"/>
+    </row>
+    <row r="87" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A87" s="13"/>
       <c r="B87" s="13"/>
       <c r="C87" s="13"/>
@@ -2561,12 +2602,12 @@
       <c r="E87" s="13"/>
       <c r="F87" s="13"/>
       <c r="G87" s="15"/>
-      <c r="H87" s="39"/>
-      <c r="I87" s="38"/>
-      <c r="J87" s="27"/>
-      <c r="K87" s="27"/>
-    </row>
-    <row r="88" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="H87" s="31"/>
+      <c r="I87" s="32"/>
+      <c r="J87" s="36"/>
+      <c r="K87" s="36"/>
+    </row>
+    <row r="88" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A88" s="13"/>
       <c r="B88" s="13"/>
       <c r="C88" s="13"/>
@@ -2574,12 +2615,12 @@
       <c r="E88" s="13"/>
       <c r="F88" s="13"/>
       <c r="G88" s="15"/>
-      <c r="H88" s="39"/>
-      <c r="I88" s="38"/>
-      <c r="J88" s="27"/>
-      <c r="K88" s="27"/>
-    </row>
-    <row r="89" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="H88" s="31"/>
+      <c r="I88" s="32"/>
+      <c r="J88" s="36"/>
+      <c r="K88" s="36"/>
+    </row>
+    <row r="89" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A89" s="13"/>
       <c r="B89" s="13"/>
       <c r="C89" s="13"/>
@@ -2587,12 +2628,12 @@
       <c r="E89" s="13"/>
       <c r="F89" s="13"/>
       <c r="G89" s="15"/>
-      <c r="H89" s="39"/>
-      <c r="I89" s="38"/>
-      <c r="J89" s="27"/>
-      <c r="K89" s="27"/>
-    </row>
-    <row r="90" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="H89" s="31"/>
+      <c r="I89" s="32"/>
+      <c r="J89" s="36"/>
+      <c r="K89" s="36"/>
+    </row>
+    <row r="90" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A90" s="13"/>
       <c r="B90" s="13"/>
       <c r="C90" s="13"/>
@@ -2600,12 +2641,12 @@
       <c r="E90" s="13"/>
       <c r="F90" s="13"/>
       <c r="G90" s="15"/>
-      <c r="H90" s="39"/>
-      <c r="I90" s="38"/>
-      <c r="J90" s="27"/>
-      <c r="K90" s="27"/>
-    </row>
-    <row r="91" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="H90" s="31"/>
+      <c r="I90" s="32"/>
+      <c r="J90" s="36"/>
+      <c r="K90" s="36"/>
+    </row>
+    <row r="91" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A91" s="13"/>
       <c r="B91" s="13"/>
       <c r="C91" s="13"/>
@@ -2613,12 +2654,12 @@
       <c r="E91" s="13"/>
       <c r="F91" s="13"/>
       <c r="G91" s="15"/>
-      <c r="H91" s="39"/>
-      <c r="I91" s="38"/>
-      <c r="J91" s="27"/>
-      <c r="K91" s="27"/>
-    </row>
-    <row r="92" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="H91" s="31"/>
+      <c r="I91" s="32"/>
+      <c r="J91" s="36"/>
+      <c r="K91" s="36"/>
+    </row>
+    <row r="92" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A92" s="13"/>
       <c r="B92" s="13"/>
       <c r="C92" s="13"/>
@@ -2626,12 +2667,12 @@
       <c r="E92" s="13"/>
       <c r="F92" s="13"/>
       <c r="G92" s="15"/>
-      <c r="H92" s="39"/>
-      <c r="I92" s="38"/>
-      <c r="J92" s="27"/>
-      <c r="K92" s="27"/>
-    </row>
-    <row r="93" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="H92" s="31"/>
+      <c r="I92" s="32"/>
+      <c r="J92" s="36"/>
+      <c r="K92" s="36"/>
+    </row>
+    <row r="93" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A93" s="13"/>
       <c r="B93" s="13"/>
       <c r="C93" s="13"/>
@@ -2639,12 +2680,12 @@
       <c r="E93" s="13"/>
       <c r="F93" s="13"/>
       <c r="G93" s="15"/>
-      <c r="H93" s="39"/>
-      <c r="I93" s="38"/>
-      <c r="J93" s="27"/>
-      <c r="K93" s="27"/>
-    </row>
-    <row r="94" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="H93" s="31"/>
+      <c r="I93" s="32"/>
+      <c r="J93" s="36"/>
+      <c r="K93" s="36"/>
+    </row>
+    <row r="94" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A94" s="13"/>
       <c r="B94" s="13"/>
       <c r="C94" s="13"/>
@@ -2652,12 +2693,12 @@
       <c r="E94" s="13"/>
       <c r="F94" s="13"/>
       <c r="G94" s="15"/>
-      <c r="H94" s="39"/>
-      <c r="I94" s="38"/>
-      <c r="J94" s="27"/>
-      <c r="K94" s="27"/>
-    </row>
-    <row r="95" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="H94" s="31"/>
+      <c r="I94" s="32"/>
+      <c r="J94" s="36"/>
+      <c r="K94" s="36"/>
+    </row>
+    <row r="95" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A95" s="13"/>
       <c r="B95" s="13"/>
       <c r="C95" s="13"/>
@@ -2665,12 +2706,12 @@
       <c r="E95" s="13"/>
       <c r="F95" s="13"/>
       <c r="G95" s="15"/>
-      <c r="H95" s="39"/>
-      <c r="I95" s="38"/>
-      <c r="J95" s="27"/>
-      <c r="K95" s="27"/>
-    </row>
-    <row r="96" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="H95" s="31"/>
+      <c r="I95" s="32"/>
+      <c r="J95" s="36"/>
+      <c r="K95" s="36"/>
+    </row>
+    <row r="96" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A96" s="13"/>
       <c r="B96" s="13"/>
       <c r="C96" s="13"/>
@@ -2678,12 +2719,12 @@
       <c r="E96" s="13"/>
       <c r="F96" s="13"/>
       <c r="G96" s="15"/>
-      <c r="H96" s="39"/>
-      <c r="I96" s="38"/>
-      <c r="J96" s="27"/>
-      <c r="K96" s="27"/>
-    </row>
-    <row r="97" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="H96" s="31"/>
+      <c r="I96" s="32"/>
+      <c r="J96" s="36"/>
+      <c r="K96" s="36"/>
+    </row>
+    <row r="97" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A97" s="13"/>
       <c r="B97" s="13"/>
       <c r="C97" s="13"/>
@@ -2691,12 +2732,12 @@
       <c r="E97" s="13"/>
       <c r="F97" s="13"/>
       <c r="G97" s="15"/>
-      <c r="H97" s="39"/>
-      <c r="I97" s="38"/>
-      <c r="J97" s="27"/>
-      <c r="K97" s="27"/>
-    </row>
-    <row r="98" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="H97" s="31"/>
+      <c r="I97" s="32"/>
+      <c r="J97" s="36"/>
+      <c r="K97" s="36"/>
+    </row>
+    <row r="98" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A98" s="13"/>
       <c r="B98" s="13"/>
       <c r="C98" s="13"/>
@@ -2704,12 +2745,12 @@
       <c r="E98" s="13"/>
       <c r="F98" s="13"/>
       <c r="G98" s="15"/>
-      <c r="H98" s="39"/>
-      <c r="I98" s="38"/>
-      <c r="J98" s="27"/>
-      <c r="K98" s="27"/>
-    </row>
-    <row r="99" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="H98" s="31"/>
+      <c r="I98" s="32"/>
+      <c r="J98" s="36"/>
+      <c r="K98" s="36"/>
+    </row>
+    <row r="99" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A99" s="13"/>
       <c r="B99" s="13"/>
       <c r="C99" s="13"/>
@@ -2717,27 +2758,27 @@
       <c r="E99" s="13"/>
       <c r="F99" s="13"/>
       <c r="G99" s="15"/>
-      <c r="H99" s="39"/>
-      <c r="I99" s="38"/>
-      <c r="J99" s="32"/>
-      <c r="K99" s="27"/>
-    </row>
-    <row r="100" spans="1:11" ht="26" x14ac:dyDescent="0.6">
-      <c r="A100" s="43" t="s">
+      <c r="H99" s="31"/>
+      <c r="I99" s="32"/>
+      <c r="J99" s="42"/>
+      <c r="K99" s="36"/>
+    </row>
+    <row r="100" spans="1:11" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A100" s="33" t="s">
         <v>95</v>
       </c>
-      <c r="B100" s="41"/>
-      <c r="C100" s="41"/>
-      <c r="D100" s="41"/>
-      <c r="E100" s="41"/>
-      <c r="F100" s="41"/>
-      <c r="G100" s="41"/>
-      <c r="H100" s="41"/>
-      <c r="I100" s="41"/>
-      <c r="J100" s="41"/>
-      <c r="K100" s="42"/>
-    </row>
-    <row r="101" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="B100" s="34"/>
+      <c r="C100" s="34"/>
+      <c r="D100" s="34"/>
+      <c r="E100" s="34"/>
+      <c r="F100" s="34"/>
+      <c r="G100" s="34"/>
+      <c r="H100" s="34"/>
+      <c r="I100" s="34"/>
+      <c r="J100" s="34"/>
+      <c r="K100" s="35"/>
+    </row>
+    <row r="101" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A101" s="13"/>
       <c r="B101" s="13"/>
       <c r="C101" s="13"/>
@@ -2745,14 +2786,14 @@
       <c r="E101" s="13"/>
       <c r="F101" s="13"/>
       <c r="G101" s="15"/>
-      <c r="H101" s="39"/>
-      <c r="I101" s="38"/>
-      <c r="J101" s="32" t="s">
+      <c r="H101" s="31"/>
+      <c r="I101" s="32"/>
+      <c r="J101" s="42" t="s">
         <v>94</v>
       </c>
-      <c r="K101" s="27"/>
-    </row>
-    <row r="102" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="K101" s="36"/>
+    </row>
+    <row r="102" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A102" s="13"/>
       <c r="B102" s="13"/>
       <c r="C102" s="13"/>
@@ -2760,12 +2801,12 @@
       <c r="E102" s="13"/>
       <c r="F102" s="13"/>
       <c r="G102" s="15"/>
-      <c r="H102" s="39"/>
-      <c r="I102" s="38"/>
-      <c r="J102" s="27"/>
-      <c r="K102" s="27"/>
-    </row>
-    <row r="103" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="H102" s="31"/>
+      <c r="I102" s="32"/>
+      <c r="J102" s="36"/>
+      <c r="K102" s="36"/>
+    </row>
+    <row r="103" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A103" s="13"/>
       <c r="B103" s="13"/>
       <c r="C103" s="13"/>
@@ -2773,12 +2814,12 @@
       <c r="E103" s="13"/>
       <c r="F103" s="13"/>
       <c r="G103" s="15"/>
-      <c r="H103" s="39"/>
-      <c r="I103" s="38"/>
-      <c r="J103" s="27"/>
-      <c r="K103" s="27"/>
-    </row>
-    <row r="104" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="H103" s="31"/>
+      <c r="I103" s="32"/>
+      <c r="J103" s="36"/>
+      <c r="K103" s="36"/>
+    </row>
+    <row r="104" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A104" s="13"/>
       <c r="B104" s="13"/>
       <c r="C104" s="13"/>
@@ -2786,12 +2827,12 @@
       <c r="E104" s="13"/>
       <c r="F104" s="13"/>
       <c r="G104" s="15"/>
-      <c r="H104" s="39"/>
-      <c r="I104" s="38"/>
-      <c r="J104" s="27"/>
-      <c r="K104" s="27"/>
-    </row>
-    <row r="105" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="H104" s="31"/>
+      <c r="I104" s="32"/>
+      <c r="J104" s="36"/>
+      <c r="K104" s="36"/>
+    </row>
+    <row r="105" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A105" s="13"/>
       <c r="B105" s="13"/>
       <c r="C105" s="13"/>
@@ -2799,12 +2840,12 @@
       <c r="E105" s="13"/>
       <c r="F105" s="13"/>
       <c r="G105" s="15"/>
-      <c r="H105" s="39"/>
-      <c r="I105" s="38"/>
-      <c r="J105" s="27"/>
-      <c r="K105" s="27"/>
-    </row>
-    <row r="106" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="H105" s="31"/>
+      <c r="I105" s="32"/>
+      <c r="J105" s="36"/>
+      <c r="K105" s="36"/>
+    </row>
+    <row r="106" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A106" s="13"/>
       <c r="B106" s="13"/>
       <c r="C106" s="13"/>
@@ -2812,12 +2853,12 @@
       <c r="E106" s="13"/>
       <c r="F106" s="13"/>
       <c r="G106" s="15"/>
-      <c r="H106" s="39"/>
-      <c r="I106" s="38"/>
-      <c r="J106" s="27"/>
-      <c r="K106" s="27"/>
-    </row>
-    <row r="107" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="H106" s="31"/>
+      <c r="I106" s="32"/>
+      <c r="J106" s="36"/>
+      <c r="K106" s="36"/>
+    </row>
+    <row r="107" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A107" s="13"/>
       <c r="B107" s="13"/>
       <c r="C107" s="13"/>
@@ -2825,12 +2866,12 @@
       <c r="E107" s="13"/>
       <c r="F107" s="13"/>
       <c r="G107" s="15"/>
-      <c r="H107" s="39"/>
-      <c r="I107" s="38"/>
-      <c r="J107" s="27"/>
-      <c r="K107" s="27"/>
-    </row>
-    <row r="108" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="H107" s="31"/>
+      <c r="I107" s="32"/>
+      <c r="J107" s="36"/>
+      <c r="K107" s="36"/>
+    </row>
+    <row r="108" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A108" s="13"/>
       <c r="B108" s="13"/>
       <c r="C108" s="13"/>
@@ -2838,12 +2879,12 @@
       <c r="E108" s="13"/>
       <c r="F108" s="13"/>
       <c r="G108" s="15"/>
-      <c r="H108" s="39"/>
-      <c r="I108" s="38"/>
-      <c r="J108" s="27"/>
-      <c r="K108" s="27"/>
-    </row>
-    <row r="109" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="H108" s="31"/>
+      <c r="I108" s="32"/>
+      <c r="J108" s="36"/>
+      <c r="K108" s="36"/>
+    </row>
+    <row r="109" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A109" s="13"/>
       <c r="B109" s="13"/>
       <c r="C109" s="13"/>
@@ -2851,12 +2892,12 @@
       <c r="E109" s="13"/>
       <c r="F109" s="13"/>
       <c r="G109" s="15"/>
-      <c r="H109" s="39"/>
-      <c r="I109" s="38"/>
-      <c r="J109" s="27"/>
-      <c r="K109" s="27"/>
-    </row>
-    <row r="110" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="H109" s="31"/>
+      <c r="I109" s="32"/>
+      <c r="J109" s="36"/>
+      <c r="K109" s="36"/>
+    </row>
+    <row r="110" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A110" s="13"/>
       <c r="B110" s="13"/>
       <c r="C110" s="13"/>
@@ -2864,12 +2905,12 @@
       <c r="E110" s="13"/>
       <c r="F110" s="13"/>
       <c r="G110" s="15"/>
-      <c r="H110" s="39"/>
-      <c r="I110" s="38"/>
-      <c r="J110" s="27"/>
-      <c r="K110" s="27"/>
-    </row>
-    <row r="111" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="H110" s="31"/>
+      <c r="I110" s="32"/>
+      <c r="J110" s="36"/>
+      <c r="K110" s="36"/>
+    </row>
+    <row r="111" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A111" s="13"/>
       <c r="B111" s="13"/>
       <c r="C111" s="13"/>
@@ -2877,12 +2918,12 @@
       <c r="E111" s="13"/>
       <c r="F111" s="13"/>
       <c r="G111" s="15"/>
-      <c r="H111" s="39"/>
-      <c r="I111" s="38"/>
-      <c r="J111" s="27"/>
-      <c r="K111" s="27"/>
-    </row>
-    <row r="112" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="H111" s="31"/>
+      <c r="I111" s="32"/>
+      <c r="J111" s="36"/>
+      <c r="K111" s="36"/>
+    </row>
+    <row r="112" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A112" s="13"/>
       <c r="B112" s="13"/>
       <c r="C112" s="13"/>
@@ -2890,12 +2931,12 @@
       <c r="E112" s="13"/>
       <c r="F112" s="13"/>
       <c r="G112" s="15"/>
-      <c r="H112" s="39"/>
-      <c r="I112" s="38"/>
-      <c r="J112" s="27"/>
-      <c r="K112" s="27"/>
-    </row>
-    <row r="113" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="H112" s="31"/>
+      <c r="I112" s="32"/>
+      <c r="J112" s="36"/>
+      <c r="K112" s="36"/>
+    </row>
+    <row r="113" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A113" s="13"/>
       <c r="B113" s="13"/>
       <c r="C113" s="13"/>
@@ -2903,12 +2944,12 @@
       <c r="E113" s="13"/>
       <c r="F113" s="13"/>
       <c r="G113" s="15"/>
-      <c r="H113" s="39"/>
-      <c r="I113" s="38"/>
-      <c r="J113" s="27"/>
-      <c r="K113" s="27"/>
-    </row>
-    <row r="114" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="H113" s="31"/>
+      <c r="I113" s="32"/>
+      <c r="J113" s="36"/>
+      <c r="K113" s="36"/>
+    </row>
+    <row r="114" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A114" s="13"/>
       <c r="B114" s="13"/>
       <c r="C114" s="13"/>
@@ -2916,12 +2957,12 @@
       <c r="E114" s="13"/>
       <c r="F114" s="13"/>
       <c r="G114" s="15"/>
-      <c r="H114" s="39"/>
-      <c r="I114" s="38"/>
-      <c r="J114" s="27"/>
-      <c r="K114" s="27"/>
-    </row>
-    <row r="115" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="H114" s="31"/>
+      <c r="I114" s="32"/>
+      <c r="J114" s="36"/>
+      <c r="K114" s="36"/>
+    </row>
+    <row r="115" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A115" s="13"/>
       <c r="B115" s="13"/>
       <c r="C115" s="13"/>
@@ -2929,12 +2970,12 @@
       <c r="E115" s="13"/>
       <c r="F115" s="13"/>
       <c r="G115" s="15"/>
-      <c r="H115" s="39"/>
-      <c r="I115" s="38"/>
-      <c r="J115" s="27"/>
-      <c r="K115" s="27"/>
-    </row>
-    <row r="116" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="H115" s="31"/>
+      <c r="I115" s="32"/>
+      <c r="J115" s="36"/>
+      <c r="K115" s="36"/>
+    </row>
+    <row r="116" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A116" s="13"/>
       <c r="B116" s="13"/>
       <c r="C116" s="13"/>
@@ -2942,12 +2983,12 @@
       <c r="E116" s="13"/>
       <c r="F116" s="13"/>
       <c r="G116" s="15"/>
-      <c r="H116" s="39"/>
-      <c r="I116" s="38"/>
-      <c r="J116" s="27"/>
-      <c r="K116" s="27"/>
-    </row>
-    <row r="117" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="H116" s="31"/>
+      <c r="I116" s="32"/>
+      <c r="J116" s="36"/>
+      <c r="K116" s="36"/>
+    </row>
+    <row r="117" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A117" s="13"/>
       <c r="B117" s="13"/>
       <c r="C117" s="13"/>
@@ -2955,12 +2996,12 @@
       <c r="E117" s="13"/>
       <c r="F117" s="13"/>
       <c r="G117" s="15"/>
-      <c r="H117" s="39"/>
-      <c r="I117" s="38"/>
-      <c r="J117" s="27"/>
-      <c r="K117" s="27"/>
-    </row>
-    <row r="118" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="H117" s="31"/>
+      <c r="I117" s="32"/>
+      <c r="J117" s="36"/>
+      <c r="K117" s="36"/>
+    </row>
+    <row r="118" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A118" s="13"/>
       <c r="B118" s="13"/>
       <c r="C118" s="18"/>
@@ -2968,12 +3009,12 @@
       <c r="E118" s="13"/>
       <c r="F118" s="13"/>
       <c r="G118" s="15"/>
-      <c r="H118" s="39"/>
-      <c r="I118" s="38"/>
-      <c r="J118" s="27"/>
-      <c r="K118" s="27"/>
-    </row>
-    <row r="119" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="H118" s="31"/>
+      <c r="I118" s="32"/>
+      <c r="J118" s="36"/>
+      <c r="K118" s="36"/>
+    </row>
+    <row r="119" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A119" s="13"/>
       <c r="B119" s="18"/>
       <c r="C119" s="13"/>
@@ -2981,12 +3022,12 @@
       <c r="E119" s="13"/>
       <c r="F119" s="13"/>
       <c r="G119" s="15"/>
-      <c r="H119" s="39"/>
-      <c r="I119" s="38"/>
-      <c r="J119" s="27"/>
-      <c r="K119" s="27"/>
-    </row>
-    <row r="120" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="H119" s="31"/>
+      <c r="I119" s="32"/>
+      <c r="J119" s="36"/>
+      <c r="K119" s="36"/>
+    </row>
+    <row r="120" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A120" s="13" t="s">
         <v>96</v>
       </c>
@@ -3008,14 +3049,14 @@
       <c r="G120" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="H120" s="39"/>
-      <c r="I120" s="38"/>
-      <c r="J120" s="32" t="s">
+      <c r="H120" s="31"/>
+      <c r="I120" s="32"/>
+      <c r="J120" s="42" t="s">
         <v>94</v>
       </c>
-      <c r="K120" s="27"/>
-    </row>
-    <row r="121" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="K120" s="36"/>
+    </row>
+    <row r="121" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A121" s="13" t="s">
         <v>97</v>
       </c>
@@ -3037,17 +3078,17 @@
       <c r="G121" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="H121" s="39"/>
-      <c r="I121" s="38"/>
-      <c r="J121" s="45" t="s">
+      <c r="H121" s="31"/>
+      <c r="I121" s="32"/>
+      <c r="J121" s="28" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="122" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A122" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="B122" s="44">
+      <c r="B122" s="27">
         <v>45766</v>
       </c>
       <c r="C122" s="18" t="s">
@@ -3065,14 +3106,14 @@
       <c r="G122" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="H122" s="39"/>
-      <c r="I122" s="38"/>
-      <c r="J122" s="32" t="s">
+      <c r="H122" s="31"/>
+      <c r="I122" s="32"/>
+      <c r="J122" s="42" t="s">
         <v>94</v>
       </c>
-      <c r="K122" s="27"/>
-    </row>
-    <row r="123" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="K122" s="36"/>
+    </row>
+    <row r="123" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A123" s="13" t="s">
         <v>99</v>
       </c>
@@ -3094,14 +3135,14 @@
       <c r="G123" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="H123" s="39"/>
-      <c r="I123" s="38"/>
-      <c r="J123" s="32" t="s">
+      <c r="H123" s="31"/>
+      <c r="I123" s="32"/>
+      <c r="J123" s="42" t="s">
         <v>94</v>
       </c>
-      <c r="K123" s="27"/>
-    </row>
-    <row r="124" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="K123" s="36"/>
+    </row>
+    <row r="124" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A124" s="13" t="s">
         <v>100</v>
       </c>
@@ -3123,14 +3164,14 @@
       <c r="G124" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="H124" s="39"/>
-      <c r="I124" s="38"/>
-      <c r="J124" s="32" t="s">
+      <c r="H124" s="31"/>
+      <c r="I124" s="32"/>
+      <c r="J124" s="42" t="s">
         <v>94</v>
       </c>
-      <c r="K124" s="27"/>
-    </row>
-    <row r="125" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="K124" s="36"/>
+    </row>
+    <row r="125" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A125" s="13" t="s">
         <v>101</v>
       </c>
@@ -3152,14 +3193,14 @@
       <c r="G125" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="H125" s="39"/>
-      <c r="I125" s="38"/>
-      <c r="J125" s="32" t="s">
+      <c r="H125" s="31"/>
+      <c r="I125" s="32"/>
+      <c r="J125" s="42" t="s">
         <v>94</v>
       </c>
-      <c r="K125" s="27"/>
-    </row>
-    <row r="126" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="K125" s="36"/>
+    </row>
+    <row r="126" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A126" s="13" t="s">
         <v>102</v>
       </c>
@@ -3181,14 +3222,14 @@
       <c r="G126" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="H126" s="39"/>
-      <c r="I126" s="38"/>
-      <c r="J126" s="32" t="s">
+      <c r="H126" s="31"/>
+      <c r="I126" s="32"/>
+      <c r="J126" s="42" t="s">
         <v>94</v>
       </c>
-      <c r="K126" s="27"/>
-    </row>
-    <row r="127" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="K126" s="36"/>
+    </row>
+    <row r="127" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A127" s="13" t="s">
         <v>103</v>
       </c>
@@ -3210,14 +3251,14 @@
       <c r="G127" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="H127" s="39"/>
-      <c r="I127" s="38"/>
-      <c r="J127" s="32" t="s">
+      <c r="H127" s="31"/>
+      <c r="I127" s="32"/>
+      <c r="J127" s="42" t="s">
         <v>94</v>
       </c>
-      <c r="K127" s="27"/>
-    </row>
-    <row r="128" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="K127" s="36"/>
+    </row>
+    <row r="128" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A128" s="13" t="s">
         <v>104</v>
       </c>
@@ -3239,14 +3280,14 @@
       <c r="G128" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="H128" s="39"/>
-      <c r="I128" s="38"/>
-      <c r="J128" s="32" t="s">
+      <c r="H128" s="31"/>
+      <c r="I128" s="32"/>
+      <c r="J128" s="42" t="s">
         <v>94</v>
       </c>
-      <c r="K128" s="27"/>
-    </row>
-    <row r="129" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="K128" s="36"/>
+    </row>
+    <row r="129" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A129" s="13" t="s">
         <v>105</v>
       </c>
@@ -3268,14 +3309,14 @@
       <c r="G129" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="H129" s="39"/>
-      <c r="I129" s="38"/>
-      <c r="J129" s="32" t="s">
+      <c r="H129" s="31"/>
+      <c r="I129" s="32"/>
+      <c r="J129" s="42" t="s">
         <v>94</v>
       </c>
-      <c r="K129" s="27"/>
-    </row>
-    <row r="130" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="K129" s="36"/>
+    </row>
+    <row r="130" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A130" s="13" t="s">
         <v>109</v>
       </c>
@@ -3297,14 +3338,14 @@
       <c r="G130" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="H130" s="39"/>
-      <c r="I130" s="38"/>
-      <c r="J130" s="32" t="s">
+      <c r="H130" s="31"/>
+      <c r="I130" s="32"/>
+      <c r="J130" s="42" t="s">
         <v>94</v>
       </c>
-      <c r="K130" s="27"/>
-    </row>
-    <row r="131" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="K130" s="36"/>
+    </row>
+    <row r="131" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A131" s="13" t="s">
         <v>110</v>
       </c>
@@ -3326,14 +3367,14 @@
       <c r="G131" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="H131" s="39"/>
-      <c r="I131" s="38"/>
-      <c r="J131" s="32" t="s">
+      <c r="H131" s="31"/>
+      <c r="I131" s="32"/>
+      <c r="J131" s="42" t="s">
         <v>94</v>
       </c>
-      <c r="K131" s="27"/>
-    </row>
-    <row r="132" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="K131" s="36"/>
+    </row>
+    <row r="132" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A132" s="13" t="s">
         <v>111</v>
       </c>
@@ -3355,14 +3396,14 @@
       <c r="G132" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="H132" s="39"/>
-      <c r="I132" s="38"/>
-      <c r="J132" s="32" t="s">
+      <c r="H132" s="31"/>
+      <c r="I132" s="32"/>
+      <c r="J132" s="42" t="s">
         <v>94</v>
       </c>
-      <c r="K132" s="27"/>
-    </row>
-    <row r="133" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="K132" s="36"/>
+    </row>
+    <row r="133" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A133" s="13" t="s">
         <v>112</v>
       </c>
@@ -3384,14 +3425,14 @@
       <c r="G133" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="H133" s="39"/>
-      <c r="I133" s="38"/>
-      <c r="J133" s="32" t="s">
+      <c r="H133" s="31"/>
+      <c r="I133" s="32"/>
+      <c r="J133" s="42" t="s">
         <v>94</v>
       </c>
-      <c r="K133" s="27"/>
-    </row>
-    <row r="134" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="K133" s="36"/>
+    </row>
+    <row r="134" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A134" s="13"/>
       <c r="B134" s="13"/>
       <c r="C134" s="13"/>
@@ -3399,12 +3440,12 @@
       <c r="E134" s="13"/>
       <c r="F134" s="13"/>
       <c r="G134" s="15"/>
-      <c r="H134" s="39"/>
-      <c r="I134" s="38"/>
-      <c r="J134" s="32"/>
-      <c r="K134" s="27"/>
-    </row>
-    <row r="135" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="H134" s="31"/>
+      <c r="I134" s="32"/>
+      <c r="J134" s="42"/>
+      <c r="K134" s="36"/>
+    </row>
+    <row r="135" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A135" s="13"/>
       <c r="B135" s="13"/>
       <c r="C135" s="13"/>
@@ -3412,12 +3453,12 @@
       <c r="E135" s="13"/>
       <c r="F135" s="13"/>
       <c r="G135" s="15"/>
-      <c r="H135" s="39"/>
-      <c r="I135" s="38"/>
-      <c r="J135" s="27"/>
-      <c r="K135" s="27"/>
-    </row>
-    <row r="136" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="H135" s="31"/>
+      <c r="I135" s="32"/>
+      <c r="J135" s="36"/>
+      <c r="K135" s="36"/>
+    </row>
+    <row r="136" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A136" s="13"/>
       <c r="B136" s="13"/>
       <c r="C136" s="13"/>
@@ -3425,12 +3466,12 @@
       <c r="E136" s="13"/>
       <c r="F136" s="13"/>
       <c r="G136" s="15"/>
-      <c r="H136" s="39"/>
-      <c r="I136" s="38"/>
-      <c r="J136" s="27"/>
-      <c r="K136" s="27"/>
-    </row>
-    <row r="137" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="H136" s="31"/>
+      <c r="I136" s="32"/>
+      <c r="J136" s="36"/>
+      <c r="K136" s="36"/>
+    </row>
+    <row r="137" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A137" s="13"/>
       <c r="B137" s="13"/>
       <c r="C137" s="13"/>
@@ -3438,12 +3479,12 @@
       <c r="E137" s="13"/>
       <c r="F137" s="13"/>
       <c r="G137" s="15"/>
-      <c r="H137" s="39"/>
-      <c r="I137" s="38"/>
-      <c r="J137" s="27"/>
-      <c r="K137" s="27"/>
-    </row>
-    <row r="138" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="H137" s="31"/>
+      <c r="I137" s="32"/>
+      <c r="J137" s="36"/>
+      <c r="K137" s="36"/>
+    </row>
+    <row r="138" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A138" s="13"/>
       <c r="B138" s="13"/>
       <c r="C138" s="13"/>
@@ -3451,12 +3492,12 @@
       <c r="E138" s="13"/>
       <c r="F138" s="13"/>
       <c r="G138" s="15"/>
-      <c r="H138" s="39"/>
-      <c r="I138" s="38"/>
-      <c r="J138" s="27"/>
-      <c r="K138" s="27"/>
-    </row>
-    <row r="139" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="H138" s="31"/>
+      <c r="I138" s="32"/>
+      <c r="J138" s="36"/>
+      <c r="K138" s="36"/>
+    </row>
+    <row r="139" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A139" s="13"/>
       <c r="B139" s="13"/>
       <c r="C139" s="13"/>
@@ -3464,12 +3505,12 @@
       <c r="E139" s="13"/>
       <c r="F139" s="13"/>
       <c r="G139" s="15"/>
-      <c r="H139" s="39"/>
-      <c r="I139" s="38"/>
-      <c r="J139" s="27"/>
-      <c r="K139" s="27"/>
-    </row>
-    <row r="140" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="H139" s="31"/>
+      <c r="I139" s="32"/>
+      <c r="J139" s="36"/>
+      <c r="K139" s="36"/>
+    </row>
+    <row r="140" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A140" s="13"/>
       <c r="B140" s="13"/>
       <c r="C140" s="13"/>
@@ -3477,12 +3518,12 @@
       <c r="E140" s="13"/>
       <c r="F140" s="13"/>
       <c r="G140" s="15"/>
-      <c r="H140" s="39"/>
-      <c r="I140" s="38"/>
-      <c r="J140" s="27"/>
-      <c r="K140" s="27"/>
-    </row>
-    <row r="141" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="H140" s="31"/>
+      <c r="I140" s="32"/>
+      <c r="J140" s="36"/>
+      <c r="K140" s="36"/>
+    </row>
+    <row r="141" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A141" s="13"/>
       <c r="B141" s="13"/>
       <c r="C141" s="13"/>
@@ -3490,12 +3531,12 @@
       <c r="E141" s="13"/>
       <c r="F141" s="13"/>
       <c r="G141" s="15"/>
-      <c r="H141" s="39"/>
-      <c r="I141" s="38"/>
-      <c r="J141" s="27"/>
-      <c r="K141" s="27"/>
-    </row>
-    <row r="142" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="H141" s="31"/>
+      <c r="I141" s="32"/>
+      <c r="J141" s="36"/>
+      <c r="K141" s="36"/>
+    </row>
+    <row r="142" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A142" s="13"/>
       <c r="B142" s="13"/>
       <c r="C142" s="13"/>
@@ -3503,12 +3544,12 @@
       <c r="E142" s="13"/>
       <c r="F142" s="13"/>
       <c r="G142" s="15"/>
-      <c r="H142" s="39"/>
-      <c r="I142" s="38"/>
-      <c r="J142" s="27"/>
-      <c r="K142" s="27"/>
-    </row>
-    <row r="143" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="H142" s="31"/>
+      <c r="I142" s="32"/>
+      <c r="J142" s="36"/>
+      <c r="K142" s="36"/>
+    </row>
+    <row r="143" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A143" s="13"/>
       <c r="B143" s="13"/>
       <c r="C143" s="13"/>
@@ -3516,12 +3557,12 @@
       <c r="E143" s="13"/>
       <c r="F143" s="13"/>
       <c r="G143" s="15"/>
-      <c r="H143" s="39"/>
-      <c r="I143" s="38"/>
-      <c r="J143" s="27"/>
-      <c r="K143" s="27"/>
-    </row>
-    <row r="144" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="H143" s="31"/>
+      <c r="I143" s="32"/>
+      <c r="J143" s="36"/>
+      <c r="K143" s="36"/>
+    </row>
+    <row r="144" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A144" s="13"/>
       <c r="B144" s="13"/>
       <c r="C144" s="13"/>
@@ -3529,12 +3570,12 @@
       <c r="E144" s="13"/>
       <c r="F144" s="13"/>
       <c r="G144" s="15"/>
-      <c r="H144" s="39"/>
-      <c r="I144" s="38"/>
-      <c r="J144" s="27"/>
-      <c r="K144" s="27"/>
-    </row>
-    <row r="145" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="H144" s="31"/>
+      <c r="I144" s="32"/>
+      <c r="J144" s="36"/>
+      <c r="K144" s="36"/>
+    </row>
+    <row r="145" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A145" s="13"/>
       <c r="B145" s="13"/>
       <c r="C145" s="13"/>
@@ -3542,12 +3583,12 @@
       <c r="E145" s="13"/>
       <c r="F145" s="13"/>
       <c r="G145" s="15"/>
-      <c r="H145" s="39"/>
-      <c r="I145" s="38"/>
-      <c r="J145" s="27"/>
-      <c r="K145" s="27"/>
-    </row>
-    <row r="146" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="H145" s="31"/>
+      <c r="I145" s="32"/>
+      <c r="J145" s="36"/>
+      <c r="K145" s="36"/>
+    </row>
+    <row r="146" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A146" s="13"/>
       <c r="B146" s="13"/>
       <c r="C146" s="13"/>
@@ -3555,12 +3596,12 @@
       <c r="E146" s="13"/>
       <c r="F146" s="13"/>
       <c r="G146" s="15"/>
-      <c r="H146" s="39"/>
-      <c r="I146" s="38"/>
-      <c r="J146" s="27"/>
-      <c r="K146" s="27"/>
-    </row>
-    <row r="147" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="H146" s="31"/>
+      <c r="I146" s="32"/>
+      <c r="J146" s="36"/>
+      <c r="K146" s="36"/>
+    </row>
+    <row r="147" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A147" s="13"/>
       <c r="B147" s="13"/>
       <c r="C147" s="13"/>
@@ -3568,12 +3609,12 @@
       <c r="E147" s="13"/>
       <c r="F147" s="13"/>
       <c r="G147" s="15"/>
-      <c r="H147" s="39"/>
-      <c r="I147" s="38"/>
-      <c r="J147" s="27"/>
-      <c r="K147" s="27"/>
-    </row>
-    <row r="148" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="H147" s="31"/>
+      <c r="I147" s="32"/>
+      <c r="J147" s="36"/>
+      <c r="K147" s="36"/>
+    </row>
+    <row r="148" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A148" s="13"/>
       <c r="B148" s="13"/>
       <c r="C148" s="13"/>
@@ -3581,12 +3622,12 @@
       <c r="E148" s="13"/>
       <c r="F148" s="13"/>
       <c r="G148" s="15"/>
-      <c r="H148" s="39"/>
-      <c r="I148" s="38"/>
-      <c r="J148" s="27"/>
-      <c r="K148" s="27"/>
-    </row>
-    <row r="149" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="H148" s="31"/>
+      <c r="I148" s="32"/>
+      <c r="J148" s="36"/>
+      <c r="K148" s="36"/>
+    </row>
+    <row r="149" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A149" s="13"/>
       <c r="B149" s="13"/>
       <c r="C149" s="13"/>
@@ -3594,12 +3635,12 @@
       <c r="E149" s="13"/>
       <c r="F149" s="13"/>
       <c r="G149" s="15"/>
-      <c r="H149" s="39"/>
-      <c r="I149" s="38"/>
-      <c r="J149" s="27"/>
-      <c r="K149" s="27"/>
-    </row>
-    <row r="150" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="H149" s="31"/>
+      <c r="I149" s="32"/>
+      <c r="J149" s="36"/>
+      <c r="K149" s="36"/>
+    </row>
+    <row r="150" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A150" s="13"/>
       <c r="B150" s="13"/>
       <c r="C150" s="13"/>
@@ -3607,12 +3648,12 @@
       <c r="E150" s="13"/>
       <c r="F150" s="13"/>
       <c r="G150" s="15"/>
-      <c r="H150" s="39"/>
-      <c r="I150" s="38"/>
-      <c r="J150" s="27"/>
-      <c r="K150" s="27"/>
-    </row>
-    <row r="151" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="H150" s="31"/>
+      <c r="I150" s="32"/>
+      <c r="J150" s="36"/>
+      <c r="K150" s="36"/>
+    </row>
+    <row r="151" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A151" s="13"/>
       <c r="B151" s="13"/>
       <c r="C151" s="13"/>
@@ -3622,10 +3663,10 @@
       <c r="G151" s="15"/>
       <c r="H151" s="13"/>
       <c r="I151" s="13"/>
-      <c r="J151" s="27"/>
-      <c r="K151" s="27"/>
-    </row>
-    <row r="152" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="J151" s="36"/>
+      <c r="K151" s="36"/>
+    </row>
+    <row r="152" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A152" s="13"/>
       <c r="B152" s="13"/>
       <c r="C152" s="13"/>
@@ -3635,10 +3676,10 @@
       <c r="G152" s="15"/>
       <c r="H152" s="13"/>
       <c r="I152" s="13"/>
-      <c r="J152" s="27"/>
-      <c r="K152" s="27"/>
-    </row>
-    <row r="153" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="J152" s="36"/>
+      <c r="K152" s="36"/>
+    </row>
+    <row r="153" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A153" s="13"/>
       <c r="B153" s="13"/>
       <c r="C153" s="13"/>
@@ -3648,10 +3689,10 @@
       <c r="G153" s="15"/>
       <c r="H153" s="13"/>
       <c r="I153" s="13"/>
-      <c r="J153" s="27"/>
-      <c r="K153" s="27"/>
-    </row>
-    <row r="154" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="J153" s="36"/>
+      <c r="K153" s="36"/>
+    </row>
+    <row r="154" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A154" s="13"/>
       <c r="B154" s="13"/>
       <c r="C154" s="13"/>
@@ -3661,10 +3702,10 @@
       <c r="G154" s="15"/>
       <c r="H154" s="13"/>
       <c r="I154" s="13"/>
-      <c r="J154" s="27"/>
-      <c r="K154" s="27"/>
-    </row>
-    <row r="155" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="J154" s="36"/>
+      <c r="K154" s="36"/>
+    </row>
+    <row r="155" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A155" s="13"/>
       <c r="B155" s="13"/>
       <c r="C155" s="13"/>
@@ -3674,10 +3715,10 @@
       <c r="G155" s="15"/>
       <c r="H155" s="13"/>
       <c r="I155" s="13"/>
-      <c r="J155" s="27"/>
-      <c r="K155" s="27"/>
-    </row>
-    <row r="156" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="J155" s="36"/>
+      <c r="K155" s="36"/>
+    </row>
+    <row r="156" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A156" s="13"/>
       <c r="B156" s="13"/>
       <c r="C156" s="13"/>
@@ -3687,10 +3728,10 @@
       <c r="G156" s="15"/>
       <c r="H156" s="13"/>
       <c r="I156" s="13"/>
-      <c r="J156" s="27"/>
-      <c r="K156" s="27"/>
-    </row>
-    <row r="157" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="J156" s="36"/>
+      <c r="K156" s="36"/>
+    </row>
+    <row r="157" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A157" s="13"/>
       <c r="B157" s="13"/>
       <c r="C157" s="13"/>
@@ -3700,10 +3741,10 @@
       <c r="G157" s="15"/>
       <c r="H157" s="13"/>
       <c r="I157" s="13"/>
-      <c r="J157" s="27"/>
-      <c r="K157" s="27"/>
-    </row>
-    <row r="158" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="J157" s="36"/>
+      <c r="K157" s="36"/>
+    </row>
+    <row r="158" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A158" s="13"/>
       <c r="B158" s="13"/>
       <c r="C158" s="13"/>
@@ -3713,10 +3754,10 @@
       <c r="G158" s="15"/>
       <c r="H158" s="13"/>
       <c r="I158" s="13"/>
-      <c r="J158" s="27"/>
-      <c r="K158" s="27"/>
-    </row>
-    <row r="159" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="J158" s="36"/>
+      <c r="K158" s="36"/>
+    </row>
+    <row r="159" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A159" s="13"/>
       <c r="B159" s="13"/>
       <c r="C159" s="13"/>
@@ -3726,10 +3767,10 @@
       <c r="G159" s="15"/>
       <c r="H159" s="13"/>
       <c r="I159" s="13"/>
-      <c r="J159" s="27"/>
-      <c r="K159" s="27"/>
-    </row>
-    <row r="160" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="J159" s="36"/>
+      <c r="K159" s="36"/>
+    </row>
+    <row r="160" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A160" s="13"/>
       <c r="B160" s="13"/>
       <c r="C160" s="13"/>
@@ -3739,10 +3780,10 @@
       <c r="G160" s="15"/>
       <c r="H160" s="13"/>
       <c r="I160" s="13"/>
-      <c r="J160" s="27"/>
-      <c r="K160" s="27"/>
-    </row>
-    <row r="161" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="J160" s="36"/>
+      <c r="K160" s="36"/>
+    </row>
+    <row r="161" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A161" s="13"/>
       <c r="B161" s="13"/>
       <c r="C161" s="13"/>
@@ -3752,10 +3793,10 @@
       <c r="G161" s="15"/>
       <c r="H161" s="13"/>
       <c r="I161" s="13"/>
-      <c r="J161" s="27"/>
-      <c r="K161" s="27"/>
-    </row>
-    <row r="162" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="J161" s="36"/>
+      <c r="K161" s="36"/>
+    </row>
+    <row r="162" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A162" s="13"/>
       <c r="B162" s="13"/>
       <c r="C162" s="13"/>
@@ -3765,10 +3806,10 @@
       <c r="G162" s="15"/>
       <c r="H162" s="13"/>
       <c r="I162" s="13"/>
-      <c r="J162" s="27"/>
-      <c r="K162" s="27"/>
-    </row>
-    <row r="163" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="J162" s="36"/>
+      <c r="K162" s="36"/>
+    </row>
+    <row r="163" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A163" s="13"/>
       <c r="B163" s="13"/>
       <c r="C163" s="13"/>
@@ -3778,10 +3819,10 @@
       <c r="G163" s="15"/>
       <c r="H163" s="13"/>
       <c r="I163" s="13"/>
-      <c r="J163" s="27"/>
-      <c r="K163" s="27"/>
-    </row>
-    <row r="164" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="J163" s="36"/>
+      <c r="K163" s="36"/>
+    </row>
+    <row r="164" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A164" s="13"/>
       <c r="B164" s="13"/>
       <c r="C164" s="13"/>
@@ -3791,10 +3832,10 @@
       <c r="G164" s="15"/>
       <c r="H164" s="13"/>
       <c r="I164" s="13"/>
-      <c r="J164" s="27"/>
-      <c r="K164" s="27"/>
-    </row>
-    <row r="165" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="J164" s="36"/>
+      <c r="K164" s="36"/>
+    </row>
+    <row r="165" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A165" s="13"/>
       <c r="B165" s="13"/>
       <c r="C165" s="13"/>
@@ -3804,10 +3845,10 @@
       <c r="G165" s="15"/>
       <c r="H165" s="13"/>
       <c r="I165" s="13"/>
-      <c r="J165" s="27"/>
-      <c r="K165" s="27"/>
-    </row>
-    <row r="166" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="J165" s="36"/>
+      <c r="K165" s="36"/>
+    </row>
+    <row r="166" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A166" s="13"/>
       <c r="B166" s="13"/>
       <c r="C166" s="13"/>
@@ -3817,10 +3858,10 @@
       <c r="G166" s="15"/>
       <c r="H166" s="13"/>
       <c r="I166" s="13"/>
-      <c r="J166" s="27"/>
-      <c r="K166" s="27"/>
-    </row>
-    <row r="167" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="J166" s="36"/>
+      <c r="K166" s="36"/>
+    </row>
+    <row r="167" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A167" s="13"/>
       <c r="B167" s="13"/>
       <c r="C167" s="13"/>
@@ -3830,10 +3871,10 @@
       <c r="G167" s="15"/>
       <c r="H167" s="13"/>
       <c r="I167" s="13"/>
-      <c r="J167" s="27"/>
-      <c r="K167" s="27"/>
-    </row>
-    <row r="168" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="J167" s="36"/>
+      <c r="K167" s="36"/>
+    </row>
+    <row r="168" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A168" s="13"/>
       <c r="B168" s="13"/>
       <c r="C168" s="13"/>
@@ -3843,10 +3884,10 @@
       <c r="G168" s="15"/>
       <c r="H168" s="13"/>
       <c r="I168" s="13"/>
-      <c r="J168" s="27"/>
-      <c r="K168" s="27"/>
-    </row>
-    <row r="169" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="J168" s="36"/>
+      <c r="K168" s="36"/>
+    </row>
+    <row r="169" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A169" s="13"/>
       <c r="B169" s="13"/>
       <c r="C169" s="13"/>
@@ -3856,10 +3897,10 @@
       <c r="G169" s="15"/>
       <c r="H169" s="13"/>
       <c r="I169" s="13"/>
-      <c r="J169" s="27"/>
-      <c r="K169" s="27"/>
-    </row>
-    <row r="170" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="J169" s="36"/>
+      <c r="K169" s="36"/>
+    </row>
+    <row r="170" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A170" s="13"/>
       <c r="B170" s="13"/>
       <c r="C170" s="13"/>
@@ -3869,10 +3910,10 @@
       <c r="G170" s="15"/>
       <c r="H170" s="13"/>
       <c r="I170" s="13"/>
-      <c r="J170" s="27"/>
-      <c r="K170" s="27"/>
-    </row>
-    <row r="171" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="J170" s="36"/>
+      <c r="K170" s="36"/>
+    </row>
+    <row r="171" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A171" s="13"/>
       <c r="B171" s="13"/>
       <c r="C171" s="13"/>
@@ -3882,10 +3923,10 @@
       <c r="G171" s="15"/>
       <c r="H171" s="13"/>
       <c r="I171" s="13"/>
-      <c r="J171" s="27"/>
-      <c r="K171" s="27"/>
-    </row>
-    <row r="172" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="J171" s="36"/>
+      <c r="K171" s="36"/>
+    </row>
+    <row r="172" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A172" s="13"/>
       <c r="B172" s="13"/>
       <c r="C172" s="13"/>
@@ -3895,10 +3936,10 @@
       <c r="G172" s="15"/>
       <c r="H172" s="13"/>
       <c r="I172" s="13"/>
-      <c r="J172" s="27"/>
-      <c r="K172" s="27"/>
-    </row>
-    <row r="173" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="J172" s="36"/>
+      <c r="K172" s="36"/>
+    </row>
+    <row r="173" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A173" s="13"/>
       <c r="B173" s="13"/>
       <c r="C173" s="13"/>
@@ -3908,10 +3949,10 @@
       <c r="G173" s="15"/>
       <c r="H173" s="13"/>
       <c r="I173" s="13"/>
-      <c r="J173" s="27"/>
-      <c r="K173" s="27"/>
-    </row>
-    <row r="174" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="J173" s="36"/>
+      <c r="K173" s="36"/>
+    </row>
+    <row r="174" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A174" s="13"/>
       <c r="B174" s="13"/>
       <c r="C174" s="13"/>
@@ -3921,10 +3962,10 @@
       <c r="G174" s="15"/>
       <c r="H174" s="13"/>
       <c r="I174" s="13"/>
-      <c r="J174" s="27"/>
-      <c r="K174" s="27"/>
-    </row>
-    <row r="175" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="J174" s="36"/>
+      <c r="K174" s="36"/>
+    </row>
+    <row r="175" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A175" s="13"/>
       <c r="B175" s="13"/>
       <c r="C175" s="13"/>
@@ -3934,10 +3975,10 @@
       <c r="G175" s="15"/>
       <c r="H175" s="13"/>
       <c r="I175" s="13"/>
-      <c r="J175" s="27"/>
-      <c r="K175" s="27"/>
-    </row>
-    <row r="176" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="J175" s="36"/>
+      <c r="K175" s="36"/>
+    </row>
+    <row r="176" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A176" s="13"/>
       <c r="B176" s="13"/>
       <c r="C176" s="13"/>
@@ -3947,10 +3988,10 @@
       <c r="G176" s="15"/>
       <c r="H176" s="13"/>
       <c r="I176" s="13"/>
-      <c r="J176" s="27"/>
-      <c r="K176" s="27"/>
-    </row>
-    <row r="177" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="J176" s="36"/>
+      <c r="K176" s="36"/>
+    </row>
+    <row r="177" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A177" s="13"/>
       <c r="B177" s="13"/>
       <c r="C177" s="13"/>
@@ -3960,10 +4001,10 @@
       <c r="G177" s="15"/>
       <c r="H177" s="13"/>
       <c r="I177" s="13"/>
-      <c r="J177" s="27"/>
-      <c r="K177" s="27"/>
-    </row>
-    <row r="178" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="J177" s="36"/>
+      <c r="K177" s="36"/>
+    </row>
+    <row r="178" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A178" s="13"/>
       <c r="B178" s="13"/>
       <c r="C178" s="13"/>
@@ -3973,10 +4014,10 @@
       <c r="G178" s="15"/>
       <c r="H178" s="13"/>
       <c r="I178" s="13"/>
-      <c r="J178" s="27"/>
-      <c r="K178" s="27"/>
-    </row>
-    <row r="179" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="J178" s="36"/>
+      <c r="K178" s="36"/>
+    </row>
+    <row r="179" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A179" s="13"/>
       <c r="B179" s="13"/>
       <c r="C179" s="13"/>
@@ -3986,10 +4027,10 @@
       <c r="G179" s="15"/>
       <c r="H179" s="13"/>
       <c r="I179" s="13"/>
-      <c r="J179" s="27"/>
-      <c r="K179" s="27"/>
-    </row>
-    <row r="180" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="J179" s="36"/>
+      <c r="K179" s="36"/>
+    </row>
+    <row r="180" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A180" s="13"/>
       <c r="B180" s="13"/>
       <c r="C180" s="13"/>
@@ -3999,10 +4040,10 @@
       <c r="G180" s="15"/>
       <c r="H180" s="13"/>
       <c r="I180" s="13"/>
-      <c r="J180" s="27"/>
-      <c r="K180" s="27"/>
-    </row>
-    <row r="181" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="J180" s="36"/>
+      <c r="K180" s="36"/>
+    </row>
+    <row r="181" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A181" s="13"/>
       <c r="B181" s="13"/>
       <c r="C181" s="13"/>
@@ -4012,10 +4053,10 @@
       <c r="G181" s="15"/>
       <c r="H181" s="13"/>
       <c r="I181" s="13"/>
-      <c r="J181" s="27"/>
-      <c r="K181" s="27"/>
-    </row>
-    <row r="182" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="J181" s="36"/>
+      <c r="K181" s="36"/>
+    </row>
+    <row r="182" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A182" s="13"/>
       <c r="B182" s="13"/>
       <c r="C182" s="13"/>
@@ -4025,10 +4066,10 @@
       <c r="G182" s="15"/>
       <c r="H182" s="13"/>
       <c r="I182" s="13"/>
-      <c r="J182" s="27"/>
-      <c r="K182" s="27"/>
-    </row>
-    <row r="183" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="J182" s="36"/>
+      <c r="K182" s="36"/>
+    </row>
+    <row r="183" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A183" s="13"/>
       <c r="B183" s="13"/>
       <c r="C183" s="13"/>
@@ -4038,10 +4079,10 @@
       <c r="G183" s="15"/>
       <c r="H183" s="13"/>
       <c r="I183" s="13"/>
-      <c r="J183" s="27"/>
-      <c r="K183" s="27"/>
-    </row>
-    <row r="184" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="J183" s="36"/>
+      <c r="K183" s="36"/>
+    </row>
+    <row r="184" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A184" s="13"/>
       <c r="B184" s="13"/>
       <c r="C184" s="13"/>
@@ -4051,10 +4092,10 @@
       <c r="G184" s="15"/>
       <c r="H184" s="13"/>
       <c r="I184" s="13"/>
-      <c r="J184" s="27"/>
-      <c r="K184" s="27"/>
-    </row>
-    <row r="185" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="J184" s="36"/>
+      <c r="K184" s="36"/>
+    </row>
+    <row r="185" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A185" s="13"/>
       <c r="B185" s="13"/>
       <c r="C185" s="13"/>
@@ -4064,10 +4105,10 @@
       <c r="G185" s="15"/>
       <c r="H185" s="13"/>
       <c r="I185" s="13"/>
-      <c r="J185" s="27"/>
-      <c r="K185" s="27"/>
-    </row>
-    <row r="186" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="J185" s="36"/>
+      <c r="K185" s="36"/>
+    </row>
+    <row r="186" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A186" s="13"/>
       <c r="B186" s="13"/>
       <c r="C186" s="13"/>
@@ -4077,10 +4118,10 @@
       <c r="G186" s="15"/>
       <c r="H186" s="13"/>
       <c r="I186" s="13"/>
-      <c r="J186" s="27"/>
-      <c r="K186" s="27"/>
-    </row>
-    <row r="187" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="J186" s="36"/>
+      <c r="K186" s="36"/>
+    </row>
+    <row r="187" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A187" s="13"/>
       <c r="B187" s="13"/>
       <c r="C187" s="13"/>
@@ -4090,10 +4131,10 @@
       <c r="G187" s="15"/>
       <c r="H187" s="13"/>
       <c r="I187" s="13"/>
-      <c r="J187" s="27"/>
-      <c r="K187" s="27"/>
-    </row>
-    <row r="188" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="J187" s="36"/>
+      <c r="K187" s="36"/>
+    </row>
+    <row r="188" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A188" s="13"/>
       <c r="B188" s="13"/>
       <c r="C188" s="13"/>
@@ -4103,10 +4144,10 @@
       <c r="G188" s="15"/>
       <c r="H188" s="13"/>
       <c r="I188" s="13"/>
-      <c r="J188" s="27"/>
-      <c r="K188" s="27"/>
-    </row>
-    <row r="189" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="J188" s="36"/>
+      <c r="K188" s="36"/>
+    </row>
+    <row r="189" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A189" s="13"/>
       <c r="B189" s="13"/>
       <c r="C189" s="13"/>
@@ -4116,10 +4157,10 @@
       <c r="G189" s="15"/>
       <c r="H189" s="13"/>
       <c r="I189" s="13"/>
-      <c r="J189" s="27"/>
-      <c r="K189" s="27"/>
-    </row>
-    <row r="190" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="J189" s="36"/>
+      <c r="K189" s="36"/>
+    </row>
+    <row r="190" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A190" s="13"/>
       <c r="B190" s="13"/>
       <c r="C190" s="13"/>
@@ -4129,10 +4170,10 @@
       <c r="G190" s="15"/>
       <c r="H190" s="13"/>
       <c r="I190" s="13"/>
-      <c r="J190" s="27"/>
-      <c r="K190" s="27"/>
-    </row>
-    <row r="191" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="J190" s="36"/>
+      <c r="K190" s="36"/>
+    </row>
+    <row r="191" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A191" s="13"/>
       <c r="B191" s="13"/>
       <c r="C191" s="13"/>
@@ -4142,10 +4183,10 @@
       <c r="G191" s="15"/>
       <c r="H191" s="13"/>
       <c r="I191" s="13"/>
-      <c r="J191" s="27"/>
-      <c r="K191" s="27"/>
-    </row>
-    <row r="192" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="J191" s="36"/>
+      <c r="K191" s="36"/>
+    </row>
+    <row r="192" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A192" s="13"/>
       <c r="B192" s="13"/>
       <c r="C192" s="13"/>
@@ -4155,10 +4196,10 @@
       <c r="G192" s="15"/>
       <c r="H192" s="13"/>
       <c r="I192" s="13"/>
-      <c r="J192" s="27"/>
-      <c r="K192" s="27"/>
-    </row>
-    <row r="193" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="J192" s="36"/>
+      <c r="K192" s="36"/>
+    </row>
+    <row r="193" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A193" s="13"/>
       <c r="B193" s="13"/>
       <c r="C193" s="13"/>
@@ -4168,10 +4209,10 @@
       <c r="G193" s="15"/>
       <c r="H193" s="13"/>
       <c r="I193" s="13"/>
-      <c r="J193" s="27"/>
-      <c r="K193" s="27"/>
-    </row>
-    <row r="194" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="J193" s="36"/>
+      <c r="K193" s="36"/>
+    </row>
+    <row r="194" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A194" s="13"/>
       <c r="B194" s="13"/>
       <c r="C194" s="13"/>
@@ -4181,10 +4222,10 @@
       <c r="G194" s="15"/>
       <c r="H194" s="13"/>
       <c r="I194" s="13"/>
-      <c r="J194" s="27"/>
-      <c r="K194" s="27"/>
-    </row>
-    <row r="195" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="J194" s="36"/>
+      <c r="K194" s="36"/>
+    </row>
+    <row r="195" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A195" s="13"/>
       <c r="B195" s="13"/>
       <c r="C195" s="13"/>
@@ -4194,10 +4235,10 @@
       <c r="G195" s="15"/>
       <c r="H195" s="13"/>
       <c r="I195" s="13"/>
-      <c r="J195" s="27"/>
-      <c r="K195" s="27"/>
-    </row>
-    <row r="196" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="J195" s="36"/>
+      <c r="K195" s="36"/>
+    </row>
+    <row r="196" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A196" s="13"/>
       <c r="B196" s="13"/>
       <c r="C196" s="13"/>
@@ -4207,10 +4248,10 @@
       <c r="G196" s="15"/>
       <c r="H196" s="13"/>
       <c r="I196" s="13"/>
-      <c r="J196" s="27"/>
-      <c r="K196" s="27"/>
-    </row>
-    <row r="197" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="J196" s="36"/>
+      <c r="K196" s="36"/>
+    </row>
+    <row r="197" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A197" s="13"/>
       <c r="B197" s="13"/>
       <c r="C197" s="13"/>
@@ -4220,10 +4261,10 @@
       <c r="G197" s="15"/>
       <c r="H197" s="13"/>
       <c r="I197" s="13"/>
-      <c r="J197" s="27"/>
-      <c r="K197" s="27"/>
-    </row>
-    <row r="198" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="J197" s="36"/>
+      <c r="K197" s="36"/>
+    </row>
+    <row r="198" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A198" s="13"/>
       <c r="B198" s="13"/>
       <c r="C198" s="13"/>
@@ -4233,10 +4274,10 @@
       <c r="G198" s="15"/>
       <c r="H198" s="13"/>
       <c r="I198" s="13"/>
-      <c r="J198" s="27"/>
-      <c r="K198" s="27"/>
-    </row>
-    <row r="199" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="J198" s="36"/>
+      <c r="K198" s="36"/>
+    </row>
+    <row r="199" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A199" s="13"/>
       <c r="B199" s="13"/>
       <c r="C199" s="13"/>
@@ -4246,10 +4287,10 @@
       <c r="G199" s="15"/>
       <c r="H199" s="13"/>
       <c r="I199" s="13"/>
-      <c r="J199" s="27"/>
-      <c r="K199" s="27"/>
-    </row>
-    <row r="200" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="J199" s="36"/>
+      <c r="K199" s="36"/>
+    </row>
+    <row r="200" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A200" s="13"/>
       <c r="B200" s="13"/>
       <c r="C200" s="13"/>
@@ -4259,10 +4300,10 @@
       <c r="G200" s="15"/>
       <c r="H200" s="13"/>
       <c r="I200" s="13"/>
-      <c r="J200" s="27"/>
-      <c r="K200" s="27"/>
-    </row>
-    <row r="201" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="J200" s="36"/>
+      <c r="K200" s="36"/>
+    </row>
+    <row r="201" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A201" s="13"/>
       <c r="B201" s="13"/>
       <c r="C201" s="13"/>
@@ -4272,10 +4313,10 @@
       <c r="G201" s="15"/>
       <c r="H201" s="13"/>
       <c r="I201" s="13"/>
-      <c r="J201" s="27"/>
-      <c r="K201" s="27"/>
-    </row>
-    <row r="202" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="J201" s="36"/>
+      <c r="K201" s="36"/>
+    </row>
+    <row r="202" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A202" s="13"/>
       <c r="B202" s="13"/>
       <c r="C202" s="13"/>
@@ -4285,10 +4326,10 @@
       <c r="G202" s="15"/>
       <c r="H202" s="13"/>
       <c r="I202" s="13"/>
-      <c r="J202" s="27"/>
-      <c r="K202" s="27"/>
-    </row>
-    <row r="203" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="J202" s="36"/>
+      <c r="K202" s="36"/>
+    </row>
+    <row r="203" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A203" s="13"/>
       <c r="B203" s="13"/>
       <c r="C203" s="13"/>
@@ -4298,10 +4339,10 @@
       <c r="G203" s="15"/>
       <c r="H203" s="13"/>
       <c r="I203" s="13"/>
-      <c r="J203" s="27"/>
-      <c r="K203" s="27"/>
-    </row>
-    <row r="204" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="J203" s="36"/>
+      <c r="K203" s="36"/>
+    </row>
+    <row r="204" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A204" s="13"/>
       <c r="B204" s="13"/>
       <c r="C204" s="13"/>
@@ -4311,10 +4352,10 @@
       <c r="G204" s="15"/>
       <c r="H204" s="13"/>
       <c r="I204" s="13"/>
-      <c r="J204" s="27"/>
-      <c r="K204" s="27"/>
-    </row>
-    <row r="205" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="J204" s="36"/>
+      <c r="K204" s="36"/>
+    </row>
+    <row r="205" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A205" s="13"/>
       <c r="B205" s="13"/>
       <c r="C205" s="13"/>
@@ -4324,10 +4365,10 @@
       <c r="G205" s="15"/>
       <c r="H205" s="13"/>
       <c r="I205" s="13"/>
-      <c r="J205" s="27"/>
-      <c r="K205" s="27"/>
-    </row>
-    <row r="206" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="J205" s="36"/>
+      <c r="K205" s="36"/>
+    </row>
+    <row r="206" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A206" s="13"/>
       <c r="B206" s="13"/>
       <c r="C206" s="13"/>
@@ -4337,10 +4378,10 @@
       <c r="G206" s="15"/>
       <c r="H206" s="13"/>
       <c r="I206" s="13"/>
-      <c r="J206" s="27"/>
-      <c r="K206" s="27"/>
-    </row>
-    <row r="207" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="J206" s="36"/>
+      <c r="K206" s="36"/>
+    </row>
+    <row r="207" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A207" s="13"/>
       <c r="B207" s="13"/>
       <c r="C207" s="13"/>
@@ -4350,10 +4391,10 @@
       <c r="G207" s="15"/>
       <c r="H207" s="13"/>
       <c r="I207" s="13"/>
-      <c r="J207" s="27"/>
-      <c r="K207" s="27"/>
-    </row>
-    <row r="208" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="J207" s="36"/>
+      <c r="K207" s="36"/>
+    </row>
+    <row r="208" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A208" s="13"/>
       <c r="B208" s="13"/>
       <c r="C208" s="13"/>
@@ -4363,10 +4404,10 @@
       <c r="G208" s="15"/>
       <c r="H208" s="13"/>
       <c r="I208" s="13"/>
-      <c r="J208" s="27"/>
-      <c r="K208" s="27"/>
-    </row>
-    <row r="209" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="J208" s="36"/>
+      <c r="K208" s="36"/>
+    </row>
+    <row r="209" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A209" s="13"/>
       <c r="B209" s="13"/>
       <c r="C209" s="13"/>
@@ -4376,10 +4417,10 @@
       <c r="G209" s="15"/>
       <c r="H209" s="13"/>
       <c r="I209" s="13"/>
-      <c r="J209" s="27"/>
-      <c r="K209" s="27"/>
-    </row>
-    <row r="210" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="J209" s="36"/>
+      <c r="K209" s="36"/>
+    </row>
+    <row r="210" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A210" s="13"/>
       <c r="B210" s="13"/>
       <c r="C210" s="13"/>
@@ -4389,10 +4430,10 @@
       <c r="G210" s="15"/>
       <c r="H210" s="13"/>
       <c r="I210" s="13"/>
-      <c r="J210" s="27"/>
-      <c r="K210" s="27"/>
-    </row>
-    <row r="211" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="J210" s="36"/>
+      <c r="K210" s="36"/>
+    </row>
+    <row r="211" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A211" s="13"/>
       <c r="B211" s="13"/>
       <c r="C211" s="13"/>
@@ -4402,10 +4443,10 @@
       <c r="G211" s="15"/>
       <c r="H211" s="13"/>
       <c r="I211" s="13"/>
-      <c r="J211" s="27"/>
-      <c r="K211" s="27"/>
-    </row>
-    <row r="212" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="J211" s="36"/>
+      <c r="K211" s="36"/>
+    </row>
+    <row r="212" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A212" s="13"/>
       <c r="B212" s="13"/>
       <c r="C212" s="13"/>
@@ -4415,10 +4456,10 @@
       <c r="G212" s="15"/>
       <c r="H212" s="13"/>
       <c r="I212" s="13"/>
-      <c r="J212" s="27"/>
-      <c r="K212" s="27"/>
-    </row>
-    <row r="213" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="J212" s="36"/>
+      <c r="K212" s="36"/>
+    </row>
+    <row r="213" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A213" s="13"/>
       <c r="B213" s="13"/>
       <c r="C213" s="13"/>
@@ -4428,10 +4469,10 @@
       <c r="G213" s="15"/>
       <c r="H213" s="13"/>
       <c r="I213" s="13"/>
-      <c r="J213" s="27"/>
-      <c r="K213" s="27"/>
-    </row>
-    <row r="214" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="J213" s="36"/>
+      <c r="K213" s="36"/>
+    </row>
+    <row r="214" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A214" s="13"/>
       <c r="B214" s="13"/>
       <c r="C214" s="13"/>
@@ -4441,10 +4482,10 @@
       <c r="G214" s="15"/>
       <c r="H214" s="13"/>
       <c r="I214" s="13"/>
-      <c r="J214" s="27"/>
-      <c r="K214" s="27"/>
-    </row>
-    <row r="215" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="J214" s="36"/>
+      <c r="K214" s="36"/>
+    </row>
+    <row r="215" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A215" s="13"/>
       <c r="B215" s="13"/>
       <c r="C215" s="13"/>
@@ -4454,10 +4495,10 @@
       <c r="G215" s="15"/>
       <c r="H215" s="13"/>
       <c r="I215" s="13"/>
-      <c r="J215" s="27"/>
-      <c r="K215" s="27"/>
-    </row>
-    <row r="216" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="J215" s="36"/>
+      <c r="K215" s="36"/>
+    </row>
+    <row r="216" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A216" s="13"/>
       <c r="B216" s="13"/>
       <c r="C216" s="13"/>
@@ -4467,10 +4508,10 @@
       <c r="G216" s="15"/>
       <c r="H216" s="13"/>
       <c r="I216" s="13"/>
-      <c r="J216" s="27"/>
-      <c r="K216" s="27"/>
-    </row>
-    <row r="217" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="J216" s="36"/>
+      <c r="K216" s="36"/>
+    </row>
+    <row r="217" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A217" s="13"/>
       <c r="B217" s="13"/>
       <c r="C217" s="13"/>
@@ -4480,10 +4521,10 @@
       <c r="G217" s="15"/>
       <c r="H217" s="13"/>
       <c r="I217" s="13"/>
-      <c r="J217" s="27"/>
-      <c r="K217" s="27"/>
-    </row>
-    <row r="218" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="J217" s="36"/>
+      <c r="K217" s="36"/>
+    </row>
+    <row r="218" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A218" s="13"/>
       <c r="B218" s="13"/>
       <c r="C218" s="13"/>
@@ -4493,10 +4534,10 @@
       <c r="G218" s="15"/>
       <c r="H218" s="13"/>
       <c r="I218" s="13"/>
-      <c r="J218" s="27"/>
-      <c r="K218" s="27"/>
-    </row>
-    <row r="219" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="J218" s="36"/>
+      <c r="K218" s="36"/>
+    </row>
+    <row r="219" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A219" s="13"/>
       <c r="B219" s="13"/>
       <c r="C219" s="13"/>
@@ -4506,10 +4547,10 @@
       <c r="G219" s="15"/>
       <c r="H219" s="13"/>
       <c r="I219" s="13"/>
-      <c r="J219" s="27"/>
-      <c r="K219" s="27"/>
-    </row>
-    <row r="220" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="J219" s="36"/>
+      <c r="K219" s="36"/>
+    </row>
+    <row r="220" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A220" s="13"/>
       <c r="B220" s="13"/>
       <c r="C220" s="13"/>
@@ -4519,10 +4560,10 @@
       <c r="G220" s="15"/>
       <c r="H220" s="13"/>
       <c r="I220" s="13"/>
-      <c r="J220" s="27"/>
-      <c r="K220" s="27"/>
-    </row>
-    <row r="221" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="J220" s="36"/>
+      <c r="K220" s="36"/>
+    </row>
+    <row r="221" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A221" s="13"/>
       <c r="B221" s="13"/>
       <c r="C221" s="13"/>
@@ -4532,10 +4573,10 @@
       <c r="G221" s="15"/>
       <c r="H221" s="13"/>
       <c r="I221" s="13"/>
-      <c r="J221" s="27"/>
-      <c r="K221" s="27"/>
-    </row>
-    <row r="222" spans="1:11" ht="18.5" x